--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A430022F-34EC-4CD9-BC55-63AE5883D10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBBFD11-A238-4417-A902-91FBC94FA651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="172">
   <si>
     <t>patch z</t>
   </si>
@@ -375,9 +375,6 @@
     <t>This is the case. The linear relationship between VRAM usage and only the patch volume (z * y * x pixels) is very strong, i.e., p &lt; 2e-16</t>
   </si>
   <si>
-    <t>predicted VRAM usage (MiB)</t>
-  </si>
-  <si>
     <t>230905-1</t>
   </si>
   <si>
@@ -420,12 +417,6 @@
     <t>VRAM usage (MiB, converted from GiB) from cuda error messages</t>
   </si>
   <si>
-    <t>patch = arbitrary even int_2^4</t>
-  </si>
-  <si>
-    <t>stride = foor (resolution - patch) / 3</t>
-  </si>
-  <si>
     <t>230905-2</t>
   </si>
   <si>
@@ -435,9 +426,6 @@
     <t>no, more VRAM required than expected, i.e., predicted</t>
   </si>
   <si>
-    <t>expect VRAM ~ patch volume + overhead (few GiBs)</t>
-  </si>
-  <si>
     <t>val eval score increasing</t>
   </si>
   <si>
@@ -447,18 +435,12 @@
     <t>train loss decreasing</t>
   </si>
   <si>
-    <t>230905-0 to 230905-2</t>
-  </si>
-  <si>
     <t>valid VRAM prediction observation</t>
   </si>
   <si>
     <t>TBD</t>
   </si>
   <si>
-    <t>I expect the performance metrics to improve somewhat, compared to dataset02 (8 bit per raw channel, patches without labels), namely: decreasing train loss, slightly decreasing learning rate, but not all the way, no noteworthy increase in val eval score, and I expect the patches to contain the heart labels, given that the patch size is rather large (most of an image inside a patch). These expectations apply to the last of these sessions, 230905-2.</t>
-  </si>
-  <si>
     <t>type of session</t>
   </si>
   <si>
@@ -474,9 +456,6 @@
     <t>Test VRAM prediction</t>
   </si>
   <si>
-    <t>Test VRAM prediction, etter performance metrics</t>
-  </si>
-  <si>
     <t>Fit VRAM on A100 to get better performance metrics</t>
   </si>
   <si>
@@ -532,6 +511,48 @@
   </si>
   <si>
     <t>test session successful; Secondary reasons: constant loss &amp; evaluation score curves, because patches contained no labels</t>
+  </si>
+  <si>
+    <t>train eval score increasing</t>
+  </si>
+  <si>
+    <t>better performance metrics. VRAM usage as expected (as predicted + little overhead). Train loss is steadily decreasing (the most stable decrease of all previous trainings). The patches contain the hearts and thus also the heart labels. No validation data yet, no eval loss, no eval score, because no validations took place yet because I set the hyper parameter for validation frequency too high (resulting in too low val frequency).</t>
+  </si>
+  <si>
+    <t>expect VRAM ~ patch volume + overhead (few GiBs). I expect the performance metrics to improve somewhat, compared to dataset02 (8 bit per raw channel, patches without labels), namely: decreasing train loss, slightly decreasing learning rate, but not all the way, no noteworthy increase in val eval score, and I expect the patches to contain the heart labels, given that the patch size is rather large (most of an image inside a patch).</t>
+  </si>
+  <si>
+    <t>230906-0</t>
+  </si>
+  <si>
+    <t>Test VRAM prediction, better performance metrics</t>
+  </si>
+  <si>
+    <t>increase val frequency to achieve good val eval score, extend training time to finish training</t>
+  </si>
+  <si>
+    <t>expect val eval score to increase more than the previous best training on single channel data, given the promising train loss and train eval curves of the previous training (230905-2)</t>
+  </si>
+  <si>
+    <t>230906-1</t>
+  </si>
+  <si>
+    <t>In the cloud README, I wrote that train3dunet produces tensorboard logs on its own, or at least implied it. So I expect there to be tensorboard logs, at the latest when I abort the process after an hour (when train3dunet had plenty of time to go through some iterations) or so.</t>
+  </si>
+  <si>
+    <t>predicted VRAM usage (MiB) (using my best prediction model at the time)</t>
+  </si>
+  <si>
+    <t>error boolean</t>
+  </si>
+  <si>
+    <t>error message</t>
+  </si>
+  <si>
+    <t>Find out whether train3dunet produces tensorboard logs without preceding tensorboard command. Are the logs still there after aborting the train3dunet process?</t>
+  </si>
+  <si>
+    <t>Yes, the logs are still there after train3dunet abortion, and yes, train3dunet produces tensorboard logs without preceding tensorboard command.</t>
   </si>
 </sst>
 </file>
@@ -569,7 +590,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -657,11 +678,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -681,7 +713,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -996,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
-  <dimension ref="A1:AV30"/>
+  <dimension ref="A1:AX31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AT3" sqref="AT3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB31" sqref="AB31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1010,49 +1043,51 @@
     <col min="4" max="4" width="35.85546875" customWidth="1"/>
     <col min="5" max="5" width="55.28515625" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="10"/>
-    <col min="7" max="7" width="9.7109375" style="15" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="15" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="6.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="21" width="5.140625" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="5.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="8.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="5.140625" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="7" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="9.140625" style="10" customWidth="1"/>
-    <col min="27" max="29" width="9.140625" customWidth="1"/>
-    <col min="30" max="30" width="7.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="32" width="7.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="23.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.28515625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="6.140625" customWidth="1"/>
-    <col min="39" max="40" width="5" customWidth="1"/>
-    <col min="41" max="41" width="6.140625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="6.5703125" customWidth="1"/>
-    <col min="43" max="43" width="5" customWidth="1"/>
-    <col min="44" max="44" width="6" customWidth="1"/>
-    <col min="45" max="45" width="34.28515625" style="10" customWidth="1"/>
-    <col min="46" max="46" width="74.42578125" customWidth="1"/>
-    <col min="47" max="47" width="73.85546875" customWidth="1"/>
-    <col min="48" max="48" width="206" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.7109375" customWidth="1"/>
-    <col min="53" max="53" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="9.140625" collapsed="1"/>
+    <col min="19" max="19" width="6.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="22" width="5.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="5.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="8.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="5.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="9.140625" style="10" customWidth="1" collapsed="1"/>
+    <col min="28" max="30" width="9.140625" customWidth="1"/>
+    <col min="31" max="31" width="7.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="33" width="7.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="23.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="6" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.28515625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="6.140625" customWidth="1"/>
+    <col min="40" max="41" width="5" customWidth="1"/>
+    <col min="42" max="42" width="6.140625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="6.5703125" customWidth="1"/>
+    <col min="44" max="44" width="5" customWidth="1"/>
+    <col min="45" max="45" width="6" customWidth="1"/>
+    <col min="46" max="46" width="34.28515625" style="10" customWidth="1"/>
+    <col min="47" max="47" width="74.42578125" customWidth="1"/>
+    <col min="48" max="48" width="5.140625" customWidth="1"/>
+    <col min="49" max="49" width="73.85546875" customWidth="1"/>
+    <col min="50" max="50" width="206" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.7109375" customWidth="1"/>
+    <col min="55" max="55" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>59</v>
@@ -1067,436 +1102,454 @@
         <v>77</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="O1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE1" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>121</v>
       </c>
       <c r="AG1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AK1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>1</v>
+      <c r="AL1" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="AM1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AT1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AU1" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="AV1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AX1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>117</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>3</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>16</v>
+      </c>
+      <c r="X2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y2">
+        <v>8</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI2" s="10">
+        <v>125</v>
+      </c>
+      <c r="AJ2">
+        <v>1169</v>
+      </c>
+      <c r="AK2">
+        <v>414</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT2" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>141</v>
       </c>
-      <c r="C2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0</v>
-      </c>
-      <c r="G2" s="15">
-        <v>0</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="15">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>160</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M3" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" t="s">
+        <v>133</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="P2">
+      <c r="Q3">
         <v>5</v>
       </c>
-      <c r="Q2" t="s">
-        <v>118</v>
-      </c>
-      <c r="R2">
+      <c r="R3" t="s">
+        <v>117</v>
+      </c>
+      <c r="S3">
         <v>3</v>
       </c>
-      <c r="S2">
+      <c r="T3">
         <v>2</v>
       </c>
-      <c r="T2">
+      <c r="U3">
         <v>3</v>
       </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
         <v>16</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X3" t="s">
         <v>102</v>
       </c>
-      <c r="X2">
-        <v>8</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="Y3">
+        <v>8</v>
+      </c>
+      <c r="Z3" t="s">
         <v>104</v>
       </c>
-      <c r="Z2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG2" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AH2" s="10">
+      <c r="AA3" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI3" s="10">
         <v>125</v>
       </c>
-      <c r="AI2">
+      <c r="AJ3">
         <v>1169</v>
       </c>
-      <c r="AJ2">
+      <c r="AK3">
         <v>414</v>
       </c>
-      <c r="AK2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AP2" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AQ2" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AR2" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AS2" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="AT2" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AV2" t="s">
+      <c r="AL3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT3" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="15">
-        <v>0</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="15">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>164</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P3">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>118</v>
-      </c>
-      <c r="R3">
-        <v>3</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-      <c r="T3">
-        <v>3</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>16</v>
-      </c>
-      <c r="W3" t="s">
-        <v>102</v>
-      </c>
-      <c r="X3">
-        <v>8</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG3" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AH3" s="10">
-        <v>125</v>
-      </c>
-      <c r="AI3">
-        <v>1169</v>
-      </c>
-      <c r="AJ3">
-        <v>414</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AP3" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AQ3" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AR3" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AS3" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="AT3" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:48" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>87</v>
@@ -1516,130 +1569,136 @@
       <c r="J4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="12">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12">
-        <v>0</v>
-      </c>
-      <c r="O4" s="14" t="s">
+      <c r="K4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="12">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="P4" s="12">
-        <v>5</v>
       </c>
       <c r="Q4" s="12">
         <v>5</v>
       </c>
       <c r="R4" s="12">
+        <v>5</v>
+      </c>
+      <c r="S4" s="12">
         <v>3</v>
       </c>
-      <c r="S4" s="12">
+      <c r="T4" s="12">
         <v>2</v>
       </c>
-      <c r="T4" s="12">
+      <c r="U4" s="12">
         <v>3</v>
       </c>
-      <c r="U4" s="12">
-        <v>1</v>
-      </c>
       <c r="V4" s="12">
+        <v>1</v>
+      </c>
+      <c r="W4" s="12">
         <v>16</v>
       </c>
-      <c r="W4" s="12" t="s">
+      <c r="X4" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="X4" s="12">
-        <v>8</v>
-      </c>
-      <c r="Y4" s="12" t="s">
+      <c r="Y4" s="12">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="Z4" s="13" t="s">
+      <c r="AA4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AA4" s="12" t="s">
-        <v>8</v>
-      </c>
       <c r="AB4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="AC4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AD4" s="14">
+      <c r="AD4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE4" s="14">
         <v>32768</v>
       </c>
-      <c r="AE4" s="12" t="s">
-        <v>8</v>
-      </c>
       <c r="AF4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="AG4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AH4" s="13">
+      <c r="AI4" s="13">
         <v>125</v>
       </c>
-      <c r="AI4" s="12">
+      <c r="AJ4" s="12">
         <v>1169</v>
       </c>
-      <c r="AJ4" s="12">
+      <c r="AK4" s="12">
         <v>414</v>
       </c>
-      <c r="AK4" s="14">
+      <c r="AL4" s="14">
         <v>105</v>
       </c>
-      <c r="AL4" s="12">
+      <c r="AM4" s="12">
         <v>1149</v>
       </c>
-      <c r="AM4" s="12">
+      <c r="AN4" s="12">
         <v>394</v>
       </c>
-      <c r="AN4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO4" s="14">
-        <v>10</v>
-      </c>
-      <c r="AP4" s="12">
+      <c r="AO4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP4" s="14">
         <v>10</v>
       </c>
       <c r="AQ4" s="12">
         <v>10</v>
       </c>
-      <c r="AR4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS4" s="13" t="s">
+      <c r="AR4" s="12">
+        <v>10</v>
+      </c>
+      <c r="AS4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AT4" s="12" t="s">
+      <c r="AU4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AU4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV4" s="12" t="s">
+      <c r="AV4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX4" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
         <v>106</v>
@@ -1650,139 +1709,145 @@
       <c r="F5" s="10">
         <v>0</v>
       </c>
-      <c r="G5" s="16">
-        <v>1</v>
-      </c>
-      <c r="H5" s="16" t="s">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="16">
-        <v>0</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>5</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>10</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>3</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>2</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>3</v>
       </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
       <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
         <v>16</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>102</v>
       </c>
-      <c r="X5">
-        <v>8</v>
-      </c>
-      <c r="Y5" t="s">
+      <c r="Y5">
+        <v>8</v>
+      </c>
+      <c r="Z5" t="s">
         <v>104</v>
       </c>
-      <c r="Z5" s="10" t="s">
+      <c r="AA5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AA5" t="s">
-        <v>8</v>
-      </c>
       <c r="AB5" t="s">
         <v>8</v>
       </c>
       <c r="AC5" t="s">
         <v>8</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AD5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE5" s="1">
         <v>32768</v>
       </c>
-      <c r="AE5" t="s">
-        <v>8</v>
-      </c>
       <c r="AF5" t="s">
         <v>8</v>
       </c>
       <c r="AG5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH5" t="s">
         <v>35</v>
       </c>
-      <c r="AH5" s="10">
+      <c r="AI5" s="10">
         <v>125</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>1169</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>414</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AL5" s="1">
         <v>100</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>1100</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>390</v>
       </c>
-      <c r="AN5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>10</v>
-      </c>
-      <c r="AP5">
+      <c r="AO5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP5" s="1">
         <v>10</v>
       </c>
       <c r="AQ5">
         <v>10</v>
       </c>
-      <c r="AR5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS5" s="10" t="s">
+      <c r="AR5">
+        <v>10</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AU5" t="s">
         <v>16</v>
       </c>
-      <c r="AU5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV5" t="s">
+      <c r="AV5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
         <v>89</v>
@@ -1796,67 +1861,67 @@
       <c r="F6" s="10">
         <v>0</v>
       </c>
-      <c r="G6" s="16">
-        <v>1</v>
-      </c>
-      <c r="H6" s="16" t="s">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="16">
-        <v>0</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>5</v>
       </c>
-      <c r="Q6" t="s">
-        <v>8</v>
-      </c>
-      <c r="R6">
+      <c r="R6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6">
         <v>3</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>2</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>3</v>
       </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
       <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
         <v>16</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>102</v>
       </c>
-      <c r="X6">
-        <v>8</v>
-      </c>
-      <c r="Y6" t="s">
+      <c r="Y6">
+        <v>8</v>
+      </c>
+      <c r="Z6" t="s">
         <v>104</v>
       </c>
-      <c r="Z6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA6" t="s">
+      <c r="AA6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AB6" t="s">
@@ -1865,70 +1930,76 @@
       <c r="AC6" t="s">
         <v>8</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AD6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE6" s="1">
         <v>32768</v>
       </c>
-      <c r="AE6" t="s">
-        <v>8</v>
-      </c>
       <c r="AF6" t="s">
         <v>8</v>
       </c>
       <c r="AG6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH6" t="s">
         <v>35</v>
       </c>
-      <c r="AH6" s="10">
+      <c r="AI6" s="10">
         <v>125</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>1169</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>414</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AL6" s="1">
         <v>100</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>1100</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>390</v>
       </c>
-      <c r="AN6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO6" s="1">
+      <c r="AO6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP6" s="1">
         <v>26</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>70</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>25</v>
       </c>
-      <c r="AR6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS6" s="10" t="s">
+      <c r="AS6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AU6" t="s">
         <v>10</v>
       </c>
-      <c r="AU6" t="s">
+      <c r="AV6" s="16">
+        <v>1</v>
+      </c>
+      <c r="AW6" t="s">
         <v>15</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AX6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
         <v>90</v>
@@ -1942,67 +2013,67 @@
       <c r="F7" s="10">
         <v>0</v>
       </c>
-      <c r="G7" s="16">
-        <v>1</v>
-      </c>
-      <c r="H7" s="16" t="s">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="16">
-        <v>0</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1" t="s">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>5</v>
       </c>
-      <c r="Q7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R7">
+      <c r="R7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S7">
         <v>3</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>2</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>3</v>
       </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
       <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
         <v>16</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>102</v>
       </c>
-      <c r="X7">
-        <v>8</v>
-      </c>
-      <c r="Y7" t="s">
+      <c r="Y7">
+        <v>8</v>
+      </c>
+      <c r="Z7" t="s">
         <v>104</v>
       </c>
-      <c r="Z7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA7" t="s">
+      <c r="AA7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AB7" t="s">
@@ -2011,70 +2082,76 @@
       <c r="AC7" t="s">
         <v>8</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AD7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE7" s="1">
         <v>32768</v>
       </c>
-      <c r="AE7" t="s">
-        <v>8</v>
-      </c>
       <c r="AF7" t="s">
         <v>8</v>
       </c>
       <c r="AG7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH7" t="s">
         <v>35</v>
       </c>
-      <c r="AH7" s="10">
+      <c r="AI7" s="10">
         <v>125</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>1169</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>414</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AL7" s="1">
         <v>100</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>1100</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>390</v>
       </c>
-      <c r="AN7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO7" s="1">
+      <c r="AO7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP7" s="1">
         <v>25</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <v>69</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>24</v>
       </c>
-      <c r="AR7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS7" s="10" t="s">
+      <c r="AS7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AU7" t="s">
         <v>9</v>
       </c>
-      <c r="AU7" t="s">
+      <c r="AV7" s="16">
+        <v>1</v>
+      </c>
+      <c r="AW7" t="s">
         <v>15</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AX7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
         <v>93</v>
@@ -2088,142 +2165,148 @@
       <c r="F8" s="10">
         <v>0</v>
       </c>
-      <c r="G8" s="16">
-        <v>1</v>
-      </c>
-      <c r="H8" s="16" t="s">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="16">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1" t="s">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="P8">
-        <v>5</v>
       </c>
       <c r="Q8">
         <v>5</v>
       </c>
       <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8">
         <v>3</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>2</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>3</v>
       </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
       <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
         <v>16</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>102</v>
       </c>
-      <c r="X8">
-        <v>8</v>
-      </c>
-      <c r="Y8" t="s">
+      <c r="Y8">
+        <v>8</v>
+      </c>
+      <c r="Z8" t="s">
         <v>104</v>
       </c>
-      <c r="Z8" s="10" t="s">
+      <c r="AA8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AA8" t="s">
-        <v>8</v>
-      </c>
       <c r="AB8" t="s">
         <v>8</v>
       </c>
       <c r="AC8" t="s">
         <v>8</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AD8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE8" s="1">
         <v>32768</v>
       </c>
-      <c r="AE8" t="s">
-        <v>8</v>
-      </c>
       <c r="AF8" t="s">
         <v>8</v>
       </c>
       <c r="AG8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH8" t="s">
         <v>35</v>
       </c>
-      <c r="AH8" s="10">
+      <c r="AI8" s="10">
         <v>125</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>1169</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>414</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AL8" s="1">
         <v>101</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>1009</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>400</v>
       </c>
-      <c r="AN8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO8" s="1">
+      <c r="AO8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP8" s="1">
         <v>12</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <v>90</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>7</v>
       </c>
-      <c r="AR8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS8" s="10" t="s">
+      <c r="AS8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AU8" t="s">
         <v>16</v>
       </c>
-      <c r="AU8" t="s">
+      <c r="AV8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AW8" t="s">
         <v>22</v>
       </c>
-      <c r="AV8" t="s">
+      <c r="AX8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
@@ -2234,67 +2317,67 @@
       <c r="F9" s="10">
         <v>0</v>
       </c>
-      <c r="G9" s="16">
-        <v>1</v>
-      </c>
-      <c r="H9" s="16" t="s">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="16">
-        <v>0</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1" t="s">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="P9">
-        <v>5</v>
       </c>
       <c r="Q9">
         <v>5</v>
       </c>
       <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9">
         <v>3</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>2</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>3</v>
       </c>
-      <c r="U9">
-        <v>1</v>
-      </c>
       <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
         <v>16</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>102</v>
       </c>
-      <c r="X9">
-        <v>8</v>
-      </c>
-      <c r="Y9" t="s">
+      <c r="Y9">
+        <v>8</v>
+      </c>
+      <c r="Z9" t="s">
         <v>104</v>
       </c>
-      <c r="Z9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA9" t="s">
+      <c r="AA9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AB9" t="s">
@@ -2303,76 +2386,82 @@
       <c r="AC9" t="s">
         <v>8</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AD9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE9" s="1">
         <v>32768</v>
       </c>
-      <c r="AE9" t="s">
-        <v>8</v>
-      </c>
       <c r="AF9" t="s">
         <v>8</v>
       </c>
       <c r="AG9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH9" t="s">
         <v>35</v>
       </c>
-      <c r="AH9" s="10">
+      <c r="AI9" s="10">
         <v>125</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>1169</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>414</v>
       </c>
-      <c r="AK9" s="1">
-        <f>AH9-50</f>
+      <c r="AL9" s="1">
+        <f>AI9-50</f>
         <v>75</v>
       </c>
-      <c r="AL9">
-        <f>AI9-240</f>
+      <c r="AM9">
+        <f>AJ9-240</f>
         <v>929</v>
       </c>
-      <c r="AM9">
-        <f>AJ9-110</f>
+      <c r="AN9">
+        <f>AK9-110</f>
         <v>304</v>
       </c>
-      <c r="AN9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO9" s="1">
-        <f>(AH9-AK9)/2</f>
+      <c r="AO9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP9" s="1">
+        <f>(AI9-AL9)/2</f>
         <v>25</v>
-      </c>
-      <c r="AP9">
-        <f>(AI9-AL9)/2</f>
-        <v>120</v>
       </c>
       <c r="AQ9">
         <f>(AJ9-AM9)/2</f>
+        <v>120</v>
+      </c>
+      <c r="AR9">
+        <f>(AK9-AN9)/2</f>
         <v>55</v>
       </c>
-      <c r="AR9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS9" s="10" t="s">
+      <c r="AS9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AT9" t="s">
+      <c r="AU9" t="s">
         <v>16</v>
       </c>
-      <c r="AU9" t="s">
+      <c r="AV9" s="16">
+        <v>1</v>
+      </c>
+      <c r="AW9" t="s">
         <v>26</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AX9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
         <v>95</v>
@@ -2386,67 +2475,67 @@
       <c r="F10" s="10">
         <v>0</v>
       </c>
-      <c r="G10" s="16">
-        <v>1</v>
-      </c>
-      <c r="H10" s="16" t="s">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="16">
-        <v>0</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1" t="s">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="P10">
-        <v>5</v>
       </c>
       <c r="Q10">
         <v>5</v>
       </c>
       <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10">
         <v>3</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>2</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>3</v>
       </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
       <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
         <v>16</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>102</v>
       </c>
-      <c r="X10">
-        <v>8</v>
-      </c>
-      <c r="Y10" t="s">
+      <c r="Y10">
+        <v>8</v>
+      </c>
+      <c r="Z10" t="s">
         <v>104</v>
       </c>
-      <c r="Z10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA10" t="s">
+      <c r="AA10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AB10" t="s">
@@ -2455,70 +2544,76 @@
       <c r="AC10" t="s">
         <v>8</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AD10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE10" s="1">
         <v>32768</v>
       </c>
-      <c r="AE10" t="s">
-        <v>8</v>
-      </c>
       <c r="AF10" t="s">
         <v>8</v>
       </c>
       <c r="AG10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH10" t="s">
         <v>35</v>
       </c>
-      <c r="AH10" s="10">
+      <c r="AI10" s="10">
         <v>125</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>1169</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>414</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="AL10" s="1">
         <v>72</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>928</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>304</v>
       </c>
-      <c r="AN10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO10" s="1">
+      <c r="AO10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP10" s="1">
         <v>24</v>
       </c>
-      <c r="AP10">
+      <c r="AQ10">
         <v>120</v>
       </c>
-      <c r="AQ10">
+      <c r="AR10">
         <v>48</v>
       </c>
-      <c r="AR10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS10" s="10" t="s">
+      <c r="AS10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AT10" t="s">
+      <c r="AU10" t="s">
         <v>76</v>
       </c>
-      <c r="AU10" t="s">
+      <c r="AV10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AW10" t="s">
         <v>26</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AX10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
         <v>100</v>
@@ -2532,139 +2627,145 @@
       <c r="F11" s="10">
         <v>0</v>
       </c>
-      <c r="G11" s="16">
-        <v>1</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="16">
-        <v>0</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1" t="s">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="P11">
-        <v>5</v>
       </c>
       <c r="Q11">
         <v>5</v>
       </c>
       <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
         <v>3</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>2</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>3</v>
       </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
       <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
         <v>16</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>102</v>
       </c>
-      <c r="X11">
-        <v>8</v>
-      </c>
-      <c r="Y11" t="s">
+      <c r="Y11">
+        <v>8</v>
+      </c>
+      <c r="Z11" t="s">
         <v>104</v>
       </c>
-      <c r="Z11" s="10" t="s">
+      <c r="AA11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AA11" t="s">
-        <v>8</v>
-      </c>
       <c r="AB11" t="s">
         <v>8</v>
       </c>
       <c r="AC11" t="s">
         <v>8</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AD11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE11" s="1">
         <v>32768</v>
       </c>
-      <c r="AE11" t="s">
-        <v>8</v>
-      </c>
       <c r="AF11" t="s">
         <v>8</v>
       </c>
       <c r="AG11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH11" t="s">
         <v>35</v>
       </c>
-      <c r="AH11" s="10">
+      <c r="AI11" s="10">
         <v>125</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>1169</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>414</v>
       </c>
-      <c r="AK11" s="1">
+      <c r="AL11" s="1">
         <v>64</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>928</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>304</v>
       </c>
-      <c r="AN11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO11" s="1">
+      <c r="AO11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP11" s="1">
         <v>24</v>
       </c>
-      <c r="AP11">
+      <c r="AQ11">
         <v>120</v>
       </c>
-      <c r="AQ11">
+      <c r="AR11">
         <v>40</v>
       </c>
-      <c r="AR11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS11" s="10" t="s">
+      <c r="AS11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AT11" t="s">
+      <c r="AU11" t="s">
         <v>31</v>
       </c>
-      <c r="AU11" t="s">
+      <c r="AV11" s="16">
+        <v>1</v>
+      </c>
+      <c r="AW11" t="s">
         <v>32</v>
       </c>
-      <c r="AV11" s="3" t="s">
+      <c r="AX11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
         <v>101</v>
@@ -2678,17 +2779,17 @@
       <c r="F12" s="10">
         <v>0</v>
       </c>
-      <c r="G12" s="16">
-        <v>0</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="16">
-        <v>1</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>163</v>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>156</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -2696,121 +2797,127 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="16">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="P12">
-        <v>5</v>
       </c>
       <c r="Q12">
         <v>5</v>
       </c>
       <c r="R12">
+        <v>5</v>
+      </c>
+      <c r="S12">
         <v>3</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>2</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>3</v>
       </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
       <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
         <v>16</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>102</v>
       </c>
-      <c r="X12">
-        <v>8</v>
-      </c>
-      <c r="Y12" t="s">
+      <c r="Y12">
+        <v>8</v>
+      </c>
+      <c r="Z12" t="s">
         <v>104</v>
       </c>
-      <c r="Z12" s="10">
+      <c r="AA12" s="10">
         <v>10135</v>
       </c>
-      <c r="AA12" t="s">
-        <v>8</v>
-      </c>
       <c r="AB12" t="s">
         <v>8</v>
       </c>
       <c r="AC12" t="s">
         <v>8</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AD12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="1">
         <v>32768</v>
       </c>
-      <c r="AE12" t="s">
-        <v>8</v>
-      </c>
       <c r="AF12" t="s">
         <v>8</v>
       </c>
       <c r="AG12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH12" t="s">
         <v>35</v>
       </c>
-      <c r="AH12" s="10">
+      <c r="AI12" s="10">
         <v>125</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>1169</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>414</v>
       </c>
-      <c r="AK12" s="1">
+      <c r="AL12" s="1">
         <v>64</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>400</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>160</v>
       </c>
-      <c r="AN12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO12" s="1">
+      <c r="AO12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP12" s="1">
         <v>24</v>
       </c>
-      <c r="AP12">
+      <c r="AQ12">
         <v>376</v>
       </c>
-      <c r="AQ12">
+      <c r="AR12">
         <v>120</v>
       </c>
-      <c r="AR12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS12" s="10" t="s">
+      <c r="AS12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AT12" t="s">
+      <c r="AU12" t="s">
         <v>31</v>
       </c>
-      <c r="AU12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV12" t="s">
+      <c r="AV12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
         <v>42</v>
@@ -2824,67 +2931,67 @@
       <c r="F13" s="10">
         <v>0</v>
       </c>
-      <c r="G13" s="16">
-        <v>1</v>
-      </c>
-      <c r="H13" s="16" t="s">
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="16">
-        <v>0</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1" t="s">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="P13">
-        <v>5</v>
       </c>
       <c r="Q13">
         <v>5</v>
       </c>
       <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13">
         <v>3</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>2</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>3</v>
       </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
       <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
         <v>16</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>102</v>
       </c>
-      <c r="X13">
-        <v>8</v>
-      </c>
-      <c r="Y13" t="s">
+      <c r="Y13">
+        <v>8</v>
+      </c>
+      <c r="Z13" t="s">
         <v>104</v>
       </c>
-      <c r="Z13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA13" t="s">
+      <c r="AA13" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AB13" t="s">
@@ -2893,70 +3000,76 @@
       <c r="AC13" t="s">
         <v>8</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AD13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE13" s="1">
         <v>32768</v>
       </c>
-      <c r="AE13" t="s">
-        <v>8</v>
-      </c>
       <c r="AF13" t="s">
         <v>8</v>
       </c>
       <c r="AG13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH13" t="s">
         <v>35</v>
       </c>
-      <c r="AH13" s="10">
+      <c r="AI13" s="10">
         <v>125</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>1169</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>414</v>
       </c>
-      <c r="AK13" s="1">
+      <c r="AL13" s="1">
         <v>72</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>408</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>168</v>
       </c>
-      <c r="AN13" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO13" s="1">
+      <c r="AO13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP13" s="1">
         <v>24</v>
       </c>
-      <c r="AP13">
+      <c r="AQ13">
         <v>376</v>
       </c>
-      <c r="AQ13">
+      <c r="AR13">
         <v>120</v>
       </c>
-      <c r="AR13" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS13" s="10" t="s">
+      <c r="AS13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AT13" t="s">
+      <c r="AU13" t="s">
         <v>31</v>
       </c>
-      <c r="AU13" t="s">
+      <c r="AV13" s="16">
+        <v>1</v>
+      </c>
+      <c r="AW13" t="s">
         <v>41</v>
       </c>
-      <c r="AV13" t="s">
+      <c r="AX13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
         <v>43</v>
@@ -2970,67 +3083,67 @@
       <c r="F14" s="10">
         <v>0</v>
       </c>
-      <c r="G14" s="16">
-        <v>1</v>
-      </c>
-      <c r="H14" s="16" t="s">
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="16">
-        <v>0</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1" t="s">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="P14">
-        <v>5</v>
       </c>
       <c r="Q14">
         <v>5</v>
       </c>
       <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14">
         <v>3</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>2</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>3</v>
       </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
       <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
         <v>16</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>102</v>
       </c>
-      <c r="X14">
-        <v>8</v>
-      </c>
-      <c r="Y14" t="s">
+      <c r="Y14">
+        <v>8</v>
+      </c>
+      <c r="Z14" t="s">
         <v>104</v>
       </c>
-      <c r="Z14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA14" t="s">
+      <c r="AA14" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AB14" t="s">
@@ -3039,70 +3152,76 @@
       <c r="AC14" t="s">
         <v>8</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AD14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE14" s="1">
         <v>32768</v>
       </c>
-      <c r="AE14" t="s">
-        <v>8</v>
-      </c>
       <c r="AF14" t="s">
         <v>8</v>
       </c>
       <c r="AG14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH14" t="s">
         <v>35</v>
       </c>
-      <c r="AH14" s="10">
+      <c r="AI14" s="10">
         <v>125</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>1169</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>414</v>
       </c>
-      <c r="AK14" s="1">
+      <c r="AL14" s="1">
         <v>72</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>408</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>168</v>
       </c>
-      <c r="AN14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO14" s="1">
+      <c r="AO14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP14" s="1">
         <v>16</v>
       </c>
-      <c r="AP14">
+      <c r="AQ14">
         <v>368</v>
       </c>
-      <c r="AQ14">
+      <c r="AR14">
         <v>112</v>
       </c>
-      <c r="AR14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS14" s="10" t="s">
+      <c r="AS14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AT14" t="s">
+      <c r="AU14" t="s">
         <v>49</v>
       </c>
-      <c r="AU14" t="s">
+      <c r="AV14" s="16">
+        <v>1</v>
+      </c>
+      <c r="AW14" t="s">
         <v>41</v>
       </c>
-      <c r="AV14" t="s">
+      <c r="AX14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s">
         <v>44</v>
@@ -3116,17 +3235,17 @@
       <c r="F15" s="10">
         <v>0</v>
       </c>
-      <c r="G15" s="16">
-        <v>0</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="16">
-        <v>1</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>163</v>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>156</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -3134,121 +3253,127 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="16">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="P15">
-        <v>5</v>
       </c>
       <c r="Q15">
         <v>5</v>
       </c>
       <c r="R15">
+        <v>5</v>
+      </c>
+      <c r="S15">
         <v>3</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>2</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>3</v>
       </c>
-      <c r="U15">
-        <v>1</v>
-      </c>
       <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
         <v>16</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>102</v>
       </c>
-      <c r="X15">
-        <v>8</v>
-      </c>
-      <c r="Y15" t="s">
+      <c r="Y15">
+        <v>8</v>
+      </c>
+      <c r="Z15" t="s">
         <v>104</v>
       </c>
-      <c r="Z15" s="10">
+      <c r="AA15" s="10">
         <v>13843</v>
       </c>
-      <c r="AA15" t="s">
-        <v>8</v>
-      </c>
       <c r="AB15" t="s">
         <v>8</v>
       </c>
       <c r="AC15" t="s">
         <v>8</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AD15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE15" s="1">
         <v>32768</v>
       </c>
-      <c r="AE15" t="s">
-        <v>8</v>
-      </c>
       <c r="AF15" t="s">
         <v>8</v>
       </c>
       <c r="AG15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH15" t="s">
         <v>35</v>
       </c>
-      <c r="AH15" s="10">
+      <c r="AI15" s="10">
         <v>125</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>1169</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>414</v>
       </c>
-      <c r="AK15" s="1">
+      <c r="AL15" s="1">
         <v>80</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>416</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>176</v>
       </c>
-      <c r="AN15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO15" s="1">
-        <v>8</v>
-      </c>
-      <c r="AP15">
+      <c r="AO15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>8</v>
+      </c>
+      <c r="AQ15">
         <v>376</v>
       </c>
-      <c r="AQ15">
+      <c r="AR15">
         <v>104</v>
       </c>
-      <c r="AR15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS15" s="10" t="s">
+      <c r="AS15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AT15" t="s">
+      <c r="AU15" t="s">
         <v>31</v>
       </c>
-      <c r="AU15" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV15" t="s">
+      <c r="AV15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:48" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>45</v>
@@ -3271,8 +3396,8 @@
       <c r="I16" s="7">
         <v>1</v>
       </c>
-      <c r="J16" s="17" t="s">
-        <v>163</v>
+      <c r="J16" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="K16" s="7">
         <v>0</v>
@@ -3284,117 +3409,123 @@
         <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>1</v>
-      </c>
-      <c r="O16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>1</v>
+      </c>
+      <c r="P16" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="P16" s="7">
-        <v>5</v>
       </c>
       <c r="Q16" s="7">
         <v>5</v>
       </c>
       <c r="R16" s="7">
+        <v>5</v>
+      </c>
+      <c r="S16" s="7">
         <v>3</v>
       </c>
-      <c r="S16" s="7">
+      <c r="T16" s="7">
         <v>2</v>
       </c>
-      <c r="T16" s="7">
+      <c r="U16" s="7">
         <v>3</v>
       </c>
-      <c r="U16" s="7">
-        <v>1</v>
-      </c>
       <c r="V16" s="7">
+        <v>1</v>
+      </c>
+      <c r="W16" s="7">
         <v>16</v>
       </c>
-      <c r="W16" s="7" t="s">
+      <c r="X16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="X16" s="7">
-        <v>8</v>
-      </c>
-      <c r="Y16" s="7" t="s">
+      <c r="Y16" s="7">
+        <v>8</v>
+      </c>
+      <c r="Z16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="Z16" s="11">
+      <c r="AA16" s="11">
         <v>13843</v>
       </c>
-      <c r="AA16" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="AB16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="AC16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AD16" s="8">
+      <c r="AD16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE16" s="8">
         <v>32768</v>
       </c>
-      <c r="AE16" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="AF16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="AG16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AH16" s="11">
+      <c r="AI16" s="11">
         <v>125</v>
       </c>
-      <c r="AI16" s="7">
+      <c r="AJ16" s="7">
         <v>1169</v>
       </c>
-      <c r="AJ16" s="7">
+      <c r="AK16" s="7">
         <v>414</v>
       </c>
-      <c r="AK16" s="8">
+      <c r="AL16" s="8">
         <v>80</v>
       </c>
-      <c r="AL16" s="7">
+      <c r="AM16" s="7">
         <v>416</v>
       </c>
-      <c r="AM16" s="7">
+      <c r="AN16" s="7">
         <v>176</v>
       </c>
-      <c r="AN16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO16" s="8">
+      <c r="AO16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP16" s="8">
         <v>16</v>
       </c>
-      <c r="AP16" s="7">
+      <c r="AQ16" s="7">
         <v>368</v>
       </c>
-      <c r="AQ16" s="7">
+      <c r="AR16" s="7">
         <v>112</v>
       </c>
-      <c r="AR16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS16" s="11" t="s">
+      <c r="AS16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT16" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AT16" s="7" t="s">
+      <c r="AU16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AU16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV16" s="7" t="s">
+      <c r="AV16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX16" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
         <v>64</v>
@@ -3408,17 +3539,17 @@
       <c r="F17" s="10">
         <v>0</v>
       </c>
-      <c r="G17" s="16">
-        <v>0</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="16">
-        <v>1</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>162</v>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>155</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -3426,121 +3557,127 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="16">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>5</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="R17" s="5">
         <v>10</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>3</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>2</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>3</v>
       </c>
-      <c r="U17">
-        <v>1</v>
-      </c>
       <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
         <v>16</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>102</v>
       </c>
-      <c r="X17">
-        <v>8</v>
-      </c>
-      <c r="Y17" t="s">
+      <c r="Y17">
+        <v>8</v>
+      </c>
+      <c r="Z17" t="s">
         <v>104</v>
       </c>
-      <c r="Z17" s="10">
+      <c r="AA17" s="10">
         <v>10135</v>
       </c>
-      <c r="AA17" t="s">
-        <v>8</v>
-      </c>
       <c r="AB17" t="s">
         <v>8</v>
       </c>
       <c r="AC17" t="s">
         <v>8</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AD17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE17" s="1">
         <v>32768</v>
       </c>
-      <c r="AE17" t="s">
-        <v>8</v>
-      </c>
       <c r="AF17" t="s">
         <v>8</v>
       </c>
       <c r="AG17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH17" t="s">
         <v>35</v>
       </c>
-      <c r="AH17" s="10">
+      <c r="AI17" s="10">
         <v>125</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>1169</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>414</v>
       </c>
-      <c r="AK17" s="1">
+      <c r="AL17" s="1">
         <v>64</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>400</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>160</v>
       </c>
-      <c r="AN17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO17" s="4">
-        <v>8</v>
-      </c>
-      <c r="AP17">
+      <c r="AO17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP17" s="4">
+        <v>8</v>
+      </c>
+      <c r="AQ17">
         <v>368</v>
       </c>
-      <c r="AQ17">
+      <c r="AR17">
         <v>96</v>
       </c>
-      <c r="AR17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS17" s="10" t="s">
+      <c r="AS17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT17" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AT17" t="s">
+      <c r="AU17" t="s">
         <v>78</v>
       </c>
-      <c r="AU17" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV17" t="s">
+      <c r="AV17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s">
         <v>64</v>
@@ -3554,17 +3691,17 @@
       <c r="F18" s="10">
         <v>0</v>
       </c>
-      <c r="G18" s="16">
-        <v>0</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="16">
-        <v>1</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>162</v>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -3572,121 +3709,127 @@
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="16">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="P18">
-        <v>5</v>
       </c>
       <c r="Q18">
         <v>5</v>
       </c>
       <c r="R18">
+        <v>5</v>
+      </c>
+      <c r="S18">
         <v>3</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>2</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>3</v>
       </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
       <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
         <v>16</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>102</v>
       </c>
-      <c r="X18">
-        <v>8</v>
-      </c>
-      <c r="Y18" t="s">
+      <c r="Y18">
+        <v>8</v>
+      </c>
+      <c r="Z18" t="s">
         <v>104</v>
       </c>
-      <c r="Z18" s="10">
+      <c r="AA18" s="10">
         <v>10135</v>
       </c>
-      <c r="AA18" t="s">
-        <v>8</v>
-      </c>
       <c r="AB18" t="s">
         <v>8</v>
       </c>
       <c r="AC18" t="s">
         <v>8</v>
       </c>
-      <c r="AD18" s="1">
+      <c r="AD18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE18" s="1">
         <v>32768</v>
       </c>
-      <c r="AE18" t="s">
-        <v>8</v>
-      </c>
       <c r="AF18" t="s">
         <v>8</v>
       </c>
       <c r="AG18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH18" t="s">
         <v>35</v>
       </c>
-      <c r="AH18" s="10">
+      <c r="AI18" s="10">
         <v>125</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>1169</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>414</v>
       </c>
-      <c r="AK18" s="1">
+      <c r="AL18" s="1">
         <v>64</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>400</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>160</v>
       </c>
-      <c r="AN18" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO18" s="1">
+      <c r="AO18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP18" s="1">
         <v>24</v>
       </c>
-      <c r="AP18">
+      <c r="AQ18">
         <v>384</v>
       </c>
-      <c r="AQ18">
+      <c r="AR18">
         <v>120</v>
       </c>
-      <c r="AR18" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS18" s="10" t="s">
+      <c r="AS18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT18" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AT18" t="s">
+      <c r="AU18" t="s">
         <v>75</v>
       </c>
-      <c r="AU18" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV18" t="s">
+      <c r="AV18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C19" t="s">
         <v>65</v>
@@ -3700,17 +3843,17 @@
       <c r="F19" s="10">
         <v>0</v>
       </c>
-      <c r="G19" s="16">
-        <v>0</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="16">
-        <v>1</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>162</v>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>155</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -3718,121 +3861,127 @@
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="16">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="P19">
-        <v>5</v>
       </c>
       <c r="Q19">
         <v>5</v>
       </c>
       <c r="R19">
+        <v>5</v>
+      </c>
+      <c r="S19">
         <v>3</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>2</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>3</v>
       </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
       <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
         <v>16</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>102</v>
       </c>
-      <c r="X19">
-        <v>8</v>
-      </c>
-      <c r="Y19" t="s">
+      <c r="Y19">
+        <v>8</v>
+      </c>
+      <c r="Z19" t="s">
         <v>104</v>
       </c>
-      <c r="Z19" s="10">
+      <c r="AA19" s="10">
         <v>10999</v>
       </c>
-      <c r="AA19" t="s">
-        <v>8</v>
-      </c>
       <c r="AB19" t="s">
         <v>8</v>
       </c>
       <c r="AC19" t="s">
         <v>8</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AD19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE19" s="1">
         <v>32768</v>
       </c>
-      <c r="AE19" t="s">
-        <v>8</v>
-      </c>
       <c r="AF19" t="s">
         <v>8</v>
       </c>
       <c r="AG19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH19" t="s">
         <v>35</v>
       </c>
-      <c r="AH19" s="10">
+      <c r="AI19" s="10">
         <v>125</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>1169</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>414</v>
       </c>
-      <c r="AK19" s="1">
+      <c r="AL19" s="1">
         <v>64</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>400</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>176</v>
       </c>
-      <c r="AN19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO19" s="1">
+      <c r="AO19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP19" s="1">
         <v>24</v>
       </c>
-      <c r="AP19">
+      <c r="AQ19">
         <v>384</v>
       </c>
-      <c r="AQ19">
+      <c r="AR19">
         <v>112</v>
       </c>
-      <c r="AR19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS19" s="10" t="s">
+      <c r="AS19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT19" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AT19" t="s">
+      <c r="AU19" t="s">
         <v>75</v>
       </c>
-      <c r="AU19" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV19" t="s">
+      <c r="AV19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s">
         <v>65</v>
@@ -3846,17 +3995,17 @@
       <c r="F20" s="10">
         <v>0</v>
       </c>
-      <c r="G20" s="16">
-        <v>0</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="16">
-        <v>1</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>162</v>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>155</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -3864,121 +4013,127 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="16">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="P20">
-        <v>5</v>
       </c>
       <c r="Q20">
         <v>5</v>
       </c>
       <c r="R20">
+        <v>5</v>
+      </c>
+      <c r="S20">
         <v>3</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>2</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>3</v>
       </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
       <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
         <v>16</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>102</v>
       </c>
-      <c r="X20">
-        <v>8</v>
-      </c>
-      <c r="Y20" t="s">
+      <c r="Y20">
+        <v>8</v>
+      </c>
+      <c r="Z20" t="s">
         <v>104</v>
       </c>
-      <c r="Z20" s="10">
+      <c r="AA20" s="10">
         <v>11843</v>
       </c>
-      <c r="AA20" t="s">
-        <v>8</v>
-      </c>
       <c r="AB20" t="s">
         <v>8</v>
       </c>
       <c r="AC20" t="s">
         <v>8</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AD20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE20" s="1">
         <v>32768</v>
       </c>
-      <c r="AE20" t="s">
-        <v>8</v>
-      </c>
       <c r="AF20" t="s">
         <v>8</v>
       </c>
       <c r="AG20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH20" t="s">
         <v>35</v>
       </c>
-      <c r="AH20" s="10">
+      <c r="AI20" s="10">
         <v>125</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>1169</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>414</v>
       </c>
-      <c r="AK20" s="1">
+      <c r="AL20" s="1">
         <v>64</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>400</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>192</v>
       </c>
-      <c r="AN20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO20" s="1">
+      <c r="AO20" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP20" s="1">
         <v>24</v>
       </c>
-      <c r="AP20">
+      <c r="AQ20">
         <v>384</v>
       </c>
-      <c r="AQ20">
+      <c r="AR20">
         <v>104</v>
       </c>
-      <c r="AR20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS20" s="10" t="s">
+      <c r="AS20" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT20" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AT20" t="s">
+      <c r="AU20" t="s">
         <v>75</v>
       </c>
-      <c r="AU20" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV20" t="s">
+      <c r="AV20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s">
         <v>66</v>
@@ -3992,17 +4147,17 @@
       <c r="F21" s="10">
         <v>0</v>
       </c>
-      <c r="G21" s="16">
-        <v>0</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="16">
-        <v>1</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>162</v>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>155</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -4010,121 +4165,127 @@
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="16">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="P21">
-        <v>5</v>
       </c>
       <c r="Q21">
         <v>5</v>
       </c>
       <c r="R21">
+        <v>5</v>
+      </c>
+      <c r="S21">
         <v>3</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>2</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>3</v>
       </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
       <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
         <v>16</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>102</v>
       </c>
-      <c r="X21">
-        <v>8</v>
-      </c>
-      <c r="Y21" t="s">
+      <c r="Y21">
+        <v>8</v>
+      </c>
+      <c r="Z21" t="s">
         <v>104</v>
       </c>
-      <c r="Z21" s="10">
+      <c r="AA21" s="10">
         <v>10473</v>
       </c>
-      <c r="AA21" t="s">
-        <v>8</v>
-      </c>
       <c r="AB21" t="s">
         <v>8</v>
       </c>
       <c r="AC21" t="s">
         <v>8</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AD21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE21" s="1">
         <v>32768</v>
       </c>
-      <c r="AE21" t="s">
-        <v>8</v>
-      </c>
       <c r="AF21" t="s">
         <v>8</v>
       </c>
       <c r="AG21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH21" t="s">
         <v>35</v>
       </c>
-      <c r="AH21" s="10">
+      <c r="AI21" s="10">
         <v>125</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>1169</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>414</v>
       </c>
-      <c r="AK21" s="1">
+      <c r="AL21" s="1">
         <v>64</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>416</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>160</v>
       </c>
-      <c r="AN21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO21" s="1">
+      <c r="AO21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP21" s="1">
         <v>24</v>
       </c>
-      <c r="AP21">
+      <c r="AQ21">
         <v>376</v>
       </c>
-      <c r="AQ21">
+      <c r="AR21">
         <v>120</v>
       </c>
-      <c r="AR21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS21" s="10" t="s">
+      <c r="AS21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT21" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AT21" t="s">
+      <c r="AU21" t="s">
         <v>75</v>
       </c>
-      <c r="AU21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV21" t="s">
+      <c r="AV21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C22" t="s">
         <v>66</v>
@@ -4138,17 +4299,17 @@
       <c r="F22" s="10">
         <v>0</v>
       </c>
-      <c r="G22" s="16">
-        <v>0</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="16">
-        <v>1</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>162</v>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>155</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -4156,121 +4317,127 @@
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="16">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="P22">
-        <v>5</v>
       </c>
       <c r="Q22">
         <v>5</v>
       </c>
       <c r="R22">
+        <v>5</v>
+      </c>
+      <c r="S22">
         <v>3</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>2</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>3</v>
       </c>
-      <c r="U22">
-        <v>1</v>
-      </c>
       <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
         <v>16</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>102</v>
       </c>
-      <c r="X22">
-        <v>8</v>
-      </c>
-      <c r="Y22" t="s">
+      <c r="Y22">
+        <v>8</v>
+      </c>
+      <c r="Z22" t="s">
         <v>104</v>
       </c>
-      <c r="Z22" s="10">
+      <c r="AA22" s="10">
         <v>10825</v>
       </c>
-      <c r="AA22" t="s">
-        <v>8</v>
-      </c>
       <c r="AB22" t="s">
         <v>8</v>
       </c>
       <c r="AC22" t="s">
         <v>8</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AD22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE22" s="1">
         <v>32768</v>
       </c>
-      <c r="AE22" t="s">
-        <v>8</v>
-      </c>
       <c r="AF22" t="s">
         <v>8</v>
       </c>
       <c r="AG22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH22" t="s">
         <v>35</v>
       </c>
-      <c r="AH22" s="10">
+      <c r="AI22" s="10">
         <v>125</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>1169</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>414</v>
       </c>
-      <c r="AK22" s="1">
+      <c r="AL22" s="1">
         <v>64</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>432</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>160</v>
       </c>
-      <c r="AN22" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO22" s="1">
+      <c r="AO22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP22" s="1">
         <v>24</v>
       </c>
-      <c r="AP22">
+      <c r="AQ22">
         <v>368</v>
       </c>
-      <c r="AQ22">
+      <c r="AR22">
         <v>120</v>
       </c>
-      <c r="AR22" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS22" s="10" t="s">
+      <c r="AS22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT22" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AT22" t="s">
+      <c r="AU22" t="s">
         <v>75</v>
       </c>
-      <c r="AU22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV22" t="s">
+      <c r="AV22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
         <v>67</v>
@@ -4284,17 +4451,17 @@
       <c r="F23" s="10">
         <v>0</v>
       </c>
-      <c r="G23" s="16">
-        <v>0</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="16">
-        <v>1</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>162</v>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>155</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -4302,121 +4469,127 @@
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="16">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="P23">
-        <v>5</v>
       </c>
       <c r="Q23">
         <v>5</v>
       </c>
       <c r="R23">
+        <v>5</v>
+      </c>
+      <c r="S23">
         <v>3</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>2</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>3</v>
       </c>
-      <c r="U23">
-        <v>1</v>
-      </c>
       <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
         <v>16</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>102</v>
       </c>
-      <c r="X23">
-        <v>8</v>
-      </c>
-      <c r="Y23" t="s">
+      <c r="Y23">
+        <v>8</v>
+      </c>
+      <c r="Z23" t="s">
         <v>104</v>
       </c>
-      <c r="Z23" s="10">
+      <c r="AA23" s="10">
         <v>12317</v>
       </c>
-      <c r="AA23" t="s">
-        <v>8</v>
-      </c>
       <c r="AB23" t="s">
         <v>8</v>
       </c>
       <c r="AC23" t="s">
         <v>8</v>
       </c>
-      <c r="AD23" s="1">
+      <c r="AD23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE23" s="1">
         <v>32768</v>
       </c>
-      <c r="AE23" t="s">
-        <v>8</v>
-      </c>
       <c r="AF23" t="s">
         <v>8</v>
       </c>
       <c r="AG23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH23" t="s">
         <v>35</v>
       </c>
-      <c r="AH23" s="10">
+      <c r="AI23" s="10">
         <v>125</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>1169</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>414</v>
       </c>
-      <c r="AK23" s="1">
+      <c r="AL23" s="1">
         <v>80</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>400</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>160</v>
       </c>
-      <c r="AN23" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO23" s="1">
+      <c r="AO23" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP23" s="1">
         <v>16</v>
       </c>
-      <c r="AP23">
+      <c r="AQ23">
         <v>384</v>
       </c>
-      <c r="AQ23">
+      <c r="AR23">
         <v>120</v>
       </c>
-      <c r="AR23" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS23" s="10" t="s">
+      <c r="AS23" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT23" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AT23" t="s">
+      <c r="AU23" t="s">
         <v>75</v>
       </c>
-      <c r="AU23" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV23" t="s">
+      <c r="AV23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C24" t="s">
         <v>67</v>
@@ -4430,17 +4603,17 @@
       <c r="F24" s="10">
         <v>0</v>
       </c>
-      <c r="G24" s="16">
-        <v>0</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="16">
-        <v>1</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>162</v>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>155</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -4448,116 +4621,122 @@
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="16">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="P24">
-        <v>5</v>
       </c>
       <c r="Q24">
         <v>5</v>
       </c>
       <c r="R24">
+        <v>5</v>
+      </c>
+      <c r="S24">
         <v>3</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>2</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>3</v>
       </c>
-      <c r="U24">
-        <v>1</v>
-      </c>
       <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
         <v>16</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>102</v>
       </c>
-      <c r="X24">
-        <v>8</v>
-      </c>
-      <c r="Y24" t="s">
+      <c r="Y24">
+        <v>8</v>
+      </c>
+      <c r="Z24" t="s">
         <v>104</v>
       </c>
-      <c r="Z24" s="10">
+      <c r="AA24" s="10">
         <v>14443</v>
       </c>
-      <c r="AA24" t="s">
-        <v>8</v>
-      </c>
       <c r="AB24" t="s">
         <v>8</v>
       </c>
       <c r="AC24" t="s">
         <v>8</v>
       </c>
-      <c r="AD24" s="1">
+      <c r="AD24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE24" s="1">
         <v>32768</v>
       </c>
-      <c r="AE24" t="s">
-        <v>8</v>
-      </c>
       <c r="AF24" t="s">
         <v>8</v>
       </c>
       <c r="AG24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH24" t="s">
         <v>35</v>
       </c>
-      <c r="AH24" s="10">
+      <c r="AI24" s="10">
         <v>125</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>1169</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>414</v>
       </c>
-      <c r="AK24" s="1">
+      <c r="AL24" s="1">
         <v>96</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>400</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>160</v>
       </c>
-      <c r="AN24" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO24" s="1">
-        <v>8</v>
-      </c>
-      <c r="AP24">
+      <c r="AO24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>8</v>
+      </c>
+      <c r="AQ24">
         <v>384</v>
       </c>
-      <c r="AQ24">
+      <c r="AR24">
         <v>120</v>
       </c>
-      <c r="AR24" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS24" s="10" t="s">
+      <c r="AS24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT24" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AT24" t="s">
+      <c r="AU24" t="s">
         <v>75</v>
       </c>
-      <c r="AU24" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV24" t="s">
+      <c r="AV24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>107</v>
       </c>
@@ -4579,7 +4758,7 @@
       <c r="G25" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" t="s">
         <v>8</v>
       </c>
       <c r="I25" t="s">
@@ -4600,10 +4779,10 @@
       <c r="N25" t="s">
         <v>8</v>
       </c>
-      <c r="O25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P25" t="s">
+      <c r="O25" t="s">
+        <v>8</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q25" t="s">
@@ -4633,10 +4812,10 @@
       <c r="Y25" t="s">
         <v>8</v>
       </c>
-      <c r="Z25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA25" t="s">
+      <c r="Z25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA25" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AB25" t="s">
@@ -4645,10 +4824,10 @@
       <c r="AC25" t="s">
         <v>8</v>
       </c>
-      <c r="AD25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AF25" t="s">
@@ -4657,19 +4836,19 @@
       <c r="AG25" t="s">
         <v>8</v>
       </c>
-      <c r="AH25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI25" t="s">
+      <c r="AH25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI25" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AJ25" t="s">
         <v>8</v>
       </c>
-      <c r="AK25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL25" t="s">
+      <c r="AK25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AM25" t="s">
@@ -4678,10 +4857,10 @@
       <c r="AN25" t="s">
         <v>8</v>
       </c>
-      <c r="AO25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP25" t="s">
+      <c r="AO25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AQ25" t="s">
@@ -4690,20 +4869,26 @@
       <c r="AR25" t="s">
         <v>8</v>
       </c>
-      <c r="AS25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT25" t="s">
+      <c r="AS25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT25" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AU25" t="s">
         <v>8</v>
       </c>
-      <c r="AV25" t="s">
+      <c r="AV25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:48" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>107</v>
       </c>
@@ -4746,10 +4931,10 @@
       <c r="N26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="P26" s="7" t="s">
+      <c r="O26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P26" s="8" t="s">
         <v>8</v>
       </c>
       <c r="Q26" s="7" t="s">
@@ -4779,10 +4964,10 @@
       <c r="Y26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA26" s="7" t="s">
+      <c r="Z26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA26" s="11" t="s">
         <v>8</v>
       </c>
       <c r="AB26" s="7" t="s">
@@ -4791,10 +4976,10 @@
       <c r="AC26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AD26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE26" s="7" t="s">
+      <c r="AD26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE26" s="8" t="s">
         <v>8</v>
       </c>
       <c r="AF26" s="7" t="s">
@@ -4803,19 +4988,19 @@
       <c r="AG26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AH26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI26" s="7" t="s">
+      <c r="AH26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI26" s="11" t="s">
         <v>8</v>
       </c>
       <c r="AJ26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AK26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL26" s="7" t="s">
+      <c r="AK26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL26" s="8" t="s">
         <v>8</v>
       </c>
       <c r="AM26" s="7" t="s">
@@ -4824,10 +5009,10 @@
       <c r="AN26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AO26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP26" s="7" t="s">
+      <c r="AO26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP26" s="8" t="s">
         <v>8</v>
       </c>
       <c r="AQ26" s="7" t="s">
@@ -4836,49 +5021,55 @@
       <c r="AR26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AS26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT26" s="7" t="s">
+      <c r="AS26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT26" s="11" t="s">
         <v>8</v>
       </c>
       <c r="AU26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AV26" s="7" t="s">
+      <c r="AV26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX26" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F27" s="10">
         <v>0</v>
       </c>
-      <c r="G27" s="16">
-        <v>0</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="16">
-        <v>1</v>
-      </c>
-      <c r="J27" s="16" t="s">
-        <v>159</v>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>152</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -4886,148 +5077,154 @@
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="16">
         <v>0</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="P27">
-        <v>5</v>
       </c>
       <c r="Q27">
         <v>5</v>
       </c>
       <c r="R27">
+        <v>5</v>
+      </c>
+      <c r="S27">
         <v>3</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>2</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>3</v>
       </c>
-      <c r="U27">
-        <v>1</v>
-      </c>
       <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
         <v>16</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>102</v>
       </c>
-      <c r="X27">
-        <v>8</v>
-      </c>
-      <c r="Y27" t="s">
+      <c r="Y27">
+        <v>8</v>
+      </c>
+      <c r="Z27" t="s">
         <v>104</v>
       </c>
-      <c r="Z27" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>8</v>
+      <c r="AA27" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="AB27" t="s">
         <v>8</v>
       </c>
-      <c r="AC27">
-        <f t="shared" ref="AC27" si="0" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AK27*AL27*AM27)</f>
+      <c r="AC27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" ref="AD27" si="0" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AL27*AM27*AN27)</f>
         <v>83027.753778838392</v>
       </c>
-      <c r="AD27" s="1">
+      <c r="AE27" s="1">
         <v>81920</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>81049.600000000006</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>79.150000000000006</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AH27" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI27" s="10">
+        <v>125</v>
+      </c>
+      <c r="AJ27">
+        <v>1169</v>
+      </c>
+      <c r="AK27">
+        <v>414</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>112</v>
+      </c>
+      <c r="AM27">
+        <v>864</v>
+      </c>
+      <c r="AN27">
+        <v>400</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP27" s="1">
+        <f xml:space="preserve"> _xlfn.FLOOR.MATH((AI27 - AL27) / 2)</f>
+        <v>6</v>
+      </c>
+      <c r="AQ27">
+        <f t="shared" ref="AQ27" si="1" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ27 - AM27) / 2)</f>
+        <v>152</v>
+      </c>
+      <c r="AR27">
+        <f t="shared" ref="AR27" si="2" xml:space="preserve"> _xlfn.FLOOR.MATH((AK27 - AN27) / 2)</f>
+        <v>7</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT27" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" t="s">
         <v>114</v>
       </c>
-      <c r="AH27" s="10">
-        <v>125</v>
-      </c>
-      <c r="AI27">
-        <v>1169</v>
-      </c>
-      <c r="AJ27">
-        <v>414</v>
-      </c>
-      <c r="AK27" s="1">
-        <v>112</v>
-      </c>
-      <c r="AL27">
-        <v>864</v>
-      </c>
-      <c r="AM27">
-        <v>400</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO27" s="1">
-        <f xml:space="preserve"> _xlfn.FLOOR.MATH((AH27 - AK27) / 2)</f>
-        <v>6</v>
-      </c>
-      <c r="AP27">
-        <f t="shared" ref="AP27" si="1" xml:space="preserve"> _xlfn.FLOOR.MATH((AI27 - AL27) / 2)</f>
-        <v>152</v>
-      </c>
-      <c r="AQ27">
-        <f t="shared" ref="AQ27" si="2" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ27 - AM27) / 2)</f>
-        <v>7</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS27" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>117</v>
-      </c>
-      <c r="AU27" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" t="s">
-        <v>115</v>
-      </c>
       <c r="E28" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F28" s="10">
         <v>0</v>
       </c>
-      <c r="G28" s="16">
-        <v>1</v>
-      </c>
-      <c r="H28" s="16" t="s">
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
         <v>87</v>
       </c>
-      <c r="I28" s="16">
-        <v>0</v>
-      </c>
-      <c r="J28" s="16" t="s">
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
         <v>8</v>
       </c>
       <c r="K28">
@@ -5036,408 +5233,556 @@
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="16">
         <v>0</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="P28">
-        <v>5</v>
       </c>
       <c r="Q28">
         <v>5</v>
       </c>
       <c r="R28">
+        <v>5</v>
+      </c>
+      <c r="S28">
         <v>3</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>2</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>3</v>
       </c>
-      <c r="U28">
-        <v>1</v>
-      </c>
       <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
         <v>16</v>
       </c>
-      <c r="W28" t="s">
+      <c r="X28" t="s">
         <v>102</v>
       </c>
-      <c r="X28">
-        <v>8</v>
-      </c>
-      <c r="Y28" t="s">
+      <c r="Y28">
+        <v>8</v>
+      </c>
+      <c r="Z28" t="s">
         <v>104</v>
       </c>
-      <c r="Z28" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA28">
+      <c r="AA28" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB28">
         <v>82032.639999999999</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <f xml:space="preserve"> 75.58 + 4.53</f>
         <v>80.11</v>
       </c>
-      <c r="AC28">
-        <f t="shared" ref="AC28:AC29" si="3" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AK28*AL28*AM28)</f>
+      <c r="AD28">
+        <f t="shared" ref="AD28:AD31" si="3" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AL28*AM28*AN28)</f>
         <v>81518.129922434266</v>
       </c>
-      <c r="AD28" s="1">
+      <c r="AE28" s="1">
         <v>81920</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>81049.600000000006</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>79.150000000000006</v>
       </c>
-      <c r="AG28" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH28" s="10">
+      <c r="AH28" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI28" s="10">
         <v>125</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>1169</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>414</v>
       </c>
-      <c r="AK28" s="1">
+      <c r="AL28" s="1">
         <v>112</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>848</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>400</v>
       </c>
-      <c r="AN28" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO28" s="1">
-        <f xml:space="preserve"> _xlfn.FLOOR.MATH((AH28 - AK28) / 2)</f>
+      <c r="AO28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP28" s="1">
+        <f xml:space="preserve"> _xlfn.FLOOR.MATH((AI28 - AL28) / 2)</f>
         <v>6</v>
       </c>
-      <c r="AP28">
-        <f t="shared" ref="AP28" si="4" xml:space="preserve"> _xlfn.FLOOR.MATH((AI28 - AL28) / 2)</f>
+      <c r="AQ28">
+        <f t="shared" ref="AQ28" si="4" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ28 - AM28) / 2)</f>
         <v>160</v>
       </c>
-      <c r="AQ28">
-        <f t="shared" ref="AQ28" si="5" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ28 - AM28) / 2)</f>
+      <c r="AR28">
+        <f t="shared" ref="AR28" si="5" xml:space="preserve"> _xlfn.FLOOR.MATH((AK28 - AN28) / 2)</f>
         <v>7</v>
       </c>
-      <c r="AR28" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS28" s="10" t="s">
+      <c r="AS28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT28" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AT28" t="s">
-        <v>117</v>
-      </c>
       <c r="AU28" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV28" s="16">
+        <v>1</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>118</v>
+      </c>
+      <c r="AX28" t="s">
         <v>119</v>
       </c>
-      <c r="AV28" t="s">
-        <v>120</v>
-      </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29" t="s">
-        <v>138</v>
-      </c>
-      <c r="F29" s="10">
-        <v>0</v>
-      </c>
-      <c r="G29" s="16">
-        <v>1</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="I29" s="16">
-        <v>0</v>
-      </c>
-      <c r="J29" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" t="s">
-        <v>138</v>
-      </c>
-      <c r="L29" t="s">
-        <v>138</v>
-      </c>
-      <c r="M29" t="s">
-        <v>138</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29" s="1" t="s">
+    <row r="29" spans="1:50" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="7">
+        <v>1</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7">
+        <v>1</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="7">
+        <v>1</v>
+      </c>
+      <c r="P29" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="P29">
+      <c r="Q29" s="7">
         <v>5</v>
       </c>
-      <c r="Q29">
+      <c r="R29" s="7">
         <v>5</v>
       </c>
-      <c r="R29">
+      <c r="S29" s="7">
         <v>3</v>
       </c>
-      <c r="S29">
+      <c r="T29" s="7">
         <v>2</v>
       </c>
-      <c r="T29">
+      <c r="U29" s="7">
         <v>3</v>
       </c>
-      <c r="U29">
-        <v>1</v>
-      </c>
-      <c r="V29">
+      <c r="V29" s="7">
+        <v>1</v>
+      </c>
+      <c r="W29" s="7">
         <v>16</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="X29">
-        <v>8</v>
-      </c>
-      <c r="Y29" t="s">
+      <c r="Y29" s="7">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="Z29" s="10">
+      <c r="AA29" s="11">
         <v>77887</v>
       </c>
-      <c r="AC29">
+      <c r="AB29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD29" s="7">
         <f t="shared" si="3"/>
         <v>76989.258353221856</v>
       </c>
-      <c r="AD29" s="1">
+      <c r="AE29" s="8">
         <v>81920</v>
       </c>
-      <c r="AE29">
+      <c r="AF29" s="7">
         <v>81049.600000000006</v>
       </c>
-      <c r="AF29">
+      <c r="AG29" s="7">
         <v>79.150000000000006</v>
       </c>
-      <c r="AG29" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH29" s="10">
+      <c r="AH29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI29" s="11">
         <v>125</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29" s="7">
         <v>1169</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29" s="7">
         <v>414</v>
       </c>
-      <c r="AK29" s="1">
+      <c r="AL29" s="8">
         <v>112</v>
       </c>
-      <c r="AL29">
+      <c r="AM29" s="7">
         <v>800</v>
       </c>
-      <c r="AM29">
+      <c r="AN29" s="7">
         <v>400</v>
       </c>
-      <c r="AN29" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO29" s="1">
-        <f xml:space="preserve"> _xlfn.FLOOR.MATH((AH29 - AK29) / 2)</f>
+      <c r="AO29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP29" s="8">
+        <f xml:space="preserve"> _xlfn.FLOOR.MATH((AI29 - AL29) / 2)</f>
         <v>6</v>
       </c>
-      <c r="AP29">
-        <f t="shared" ref="AP29" si="6" xml:space="preserve"> _xlfn.FLOOR.MATH((AI29 - AL29) / 2)</f>
+      <c r="AQ29" s="7">
+        <f t="shared" ref="AQ29" si="6" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ29 - AM29) / 2)</f>
         <v>184</v>
       </c>
-      <c r="AQ29">
-        <f t="shared" ref="AQ29" si="7" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ29 - AM29) / 2)</f>
+      <c r="AR29" s="7">
+        <f t="shared" ref="AR29" si="7" xml:space="preserve"> _xlfn.FLOOR.MATH((AK29 - AN29) / 2)</f>
         <v>7</v>
       </c>
-      <c r="AR29" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS29" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT29" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU29" t="s">
-        <v>138</v>
-      </c>
-      <c r="AV29" t="s">
-        <v>138</v>
+      <c r="AS29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT29" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX29" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:48" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="S30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="T30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="U30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="V30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="W30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="X30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z30" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD30" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH30" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK30" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO30" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS30" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV30" s="7" t="s">
-        <v>8</v>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="16">
+        <v>1</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K30" s="16">
+        <v>0</v>
+      </c>
+      <c r="L30" s="16">
+        <v>0</v>
+      </c>
+      <c r="M30" s="16">
+        <v>0</v>
+      </c>
+      <c r="N30" s="16">
+        <v>0</v>
+      </c>
+      <c r="O30" s="16">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q30" s="16">
+        <v>5</v>
+      </c>
+      <c r="R30" s="16">
+        <v>5</v>
+      </c>
+      <c r="S30" s="16">
+        <v>3</v>
+      </c>
+      <c r="T30" s="16">
+        <v>2</v>
+      </c>
+      <c r="U30" s="16">
+        <v>3</v>
+      </c>
+      <c r="V30" s="16">
+        <v>1</v>
+      </c>
+      <c r="W30" s="16">
+        <v>16</v>
+      </c>
+      <c r="X30" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y30" s="16">
+        <v>8</v>
+      </c>
+      <c r="Z30" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA30" s="10">
+        <v>77885</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="3"/>
+        <v>76989.258353221856</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>81920</v>
+      </c>
+      <c r="AF30">
+        <v>81049.600000000006</v>
+      </c>
+      <c r="AG30">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="AH30" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI30" s="10">
+        <v>125</v>
+      </c>
+      <c r="AJ30">
+        <v>1169</v>
+      </c>
+      <c r="AK30">
+        <v>414</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>112</v>
+      </c>
+      <c r="AM30">
+        <v>800</v>
+      </c>
+      <c r="AN30">
+        <v>400</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ30">
+        <v>184</v>
+      </c>
+      <c r="AR30">
+        <v>7</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT30" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="O31" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q31" s="15">
+        <v>5</v>
+      </c>
+      <c r="R31" s="16">
+        <v>5</v>
+      </c>
+      <c r="S31" s="15">
+        <v>3</v>
+      </c>
+      <c r="T31" s="15">
+        <v>2</v>
+      </c>
+      <c r="U31" s="15">
+        <v>3</v>
+      </c>
+      <c r="V31" s="15">
+        <v>1</v>
+      </c>
+      <c r="W31" s="15">
+        <v>16</v>
+      </c>
+      <c r="X31" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y31" s="15">
+        <v>8</v>
+      </c>
+      <c r="Z31" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA31" s="10">
+        <v>78017</v>
+      </c>
+      <c r="AD31" s="15">
+        <f t="shared" si="3"/>
+        <v>76989.258353221856</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>81920</v>
+      </c>
+      <c r="AF31">
+        <v>81049.600000000006</v>
+      </c>
+      <c r="AG31">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="AH31" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI31" s="10">
+        <v>125</v>
+      </c>
+      <c r="AJ31" s="15">
+        <v>1169</v>
+      </c>
+      <c r="AK31" s="15">
+        <v>414</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>112</v>
+      </c>
+      <c r="AM31" s="15">
+        <v>800</v>
+      </c>
+      <c r="AN31" s="15">
+        <v>400</v>
+      </c>
+      <c r="AO31" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP31" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ31" s="15">
+        <v>184</v>
+      </c>
+      <c r="AR31" s="15">
+        <v>7</v>
+      </c>
+      <c r="AS31" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT31" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU31" s="15" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBBFD11-A238-4417-A902-91FBC94FA651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9038D98E-610D-478C-86F4-28811EAFD00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
+    <workbookView xWindow="-21720" yWindow="2595" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="182">
   <si>
     <t>patch z</t>
   </si>
@@ -213,9 +213,6 @@
     <t>230830-0</t>
   </si>
   <si>
-    <t>result/answer</t>
-  </si>
-  <si>
     <t>goal/question</t>
   </si>
   <si>
@@ -387,9 +384,6 @@
     <t>expect VRAM ~ patch volume, expect out of VRAM error</t>
   </si>
   <si>
-    <t>stride = foor (resolution - patch) / 2</t>
-  </si>
-  <si>
     <t>TBD copy</t>
   </si>
   <si>
@@ -492,9 +486,6 @@
     <t>reason for automatic abortion</t>
   </si>
   <si>
-    <t>out of time (srun)</t>
-  </si>
-  <si>
     <t>wanted to get a node with faster, i.e., more CPUs for faster loading, but failed</t>
   </si>
   <si>
@@ -553,6 +544,45 @@
   </si>
   <si>
     <t>Yes, the logs are still there after train3dunet abortion, and yes, train3dunet produces tensorboard logs without preceding tensorboard command.</t>
+  </si>
+  <si>
+    <t>230907-0</t>
+  </si>
+  <si>
+    <t>increase val frequency to achieve decreasing learning rate with hope for increasing val eval score (plateau above previous from 230906-1, at 0.3)</t>
+  </si>
+  <si>
+    <t>expect that plateau will be higher than previously, because the learning rate will decrease with higher validation frequency</t>
+  </si>
+  <si>
+    <t>increasing train &amp; val eval score achieved, but both peek at 0.3 after 300 train iterations, val eval score decreases afterwards, train eval score plateaus there.</t>
+  </si>
+  <si>
+    <t>higher val frequency leads to decreasing learning rate but train &amp; val eval scores both still peek at 0.3 after about the same train iterations, vale eval score still decreases afterwards, train eval score still plateaus there. Conclusion: The plateau / maximum is not due to hyper parameters but is just the best this model can do with this dataset.</t>
+  </si>
+  <si>
+    <t>result/answer/conclusion</t>
+  </si>
+  <si>
+    <t>out of time</t>
+  </si>
+  <si>
+    <t>train eval plateau, val eval decreases after peek</t>
+  </si>
+  <si>
+    <t>stride = floor (resolution - patch) / 2</t>
+  </si>
+  <si>
+    <t>higher val eval score increase &amp; better val prediction images by increasing train sample size by creating a new pooled heart stain dataset (dataset04).</t>
+  </si>
+  <si>
+    <t>Good enough performance metrics &amp; val prediction images to merit test3dunet session.</t>
+  </si>
+  <si>
+    <t>dataset04</t>
+  </si>
+  <si>
+    <t>patch = arbitrary even int_2^3 as large a possible</t>
   </si>
 </sst>
 </file>
@@ -683,9 +713,7 @@
       <right style="thick">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -711,10 +739,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1029,34 +1057,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
-  <dimension ref="A1:AX31"/>
+  <dimension ref="A1:AX33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB31" sqref="AB31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" customWidth="1"/>
-    <col min="5" max="5" width="55.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="10"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" customWidth="1"/>
     <col min="10" max="10" width="16.28515625" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="9.140625" collapsed="1"/>
-    <col min="19" max="19" width="6.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="22" width="5.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="5.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="8.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="5.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="7" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="9.140625" style="10" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="6.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="22" width="5.140625" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="5.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="8.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="5.140625" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="7" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="9.140625" style="10" customWidth="1"/>
     <col min="28" max="30" width="9.140625" customWidth="1"/>
     <col min="31" max="31" width="7.28515625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="32" max="33" width="7.28515625" customWidth="1" outlineLevel="1"/>
@@ -1087,49 +1114,49 @@
         <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="I1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="P1" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>3</v>
@@ -1138,49 +1165,49 @@
         <v>4</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="Z1" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AA1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="AC1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE1" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="AD1" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="AF1" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AH1" s="2" t="s">
         <v>40</v>
@@ -1207,13 +1234,13 @@
         <v>55</v>
       </c>
       <c r="AP1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="AS1" s="2" t="s">
         <v>56</v>
@@ -1225,10 +1252,10 @@
         <v>23</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AX1" s="2" t="s">
         <v>27</v>
@@ -1236,19 +1263,19 @@
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
         <v>140</v>
       </c>
-      <c r="B2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>142</v>
       </c>
-      <c r="D2" t="s">
-        <v>144</v>
-      </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F2" s="10">
         <v>0</v>
@@ -1263,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K2" t="s">
         <v>8</v>
@@ -1281,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q2">
         <v>5</v>
       </c>
       <c r="R2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="S2">
         <v>3</v>
@@ -1305,13 +1332,13 @@
         <v>16</v>
       </c>
       <c r="X2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y2">
         <v>8</v>
       </c>
       <c r="Z2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA2" s="10">
         <v>0</v>
@@ -1326,7 +1353,7 @@
         <v>8</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AF2" t="s">
         <v>8</v>
@@ -1335,7 +1362,7 @@
         <v>8</v>
       </c>
       <c r="AH2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AI2" s="10">
         <v>125</v>
@@ -1347,40 +1374,40 @@
         <v>414</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AM2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AN2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AO2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AQ2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AR2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AS2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AT2" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AU2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AV2">
         <v>1</v>
       </c>
       <c r="AW2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AX2" t="s">
         <v>8</v>
@@ -1388,20 +1415,20 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" t="s">
         <v>142</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>144</v>
       </c>
-      <c r="E3" t="s">
-        <v>146</v>
-      </c>
       <c r="F3" s="10">
         <v>0</v>
       </c>
@@ -1415,31 +1442,31 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q3">
         <v>5</v>
       </c>
       <c r="R3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="S3">
         <v>3</v>
@@ -1457,16 +1484,16 @@
         <v>16</v>
       </c>
       <c r="X3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y3">
         <v>8</v>
       </c>
       <c r="Z3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AB3" t="s">
         <v>8</v>
@@ -1478,7 +1505,7 @@
         <v>8</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AF3" t="s">
         <v>8</v>
@@ -1487,7 +1514,7 @@
         <v>8</v>
       </c>
       <c r="AH3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AI3" s="10">
         <v>125</v>
@@ -1499,34 +1526,34 @@
         <v>414</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AM3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AN3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AO3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AQ3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AR3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AS3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AT3" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AU3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AV3">
         <v>0</v>
@@ -1543,16 +1570,16 @@
         <v>57</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" s="13">
         <v>0</v>
@@ -1561,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I4" s="12">
         <v>0</v>
@@ -1585,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="12">
         <v>5</v>
@@ -1609,13 +1636,13 @@
         <v>16</v>
       </c>
       <c r="X4" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y4" s="12">
         <v>8</v>
       </c>
       <c r="Z4" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA4" s="13" t="s">
         <v>36</v>
@@ -1695,16 +1722,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" t="s">
         <v>135</v>
       </c>
-      <c r="C5" t="s">
-        <v>137</v>
-      </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" s="10">
         <v>0</v>
@@ -1713,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1727,7 +1754,7 @@
       <c r="L5" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" t="s">
         <v>8</v>
       </c>
       <c r="N5" t="s">
@@ -1737,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1761,13 +1788,13 @@
         <v>16</v>
       </c>
       <c r="X5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y5">
         <v>8</v>
       </c>
       <c r="Z5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA5" s="10" t="s">
         <v>36</v>
@@ -1832,7 +1859,7 @@
       <c r="AU5" t="s">
         <v>16</v>
       </c>
-      <c r="AV5" s="16">
+      <c r="AV5">
         <v>0</v>
       </c>
       <c r="AW5" t="s">
@@ -1847,16 +1874,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="10">
         <v>0</v>
@@ -1879,7 +1906,7 @@
       <c r="L6" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" t="s">
         <v>8</v>
       </c>
       <c r="N6" t="s">
@@ -1889,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -1913,13 +1940,13 @@
         <v>16</v>
       </c>
       <c r="X6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y6">
         <v>8</v>
       </c>
       <c r="Z6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA6" s="10" t="s">
         <v>8</v>
@@ -1984,7 +2011,7 @@
       <c r="AU6" t="s">
         <v>10</v>
       </c>
-      <c r="AV6" s="16">
+      <c r="AV6">
         <v>1</v>
       </c>
       <c r="AW6" t="s">
@@ -1999,16 +2026,16 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F7" s="10">
         <v>0</v>
@@ -2031,7 +2058,7 @@
       <c r="L7" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" t="s">
         <v>8</v>
       </c>
       <c r="N7" t="s">
@@ -2041,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2065,13 +2092,13 @@
         <v>16</v>
       </c>
       <c r="X7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y7">
         <v>8</v>
       </c>
       <c r="Z7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA7" s="10" t="s">
         <v>8</v>
@@ -2136,7 +2163,7 @@
       <c r="AU7" t="s">
         <v>9</v>
       </c>
-      <c r="AV7" s="16">
+      <c r="AV7">
         <v>1</v>
       </c>
       <c r="AW7" t="s">
@@ -2151,16 +2178,16 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="10">
         <v>0</v>
@@ -2169,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2183,7 +2210,7 @@
       <c r="L8" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" t="s">
         <v>8</v>
       </c>
       <c r="N8" t="s">
@@ -2193,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2217,13 +2244,13 @@
         <v>16</v>
       </c>
       <c r="X8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y8">
         <v>8</v>
       </c>
       <c r="Z8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA8" s="10" t="s">
         <v>36</v>
@@ -2288,7 +2315,7 @@
       <c r="AU8" t="s">
         <v>16</v>
       </c>
-      <c r="AV8" s="16">
+      <c r="AV8">
         <v>1</v>
       </c>
       <c r="AW8" t="s">
@@ -2303,16 +2330,16 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" t="s">
         <v>135</v>
       </c>
-      <c r="C9" t="s">
-        <v>137</v>
-      </c>
       <c r="D9" t="s">
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F9" s="10">
         <v>0</v>
@@ -2335,7 +2362,7 @@
       <c r="L9" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" t="s">
         <v>8</v>
       </c>
       <c r="N9" t="s">
@@ -2345,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2369,13 +2396,13 @@
         <v>16</v>
       </c>
       <c r="X9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y9">
         <v>8</v>
       </c>
       <c r="Z9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA9" s="10" t="s">
         <v>8</v>
@@ -2446,7 +2473,7 @@
       <c r="AU9" t="s">
         <v>16</v>
       </c>
-      <c r="AV9" s="16">
+      <c r="AV9">
         <v>1</v>
       </c>
       <c r="AW9" t="s">
@@ -2461,16 +2488,16 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F10" s="10">
         <v>0</v>
@@ -2493,7 +2520,7 @@
       <c r="L10" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" t="s">
         <v>8</v>
       </c>
       <c r="N10" t="s">
@@ -2503,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2527,13 +2554,13 @@
         <v>16</v>
       </c>
       <c r="X10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y10">
         <v>8</v>
       </c>
       <c r="Z10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA10" s="10" t="s">
         <v>8</v>
@@ -2596,9 +2623,9 @@
         <v>30</v>
       </c>
       <c r="AU10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AV10" s="16">
+        <v>75</v>
+      </c>
+      <c r="AV10">
         <v>1</v>
       </c>
       <c r="AW10" t="s">
@@ -2613,16 +2640,16 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="10">
         <v>0</v>
@@ -2631,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2645,7 +2672,7 @@
       <c r="L11" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="M11" t="s">
         <v>8</v>
       </c>
       <c r="N11" t="s">
@@ -2655,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -2679,13 +2706,13 @@
         <v>16</v>
       </c>
       <c r="X11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y11">
         <v>8</v>
       </c>
       <c r="Z11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA11" s="10" t="s">
         <v>36</v>
@@ -2750,7 +2777,7 @@
       <c r="AU11" t="s">
         <v>31</v>
       </c>
-      <c r="AV11" s="16">
+      <c r="AV11">
         <v>1</v>
       </c>
       <c r="AW11" t="s">
@@ -2765,10 +2792,10 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
         <v>51</v>
@@ -2789,7 +2816,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -2797,7 +2824,7 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
@@ -2807,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -2831,13 +2858,13 @@
         <v>16</v>
       </c>
       <c r="X12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y12">
         <v>8</v>
       </c>
       <c r="Z12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA12" s="10">
         <v>10135</v>
@@ -2902,7 +2929,7 @@
       <c r="AU12" t="s">
         <v>31</v>
       </c>
-      <c r="AV12" s="16">
+      <c r="AV12">
         <v>0</v>
       </c>
       <c r="AW12" t="s">
@@ -2917,13 +2944,13 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
         <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s">
         <v>50</v>
@@ -2949,7 +2976,7 @@
       <c r="L13" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="M13" t="s">
         <v>8</v>
       </c>
       <c r="N13" t="s">
@@ -2959,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -2983,13 +3010,13 @@
         <v>16</v>
       </c>
       <c r="X13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y13">
         <v>8</v>
       </c>
       <c r="Z13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA13" s="10" t="s">
         <v>8</v>
@@ -3054,7 +3081,7 @@
       <c r="AU13" t="s">
         <v>31</v>
       </c>
-      <c r="AV13" s="16">
+      <c r="AV13">
         <v>1</v>
       </c>
       <c r="AW13" t="s">
@@ -3069,13 +3096,13 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C14" t="s">
         <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
         <v>50</v>
@@ -3101,7 +3128,7 @@
       <c r="L14" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="M14" t="s">
         <v>8</v>
       </c>
       <c r="N14" t="s">
@@ -3111,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3135,13 +3162,13 @@
         <v>16</v>
       </c>
       <c r="X14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y14">
         <v>8</v>
       </c>
       <c r="Z14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA14" s="10" t="s">
         <v>8</v>
@@ -3206,7 +3233,7 @@
       <c r="AU14" t="s">
         <v>49</v>
       </c>
-      <c r="AV14" s="16">
+      <c r="AV14">
         <v>1</v>
       </c>
       <c r="AW14" t="s">
@@ -3221,13 +3248,13 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
         <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
         <v>51</v>
@@ -3245,7 +3272,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -3253,7 +3280,7 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
@@ -3263,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3287,13 +3314,13 @@
         <v>16</v>
       </c>
       <c r="X15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y15">
         <v>8</v>
       </c>
       <c r="Z15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA15" s="10">
         <v>13843</v>
@@ -3358,7 +3385,7 @@
       <c r="AU15" t="s">
         <v>31</v>
       </c>
-      <c r="AV15" s="16">
+      <c r="AV15">
         <v>0</v>
       </c>
       <c r="AW15" t="s">
@@ -3373,13 +3400,13 @@
         <v>48</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>51</v>
@@ -3397,7 +3424,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K16" s="7">
         <v>0</v>
@@ -3415,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7">
         <v>5</v>
@@ -3439,13 +3466,13 @@
         <v>16</v>
       </c>
       <c r="X16" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y16" s="7">
         <v>8</v>
       </c>
       <c r="Z16" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA16" s="11">
         <v>13843</v>
@@ -3505,7 +3532,7 @@
         <v>51</v>
       </c>
       <c r="AT16" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AU16" s="7" t="s">
         <v>49</v>
@@ -3525,16 +3552,16 @@
         <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17" s="10">
         <v>0</v>
@@ -3549,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -3557,7 +3584,7 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
@@ -3567,7 +3594,7 @@
         <v>1</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -3591,13 +3618,13 @@
         <v>16</v>
       </c>
       <c r="X17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y17">
         <v>8</v>
       </c>
       <c r="Z17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA17" s="10">
         <v>10135</v>
@@ -3657,12 +3684,12 @@
         <v>51</v>
       </c>
       <c r="AT17" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AU17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AV17" s="16">
+        <v>77</v>
+      </c>
+      <c r="AV17">
         <v>0</v>
       </c>
       <c r="AW17" t="s">
@@ -3677,13 +3704,13 @@
         <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -3701,7 +3728,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -3709,7 +3736,7 @@
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
@@ -3719,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -3743,13 +3770,13 @@
         <v>16</v>
       </c>
       <c r="X18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y18">
         <v>8</v>
       </c>
       <c r="Z18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA18" s="10">
         <v>10135</v>
@@ -3809,12 +3836,12 @@
         <v>51</v>
       </c>
       <c r="AT18" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AU18" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV18" s="16">
+        <v>74</v>
+      </c>
+      <c r="AV18">
         <v>0</v>
       </c>
       <c r="AW18" t="s">
@@ -3829,13 +3856,13 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
         <v>51</v>
@@ -3853,7 +3880,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -3861,7 +3888,7 @@
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19" s="16">
+      <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
@@ -3871,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -3895,13 +3922,13 @@
         <v>16</v>
       </c>
       <c r="X19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y19">
         <v>8</v>
       </c>
       <c r="Z19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA19" s="10">
         <v>10999</v>
@@ -3961,12 +3988,12 @@
         <v>51</v>
       </c>
       <c r="AT19" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AU19" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV19" s="16">
+        <v>74</v>
+      </c>
+      <c r="AV19">
         <v>0</v>
       </c>
       <c r="AW19" t="s">
@@ -3978,16 +4005,16 @@
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
         <v>51</v>
@@ -4005,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -4013,7 +4040,7 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
@@ -4023,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4047,13 +4074,13 @@
         <v>16</v>
       </c>
       <c r="X20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y20">
         <v>8</v>
       </c>
       <c r="Z20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA20" s="10">
         <v>11843</v>
@@ -4113,12 +4140,12 @@
         <v>51</v>
       </c>
       <c r="AT20" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AU20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV20" s="16">
+        <v>74</v>
+      </c>
+      <c r="AV20">
         <v>0</v>
       </c>
       <c r="AW20" t="s">
@@ -4130,16 +4157,16 @@
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
         <v>51</v>
@@ -4157,7 +4184,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -4165,7 +4192,7 @@
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21" s="16">
+      <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
@@ -4175,7 +4202,7 @@
         <v>1</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -4199,13 +4226,13 @@
         <v>16</v>
       </c>
       <c r="X21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y21">
         <v>8</v>
       </c>
       <c r="Z21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA21" s="10">
         <v>10473</v>
@@ -4265,12 +4292,12 @@
         <v>51</v>
       </c>
       <c r="AT21" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AU21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV21" s="16">
+        <v>74</v>
+      </c>
+      <c r="AV21">
         <v>0</v>
       </c>
       <c r="AW21" t="s">
@@ -4282,16 +4309,16 @@
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
         <v>51</v>
@@ -4309,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -4317,7 +4344,7 @@
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
@@ -4327,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -4351,13 +4378,13 @@
         <v>16</v>
       </c>
       <c r="X22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y22">
         <v>8</v>
       </c>
       <c r="Z22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA22" s="10">
         <v>10825</v>
@@ -4417,12 +4444,12 @@
         <v>51</v>
       </c>
       <c r="AT22" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AU22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV22" s="16">
+        <v>74</v>
+      </c>
+      <c r="AV22">
         <v>0</v>
       </c>
       <c r="AW22" t="s">
@@ -4434,16 +4461,16 @@
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
         <v>51</v>
@@ -4461,7 +4488,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -4469,7 +4496,7 @@
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23" s="16">
+      <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
@@ -4479,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -4503,13 +4530,13 @@
         <v>16</v>
       </c>
       <c r="X23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y23">
         <v>8</v>
       </c>
       <c r="Z23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA23" s="10">
         <v>12317</v>
@@ -4569,12 +4596,12 @@
         <v>51</v>
       </c>
       <c r="AT23" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AU23" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV23" s="16">
+        <v>74</v>
+      </c>
+      <c r="AV23">
         <v>0</v>
       </c>
       <c r="AW23" t="s">
@@ -4586,16 +4613,16 @@
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
         <v>51</v>
@@ -4613,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -4621,7 +4648,7 @@
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24" s="16">
+      <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
@@ -4631,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -4655,13 +4682,13 @@
         <v>16</v>
       </c>
       <c r="X24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y24">
         <v>8</v>
       </c>
       <c r="Z24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA24" s="10">
         <v>14443</v>
@@ -4721,12 +4748,12 @@
         <v>51</v>
       </c>
       <c r="AT24" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AU24" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV24" s="16">
+        <v>74</v>
+      </c>
+      <c r="AV24">
         <v>0</v>
       </c>
       <c r="AW24" t="s">
@@ -4738,7 +4765,7 @@
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -4747,11 +4774,11 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" t="s">
         <v>109</v>
       </c>
-      <c r="E25" t="s">
-        <v>110</v>
-      </c>
       <c r="F25" s="10" t="s">
         <v>8</v>
       </c>
@@ -4878,7 +4905,7 @@
       <c r="AU25" t="s">
         <v>8</v>
       </c>
-      <c r="AV25" s="16">
+      <c r="AV25">
         <v>0</v>
       </c>
       <c r="AW25" t="s">
@@ -4890,7 +4917,7 @@
     </row>
     <row r="26" spans="1:50" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>8</v>
@@ -4899,10 +4926,10 @@
         <v>8</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>8</v>
@@ -5042,19 +5069,19 @@
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F27" s="10">
         <v>0</v>
@@ -5069,7 +5096,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -5077,7 +5104,7 @@
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27" s="16">
+      <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
@@ -5087,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -5111,16 +5138,16 @@
         <v>16</v>
       </c>
       <c r="X27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y27">
         <v>8</v>
       </c>
       <c r="Z27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA27" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AB27" t="s">
         <v>8</v>
@@ -5142,7 +5169,7 @@
         <v>79.150000000000006</v>
       </c>
       <c r="AH27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AI27" s="10">
         <v>125</v>
@@ -5181,12 +5208,12 @@
         <v>51</v>
       </c>
       <c r="AT27" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AU27" t="s">
-        <v>116</v>
-      </c>
-      <c r="AV27" s="16">
+        <v>177</v>
+      </c>
+      <c r="AV27">
         <v>0</v>
       </c>
       <c r="AW27" t="s">
@@ -5198,19 +5225,19 @@
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F28" s="10">
         <v>0</v>
@@ -5219,7 +5246,7 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -5233,7 +5260,7 @@
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28" s="16">
+      <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
@@ -5243,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -5267,16 +5294,16 @@
         <v>16</v>
       </c>
       <c r="X28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y28">
         <v>8</v>
       </c>
       <c r="Z28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA28" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AB28">
         <v>82032.639999999999</v>
@@ -5286,7 +5313,7 @@
         <v>80.11</v>
       </c>
       <c r="AD28">
-        <f t="shared" ref="AD28:AD31" si="3" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AL28*AM28*AN28)</f>
+        <f t="shared" ref="AD28:AD32" si="3" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AL28*AM28*AN28)</f>
         <v>81518.129922434266</v>
       </c>
       <c r="AE28" s="1">
@@ -5299,7 +5326,7 @@
         <v>79.150000000000006</v>
       </c>
       <c r="AH28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AI28" s="10">
         <v>125</v>
@@ -5338,258 +5365,264 @@
         <v>51</v>
       </c>
       <c r="AT28" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AU28" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV28">
+        <v>1</v>
+      </c>
+      <c r="AW28" t="s">
         <v>116</v>
       </c>
-      <c r="AV28" s="16">
-        <v>1</v>
-      </c>
-      <c r="AW28" t="s">
-        <v>118</v>
-      </c>
       <c r="AX28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:50" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F29" s="11">
-        <v>0</v>
-      </c>
-      <c r="G29" s="7">
-        <v>1</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="7">
-        <v>1</v>
-      </c>
-      <c r="L29" s="7">
-        <v>0</v>
-      </c>
-      <c r="M29" s="7">
-        <v>1</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="7">
-        <v>1</v>
-      </c>
-      <c r="P29" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q29" s="7">
+    <row r="29" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="I29" s="18">
+        <v>0</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="18">
+        <v>1</v>
+      </c>
+      <c r="L29" s="18">
+        <v>0</v>
+      </c>
+      <c r="M29" s="18">
+        <v>1</v>
+      </c>
+      <c r="N29" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="18">
+        <v>1</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q29" s="18">
         <v>5</v>
       </c>
-      <c r="R29" s="7">
+      <c r="R29" s="18">
         <v>5</v>
       </c>
-      <c r="S29" s="7">
+      <c r="S29" s="18">
         <v>3</v>
       </c>
-      <c r="T29" s="7">
+      <c r="T29" s="18">
         <v>2</v>
       </c>
-      <c r="U29" s="7">
+      <c r="U29" s="18">
         <v>3</v>
       </c>
-      <c r="V29" s="7">
-        <v>1</v>
-      </c>
-      <c r="W29" s="7">
+      <c r="V29" s="18">
+        <v>1</v>
+      </c>
+      <c r="W29" s="18">
         <v>16</v>
       </c>
-      <c r="X29" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y29" s="7">
-        <v>8</v>
-      </c>
-      <c r="Z29" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA29" s="11">
+      <c r="X29" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y29" s="18">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA29" s="10">
         <v>77887</v>
       </c>
-      <c r="AB29" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC29" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD29" s="7">
+      <c r="AB29" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD29" s="18">
         <f t="shared" si="3"/>
         <v>76989.258353221856</v>
       </c>
-      <c r="AE29" s="8">
+      <c r="AE29" s="1">
         <v>81920</v>
       </c>
-      <c r="AF29" s="7">
+      <c r="AF29" s="18">
         <v>81049.600000000006</v>
       </c>
-      <c r="AG29" s="7">
+      <c r="AG29" s="18">
         <v>79.150000000000006</v>
       </c>
-      <c r="AH29" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI29" s="11">
+      <c r="AH29" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI29" s="10">
         <v>125</v>
       </c>
-      <c r="AJ29" s="7">
+      <c r="AJ29" s="18">
         <v>1169</v>
       </c>
-      <c r="AK29" s="7">
+      <c r="AK29" s="18">
         <v>414</v>
       </c>
-      <c r="AL29" s="8">
+      <c r="AL29" s="1">
         <v>112</v>
       </c>
-      <c r="AM29" s="7">
+      <c r="AM29" s="18">
         <v>800</v>
       </c>
-      <c r="AN29" s="7">
+      <c r="AN29" s="18">
         <v>400</v>
       </c>
-      <c r="AO29" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP29" s="8">
+      <c r="AO29" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP29" s="1">
         <f xml:space="preserve"> _xlfn.FLOOR.MATH((AI29 - AL29) / 2)</f>
         <v>6</v>
       </c>
-      <c r="AQ29" s="7">
+      <c r="AQ29" s="18">
         <f t="shared" ref="AQ29" si="6" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ29 - AM29) / 2)</f>
         <v>184</v>
       </c>
-      <c r="AR29" s="7">
+      <c r="AR29" s="18">
         <f t="shared" ref="AR29" si="7" xml:space="preserve"> _xlfn.FLOOR.MATH((AK29 - AN29) / 2)</f>
         <v>7</v>
       </c>
-      <c r="AS29" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT29" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU29" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AV29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AW29" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX29" s="7" t="s">
+      <c r="AS29" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT29" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV29" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX29" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>171</v>
+      <c r="A30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" t="s">
+        <v>168</v>
       </c>
       <c r="F30" s="10">
         <v>0</v>
       </c>
-      <c r="G30" s="16">
-        <v>0</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="16">
-        <v>1</v>
-      </c>
-      <c r="J30" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="K30" s="16">
-        <v>0</v>
-      </c>
-      <c r="L30" s="16">
-        <v>0</v>
-      </c>
-      <c r="M30" s="16">
-        <v>0</v>
-      </c>
-      <c r="N30" s="16">
-        <v>0</v>
-      </c>
-      <c r="O30" s="16">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>153</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
         <v>1</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q30" s="16">
+        <v>73</v>
+      </c>
+      <c r="Q30">
         <v>5</v>
       </c>
-      <c r="R30" s="16">
+      <c r="R30">
         <v>5</v>
       </c>
-      <c r="S30" s="16">
+      <c r="S30">
         <v>3</v>
       </c>
-      <c r="T30" s="16">
+      <c r="T30">
         <v>2</v>
       </c>
-      <c r="U30" s="16">
+      <c r="U30">
         <v>3</v>
       </c>
-      <c r="V30" s="16">
-        <v>1</v>
-      </c>
-      <c r="W30" s="16">
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
         <v>16</v>
       </c>
-      <c r="X30" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y30" s="16">
-        <v>8</v>
-      </c>
-      <c r="Z30" s="16" t="s">
-        <v>104</v>
+      <c r="X30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y30">
+        <v>8</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>103</v>
       </c>
       <c r="AA30" s="10">
         <v>77885</v>
+      </c>
+      <c r="AB30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC30" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="AD30">
         <f t="shared" si="3"/>
@@ -5604,8 +5637,8 @@
       <c r="AG30">
         <v>79.150000000000006</v>
       </c>
-      <c r="AH30" s="18" t="s">
-        <v>113</v>
+      <c r="AH30" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="AI30" s="10">
         <v>125</v>
@@ -5641,95 +5674,110 @@
         <v>51</v>
       </c>
       <c r="AT30" s="10" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="AU30" t="s">
-        <v>116</v>
+        <v>177</v>
+      </c>
+      <c r="AV30" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX30" s="15" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="E31" s="16" t="s">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" t="s">
         <v>133</v>
       </c>
-      <c r="F31" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="K31" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="L31" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="M31" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="N31" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="O31" s="16" t="s">
-        <v>133</v>
+      <c r="C31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" t="s">
+        <v>172</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>175</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q31" s="15">
+        <v>73</v>
+      </c>
+      <c r="Q31">
         <v>5</v>
       </c>
-      <c r="R31" s="16">
+      <c r="R31">
         <v>5</v>
       </c>
-      <c r="S31" s="15">
+      <c r="S31">
         <v>3</v>
       </c>
-      <c r="T31" s="15">
+      <c r="T31">
         <v>2</v>
       </c>
-      <c r="U31" s="15">
+      <c r="U31">
         <v>3</v>
       </c>
-      <c r="V31" s="15">
-        <v>1</v>
-      </c>
-      <c r="W31" s="15">
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
         <v>16</v>
       </c>
-      <c r="X31" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y31" s="15">
-        <v>8</v>
-      </c>
-      <c r="Z31" s="15" t="s">
-        <v>104</v>
+      <c r="X31" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y31">
+        <v>8</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>103</v>
       </c>
       <c r="AA31" s="10">
         <v>78017</v>
       </c>
-      <c r="AD31" s="15">
+      <c r="AB31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD31">
         <f t="shared" si="3"/>
         <v>76989.258353221856</v>
       </c>
@@ -5742,47 +5790,286 @@
       <c r="AG31">
         <v>79.150000000000006</v>
       </c>
-      <c r="AH31" s="15" t="s">
-        <v>113</v>
+      <c r="AH31" t="s">
+        <v>112</v>
       </c>
       <c r="AI31" s="10">
         <v>125</v>
       </c>
-      <c r="AJ31" s="15">
+      <c r="AJ31">
         <v>1169</v>
       </c>
-      <c r="AK31" s="15">
+      <c r="AK31">
         <v>414</v>
       </c>
       <c r="AL31" s="1">
         <v>112</v>
       </c>
-      <c r="AM31" s="15">
+      <c r="AM31">
         <v>800</v>
       </c>
-      <c r="AN31" s="15">
+      <c r="AN31">
         <v>400</v>
       </c>
-      <c r="AO31" s="15" t="s">
+      <c r="AO31" t="s">
         <v>51</v>
       </c>
       <c r="AP31" s="1">
         <v>6</v>
       </c>
-      <c r="AQ31" s="15">
+      <c r="AQ31">
         <v>184</v>
       </c>
-      <c r="AR31" s="15">
+      <c r="AR31">
         <v>7</v>
       </c>
-      <c r="AS31" s="15" t="s">
+      <c r="AS31" t="s">
         <v>51</v>
       </c>
       <c r="AT31" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU31" s="15" t="s">
-        <v>116</v>
+        <v>181</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV31" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX31" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:50" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K32" s="7">
+        <v>1</v>
+      </c>
+      <c r="L32" s="7">
+        <v>1</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1</v>
+      </c>
+      <c r="O32" s="7">
+        <v>1</v>
+      </c>
+      <c r="P32" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>5</v>
+      </c>
+      <c r="R32" s="7">
+        <v>5</v>
+      </c>
+      <c r="S32" s="7">
+        <v>3</v>
+      </c>
+      <c r="T32" s="7">
+        <v>2</v>
+      </c>
+      <c r="U32" s="7">
+        <v>3</v>
+      </c>
+      <c r="V32" s="7">
+        <v>1</v>
+      </c>
+      <c r="W32" s="7">
+        <v>16</v>
+      </c>
+      <c r="X32" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y32" s="7">
+        <v>8</v>
+      </c>
+      <c r="Z32" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA32" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB32" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC32" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD32" s="7">
+        <f t="shared" si="3"/>
+        <v>76989.258353221856</v>
+      </c>
+      <c r="AE32" s="8">
+        <v>81920</v>
+      </c>
+      <c r="AF32" s="7">
+        <v>81049.600000000006</v>
+      </c>
+      <c r="AG32" s="7">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="AH32" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI32" s="11">
+        <v>125</v>
+      </c>
+      <c r="AJ32" s="7">
+        <v>1169</v>
+      </c>
+      <c r="AK32" s="7">
+        <v>414</v>
+      </c>
+      <c r="AL32" s="8">
+        <v>112</v>
+      </c>
+      <c r="AM32" s="7">
+        <v>800</v>
+      </c>
+      <c r="AN32" s="7">
+        <v>400</v>
+      </c>
+      <c r="AO32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP32" s="8">
+        <v>6</v>
+      </c>
+      <c r="AQ32" s="7">
+        <v>184</v>
+      </c>
+      <c r="AR32" s="7">
+        <v>7</v>
+      </c>
+      <c r="AS32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT32" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AU32" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX32" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="O33" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q33" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="R33" t="s">
+        <v>131</v>
+      </c>
+      <c r="S33" t="s">
+        <v>131</v>
+      </c>
+      <c r="T33" t="s">
+        <v>131</v>
+      </c>
+      <c r="U33" s="15">
+        <v>1</v>
+      </c>
+      <c r="V33" s="15">
+        <v>1</v>
+      </c>
+      <c r="W33" s="15">
+        <v>16</v>
+      </c>
+      <c r="X33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y33">
+        <v>8</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9038D98E-610D-478C-86F4-28811EAFD00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC162C3-0F80-4853-8DCD-E3DC78BFDE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="2595" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="188">
   <si>
     <t>patch z</t>
   </si>
@@ -573,16 +573,34 @@
     <t>stride = floor (resolution - patch) / 2</t>
   </si>
   <si>
-    <t>higher val eval score increase &amp; better val prediction images by increasing train sample size by creating a new pooled heart stain dataset (dataset04).</t>
-  </si>
-  <si>
-    <t>Good enough performance metrics &amp; val prediction images to merit test3dunet session.</t>
-  </si>
-  <si>
     <t>dataset04</t>
   </si>
   <si>
     <t>patch = arbitrary even int_2^3 as large a possible</t>
+  </si>
+  <si>
+    <t>higher val eval score increase &amp; better val prediction images by increasing train sample size by re-assigning the h5 files to train, val, and test sets (dataset04).</t>
+  </si>
+  <si>
+    <t>Better performance metrics &amp; val prediction images, but not good enough to merit test3dunet session.</t>
+  </si>
+  <si>
+    <t>Better validation performance metrics by pooling all ct3 488 nm images into one dataset.</t>
+  </si>
+  <si>
+    <t>Higher generalisability than with smaller train sample size in previous train3dunet sessions, therefore good enough performance metrics &amp; val prediction images to merit test3dunet session.</t>
+  </si>
+  <si>
+    <t>230908-0</t>
+  </si>
+  <si>
+    <t>230908-1</t>
+  </si>
+  <si>
+    <t>test VRAM usage with identical hyper parameters but higher number of images</t>
+  </si>
+  <si>
+    <t>expect VRAM usage to increase proportionally to increase in image number.</t>
   </si>
 </sst>
 </file>
@@ -721,7 +739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -739,9 +757,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1057,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
-  <dimension ref="A1:AX33"/>
+  <dimension ref="A1:AX35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="C24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1075,7 +1092,7 @@
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" customWidth="1"/>
     <col min="10" max="10" width="16.28515625" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="10.42578125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="9.140625" customWidth="1" outlineLevel="1"/>
     <col min="19" max="19" width="6.7109375" customWidth="1" outlineLevel="1"/>
     <col min="20" max="22" width="5.140625" customWidth="1" outlineLevel="1"/>
@@ -5380,159 +5397,159 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" t="s">
         <v>157</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" t="s">
         <v>156</v>
       </c>
       <c r="F29" s="10">
         <v>0</v>
       </c>
-      <c r="G29" s="18">
-        <v>1</v>
-      </c>
-      <c r="H29" s="18" t="s">
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
         <v>175</v>
       </c>
-      <c r="I29" s="18">
-        <v>0</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="18">
-        <v>1</v>
-      </c>
-      <c r="L29" s="18">
-        <v>0</v>
-      </c>
-      <c r="M29" s="18">
-        <v>1</v>
-      </c>
-      <c r="N29" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="18">
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29">
         <v>1</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q29" s="18">
+      <c r="Q29">
         <v>5</v>
       </c>
-      <c r="R29" s="18">
+      <c r="R29">
         <v>5</v>
       </c>
-      <c r="S29" s="18">
+      <c r="S29">
         <v>3</v>
       </c>
-      <c r="T29" s="18">
+      <c r="T29">
         <v>2</v>
       </c>
-      <c r="U29" s="18">
+      <c r="U29">
         <v>3</v>
       </c>
-      <c r="V29" s="18">
-        <v>1</v>
-      </c>
-      <c r="W29" s="18">
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
         <v>16</v>
       </c>
-      <c r="X29" s="18" t="s">
+      <c r="X29" t="s">
         <v>101</v>
       </c>
-      <c r="Y29" s="18">
-        <v>8</v>
-      </c>
-      <c r="Z29" s="18" t="s">
+      <c r="Y29">
+        <v>8</v>
+      </c>
+      <c r="Z29" t="s">
         <v>103</v>
       </c>
       <c r="AA29" s="10">
         <v>77887</v>
       </c>
-      <c r="AB29" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC29" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD29" s="18">
+      <c r="AB29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD29">
         <f t="shared" si="3"/>
         <v>76989.258353221856</v>
       </c>
       <c r="AE29" s="1">
         <v>81920</v>
       </c>
-      <c r="AF29" s="18">
+      <c r="AF29">
         <v>81049.600000000006</v>
       </c>
-      <c r="AG29" s="18">
+      <c r="AG29">
         <v>79.150000000000006</v>
       </c>
-      <c r="AH29" s="18" t="s">
+      <c r="AH29" t="s">
         <v>112</v>
       </c>
       <c r="AI29" s="10">
         <v>125</v>
       </c>
-      <c r="AJ29" s="18">
+      <c r="AJ29">
         <v>1169</v>
       </c>
-      <c r="AK29" s="18">
+      <c r="AK29">
         <v>414</v>
       </c>
       <c r="AL29" s="1">
         <v>112</v>
       </c>
-      <c r="AM29" s="18">
+      <c r="AM29">
         <v>800</v>
       </c>
-      <c r="AN29" s="18">
+      <c r="AN29">
         <v>400</v>
       </c>
-      <c r="AO29" s="18" t="s">
+      <c r="AO29" t="s">
         <v>51</v>
       </c>
       <c r="AP29" s="1">
         <f xml:space="preserve"> _xlfn.FLOOR.MATH((AI29 - AL29) / 2)</f>
         <v>6</v>
       </c>
-      <c r="AQ29" s="18">
+      <c r="AQ29">
         <f t="shared" ref="AQ29" si="6" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ29 - AM29) / 2)</f>
         <v>184</v>
       </c>
-      <c r="AR29" s="18">
+      <c r="AR29">
         <f t="shared" ref="AR29" si="7" xml:space="preserve"> _xlfn.FLOOR.MATH((AK29 - AN29) / 2)</f>
         <v>7</v>
       </c>
-      <c r="AS29" s="18" t="s">
+      <c r="AS29" t="s">
         <v>51</v>
       </c>
       <c r="AT29" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AU29" t="s">
         <v>177</v>
       </c>
-      <c r="AV29" s="18">
-        <v>0</v>
-      </c>
-      <c r="AW29" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX29" s="18" t="s">
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX29" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5618,10 +5635,10 @@
       <c r="AA30" s="10">
         <v>77885</v>
       </c>
-      <c r="AB30" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC30" s="15" t="s">
+      <c r="AB30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC30" t="s">
         <v>8</v>
       </c>
       <c r="AD30">
@@ -5637,7 +5654,7 @@
       <c r="AG30">
         <v>79.150000000000006</v>
       </c>
-      <c r="AH30" s="17" t="s">
+      <c r="AH30" s="15" t="s">
         <v>112</v>
       </c>
       <c r="AI30" s="10">
@@ -5674,18 +5691,18 @@
         <v>51</v>
       </c>
       <c r="AT30" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AU30" t="s">
         <v>177</v>
       </c>
-      <c r="AV30" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW30" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX30" s="15" t="s">
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX30" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5771,10 +5788,10 @@
       <c r="AA31" s="10">
         <v>78017</v>
       </c>
-      <c r="AB31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC31" s="15" t="s">
+      <c r="AB31" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC31" t="s">
         <v>8</v>
       </c>
       <c r="AD31">
@@ -5827,221 +5844,224 @@
         <v>51</v>
       </c>
       <c r="AT31" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AU31" t="s">
         <v>177</v>
       </c>
-      <c r="AV31" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX31" s="15" t="s">
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:50" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:50" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="F32" s="11">
-        <v>0</v>
-      </c>
-      <c r="G32" s="7">
-        <v>0</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="7">
-        <v>1</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="F32" s="10">
+        <v>0</v>
+      </c>
+      <c r="G32" s="17">
+        <v>0</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="17">
+        <v>1</v>
+      </c>
+      <c r="J32" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="K32" s="7">
-        <v>1</v>
-      </c>
-      <c r="L32" s="7">
-        <v>1</v>
-      </c>
-      <c r="M32" s="7">
-        <v>1</v>
-      </c>
-      <c r="N32" s="7">
-        <v>1</v>
-      </c>
-      <c r="O32" s="7">
-        <v>1</v>
-      </c>
-      <c r="P32" s="8" t="s">
+      <c r="K32" s="17">
+        <v>1</v>
+      </c>
+      <c r="L32" s="17">
+        <v>1</v>
+      </c>
+      <c r="M32" s="17">
+        <v>1</v>
+      </c>
+      <c r="N32" s="17">
+        <v>1</v>
+      </c>
+      <c r="O32" s="17">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q32" s="7">
+      <c r="Q32" s="17">
         <v>5</v>
       </c>
-      <c r="R32" s="7">
+      <c r="R32" s="17">
         <v>5</v>
       </c>
-      <c r="S32" s="7">
+      <c r="S32" s="17">
         <v>3</v>
       </c>
-      <c r="T32" s="7">
+      <c r="T32" s="17">
         <v>2</v>
       </c>
-      <c r="U32" s="7">
+      <c r="U32" s="17">
         <v>3</v>
       </c>
-      <c r="V32" s="7">
-        <v>1</v>
-      </c>
-      <c r="W32" s="7">
+      <c r="V32" s="17">
+        <v>1</v>
+      </c>
+      <c r="W32" s="17">
         <v>16</v>
       </c>
-      <c r="X32" s="7" t="s">
+      <c r="X32" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="Y32" s="7">
-        <v>8</v>
-      </c>
-      <c r="Z32" s="7" t="s">
+      <c r="Y32" s="17">
+        <v>8</v>
+      </c>
+      <c r="Z32" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="AA32" s="11" t="s">
+      <c r="AA32" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="AB32" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC32" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD32" s="7">
+      <c r="AB32" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC32" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD32" s="17">
         <f t="shared" si="3"/>
         <v>76989.258353221856</v>
       </c>
-      <c r="AE32" s="8">
+      <c r="AE32" s="1">
         <v>81920</v>
       </c>
-      <c r="AF32" s="7">
+      <c r="AF32" s="17">
         <v>81049.600000000006</v>
       </c>
-      <c r="AG32" s="7">
+      <c r="AG32" s="17">
         <v>79.150000000000006</v>
       </c>
-      <c r="AH32" s="7" t="s">
+      <c r="AH32" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="AI32" s="11">
+      <c r="AI32" s="10">
         <v>125</v>
       </c>
-      <c r="AJ32" s="7">
+      <c r="AJ32" s="17">
         <v>1169</v>
       </c>
-      <c r="AK32" s="7">
+      <c r="AK32" s="17">
         <v>414</v>
       </c>
-      <c r="AL32" s="8">
+      <c r="AL32" s="1">
         <v>112</v>
       </c>
-      <c r="AM32" s="7">
+      <c r="AM32" s="17">
         <v>800</v>
       </c>
-      <c r="AN32" s="7">
+      <c r="AN32" s="17">
         <v>400</v>
       </c>
-      <c r="AO32" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP32" s="8">
+      <c r="AO32" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP32" s="1">
         <v>6</v>
       </c>
-      <c r="AQ32" s="7">
+      <c r="AQ32" s="17">
         <v>184</v>
       </c>
-      <c r="AR32" s="7">
+      <c r="AR32" s="17">
         <v>7</v>
       </c>
-      <c r="AS32" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT32" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="AU32" s="7" t="s">
+      <c r="AS32" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT32" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU32" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="AV32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AW32" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX32" s="16" t="s">
+      <c r="AV32" s="17">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX32" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C33" t="s">
-        <v>178</v>
-      </c>
-      <c r="D33" t="s">
-        <v>179</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="C33" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>131</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" t="s">
         <v>131</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" t="s">
         <v>131</v>
       </c>
-      <c r="I33" s="15" t="s">
+      <c r="I33" t="s">
         <v>131</v>
       </c>
-      <c r="J33" s="15" t="s">
+      <c r="J33" t="s">
         <v>131</v>
       </c>
-      <c r="K33" s="15" t="s">
+      <c r="K33" t="s">
         <v>131</v>
       </c>
-      <c r="L33" s="15" t="s">
+      <c r="L33" t="s">
         <v>131</v>
       </c>
-      <c r="M33" s="15" t="s">
+      <c r="M33" t="s">
         <v>131</v>
       </c>
-      <c r="N33" s="15" t="s">
+      <c r="N33" t="s">
         <v>131</v>
       </c>
-      <c r="O33" s="15" t="s">
+      <c r="O33" t="s">
         <v>131</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q33" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q33" t="s">
         <v>131</v>
       </c>
       <c r="R33" t="s">
@@ -6053,13 +6073,13 @@
       <c r="T33" t="s">
         <v>131</v>
       </c>
-      <c r="U33" s="15">
-        <v>1</v>
-      </c>
-      <c r="V33" s="15">
-        <v>1</v>
-      </c>
-      <c r="W33" s="15">
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
         <v>16</v>
       </c>
       <c r="X33" t="s">
@@ -6070,6 +6090,100 @@
       </c>
       <c r="Z33" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G34" t="s">
+        <v>131</v>
+      </c>
+      <c r="H34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I34" t="s">
+        <v>131</v>
+      </c>
+      <c r="J34" t="s">
+        <v>131</v>
+      </c>
+      <c r="K34" t="s">
+        <v>131</v>
+      </c>
+      <c r="L34" t="s">
+        <v>131</v>
+      </c>
+      <c r="M34" t="s">
+        <v>131</v>
+      </c>
+      <c r="N34" t="s">
+        <v>131</v>
+      </c>
+      <c r="O34" t="s">
+        <v>131</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>131</v>
+      </c>
+      <c r="R34" t="s">
+        <v>131</v>
+      </c>
+      <c r="S34" t="s">
+        <v>131</v>
+      </c>
+      <c r="T34" t="s">
+        <v>131</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>16</v>
+      </c>
+      <c r="X34" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y34">
+        <v>8</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC162C3-0F80-4853-8DCD-E3DC78BFDE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1919C827-7E10-41A3-BB6E-5CA123F602B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="2595" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="192">
   <si>
     <t>patch z</t>
   </si>
@@ -601,6 +601,18 @@
   </si>
   <si>
     <t>expect VRAM usage to increase proportionally to increase in image number.</t>
+  </si>
+  <si>
+    <t>out of VRAM, as expected. But due to the different sort of output due to the program being run via sbatch slurm job and not an interactive srun gpu session, I don't know how much additional memory was attempted to be loaded. So, I will have to guess for the next run.</t>
+  </si>
+  <si>
+    <t>&gt;78021?</t>
+  </si>
+  <si>
+    <t>slurmstepd: error: Detected 3 oom-kill event(s) in StepId=5017581.batch. Some of your processes may have been killed by the cgroup out-of-memory handler.</t>
+  </si>
+  <si>
+    <t>n train + val</t>
   </si>
 </sst>
 </file>
@@ -739,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -759,7 +771,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1074,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
-  <dimension ref="A1:AX35"/>
+  <dimension ref="A1:AY35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AO20" sqref="AO20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1095,38 +1106,38 @@
     <col min="16" max="16" width="10.42578125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="9.140625" customWidth="1" outlineLevel="1"/>
     <col min="19" max="19" width="6.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="22" width="5.140625" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="5.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="8.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="5.140625" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="7" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="9.140625" style="10" customWidth="1"/>
-    <col min="28" max="30" width="9.140625" customWidth="1"/>
-    <col min="31" max="31" width="7.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="33" width="7.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="23.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="6" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5.28515625" style="1" customWidth="1"/>
-    <col min="39" max="39" width="6.140625" customWidth="1"/>
-    <col min="40" max="41" width="5" customWidth="1"/>
-    <col min="42" max="42" width="6.140625" style="1" customWidth="1"/>
-    <col min="43" max="43" width="6.5703125" customWidth="1"/>
-    <col min="44" max="44" width="5" customWidth="1"/>
-    <col min="45" max="45" width="6" customWidth="1"/>
-    <col min="46" max="46" width="34.28515625" style="10" customWidth="1"/>
-    <col min="47" max="47" width="74.42578125" customWidth="1"/>
-    <col min="48" max="48" width="5.140625" customWidth="1"/>
-    <col min="49" max="49" width="73.85546875" customWidth="1"/>
-    <col min="50" max="50" width="206" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.7109375" customWidth="1"/>
-    <col min="55" max="55" width="12.140625" customWidth="1"/>
+    <col min="20" max="23" width="5.140625" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="5.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="8.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="5.140625" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="7" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="9.140625" style="10" customWidth="1"/>
+    <col min="29" max="31" width="9.140625" customWidth="1"/>
+    <col min="32" max="32" width="7.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="34" width="7.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="23.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.28515625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="6.140625" customWidth="1"/>
+    <col min="41" max="42" width="5" customWidth="1"/>
+    <col min="43" max="43" width="6.140625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="6.5703125" customWidth="1"/>
+    <col min="45" max="45" width="5" customWidth="1"/>
+    <col min="46" max="46" width="6" customWidth="1"/>
+    <col min="47" max="47" width="34.28515625" style="10" customWidth="1"/>
+    <col min="48" max="48" width="74.42578125" customWidth="1"/>
+    <col min="49" max="49" width="5.140625" customWidth="1"/>
+    <col min="50" max="50" width="73.85546875" customWidth="1"/>
+    <col min="51" max="51" width="206" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.7109375" customWidth="1"/>
+    <col min="56" max="56" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
@@ -1188,97 +1199,100 @@
         <v>82</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>5</v>
+        <v>191</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AL1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>1</v>
+      <c r="AM1" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="AN1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AU1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -1340,28 +1354,29 @@
         <v>2</v>
       </c>
       <c r="U2">
+        <f xml:space="preserve"> S2 + T2</f>
+        <v>5</v>
+      </c>
+      <c r="V2">
         <v>3</v>
       </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
       <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
         <v>16</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>101</v>
       </c>
-      <c r="Y2">
-        <v>8</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="Z2">
+        <v>8</v>
+      </c>
+      <c r="AA2" t="s">
         <v>103</v>
       </c>
-      <c r="AA2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>8</v>
+      <c r="AB2" s="10">
+        <v>0</v>
       </c>
       <c r="AC2" t="s">
         <v>8</v>
@@ -1369,31 +1384,31 @@
       <c r="AD2" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AE2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AF2" t="s">
-        <v>8</v>
-      </c>
       <c r="AG2" t="s">
         <v>8</v>
       </c>
       <c r="AH2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI2" t="s">
         <v>115</v>
       </c>
-      <c r="AI2" s="10">
+      <c r="AJ2" s="10">
         <v>125</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1169</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>414</v>
       </c>
-      <c r="AL2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AM2" s="1" t="s">
         <v>131</v>
       </c>
       <c r="AN2" t="s">
@@ -1402,10 +1417,10 @@
       <c r="AO2" t="s">
         <v>131</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AP2" t="s">
         <v>131</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>131</v>
       </c>
       <c r="AR2" t="s">
@@ -1414,23 +1429,26 @@
       <c r="AS2" t="s">
         <v>131</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AT2" t="s">
         <v>131</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AU2" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="AV2">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="s">
+      <c r="AV2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AW2">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="s">
         <v>151</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -1492,60 +1510,61 @@
         <v>2</v>
       </c>
       <c r="U3">
+        <f xml:space="preserve"> S3 + T3</f>
+        <v>5</v>
+      </c>
+      <c r="V3">
         <v>3</v>
       </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
       <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
         <v>16</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>101</v>
       </c>
-      <c r="Y3">
-        <v>8</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="Z3">
+        <v>8</v>
+      </c>
+      <c r="AA3" t="s">
         <v>103</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AB3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="AB3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC3" t="s">
         <v>8</v>
       </c>
       <c r="AD3" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AE3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AF3" t="s">
-        <v>8</v>
-      </c>
       <c r="AG3" t="s">
         <v>8</v>
       </c>
       <c r="AH3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI3" t="s">
         <v>115</v>
       </c>
-      <c r="AI3" s="10">
+      <c r="AJ3" s="10">
         <v>125</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>1169</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>414</v>
       </c>
-      <c r="AL3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AM3" t="s">
+      <c r="AM3" s="1" t="s">
         <v>131</v>
       </c>
       <c r="AN3" t="s">
@@ -1554,10 +1573,10 @@
       <c r="AO3" t="s">
         <v>131</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AP3" t="s">
         <v>131</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>131</v>
       </c>
       <c r="AR3" t="s">
@@ -1566,23 +1585,26 @@
       <c r="AS3" t="s">
         <v>131</v>
       </c>
-      <c r="AT3" s="10" t="s">
+      <c r="AT3" t="s">
         <v>131</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AU3" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>8</v>
+      <c r="AV3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
       </c>
       <c r="AX3" t="s">
         <v>8</v>
       </c>
+      <c r="AY3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:50" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>57</v>
       </c>
@@ -1644,97 +1666,101 @@
         <v>2</v>
       </c>
       <c r="U4" s="12">
+        <f xml:space="preserve"> S4 + T4</f>
+        <v>5</v>
+      </c>
+      <c r="V4" s="12">
         <v>3</v>
       </c>
-      <c r="V4" s="12">
-        <v>1</v>
-      </c>
       <c r="W4" s="12">
+        <v>1</v>
+      </c>
+      <c r="X4" s="12">
         <v>16</v>
       </c>
-      <c r="X4" s="12" t="s">
+      <c r="Y4" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="Y4" s="12">
-        <v>8</v>
-      </c>
-      <c r="Z4" s="12" t="s">
+      <c r="Z4" s="12">
+        <v>8</v>
+      </c>
+      <c r="AA4" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="AA4" s="13" t="s">
+      <c r="AB4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AB4" s="12" t="s">
-        <v>8</v>
-      </c>
       <c r="AC4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="AD4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AE4" s="14">
+      <c r="AE4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF4" s="14">
         <v>32768</v>
       </c>
-      <c r="AF4" s="12" t="s">
-        <v>8</v>
-      </c>
       <c r="AG4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="AH4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="13">
+      <c r="AJ4" s="13">
         <v>125</v>
       </c>
-      <c r="AJ4" s="12">
+      <c r="AK4" s="12">
         <v>1169</v>
       </c>
-      <c r="AK4" s="12">
+      <c r="AL4" s="12">
         <v>414</v>
       </c>
-      <c r="AL4" s="14">
+      <c r="AM4" s="14">
         <v>105</v>
       </c>
-      <c r="AM4" s="12">
+      <c r="AN4" s="12">
         <v>1149</v>
       </c>
-      <c r="AN4" s="12">
+      <c r="AO4" s="12">
         <v>394</v>
       </c>
-      <c r="AO4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP4" s="14">
-        <v>10</v>
-      </c>
-      <c r="AQ4" s="12">
+      <c r="AP4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ4" s="14">
         <v>10</v>
       </c>
       <c r="AR4" s="12">
         <v>10</v>
       </c>
-      <c r="AS4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT4" s="13" t="s">
+      <c r="AS4" s="12">
+        <v>10</v>
+      </c>
+      <c r="AT4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AU4" s="12" t="s">
+      <c r="AV4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AV4" s="12">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="12" t="s">
-        <v>8</v>
+      <c r="AW4" s="12">
+        <v>0</v>
       </c>
       <c r="AX4" s="12" t="s">
         <v>8</v>
       </c>
+      <c r="AY4" s="12" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1796,97 +1822,101 @@
         <v>2</v>
       </c>
       <c r="U5">
+        <f xml:space="preserve"> S5 + T5</f>
+        <v>5</v>
+      </c>
+      <c r="V5">
         <v>3</v>
       </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
       <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
         <v>16</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>101</v>
       </c>
-      <c r="Y5">
-        <v>8</v>
-      </c>
-      <c r="Z5" t="s">
+      <c r="Z5">
+        <v>8</v>
+      </c>
+      <c r="AA5" t="s">
         <v>103</v>
       </c>
-      <c r="AA5" s="10" t="s">
+      <c r="AB5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AB5" t="s">
-        <v>8</v>
-      </c>
       <c r="AC5" t="s">
         <v>8</v>
       </c>
       <c r="AD5" t="s">
         <v>8</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AE5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF5" s="1">
         <v>32768</v>
       </c>
-      <c r="AF5" t="s">
-        <v>8</v>
-      </c>
       <c r="AG5" t="s">
         <v>8</v>
       </c>
       <c r="AH5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="s">
         <v>35</v>
       </c>
-      <c r="AI5" s="10">
+      <c r="AJ5" s="10">
         <v>125</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>1169</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>414</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AM5" s="1">
         <v>100</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>1100</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>390</v>
       </c>
-      <c r="AO5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>10</v>
-      </c>
-      <c r="AQ5">
+      <c r="AP5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ5" s="1">
         <v>10</v>
       </c>
       <c r="AR5">
         <v>10</v>
       </c>
-      <c r="AS5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT5" s="10" t="s">
+      <c r="AS5">
+        <v>10</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AV5" t="s">
         <v>16</v>
       </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>8</v>
+      <c r="AW5">
+        <v>0</v>
       </c>
       <c r="AX5" t="s">
         <v>8</v>
       </c>
+      <c r="AY5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1948,27 +1978,28 @@
         <v>2</v>
       </c>
       <c r="U6">
+        <f xml:space="preserve"> S6 + T6</f>
+        <v>5</v>
+      </c>
+      <c r="V6">
         <v>3</v>
       </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
       <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
         <v>16</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>101</v>
       </c>
-      <c r="Y6">
-        <v>8</v>
-      </c>
-      <c r="Z6" t="s">
+      <c r="Z6">
+        <v>8</v>
+      </c>
+      <c r="AA6" t="s">
         <v>103</v>
       </c>
-      <c r="AA6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB6" t="s">
+      <c r="AB6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AC6" t="s">
@@ -1977,68 +2008,71 @@
       <c r="AD6" t="s">
         <v>8</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AE6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF6" s="1">
         <v>32768</v>
       </c>
-      <c r="AF6" t="s">
-        <v>8</v>
-      </c>
       <c r="AG6" t="s">
         <v>8</v>
       </c>
       <c r="AH6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI6" t="s">
         <v>35</v>
       </c>
-      <c r="AI6" s="10">
+      <c r="AJ6" s="10">
         <v>125</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>1169</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>414</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AM6" s="1">
         <v>100</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>1100</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>390</v>
       </c>
-      <c r="AO6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP6" s="1">
+      <c r="AP6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ6" s="1">
         <v>26</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>70</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <v>25</v>
       </c>
-      <c r="AS6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT6" s="10" t="s">
+      <c r="AT6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AU6" t="s">
+      <c r="AV6" t="s">
         <v>10</v>
       </c>
-      <c r="AV6">
-        <v>1</v>
-      </c>
-      <c r="AW6" t="s">
+      <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="AX6" t="s">
         <v>15</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AY6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2100,27 +2134,28 @@
         <v>2</v>
       </c>
       <c r="U7">
+        <f xml:space="preserve"> S7 + T7</f>
+        <v>5</v>
+      </c>
+      <c r="V7">
         <v>3</v>
       </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
       <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
         <v>16</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>101</v>
       </c>
-      <c r="Y7">
-        <v>8</v>
-      </c>
-      <c r="Z7" t="s">
+      <c r="Z7">
+        <v>8</v>
+      </c>
+      <c r="AA7" t="s">
         <v>103</v>
       </c>
-      <c r="AA7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB7" t="s">
+      <c r="AB7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AC7" t="s">
@@ -2129,68 +2164,71 @@
       <c r="AD7" t="s">
         <v>8</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AE7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF7" s="1">
         <v>32768</v>
       </c>
-      <c r="AF7" t="s">
-        <v>8</v>
-      </c>
       <c r="AG7" t="s">
         <v>8</v>
       </c>
       <c r="AH7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI7" t="s">
         <v>35</v>
       </c>
-      <c r="AI7" s="10">
+      <c r="AJ7" s="10">
         <v>125</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>1169</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>414</v>
       </c>
-      <c r="AL7" s="1">
+      <c r="AM7" s="1">
         <v>100</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>1100</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>390</v>
       </c>
-      <c r="AO7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP7" s="1">
+      <c r="AP7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ7" s="1">
         <v>25</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>69</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <v>24</v>
       </c>
-      <c r="AS7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT7" s="10" t="s">
+      <c r="AT7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AU7" t="s">
+      <c r="AV7" t="s">
         <v>9</v>
       </c>
-      <c r="AV7">
-        <v>1</v>
-      </c>
-      <c r="AW7" t="s">
+      <c r="AW7">
+        <v>1</v>
+      </c>
+      <c r="AX7" t="s">
         <v>15</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AY7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2252,97 +2290,101 @@
         <v>2</v>
       </c>
       <c r="U8">
+        <f xml:space="preserve"> S8 + T8</f>
+        <v>5</v>
+      </c>
+      <c r="V8">
         <v>3</v>
       </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
       <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
         <v>16</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>101</v>
       </c>
-      <c r="Y8">
-        <v>8</v>
-      </c>
-      <c r="Z8" t="s">
+      <c r="Z8">
+        <v>8</v>
+      </c>
+      <c r="AA8" t="s">
         <v>103</v>
       </c>
-      <c r="AA8" s="10" t="s">
+      <c r="AB8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AB8" t="s">
-        <v>8</v>
-      </c>
       <c r="AC8" t="s">
         <v>8</v>
       </c>
       <c r="AD8" t="s">
         <v>8</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AE8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF8" s="1">
         <v>32768</v>
       </c>
-      <c r="AF8" t="s">
-        <v>8</v>
-      </c>
       <c r="AG8" t="s">
         <v>8</v>
       </c>
       <c r="AH8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI8" t="s">
         <v>35</v>
       </c>
-      <c r="AI8" s="10">
+      <c r="AJ8" s="10">
         <v>125</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>1169</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>414</v>
       </c>
-      <c r="AL8" s="1">
+      <c r="AM8" s="1">
         <v>101</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>1009</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>400</v>
       </c>
-      <c r="AO8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP8" s="1">
+      <c r="AP8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ8" s="1">
         <v>12</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>90</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <v>7</v>
       </c>
-      <c r="AS8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT8" s="10" t="s">
+      <c r="AT8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AU8" t="s">
+      <c r="AV8" t="s">
         <v>16</v>
       </c>
-      <c r="AV8">
-        <v>1</v>
-      </c>
-      <c r="AW8" t="s">
+      <c r="AW8">
+        <v>1</v>
+      </c>
+      <c r="AX8" t="s">
         <v>22</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AY8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2404,27 +2446,28 @@
         <v>2</v>
       </c>
       <c r="U9">
+        <f xml:space="preserve"> S9 + T9</f>
+        <v>5</v>
+      </c>
+      <c r="V9">
         <v>3</v>
       </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
       <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
         <v>16</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>101</v>
       </c>
-      <c r="Y9">
-        <v>8</v>
-      </c>
-      <c r="Z9" t="s">
+      <c r="Z9">
+        <v>8</v>
+      </c>
+      <c r="AA9" t="s">
         <v>103</v>
       </c>
-      <c r="AA9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="AB9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AC9" t="s">
@@ -2433,74 +2476,77 @@
       <c r="AD9" t="s">
         <v>8</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AE9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF9" s="1">
         <v>32768</v>
       </c>
-      <c r="AF9" t="s">
-        <v>8</v>
-      </c>
       <c r="AG9" t="s">
         <v>8</v>
       </c>
       <c r="AH9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI9" t="s">
         <v>35</v>
       </c>
-      <c r="AI9" s="10">
+      <c r="AJ9" s="10">
         <v>125</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>1169</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>414</v>
       </c>
-      <c r="AL9" s="1">
-        <f>AI9-50</f>
+      <c r="AM9" s="1">
+        <f>AJ9-50</f>
         <v>75</v>
       </c>
-      <c r="AM9">
-        <f>AJ9-240</f>
+      <c r="AN9">
+        <f>AK9-240</f>
         <v>929</v>
       </c>
-      <c r="AN9">
-        <f>AK9-110</f>
+      <c r="AO9">
+        <f>AL9-110</f>
         <v>304</v>
       </c>
-      <c r="AO9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP9" s="1">
-        <f>(AI9-AL9)/2</f>
+      <c r="AP9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ9" s="1">
+        <f>(AJ9-AM9)/2</f>
         <v>25</v>
-      </c>
-      <c r="AQ9">
-        <f>(AJ9-AM9)/2</f>
-        <v>120</v>
       </c>
       <c r="AR9">
         <f>(AK9-AN9)/2</f>
+        <v>120</v>
+      </c>
+      <c r="AS9">
+        <f>(AL9-AO9)/2</f>
         <v>55</v>
       </c>
-      <c r="AS9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT9" s="10" t="s">
+      <c r="AT9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AU9" t="s">
+      <c r="AV9" t="s">
         <v>16</v>
       </c>
-      <c r="AV9">
-        <v>1</v>
-      </c>
-      <c r="AW9" t="s">
+      <c r="AW9">
+        <v>1</v>
+      </c>
+      <c r="AX9" t="s">
         <v>26</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="AY9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2562,27 +2608,28 @@
         <v>2</v>
       </c>
       <c r="U10">
+        <f xml:space="preserve"> S10 + T10</f>
+        <v>5</v>
+      </c>
+      <c r="V10">
         <v>3</v>
       </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
       <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
         <v>16</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>101</v>
       </c>
-      <c r="Y10">
-        <v>8</v>
-      </c>
-      <c r="Z10" t="s">
+      <c r="Z10">
+        <v>8</v>
+      </c>
+      <c r="AA10" t="s">
         <v>103</v>
       </c>
-      <c r="AA10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB10" t="s">
+      <c r="AB10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AC10" t="s">
@@ -2591,68 +2638,71 @@
       <c r="AD10" t="s">
         <v>8</v>
       </c>
-      <c r="AE10" s="1">
+      <c r="AE10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF10" s="1">
         <v>32768</v>
       </c>
-      <c r="AF10" t="s">
-        <v>8</v>
-      </c>
       <c r="AG10" t="s">
         <v>8</v>
       </c>
       <c r="AH10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI10" t="s">
         <v>35</v>
       </c>
-      <c r="AI10" s="10">
+      <c r="AJ10" s="10">
         <v>125</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>1169</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>414</v>
       </c>
-      <c r="AL10" s="1">
+      <c r="AM10" s="1">
         <v>72</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>928</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>304</v>
       </c>
-      <c r="AO10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP10" s="1">
+      <c r="AP10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ10" s="1">
         <v>24</v>
       </c>
-      <c r="AQ10">
+      <c r="AR10">
         <v>120</v>
       </c>
-      <c r="AR10">
+      <c r="AS10">
         <v>48</v>
       </c>
-      <c r="AS10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT10" s="10" t="s">
+      <c r="AT10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AU10" t="s">
+      <c r="AV10" t="s">
         <v>75</v>
       </c>
-      <c r="AV10">
-        <v>1</v>
-      </c>
-      <c r="AW10" t="s">
+      <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="AX10" t="s">
         <v>26</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AY10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2714,97 +2764,101 @@
         <v>2</v>
       </c>
       <c r="U11">
+        <f xml:space="preserve"> S11 + T11</f>
+        <v>5</v>
+      </c>
+      <c r="V11">
         <v>3</v>
       </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
       <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
         <v>16</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>101</v>
       </c>
-      <c r="Y11">
-        <v>8</v>
-      </c>
-      <c r="Z11" t="s">
+      <c r="Z11">
+        <v>8</v>
+      </c>
+      <c r="AA11" t="s">
         <v>103</v>
       </c>
-      <c r="AA11" s="10" t="s">
+      <c r="AB11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AB11" t="s">
-        <v>8</v>
-      </c>
       <c r="AC11" t="s">
         <v>8</v>
       </c>
       <c r="AD11" t="s">
         <v>8</v>
       </c>
-      <c r="AE11" s="1">
+      <c r="AE11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF11" s="1">
         <v>32768</v>
       </c>
-      <c r="AF11" t="s">
-        <v>8</v>
-      </c>
       <c r="AG11" t="s">
         <v>8</v>
       </c>
       <c r="AH11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI11" t="s">
         <v>35</v>
       </c>
-      <c r="AI11" s="10">
+      <c r="AJ11" s="10">
         <v>125</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>1169</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>414</v>
       </c>
-      <c r="AL11" s="1">
+      <c r="AM11" s="1">
         <v>64</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>928</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>304</v>
       </c>
-      <c r="AO11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP11" s="1">
+      <c r="AP11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ11" s="1">
         <v>24</v>
       </c>
-      <c r="AQ11">
+      <c r="AR11">
         <v>120</v>
       </c>
-      <c r="AR11">
+      <c r="AS11">
         <v>40</v>
       </c>
-      <c r="AS11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT11" s="10" t="s">
+      <c r="AT11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AU11" t="s">
+      <c r="AV11" t="s">
         <v>31</v>
       </c>
-      <c r="AV11">
-        <v>1</v>
-      </c>
-      <c r="AW11" t="s">
+      <c r="AW11">
+        <v>1</v>
+      </c>
+      <c r="AX11" t="s">
         <v>32</v>
       </c>
-      <c r="AX11" s="3" t="s">
+      <c r="AY11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2866,97 +2920,101 @@
         <v>2</v>
       </c>
       <c r="U12">
+        <f xml:space="preserve"> S12 + T12</f>
+        <v>5</v>
+      </c>
+      <c r="V12">
         <v>3</v>
       </c>
-      <c r="V12">
-        <v>1</v>
-      </c>
       <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
         <v>16</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>101</v>
       </c>
-      <c r="Y12">
-        <v>8</v>
-      </c>
-      <c r="Z12" t="s">
+      <c r="Z12">
+        <v>8</v>
+      </c>
+      <c r="AA12" t="s">
         <v>103</v>
       </c>
-      <c r="AA12" s="10">
+      <c r="AB12" s="10">
         <v>10135</v>
       </c>
-      <c r="AB12" t="s">
-        <v>8</v>
-      </c>
       <c r="AC12" t="s">
         <v>8</v>
       </c>
       <c r="AD12" t="s">
         <v>8</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AE12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF12" s="1">
         <v>32768</v>
       </c>
-      <c r="AF12" t="s">
-        <v>8</v>
-      </c>
       <c r="AG12" t="s">
         <v>8</v>
       </c>
       <c r="AH12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI12" t="s">
         <v>35</v>
       </c>
-      <c r="AI12" s="10">
+      <c r="AJ12" s="10">
         <v>125</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>1169</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>414</v>
       </c>
-      <c r="AL12" s="1">
+      <c r="AM12" s="1">
         <v>64</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>400</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>160</v>
       </c>
-      <c r="AO12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP12" s="1">
+      <c r="AP12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ12" s="1">
         <v>24</v>
       </c>
-      <c r="AQ12">
+      <c r="AR12">
         <v>376</v>
       </c>
-      <c r="AR12">
+      <c r="AS12">
         <v>120</v>
       </c>
-      <c r="AS12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT12" s="10" t="s">
+      <c r="AT12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AU12" t="s">
+      <c r="AV12" t="s">
         <v>31</v>
       </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>8</v>
+      <c r="AW12">
+        <v>0</v>
       </c>
       <c r="AX12" t="s">
         <v>8</v>
       </c>
+      <c r="AY12" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -3018,27 +3076,28 @@
         <v>2</v>
       </c>
       <c r="U13">
+        <f xml:space="preserve"> S13 + T13</f>
+        <v>5</v>
+      </c>
+      <c r="V13">
         <v>3</v>
       </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
       <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
         <v>16</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>101</v>
       </c>
-      <c r="Y13">
-        <v>8</v>
-      </c>
-      <c r="Z13" t="s">
+      <c r="Z13">
+        <v>8</v>
+      </c>
+      <c r="AA13" t="s">
         <v>103</v>
       </c>
-      <c r="AA13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB13" t="s">
+      <c r="AB13" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AC13" t="s">
@@ -3047,68 +3106,71 @@
       <c r="AD13" t="s">
         <v>8</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AE13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF13" s="1">
         <v>32768</v>
       </c>
-      <c r="AF13" t="s">
-        <v>8</v>
-      </c>
       <c r="AG13" t="s">
         <v>8</v>
       </c>
       <c r="AH13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI13" t="s">
         <v>35</v>
       </c>
-      <c r="AI13" s="10">
+      <c r="AJ13" s="10">
         <v>125</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>1169</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>414</v>
       </c>
-      <c r="AL13" s="1">
+      <c r="AM13" s="1">
         <v>72</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>408</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>168</v>
       </c>
-      <c r="AO13" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP13" s="1">
+      <c r="AP13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ13" s="1">
         <v>24</v>
       </c>
-      <c r="AQ13">
+      <c r="AR13">
         <v>376</v>
       </c>
-      <c r="AR13">
+      <c r="AS13">
         <v>120</v>
       </c>
-      <c r="AS13" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT13" s="10" t="s">
+      <c r="AT13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AU13" t="s">
+      <c r="AV13" t="s">
         <v>31</v>
       </c>
-      <c r="AV13">
-        <v>1</v>
-      </c>
-      <c r="AW13" t="s">
+      <c r="AW13">
+        <v>1</v>
+      </c>
+      <c r="AX13" t="s">
         <v>41</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="AY13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -3170,27 +3232,28 @@
         <v>2</v>
       </c>
       <c r="U14">
+        <f xml:space="preserve"> S14 + T14</f>
+        <v>5</v>
+      </c>
+      <c r="V14">
         <v>3</v>
       </c>
-      <c r="V14">
-        <v>1</v>
-      </c>
       <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
         <v>16</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>101</v>
       </c>
-      <c r="Y14">
-        <v>8</v>
-      </c>
-      <c r="Z14" t="s">
+      <c r="Z14">
+        <v>8</v>
+      </c>
+      <c r="AA14" t="s">
         <v>103</v>
       </c>
-      <c r="AA14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB14" t="s">
+      <c r="AB14" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AC14" t="s">
@@ -3199,68 +3262,71 @@
       <c r="AD14" t="s">
         <v>8</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AE14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF14" s="1">
         <v>32768</v>
       </c>
-      <c r="AF14" t="s">
-        <v>8</v>
-      </c>
       <c r="AG14" t="s">
         <v>8</v>
       </c>
       <c r="AH14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI14" t="s">
         <v>35</v>
       </c>
-      <c r="AI14" s="10">
+      <c r="AJ14" s="10">
         <v>125</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>1169</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>414</v>
       </c>
-      <c r="AL14" s="1">
+      <c r="AM14" s="1">
         <v>72</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>408</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>168</v>
       </c>
-      <c r="AO14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP14" s="1">
+      <c r="AP14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ14" s="1">
         <v>16</v>
       </c>
-      <c r="AQ14">
+      <c r="AR14">
         <v>368</v>
       </c>
-      <c r="AR14">
+      <c r="AS14">
         <v>112</v>
       </c>
-      <c r="AS14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT14" s="10" t="s">
+      <c r="AT14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AU14" t="s">
+      <c r="AV14" t="s">
         <v>49</v>
       </c>
-      <c r="AV14">
-        <v>1</v>
-      </c>
-      <c r="AW14" t="s">
+      <c r="AW14">
+        <v>1</v>
+      </c>
+      <c r="AX14" t="s">
         <v>41</v>
       </c>
-      <c r="AX14" t="s">
+      <c r="AY14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -3322,97 +3388,101 @@
         <v>2</v>
       </c>
       <c r="U15">
+        <f xml:space="preserve"> S15 + T15</f>
+        <v>5</v>
+      </c>
+      <c r="V15">
         <v>3</v>
       </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
       <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
         <v>16</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>101</v>
       </c>
-      <c r="Y15">
-        <v>8</v>
-      </c>
-      <c r="Z15" t="s">
+      <c r="Z15">
+        <v>8</v>
+      </c>
+      <c r="AA15" t="s">
         <v>103</v>
       </c>
-      <c r="AA15" s="10">
+      <c r="AB15" s="10">
         <v>13843</v>
       </c>
-      <c r="AB15" t="s">
-        <v>8</v>
-      </c>
       <c r="AC15" t="s">
         <v>8</v>
       </c>
       <c r="AD15" t="s">
         <v>8</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AE15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF15" s="1">
         <v>32768</v>
       </c>
-      <c r="AF15" t="s">
-        <v>8</v>
-      </c>
       <c r="AG15" t="s">
         <v>8</v>
       </c>
       <c r="AH15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="s">
         <v>35</v>
       </c>
-      <c r="AI15" s="10">
+      <c r="AJ15" s="10">
         <v>125</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>1169</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>414</v>
       </c>
-      <c r="AL15" s="1">
+      <c r="AM15" s="1">
         <v>80</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>416</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>176</v>
       </c>
-      <c r="AO15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP15" s="1">
-        <v>8</v>
-      </c>
-      <c r="AQ15">
+      <c r="AP15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>8</v>
+      </c>
+      <c r="AR15">
         <v>376</v>
       </c>
-      <c r="AR15">
+      <c r="AS15">
         <v>104</v>
       </c>
-      <c r="AS15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT15" s="10" t="s">
+      <c r="AT15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AU15" t="s">
+      <c r="AV15" t="s">
         <v>31</v>
       </c>
-      <c r="AV15">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>8</v>
+      <c r="AW15">
+        <v>0</v>
       </c>
       <c r="AX15" t="s">
         <v>8</v>
       </c>
+      <c r="AY15" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="16" spans="1:50" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>48</v>
       </c>
@@ -3474,97 +3544,101 @@
         <v>2</v>
       </c>
       <c r="U16" s="7">
+        <f xml:space="preserve"> S16 + T16</f>
+        <v>5</v>
+      </c>
+      <c r="V16" s="7">
         <v>3</v>
       </c>
-      <c r="V16" s="7">
-        <v>1</v>
-      </c>
       <c r="W16" s="7">
+        <v>1</v>
+      </c>
+      <c r="X16" s="7">
         <v>16</v>
       </c>
-      <c r="X16" s="7" t="s">
+      <c r="Y16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="Y16" s="7">
-        <v>8</v>
-      </c>
-      <c r="Z16" s="7" t="s">
+      <c r="Z16" s="7">
+        <v>8</v>
+      </c>
+      <c r="AA16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="AA16" s="11">
+      <c r="AB16" s="11">
         <v>13843</v>
       </c>
-      <c r="AB16" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="AC16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="AD16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AE16" s="8">
+      <c r="AE16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF16" s="8">
         <v>32768</v>
       </c>
-      <c r="AF16" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="AG16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="AH16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AI16" s="11">
+      <c r="AJ16" s="11">
         <v>125</v>
       </c>
-      <c r="AJ16" s="7">
+      <c r="AK16" s="7">
         <v>1169</v>
       </c>
-      <c r="AK16" s="7">
+      <c r="AL16" s="7">
         <v>414</v>
       </c>
-      <c r="AL16" s="8">
+      <c r="AM16" s="8">
         <v>80</v>
       </c>
-      <c r="AM16" s="7">
+      <c r="AN16" s="7">
         <v>416</v>
       </c>
-      <c r="AN16" s="7">
+      <c r="AO16" s="7">
         <v>176</v>
       </c>
-      <c r="AO16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP16" s="8">
+      <c r="AP16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ16" s="8">
         <v>16</v>
       </c>
-      <c r="AQ16" s="7">
+      <c r="AR16" s="7">
         <v>368</v>
       </c>
-      <c r="AR16" s="7">
+      <c r="AS16" s="7">
         <v>112</v>
       </c>
-      <c r="AS16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT16" s="11" t="s">
+      <c r="AT16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU16" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AU16" s="7" t="s">
+      <c r="AV16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AV16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="7" t="s">
-        <v>8</v>
+      <c r="AW16" s="7">
+        <v>0</v>
       </c>
       <c r="AX16" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="AY16" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -3626,97 +3700,101 @@
         <v>2</v>
       </c>
       <c r="U17">
+        <f xml:space="preserve"> S17 + T17</f>
+        <v>5</v>
+      </c>
+      <c r="V17">
         <v>3</v>
       </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
       <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
         <v>16</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>101</v>
       </c>
-      <c r="Y17">
-        <v>8</v>
-      </c>
-      <c r="Z17" t="s">
+      <c r="Z17">
+        <v>8</v>
+      </c>
+      <c r="AA17" t="s">
         <v>103</v>
       </c>
-      <c r="AA17" s="10">
+      <c r="AB17" s="10">
         <v>10135</v>
       </c>
-      <c r="AB17" t="s">
-        <v>8</v>
-      </c>
       <c r="AC17" t="s">
         <v>8</v>
       </c>
       <c r="AD17" t="s">
         <v>8</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AE17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF17" s="1">
         <v>32768</v>
       </c>
-      <c r="AF17" t="s">
-        <v>8</v>
-      </c>
       <c r="AG17" t="s">
         <v>8</v>
       </c>
       <c r="AH17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI17" t="s">
         <v>35</v>
       </c>
-      <c r="AI17" s="10">
+      <c r="AJ17" s="10">
         <v>125</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>1169</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>414</v>
       </c>
-      <c r="AL17" s="1">
+      <c r="AM17" s="1">
         <v>64</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>400</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>160</v>
       </c>
-      <c r="AO17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP17" s="4">
-        <v>8</v>
-      </c>
-      <c r="AQ17">
+      <c r="AP17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ17" s="4">
+        <v>8</v>
+      </c>
+      <c r="AR17">
         <v>368</v>
       </c>
-      <c r="AR17">
+      <c r="AS17">
         <v>96</v>
       </c>
-      <c r="AS17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT17" s="10" t="s">
+      <c r="AT17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU17" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AU17" t="s">
+      <c r="AV17" t="s">
         <v>77</v>
       </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>8</v>
+      <c r="AW17">
+        <v>0</v>
       </c>
       <c r="AX17" t="s">
         <v>8</v>
       </c>
+      <c r="AY17" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -3778,97 +3856,101 @@
         <v>2</v>
       </c>
       <c r="U18">
+        <f xml:space="preserve"> S18 + T18</f>
+        <v>5</v>
+      </c>
+      <c r="V18">
         <v>3</v>
       </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
       <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
         <v>16</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>101</v>
       </c>
-      <c r="Y18">
-        <v>8</v>
-      </c>
-      <c r="Z18" t="s">
+      <c r="Z18">
+        <v>8</v>
+      </c>
+      <c r="AA18" t="s">
         <v>103</v>
       </c>
-      <c r="AA18" s="10">
+      <c r="AB18" s="10">
         <v>10135</v>
       </c>
-      <c r="AB18" t="s">
-        <v>8</v>
-      </c>
       <c r="AC18" t="s">
         <v>8</v>
       </c>
       <c r="AD18" t="s">
         <v>8</v>
       </c>
-      <c r="AE18" s="1">
+      <c r="AE18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF18" s="1">
         <v>32768</v>
       </c>
-      <c r="AF18" t="s">
-        <v>8</v>
-      </c>
       <c r="AG18" t="s">
         <v>8</v>
       </c>
       <c r="AH18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI18" t="s">
         <v>35</v>
       </c>
-      <c r="AI18" s="10">
+      <c r="AJ18" s="10">
         <v>125</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>1169</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>414</v>
       </c>
-      <c r="AL18" s="1">
+      <c r="AM18" s="1">
         <v>64</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>400</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>160</v>
       </c>
-      <c r="AO18" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP18" s="1">
+      <c r="AP18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ18" s="1">
         <v>24</v>
       </c>
-      <c r="AQ18">
+      <c r="AR18">
         <v>384</v>
       </c>
-      <c r="AR18">
+      <c r="AS18">
         <v>120</v>
       </c>
-      <c r="AS18" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT18" s="10" t="s">
+      <c r="AT18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU18" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AU18" t="s">
+      <c r="AV18" t="s">
         <v>74</v>
       </c>
-      <c r="AV18">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>8</v>
+      <c r="AW18">
+        <v>0</v>
       </c>
       <c r="AX18" t="s">
         <v>8</v>
       </c>
+      <c r="AY18" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -3930,97 +4012,101 @@
         <v>2</v>
       </c>
       <c r="U19">
+        <f xml:space="preserve"> S19 + T19</f>
+        <v>5</v>
+      </c>
+      <c r="V19">
         <v>3</v>
       </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
       <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
         <v>16</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>101</v>
       </c>
-      <c r="Y19">
-        <v>8</v>
-      </c>
-      <c r="Z19" t="s">
+      <c r="Z19">
+        <v>8</v>
+      </c>
+      <c r="AA19" t="s">
         <v>103</v>
       </c>
-      <c r="AA19" s="10">
+      <c r="AB19" s="10">
         <v>10999</v>
       </c>
-      <c r="AB19" t="s">
-        <v>8</v>
-      </c>
       <c r="AC19" t="s">
         <v>8</v>
       </c>
       <c r="AD19" t="s">
         <v>8</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="AE19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF19" s="1">
         <v>32768</v>
       </c>
-      <c r="AF19" t="s">
-        <v>8</v>
-      </c>
       <c r="AG19" t="s">
         <v>8</v>
       </c>
       <c r="AH19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI19" t="s">
         <v>35</v>
       </c>
-      <c r="AI19" s="10">
+      <c r="AJ19" s="10">
         <v>125</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>1169</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>414</v>
       </c>
-      <c r="AL19" s="1">
+      <c r="AM19" s="1">
         <v>64</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>400</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>176</v>
       </c>
-      <c r="AO19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP19" s="1">
+      <c r="AP19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ19" s="1">
         <v>24</v>
       </c>
-      <c r="AQ19">
+      <c r="AR19">
         <v>384</v>
       </c>
-      <c r="AR19">
+      <c r="AS19">
         <v>112</v>
       </c>
-      <c r="AS19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT19" s="10" t="s">
+      <c r="AT19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU19" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AU19" t="s">
+      <c r="AV19" t="s">
         <v>74</v>
       </c>
-      <c r="AV19">
-        <v>0</v>
-      </c>
-      <c r="AW19" t="s">
-        <v>8</v>
+      <c r="AW19">
+        <v>0</v>
       </c>
       <c r="AX19" t="s">
         <v>8</v>
       </c>
+      <c r="AY19" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -4082,97 +4168,101 @@
         <v>2</v>
       </c>
       <c r="U20">
+        <f xml:space="preserve"> S20 + T20</f>
+        <v>5</v>
+      </c>
+      <c r="V20">
         <v>3</v>
       </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
       <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
         <v>16</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>101</v>
       </c>
-      <c r="Y20">
-        <v>8</v>
-      </c>
-      <c r="Z20" t="s">
+      <c r="Z20">
+        <v>8</v>
+      </c>
+      <c r="AA20" t="s">
         <v>103</v>
       </c>
-      <c r="AA20" s="10">
+      <c r="AB20" s="10">
         <v>11843</v>
       </c>
-      <c r="AB20" t="s">
-        <v>8</v>
-      </c>
       <c r="AC20" t="s">
         <v>8</v>
       </c>
       <c r="AD20" t="s">
         <v>8</v>
       </c>
-      <c r="AE20" s="1">
+      <c r="AE20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF20" s="1">
         <v>32768</v>
       </c>
-      <c r="AF20" t="s">
-        <v>8</v>
-      </c>
       <c r="AG20" t="s">
         <v>8</v>
       </c>
       <c r="AH20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI20" t="s">
         <v>35</v>
       </c>
-      <c r="AI20" s="10">
+      <c r="AJ20" s="10">
         <v>125</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>1169</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>414</v>
       </c>
-      <c r="AL20" s="1">
+      <c r="AM20" s="1">
         <v>64</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>400</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>192</v>
       </c>
-      <c r="AO20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP20" s="1">
+      <c r="AP20" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ20" s="1">
         <v>24</v>
       </c>
-      <c r="AQ20">
+      <c r="AR20">
         <v>384</v>
       </c>
-      <c r="AR20">
+      <c r="AS20">
         <v>104</v>
       </c>
-      <c r="AS20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT20" s="10" t="s">
+      <c r="AT20" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU20" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AU20" t="s">
+      <c r="AV20" t="s">
         <v>74</v>
       </c>
-      <c r="AV20">
-        <v>0</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>8</v>
+      <c r="AW20">
+        <v>0</v>
       </c>
       <c r="AX20" t="s">
         <v>8</v>
       </c>
+      <c r="AY20" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -4234,97 +4324,101 @@
         <v>2</v>
       </c>
       <c r="U21">
+        <f xml:space="preserve"> S21 + T21</f>
+        <v>5</v>
+      </c>
+      <c r="V21">
         <v>3</v>
       </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
       <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
         <v>16</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>101</v>
       </c>
-      <c r="Y21">
-        <v>8</v>
-      </c>
-      <c r="Z21" t="s">
+      <c r="Z21">
+        <v>8</v>
+      </c>
+      <c r="AA21" t="s">
         <v>103</v>
       </c>
-      <c r="AA21" s="10">
+      <c r="AB21" s="10">
         <v>10473</v>
       </c>
-      <c r="AB21" t="s">
-        <v>8</v>
-      </c>
       <c r="AC21" t="s">
         <v>8</v>
       </c>
       <c r="AD21" t="s">
         <v>8</v>
       </c>
-      <c r="AE21" s="1">
+      <c r="AE21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF21" s="1">
         <v>32768</v>
       </c>
-      <c r="AF21" t="s">
-        <v>8</v>
-      </c>
       <c r="AG21" t="s">
         <v>8</v>
       </c>
       <c r="AH21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI21" t="s">
         <v>35</v>
       </c>
-      <c r="AI21" s="10">
+      <c r="AJ21" s="10">
         <v>125</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>1169</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>414</v>
       </c>
-      <c r="AL21" s="1">
+      <c r="AM21" s="1">
         <v>64</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>416</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>160</v>
       </c>
-      <c r="AO21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP21" s="1">
+      <c r="AP21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ21" s="1">
         <v>24</v>
       </c>
-      <c r="AQ21">
+      <c r="AR21">
         <v>376</v>
       </c>
-      <c r="AR21">
+      <c r="AS21">
         <v>120</v>
       </c>
-      <c r="AS21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT21" s="10" t="s">
+      <c r="AT21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU21" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AU21" t="s">
+      <c r="AV21" t="s">
         <v>74</v>
       </c>
-      <c r="AV21">
-        <v>0</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>8</v>
+      <c r="AW21">
+        <v>0</v>
       </c>
       <c r="AX21" t="s">
         <v>8</v>
       </c>
+      <c r="AY21" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -4386,97 +4480,101 @@
         <v>2</v>
       </c>
       <c r="U22">
+        <f xml:space="preserve"> S22 + T22</f>
+        <v>5</v>
+      </c>
+      <c r="V22">
         <v>3</v>
       </c>
-      <c r="V22">
-        <v>1</v>
-      </c>
       <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
         <v>16</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>101</v>
       </c>
-      <c r="Y22">
-        <v>8</v>
-      </c>
-      <c r="Z22" t="s">
+      <c r="Z22">
+        <v>8</v>
+      </c>
+      <c r="AA22" t="s">
         <v>103</v>
       </c>
-      <c r="AA22" s="10">
+      <c r="AB22" s="10">
         <v>10825</v>
       </c>
-      <c r="AB22" t="s">
-        <v>8</v>
-      </c>
       <c r="AC22" t="s">
         <v>8</v>
       </c>
       <c r="AD22" t="s">
         <v>8</v>
       </c>
-      <c r="AE22" s="1">
+      <c r="AE22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF22" s="1">
         <v>32768</v>
       </c>
-      <c r="AF22" t="s">
-        <v>8</v>
-      </c>
       <c r="AG22" t="s">
         <v>8</v>
       </c>
       <c r="AH22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="s">
         <v>35</v>
       </c>
-      <c r="AI22" s="10">
+      <c r="AJ22" s="10">
         <v>125</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>1169</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>414</v>
       </c>
-      <c r="AL22" s="1">
+      <c r="AM22" s="1">
         <v>64</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>432</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>160</v>
       </c>
-      <c r="AO22" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP22" s="1">
+      <c r="AP22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ22" s="1">
         <v>24</v>
       </c>
-      <c r="AQ22">
+      <c r="AR22">
         <v>368</v>
       </c>
-      <c r="AR22">
+      <c r="AS22">
         <v>120</v>
       </c>
-      <c r="AS22" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT22" s="10" t="s">
+      <c r="AT22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU22" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AU22" t="s">
+      <c r="AV22" t="s">
         <v>74</v>
       </c>
-      <c r="AV22">
-        <v>0</v>
-      </c>
-      <c r="AW22" t="s">
-        <v>8</v>
+      <c r="AW22">
+        <v>0</v>
       </c>
       <c r="AX22" t="s">
         <v>8</v>
       </c>
+      <c r="AY22" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -4538,97 +4636,101 @@
         <v>2</v>
       </c>
       <c r="U23">
+        <f xml:space="preserve"> S23 + T23</f>
+        <v>5</v>
+      </c>
+      <c r="V23">
         <v>3</v>
       </c>
-      <c r="V23">
-        <v>1</v>
-      </c>
       <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
         <v>16</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>101</v>
       </c>
-      <c r="Y23">
-        <v>8</v>
-      </c>
-      <c r="Z23" t="s">
+      <c r="Z23">
+        <v>8</v>
+      </c>
+      <c r="AA23" t="s">
         <v>103</v>
       </c>
-      <c r="AA23" s="10">
+      <c r="AB23" s="10">
         <v>12317</v>
       </c>
-      <c r="AB23" t="s">
-        <v>8</v>
-      </c>
       <c r="AC23" t="s">
         <v>8</v>
       </c>
       <c r="AD23" t="s">
         <v>8</v>
       </c>
-      <c r="AE23" s="1">
+      <c r="AE23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF23" s="1">
         <v>32768</v>
       </c>
-      <c r="AF23" t="s">
-        <v>8</v>
-      </c>
       <c r="AG23" t="s">
         <v>8</v>
       </c>
       <c r="AH23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI23" t="s">
         <v>35</v>
       </c>
-      <c r="AI23" s="10">
+      <c r="AJ23" s="10">
         <v>125</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>1169</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>414</v>
       </c>
-      <c r="AL23" s="1">
+      <c r="AM23" s="1">
         <v>80</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>400</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>160</v>
       </c>
-      <c r="AO23" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP23" s="1">
+      <c r="AP23" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ23" s="1">
         <v>16</v>
       </c>
-      <c r="AQ23">
+      <c r="AR23">
         <v>384</v>
       </c>
-      <c r="AR23">
+      <c r="AS23">
         <v>120</v>
       </c>
-      <c r="AS23" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT23" s="10" t="s">
+      <c r="AT23" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU23" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AU23" t="s">
+      <c r="AV23" t="s">
         <v>74</v>
       </c>
-      <c r="AV23">
-        <v>0</v>
-      </c>
-      <c r="AW23" t="s">
-        <v>8</v>
+      <c r="AW23">
+        <v>0</v>
       </c>
       <c r="AX23" t="s">
         <v>8</v>
       </c>
+      <c r="AY23" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -4690,97 +4792,101 @@
         <v>2</v>
       </c>
       <c r="U24">
+        <f xml:space="preserve"> S24 + T24</f>
+        <v>5</v>
+      </c>
+      <c r="V24">
         <v>3</v>
       </c>
-      <c r="V24">
-        <v>1</v>
-      </c>
       <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
         <v>16</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>101</v>
       </c>
-      <c r="Y24">
-        <v>8</v>
-      </c>
-      <c r="Z24" t="s">
+      <c r="Z24">
+        <v>8</v>
+      </c>
+      <c r="AA24" t="s">
         <v>103</v>
       </c>
-      <c r="AA24" s="10">
+      <c r="AB24" s="10">
         <v>14443</v>
       </c>
-      <c r="AB24" t="s">
-        <v>8</v>
-      </c>
       <c r="AC24" t="s">
         <v>8</v>
       </c>
       <c r="AD24" t="s">
         <v>8</v>
       </c>
-      <c r="AE24" s="1">
+      <c r="AE24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF24" s="1">
         <v>32768</v>
       </c>
-      <c r="AF24" t="s">
-        <v>8</v>
-      </c>
       <c r="AG24" t="s">
         <v>8</v>
       </c>
       <c r="AH24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="s">
         <v>35</v>
       </c>
-      <c r="AI24" s="10">
+      <c r="AJ24" s="10">
         <v>125</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>1169</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>414</v>
       </c>
-      <c r="AL24" s="1">
+      <c r="AM24" s="1">
         <v>96</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>400</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>160</v>
       </c>
-      <c r="AO24" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP24" s="1">
-        <v>8</v>
-      </c>
-      <c r="AQ24">
+      <c r="AP24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>8</v>
+      </c>
+      <c r="AR24">
         <v>384</v>
       </c>
-      <c r="AR24">
+      <c r="AS24">
         <v>120</v>
       </c>
-      <c r="AS24" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT24" s="10" t="s">
+      <c r="AT24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU24" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AU24" t="s">
+      <c r="AV24" t="s">
         <v>74</v>
       </c>
-      <c r="AV24">
-        <v>0</v>
-      </c>
-      <c r="AW24" t="s">
-        <v>8</v>
+      <c r="AW24">
+        <v>0</v>
       </c>
       <c r="AX24" t="s">
         <v>8</v>
       </c>
+      <c r="AY24" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -4859,10 +4965,10 @@
       <c r="Z25" t="s">
         <v>8</v>
       </c>
-      <c r="AA25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB25" t="s">
+      <c r="AA25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB25" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AC25" t="s">
@@ -4871,10 +4977,10 @@
       <c r="AD25" t="s">
         <v>8</v>
       </c>
-      <c r="AE25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF25" t="s">
+      <c r="AE25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AG25" t="s">
@@ -4883,19 +4989,19 @@
       <c r="AH25" t="s">
         <v>8</v>
       </c>
-      <c r="AI25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ25" t="s">
+      <c r="AI25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ25" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AK25" t="s">
         <v>8</v>
       </c>
-      <c r="AL25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM25" t="s">
+      <c r="AL25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AN25" t="s">
@@ -4904,10 +5010,10 @@
       <c r="AO25" t="s">
         <v>8</v>
       </c>
-      <c r="AP25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ25" t="s">
+      <c r="AP25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AR25" t="s">
@@ -4916,23 +5022,26 @@
       <c r="AS25" t="s">
         <v>8</v>
       </c>
-      <c r="AT25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV25">
-        <v>0</v>
-      </c>
-      <c r="AW25" t="s">
-        <v>8</v>
+      <c r="AT25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
       </c>
       <c r="AX25" t="s">
         <v>8</v>
       </c>
+      <c r="AY25" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="26" spans="1:50" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>106</v>
       </c>
@@ -5011,10 +5120,10 @@
       <c r="Z26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AA26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB26" s="7" t="s">
+      <c r="AA26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB26" s="11" t="s">
         <v>8</v>
       </c>
       <c r="AC26" s="7" t="s">
@@ -5023,10 +5132,10 @@
       <c r="AD26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AE26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF26" s="7" t="s">
+      <c r="AE26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF26" s="8" t="s">
         <v>8</v>
       </c>
       <c r="AG26" s="7" t="s">
@@ -5035,19 +5144,19 @@
       <c r="AH26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AI26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ26" s="7" t="s">
+      <c r="AI26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ26" s="11" t="s">
         <v>8</v>
       </c>
       <c r="AK26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AL26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM26" s="7" t="s">
+      <c r="AL26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM26" s="8" t="s">
         <v>8</v>
       </c>
       <c r="AN26" s="7" t="s">
@@ -5056,10 +5165,10 @@
       <c r="AO26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AP26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ26" s="7" t="s">
+      <c r="AP26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ26" s="8" t="s">
         <v>8</v>
       </c>
       <c r="AR26" s="7" t="s">
@@ -5068,23 +5177,26 @@
       <c r="AS26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AT26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AW26" s="7" t="s">
-        <v>8</v>
+      <c r="AT26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW26" s="7">
+        <v>0</v>
       </c>
       <c r="AX26" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="AY26" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -5146,101 +5258,105 @@
         <v>2</v>
       </c>
       <c r="U27">
+        <f xml:space="preserve"> S27 + T27</f>
+        <v>5</v>
+      </c>
+      <c r="V27">
         <v>3</v>
       </c>
-      <c r="V27">
-        <v>1</v>
-      </c>
       <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
         <v>16</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>101</v>
       </c>
-      <c r="Y27">
-        <v>8</v>
-      </c>
-      <c r="Z27" t="s">
+      <c r="Z27">
+        <v>8</v>
+      </c>
+      <c r="AA27" t="s">
         <v>103</v>
       </c>
-      <c r="AA27" s="10" t="s">
+      <c r="AB27" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="AB27" t="s">
-        <v>8</v>
-      </c>
       <c r="AC27" t="s">
         <v>8</v>
       </c>
-      <c r="AD27">
-        <f t="shared" ref="AD27" si="0" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AL27*AM27*AN27)</f>
+      <c r="AD27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" ref="AE27" si="0" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM27*AN27*AO27)</f>
         <v>83027.753778838392</v>
       </c>
-      <c r="AE27" s="1">
+      <c r="AF27" s="1">
         <v>81920</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>81049.600000000006</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>79.150000000000006</v>
       </c>
-      <c r="AH27" t="s">
+      <c r="AI27" t="s">
         <v>112</v>
       </c>
-      <c r="AI27" s="10">
+      <c r="AJ27" s="10">
         <v>125</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>1169</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>414</v>
       </c>
-      <c r="AL27" s="1">
+      <c r="AM27" s="1">
         <v>112</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>864</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>400</v>
       </c>
-      <c r="AO27" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP27" s="1">
-        <f xml:space="preserve"> _xlfn.FLOOR.MATH((AI27 - AL27) / 2)</f>
+      <c r="AP27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ27" s="1">
+        <f xml:space="preserve"> _xlfn.FLOOR.MATH((AJ27 - AM27) / 2)</f>
         <v>6</v>
       </c>
-      <c r="AQ27">
-        <f t="shared" ref="AQ27" si="1" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ27 - AM27) / 2)</f>
+      <c r="AR27">
+        <f t="shared" ref="AR27" si="1" xml:space="preserve"> _xlfn.FLOOR.MATH((AK27 - AN27) / 2)</f>
         <v>152</v>
       </c>
-      <c r="AR27">
-        <f t="shared" ref="AR27" si="2" xml:space="preserve"> _xlfn.FLOOR.MATH((AK27 - AN27) / 2)</f>
+      <c r="AS27">
+        <f t="shared" ref="AS27" si="2" xml:space="preserve"> _xlfn.FLOOR.MATH((AL27 - AO27) / 2)</f>
         <v>7</v>
       </c>
-      <c r="AS27" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT27" s="10" t="s">
+      <c r="AT27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU27" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AU27" t="s">
+      <c r="AV27" t="s">
         <v>177</v>
       </c>
-      <c r="AV27">
-        <v>0</v>
-      </c>
-      <c r="AW27" t="s">
-        <v>8</v>
+      <c r="AW27">
+        <v>0</v>
       </c>
       <c r="AX27" t="s">
         <v>8</v>
       </c>
+      <c r="AY27" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
@@ -5302,102 +5418,106 @@
         <v>2</v>
       </c>
       <c r="U28">
+        <f xml:space="preserve"> S28 + T28</f>
+        <v>5</v>
+      </c>
+      <c r="V28">
         <v>3</v>
       </c>
-      <c r="V28">
-        <v>1</v>
-      </c>
       <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
         <v>16</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>101</v>
       </c>
-      <c r="Y28">
-        <v>8</v>
-      </c>
-      <c r="Z28" t="s">
+      <c r="Z28">
+        <v>8</v>
+      </c>
+      <c r="AA28" t="s">
         <v>103</v>
       </c>
-      <c r="AA28" s="10" t="s">
+      <c r="AB28" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>82032.639999999999</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <f xml:space="preserve"> 75.58 + 4.53</f>
         <v>80.11</v>
       </c>
-      <c r="AD28">
-        <f t="shared" ref="AD28:AD32" si="3" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AL28*AM28*AN28)</f>
+      <c r="AE28">
+        <f t="shared" ref="AE28:AE34" si="3" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM28*AN28*AO28)</f>
         <v>81518.129922434266</v>
       </c>
-      <c r="AE28" s="1">
+      <c r="AF28" s="1">
         <v>81920</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>81049.600000000006</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>79.150000000000006</v>
       </c>
-      <c r="AH28" t="s">
+      <c r="AI28" t="s">
         <v>112</v>
       </c>
-      <c r="AI28" s="10">
+      <c r="AJ28" s="10">
         <v>125</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>1169</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>414</v>
       </c>
-      <c r="AL28" s="1">
+      <c r="AM28" s="1">
         <v>112</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>848</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>400</v>
       </c>
-      <c r="AO28" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP28" s="1">
-        <f xml:space="preserve"> _xlfn.FLOOR.MATH((AI28 - AL28) / 2)</f>
+      <c r="AP28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ28" s="1">
+        <f xml:space="preserve"> _xlfn.FLOOR.MATH((AJ28 - AM28) / 2)</f>
         <v>6</v>
       </c>
-      <c r="AQ28">
-        <f t="shared" ref="AQ28" si="4" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ28 - AM28) / 2)</f>
+      <c r="AR28">
+        <f t="shared" ref="AR28" si="4" xml:space="preserve"> _xlfn.FLOOR.MATH((AK28 - AN28) / 2)</f>
         <v>160</v>
       </c>
-      <c r="AR28">
-        <f t="shared" ref="AR28" si="5" xml:space="preserve"> _xlfn.FLOOR.MATH((AK28 - AN28) / 2)</f>
+      <c r="AS28">
+        <f t="shared" ref="AS28" si="5" xml:space="preserve"> _xlfn.FLOOR.MATH((AL28 - AO28) / 2)</f>
         <v>7</v>
       </c>
-      <c r="AS28" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT28" s="10" t="s">
+      <c r="AT28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU28" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AU28" t="s">
+      <c r="AV28" t="s">
         <v>177</v>
       </c>
-      <c r="AV28">
-        <v>1</v>
-      </c>
-      <c r="AW28" t="s">
+      <c r="AW28">
+        <v>1</v>
+      </c>
+      <c r="AX28" t="s">
         <v>116</v>
       </c>
-      <c r="AX28" t="s">
+      <c r="AY28" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>124</v>
       </c>
@@ -5459,101 +5579,105 @@
         <v>2</v>
       </c>
       <c r="U29">
+        <f xml:space="preserve"> S29 + T29</f>
+        <v>5</v>
+      </c>
+      <c r="V29">
         <v>3</v>
       </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
       <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
         <v>16</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>101</v>
       </c>
-      <c r="Y29">
-        <v>8</v>
-      </c>
-      <c r="Z29" t="s">
+      <c r="Z29">
+        <v>8</v>
+      </c>
+      <c r="AA29" t="s">
         <v>103</v>
       </c>
-      <c r="AA29" s="10">
+      <c r="AB29" s="10">
         <v>77887</v>
       </c>
-      <c r="AB29" t="s">
-        <v>8</v>
-      </c>
       <c r="AC29" t="s">
         <v>8</v>
       </c>
-      <c r="AD29">
+      <c r="AD29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE29">
         <f t="shared" si="3"/>
         <v>76989.258353221856</v>
       </c>
-      <c r="AE29" s="1">
+      <c r="AF29" s="1">
         <v>81920</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>81049.600000000006</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>79.150000000000006</v>
       </c>
-      <c r="AH29" t="s">
+      <c r="AI29" t="s">
         <v>112</v>
       </c>
-      <c r="AI29" s="10">
+      <c r="AJ29" s="10">
         <v>125</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>1169</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>414</v>
       </c>
-      <c r="AL29" s="1">
+      <c r="AM29" s="1">
         <v>112</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>800</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>400</v>
       </c>
-      <c r="AO29" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP29" s="1">
-        <f xml:space="preserve"> _xlfn.FLOOR.MATH((AI29 - AL29) / 2)</f>
+      <c r="AP29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ29" s="1">
+        <f xml:space="preserve"> _xlfn.FLOOR.MATH((AJ29 - AM29) / 2)</f>
         <v>6</v>
       </c>
-      <c r="AQ29">
-        <f t="shared" ref="AQ29" si="6" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ29 - AM29) / 2)</f>
+      <c r="AR29">
+        <f t="shared" ref="AR29" si="6" xml:space="preserve"> _xlfn.FLOOR.MATH((AK29 - AN29) / 2)</f>
         <v>184</v>
       </c>
-      <c r="AR29">
-        <f t="shared" ref="AR29" si="7" xml:space="preserve"> _xlfn.FLOOR.MATH((AK29 - AN29) / 2)</f>
+      <c r="AS29">
+        <f t="shared" ref="AS29" si="7" xml:space="preserve"> _xlfn.FLOOR.MATH((AL29 - AO29) / 2)</f>
         <v>7</v>
       </c>
-      <c r="AS29" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT29" s="10" t="s">
+      <c r="AT29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU29" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="AU29" t="s">
+      <c r="AV29" t="s">
         <v>177</v>
       </c>
-      <c r="AV29">
-        <v>0</v>
-      </c>
-      <c r="AW29" t="s">
-        <v>8</v>
+      <c r="AW29">
+        <v>0</v>
       </c>
       <c r="AX29" t="s">
         <v>8</v>
       </c>
+      <c r="AY29" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>158</v>
       </c>
@@ -5615,98 +5739,105 @@
         <v>2</v>
       </c>
       <c r="U30">
+        <f xml:space="preserve"> S30 + T30</f>
+        <v>5</v>
+      </c>
+      <c r="V30">
         <v>3</v>
       </c>
-      <c r="V30">
-        <v>1</v>
-      </c>
       <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
         <v>16</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>101</v>
       </c>
-      <c r="Y30">
-        <v>8</v>
-      </c>
-      <c r="Z30" t="s">
+      <c r="Z30">
+        <v>8</v>
+      </c>
+      <c r="AA30" t="s">
         <v>103</v>
       </c>
-      <c r="AA30" s="10">
+      <c r="AB30" s="10">
         <v>77885</v>
       </c>
-      <c r="AB30" t="s">
-        <v>8</v>
-      </c>
       <c r="AC30" t="s">
         <v>8</v>
       </c>
-      <c r="AD30">
+      <c r="AD30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE30">
         <f t="shared" si="3"/>
         <v>76989.258353221856</v>
       </c>
-      <c r="AE30" s="1">
+      <c r="AF30" s="1">
         <v>81920</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>81049.600000000006</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>79.150000000000006</v>
       </c>
-      <c r="AH30" s="15" t="s">
+      <c r="AI30" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="AI30" s="10">
+      <c r="AJ30" s="10">
         <v>125</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>1169</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>414</v>
       </c>
-      <c r="AL30" s="1">
+      <c r="AM30" s="1">
         <v>112</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>800</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>400</v>
       </c>
-      <c r="AO30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP30" s="1">
+      <c r="AP30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ30" s="1">
+        <f xml:space="preserve"> _xlfn.FLOOR.MATH((AJ30 - AM30) / 2)</f>
         <v>6</v>
       </c>
-      <c r="AQ30">
+      <c r="AR30">
+        <f t="shared" ref="AR30:AR34" si="8" xml:space="preserve"> _xlfn.FLOOR.MATH((AK30 - AN30) / 2)</f>
         <v>184</v>
       </c>
-      <c r="AR30">
+      <c r="AS30">
+        <f t="shared" ref="AS30:AS34" si="9" xml:space="preserve"> _xlfn.FLOOR.MATH((AL30 - AO30) / 2)</f>
         <v>7</v>
       </c>
-      <c r="AS30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT30" s="10" t="s">
+      <c r="AT30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU30" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="AU30" t="s">
+      <c r="AV30" t="s">
         <v>177</v>
       </c>
-      <c r="AV30">
-        <v>0</v>
-      </c>
-      <c r="AW30" t="s">
-        <v>8</v>
+      <c r="AW30">
+        <v>0</v>
       </c>
       <c r="AX30" t="s">
         <v>8</v>
       </c>
+      <c r="AY30" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>162</v>
       </c>
@@ -5768,332 +5899,426 @@
         <v>2</v>
       </c>
       <c r="U31">
+        <f xml:space="preserve"> S31 + T31</f>
+        <v>5</v>
+      </c>
+      <c r="V31">
         <v>3</v>
       </c>
-      <c r="V31">
-        <v>1</v>
-      </c>
       <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
         <v>16</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>101</v>
       </c>
-      <c r="Y31">
-        <v>8</v>
-      </c>
-      <c r="Z31" t="s">
+      <c r="Z31">
+        <v>8</v>
+      </c>
+      <c r="AA31" t="s">
         <v>103</v>
       </c>
-      <c r="AA31" s="10">
+      <c r="AB31" s="10">
         <v>78017</v>
       </c>
-      <c r="AB31" t="s">
-        <v>8</v>
-      </c>
       <c r="AC31" t="s">
         <v>8</v>
       </c>
-      <c r="AD31">
+      <c r="AD31" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE31">
         <f t="shared" si="3"/>
         <v>76989.258353221856</v>
       </c>
-      <c r="AE31" s="1">
+      <c r="AF31" s="1">
         <v>81920</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>81049.600000000006</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>79.150000000000006</v>
       </c>
-      <c r="AH31" t="s">
+      <c r="AI31" t="s">
         <v>112</v>
       </c>
-      <c r="AI31" s="10">
+      <c r="AJ31" s="10">
         <v>125</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>1169</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>414</v>
       </c>
-      <c r="AL31" s="1">
+      <c r="AM31" s="1">
         <v>112</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>800</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>400</v>
       </c>
-      <c r="AO31" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP31" s="1">
+      <c r="AP31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ31" s="1">
+        <f xml:space="preserve"> _xlfn.FLOOR.MATH((AJ31 - AM31) / 2)</f>
         <v>6</v>
       </c>
-      <c r="AQ31">
+      <c r="AR31">
+        <f t="shared" si="8"/>
         <v>184</v>
       </c>
-      <c r="AR31">
+      <c r="AS31">
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="AS31" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT31" s="10" t="s">
+      <c r="AT31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU31" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="AU31" t="s">
+      <c r="AV31" t="s">
         <v>177</v>
       </c>
-      <c r="AV31">
-        <v>0</v>
-      </c>
-      <c r="AW31" t="s">
-        <v>8</v>
+      <c r="AW31">
+        <v>0</v>
       </c>
       <c r="AX31" t="s">
         <v>8</v>
       </c>
+      <c r="AY31" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="32" spans="1:50" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>169</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" t="s">
         <v>170</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" t="s">
         <v>171</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" t="s">
         <v>173</v>
       </c>
       <c r="F32" s="10">
         <v>0</v>
       </c>
-      <c r="G32" s="17">
-        <v>0</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="17">
-        <v>1</v>
-      </c>
-      <c r="J32" s="17" t="s">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
         <v>176</v>
       </c>
-      <c r="K32" s="17">
-        <v>1</v>
-      </c>
-      <c r="L32" s="17">
-        <v>1</v>
-      </c>
-      <c r="M32" s="17">
-        <v>1</v>
-      </c>
-      <c r="N32" s="17">
-        <v>1</v>
-      </c>
-      <c r="O32" s="17">
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
         <v>1</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q32" s="17">
-        <v>5</v>
-      </c>
-      <c r="R32" s="17">
-        <v>5</v>
-      </c>
-      <c r="S32" s="17">
+      <c r="Q32">
+        <v>5</v>
+      </c>
+      <c r="R32">
+        <v>5</v>
+      </c>
+      <c r="S32">
         <v>3</v>
       </c>
-      <c r="T32" s="17">
+      <c r="T32">
         <v>2</v>
       </c>
-      <c r="U32" s="17">
+      <c r="U32">
+        <f xml:space="preserve"> S32 + T32</f>
+        <v>5</v>
+      </c>
+      <c r="V32">
         <v>3</v>
       </c>
-      <c r="V32" s="17">
-        <v>1</v>
-      </c>
-      <c r="W32" s="17">
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
         <v>16</v>
       </c>
-      <c r="X32" s="17" t="s">
+      <c r="Y32" t="s">
         <v>101</v>
       </c>
-      <c r="Y32" s="17">
-        <v>8</v>
-      </c>
-      <c r="Z32" s="17" t="s">
+      <c r="Z32">
+        <v>8</v>
+      </c>
+      <c r="AA32" t="s">
         <v>103</v>
       </c>
-      <c r="AA32" s="10" t="s">
+      <c r="AB32" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="AB32" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC32" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD32" s="17">
+      <c r="AC32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE32">
         <f t="shared" si="3"/>
         <v>76989.258353221856</v>
       </c>
-      <c r="AE32" s="1">
+      <c r="AF32" s="1">
         <v>81920</v>
       </c>
-      <c r="AF32" s="17">
+      <c r="AG32">
         <v>81049.600000000006</v>
       </c>
-      <c r="AG32" s="17">
+      <c r="AH32">
         <v>79.150000000000006</v>
       </c>
-      <c r="AH32" s="17" t="s">
+      <c r="AI32" t="s">
         <v>112</v>
       </c>
-      <c r="AI32" s="10">
+      <c r="AJ32" s="10">
         <v>125</v>
       </c>
-      <c r="AJ32" s="17">
+      <c r="AK32">
         <v>1169</v>
       </c>
-      <c r="AK32" s="17">
+      <c r="AL32">
         <v>414</v>
       </c>
-      <c r="AL32" s="1">
+      <c r="AM32" s="1">
         <v>112</v>
       </c>
-      <c r="AM32" s="17">
+      <c r="AN32">
         <v>800</v>
       </c>
-      <c r="AN32" s="17">
+      <c r="AO32">
         <v>400</v>
       </c>
-      <c r="AO32" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP32" s="1">
+      <c r="AP32" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ32" s="1">
+        <f xml:space="preserve"> _xlfn.FLOOR.MATH((AJ32 - AM32) / 2)</f>
         <v>6</v>
       </c>
-      <c r="AQ32" s="17">
+      <c r="AR32">
+        <f t="shared" si="8"/>
         <v>184</v>
       </c>
-      <c r="AR32" s="17">
+      <c r="AS32">
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="AS32" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT32" s="10" t="s">
+      <c r="AT32" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU32" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="AU32" s="17" t="s">
+      <c r="AV32" t="s">
         <v>177</v>
       </c>
-      <c r="AV32" s="17">
-        <v>0</v>
-      </c>
-      <c r="AW32" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX32" s="17" t="s">
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>184</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" t="s">
         <v>186</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" t="s">
         <v>187</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="G33" t="s">
-        <v>131</v>
+      <c r="E33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>131</v>
-      </c>
-      <c r="I33" t="s">
-        <v>131</v>
+        <v>86</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="K33" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="L33" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="M33" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="N33" t="s">
-        <v>131</v>
-      </c>
-      <c r="O33" t="s">
-        <v>131</v>
+        <v>8</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="Q33" t="s">
-        <v>131</v>
-      </c>
-      <c r="R33" t="s">
-        <v>131</v>
-      </c>
-      <c r="S33" t="s">
-        <v>131</v>
-      </c>
-      <c r="T33" t="s">
-        <v>131</v>
+      <c r="Q33">
+        <v>6</v>
+      </c>
+      <c r="R33">
+        <v>6</v>
+      </c>
+      <c r="S33">
+        <v>5</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
       </c>
       <c r="U33">
-        <v>1</v>
+        <f xml:space="preserve"> S33 + T33</f>
+        <v>6</v>
       </c>
       <c r="V33">
         <v>1</v>
       </c>
       <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
         <v>16</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>101</v>
       </c>
-      <c r="Y33">
-        <v>8</v>
-      </c>
-      <c r="Z33" t="s">
+      <c r="Z33">
+        <v>8</v>
+      </c>
+      <c r="AA33" t="s">
         <v>103</v>
       </c>
+      <c r="AB33" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC33" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD33" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="3"/>
+        <v>76989.258353221856</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>81920</v>
+      </c>
+      <c r="AG33">
+        <v>81049.600000000006</v>
+      </c>
+      <c r="AH33">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ33" s="10">
+        <v>125</v>
+      </c>
+      <c r="AK33">
+        <v>1169</v>
+      </c>
+      <c r="AL33">
+        <v>414</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>112</v>
+      </c>
+      <c r="AN33">
+        <v>800</v>
+      </c>
+      <c r="AO33">
+        <v>400</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ33" s="1">
+        <f xml:space="preserve"> _xlfn.FLOOR.MATH((AJ33 - AM33) / 2)</f>
+        <v>6</v>
+      </c>
+      <c r="AR33">
+        <f t="shared" si="8"/>
+        <v>184</v>
+      </c>
+      <c r="AS33">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU33" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>177</v>
+      </c>
+      <c r="AW33">
+        <v>1</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>190</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>185</v>
       </c>
       <c r="B34" t="s">
@@ -6141,38 +6366,103 @@
       <c r="P34" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="Q34">
+        <v>6</v>
+      </c>
+      <c r="R34">
+        <v>6</v>
+      </c>
+      <c r="S34">
+        <v>5</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <f xml:space="preserve"> S34 + T34</f>
+        <v>6</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>16</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z34">
+        <v>8</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE34">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM34*AN34*AO34) / 5 * U34</f>
+        <v>74549.706201272784</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>81920</v>
+      </c>
+      <c r="AG34">
+        <v>81049.600000000006</v>
+      </c>
+      <c r="AH34">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ34" s="10">
+        <v>125</v>
+      </c>
+      <c r="AK34">
+        <v>1169</v>
+      </c>
+      <c r="AL34">
+        <v>414</v>
+      </c>
+      <c r="AM34" s="4">
+        <v>96</v>
+      </c>
+      <c r="AN34" s="5">
+        <v>784</v>
+      </c>
+      <c r="AO34" s="5">
+        <v>384</v>
+      </c>
+      <c r="AP34" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ34" s="4">
+        <f xml:space="preserve"> _xlfn.FLOOR.MATH((AJ34 - AM34) / 2)</f>
+        <v>14</v>
+      </c>
+      <c r="AR34" s="5">
+        <f t="shared" si="8"/>
+        <v>192</v>
+      </c>
+      <c r="AS34" s="5">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU34" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>177</v>
+      </c>
+      <c r="AW34" t="s">
         <v>131</v>
       </c>
-      <c r="R34" t="s">
-        <v>131</v>
-      </c>
-      <c r="S34" t="s">
-        <v>131</v>
-      </c>
-      <c r="T34" t="s">
-        <v>131</v>
-      </c>
-      <c r="U34">
-        <v>1</v>
-      </c>
-      <c r="V34">
-        <v>1</v>
-      </c>
-      <c r="W34">
-        <v>16</v>
-      </c>
-      <c r="X34" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y34">
-        <v>8</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>103</v>
-      </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>133</v>
       </c>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1919C827-7E10-41A3-BB6E-5CA123F602B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEDC766-3EE8-43B6-9508-0C4A61128A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="2595" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="197">
   <si>
     <t>patch z</t>
   </si>
@@ -613,6 +613,21 @@
   </si>
   <si>
     <t>n train + val</t>
+  </si>
+  <si>
+    <t>srun stuck in job step creation</t>
+  </si>
+  <si>
+    <t>srun: Job 5017585 step creation still disabled, retrying (Requested nodes are busy)</t>
+  </si>
+  <si>
+    <t>failed, srun stuck in job step creation, unknown why. Maybe because only 1 cpu is allocated?</t>
+  </si>
+  <si>
+    <t>230909-0</t>
+  </si>
+  <si>
+    <t>higher val eval score increase &amp; better val prediction images by increasing train sample size by re-assigning the h5 files to train, val, and test sets (dataset04). Also, fix the job step creation disabled error.</t>
   </si>
 </sst>
 </file>
@@ -751,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -771,6 +786,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1085,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
-  <dimension ref="A1:AY35"/>
+  <dimension ref="A1:AY39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AO20" sqref="AO20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE35" sqref="AE35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1354,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="U2">
-        <f xml:space="preserve"> S2 + T2</f>
+        <f t="shared" ref="U2:U24" si="0" xml:space="preserve"> S2 + T2</f>
         <v>5</v>
       </c>
       <c r="V2">
@@ -1510,7 +1528,7 @@
         <v>2</v>
       </c>
       <c r="U3">
-        <f xml:space="preserve"> S3 + T3</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="V3">
@@ -1666,7 +1684,7 @@
         <v>2</v>
       </c>
       <c r="U4" s="12">
-        <f xml:space="preserve"> S4 + T4</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="V4" s="12">
@@ -1822,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="U5">
-        <f xml:space="preserve"> S5 + T5</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="V5">
@@ -1978,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="U6">
-        <f xml:space="preserve"> S6 + T6</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="V6">
@@ -2134,7 +2152,7 @@
         <v>2</v>
       </c>
       <c r="U7">
-        <f xml:space="preserve"> S7 + T7</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="V7">
@@ -2290,7 +2308,7 @@
         <v>2</v>
       </c>
       <c r="U8">
-        <f xml:space="preserve"> S8 + T8</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="V8">
@@ -2446,7 +2464,7 @@
         <v>2</v>
       </c>
       <c r="U9">
-        <f xml:space="preserve"> S9 + T9</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="V9">
@@ -2608,7 +2626,7 @@
         <v>2</v>
       </c>
       <c r="U10">
-        <f xml:space="preserve"> S10 + T10</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="V10">
@@ -2764,7 +2782,7 @@
         <v>2</v>
       </c>
       <c r="U11">
-        <f xml:space="preserve"> S11 + T11</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="V11">
@@ -2920,7 +2938,7 @@
         <v>2</v>
       </c>
       <c r="U12">
-        <f xml:space="preserve"> S12 + T12</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="V12">
@@ -3076,7 +3094,7 @@
         <v>2</v>
       </c>
       <c r="U13">
-        <f xml:space="preserve"> S13 + T13</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="V13">
@@ -3232,7 +3250,7 @@
         <v>2</v>
       </c>
       <c r="U14">
-        <f xml:space="preserve"> S14 + T14</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="V14">
@@ -3388,7 +3406,7 @@
         <v>2</v>
       </c>
       <c r="U15">
-        <f xml:space="preserve"> S15 + T15</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="V15">
@@ -3544,7 +3562,7 @@
         <v>2</v>
       </c>
       <c r="U16" s="7">
-        <f xml:space="preserve"> S16 + T16</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="V16" s="7">
@@ -3700,7 +3718,7 @@
         <v>2</v>
       </c>
       <c r="U17">
-        <f xml:space="preserve"> S17 + T17</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="V17">
@@ -3856,7 +3874,7 @@
         <v>2</v>
       </c>
       <c r="U18">
-        <f xml:space="preserve"> S18 + T18</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="V18">
@@ -4012,7 +4030,7 @@
         <v>2</v>
       </c>
       <c r="U19">
-        <f xml:space="preserve"> S19 + T19</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="V19">
@@ -4168,7 +4186,7 @@
         <v>2</v>
       </c>
       <c r="U20">
-        <f xml:space="preserve"> S20 + T20</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="V20">
@@ -4324,7 +4342,7 @@
         <v>2</v>
       </c>
       <c r="U21">
-        <f xml:space="preserve"> S21 + T21</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="V21">
@@ -4480,7 +4498,7 @@
         <v>2</v>
       </c>
       <c r="U22">
-        <f xml:space="preserve"> S22 + T22</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="V22">
@@ -4636,7 +4654,7 @@
         <v>2</v>
       </c>
       <c r="U23">
-        <f xml:space="preserve"> S23 + T23</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="V23">
@@ -4792,7 +4810,7 @@
         <v>2</v>
       </c>
       <c r="U24">
-        <f xml:space="preserve"> S24 + T24</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="V24">
@@ -5258,7 +5276,7 @@
         <v>2</v>
       </c>
       <c r="U27">
-        <f xml:space="preserve"> S27 + T27</f>
+        <f t="shared" ref="U27:U34" si="1" xml:space="preserve"> S27 + T27</f>
         <v>5</v>
       </c>
       <c r="V27">
@@ -5289,7 +5307,7 @@
         <v>8</v>
       </c>
       <c r="AE27">
-        <f t="shared" ref="AE27" si="0" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM27*AN27*AO27)</f>
+        <f t="shared" ref="AE27" si="2" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM27*AN27*AO27)</f>
         <v>83027.753778838392</v>
       </c>
       <c r="AF27" s="1">
@@ -5326,15 +5344,15 @@
         <v>51</v>
       </c>
       <c r="AQ27" s="1">
-        <f xml:space="preserve"> _xlfn.FLOOR.MATH((AJ27 - AM27) / 2)</f>
+        <f t="shared" ref="AQ27:AQ34" si="3" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ27 - AM27) / 2)</f>
         <v>6</v>
       </c>
       <c r="AR27">
-        <f t="shared" ref="AR27" si="1" xml:space="preserve"> _xlfn.FLOOR.MATH((AK27 - AN27) / 2)</f>
+        <f t="shared" ref="AR27" si="4" xml:space="preserve"> _xlfn.FLOOR.MATH((AK27 - AN27) / 2)</f>
         <v>152</v>
       </c>
       <c r="AS27">
-        <f t="shared" ref="AS27" si="2" xml:space="preserve"> _xlfn.FLOOR.MATH((AL27 - AO27) / 2)</f>
+        <f t="shared" ref="AS27" si="5" xml:space="preserve"> _xlfn.FLOOR.MATH((AL27 - AO27) / 2)</f>
         <v>7</v>
       </c>
       <c r="AT27" t="s">
@@ -5418,7 +5436,7 @@
         <v>2</v>
       </c>
       <c r="U28">
-        <f xml:space="preserve"> S28 + T28</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="V28">
@@ -5450,7 +5468,7 @@
         <v>80.11</v>
       </c>
       <c r="AE28">
-        <f t="shared" ref="AE28:AE34" si="3" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM28*AN28*AO28)</f>
+        <f t="shared" ref="AE28:AE33" si="6" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM28*AN28*AO28)</f>
         <v>81518.129922434266</v>
       </c>
       <c r="AF28" s="1">
@@ -5487,15 +5505,15 @@
         <v>51</v>
       </c>
       <c r="AQ28" s="1">
-        <f xml:space="preserve"> _xlfn.FLOOR.MATH((AJ28 - AM28) / 2)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="AR28">
-        <f t="shared" ref="AR28" si="4" xml:space="preserve"> _xlfn.FLOOR.MATH((AK28 - AN28) / 2)</f>
+        <f t="shared" ref="AR28" si="7" xml:space="preserve"> _xlfn.FLOOR.MATH((AK28 - AN28) / 2)</f>
         <v>160</v>
       </c>
       <c r="AS28">
-        <f t="shared" ref="AS28" si="5" xml:space="preserve"> _xlfn.FLOOR.MATH((AL28 - AO28) / 2)</f>
+        <f t="shared" ref="AS28" si="8" xml:space="preserve"> _xlfn.FLOOR.MATH((AL28 - AO28) / 2)</f>
         <v>7</v>
       </c>
       <c r="AT28" t="s">
@@ -5579,7 +5597,7 @@
         <v>2</v>
       </c>
       <c r="U29">
-        <f xml:space="preserve"> S29 + T29</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="V29">
@@ -5610,7 +5628,7 @@
         <v>8</v>
       </c>
       <c r="AE29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>76989.258353221856</v>
       </c>
       <c r="AF29" s="1">
@@ -5647,15 +5665,15 @@
         <v>51</v>
       </c>
       <c r="AQ29" s="1">
-        <f xml:space="preserve"> _xlfn.FLOOR.MATH((AJ29 - AM29) / 2)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="AR29">
-        <f t="shared" ref="AR29" si="6" xml:space="preserve"> _xlfn.FLOOR.MATH((AK29 - AN29) / 2)</f>
+        <f t="shared" ref="AR29" si="9" xml:space="preserve"> _xlfn.FLOOR.MATH((AK29 - AN29) / 2)</f>
         <v>184</v>
       </c>
       <c r="AS29">
-        <f t="shared" ref="AS29" si="7" xml:space="preserve"> _xlfn.FLOOR.MATH((AL29 - AO29) / 2)</f>
+        <f t="shared" ref="AS29" si="10" xml:space="preserve"> _xlfn.FLOOR.MATH((AL29 - AO29) / 2)</f>
         <v>7</v>
       </c>
       <c r="AT29" t="s">
@@ -5739,7 +5757,7 @@
         <v>2</v>
       </c>
       <c r="U30">
-        <f xml:space="preserve"> S30 + T30</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="V30">
@@ -5770,7 +5788,7 @@
         <v>8</v>
       </c>
       <c r="AE30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>76989.258353221856</v>
       </c>
       <c r="AF30" s="1">
@@ -5807,15 +5825,15 @@
         <v>51</v>
       </c>
       <c r="AQ30" s="1">
-        <f xml:space="preserve"> _xlfn.FLOOR.MATH((AJ30 - AM30) / 2)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="AR30">
-        <f t="shared" ref="AR30:AR34" si="8" xml:space="preserve"> _xlfn.FLOOR.MATH((AK30 - AN30) / 2)</f>
+        <f t="shared" ref="AR30:AR34" si="11" xml:space="preserve"> _xlfn.FLOOR.MATH((AK30 - AN30) / 2)</f>
         <v>184</v>
       </c>
       <c r="AS30">
-        <f t="shared" ref="AS30:AS34" si="9" xml:space="preserve"> _xlfn.FLOOR.MATH((AL30 - AO30) / 2)</f>
+        <f t="shared" ref="AS30:AS34" si="12" xml:space="preserve"> _xlfn.FLOOR.MATH((AL30 - AO30) / 2)</f>
         <v>7</v>
       </c>
       <c r="AT30" t="s">
@@ -5899,7 +5917,7 @@
         <v>2</v>
       </c>
       <c r="U31">
-        <f xml:space="preserve"> S31 + T31</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="V31">
@@ -5930,7 +5948,7 @@
         <v>8</v>
       </c>
       <c r="AE31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>76989.258353221856</v>
       </c>
       <c r="AF31" s="1">
@@ -5967,15 +5985,15 @@
         <v>51</v>
       </c>
       <c r="AQ31" s="1">
-        <f xml:space="preserve"> _xlfn.FLOOR.MATH((AJ31 - AM31) / 2)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="AR31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>184</v>
       </c>
       <c r="AS31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="AT31" t="s">
@@ -6059,7 +6077,7 @@
         <v>2</v>
       </c>
       <c r="U32">
-        <f xml:space="preserve"> S32 + T32</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="V32">
@@ -6090,7 +6108,7 @@
         <v>8</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>76989.258353221856</v>
       </c>
       <c r="AF32" s="1">
@@ -6127,15 +6145,15 @@
         <v>51</v>
       </c>
       <c r="AQ32" s="1">
-        <f xml:space="preserve"> _xlfn.FLOOR.MATH((AJ32 - AM32) / 2)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="AR32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>184</v>
       </c>
       <c r="AS32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="AT32" t="s">
@@ -6219,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="U33">
-        <f xml:space="preserve"> S33 + T33</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="V33">
@@ -6243,14 +6261,14 @@
       <c r="AB33" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="AC33" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD33" s="16" t="s">
+      <c r="AC33" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD33" t="s">
         <v>8</v>
       </c>
       <c r="AE33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>76989.258353221856</v>
       </c>
       <c r="AF33" s="1">
@@ -6287,15 +6305,15 @@
         <v>51</v>
       </c>
       <c r="AQ33" s="1">
-        <f xml:space="preserve"> _xlfn.FLOOR.MATH((AJ33 - AM33) / 2)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="AR33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>184</v>
       </c>
       <c r="AS33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="AT33" t="s">
@@ -6331,37 +6349,37 @@
         <v>181</v>
       </c>
       <c r="E34" t="s">
-        <v>131</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="G34" t="s">
-        <v>131</v>
+        <v>194</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>131</v>
-      </c>
-      <c r="I34" t="s">
-        <v>131</v>
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="K34" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="L34" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="M34" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="N34" t="s">
-        <v>131</v>
-      </c>
-      <c r="O34" t="s">
-        <v>131</v>
+        <v>8</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>178</v>
@@ -6379,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="U34">
-        <f xml:space="preserve"> S34 + T34</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="V34">
@@ -6399,6 +6417,15 @@
       </c>
       <c r="AA34" t="s">
         <v>103</v>
+      </c>
+      <c r="AB34" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC34" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD34" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="AE34">
         <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM34*AN34*AO34) / 5 * U34</f>
@@ -6425,54 +6452,220 @@
       <c r="AL34">
         <v>414</v>
       </c>
-      <c r="AM34" s="4">
+      <c r="AM34" s="17">
         <v>96</v>
       </c>
-      <c r="AN34" s="5">
+      <c r="AN34" s="18">
         <v>784</v>
       </c>
-      <c r="AO34" s="5">
+      <c r="AO34" s="18">
         <v>384</v>
       </c>
-      <c r="AP34" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ34" s="4">
-        <f xml:space="preserve"> _xlfn.FLOOR.MATH((AJ34 - AM34) / 2)</f>
+      <c r="AP34" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ34" s="17">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="AR34" s="5">
-        <f t="shared" si="8"/>
+      <c r="AR34" s="18">
+        <f t="shared" si="11"/>
         <v>192</v>
       </c>
-      <c r="AS34" s="5">
-        <f t="shared" si="9"/>
+      <c r="AS34" s="18">
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
-      <c r="AT34" t="s">
-        <v>51</v>
-      </c>
-      <c r="AU34" s="10" t="s">
+      <c r="AT34" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU34" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="AV34" t="s">
+      <c r="AV34" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="AW34" t="s">
-        <v>131</v>
+      <c r="AW34">
+        <v>1</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>193</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>195</v>
+      </c>
       <c r="B35" t="s">
         <v>133</v>
       </c>
       <c r="C35" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" t="s">
+        <v>131</v>
+      </c>
+      <c r="H35" t="s">
+        <v>131</v>
+      </c>
+      <c r="I35" t="s">
+        <v>131</v>
+      </c>
+      <c r="J35" t="s">
+        <v>131</v>
+      </c>
+      <c r="K35" t="s">
+        <v>131</v>
+      </c>
+      <c r="L35" t="s">
+        <v>131</v>
+      </c>
+      <c r="M35" t="s">
+        <v>131</v>
+      </c>
+      <c r="N35" t="s">
+        <v>131</v>
+      </c>
+      <c r="O35" t="s">
+        <v>131</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q35">
+        <v>6</v>
+      </c>
+      <c r="R35" t="s">
+        <v>131</v>
+      </c>
+      <c r="S35">
+        <v>5</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <f t="shared" ref="U35" si="13" xml:space="preserve"> S35 + T35</f>
+        <v>6</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>16</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z35">
+        <v>8</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB35" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC35" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD35" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE35">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM35*AN35*AO35) / 5 * U35</f>
+        <v>74549.706201272784</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>81920</v>
+      </c>
+      <c r="AG35">
+        <v>81049.600000000006</v>
+      </c>
+      <c r="AH35">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ35" s="10">
+        <v>125</v>
+      </c>
+      <c r="AK35">
+        <v>1169</v>
+      </c>
+      <c r="AL35">
+        <v>414</v>
+      </c>
+      <c r="AM35" s="17">
+        <v>96</v>
+      </c>
+      <c r="AN35" s="18">
+        <v>784</v>
+      </c>
+      <c r="AO35" s="18">
+        <v>384</v>
+      </c>
+      <c r="AP35" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ35" s="17">
+        <f t="shared" ref="AQ35" si="14" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ35 - AM35) / 2)</f>
+        <v>14</v>
+      </c>
+      <c r="AR35" s="18">
+        <f t="shared" ref="AR35" si="15" xml:space="preserve"> _xlfn.FLOOR.MATH((AK35 - AN35) / 2)</f>
+        <v>192</v>
+      </c>
+      <c r="AS35" s="18">
+        <f t="shared" ref="AS35" si="16" xml:space="preserve"> _xlfn.FLOOR.MATH((AL35 - AO35) / 2)</f>
+        <v>15</v>
+      </c>
+      <c r="AT35" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU35" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="AV35" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="AW35">
+        <v>1</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>193</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" t="s">
         <v>182</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D39" t="s">
         <v>183</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E39" t="s">
         <v>131</v>
       </c>
     </row>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEDC766-3EE8-43B6-9508-0C4A61128A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F34B195-E639-4145-83DA-EB4DEB7D5223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="2595" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
@@ -766,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -785,10 +785,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1105,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
   <dimension ref="A1:AY39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE35" sqref="AE35"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AV22" sqref="AV22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -6421,10 +6417,10 @@
       <c r="AB34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AC34" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD34" s="16" t="s">
+      <c r="AC34" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD34" t="s">
         <v>8</v>
       </c>
       <c r="AE34">
@@ -6452,37 +6448,37 @@
       <c r="AL34">
         <v>414</v>
       </c>
-      <c r="AM34" s="17">
+      <c r="AM34" s="1">
         <v>96</v>
       </c>
-      <c r="AN34" s="18">
+      <c r="AN34">
         <v>784</v>
       </c>
-      <c r="AO34" s="18">
+      <c r="AO34">
         <v>384</v>
       </c>
-      <c r="AP34" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ34" s="17">
+      <c r="AP34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ34" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="AR34" s="18">
+      <c r="AR34">
         <f t="shared" si="11"/>
         <v>192</v>
       </c>
-      <c r="AS34" s="18">
+      <c r="AS34">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
-      <c r="AT34" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="AU34" s="19" t="s">
+      <c r="AT34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU34" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="AV34" s="18" t="s">
+      <c r="AV34" t="s">
         <v>177</v>
       </c>
       <c r="AW34">
@@ -6581,10 +6577,10 @@
       <c r="AB35" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AC35" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD35" s="16" t="s">
+      <c r="AC35" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD35" t="s">
         <v>8</v>
       </c>
       <c r="AE35">
@@ -6612,37 +6608,37 @@
       <c r="AL35">
         <v>414</v>
       </c>
-      <c r="AM35" s="17">
+      <c r="AM35" s="1">
         <v>96</v>
       </c>
-      <c r="AN35" s="18">
+      <c r="AN35">
         <v>784</v>
       </c>
-      <c r="AO35" s="18">
+      <c r="AO35">
         <v>384</v>
       </c>
-      <c r="AP35" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ35" s="17">
+      <c r="AP35" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ35" s="1">
         <f t="shared" ref="AQ35" si="14" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ35 - AM35) / 2)</f>
         <v>14</v>
       </c>
-      <c r="AR35" s="18">
+      <c r="AR35">
         <f t="shared" ref="AR35" si="15" xml:space="preserve"> _xlfn.FLOOR.MATH((AK35 - AN35) / 2)</f>
         <v>192</v>
       </c>
-      <c r="AS35" s="18">
+      <c r="AS35">
         <f t="shared" ref="AS35" si="16" xml:space="preserve"> _xlfn.FLOOR.MATH((AL35 - AO35) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AT35" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="AU35" s="19" t="s">
+      <c r="AT35" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU35" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="AV35" s="18" t="s">
+      <c r="AV35" t="s">
         <v>177</v>
       </c>
       <c r="AW35">

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F34B195-E639-4145-83DA-EB4DEB7D5223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A845925F-82E0-4939-B936-1D4836FC96F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="2595" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="203">
   <si>
     <t>patch z</t>
   </si>
@@ -628,6 +628,24 @@
   </si>
   <si>
     <t>higher val eval score increase &amp; better val prediction images by increasing train sample size by re-assigning the h5 files to train, val, and test sets (dataset04). Also, fix the job step creation disabled error.</t>
+  </si>
+  <si>
+    <t>failed, #SBATCH commands did not work. job step creation not a problem any more.</t>
+  </si>
+  <si>
+    <t>higher val eval score increase &amp; better val prediction images by increasing train sample size by re-assigning the h5 files to train, val, and test sets (dataset04). Also, fix the #SBATCH commands in the slurm job file (attempt).</t>
+  </si>
+  <si>
+    <t>out of time (default time is 1 minute)</t>
+  </si>
+  <si>
+    <t>230909-1</t>
+  </si>
+  <si>
+    <t>slurmstepd: error: *** JOB 5017703 ON u20-compute-m3 CANCELLED AT 2023-09-09T19:06:39 DUE TO TIME LIMIT ***</t>
+  </si>
+  <si>
+    <t>when I get to it.</t>
   </si>
 </sst>
 </file>
@@ -766,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -785,6 +803,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1101,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
   <dimension ref="A1:AY39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AV22" sqref="AV22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -6505,37 +6524,37 @@
         <v>181</v>
       </c>
       <c r="E35" t="s">
-        <v>131</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="G35" t="s">
-        <v>131</v>
+        <v>197</v>
+      </c>
+      <c r="F35" s="10">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>131</v>
-      </c>
-      <c r="I35" t="s">
-        <v>131</v>
+        <v>199</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="K35" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="L35" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="M35" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="N35" t="s">
-        <v>131</v>
-      </c>
-      <c r="O35" t="s">
-        <v>131</v>
+        <v>8</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>178</v>
@@ -6543,8 +6562,8 @@
       <c r="Q35">
         <v>6</v>
       </c>
-      <c r="R35" t="s">
-        <v>131</v>
+      <c r="R35">
+        <v>6</v>
       </c>
       <c r="S35">
         <v>5</v>
@@ -6651,7 +6670,170 @@
         <v>8</v>
       </c>
     </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="M36" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="N36" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="O36" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q36">
+        <v>6</v>
+      </c>
+      <c r="R36" t="s">
+        <v>131</v>
+      </c>
+      <c r="S36">
+        <v>5</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <f t="shared" ref="U36" si="17" xml:space="preserve"> S36 + T36</f>
+        <v>6</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>16</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z36">
+        <v>8</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB36" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE36">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM36*AN36*AO36) / 5 * U36</f>
+        <v>74549.706201272784</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>81920</v>
+      </c>
+      <c r="AG36">
+        <v>81049.600000000006</v>
+      </c>
+      <c r="AH36">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ36" s="10">
+        <v>125</v>
+      </c>
+      <c r="AK36">
+        <v>1169</v>
+      </c>
+      <c r="AL36">
+        <v>414</v>
+      </c>
+      <c r="AM36" s="1">
+        <v>96</v>
+      </c>
+      <c r="AN36">
+        <v>784</v>
+      </c>
+      <c r="AO36">
+        <v>384</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ36" s="1">
+        <f t="shared" ref="AQ36" si="18" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ36 - AM36) / 2)</f>
+        <v>14</v>
+      </c>
+      <c r="AR36">
+        <f t="shared" ref="AR36" si="19" xml:space="preserve"> _xlfn.FLOOR.MATH((AK36 - AN36) / 2)</f>
+        <v>192</v>
+      </c>
+      <c r="AS36">
+        <f t="shared" ref="AS36" si="20" xml:space="preserve"> _xlfn.FLOOR.MATH((AL36 - AO36) / 2)</f>
+        <v>15</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU36" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>177</v>
+      </c>
+      <c r="AW36">
+        <v>1</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>202</v>
+      </c>
       <c r="B39" t="s">
         <v>133</v>
       </c>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A845925F-82E0-4939-B936-1D4836FC96F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CAF7E9-F1D0-4B45-8F8D-916B7E851465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="2595" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="206">
   <si>
     <t>patch z</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>res. X</t>
-  </si>
-  <si>
-    <t>error</t>
   </si>
   <si>
     <t>AssertionError: datasets should not be an empty iterable</t>
@@ -645,7 +642,19 @@
     <t>slurmstepd: error: *** JOB 5017703 ON u20-compute-m3 CANCELLED AT 2023-09-09T19:06:39 DUE TO TIME LIMIT ***</t>
   </si>
   <si>
-    <t>when I get to it.</t>
+    <t>failed, typo in patch shape: typed 98 instead of 96 in z, resulting in torch error.</t>
+  </si>
+  <si>
+    <t>230910-0</t>
+  </si>
+  <si>
+    <t>higher val eval score increase &amp; better val prediction images by increasing train sample size by re-assigning the h5 files to train, val, and test sets (dataset04). Also, correct patch shape typo in train config yaml.</t>
+  </si>
+  <si>
+    <t>error, invalid patch shape</t>
+  </si>
+  <si>
+    <t>ValueError: requested an output size of torch.Size([49, 192, 392]), but valid sizes range from [47, 191, 391] to [48, 192, 392] (for an input of torch.Size([24, 96, 196]))</t>
   </si>
 </sst>
 </file>
@@ -784,7 +793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -803,7 +812,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1121,7 +1129,7 @@
   <dimension ref="A1:AY39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1133,8 +1141,8 @@
     <col min="5" max="5" width="26.85546875" customWidth="1"/>
     <col min="6" max="6" width="4.85546875" style="10" customWidth="1"/>
     <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" customWidth="1"/>
     <col min="10" max="10" width="16.28515625" customWidth="1"/>
     <col min="16" max="16" width="10.42578125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="9.140625" customWidth="1" outlineLevel="1"/>
@@ -1172,52 +1180,52 @@
   <sheetData>
     <row r="1" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="K1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="P1" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>3</v>
@@ -1226,55 +1234,55 @@
         <v>4</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="AA1" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF1" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>122</v>
-      </c>
       <c r="AG1" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AJ1" s="9" t="s">
         <v>11</v>
@@ -1295,52 +1303,52 @@
         <v>2</v>
       </c>
       <c r="AP1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AQ1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="AU1" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AX1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AX1" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="AY1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" t="s">
         <v>142</v>
       </c>
-      <c r="E2" t="s">
-        <v>143</v>
-      </c>
       <c r="F2" s="10">
         <v>0</v>
       </c>
@@ -1354,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K2" t="s">
         <v>8</v>
@@ -1372,13 +1380,13 @@
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q2">
         <v>5</v>
       </c>
       <c r="R2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S2">
         <v>3</v>
@@ -1400,13 +1408,13 @@
         <v>16</v>
       </c>
       <c r="Y2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z2">
         <v>8</v>
       </c>
       <c r="AA2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB2" s="10">
         <v>0</v>
@@ -1421,7 +1429,7 @@
         <v>8</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AG2" t="s">
         <v>8</v>
@@ -1430,7 +1438,7 @@
         <v>8</v>
       </c>
       <c r="AI2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ2" s="10">
         <v>125</v>
@@ -1442,40 +1450,40 @@
         <v>414</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AN2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AP2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AR2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AS2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AT2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AU2" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AV2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AW2">
         <v>1</v>
       </c>
       <c r="AX2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AY2" t="s">
         <v>8</v>
@@ -1483,19 +1491,19 @@
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
         <v>139</v>
       </c>
-      <c r="B3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" t="s">
-        <v>140</v>
-      </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F3" s="10">
         <v>0</v>
@@ -1510,31 +1518,31 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q3">
         <v>5</v>
       </c>
       <c r="R3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S3">
         <v>3</v>
@@ -1556,16 +1564,16 @@
         <v>16</v>
       </c>
       <c r="Y3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z3">
         <v>8</v>
       </c>
       <c r="AA3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB3" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AC3" t="s">
         <v>8</v>
@@ -1577,7 +1585,7 @@
         <v>8</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AG3" t="s">
         <v>8</v>
@@ -1586,7 +1594,7 @@
         <v>8</v>
       </c>
       <c r="AI3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ3" s="10">
         <v>125</v>
@@ -1598,34 +1606,34 @@
         <v>414</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AN3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AP3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AR3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AS3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AT3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AU3" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AV3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AW3">
         <v>0</v>
@@ -1639,19 +1647,19 @@
     </row>
     <row r="4" spans="1:51" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>134</v>
-      </c>
       <c r="D4" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" s="13">
         <v>0</v>
@@ -1660,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I4" s="12">
         <v>0</v>
@@ -1684,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="12">
         <v>5</v>
@@ -1712,16 +1720,16 @@
         <v>16</v>
       </c>
       <c r="Y4" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z4" s="12">
         <v>8</v>
       </c>
       <c r="AA4" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB4" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC4" s="12" t="s">
         <v>8</v>
@@ -1742,7 +1750,7 @@
         <v>8</v>
       </c>
       <c r="AI4" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ4" s="13">
         <v>125</v>
@@ -1763,7 +1771,7 @@
         <v>394</v>
       </c>
       <c r="AP4" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ4" s="14">
         <v>10</v>
@@ -1775,13 +1783,13 @@
         <v>10</v>
       </c>
       <c r="AT4" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU4" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV4" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW4" s="12">
         <v>0</v>
@@ -1793,21 +1801,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" s="10">
         <v>0</v>
@@ -1816,9 +1824,9 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5">
+        <v>85</v>
+      </c>
+      <c r="I5" s="12">
         <v>0</v>
       </c>
       <c r="J5" t="s">
@@ -1840,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1868,16 +1876,16 @@
         <v>16</v>
       </c>
       <c r="Y5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z5">
         <v>8</v>
       </c>
       <c r="AA5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB5" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC5" t="s">
         <v>8</v>
@@ -1898,7 +1906,7 @@
         <v>8</v>
       </c>
       <c r="AI5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ5" s="10">
         <v>125</v>
@@ -1919,7 +1927,7 @@
         <v>390</v>
       </c>
       <c r="AP5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ5" s="1">
         <v>10</v>
@@ -1931,13 +1939,13 @@
         <v>10</v>
       </c>
       <c r="AT5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU5" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW5">
         <v>0</v>
@@ -1954,16 +1962,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" s="10">
         <v>0</v>
@@ -1972,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1996,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2024,13 +2032,13 @@
         <v>16</v>
       </c>
       <c r="Y6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z6">
         <v>8</v>
       </c>
       <c r="AA6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB6" s="10" t="s">
         <v>8</v>
@@ -2054,7 +2062,7 @@
         <v>8</v>
       </c>
       <c r="AI6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ6" s="10">
         <v>125</v>
@@ -2075,7 +2083,7 @@
         <v>390</v>
       </c>
       <c r="AP6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ6" s="1">
         <v>26</v>
@@ -2087,10 +2095,10 @@
         <v>25</v>
       </c>
       <c r="AT6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU6" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV6" t="s">
         <v>10</v>
@@ -2099,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="AX6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY6" t="s">
         <v>8</v>
@@ -2107,20 +2115,20 @@
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
         <v>89</v>
       </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>90</v>
-      </c>
       <c r="F7" s="10">
         <v>0</v>
       </c>
@@ -2128,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2152,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2180,13 +2188,13 @@
         <v>16</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z7">
         <v>8</v>
       </c>
       <c r="AA7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB7" s="10" t="s">
         <v>8</v>
@@ -2210,7 +2218,7 @@
         <v>8</v>
       </c>
       <c r="AI7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ7" s="10">
         <v>125</v>
@@ -2231,7 +2239,7 @@
         <v>390</v>
       </c>
       <c r="AP7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ7" s="1">
         <v>25</v>
@@ -2243,10 +2251,10 @@
         <v>24</v>
       </c>
       <c r="AT7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU7" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV7" t="s">
         <v>9</v>
@@ -2255,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="AX7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY7" t="s">
         <v>8</v>
@@ -2263,19 +2271,19 @@
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F8" s="10">
         <v>0</v>
@@ -2284,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2308,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2336,16 +2344,16 @@
         <v>16</v>
       </c>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z8">
         <v>8</v>
       </c>
       <c r="AA8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB8" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC8" t="s">
         <v>8</v>
@@ -2366,7 +2374,7 @@
         <v>8</v>
       </c>
       <c r="AI8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ8" s="10">
         <v>125</v>
@@ -2387,7 +2395,7 @@
         <v>400</v>
       </c>
       <c r="AP8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ8" s="1">
         <v>12</v>
@@ -2399,19 +2407,19 @@
         <v>7</v>
       </c>
       <c r="AT8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU8" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW8">
         <v>1</v>
       </c>
       <c r="AX8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="s">
         <v>8</v>
@@ -2419,19 +2427,19 @@
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" s="10">
         <v>0</v>
@@ -2440,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2464,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2492,13 +2500,13 @@
         <v>16</v>
       </c>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z9">
         <v>8</v>
       </c>
       <c r="AA9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB9" s="10" t="s">
         <v>8</v>
@@ -2522,7 +2530,7 @@
         <v>8</v>
       </c>
       <c r="AI9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ9" s="10">
         <v>125</v>
@@ -2546,7 +2554,7 @@
         <v>304</v>
       </c>
       <c r="AP9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ9" s="1">
         <f>(AJ9-AM9)/2</f>
@@ -2561,19 +2569,19 @@
         <v>55</v>
       </c>
       <c r="AT9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW9">
+        <v>1</v>
+      </c>
+      <c r="AX9" t="s">
         <v>25</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AW9">
-        <v>1</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>26</v>
       </c>
       <c r="AY9" t="s">
         <v>8</v>
@@ -2581,19 +2589,19 @@
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F10" s="10">
         <v>0</v>
@@ -2602,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2626,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2654,13 +2662,13 @@
         <v>16</v>
       </c>
       <c r="Y10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z10">
         <v>8</v>
       </c>
       <c r="AA10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB10" s="10" t="s">
         <v>8</v>
@@ -2684,7 +2692,7 @@
         <v>8</v>
       </c>
       <c r="AI10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ10" s="10">
         <v>125</v>
@@ -2705,7 +2713,7 @@
         <v>304</v>
       </c>
       <c r="AP10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ10" s="1">
         <v>24</v>
@@ -2717,39 +2725,39 @@
         <v>48</v>
       </c>
       <c r="AT10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU10" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AW10">
         <v>1</v>
       </c>
       <c r="AX10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F11" s="10">
         <v>0</v>
@@ -2758,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2782,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -2810,16 +2818,16 @@
         <v>16</v>
       </c>
       <c r="Y11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z11">
         <v>8</v>
       </c>
       <c r="AA11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB11" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC11" t="s">
         <v>8</v>
@@ -2840,7 +2848,7 @@
         <v>8</v>
       </c>
       <c r="AI11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ11" s="10">
         <v>125</v>
@@ -2861,7 +2869,7 @@
         <v>304</v>
       </c>
       <c r="AP11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ11" s="1">
         <v>24</v>
@@ -2873,39 +2881,39 @@
         <v>40</v>
       </c>
       <c r="AT11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU11" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW11">
+        <v>1</v>
+      </c>
+      <c r="AX11" t="s">
         <v>31</v>
       </c>
-      <c r="AW11">
-        <v>1</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>32</v>
-      </c>
       <c r="AY11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" s="10">
         <v>0</v>
@@ -2920,7 +2928,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -2938,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -2966,13 +2974,13 @@
         <v>16</v>
       </c>
       <c r="Y12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z12">
         <v>8</v>
       </c>
       <c r="AA12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB12" s="10">
         <v>10135</v>
@@ -2996,7 +3004,7 @@
         <v>8</v>
       </c>
       <c r="AI12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ12" s="10">
         <v>125</v>
@@ -3017,7 +3025,7 @@
         <v>160</v>
       </c>
       <c r="AP12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ12" s="1">
         <v>24</v>
@@ -3029,13 +3037,13 @@
         <v>120</v>
       </c>
       <c r="AT12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU12" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AW12">
         <v>0</v>
@@ -3049,19 +3057,19 @@
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="10">
         <v>0</v>
@@ -3070,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3094,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3122,13 +3130,13 @@
         <v>16</v>
       </c>
       <c r="Y13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z13">
         <v>8</v>
       </c>
       <c r="AA13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB13" s="10" t="s">
         <v>8</v>
@@ -3152,7 +3160,7 @@
         <v>8</v>
       </c>
       <c r="AI13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ13" s="10">
         <v>125</v>
@@ -3173,7 +3181,7 @@
         <v>168</v>
       </c>
       <c r="AP13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ13" s="1">
         <v>24</v>
@@ -3185,39 +3193,39 @@
         <v>120</v>
       </c>
       <c r="AT13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU13" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AV13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AW13">
         <v>1</v>
       </c>
       <c r="AX13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AY13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="10">
         <v>0</v>
@@ -3226,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3250,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3278,13 +3286,13 @@
         <v>16</v>
       </c>
       <c r="Y14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z14">
         <v>8</v>
       </c>
       <c r="AA14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB14" s="10" t="s">
         <v>8</v>
@@ -3308,7 +3316,7 @@
         <v>8</v>
       </c>
       <c r="AI14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ14" s="10">
         <v>125</v>
@@ -3329,7 +3337,7 @@
         <v>168</v>
       </c>
       <c r="AP14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ14" s="1">
         <v>16</v>
@@ -3341,39 +3349,39 @@
         <v>112</v>
       </c>
       <c r="AT14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU14" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AV14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AW14">
         <v>1</v>
       </c>
       <c r="AX14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AY14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" s="10">
         <v>0</v>
@@ -3388,7 +3396,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -3406,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3434,13 +3442,13 @@
         <v>16</v>
       </c>
       <c r="Y15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z15">
         <v>8</v>
       </c>
       <c r="AA15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB15" s="10">
         <v>13843</v>
@@ -3464,7 +3472,7 @@
         <v>8</v>
       </c>
       <c r="AI15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ15" s="10">
         <v>125</v>
@@ -3485,7 +3493,7 @@
         <v>176</v>
       </c>
       <c r="AP15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ15" s="1">
         <v>8</v>
@@ -3497,13 +3505,13 @@
         <v>104</v>
       </c>
       <c r="AT15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU15" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AW15">
         <v>0</v>
@@ -3517,19 +3525,19 @@
     </row>
     <row r="16" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" s="11">
         <v>0</v>
@@ -3544,7 +3552,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K16" s="7">
         <v>0</v>
@@ -3562,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="7">
         <v>5</v>
@@ -3590,13 +3598,13 @@
         <v>16</v>
       </c>
       <c r="Y16" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z16" s="7">
         <v>8</v>
       </c>
       <c r="AA16" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB16" s="11">
         <v>13843</v>
@@ -3620,7 +3628,7 @@
         <v>8</v>
       </c>
       <c r="AI16" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ16" s="11">
         <v>125</v>
@@ -3641,7 +3649,7 @@
         <v>176</v>
       </c>
       <c r="AP16" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ16" s="8">
         <v>16</v>
@@ -3653,13 +3661,13 @@
         <v>112</v>
       </c>
       <c r="AT16" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU16" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AV16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AW16" s="7">
         <v>0</v>
@@ -3673,19 +3681,19 @@
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" s="10">
         <v>0</v>
@@ -3700,7 +3708,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -3718,7 +3726,7 @@
         <v>1</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -3746,13 +3754,13 @@
         <v>16</v>
       </c>
       <c r="Y17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z17">
         <v>8</v>
       </c>
       <c r="AA17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB17" s="10">
         <v>10135</v>
@@ -3776,7 +3784,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ17" s="10">
         <v>125</v>
@@ -3797,7 +3805,7 @@
         <v>160</v>
       </c>
       <c r="AP17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ17" s="4">
         <v>8</v>
@@ -3809,13 +3817,13 @@
         <v>96</v>
       </c>
       <c r="AT17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU17" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AV17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AW17">
         <v>0</v>
@@ -3829,19 +3837,19 @@
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18" s="10">
         <v>0</v>
@@ -3856,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -3874,7 +3882,7 @@
         <v>1</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -3902,13 +3910,13 @@
         <v>16</v>
       </c>
       <c r="Y18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z18">
         <v>8</v>
       </c>
       <c r="AA18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB18" s="10">
         <v>10135</v>
@@ -3932,7 +3940,7 @@
         <v>8</v>
       </c>
       <c r="AI18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ18" s="10">
         <v>125</v>
@@ -3953,7 +3961,7 @@
         <v>160</v>
       </c>
       <c r="AP18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ18" s="1">
         <v>24</v>
@@ -3965,13 +3973,13 @@
         <v>120</v>
       </c>
       <c r="AT18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU18" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AV18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AW18">
         <v>0</v>
@@ -3985,19 +3993,19 @@
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" s="10">
         <v>0</v>
@@ -4012,7 +4020,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -4030,7 +4038,7 @@
         <v>1</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -4058,13 +4066,13 @@
         <v>16</v>
       </c>
       <c r="Y19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z19">
         <v>8</v>
       </c>
       <c r="AA19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB19" s="10">
         <v>10999</v>
@@ -4088,7 +4096,7 @@
         <v>8</v>
       </c>
       <c r="AI19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ19" s="10">
         <v>125</v>
@@ -4109,7 +4117,7 @@
         <v>176</v>
       </c>
       <c r="AP19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ19" s="1">
         <v>24</v>
@@ -4121,13 +4129,13 @@
         <v>112</v>
       </c>
       <c r="AT19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU19" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AV19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AW19">
         <v>0</v>
@@ -4141,19 +4149,19 @@
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" s="10">
         <v>0</v>
@@ -4168,7 +4176,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -4186,7 +4194,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4214,13 +4222,13 @@
         <v>16</v>
       </c>
       <c r="Y20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z20">
         <v>8</v>
       </c>
       <c r="AA20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB20" s="10">
         <v>11843</v>
@@ -4244,7 +4252,7 @@
         <v>8</v>
       </c>
       <c r="AI20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ20" s="10">
         <v>125</v>
@@ -4265,7 +4273,7 @@
         <v>192</v>
       </c>
       <c r="AP20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ20" s="1">
         <v>24</v>
@@ -4277,13 +4285,13 @@
         <v>104</v>
       </c>
       <c r="AT20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU20" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AV20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AW20">
         <v>0</v>
@@ -4297,19 +4305,19 @@
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" s="10">
         <v>0</v>
@@ -4324,7 +4332,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -4342,7 +4350,7 @@
         <v>1</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -4370,13 +4378,13 @@
         <v>16</v>
       </c>
       <c r="Y21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z21">
         <v>8</v>
       </c>
       <c r="AA21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB21" s="10">
         <v>10473</v>
@@ -4400,7 +4408,7 @@
         <v>8</v>
       </c>
       <c r="AI21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ21" s="10">
         <v>125</v>
@@ -4421,7 +4429,7 @@
         <v>160</v>
       </c>
       <c r="AP21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ21" s="1">
         <v>24</v>
@@ -4433,13 +4441,13 @@
         <v>120</v>
       </c>
       <c r="AT21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU21" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AV21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AW21">
         <v>0</v>
@@ -4453,19 +4461,19 @@
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" s="10">
         <v>0</v>
@@ -4480,7 +4488,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -4498,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -4526,13 +4534,13 @@
         <v>16</v>
       </c>
       <c r="Y22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z22">
         <v>8</v>
       </c>
       <c r="AA22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB22" s="10">
         <v>10825</v>
@@ -4556,7 +4564,7 @@
         <v>8</v>
       </c>
       <c r="AI22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ22" s="10">
         <v>125</v>
@@ -4577,7 +4585,7 @@
         <v>160</v>
       </c>
       <c r="AP22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ22" s="1">
         <v>24</v>
@@ -4589,13 +4597,13 @@
         <v>120</v>
       </c>
       <c r="AT22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU22" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AV22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AW22">
         <v>0</v>
@@ -4609,19 +4617,19 @@
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" s="10">
         <v>0</v>
@@ -4636,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -4654,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -4682,13 +4690,13 @@
         <v>16</v>
       </c>
       <c r="Y23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z23">
         <v>8</v>
       </c>
       <c r="AA23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB23" s="10">
         <v>12317</v>
@@ -4712,7 +4720,7 @@
         <v>8</v>
       </c>
       <c r="AI23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ23" s="10">
         <v>125</v>
@@ -4733,7 +4741,7 @@
         <v>160</v>
       </c>
       <c r="AP23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ23" s="1">
         <v>16</v>
@@ -4745,13 +4753,13 @@
         <v>120</v>
       </c>
       <c r="AT23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU23" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AV23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AW23">
         <v>0</v>
@@ -4765,19 +4773,19 @@
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24" s="10">
         <v>0</v>
@@ -4792,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -4810,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -4838,13 +4846,13 @@
         <v>16</v>
       </c>
       <c r="Y24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z24">
         <v>8</v>
       </c>
       <c r="AA24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB24" s="10">
         <v>14443</v>
@@ -4868,7 +4876,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ24" s="10">
         <v>125</v>
@@ -4889,7 +4897,7 @@
         <v>160</v>
       </c>
       <c r="AP24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ24" s="1">
         <v>8</v>
@@ -4901,13 +4909,13 @@
         <v>120</v>
       </c>
       <c r="AT24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU24" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AV24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AW24">
         <v>0</v>
@@ -4921,7 +4929,7 @@
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -4930,10 +4938,10 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" t="s">
         <v>108</v>
-      </c>
-      <c r="E25" t="s">
-        <v>109</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>8</v>
@@ -5076,7 +5084,7 @@
     </row>
     <row r="26" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>8</v>
@@ -5085,10 +5093,10 @@
         <v>8</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>8</v>
@@ -5231,19 +5239,19 @@
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F27" s="10">
         <v>0</v>
@@ -5258,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -5276,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -5304,16 +5312,16 @@
         <v>16</v>
       </c>
       <c r="Y27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z27">
         <v>8</v>
       </c>
       <c r="AA27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB27" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AC27" t="s">
         <v>8</v>
@@ -5335,7 +5343,7 @@
         <v>79.150000000000006</v>
       </c>
       <c r="AI27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ27" s="10">
         <v>125</v>
@@ -5356,7 +5364,7 @@
         <v>400</v>
       </c>
       <c r="AP27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ27" s="1">
         <f t="shared" ref="AQ27:AQ34" si="3" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ27 - AM27) / 2)</f>
@@ -5371,13 +5379,13 @@
         <v>7</v>
       </c>
       <c r="AT27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU27" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AV27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AW27">
         <v>0</v>
@@ -5391,19 +5399,19 @@
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F28" s="10">
         <v>0</v>
@@ -5412,7 +5420,7 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -5436,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -5464,16 +5472,16 @@
         <v>16</v>
       </c>
       <c r="Y28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z28">
         <v>8</v>
       </c>
       <c r="AA28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB28" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AC28">
         <v>82032.639999999999</v>
@@ -5496,7 +5504,7 @@
         <v>79.150000000000006</v>
       </c>
       <c r="AI28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ28" s="10">
         <v>125</v>
@@ -5517,7 +5525,7 @@
         <v>400</v>
       </c>
       <c r="AP28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ28" s="1">
         <f t="shared" si="3"/>
@@ -5532,39 +5540,39 @@
         <v>7</v>
       </c>
       <c r="AT28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU28" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AV28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AW28">
         <v>1</v>
       </c>
       <c r="AX28" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY28" t="s">
         <v>116</v>
-      </c>
-      <c r="AY28" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F29" s="10">
         <v>0</v>
@@ -5573,7 +5581,7 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -5597,7 +5605,7 @@
         <v>1</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -5625,13 +5633,13 @@
         <v>16</v>
       </c>
       <c r="Y29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z29">
         <v>8</v>
       </c>
       <c r="AA29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB29" s="10">
         <v>77887</v>
@@ -5656,7 +5664,7 @@
         <v>79.150000000000006</v>
       </c>
       <c r="AI29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ29" s="10">
         <v>125</v>
@@ -5677,7 +5685,7 @@
         <v>400</v>
       </c>
       <c r="AP29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ29" s="1">
         <f t="shared" si="3"/>
@@ -5692,13 +5700,13 @@
         <v>7</v>
       </c>
       <c r="AT29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU29" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AV29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AW29">
         <v>0</v>
@@ -5712,20 +5720,20 @@
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C30" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" t="s">
         <v>167</v>
       </c>
-      <c r="D30" t="s">
-        <v>163</v>
-      </c>
-      <c r="E30" t="s">
-        <v>168</v>
-      </c>
       <c r="F30" s="10">
         <v>0</v>
       </c>
@@ -5739,7 +5747,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -5757,7 +5765,7 @@
         <v>1</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -5785,13 +5793,13 @@
         <v>16</v>
       </c>
       <c r="Y30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z30">
         <v>8</v>
       </c>
       <c r="AA30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB30" s="10">
         <v>77885</v>
@@ -5816,7 +5824,7 @@
         <v>79.150000000000006</v>
       </c>
       <c r="AI30" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ30" s="10">
         <v>125</v>
@@ -5837,7 +5845,7 @@
         <v>400</v>
       </c>
       <c r="AP30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ30" s="1">
         <f t="shared" si="3"/>
@@ -5852,13 +5860,13 @@
         <v>7</v>
       </c>
       <c r="AT30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU30" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AV30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AW30">
         <v>0</v>
@@ -5872,19 +5880,19 @@
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" t="s">
         <v>160</v>
       </c>
-      <c r="D31" t="s">
-        <v>161</v>
-      </c>
       <c r="E31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F31" s="10">
         <v>0</v>
@@ -5893,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -5917,7 +5925,7 @@
         <v>1</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -5945,13 +5953,13 @@
         <v>16</v>
       </c>
       <c r="Y31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z31">
         <v>8</v>
       </c>
       <c r="AA31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB31" s="10">
         <v>78017</v>
@@ -5976,7 +5984,7 @@
         <v>79.150000000000006</v>
       </c>
       <c r="AI31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ31" s="10">
         <v>125</v>
@@ -5997,7 +6005,7 @@
         <v>400</v>
       </c>
       <c r="AP31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ31" s="1">
         <f t="shared" si="3"/>
@@ -6012,13 +6020,13 @@
         <v>7</v>
       </c>
       <c r="AT31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU31" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AV31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AW31">
         <v>0</v>
@@ -6032,19 +6040,19 @@
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="s">
         <v>169</v>
       </c>
-      <c r="B32" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>170</v>
       </c>
-      <c r="D32" t="s">
-        <v>171</v>
-      </c>
       <c r="E32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F32" s="10">
         <v>0</v>
@@ -6059,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -6077,7 +6085,7 @@
         <v>1</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -6105,16 +6113,16 @@
         <v>16</v>
       </c>
       <c r="Y32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z32">
         <v>8</v>
       </c>
       <c r="AA32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB32" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AC32" t="s">
         <v>8</v>
@@ -6136,7 +6144,7 @@
         <v>79.150000000000006</v>
       </c>
       <c r="AI32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ32" s="10">
         <v>125</v>
@@ -6157,7 +6165,7 @@
         <v>400</v>
       </c>
       <c r="AP32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ32" s="1">
         <f t="shared" si="3"/>
@@ -6172,13 +6180,13 @@
         <v>7</v>
       </c>
       <c r="AT32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU32" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AV32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AW32">
         <v>0</v>
@@ -6192,20 +6200,20 @@
     </row>
     <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D33" t="s">
         <v>186</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>187</v>
       </c>
-      <c r="E33" t="s">
-        <v>188</v>
-      </c>
       <c r="F33" s="10">
         <v>0</v>
       </c>
@@ -6213,7 +6221,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -6237,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -6265,16 +6273,16 @@
         <v>16</v>
       </c>
       <c r="Y33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z33">
         <v>8</v>
       </c>
       <c r="AA33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB33" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC33" t="s">
         <v>8</v>
@@ -6296,7 +6304,7 @@
         <v>79.150000000000006</v>
       </c>
       <c r="AI33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ33" s="10">
         <v>125</v>
@@ -6317,7 +6325,7 @@
         <v>400</v>
       </c>
       <c r="AP33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ33" s="1">
         <f t="shared" si="3"/>
@@ -6332,19 +6340,19 @@
         <v>7</v>
       </c>
       <c r="AT33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU33" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AV33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AW33">
         <v>1</v>
       </c>
       <c r="AX33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AY33" t="s">
         <v>8</v>
@@ -6352,19 +6360,19 @@
     </row>
     <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" t="s">
         <v>180</v>
       </c>
-      <c r="D34" t="s">
-        <v>181</v>
-      </c>
       <c r="E34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F34" s="10">
         <v>0</v>
@@ -6379,7 +6387,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K34" t="s">
         <v>8</v>
@@ -6397,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -6425,13 +6433,13 @@
         <v>16</v>
       </c>
       <c r="Y34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z34">
         <v>8</v>
       </c>
       <c r="AA34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB34" s="10" t="s">
         <v>8</v>
@@ -6456,7 +6464,7 @@
         <v>79.150000000000006</v>
       </c>
       <c r="AI34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ34" s="10">
         <v>125</v>
@@ -6477,7 +6485,7 @@
         <v>384</v>
       </c>
       <c r="AP34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ34" s="1">
         <f t="shared" si="3"/>
@@ -6492,19 +6500,19 @@
         <v>15</v>
       </c>
       <c r="AT34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU34" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AV34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AW34">
         <v>1</v>
       </c>
       <c r="AX34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AY34" t="s">
         <v>8</v>
@@ -6512,20 +6520,20 @@
     </row>
     <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" t="s">
         <v>195</v>
       </c>
-      <c r="B35" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" t="s">
         <v>196</v>
       </c>
-      <c r="D35" t="s">
-        <v>181</v>
-      </c>
-      <c r="E35" t="s">
-        <v>197</v>
-      </c>
       <c r="F35" s="10">
         <v>0</v>
       </c>
@@ -6533,7 +6541,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -6557,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -6585,13 +6593,13 @@
         <v>16</v>
       </c>
       <c r="Y35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z35">
         <v>8</v>
       </c>
       <c r="AA35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB35" s="10" t="s">
         <v>8</v>
@@ -6616,7 +6624,7 @@
         <v>79.150000000000006</v>
       </c>
       <c r="AI35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ35" s="10">
         <v>125</v>
@@ -6637,7 +6645,7 @@
         <v>384</v>
       </c>
       <c r="AP35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ35" s="1">
         <f t="shared" ref="AQ35" si="14" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ35 - AM35) / 2)</f>
@@ -6652,19 +6660,19 @@
         <v>15</v>
       </c>
       <c r="AT35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU35" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AV35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AW35">
         <v>1</v>
       </c>
       <c r="AX35" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AY35" t="s">
         <v>8</v>
@@ -6672,58 +6680,58 @@
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="I36" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="J36" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="K36" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="L36" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="M36" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="N36" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="O36" s="16" t="s">
-        <v>131</v>
+        <v>201</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>204</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" t="s">
+        <v>8</v>
+      </c>
+      <c r="L36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M36" t="s">
+        <v>8</v>
+      </c>
+      <c r="N36" t="s">
+        <v>8</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q36">
         <v>6</v>
       </c>
-      <c r="R36" t="s">
-        <v>131</v>
+      <c r="R36">
+        <v>6</v>
       </c>
       <c r="S36">
         <v>5</v>
@@ -6745,16 +6753,16 @@
         <v>16</v>
       </c>
       <c r="Y36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z36">
         <v>8</v>
       </c>
       <c r="AA36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB36" s="10" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="AC36" t="s">
         <v>8</v>
@@ -6764,7 +6772,7 @@
       </c>
       <c r="AE36">
         <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM36*AN36*AO36) / 5 * U36</f>
-        <v>74549.706201272784</v>
+        <v>76071.407048528155</v>
       </c>
       <c r="AF36" s="1">
         <v>81920</v>
@@ -6776,7 +6784,7 @@
         <v>79.150000000000006</v>
       </c>
       <c r="AI36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ36" s="10">
         <v>125</v>
@@ -6788,7 +6796,7 @@
         <v>414</v>
       </c>
       <c r="AM36" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AN36">
         <v>784</v>
@@ -6797,11 +6805,11 @@
         <v>384</v>
       </c>
       <c r="AP36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ36" s="1">
         <f t="shared" ref="AQ36" si="18" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ36 - AM36) / 2)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR36">
         <f t="shared" ref="AR36" si="19" xml:space="preserve"> _xlfn.FLOOR.MATH((AK36 - AN36) / 2)</f>
@@ -6812,39 +6820,196 @@
         <v>15</v>
       </c>
       <c r="AT36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU36" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AV36" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW36">
+        <v>1</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>205</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" t="s">
+        <v>203</v>
+      </c>
+      <c r="D37" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G37" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" t="s">
+        <v>130</v>
+      </c>
+      <c r="I37" t="s">
+        <v>130</v>
+      </c>
+      <c r="J37" t="s">
+        <v>130</v>
+      </c>
+      <c r="K37" t="s">
+        <v>130</v>
+      </c>
+      <c r="L37" t="s">
+        <v>130</v>
+      </c>
+      <c r="M37" t="s">
+        <v>130</v>
+      </c>
+      <c r="N37" t="s">
+        <v>130</v>
+      </c>
+      <c r="O37" t="s">
+        <v>130</v>
+      </c>
+      <c r="P37" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AW36">
-        <v>1</v>
-      </c>
-      <c r="AX36" t="s">
-        <v>201</v>
-      </c>
-      <c r="AY36" t="s">
-        <v>8</v>
+      <c r="Q37">
+        <v>6</v>
+      </c>
+      <c r="R37" t="s">
+        <v>130</v>
+      </c>
+      <c r="S37">
+        <v>5</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <f t="shared" ref="U37" si="21" xml:space="preserve"> S37 + T37</f>
+        <v>6</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>16</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z37">
+        <v>8</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB37" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE37">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM37*AN37*AO37) / 5 * U37</f>
+        <v>74549.706201272784</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>81920</v>
+      </c>
+      <c r="AG37">
+        <v>81049.600000000006</v>
+      </c>
+      <c r="AH37">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ37" s="10">
+        <v>125</v>
+      </c>
+      <c r="AK37">
+        <v>1169</v>
+      </c>
+      <c r="AL37">
+        <v>414</v>
+      </c>
+      <c r="AM37" s="1">
+        <v>96</v>
+      </c>
+      <c r="AN37">
+        <v>784</v>
+      </c>
+      <c r="AO37">
+        <v>384</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ37" s="1">
+        <f t="shared" ref="AQ37" si="22" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ37 - AM37) / 2)</f>
+        <v>14</v>
+      </c>
+      <c r="AR37">
+        <f t="shared" ref="AR37" si="23" xml:space="preserve"> _xlfn.FLOOR.MATH((AK37 - AN37) / 2)</f>
+        <v>192</v>
+      </c>
+      <c r="AS37">
+        <f t="shared" ref="AS37" si="24" xml:space="preserve"> _xlfn.FLOOR.MATH((AL37 - AO37) / 2)</f>
+        <v>15</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU37" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>130</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>202</v>
-      </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s">
+        <v>181</v>
+      </c>
+      <c r="D39" t="s">
         <v>182</v>
       </c>
-      <c r="D39" t="s">
-        <v>183</v>
-      </c>
       <c r="E39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CAF7E9-F1D0-4B45-8F8D-916B7E851465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81977EC6-2E5E-4802-A991-67A8932D2A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="2595" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
@@ -1128,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
   <dimension ref="A1:AY39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="AE35">
         <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM35*AN35*AO35) / 5 * U35</f>
-        <v>74549.706201272784</v>
+        <v>76071.407048528155</v>
       </c>
       <c r="AF35" s="1">
         <v>81920</v>
@@ -6636,7 +6636,7 @@
         <v>414</v>
       </c>
       <c r="AM35" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AN35">
         <v>784</v>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="AQ35" s="1">
         <f t="shared" ref="AQ35" si="14" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ35 - AM35) / 2)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR35">
         <f t="shared" ref="AR35" si="15" xml:space="preserve"> _xlfn.FLOOR.MATH((AK35 - AN35) / 2)</f>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81977EC6-2E5E-4802-A991-67A8932D2A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBB6B3A-368F-4553-9A7A-E389F78DC641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="2595" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="211">
   <si>
     <t>patch z</t>
   </si>
@@ -655,6 +655,21 @@
   </si>
   <si>
     <t>ValueError: requested an output size of torch.Size([49, 192, 392]), but valid sizes range from [47, 191, 391] to [48, 192, 392] (for an input of torch.Size([24, 96, 196]))</t>
+  </si>
+  <si>
+    <t>error, out of memory</t>
+  </si>
+  <si>
+    <t>failed, slurmstepd: out of memory</t>
+  </si>
+  <si>
+    <t>230910-1</t>
+  </si>
+  <si>
+    <t>higher val eval score increase &amp; better val prediction images by increasing train sample size by re-assigning the h5 files to train, val, and test sets (dataset04). Also, give more main memory in sbatch flags.</t>
+  </si>
+  <si>
+    <t>slurmstepd: error: Detected 2 oom-kill event(s) in StepId=5017888.batch. Some of your processes may have been killed by the cgroup out-of-memory handler.</t>
   </si>
 </sst>
 </file>
@@ -1126,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
-  <dimension ref="A1:AY39"/>
+  <dimension ref="A1:AY44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -6221,7 +6236,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -6852,37 +6867,37 @@
         <v>180</v>
       </c>
       <c r="E37" t="s">
-        <v>130</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G37" t="s">
-        <v>130</v>
+        <v>207</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>130</v>
-      </c>
-      <c r="I37" t="s">
-        <v>130</v>
+        <v>206</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="K37" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="L37" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="M37" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="N37" t="s">
-        <v>130</v>
-      </c>
-      <c r="O37" t="s">
-        <v>130</v>
+        <v>8</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>177</v>
@@ -6890,8 +6905,8 @@
       <c r="Q37">
         <v>6</v>
       </c>
-      <c r="R37" t="s">
-        <v>130</v>
+      <c r="R37">
+        <v>6</v>
       </c>
       <c r="S37">
         <v>5</v>
@@ -6922,7 +6937,7 @@
         <v>102</v>
       </c>
       <c r="AB37" s="10" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="AC37" t="s">
         <v>8</v>
@@ -6988,27 +7003,187 @@
       <c r="AV37" t="s">
         <v>176</v>
       </c>
-      <c r="AW37" t="s">
+      <c r="AW37">
+        <v>1</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>210</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>208</v>
+      </c>
+      <c r="B38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D38" t="s">
+        <v>180</v>
+      </c>
+      <c r="E38" t="s">
         <v>130</v>
       </c>
-      <c r="AX37" t="s">
+      <c r="F38" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="AY37" t="s">
+      <c r="G38" t="s">
         <v>130</v>
       </c>
+      <c r="H38" t="s">
+        <v>130</v>
+      </c>
+      <c r="I38" t="s">
+        <v>130</v>
+      </c>
+      <c r="J38" t="s">
+        <v>130</v>
+      </c>
+      <c r="K38" t="s">
+        <v>130</v>
+      </c>
+      <c r="L38" t="s">
+        <v>130</v>
+      </c>
+      <c r="M38" t="s">
+        <v>130</v>
+      </c>
+      <c r="N38" t="s">
+        <v>130</v>
+      </c>
+      <c r="O38" t="s">
+        <v>130</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q38">
+        <v>6</v>
+      </c>
+      <c r="R38" t="s">
+        <v>130</v>
+      </c>
+      <c r="S38">
+        <v>5</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <f t="shared" ref="U38" si="25" xml:space="preserve"> S38 + T38</f>
+        <v>6</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>16</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z38">
+        <v>8</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB38" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE38">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM38*AN38*AO38) / 5 * U38</f>
+        <v>74549.706201272784</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>81920</v>
+      </c>
+      <c r="AG38">
+        <v>81049.600000000006</v>
+      </c>
+      <c r="AH38">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ38" s="10">
+        <v>125</v>
+      </c>
+      <c r="AK38">
+        <v>1169</v>
+      </c>
+      <c r="AL38">
+        <v>414</v>
+      </c>
+      <c r="AM38" s="1">
+        <v>96</v>
+      </c>
+      <c r="AN38">
+        <v>784</v>
+      </c>
+      <c r="AO38">
+        <v>384</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ38" s="1">
+        <f t="shared" ref="AQ38" si="26" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ38 - AM38) / 2)</f>
+        <v>14</v>
+      </c>
+      <c r="AR38">
+        <f t="shared" ref="AR38" si="27" xml:space="preserve"> _xlfn.FLOOR.MATH((AK38 - AN38) / 2)</f>
+        <v>192</v>
+      </c>
+      <c r="AS38">
+        <f t="shared" ref="AS38" si="28" xml:space="preserve"> _xlfn.FLOOR.MATH((AL38 - AO38) / 2)</f>
+        <v>15</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU38" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>130</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>132</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C44" t="s">
         <v>181</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D44" t="s">
         <v>182</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E44" t="s">
         <v>130</v>
       </c>
     </row>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBB6B3A-368F-4553-9A7A-E389F78DC641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AB4E47-ED6D-44FC-AC39-05673627174F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="2595" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="215">
   <si>
     <t>patch z</t>
   </si>
@@ -670,6 +670,18 @@
   </si>
   <si>
     <t>slurmstepd: error: Detected 2 oom-kill event(s) in StepId=5017888.batch. Some of your processes may have been killed by the cgroup out-of-memory handler.</t>
+  </si>
+  <si>
+    <t>230910-2</t>
+  </si>
+  <si>
+    <t>higher val eval score increase &amp; better val prediction images by increasing train sample size by re-assigning the h5 files to train, val, and test sets (dataset04). Also, try to fix nvidia-smi logs not being written.</t>
+  </si>
+  <si>
+    <t>aborted, nvidia-smi logs are not writing.</t>
+  </si>
+  <si>
+    <t>nvidia-smi logs are not writing.</t>
   </si>
 </sst>
 </file>
@@ -1143,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
   <dimension ref="A1:AY44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -7027,37 +7039,37 @@
         <v>180</v>
       </c>
       <c r="E38" t="s">
-        <v>130</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G38" t="s">
-        <v>130</v>
+        <v>213</v>
+      </c>
+      <c r="F38" s="10">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>130</v>
-      </c>
-      <c r="I38" t="s">
-        <v>130</v>
+        <v>8</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="K38" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="L38" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="M38" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="N38" t="s">
-        <v>130</v>
-      </c>
-      <c r="O38" t="s">
-        <v>130</v>
+        <v>8</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>177</v>
@@ -7065,8 +7077,8 @@
       <c r="Q38">
         <v>6</v>
       </c>
-      <c r="R38" t="s">
-        <v>130</v>
+      <c r="R38">
+        <v>6</v>
       </c>
       <c r="S38">
         <v>5</v>
@@ -7097,7 +7109,7 @@
         <v>102</v>
       </c>
       <c r="AB38" s="10" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="AC38" t="s">
         <v>8</v>
@@ -7163,13 +7175,173 @@
       <c r="AV38" t="s">
         <v>176</v>
       </c>
-      <c r="AW38" t="s">
+      <c r="AW38">
+        <v>0</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" t="s">
         <v>130</v>
       </c>
-      <c r="AX38" t="s">
+      <c r="F39" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="AY38" t="s">
+      <c r="G39" t="s">
+        <v>130</v>
+      </c>
+      <c r="H39" t="s">
+        <v>130</v>
+      </c>
+      <c r="I39" t="s">
+        <v>130</v>
+      </c>
+      <c r="J39" t="s">
+        <v>130</v>
+      </c>
+      <c r="K39" t="s">
+        <v>130</v>
+      </c>
+      <c r="L39" t="s">
+        <v>130</v>
+      </c>
+      <c r="M39" t="s">
+        <v>130</v>
+      </c>
+      <c r="N39" t="s">
+        <v>130</v>
+      </c>
+      <c r="O39" t="s">
+        <v>130</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q39">
+        <v>6</v>
+      </c>
+      <c r="R39" t="s">
+        <v>130</v>
+      </c>
+      <c r="S39">
+        <v>5</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <f t="shared" ref="U39" si="29" xml:space="preserve"> S39 + T39</f>
+        <v>6</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>16</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z39">
+        <v>8</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB39" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE39">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM39*AN39*AO39) / 5 * U39</f>
+        <v>74549.706201272784</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>81920</v>
+      </c>
+      <c r="AG39">
+        <v>81049.600000000006</v>
+      </c>
+      <c r="AH39">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ39" s="10">
+        <v>125</v>
+      </c>
+      <c r="AK39">
+        <v>1169</v>
+      </c>
+      <c r="AL39">
+        <v>414</v>
+      </c>
+      <c r="AM39" s="1">
+        <v>96</v>
+      </c>
+      <c r="AN39">
+        <v>784</v>
+      </c>
+      <c r="AO39">
+        <v>384</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ39" s="1">
+        <f t="shared" ref="AQ39" si="30" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ39 - AM39) / 2)</f>
+        <v>14</v>
+      </c>
+      <c r="AR39">
+        <f t="shared" ref="AR39" si="31" xml:space="preserve"> _xlfn.FLOOR.MATH((AK39 - AN39) / 2)</f>
+        <v>192</v>
+      </c>
+      <c r="AS39">
+        <f t="shared" ref="AS39" si="32" xml:space="preserve"> _xlfn.FLOOR.MATH((AL39 - AO39) / 2)</f>
+        <v>15</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU39" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>130</v>
+      </c>
+      <c r="AY39" t="s">
         <v>130</v>
       </c>
     </row>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AB4E47-ED6D-44FC-AC39-05673627174F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A5B4D2-9019-4A5D-988D-572404187AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="2595" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="218">
   <si>
     <t>patch z</t>
   </si>
@@ -682,6 +682,15 @@
   </si>
   <si>
     <t>nvidia-smi logs are not writing.</t>
+  </si>
+  <si>
+    <t>230910-3</t>
+  </si>
+  <si>
+    <t>230910-4</t>
+  </si>
+  <si>
+    <t>aborted, nvidia-smi logs are not writing. But there is enough memory, now.</t>
   </si>
 </sst>
 </file>
@@ -1155,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
   <dimension ref="A1:AY44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -7199,37 +7208,37 @@
         <v>180</v>
       </c>
       <c r="E39" t="s">
-        <v>130</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G39" t="s">
-        <v>130</v>
+        <v>213</v>
+      </c>
+      <c r="F39" s="10">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>130</v>
-      </c>
-      <c r="I39" t="s">
-        <v>130</v>
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="K39" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="L39" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="M39" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="N39" t="s">
-        <v>130</v>
-      </c>
-      <c r="O39" t="s">
-        <v>130</v>
+        <v>8</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>177</v>
@@ -7237,8 +7246,8 @@
       <c r="Q39">
         <v>6</v>
       </c>
-      <c r="R39" t="s">
-        <v>130</v>
+      <c r="R39">
+        <v>6</v>
       </c>
       <c r="S39">
         <v>5</v>
@@ -7269,7 +7278,7 @@
         <v>102</v>
       </c>
       <c r="AB39" s="10" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="AC39" t="s">
         <v>8</v>
@@ -7335,13 +7344,333 @@
       <c r="AV39" t="s">
         <v>176</v>
       </c>
-      <c r="AW39" t="s">
+      <c r="AW39">
+        <v>0</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" t="s">
+        <v>217</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>214</v>
+      </c>
+      <c r="K40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L40" t="s">
+        <v>8</v>
+      </c>
+      <c r="M40" t="s">
+        <v>8</v>
+      </c>
+      <c r="N40" t="s">
+        <v>8</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q40">
+        <v>6</v>
+      </c>
+      <c r="R40">
+        <v>6</v>
+      </c>
+      <c r="S40">
+        <v>5</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <f t="shared" ref="U40" si="33" xml:space="preserve"> S40 + T40</f>
+        <v>6</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>16</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z40">
+        <v>8</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB40" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE40">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM40*AN40*AO40) / 5 * U40</f>
+        <v>74549.706201272784</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>81920</v>
+      </c>
+      <c r="AG40">
+        <v>81049.600000000006</v>
+      </c>
+      <c r="AH40">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ40" s="10">
+        <v>125</v>
+      </c>
+      <c r="AK40">
+        <v>1169</v>
+      </c>
+      <c r="AL40">
+        <v>414</v>
+      </c>
+      <c r="AM40" s="1">
+        <v>96</v>
+      </c>
+      <c r="AN40">
+        <v>784</v>
+      </c>
+      <c r="AO40">
+        <v>384</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ40" s="1">
+        <f t="shared" ref="AQ40" si="34" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ40 - AM40) / 2)</f>
+        <v>14</v>
+      </c>
+      <c r="AR40">
+        <f t="shared" ref="AR40" si="35" xml:space="preserve"> _xlfn.FLOOR.MATH((AK40 - AN40) / 2)</f>
+        <v>192</v>
+      </c>
+      <c r="AS40">
+        <f t="shared" ref="AS40" si="36" xml:space="preserve"> _xlfn.FLOOR.MATH((AL40 - AO40) / 2)</f>
+        <v>15</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU40" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>216</v>
+      </c>
+      <c r="B41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D41" t="s">
+        <v>180</v>
+      </c>
+      <c r="E41" t="s">
         <v>130</v>
       </c>
-      <c r="AX39" t="s">
+      <c r="F41" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="AY39" t="s">
+      <c r="G41" t="s">
+        <v>130</v>
+      </c>
+      <c r="H41" t="s">
+        <v>130</v>
+      </c>
+      <c r="I41" t="s">
+        <v>130</v>
+      </c>
+      <c r="J41" t="s">
+        <v>130</v>
+      </c>
+      <c r="K41" t="s">
+        <v>130</v>
+      </c>
+      <c r="L41" t="s">
+        <v>130</v>
+      </c>
+      <c r="M41" t="s">
+        <v>130</v>
+      </c>
+      <c r="N41" t="s">
+        <v>130</v>
+      </c>
+      <c r="O41" t="s">
+        <v>130</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q41">
+        <v>6</v>
+      </c>
+      <c r="R41" t="s">
+        <v>130</v>
+      </c>
+      <c r="S41">
+        <v>5</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <f t="shared" ref="U41" si="37" xml:space="preserve"> S41 + T41</f>
+        <v>6</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <v>16</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z41">
+        <v>8</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB41" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE41">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM41*AN41*AO41) / 5 * U41</f>
+        <v>74549.706201272784</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>81920</v>
+      </c>
+      <c r="AG41">
+        <v>81049.600000000006</v>
+      </c>
+      <c r="AH41">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ41" s="10">
+        <v>125</v>
+      </c>
+      <c r="AK41">
+        <v>1169</v>
+      </c>
+      <c r="AL41">
+        <v>414</v>
+      </c>
+      <c r="AM41" s="1">
+        <v>96</v>
+      </c>
+      <c r="AN41">
+        <v>784</v>
+      </c>
+      <c r="AO41">
+        <v>384</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ41" s="1">
+        <f t="shared" ref="AQ41" si="38" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ41 - AM41) / 2)</f>
+        <v>14</v>
+      </c>
+      <c r="AR41">
+        <f t="shared" ref="AR41" si="39" xml:space="preserve"> _xlfn.FLOOR.MATH((AK41 - AN41) / 2)</f>
+        <v>192</v>
+      </c>
+      <c r="AS41">
+        <f t="shared" ref="AS41" si="40" xml:space="preserve"> _xlfn.FLOOR.MATH((AL41 - AO41) / 2)</f>
+        <v>15</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU41" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>130</v>
+      </c>
+      <c r="AY41" t="s">
         <v>130</v>
       </c>
     </row>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A5B4D2-9019-4A5D-988D-572404187AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDB4840-3169-440A-951E-45F660C3869B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="2595" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="221">
   <si>
     <t>patch z</t>
   </si>
@@ -691,6 +691,15 @@
   </si>
   <si>
     <t>aborted, nvidia-smi logs are not writing. But there is enough memory, now.</t>
+  </si>
+  <si>
+    <t>230910-5</t>
+  </si>
+  <si>
+    <t>failed, srun stuck in job step creation, because of `srun` call in the sbatch slurm job script.</t>
+  </si>
+  <si>
+    <t>srun: Job 5017954 step creation temporarily disabled, retrying (Requested nodes are busy)</t>
   </si>
 </sst>
 </file>
@@ -1164,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
   <dimension ref="A1:AY44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -6446,8 +6455,8 @@
       <c r="Q34">
         <v>6</v>
       </c>
-      <c r="R34">
-        <v>6</v>
+      <c r="R34" t="s">
+        <v>8</v>
       </c>
       <c r="S34">
         <v>5</v>
@@ -7528,37 +7537,37 @@
         <v>180</v>
       </c>
       <c r="E41" t="s">
-        <v>130</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G41" t="s">
-        <v>130</v>
+        <v>219</v>
+      </c>
+      <c r="F41" s="10">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>130</v>
-      </c>
-      <c r="I41" t="s">
-        <v>130</v>
+        <v>8</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K41" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="L41" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="M41" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="N41" t="s">
-        <v>130</v>
-      </c>
-      <c r="O41" t="s">
-        <v>130</v>
+        <v>8</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>177</v>
@@ -7567,7 +7576,7 @@
         <v>6</v>
       </c>
       <c r="R41" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="S41">
         <v>5</v>
@@ -7664,13 +7673,173 @@
       <c r="AV41" t="s">
         <v>176</v>
       </c>
-      <c r="AW41" t="s">
+      <c r="AW41">
+        <v>1</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>220</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>218</v>
+      </c>
+      <c r="B42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" t="s">
+        <v>180</v>
+      </c>
+      <c r="E42" t="s">
         <v>130</v>
       </c>
-      <c r="AX41" t="s">
+      <c r="F42" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="AY41" t="s">
+      <c r="G42" t="s">
+        <v>130</v>
+      </c>
+      <c r="H42" t="s">
+        <v>130</v>
+      </c>
+      <c r="I42" t="s">
+        <v>130</v>
+      </c>
+      <c r="J42" t="s">
+        <v>130</v>
+      </c>
+      <c r="K42" t="s">
+        <v>130</v>
+      </c>
+      <c r="L42" t="s">
+        <v>130</v>
+      </c>
+      <c r="M42" t="s">
+        <v>130</v>
+      </c>
+      <c r="N42" t="s">
+        <v>130</v>
+      </c>
+      <c r="O42" t="s">
+        <v>130</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q42">
+        <v>6</v>
+      </c>
+      <c r="R42" t="s">
+        <v>130</v>
+      </c>
+      <c r="S42">
+        <v>5</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <f t="shared" ref="U42" si="41" xml:space="preserve"> S42 + T42</f>
+        <v>6</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>16</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z42">
+        <v>8</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB42" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE42">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM42*AN42*AO42) / 5 * U42</f>
+        <v>74549.706201272784</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>81920</v>
+      </c>
+      <c r="AG42">
+        <v>81049.600000000006</v>
+      </c>
+      <c r="AH42">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ42" s="10">
+        <v>125</v>
+      </c>
+      <c r="AK42">
+        <v>1169</v>
+      </c>
+      <c r="AL42">
+        <v>414</v>
+      </c>
+      <c r="AM42" s="1">
+        <v>96</v>
+      </c>
+      <c r="AN42">
+        <v>784</v>
+      </c>
+      <c r="AO42">
+        <v>384</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ42" s="1">
+        <f t="shared" ref="AQ42" si="42" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ42 - AM42) / 2)</f>
+        <v>14</v>
+      </c>
+      <c r="AR42">
+        <f t="shared" ref="AR42" si="43" xml:space="preserve"> _xlfn.FLOOR.MATH((AK42 - AN42) / 2)</f>
+        <v>192</v>
+      </c>
+      <c r="AS42">
+        <f t="shared" ref="AS42" si="44" xml:space="preserve"> _xlfn.FLOOR.MATH((AL42 - AO42) / 2)</f>
+        <v>15</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU42" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX42" t="s">
+        <v>130</v>
+      </c>
+      <c r="AY42" t="s">
         <v>130</v>
       </c>
     </row>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDB4840-3169-440A-951E-45F660C3869B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78B613C-FC86-48F5-94A9-81337ED82A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="2595" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="222">
   <si>
     <t>patch z</t>
   </si>
@@ -700,6 +700,9 @@
   </si>
   <si>
     <t>srun: Job 5017954 step creation temporarily disabled, retrying (Requested nodes are busy)</t>
+  </si>
+  <si>
+    <t>230910-6 ?</t>
   </si>
 </sst>
 </file>
@@ -1171,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
-  <dimension ref="A1:AY44"/>
+  <dimension ref="A1:AY48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -7697,7 +7700,7 @@
         <v>180</v>
       </c>
       <c r="E42" t="s">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>130</v>
@@ -7735,8 +7738,8 @@
       <c r="Q42">
         <v>6</v>
       </c>
-      <c r="R42" t="s">
-        <v>130</v>
+      <c r="R42">
+        <v>6</v>
       </c>
       <c r="S42">
         <v>5</v>
@@ -7843,17 +7846,177 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>221</v>
+      </c>
+      <c r="B43" t="s">
         <v>132</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C43" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43" t="s">
+        <v>180</v>
+      </c>
+      <c r="E43" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H43" t="s">
+        <v>130</v>
+      </c>
+      <c r="I43" t="s">
+        <v>130</v>
+      </c>
+      <c r="J43" t="s">
+        <v>130</v>
+      </c>
+      <c r="K43" t="s">
+        <v>130</v>
+      </c>
+      <c r="L43" t="s">
+        <v>130</v>
+      </c>
+      <c r="M43" t="s">
+        <v>130</v>
+      </c>
+      <c r="N43" t="s">
+        <v>130</v>
+      </c>
+      <c r="O43" t="s">
+        <v>130</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q43">
+        <v>6</v>
+      </c>
+      <c r="R43" t="s">
+        <v>130</v>
+      </c>
+      <c r="S43">
+        <v>5</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <f t="shared" ref="U43" si="45" xml:space="preserve"> S43 + T43</f>
+        <v>6</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43">
+        <v>16</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z43">
+        <v>8</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB43" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE43">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM43*AN43*AO43) / 5 * U43</f>
+        <v>74549.706201272784</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>81920</v>
+      </c>
+      <c r="AG43">
+        <v>81049.600000000006</v>
+      </c>
+      <c r="AH43">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ43" s="10">
+        <v>125</v>
+      </c>
+      <c r="AK43">
+        <v>1169</v>
+      </c>
+      <c r="AL43">
+        <v>414</v>
+      </c>
+      <c r="AM43" s="1">
+        <v>96</v>
+      </c>
+      <c r="AN43">
+        <v>784</v>
+      </c>
+      <c r="AO43">
+        <v>384</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ43" s="1">
+        <f t="shared" ref="AQ43" si="46" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ43 - AM43) / 2)</f>
+        <v>14</v>
+      </c>
+      <c r="AR43">
+        <f t="shared" ref="AR43" si="47" xml:space="preserve"> _xlfn.FLOOR.MATH((AK43 - AN43) / 2)</f>
+        <v>192</v>
+      </c>
+      <c r="AS43">
+        <f t="shared" ref="AS43" si="48" xml:space="preserve"> _xlfn.FLOOR.MATH((AL43 - AO43) / 2)</f>
+        <v>15</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU43" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW43" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX43" t="s">
+        <v>130</v>
+      </c>
+      <c r="AY43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" t="s">
         <v>181</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D48" t="s">
         <v>182</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E48" t="s">
         <v>130</v>
       </c>
     </row>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78B613C-FC86-48F5-94A9-81337ED82A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A271EE-8EF1-47BB-AEAA-86F5D1296573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="2595" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="223">
   <si>
     <t>patch z</t>
   </si>
@@ -702,7 +702,10 @@
     <t>srun: Job 5017954 step creation temporarily disabled, retrying (Requested nodes are busy)</t>
   </si>
   <si>
-    <t>230910-6 ?</t>
+    <t>230910-6</t>
+  </si>
+  <si>
+    <t>230910-7</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1180,7 @@
   <dimension ref="A1:AY48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -7702,35 +7705,35 @@
       <c r="E42" t="s">
         <v>213</v>
       </c>
-      <c r="F42" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G42" t="s">
-        <v>130</v>
+      <c r="F42" s="10">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>130</v>
-      </c>
-      <c r="I42" t="s">
-        <v>130</v>
+        <v>8</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="K42" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="L42" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="M42" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="N42" t="s">
-        <v>130</v>
-      </c>
-      <c r="O42" t="s">
-        <v>130</v>
+        <v>8</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>177</v>
@@ -7836,14 +7839,14 @@
       <c r="AV42" t="s">
         <v>176</v>
       </c>
-      <c r="AW42" t="s">
-        <v>130</v>
+      <c r="AW42">
+        <v>0</v>
       </c>
       <c r="AX42" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="AY42" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.25">
@@ -7860,7 +7863,7 @@
         <v>180</v>
       </c>
       <c r="E43" t="s">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>130</v>
@@ -8003,6 +8006,166 @@
         <v>130</v>
       </c>
       <c r="AY43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>222</v>
+      </c>
+      <c r="B44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" t="s">
+        <v>212</v>
+      </c>
+      <c r="D44" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" t="s">
+        <v>130</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G44" t="s">
+        <v>130</v>
+      </c>
+      <c r="H44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I44" t="s">
+        <v>130</v>
+      </c>
+      <c r="J44" t="s">
+        <v>130</v>
+      </c>
+      <c r="K44" t="s">
+        <v>130</v>
+      </c>
+      <c r="L44" t="s">
+        <v>130</v>
+      </c>
+      <c r="M44" t="s">
+        <v>130</v>
+      </c>
+      <c r="N44" t="s">
+        <v>130</v>
+      </c>
+      <c r="O44" t="s">
+        <v>130</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q44">
+        <v>6</v>
+      </c>
+      <c r="R44" t="s">
+        <v>130</v>
+      </c>
+      <c r="S44">
+        <v>5</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <f t="shared" ref="U44" si="49" xml:space="preserve"> S44 + T44</f>
+        <v>6</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="X44">
+        <v>16</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z44">
+        <v>8</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB44" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE44">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM44*AN44*AO44) / 5 * U44</f>
+        <v>74549.706201272784</v>
+      </c>
+      <c r="AF44" s="1">
+        <v>81920</v>
+      </c>
+      <c r="AG44">
+        <v>81049.600000000006</v>
+      </c>
+      <c r="AH44">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ44" s="10">
+        <v>125</v>
+      </c>
+      <c r="AK44">
+        <v>1169</v>
+      </c>
+      <c r="AL44">
+        <v>414</v>
+      </c>
+      <c r="AM44" s="1">
+        <v>96</v>
+      </c>
+      <c r="AN44">
+        <v>784</v>
+      </c>
+      <c r="AO44">
+        <v>384</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ44" s="1">
+        <f t="shared" ref="AQ44" si="50" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ44 - AM44) / 2)</f>
+        <v>14</v>
+      </c>
+      <c r="AR44">
+        <f t="shared" ref="AR44" si="51" xml:space="preserve"> _xlfn.FLOOR.MATH((AK44 - AN44) / 2)</f>
+        <v>192</v>
+      </c>
+      <c r="AS44">
+        <f t="shared" ref="AS44" si="52" xml:space="preserve"> _xlfn.FLOOR.MATH((AL44 - AO44) / 2)</f>
+        <v>15</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU44" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW44" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX44" t="s">
+        <v>130</v>
+      </c>
+      <c r="AY44" t="s">
         <v>130</v>
       </c>
     </row>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A271EE-8EF1-47BB-AEAA-86F5D1296573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE2295E-21AD-4EE7-81C1-DD3B9900F3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="2595" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="224">
   <si>
     <t>patch z</t>
   </si>
@@ -706,6 +706,9 @@
   </si>
   <si>
     <t>230910-7</t>
+  </si>
+  <si>
+    <t>(TBD wait till finish) running, nvidia-smi logs are being written. Needs a `cd ~/data/cloud; bash pull-script.sh`.</t>
   </si>
 </sst>
 </file>
@@ -1179,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
   <dimension ref="A1:AY48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="F18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB43" sqref="AB43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -6502,7 +6505,7 @@
         <v>8</v>
       </c>
       <c r="AE34">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM34*AN34*AO34) / 5 * U34</f>
+        <f t="shared" ref="AE34:AE44" si="13" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM34*AN34*AO34) / 5 * U34</f>
         <v>74549.706201272784</v>
       </c>
       <c r="AF34" s="1">
@@ -6631,7 +6634,7 @@
         <v>1</v>
       </c>
       <c r="U35">
-        <f t="shared" ref="U35" si="13" xml:space="preserve"> S35 + T35</f>
+        <f t="shared" ref="U35" si="14" xml:space="preserve"> S35 + T35</f>
         <v>6</v>
       </c>
       <c r="V35">
@@ -6662,7 +6665,7 @@
         <v>8</v>
       </c>
       <c r="AE35">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM35*AN35*AO35) / 5 * U35</f>
+        <f t="shared" si="13"/>
         <v>76071.407048528155</v>
       </c>
       <c r="AF35" s="1">
@@ -6699,15 +6702,15 @@
         <v>50</v>
       </c>
       <c r="AQ35" s="1">
-        <f t="shared" ref="AQ35" si="14" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ35 - AM35) / 2)</f>
+        <f t="shared" ref="AQ35" si="15" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ35 - AM35) / 2)</f>
         <v>13</v>
       </c>
       <c r="AR35">
-        <f t="shared" ref="AR35" si="15" xml:space="preserve"> _xlfn.FLOOR.MATH((AK35 - AN35) / 2)</f>
+        <f t="shared" ref="AR35" si="16" xml:space="preserve"> _xlfn.FLOOR.MATH((AK35 - AN35) / 2)</f>
         <v>192</v>
       </c>
       <c r="AS35">
-        <f t="shared" ref="AS35" si="16" xml:space="preserve"> _xlfn.FLOOR.MATH((AL35 - AO35) / 2)</f>
+        <f t="shared" ref="AS35" si="17" xml:space="preserve"> _xlfn.FLOOR.MATH((AL35 - AO35) / 2)</f>
         <v>15</v>
       </c>
       <c r="AT35" t="s">
@@ -6791,7 +6794,7 @@
         <v>1</v>
       </c>
       <c r="U36">
-        <f t="shared" ref="U36" si="17" xml:space="preserve"> S36 + T36</f>
+        <f t="shared" ref="U36" si="18" xml:space="preserve"> S36 + T36</f>
         <v>6</v>
       </c>
       <c r="V36">
@@ -6822,7 +6825,7 @@
         <v>8</v>
       </c>
       <c r="AE36">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM36*AN36*AO36) / 5 * U36</f>
+        <f t="shared" si="13"/>
         <v>76071.407048528155</v>
       </c>
       <c r="AF36" s="1">
@@ -6859,15 +6862,15 @@
         <v>50</v>
       </c>
       <c r="AQ36" s="1">
-        <f t="shared" ref="AQ36" si="18" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ36 - AM36) / 2)</f>
+        <f t="shared" ref="AQ36" si="19" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ36 - AM36) / 2)</f>
         <v>13</v>
       </c>
       <c r="AR36">
-        <f t="shared" ref="AR36" si="19" xml:space="preserve"> _xlfn.FLOOR.MATH((AK36 - AN36) / 2)</f>
+        <f t="shared" ref="AR36" si="20" xml:space="preserve"> _xlfn.FLOOR.MATH((AK36 - AN36) / 2)</f>
         <v>192</v>
       </c>
       <c r="AS36">
-        <f t="shared" ref="AS36" si="20" xml:space="preserve"> _xlfn.FLOOR.MATH((AL36 - AO36) / 2)</f>
+        <f t="shared" ref="AS36" si="21" xml:space="preserve"> _xlfn.FLOOR.MATH((AL36 - AO36) / 2)</f>
         <v>15</v>
       </c>
       <c r="AT36" t="s">
@@ -6951,7 +6954,7 @@
         <v>1</v>
       </c>
       <c r="U37">
-        <f t="shared" ref="U37" si="21" xml:space="preserve"> S37 + T37</f>
+        <f t="shared" ref="U37" si="22" xml:space="preserve"> S37 + T37</f>
         <v>6</v>
       </c>
       <c r="V37">
@@ -6982,7 +6985,7 @@
         <v>8</v>
       </c>
       <c r="AE37">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM37*AN37*AO37) / 5 * U37</f>
+        <f t="shared" si="13"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AF37" s="1">
@@ -7019,15 +7022,15 @@
         <v>50</v>
       </c>
       <c r="AQ37" s="1">
-        <f t="shared" ref="AQ37" si="22" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ37 - AM37) / 2)</f>
+        <f t="shared" ref="AQ37" si="23" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ37 - AM37) / 2)</f>
         <v>14</v>
       </c>
       <c r="AR37">
-        <f t="shared" ref="AR37" si="23" xml:space="preserve"> _xlfn.FLOOR.MATH((AK37 - AN37) / 2)</f>
+        <f t="shared" ref="AR37" si="24" xml:space="preserve"> _xlfn.FLOOR.MATH((AK37 - AN37) / 2)</f>
         <v>192</v>
       </c>
       <c r="AS37">
-        <f t="shared" ref="AS37" si="24" xml:space="preserve"> _xlfn.FLOOR.MATH((AL37 - AO37) / 2)</f>
+        <f t="shared" ref="AS37" si="25" xml:space="preserve"> _xlfn.FLOOR.MATH((AL37 - AO37) / 2)</f>
         <v>15</v>
       </c>
       <c r="AT37" t="s">
@@ -7111,7 +7114,7 @@
         <v>1</v>
       </c>
       <c r="U38">
-        <f t="shared" ref="U38" si="25" xml:space="preserve"> S38 + T38</f>
+        <f t="shared" ref="U38" si="26" xml:space="preserve"> S38 + T38</f>
         <v>6</v>
       </c>
       <c r="V38">
@@ -7142,7 +7145,7 @@
         <v>8</v>
       </c>
       <c r="AE38">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM38*AN38*AO38) / 5 * U38</f>
+        <f t="shared" si="13"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AF38" s="1">
@@ -7179,15 +7182,15 @@
         <v>50</v>
       </c>
       <c r="AQ38" s="1">
-        <f t="shared" ref="AQ38" si="26" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ38 - AM38) / 2)</f>
+        <f t="shared" ref="AQ38" si="27" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ38 - AM38) / 2)</f>
         <v>14</v>
       </c>
       <c r="AR38">
-        <f t="shared" ref="AR38" si="27" xml:space="preserve"> _xlfn.FLOOR.MATH((AK38 - AN38) / 2)</f>
+        <f t="shared" ref="AR38" si="28" xml:space="preserve"> _xlfn.FLOOR.MATH((AK38 - AN38) / 2)</f>
         <v>192</v>
       </c>
       <c r="AS38">
-        <f t="shared" ref="AS38" si="28" xml:space="preserve"> _xlfn.FLOOR.MATH((AL38 - AO38) / 2)</f>
+        <f t="shared" ref="AS38" si="29" xml:space="preserve"> _xlfn.FLOOR.MATH((AL38 - AO38) / 2)</f>
         <v>15</v>
       </c>
       <c r="AT38" t="s">
@@ -7271,7 +7274,7 @@
         <v>1</v>
       </c>
       <c r="U39">
-        <f t="shared" ref="U39" si="29" xml:space="preserve"> S39 + T39</f>
+        <f t="shared" ref="U39" si="30" xml:space="preserve"> S39 + T39</f>
         <v>6</v>
       </c>
       <c r="V39">
@@ -7302,7 +7305,7 @@
         <v>8</v>
       </c>
       <c r="AE39">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM39*AN39*AO39) / 5 * U39</f>
+        <f t="shared" si="13"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AF39" s="1">
@@ -7339,15 +7342,15 @@
         <v>50</v>
       </c>
       <c r="AQ39" s="1">
-        <f t="shared" ref="AQ39" si="30" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ39 - AM39) / 2)</f>
+        <f t="shared" ref="AQ39" si="31" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ39 - AM39) / 2)</f>
         <v>14</v>
       </c>
       <c r="AR39">
-        <f t="shared" ref="AR39" si="31" xml:space="preserve"> _xlfn.FLOOR.MATH((AK39 - AN39) / 2)</f>
+        <f t="shared" ref="AR39" si="32" xml:space="preserve"> _xlfn.FLOOR.MATH((AK39 - AN39) / 2)</f>
         <v>192</v>
       </c>
       <c r="AS39">
-        <f t="shared" ref="AS39" si="32" xml:space="preserve"> _xlfn.FLOOR.MATH((AL39 - AO39) / 2)</f>
+        <f t="shared" ref="AS39" si="33" xml:space="preserve"> _xlfn.FLOOR.MATH((AL39 - AO39) / 2)</f>
         <v>15</v>
       </c>
       <c r="AT39" t="s">
@@ -7431,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="U40">
-        <f t="shared" ref="U40" si="33" xml:space="preserve"> S40 + T40</f>
+        <f t="shared" ref="U40" si="34" xml:space="preserve"> S40 + T40</f>
         <v>6</v>
       </c>
       <c r="V40">
@@ -7462,7 +7465,7 @@
         <v>8</v>
       </c>
       <c r="AE40">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM40*AN40*AO40) / 5 * U40</f>
+        <f t="shared" si="13"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AF40" s="1">
@@ -7499,15 +7502,15 @@
         <v>50</v>
       </c>
       <c r="AQ40" s="1">
-        <f t="shared" ref="AQ40" si="34" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ40 - AM40) / 2)</f>
+        <f t="shared" ref="AQ40" si="35" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ40 - AM40) / 2)</f>
         <v>14</v>
       </c>
       <c r="AR40">
-        <f t="shared" ref="AR40" si="35" xml:space="preserve"> _xlfn.FLOOR.MATH((AK40 - AN40) / 2)</f>
+        <f t="shared" ref="AR40" si="36" xml:space="preserve"> _xlfn.FLOOR.MATH((AK40 - AN40) / 2)</f>
         <v>192</v>
       </c>
       <c r="AS40">
-        <f t="shared" ref="AS40" si="36" xml:space="preserve"> _xlfn.FLOOR.MATH((AL40 - AO40) / 2)</f>
+        <f t="shared" ref="AS40" si="37" xml:space="preserve"> _xlfn.FLOOR.MATH((AL40 - AO40) / 2)</f>
         <v>15</v>
       </c>
       <c r="AT40" t="s">
@@ -7591,7 +7594,7 @@
         <v>1</v>
       </c>
       <c r="U41">
-        <f t="shared" ref="U41" si="37" xml:space="preserve"> S41 + T41</f>
+        <f t="shared" ref="U41" si="38" xml:space="preserve"> S41 + T41</f>
         <v>6</v>
       </c>
       <c r="V41">
@@ -7613,7 +7616,7 @@
         <v>102</v>
       </c>
       <c r="AB41" s="10" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="AC41" t="s">
         <v>8</v>
@@ -7622,7 +7625,7 @@
         <v>8</v>
       </c>
       <c r="AE41">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM41*AN41*AO41) / 5 * U41</f>
+        <f t="shared" si="13"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AF41" s="1">
@@ -7659,15 +7662,15 @@
         <v>50</v>
       </c>
       <c r="AQ41" s="1">
-        <f t="shared" ref="AQ41" si="38" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ41 - AM41) / 2)</f>
+        <f t="shared" ref="AQ41" si="39" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ41 - AM41) / 2)</f>
         <v>14</v>
       </c>
       <c r="AR41">
-        <f t="shared" ref="AR41" si="39" xml:space="preserve"> _xlfn.FLOOR.MATH((AK41 - AN41) / 2)</f>
+        <f t="shared" ref="AR41" si="40" xml:space="preserve"> _xlfn.FLOOR.MATH((AK41 - AN41) / 2)</f>
         <v>192</v>
       </c>
       <c r="AS41">
-        <f t="shared" ref="AS41" si="40" xml:space="preserve"> _xlfn.FLOOR.MATH((AL41 - AO41) / 2)</f>
+        <f t="shared" ref="AS41" si="41" xml:space="preserve"> _xlfn.FLOOR.MATH((AL41 - AO41) / 2)</f>
         <v>15</v>
       </c>
       <c r="AT41" t="s">
@@ -7751,7 +7754,7 @@
         <v>1</v>
       </c>
       <c r="U42">
-        <f t="shared" ref="U42" si="41" xml:space="preserve"> S42 + T42</f>
+        <f t="shared" ref="U42" si="42" xml:space="preserve"> S42 + T42</f>
         <v>6</v>
       </c>
       <c r="V42">
@@ -7773,7 +7776,7 @@
         <v>102</v>
       </c>
       <c r="AB42" s="10" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="AC42" t="s">
         <v>8</v>
@@ -7782,7 +7785,7 @@
         <v>8</v>
       </c>
       <c r="AE42">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM42*AN42*AO42) / 5 * U42</f>
+        <f t="shared" si="13"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AF42" s="1">
@@ -7819,15 +7822,15 @@
         <v>50</v>
       </c>
       <c r="AQ42" s="1">
-        <f t="shared" ref="AQ42" si="42" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ42 - AM42) / 2)</f>
+        <f t="shared" ref="AQ42" si="43" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ42 - AM42) / 2)</f>
         <v>14</v>
       </c>
       <c r="AR42">
-        <f t="shared" ref="AR42" si="43" xml:space="preserve"> _xlfn.FLOOR.MATH((AK42 - AN42) / 2)</f>
+        <f t="shared" ref="AR42" si="44" xml:space="preserve"> _xlfn.FLOOR.MATH((AK42 - AN42) / 2)</f>
         <v>192</v>
       </c>
       <c r="AS42">
-        <f t="shared" ref="AS42" si="44" xml:space="preserve"> _xlfn.FLOOR.MATH((AL42 - AO42) / 2)</f>
+        <f t="shared" ref="AS42" si="45" xml:space="preserve"> _xlfn.FLOOR.MATH((AL42 - AO42) / 2)</f>
         <v>15</v>
       </c>
       <c r="AT42" t="s">
@@ -7865,35 +7868,35 @@
       <c r="E43" t="s">
         <v>213</v>
       </c>
-      <c r="F43" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G43" t="s">
-        <v>130</v>
+      <c r="F43" s="10">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>130</v>
-      </c>
-      <c r="I43" t="s">
-        <v>130</v>
+        <v>8</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="K43" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="L43" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="M43" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="N43" t="s">
-        <v>130</v>
-      </c>
-      <c r="O43" t="s">
-        <v>130</v>
+        <v>8</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>177</v>
@@ -7901,8 +7904,8 @@
       <c r="Q43">
         <v>6</v>
       </c>
-      <c r="R43" t="s">
-        <v>130</v>
+      <c r="R43">
+        <v>6</v>
       </c>
       <c r="S43">
         <v>5</v>
@@ -7911,7 +7914,7 @@
         <v>1</v>
       </c>
       <c r="U43">
-        <f t="shared" ref="U43" si="45" xml:space="preserve"> S43 + T43</f>
+        <f t="shared" ref="U43" si="46" xml:space="preserve"> S43 + T43</f>
         <v>6</v>
       </c>
       <c r="V43">
@@ -7933,7 +7936,7 @@
         <v>102</v>
       </c>
       <c r="AB43" s="10" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="AC43" t="s">
         <v>8</v>
@@ -7942,7 +7945,7 @@
         <v>8</v>
       </c>
       <c r="AE43">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM43*AN43*AO43) / 5 * U43</f>
+        <f t="shared" ref="AE43" si="47" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM43*AN43*AO43) / 5 * U43</f>
         <v>74549.706201272784</v>
       </c>
       <c r="AF43" s="1">
@@ -7979,15 +7982,15 @@
         <v>50</v>
       </c>
       <c r="AQ43" s="1">
-        <f t="shared" ref="AQ43" si="46" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ43 - AM43) / 2)</f>
+        <f t="shared" ref="AQ43" si="48" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ43 - AM43) / 2)</f>
         <v>14</v>
       </c>
       <c r="AR43">
-        <f t="shared" ref="AR43" si="47" xml:space="preserve"> _xlfn.FLOOR.MATH((AK43 - AN43) / 2)</f>
+        <f t="shared" ref="AR43" si="49" xml:space="preserve"> _xlfn.FLOOR.MATH((AK43 - AN43) / 2)</f>
         <v>192</v>
       </c>
       <c r="AS43">
-        <f t="shared" ref="AS43" si="48" xml:space="preserve"> _xlfn.FLOOR.MATH((AL43 - AO43) / 2)</f>
+        <f t="shared" ref="AS43" si="50" xml:space="preserve"> _xlfn.FLOOR.MATH((AL43 - AO43) / 2)</f>
         <v>15</v>
       </c>
       <c r="AT43" t="s">
@@ -7999,14 +8002,14 @@
       <c r="AV43" t="s">
         <v>176</v>
       </c>
-      <c r="AW43" t="s">
-        <v>130</v>
+      <c r="AW43">
+        <v>0</v>
       </c>
       <c r="AX43" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="AY43" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.25">
@@ -8023,7 +8026,7 @@
         <v>180</v>
       </c>
       <c r="E44" t="s">
-        <v>130</v>
+        <v>223</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>130</v>
@@ -8061,8 +8064,8 @@
       <c r="Q44">
         <v>6</v>
       </c>
-      <c r="R44" t="s">
-        <v>130</v>
+      <c r="R44">
+        <v>6</v>
       </c>
       <c r="S44">
         <v>5</v>
@@ -8071,7 +8074,7 @@
         <v>1</v>
       </c>
       <c r="U44">
-        <f t="shared" ref="U44" si="49" xml:space="preserve"> S44 + T44</f>
+        <f t="shared" ref="U44" si="51" xml:space="preserve"> S44 + T44</f>
         <v>6</v>
       </c>
       <c r="V44">
@@ -8092,8 +8095,8 @@
       <c r="AA44" t="s">
         <v>102</v>
       </c>
-      <c r="AB44" s="10" t="s">
-        <v>130</v>
+      <c r="AB44" s="10">
+        <v>74967</v>
       </c>
       <c r="AC44" t="s">
         <v>8</v>
@@ -8102,7 +8105,7 @@
         <v>8</v>
       </c>
       <c r="AE44">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM44*AN44*AO44) / 5 * U44</f>
+        <f t="shared" si="13"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AF44" s="1">
@@ -8139,15 +8142,15 @@
         <v>50</v>
       </c>
       <c r="AQ44" s="1">
-        <f t="shared" ref="AQ44" si="50" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ44 - AM44) / 2)</f>
+        <f t="shared" ref="AQ44" si="52" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ44 - AM44) / 2)</f>
         <v>14</v>
       </c>
       <c r="AR44">
-        <f t="shared" ref="AR44" si="51" xml:space="preserve"> _xlfn.FLOOR.MATH((AK44 - AN44) / 2)</f>
+        <f t="shared" ref="AR44" si="53" xml:space="preserve"> _xlfn.FLOOR.MATH((AK44 - AN44) / 2)</f>
         <v>192</v>
       </c>
       <c r="AS44">
-        <f t="shared" ref="AS44" si="52" xml:space="preserve"> _xlfn.FLOOR.MATH((AL44 - AO44) / 2)</f>
+        <f t="shared" ref="AS44" si="54" xml:space="preserve"> _xlfn.FLOOR.MATH((AL44 - AO44) / 2)</f>
         <v>15</v>
       </c>
       <c r="AT44" t="s">

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE2295E-21AD-4EE7-81C1-DD3B9900F3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA977D2D-7C6A-432E-89A6-FE1EC4108B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="2595" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="228">
   <si>
     <t>patch z</t>
   </si>
@@ -709,6 +709,18 @@
   </si>
   <si>
     <t>(TBD wait till finish) running, nvidia-smi logs are being written. Needs a `cd ~/data/cloud; bash pull-script.sh`.</t>
+  </si>
+  <si>
+    <t>230911-0</t>
+  </si>
+  <si>
+    <t>eval scores will plateau marginally higher. I think the problem is the sample size being just too small.</t>
+  </si>
+  <si>
+    <t>230911-1</t>
+  </si>
+  <si>
+    <t>higher patience, lower val frequency, let it run for longer (e.g. 72 instead of the usual 24 hours) dataset03/04, maybe the eval score will go up eventually</t>
   </si>
 </sst>
 </file>
@@ -1182,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
   <dimension ref="A1:AY48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB43" sqref="AB43"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -8028,20 +8040,20 @@
       <c r="E44" t="s">
         <v>223</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G44" t="s">
-        <v>130</v>
+      <c r="F44" s="10">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>130</v>
-      </c>
-      <c r="I44" t="s">
-        <v>130</v>
+        <v>8</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="K44" t="s">
         <v>130</v>
@@ -8169,6 +8181,326 @@
         <v>130</v>
       </c>
       <c r="AY44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>224</v>
+      </c>
+      <c r="B45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" t="s">
+        <v>227</v>
+      </c>
+      <c r="D45" t="s">
+        <v>225</v>
+      </c>
+      <c r="E45" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" t="s">
+        <v>130</v>
+      </c>
+      <c r="H45" t="s">
+        <v>130</v>
+      </c>
+      <c r="I45" t="s">
+        <v>130</v>
+      </c>
+      <c r="J45" t="s">
+        <v>130</v>
+      </c>
+      <c r="K45" t="s">
+        <v>130</v>
+      </c>
+      <c r="L45" t="s">
+        <v>130</v>
+      </c>
+      <c r="M45" t="s">
+        <v>130</v>
+      </c>
+      <c r="N45" t="s">
+        <v>130</v>
+      </c>
+      <c r="O45" t="s">
+        <v>130</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q45">
+        <v>6</v>
+      </c>
+      <c r="R45">
+        <v>6</v>
+      </c>
+      <c r="S45">
+        <v>5</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <f t="shared" ref="U45" si="55" xml:space="preserve"> S45 + T45</f>
+        <v>6</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>16</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z45">
+        <v>8</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB45" s="10">
+        <v>74967</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" ref="AE45" si="56" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM45*AN45*AO45) / 5 * U45</f>
+        <v>74549.706201272784</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>81920</v>
+      </c>
+      <c r="AG45">
+        <v>81049.600000000006</v>
+      </c>
+      <c r="AH45">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ45" s="10">
+        <v>125</v>
+      </c>
+      <c r="AK45">
+        <v>1169</v>
+      </c>
+      <c r="AL45">
+        <v>414</v>
+      </c>
+      <c r="AM45" s="1">
+        <v>96</v>
+      </c>
+      <c r="AN45">
+        <v>784</v>
+      </c>
+      <c r="AO45">
+        <v>384</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ45" s="1">
+        <f t="shared" ref="AQ45" si="57" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ45 - AM45) / 2)</f>
+        <v>14</v>
+      </c>
+      <c r="AR45">
+        <f t="shared" ref="AR45" si="58" xml:space="preserve"> _xlfn.FLOOR.MATH((AK45 - AN45) / 2)</f>
+        <v>192</v>
+      </c>
+      <c r="AS45">
+        <f t="shared" ref="AS45" si="59" xml:space="preserve"> _xlfn.FLOOR.MATH((AL45 - AO45) / 2)</f>
+        <v>15</v>
+      </c>
+      <c r="AT45" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU45" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW45" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX45" t="s">
+        <v>130</v>
+      </c>
+      <c r="AY45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>226</v>
+      </c>
+      <c r="B46" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" t="s">
+        <v>130</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G46" t="s">
+        <v>130</v>
+      </c>
+      <c r="H46" t="s">
+        <v>130</v>
+      </c>
+      <c r="I46" t="s">
+        <v>130</v>
+      </c>
+      <c r="J46" t="s">
+        <v>130</v>
+      </c>
+      <c r="K46" t="s">
+        <v>130</v>
+      </c>
+      <c r="L46" t="s">
+        <v>130</v>
+      </c>
+      <c r="M46" t="s">
+        <v>130</v>
+      </c>
+      <c r="N46" t="s">
+        <v>130</v>
+      </c>
+      <c r="O46" t="s">
+        <v>130</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q46">
+        <v>6</v>
+      </c>
+      <c r="R46">
+        <v>6</v>
+      </c>
+      <c r="S46">
+        <v>5</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <f t="shared" ref="U46" si="60" xml:space="preserve"> S46 + T46</f>
+        <v>6</v>
+      </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
+      <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>16</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z46">
+        <v>8</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB46" s="10">
+        <v>74967</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" ref="AE46" si="61" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM46*AN46*AO46) / 5 * U46</f>
+        <v>74549.706201272784</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>81920</v>
+      </c>
+      <c r="AG46">
+        <v>81049.600000000006</v>
+      </c>
+      <c r="AH46">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ46" s="10">
+        <v>125</v>
+      </c>
+      <c r="AK46">
+        <v>1169</v>
+      </c>
+      <c r="AL46">
+        <v>414</v>
+      </c>
+      <c r="AM46" s="1">
+        <v>96</v>
+      </c>
+      <c r="AN46">
+        <v>784</v>
+      </c>
+      <c r="AO46">
+        <v>384</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ46" s="1">
+        <f t="shared" ref="AQ46" si="62" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ46 - AM46) / 2)</f>
+        <v>14</v>
+      </c>
+      <c r="AR46">
+        <f t="shared" ref="AR46" si="63" xml:space="preserve"> _xlfn.FLOOR.MATH((AK46 - AN46) / 2)</f>
+        <v>192</v>
+      </c>
+      <c r="AS46">
+        <f t="shared" ref="AS46" si="64" xml:space="preserve"> _xlfn.FLOOR.MATH((AL46 - AO46) / 2)</f>
+        <v>15</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU46" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW46" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX46" t="s">
+        <v>130</v>
+      </c>
+      <c r="AY46" t="s">
         <v>130</v>
       </c>
     </row>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA977D2D-7C6A-432E-89A6-FE1EC4108B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26FEAC0-A774-4B72-B815-396E8D51F7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="2595" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="229">
   <si>
     <t>patch z</t>
   </si>
@@ -714,13 +714,16 @@
     <t>230911-0</t>
   </si>
   <si>
-    <t>eval scores will plateau marginally higher. I think the problem is the sample size being just too small.</t>
-  </si>
-  <si>
     <t>230911-1</t>
   </si>
   <si>
     <t>higher patience, lower val frequency, let it run for longer (e.g. 72 instead of the usual 24 hours) dataset03/04, maybe the eval score will go up eventually</t>
+  </si>
+  <si>
+    <t>achieve higher generalisability (val eval scores) faster by combining images from two different imaging sessions into the same dataset.</t>
+  </si>
+  <si>
+    <t>eval scores will plateau marginally higher. I think the problem with using 3 channel babb03 data (dataset03 and dataset04) is the sample size (available images) being just too small.</t>
   </si>
 </sst>
 </file>
@@ -1194,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
   <dimension ref="A1:AY48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -8055,20 +8058,20 @@
       <c r="J44" t="s">
         <v>8</v>
       </c>
-      <c r="K44" t="s">
-        <v>130</v>
-      </c>
-      <c r="L44" t="s">
-        <v>130</v>
-      </c>
-      <c r="M44" t="s">
-        <v>130</v>
-      </c>
-      <c r="N44" t="s">
-        <v>130</v>
-      </c>
-      <c r="O44" t="s">
-        <v>130</v>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
       </c>
       <c r="P44" s="1" t="s">
         <v>177</v>
@@ -8174,14 +8177,14 @@
       <c r="AV44" t="s">
         <v>176</v>
       </c>
-      <c r="AW44" t="s">
-        <v>130</v>
+      <c r="AW44">
+        <v>0</v>
       </c>
       <c r="AX44" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="AY44" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.25">
@@ -8192,10 +8195,10 @@
         <v>132</v>
       </c>
       <c r="C45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D45" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E45" t="s">
         <v>130</v>
@@ -8267,14 +8270,14 @@
       <c r="AA45" t="s">
         <v>102</v>
       </c>
-      <c r="AB45" s="10">
-        <v>74967</v>
+      <c r="AB45" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="AC45" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="AD45" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="AE45">
         <f t="shared" ref="AE45" si="56" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM45*AN45*AO45) / 5 * U45</f>
@@ -8346,13 +8349,13 @@
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B46" t="s">
         <v>132</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="D46" t="s">
         <v>130</v>
@@ -8427,14 +8430,14 @@
       <c r="AA46" t="s">
         <v>102</v>
       </c>
-      <c r="AB46" s="10">
-        <v>74967</v>
+      <c r="AB46" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="AC46" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="AD46" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="AE46">
         <f t="shared" ref="AE46" si="61" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM46*AN46*AO46) / 5 * U46</f>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26FEAC0-A774-4B72-B815-396E8D51F7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE886B3A-EED0-4679-90D0-198701C1F037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="2595" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="230">
   <si>
     <t>patch z</t>
   </si>
@@ -582,12 +582,6 @@
     <t>Better performance metrics &amp; val prediction images, but not good enough to merit test3dunet session.</t>
   </si>
   <si>
-    <t>Better validation performance metrics by pooling all ct3 488 nm images into one dataset.</t>
-  </si>
-  <si>
-    <t>Higher generalisability than with smaller train sample size in previous train3dunet sessions, therefore good enough performance metrics &amp; val prediction images to merit test3dunet session.</t>
-  </si>
-  <si>
     <t>230908-0</t>
   </si>
   <si>
@@ -714,16 +708,25 @@
     <t>230911-0</t>
   </si>
   <si>
-    <t>230911-1</t>
-  </si>
-  <si>
     <t>higher patience, lower val frequency, let it run for longer (e.g. 72 instead of the usual 24 hours) dataset03/04, maybe the eval score will go up eventually</t>
   </si>
   <si>
-    <t>achieve higher generalisability (val eval scores) faster by combining images from two different imaging sessions into the same dataset.</t>
-  </si>
-  <si>
     <t>eval scores will plateau marginally higher. I think the problem with using 3 channel babb03 data (dataset03 and dataset04) is the sample size (available images) being just too small.</t>
+  </si>
+  <si>
+    <t>Yes, the eval scores plateau was higher, but the max score was about the same as in previous runs with different Learning Rate Scheduler (LRScheduler) settings and different total run times. Conclusion: The problem regarding getting better models is not in the hyperparameters - or at least it is not solvable just with these datasets with autofluorescence inputs (foreshadowing next dataset - fluo input).</t>
+  </si>
+  <si>
+    <t>train eval plateau, val eval decreases after peek, val eval peek same as previous runs</t>
+  </si>
+  <si>
+    <t>VRAM free (MiB) nvidia-smi output</t>
+  </si>
+  <si>
+    <t>dataset06</t>
+  </si>
+  <si>
+    <t>n test</t>
   </si>
 </sst>
 </file>
@@ -761,7 +764,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -858,11 +861,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -881,6 +893,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1195,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
-  <dimension ref="A1:AY48"/>
+  <dimension ref="A1:BA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1208,46 +1224,51 @@
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="33" customWidth="1"/>
     <col min="16" max="16" width="10.42578125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="9.140625" customWidth="1" outlineLevel="1"/>
     <col min="19" max="19" width="6.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="23" width="5.140625" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="5.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="8.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="5.140625" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="7" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="9.140625" style="10" customWidth="1"/>
-    <col min="29" max="31" width="9.140625" customWidth="1"/>
-    <col min="32" max="32" width="7.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="34" width="7.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="23.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="36" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.28515625" style="1" customWidth="1"/>
-    <col min="40" max="40" width="6.140625" customWidth="1"/>
-    <col min="41" max="42" width="5" customWidth="1"/>
-    <col min="43" max="43" width="6.140625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="6.5703125" customWidth="1"/>
-    <col min="45" max="45" width="5" customWidth="1"/>
-    <col min="46" max="46" width="6" customWidth="1"/>
-    <col min="47" max="47" width="34.28515625" style="10" customWidth="1"/>
-    <col min="48" max="48" width="74.42578125" customWidth="1"/>
-    <col min="49" max="49" width="5.140625" customWidth="1"/>
-    <col min="50" max="50" width="73.85546875" customWidth="1"/>
-    <col min="51" max="51" width="206" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.7109375" customWidth="1"/>
-    <col min="56" max="56" width="12.140625" customWidth="1"/>
+    <col min="20" max="20" width="5.140625" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="6" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="7.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="8.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="15.42578125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="7.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="9.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="16.7109375" style="10" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="17" customWidth="1"/>
+    <col min="31" max="33" width="9.140625" customWidth="1"/>
+    <col min="34" max="34" width="7.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="36" width="7.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="23.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="38" max="38" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.28515625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="6.140625" customWidth="1"/>
+    <col min="43" max="44" width="5" customWidth="1"/>
+    <col min="45" max="45" width="6.140625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="6.5703125" customWidth="1"/>
+    <col min="47" max="47" width="5" customWidth="1"/>
+    <col min="48" max="48" width="6" customWidth="1"/>
+    <col min="49" max="49" width="34.28515625" style="10" customWidth="1"/>
+    <col min="50" max="50" width="74.42578125" customWidth="1"/>
+    <col min="51" max="51" width="5.140625" customWidth="1"/>
+    <col min="52" max="52" width="73.85546875" customWidth="1"/>
+    <col min="53" max="53" width="206" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.7109375" customWidth="1"/>
+    <col min="58" max="58" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -1309,13 +1330,13 @@
         <v>81</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>5</v>
+        <v>229</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>83</v>
@@ -1324,85 +1345,91 @@
         <v>103</v>
       </c>
       <c r="Z1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AM1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AU1" s="9" t="s">
+      <c r="AW1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -1454,8 +1481,8 @@
       <c r="Q2">
         <v>5</v>
       </c>
-      <c r="R2" t="s">
-        <v>114</v>
+      <c r="R2">
+        <v>5</v>
       </c>
       <c r="S2">
         <v>3</v>
@@ -1464,14 +1491,14 @@
         <v>2</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:U24" si="0" xml:space="preserve"> S2 + T2</f>
-        <v>5</v>
-      </c>
-      <c r="V2">
+        <f xml:space="preserve"> S2 + T2</f>
+        <v>5</v>
+      </c>
+      <c r="V2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2">
         <v>3</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
       </c>
       <c r="X2">
         <v>16</v>
@@ -1480,85 +1507,91 @@
         <v>100</v>
       </c>
       <c r="Z2">
-        <v>8</v>
-      </c>
-      <c r="AA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>8</v>
+      </c>
+      <c r="AB2" t="s">
         <v>102</v>
       </c>
-      <c r="AB2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>8</v>
+      <c r="AC2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="AE2" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AF2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AG2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>8</v>
-      </c>
       <c r="AI2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK2" t="s">
         <v>114</v>
       </c>
-      <c r="AJ2" s="10">
+      <c r="AL2" s="10">
         <v>125</v>
       </c>
-      <c r="AK2">
+      <c r="AM2">
         <v>1169</v>
       </c>
-      <c r="AL2">
+      <c r="AN2">
         <v>414</v>
       </c>
-      <c r="AM2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO2" t="s">
+      <c r="AO2" s="1" t="s">
         <v>130</v>
       </c>
       <c r="AP2" t="s">
         <v>130</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AQ2" t="s">
         <v>130</v>
       </c>
       <c r="AR2" t="s">
         <v>130</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AS2" s="1" t="s">
         <v>130</v>
       </c>
       <c r="AT2" t="s">
         <v>130</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AU2" t="s">
         <v>130</v>
       </c>
       <c r="AV2" t="s">
         <v>130</v>
       </c>
-      <c r="AW2">
-        <v>1</v>
+      <c r="AW2" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="AX2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AY2">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="s">
         <v>150</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BA2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>138</v>
       </c>
@@ -1589,17 +1622,17 @@
       <c r="J3" t="s">
         <v>153</v>
       </c>
-      <c r="K3" t="s">
-        <v>130</v>
-      </c>
-      <c r="L3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M3" t="s">
-        <v>130</v>
-      </c>
-      <c r="N3" t="s">
-        <v>130</v>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -1610,8 +1643,8 @@
       <c r="Q3">
         <v>5</v>
       </c>
-      <c r="R3" t="s">
-        <v>114</v>
+      <c r="R3">
+        <v>5</v>
       </c>
       <c r="S3">
         <v>3</v>
@@ -1620,14 +1653,14 @@
         <v>2</v>
       </c>
       <c r="U3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="V3">
+        <f t="shared" ref="U3:U24" si="0" xml:space="preserve"> S3 + T3</f>
+        <v>5</v>
+      </c>
+      <c r="V3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W3">
         <v>3</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
       </c>
       <c r="X3">
         <v>16</v>
@@ -1636,85 +1669,91 @@
         <v>100</v>
       </c>
       <c r="Z3">
-        <v>8</v>
-      </c>
-      <c r="AA3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>8</v>
+      </c>
+      <c r="AB3" t="s">
         <v>102</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AC3" s="10">
+        <v>20769</v>
+      </c>
+      <c r="AD3" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AC3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AI3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK3" t="s">
         <v>114</v>
       </c>
-      <c r="AG3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ3" s="10">
+      <c r="AL3" s="10">
         <v>125</v>
       </c>
-      <c r="AK3">
+      <c r="AM3">
         <v>1169</v>
       </c>
-      <c r="AL3">
+      <c r="AN3">
         <v>414</v>
       </c>
-      <c r="AM3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO3" t="s">
+      <c r="AO3" s="1" t="s">
         <v>130</v>
       </c>
       <c r="AP3" t="s">
         <v>130</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AQ3" t="s">
         <v>130</v>
       </c>
       <c r="AR3" t="s">
         <v>130</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AS3" s="1" t="s">
         <v>130</v>
       </c>
       <c r="AT3" t="s">
         <v>130</v>
       </c>
-      <c r="AU3" s="10" t="s">
+      <c r="AU3" t="s">
         <v>130</v>
       </c>
       <c r="AV3" t="s">
         <v>130</v>
       </c>
-      <c r="AW3">
-        <v>0</v>
+      <c r="AW3" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="AX3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:51" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>56</v>
       </c>
@@ -1779,11 +1818,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" s="12">
         <v>3</v>
-      </c>
-      <c r="W4" s="12">
-        <v>1</v>
       </c>
       <c r="X4" s="12">
         <v>16</v>
@@ -1792,85 +1831,91 @@
         <v>100</v>
       </c>
       <c r="Z4" s="12">
-        <v>8</v>
-      </c>
-      <c r="AA4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>8</v>
+      </c>
+      <c r="AB4" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="AB4" s="13" t="s">
+      <c r="AC4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AC4" s="12" t="s">
-        <v>8</v>
-      </c>
       <c r="AD4" s="12" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="AE4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AF4" s="14">
+      <c r="AF4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH4" s="14">
         <v>32768</v>
       </c>
-      <c r="AG4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH4" s="12" t="s">
-        <v>8</v>
-      </c>
       <c r="AI4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AJ4" s="13">
+      <c r="AL4" s="13">
         <v>125</v>
       </c>
-      <c r="AK4" s="12">
+      <c r="AM4" s="12">
         <v>1169</v>
       </c>
-      <c r="AL4" s="12">
+      <c r="AN4" s="12">
         <v>414</v>
       </c>
-      <c r="AM4" s="14">
+      <c r="AO4" s="14">
         <v>105</v>
       </c>
-      <c r="AN4" s="12">
+      <c r="AP4" s="12">
         <v>1149</v>
       </c>
-      <c r="AO4" s="12">
+      <c r="AQ4" s="12">
         <v>394</v>
       </c>
-      <c r="AP4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ4" s="14">
+      <c r="AR4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS4" s="14">
         <v>10</v>
       </c>
-      <c r="AR4" s="12">
+      <c r="AT4" s="12">
         <v>10</v>
       </c>
-      <c r="AS4" s="12">
+      <c r="AU4" s="12">
         <v>10</v>
       </c>
-      <c r="AT4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU4" s="13" t="s">
+      <c r="AV4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AV4" s="12" t="s">
+      <c r="AX4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AW4" s="12">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY4" s="12" t="s">
+      <c r="AY4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA4" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1895,7 +1940,7 @@
       <c r="H5" t="s">
         <v>85</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="16">
         <v>0</v>
       </c>
       <c r="J5" t="s">
@@ -1935,11 +1980,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="s">
+        <v>8</v>
+      </c>
+      <c r="W5">
         <v>3</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
       </c>
       <c r="X5">
         <v>16</v>
@@ -1948,85 +1993,91 @@
         <v>100</v>
       </c>
       <c r="Z5">
-        <v>8</v>
-      </c>
-      <c r="AA5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>8</v>
+      </c>
+      <c r="AB5" t="s">
         <v>102</v>
       </c>
-      <c r="AB5" s="10" t="s">
+      <c r="AC5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AC5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>8</v>
+      <c r="AD5" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="AE5" t="s">
         <v>8</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AF5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH5" s="1">
         <v>32768</v>
       </c>
-      <c r="AG5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>8</v>
-      </c>
       <c r="AI5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK5" t="s">
         <v>34</v>
       </c>
-      <c r="AJ5" s="10">
+      <c r="AL5" s="10">
         <v>125</v>
       </c>
-      <c r="AK5">
+      <c r="AM5">
         <v>1169</v>
       </c>
-      <c r="AL5">
+      <c r="AN5">
         <v>414</v>
       </c>
-      <c r="AM5" s="1">
+      <c r="AO5" s="1">
         <v>100</v>
       </c>
-      <c r="AN5">
+      <c r="AP5">
         <v>1100</v>
       </c>
-      <c r="AO5">
+      <c r="AQ5">
         <v>390</v>
       </c>
-      <c r="AP5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ5" s="1">
+      <c r="AR5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS5" s="1">
         <v>10</v>
       </c>
-      <c r="AR5">
+      <c r="AT5">
         <v>10</v>
       </c>
-      <c r="AS5">
+      <c r="AU5">
         <v>10</v>
       </c>
-      <c r="AT5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU5" s="10" t="s">
+      <c r="AV5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AX5" t="s">
         <v>15</v>
       </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY5" t="s">
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2049,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2091,11 +2142,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="s">
+        <v>8</v>
+      </c>
+      <c r="W6">
         <v>3</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
       </c>
       <c r="X6">
         <v>16</v>
@@ -2104,85 +2155,91 @@
         <v>100</v>
       </c>
       <c r="Z6">
-        <v>8</v>
-      </c>
-      <c r="AA6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>8</v>
+      </c>
+      <c r="AB6" t="s">
         <v>102</v>
       </c>
-      <c r="AB6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>8</v>
+      <c r="AC6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD6" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="AE6" t="s">
         <v>8</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AF6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH6" s="1">
         <v>32768</v>
       </c>
-      <c r="AG6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>8</v>
-      </c>
       <c r="AI6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK6" t="s">
         <v>34</v>
       </c>
-      <c r="AJ6" s="10">
+      <c r="AL6" s="10">
         <v>125</v>
       </c>
-      <c r="AK6">
+      <c r="AM6">
         <v>1169</v>
       </c>
-      <c r="AL6">
+      <c r="AN6">
         <v>414</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AO6" s="1">
         <v>100</v>
       </c>
-      <c r="AN6">
+      <c r="AP6">
         <v>1100</v>
       </c>
-      <c r="AO6">
+      <c r="AQ6">
         <v>390</v>
       </c>
-      <c r="AP6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ6" s="1">
+      <c r="AR6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS6" s="1">
         <v>26</v>
       </c>
-      <c r="AR6">
+      <c r="AT6">
         <v>70</v>
       </c>
-      <c r="AS6">
+      <c r="AU6">
         <v>25</v>
       </c>
-      <c r="AT6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU6" s="10" t="s">
+      <c r="AV6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AX6" t="s">
         <v>10</v>
       </c>
-      <c r="AW6">
-        <v>1</v>
-      </c>
-      <c r="AX6" t="s">
+      <c r="AY6">
+        <v>1</v>
+      </c>
+      <c r="AZ6" t="s">
         <v>14</v>
       </c>
-      <c r="AY6" t="s">
+      <c r="BA6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2205,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2247,11 +2304,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="V7">
+      <c r="V7" t="s">
+        <v>8</v>
+      </c>
+      <c r="W7">
         <v>3</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
       </c>
       <c r="X7">
         <v>16</v>
@@ -2260,85 +2317,91 @@
         <v>100</v>
       </c>
       <c r="Z7">
-        <v>8</v>
-      </c>
-      <c r="AA7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>8</v>
+      </c>
+      <c r="AB7" t="s">
         <v>102</v>
       </c>
-      <c r="AB7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>8</v>
+      <c r="AC7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD7" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="AE7" t="s">
         <v>8</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AF7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH7" s="1">
         <v>32768</v>
       </c>
-      <c r="AG7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>8</v>
-      </c>
       <c r="AI7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK7" t="s">
         <v>34</v>
       </c>
-      <c r="AJ7" s="10">
+      <c r="AL7" s="10">
         <v>125</v>
       </c>
-      <c r="AK7">
+      <c r="AM7">
         <v>1169</v>
       </c>
-      <c r="AL7">
+      <c r="AN7">
         <v>414</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AO7" s="1">
         <v>100</v>
       </c>
-      <c r="AN7">
+      <c r="AP7">
         <v>1100</v>
       </c>
-      <c r="AO7">
+      <c r="AQ7">
         <v>390</v>
       </c>
-      <c r="AP7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ7" s="1">
+      <c r="AR7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS7" s="1">
         <v>25</v>
       </c>
-      <c r="AR7">
+      <c r="AT7">
         <v>69</v>
       </c>
-      <c r="AS7">
+      <c r="AU7">
         <v>24</v>
       </c>
-      <c r="AT7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU7" s="10" t="s">
+      <c r="AV7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AX7" t="s">
         <v>9</v>
       </c>
-      <c r="AW7">
-        <v>1</v>
-      </c>
-      <c r="AX7" t="s">
+      <c r="AY7">
+        <v>1</v>
+      </c>
+      <c r="AZ7" t="s">
         <v>14</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="BA7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2403,11 +2466,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="V8">
+      <c r="V8" t="s">
+        <v>8</v>
+      </c>
+      <c r="W8">
         <v>3</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
       </c>
       <c r="X8">
         <v>16</v>
@@ -2416,85 +2479,91 @@
         <v>100</v>
       </c>
       <c r="Z8">
-        <v>8</v>
-      </c>
-      <c r="AA8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>8</v>
+      </c>
+      <c r="AB8" t="s">
         <v>102</v>
       </c>
-      <c r="AB8" s="10" t="s">
+      <c r="AC8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AC8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>8</v>
+      <c r="AD8" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="AE8" t="s">
         <v>8</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AF8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH8" s="1">
         <v>32768</v>
       </c>
-      <c r="AG8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>8</v>
-      </c>
       <c r="AI8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK8" t="s">
         <v>34</v>
       </c>
-      <c r="AJ8" s="10">
+      <c r="AL8" s="10">
         <v>125</v>
       </c>
-      <c r="AK8">
+      <c r="AM8">
         <v>1169</v>
       </c>
-      <c r="AL8">
+      <c r="AN8">
         <v>414</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AO8" s="1">
         <v>101</v>
       </c>
-      <c r="AN8">
+      <c r="AP8">
         <v>1009</v>
       </c>
-      <c r="AO8">
+      <c r="AQ8">
         <v>400</v>
       </c>
-      <c r="AP8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ8" s="1">
+      <c r="AR8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS8" s="1">
         <v>12</v>
       </c>
-      <c r="AR8">
+      <c r="AT8">
         <v>90</v>
       </c>
-      <c r="AS8">
+      <c r="AU8">
         <v>7</v>
       </c>
-      <c r="AT8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU8" s="10" t="s">
+      <c r="AV8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AV8" t="s">
+      <c r="AX8" t="s">
         <v>15</v>
       </c>
-      <c r="AW8">
-        <v>1</v>
-      </c>
-      <c r="AX8" t="s">
+      <c r="AY8">
+        <v>1</v>
+      </c>
+      <c r="AZ8" t="s">
         <v>21</v>
       </c>
-      <c r="AY8" t="s">
+      <c r="BA8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2517,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2559,11 +2628,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="V9">
+      <c r="V9" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9">
         <v>3</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
       </c>
       <c r="X9">
         <v>16</v>
@@ -2572,91 +2641,97 @@
         <v>100</v>
       </c>
       <c r="Z9">
-        <v>8</v>
-      </c>
-      <c r="AA9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>8</v>
+      </c>
+      <c r="AB9" t="s">
         <v>102</v>
       </c>
-      <c r="AB9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>8</v>
+      <c r="AC9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD9" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="AE9" t="s">
         <v>8</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AF9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH9" s="1">
         <v>32768</v>
       </c>
-      <c r="AG9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>8</v>
-      </c>
       <c r="AI9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK9" t="s">
         <v>34</v>
       </c>
-      <c r="AJ9" s="10">
+      <c r="AL9" s="10">
         <v>125</v>
       </c>
-      <c r="AK9">
+      <c r="AM9">
         <v>1169</v>
       </c>
-      <c r="AL9">
+      <c r="AN9">
         <v>414</v>
       </c>
-      <c r="AM9" s="1">
-        <f>AJ9-50</f>
+      <c r="AO9" s="1">
+        <f>AL9-50</f>
         <v>75</v>
       </c>
-      <c r="AN9">
-        <f>AK9-240</f>
+      <c r="AP9">
+        <f>AM9-240</f>
         <v>929</v>
       </c>
-      <c r="AO9">
-        <f>AL9-110</f>
+      <c r="AQ9">
+        <f>AN9-110</f>
         <v>304</v>
       </c>
-      <c r="AP9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ9" s="1">
-        <f>(AJ9-AM9)/2</f>
+      <c r="AR9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS9" s="1">
+        <f>(AL9-AO9)/2</f>
         <v>25</v>
       </c>
-      <c r="AR9">
-        <f>(AK9-AN9)/2</f>
+      <c r="AT9">
+        <f>(AM9-AP9)/2</f>
         <v>120</v>
       </c>
-      <c r="AS9">
-        <f>(AL9-AO9)/2</f>
+      <c r="AU9">
+        <f>(AN9-AQ9)/2</f>
         <v>55</v>
       </c>
-      <c r="AT9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU9" s="10" t="s">
+      <c r="AV9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AX9" t="s">
         <v>15</v>
       </c>
-      <c r="AW9">
-        <v>1</v>
-      </c>
-      <c r="AX9" t="s">
+      <c r="AY9">
+        <v>1</v>
+      </c>
+      <c r="AZ9" t="s">
         <v>25</v>
       </c>
-      <c r="AY9" t="s">
+      <c r="BA9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2679,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2721,11 +2796,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="V10">
+      <c r="V10" t="s">
+        <v>8</v>
+      </c>
+      <c r="W10">
         <v>3</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
       </c>
       <c r="X10">
         <v>16</v>
@@ -2734,85 +2809,91 @@
         <v>100</v>
       </c>
       <c r="Z10">
-        <v>8</v>
-      </c>
-      <c r="AA10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>8</v>
+      </c>
+      <c r="AB10" t="s">
         <v>102</v>
       </c>
-      <c r="AB10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>8</v>
+      <c r="AC10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD10" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="AE10" t="s">
         <v>8</v>
       </c>
-      <c r="AF10" s="1">
+      <c r="AF10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH10" s="1">
         <v>32768</v>
       </c>
-      <c r="AG10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>8</v>
-      </c>
       <c r="AI10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK10" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" s="10">
+      <c r="AL10" s="10">
         <v>125</v>
       </c>
-      <c r="AK10">
+      <c r="AM10">
         <v>1169</v>
       </c>
-      <c r="AL10">
+      <c r="AN10">
         <v>414</v>
       </c>
-      <c r="AM10" s="1">
+      <c r="AO10" s="1">
         <v>72</v>
       </c>
-      <c r="AN10">
+      <c r="AP10">
         <v>928</v>
       </c>
-      <c r="AO10">
+      <c r="AQ10">
         <v>304</v>
       </c>
-      <c r="AP10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ10" s="1">
+      <c r="AR10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS10" s="1">
         <v>24</v>
       </c>
-      <c r="AR10">
+      <c r="AT10">
         <v>120</v>
       </c>
-      <c r="AS10">
+      <c r="AU10">
         <v>48</v>
       </c>
-      <c r="AT10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU10" s="10" t="s">
+      <c r="AV10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AX10" t="s">
         <v>74</v>
       </c>
-      <c r="AW10">
-        <v>1</v>
-      </c>
-      <c r="AX10" t="s">
+      <c r="AY10">
+        <v>1</v>
+      </c>
+      <c r="AZ10" t="s">
         <v>25</v>
       </c>
-      <c r="AY10" t="s">
+      <c r="BA10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2877,11 +2958,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="V11">
+      <c r="V11" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11">
         <v>3</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
       </c>
       <c r="X11">
         <v>16</v>
@@ -2890,85 +2971,91 @@
         <v>100</v>
       </c>
       <c r="Z11">
-        <v>8</v>
-      </c>
-      <c r="AA11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>8</v>
+      </c>
+      <c r="AB11" t="s">
         <v>102</v>
       </c>
-      <c r="AB11" s="10" t="s">
+      <c r="AC11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AC11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>8</v>
+      <c r="AD11" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="AE11" t="s">
         <v>8</v>
       </c>
-      <c r="AF11" s="1">
+      <c r="AF11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH11" s="1">
         <v>32768</v>
       </c>
-      <c r="AG11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>8</v>
-      </c>
       <c r="AI11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK11" t="s">
         <v>34</v>
       </c>
-      <c r="AJ11" s="10">
+      <c r="AL11" s="10">
         <v>125</v>
       </c>
-      <c r="AK11">
+      <c r="AM11">
         <v>1169</v>
       </c>
-      <c r="AL11">
+      <c r="AN11">
         <v>414</v>
       </c>
-      <c r="AM11" s="1">
+      <c r="AO11" s="1">
         <v>64</v>
       </c>
-      <c r="AN11">
+      <c r="AP11">
         <v>928</v>
       </c>
-      <c r="AO11">
+      <c r="AQ11">
         <v>304</v>
       </c>
-      <c r="AP11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ11" s="1">
+      <c r="AR11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS11" s="1">
         <v>24</v>
       </c>
-      <c r="AR11">
+      <c r="AT11">
         <v>120</v>
       </c>
-      <c r="AS11">
+      <c r="AU11">
         <v>40</v>
       </c>
-      <c r="AT11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU11" s="10" t="s">
+      <c r="AV11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AV11" t="s">
+      <c r="AX11" t="s">
         <v>30</v>
       </c>
-      <c r="AW11">
-        <v>1</v>
-      </c>
-      <c r="AX11" t="s">
+      <c r="AY11">
+        <v>1</v>
+      </c>
+      <c r="AZ11" t="s">
         <v>31</v>
       </c>
-      <c r="AY11" s="3" t="s">
+      <c r="BA11" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -3033,11 +3120,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="V12">
+      <c r="V12" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12">
         <v>3</v>
-      </c>
-      <c r="W12">
-        <v>1</v>
       </c>
       <c r="X12">
         <v>16</v>
@@ -3046,85 +3133,91 @@
         <v>100</v>
       </c>
       <c r="Z12">
-        <v>8</v>
-      </c>
-      <c r="AA12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>8</v>
+      </c>
+      <c r="AB12" t="s">
         <v>102</v>
       </c>
-      <c r="AB12" s="10">
+      <c r="AC12" s="10">
         <v>10135</v>
       </c>
-      <c r="AC12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>8</v>
+      <c r="AD12" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="AE12" t="s">
         <v>8</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AF12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH12" s="1">
         <v>32768</v>
       </c>
-      <c r="AG12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>8</v>
-      </c>
       <c r="AI12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK12" t="s">
         <v>34</v>
       </c>
-      <c r="AJ12" s="10">
+      <c r="AL12" s="10">
         <v>125</v>
       </c>
-      <c r="AK12">
+      <c r="AM12">
         <v>1169</v>
       </c>
-      <c r="AL12">
+      <c r="AN12">
         <v>414</v>
       </c>
-      <c r="AM12" s="1">
+      <c r="AO12" s="1">
         <v>64</v>
       </c>
-      <c r="AN12">
+      <c r="AP12">
         <v>400</v>
       </c>
-      <c r="AO12">
+      <c r="AQ12">
         <v>160</v>
       </c>
-      <c r="AP12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ12" s="1">
+      <c r="AR12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS12" s="1">
         <v>24</v>
       </c>
-      <c r="AR12">
+      <c r="AT12">
         <v>376</v>
       </c>
-      <c r="AS12">
+      <c r="AU12">
         <v>120</v>
       </c>
-      <c r="AT12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU12" s="10" t="s">
+      <c r="AV12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AX12" t="s">
         <v>30</v>
       </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY12" t="s">
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -3147,7 +3240,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3189,11 +3282,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="V13">
+      <c r="V13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13">
         <v>3</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
       </c>
       <c r="X13">
         <v>16</v>
@@ -3202,85 +3295,91 @@
         <v>100</v>
       </c>
       <c r="Z13">
-        <v>8</v>
-      </c>
-      <c r="AA13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>8</v>
+      </c>
+      <c r="AB13" t="s">
         <v>102</v>
       </c>
-      <c r="AB13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>8</v>
+      <c r="AC13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD13" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="AE13" t="s">
         <v>8</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AF13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH13" s="1">
         <v>32768</v>
       </c>
-      <c r="AG13" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>8</v>
-      </c>
       <c r="AI13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK13" t="s">
         <v>34</v>
       </c>
-      <c r="AJ13" s="10">
+      <c r="AL13" s="10">
         <v>125</v>
       </c>
-      <c r="AK13">
+      <c r="AM13">
         <v>1169</v>
       </c>
-      <c r="AL13">
+      <c r="AN13">
         <v>414</v>
       </c>
-      <c r="AM13" s="1">
+      <c r="AO13" s="1">
         <v>72</v>
       </c>
-      <c r="AN13">
+      <c r="AP13">
         <v>408</v>
       </c>
-      <c r="AO13">
+      <c r="AQ13">
         <v>168</v>
       </c>
-      <c r="AP13" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ13" s="1">
+      <c r="AR13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS13" s="1">
         <v>24</v>
       </c>
-      <c r="AR13">
+      <c r="AT13">
         <v>376</v>
       </c>
-      <c r="AS13">
+      <c r="AU13">
         <v>120</v>
       </c>
-      <c r="AT13" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU13" s="10" t="s">
+      <c r="AV13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AV13" t="s">
+      <c r="AX13" t="s">
         <v>30</v>
       </c>
-      <c r="AW13">
-        <v>1</v>
-      </c>
-      <c r="AX13" t="s">
+      <c r="AY13">
+        <v>1</v>
+      </c>
+      <c r="AZ13" t="s">
         <v>40</v>
       </c>
-      <c r="AY13" t="s">
+      <c r="BA13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -3303,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3345,11 +3444,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="V14">
+      <c r="V14" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14">
         <v>3</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
       </c>
       <c r="X14">
         <v>16</v>
@@ -3358,85 +3457,91 @@
         <v>100</v>
       </c>
       <c r="Z14">
-        <v>8</v>
-      </c>
-      <c r="AA14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>8</v>
+      </c>
+      <c r="AB14" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>8</v>
+      <c r="AC14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD14" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="AE14" t="s">
         <v>8</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AF14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH14" s="1">
         <v>32768</v>
       </c>
-      <c r="AG14" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>8</v>
-      </c>
       <c r="AI14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK14" t="s">
         <v>34</v>
       </c>
-      <c r="AJ14" s="10">
+      <c r="AL14" s="10">
         <v>125</v>
       </c>
-      <c r="AK14">
+      <c r="AM14">
         <v>1169</v>
       </c>
-      <c r="AL14">
+      <c r="AN14">
         <v>414</v>
       </c>
-      <c r="AM14" s="1">
+      <c r="AO14" s="1">
         <v>72</v>
       </c>
-      <c r="AN14">
+      <c r="AP14">
         <v>408</v>
       </c>
-      <c r="AO14">
+      <c r="AQ14">
         <v>168</v>
       </c>
-      <c r="AP14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ14" s="1">
+      <c r="AR14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS14" s="1">
         <v>16</v>
       </c>
-      <c r="AR14">
+      <c r="AT14">
         <v>368</v>
       </c>
-      <c r="AS14">
+      <c r="AU14">
         <v>112</v>
       </c>
-      <c r="AT14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU14" s="10" t="s">
+      <c r="AV14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AV14" t="s">
+      <c r="AX14" t="s">
         <v>48</v>
       </c>
-      <c r="AW14">
-        <v>1</v>
-      </c>
-      <c r="AX14" t="s">
+      <c r="AY14">
+        <v>1</v>
+      </c>
+      <c r="AZ14" t="s">
         <v>40</v>
       </c>
-      <c r="AY14" t="s">
+      <c r="BA14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -3501,11 +3606,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="V15">
+      <c r="V15" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15">
         <v>3</v>
-      </c>
-      <c r="W15">
-        <v>1</v>
       </c>
       <c r="X15">
         <v>16</v>
@@ -3514,85 +3619,91 @@
         <v>100</v>
       </c>
       <c r="Z15">
-        <v>8</v>
-      </c>
-      <c r="AA15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>8</v>
+      </c>
+      <c r="AB15" t="s">
         <v>102</v>
       </c>
-      <c r="AB15" s="10">
+      <c r="AC15" s="10">
         <v>13843</v>
       </c>
-      <c r="AC15" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>8</v>
+      <c r="AD15" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="AE15" t="s">
         <v>8</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AF15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH15" s="1">
         <v>32768</v>
       </c>
-      <c r="AG15" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>8</v>
-      </c>
       <c r="AI15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK15" t="s">
         <v>34</v>
       </c>
-      <c r="AJ15" s="10">
+      <c r="AL15" s="10">
         <v>125</v>
       </c>
-      <c r="AK15">
+      <c r="AM15">
         <v>1169</v>
       </c>
-      <c r="AL15">
+      <c r="AN15">
         <v>414</v>
       </c>
-      <c r="AM15" s="1">
+      <c r="AO15" s="1">
         <v>80</v>
       </c>
-      <c r="AN15">
+      <c r="AP15">
         <v>416</v>
       </c>
-      <c r="AO15">
+      <c r="AQ15">
         <v>176</v>
       </c>
-      <c r="AP15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ15" s="1">
-        <v>8</v>
-      </c>
-      <c r="AR15">
+      <c r="AR15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>8</v>
+      </c>
+      <c r="AT15">
         <v>376</v>
       </c>
-      <c r="AS15">
+      <c r="AU15">
         <v>104</v>
       </c>
-      <c r="AT15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU15" s="10" t="s">
+      <c r="AV15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AV15" t="s">
+      <c r="AX15" t="s">
         <v>30</v>
       </c>
-      <c r="AW15">
-        <v>0</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY15" t="s">
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>47</v>
       </c>
@@ -3657,11 +3768,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="W16" s="7">
         <v>3</v>
-      </c>
-      <c r="W16" s="7">
-        <v>1</v>
       </c>
       <c r="X16" s="7">
         <v>16</v>
@@ -3670,85 +3781,91 @@
         <v>100</v>
       </c>
       <c r="Z16" s="7">
-        <v>8</v>
-      </c>
-      <c r="AA16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>8</v>
+      </c>
+      <c r="AB16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AB16" s="11">
+      <c r="AC16" s="11">
         <v>13843</v>
       </c>
-      <c r="AC16" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="AD16" s="7" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="AE16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AF16" s="8">
+      <c r="AF16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH16" s="8">
         <v>32768</v>
       </c>
-      <c r="AG16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH16" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="AI16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AJ16" s="11">
+      <c r="AL16" s="11">
         <v>125</v>
       </c>
-      <c r="AK16" s="7">
+      <c r="AM16" s="7">
         <v>1169</v>
       </c>
-      <c r="AL16" s="7">
+      <c r="AN16" s="7">
         <v>414</v>
       </c>
-      <c r="AM16" s="8">
+      <c r="AO16" s="8">
         <v>80</v>
       </c>
-      <c r="AN16" s="7">
+      <c r="AP16" s="7">
         <v>416</v>
       </c>
-      <c r="AO16" s="7">
+      <c r="AQ16" s="7">
         <v>176</v>
       </c>
-      <c r="AP16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ16" s="8">
+      <c r="AR16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS16" s="8">
         <v>16</v>
       </c>
-      <c r="AR16" s="7">
+      <c r="AT16" s="7">
         <v>368</v>
       </c>
-      <c r="AS16" s="7">
+      <c r="AU16" s="7">
         <v>112</v>
       </c>
-      <c r="AT16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU16" s="11" t="s">
+      <c r="AV16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW16" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AV16" s="7" t="s">
+      <c r="AX16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AW16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AX16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY16" s="7" t="s">
+      <c r="AY16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA16" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -3813,11 +3930,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="V17">
+      <c r="V17" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17">
         <v>3</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
       </c>
       <c r="X17">
         <v>16</v>
@@ -3826,85 +3943,91 @@
         <v>100</v>
       </c>
       <c r="Z17">
-        <v>8</v>
-      </c>
-      <c r="AA17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>8</v>
+      </c>
+      <c r="AB17" t="s">
         <v>102</v>
       </c>
-      <c r="AB17" s="10">
+      <c r="AC17" s="10">
         <v>10135</v>
       </c>
-      <c r="AC17" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>8</v>
+      <c r="AD17" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="AE17" t="s">
         <v>8</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AF17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH17" s="1">
         <v>32768</v>
       </c>
-      <c r="AG17" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>8</v>
-      </c>
       <c r="AI17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK17" t="s">
         <v>34</v>
       </c>
-      <c r="AJ17" s="10">
+      <c r="AL17" s="10">
         <v>125</v>
       </c>
-      <c r="AK17">
+      <c r="AM17">
         <v>1169</v>
       </c>
-      <c r="AL17">
+      <c r="AN17">
         <v>414</v>
       </c>
-      <c r="AM17" s="1">
+      <c r="AO17" s="1">
         <v>64</v>
       </c>
-      <c r="AN17">
+      <c r="AP17">
         <v>400</v>
       </c>
-      <c r="AO17">
+      <c r="AQ17">
         <v>160</v>
       </c>
-      <c r="AP17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ17" s="4">
-        <v>8</v>
-      </c>
-      <c r="AR17">
+      <c r="AR17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS17" s="4">
+        <v>8</v>
+      </c>
+      <c r="AT17">
         <v>368</v>
       </c>
-      <c r="AS17">
+      <c r="AU17">
         <v>96</v>
       </c>
-      <c r="AT17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU17" s="10" t="s">
+      <c r="AV17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW17" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AV17" t="s">
+      <c r="AX17" t="s">
         <v>76</v>
       </c>
-      <c r="AW17">
-        <v>0</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY17" t="s">
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -3969,11 +4092,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="V18">
+      <c r="V18" t="s">
+        <v>8</v>
+      </c>
+      <c r="W18">
         <v>3</v>
-      </c>
-      <c r="W18">
-        <v>1</v>
       </c>
       <c r="X18">
         <v>16</v>
@@ -3982,85 +4105,91 @@
         <v>100</v>
       </c>
       <c r="Z18">
-        <v>8</v>
-      </c>
-      <c r="AA18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>8</v>
+      </c>
+      <c r="AB18" t="s">
         <v>102</v>
       </c>
-      <c r="AB18" s="10">
+      <c r="AC18" s="10">
         <v>10135</v>
       </c>
-      <c r="AC18" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>8</v>
+      <c r="AD18" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="AE18" t="s">
         <v>8</v>
       </c>
-      <c r="AF18" s="1">
+      <c r="AF18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH18" s="1">
         <v>32768</v>
       </c>
-      <c r="AG18" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>8</v>
-      </c>
       <c r="AI18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK18" t="s">
         <v>34</v>
       </c>
-      <c r="AJ18" s="10">
+      <c r="AL18" s="10">
         <v>125</v>
       </c>
-      <c r="AK18">
+      <c r="AM18">
         <v>1169</v>
       </c>
-      <c r="AL18">
+      <c r="AN18">
         <v>414</v>
       </c>
-      <c r="AM18" s="1">
+      <c r="AO18" s="1">
         <v>64</v>
       </c>
-      <c r="AN18">
+      <c r="AP18">
         <v>400</v>
       </c>
-      <c r="AO18">
+      <c r="AQ18">
         <v>160</v>
       </c>
-      <c r="AP18" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ18" s="1">
+      <c r="AR18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS18" s="1">
         <v>24</v>
       </c>
-      <c r="AR18">
+      <c r="AT18">
         <v>384</v>
       </c>
-      <c r="AS18">
+      <c r="AU18">
         <v>120</v>
       </c>
-      <c r="AT18" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU18" s="10" t="s">
+      <c r="AV18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW18" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AV18" t="s">
+      <c r="AX18" t="s">
         <v>73</v>
       </c>
-      <c r="AW18">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY18" t="s">
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -4125,11 +4254,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="V19">
+      <c r="V19" t="s">
+        <v>8</v>
+      </c>
+      <c r="W19">
         <v>3</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
       </c>
       <c r="X19">
         <v>16</v>
@@ -4138,85 +4267,91 @@
         <v>100</v>
       </c>
       <c r="Z19">
-        <v>8</v>
-      </c>
-      <c r="AA19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>8</v>
+      </c>
+      <c r="AB19" t="s">
         <v>102</v>
       </c>
-      <c r="AB19" s="10">
+      <c r="AC19" s="10">
         <v>10999</v>
       </c>
-      <c r="AC19" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>8</v>
+      <c r="AD19" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="AE19" t="s">
         <v>8</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AF19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH19" s="1">
         <v>32768</v>
       </c>
-      <c r="AG19" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>8</v>
-      </c>
       <c r="AI19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK19" t="s">
         <v>34</v>
       </c>
-      <c r="AJ19" s="10">
+      <c r="AL19" s="10">
         <v>125</v>
       </c>
-      <c r="AK19">
+      <c r="AM19">
         <v>1169</v>
       </c>
-      <c r="AL19">
+      <c r="AN19">
         <v>414</v>
       </c>
-      <c r="AM19" s="1">
+      <c r="AO19" s="1">
         <v>64</v>
       </c>
-      <c r="AN19">
+      <c r="AP19">
         <v>400</v>
       </c>
-      <c r="AO19">
+      <c r="AQ19">
         <v>176</v>
       </c>
-      <c r="AP19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ19" s="1">
+      <c r="AR19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS19" s="1">
         <v>24</v>
       </c>
-      <c r="AR19">
+      <c r="AT19">
         <v>384</v>
       </c>
-      <c r="AS19">
+      <c r="AU19">
         <v>112</v>
       </c>
-      <c r="AT19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU19" s="10" t="s">
+      <c r="AV19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW19" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AV19" t="s">
+      <c r="AX19" t="s">
         <v>73</v>
       </c>
-      <c r="AW19">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY19" t="s">
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4281,11 +4416,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="V20">
+      <c r="V20" t="s">
+        <v>8</v>
+      </c>
+      <c r="W20">
         <v>3</v>
-      </c>
-      <c r="W20">
-        <v>1</v>
       </c>
       <c r="X20">
         <v>16</v>
@@ -4294,85 +4429,91 @@
         <v>100</v>
       </c>
       <c r="Z20">
-        <v>8</v>
-      </c>
-      <c r="AA20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>8</v>
+      </c>
+      <c r="AB20" t="s">
         <v>102</v>
       </c>
-      <c r="AB20" s="10">
+      <c r="AC20" s="10">
         <v>11843</v>
       </c>
-      <c r="AC20" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>8</v>
+      <c r="AD20" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="AE20" t="s">
         <v>8</v>
       </c>
-      <c r="AF20" s="1">
+      <c r="AF20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH20" s="1">
         <v>32768</v>
       </c>
-      <c r="AG20" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>8</v>
-      </c>
       <c r="AI20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK20" t="s">
         <v>34</v>
       </c>
-      <c r="AJ20" s="10">
+      <c r="AL20" s="10">
         <v>125</v>
       </c>
-      <c r="AK20">
+      <c r="AM20">
         <v>1169</v>
       </c>
-      <c r="AL20">
+      <c r="AN20">
         <v>414</v>
       </c>
-      <c r="AM20" s="1">
+      <c r="AO20" s="1">
         <v>64</v>
       </c>
-      <c r="AN20">
+      <c r="AP20">
         <v>400</v>
       </c>
-      <c r="AO20">
+      <c r="AQ20">
         <v>192</v>
       </c>
-      <c r="AP20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ20" s="1">
+      <c r="AR20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS20" s="1">
         <v>24</v>
       </c>
-      <c r="AR20">
+      <c r="AT20">
         <v>384</v>
       </c>
-      <c r="AS20">
+      <c r="AU20">
         <v>104</v>
       </c>
-      <c r="AT20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU20" s="10" t="s">
+      <c r="AV20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW20" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AV20" t="s">
+      <c r="AX20" t="s">
         <v>73</v>
       </c>
-      <c r="AW20">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY20" t="s">
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -4437,11 +4578,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="V21">
+      <c r="V21" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21">
         <v>3</v>
-      </c>
-      <c r="W21">
-        <v>1</v>
       </c>
       <c r="X21">
         <v>16</v>
@@ -4450,85 +4591,91 @@
         <v>100</v>
       </c>
       <c r="Z21">
-        <v>8</v>
-      </c>
-      <c r="AA21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>8</v>
+      </c>
+      <c r="AB21" t="s">
         <v>102</v>
       </c>
-      <c r="AB21" s="10">
+      <c r="AC21" s="10">
         <v>10473</v>
       </c>
-      <c r="AC21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>8</v>
+      <c r="AD21" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="AE21" t="s">
         <v>8</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AF21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH21" s="1">
         <v>32768</v>
       </c>
-      <c r="AG21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>8</v>
-      </c>
       <c r="AI21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK21" t="s">
         <v>34</v>
       </c>
-      <c r="AJ21" s="10">
+      <c r="AL21" s="10">
         <v>125</v>
       </c>
-      <c r="AK21">
+      <c r="AM21">
         <v>1169</v>
       </c>
-      <c r="AL21">
+      <c r="AN21">
         <v>414</v>
       </c>
-      <c r="AM21" s="1">
+      <c r="AO21" s="1">
         <v>64</v>
       </c>
-      <c r="AN21">
+      <c r="AP21">
         <v>416</v>
       </c>
-      <c r="AO21">
+      <c r="AQ21">
         <v>160</v>
       </c>
-      <c r="AP21" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ21" s="1">
+      <c r="AR21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS21" s="1">
         <v>24</v>
       </c>
-      <c r="AR21">
+      <c r="AT21">
         <v>376</v>
       </c>
-      <c r="AS21">
+      <c r="AU21">
         <v>120</v>
       </c>
-      <c r="AT21" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU21" s="10" t="s">
+      <c r="AV21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW21" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AV21" t="s">
+      <c r="AX21" t="s">
         <v>73</v>
       </c>
-      <c r="AW21">
-        <v>0</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY21" t="s">
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -4593,11 +4740,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="V22">
+      <c r="V22" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22">
         <v>3</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
       </c>
       <c r="X22">
         <v>16</v>
@@ -4606,85 +4753,91 @@
         <v>100</v>
       </c>
       <c r="Z22">
-        <v>8</v>
-      </c>
-      <c r="AA22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>8</v>
+      </c>
+      <c r="AB22" t="s">
         <v>102</v>
       </c>
-      <c r="AB22" s="10">
+      <c r="AC22" s="10">
         <v>10825</v>
       </c>
-      <c r="AC22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>8</v>
+      <c r="AD22" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="AE22" t="s">
         <v>8</v>
       </c>
-      <c r="AF22" s="1">
+      <c r="AF22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH22" s="1">
         <v>32768</v>
       </c>
-      <c r="AG22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>8</v>
-      </c>
       <c r="AI22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK22" t="s">
         <v>34</v>
       </c>
-      <c r="AJ22" s="10">
+      <c r="AL22" s="10">
         <v>125</v>
       </c>
-      <c r="AK22">
+      <c r="AM22">
         <v>1169</v>
       </c>
-      <c r="AL22">
+      <c r="AN22">
         <v>414</v>
       </c>
-      <c r="AM22" s="1">
+      <c r="AO22" s="1">
         <v>64</v>
       </c>
-      <c r="AN22">
+      <c r="AP22">
         <v>432</v>
       </c>
-      <c r="AO22">
+      <c r="AQ22">
         <v>160</v>
       </c>
-      <c r="AP22" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ22" s="1">
+      <c r="AR22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS22" s="1">
         <v>24</v>
       </c>
-      <c r="AR22">
+      <c r="AT22">
         <v>368</v>
       </c>
-      <c r="AS22">
+      <c r="AU22">
         <v>120</v>
       </c>
-      <c r="AT22" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU22" s="10" t="s">
+      <c r="AV22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW22" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AV22" t="s">
+      <c r="AX22" t="s">
         <v>73</v>
       </c>
-      <c r="AW22">
-        <v>0</v>
-      </c>
-      <c r="AX22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY22" t="s">
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -4749,11 +4902,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="V23">
+      <c r="V23" t="s">
+        <v>8</v>
+      </c>
+      <c r="W23">
         <v>3</v>
-      </c>
-      <c r="W23">
-        <v>1</v>
       </c>
       <c r="X23">
         <v>16</v>
@@ -4762,85 +4915,91 @@
         <v>100</v>
       </c>
       <c r="Z23">
-        <v>8</v>
-      </c>
-      <c r="AA23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>8</v>
+      </c>
+      <c r="AB23" t="s">
         <v>102</v>
       </c>
-      <c r="AB23" s="10">
+      <c r="AC23" s="10">
         <v>12317</v>
       </c>
-      <c r="AC23" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>8</v>
+      <c r="AD23" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="AE23" t="s">
         <v>8</v>
       </c>
-      <c r="AF23" s="1">
+      <c r="AF23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH23" s="1">
         <v>32768</v>
       </c>
-      <c r="AG23" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>8</v>
-      </c>
       <c r="AI23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK23" t="s">
         <v>34</v>
       </c>
-      <c r="AJ23" s="10">
+      <c r="AL23" s="10">
         <v>125</v>
       </c>
-      <c r="AK23">
+      <c r="AM23">
         <v>1169</v>
       </c>
-      <c r="AL23">
+      <c r="AN23">
         <v>414</v>
       </c>
-      <c r="AM23" s="1">
+      <c r="AO23" s="1">
         <v>80</v>
       </c>
-      <c r="AN23">
+      <c r="AP23">
         <v>400</v>
       </c>
-      <c r="AO23">
+      <c r="AQ23">
         <v>160</v>
       </c>
-      <c r="AP23" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ23" s="1">
+      <c r="AR23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS23" s="1">
         <v>16</v>
       </c>
-      <c r="AR23">
+      <c r="AT23">
         <v>384</v>
       </c>
-      <c r="AS23">
+      <c r="AU23">
         <v>120</v>
       </c>
-      <c r="AT23" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU23" s="10" t="s">
+      <c r="AV23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW23" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AV23" t="s">
+      <c r="AX23" t="s">
         <v>73</v>
       </c>
-      <c r="AW23">
-        <v>0</v>
-      </c>
-      <c r="AX23" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY23" t="s">
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -4905,11 +5064,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="V24">
+      <c r="V24" t="s">
+        <v>8</v>
+      </c>
+      <c r="W24">
         <v>3</v>
-      </c>
-      <c r="W24">
-        <v>1</v>
       </c>
       <c r="X24">
         <v>16</v>
@@ -4918,85 +5077,91 @@
         <v>100</v>
       </c>
       <c r="Z24">
-        <v>8</v>
-      </c>
-      <c r="AA24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>8</v>
+      </c>
+      <c r="AB24" t="s">
         <v>102</v>
       </c>
-      <c r="AB24" s="10">
+      <c r="AC24" s="10">
         <v>14443</v>
       </c>
-      <c r="AC24" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>8</v>
+      <c r="AD24" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="AE24" t="s">
         <v>8</v>
       </c>
-      <c r="AF24" s="1">
+      <c r="AF24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH24" s="1">
         <v>32768</v>
       </c>
-      <c r="AG24" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>8</v>
-      </c>
       <c r="AI24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK24" t="s">
         <v>34</v>
       </c>
-      <c r="AJ24" s="10">
+      <c r="AL24" s="10">
         <v>125</v>
       </c>
-      <c r="AK24">
+      <c r="AM24">
         <v>1169</v>
       </c>
-      <c r="AL24">
+      <c r="AN24">
         <v>414</v>
       </c>
-      <c r="AM24" s="1">
+      <c r="AO24" s="1">
         <v>96</v>
       </c>
-      <c r="AN24">
+      <c r="AP24">
         <v>400</v>
       </c>
-      <c r="AO24">
+      <c r="AQ24">
         <v>160</v>
       </c>
-      <c r="AP24" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ24" s="1">
-        <v>8</v>
-      </c>
-      <c r="AR24">
+      <c r="AR24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS24" s="1">
+        <v>8</v>
+      </c>
+      <c r="AT24">
         <v>384</v>
       </c>
-      <c r="AS24">
+      <c r="AU24">
         <v>120</v>
       </c>
-      <c r="AT24" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU24" s="10" t="s">
+      <c r="AV24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW24" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AV24" t="s">
+      <c r="AX24" t="s">
         <v>73</v>
       </c>
-      <c r="AW24">
-        <v>0</v>
-      </c>
-      <c r="AX24" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY24" t="s">
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -5078,80 +5243,86 @@
       <c r="AA25" t="s">
         <v>8</v>
       </c>
-      <c r="AB25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>8</v>
+      <c r="AB25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD25" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="AE25" t="s">
         <v>8</v>
       </c>
-      <c r="AF25" s="1" t="s">
+      <c r="AF25" t="s">
         <v>8</v>
       </c>
       <c r="AG25" t="s">
         <v>8</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="AH25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AI25" t="s">
         <v>8</v>
       </c>
-      <c r="AJ25" s="10" t="s">
+      <c r="AJ25" t="s">
         <v>8</v>
       </c>
       <c r="AK25" t="s">
         <v>8</v>
       </c>
-      <c r="AL25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM25" s="1" t="s">
+      <c r="AL25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM25" t="s">
         <v>8</v>
       </c>
       <c r="AN25" t="s">
         <v>8</v>
       </c>
-      <c r="AO25" t="s">
+      <c r="AO25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AP25" t="s">
         <v>8</v>
       </c>
-      <c r="AQ25" s="1" t="s">
+      <c r="AQ25" t="s">
         <v>8</v>
       </c>
       <c r="AR25" t="s">
         <v>8</v>
       </c>
-      <c r="AS25" t="s">
+      <c r="AS25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AT25" t="s">
         <v>8</v>
       </c>
-      <c r="AU25" s="10" t="s">
+      <c r="AU25" t="s">
         <v>8</v>
       </c>
       <c r="AV25" t="s">
         <v>8</v>
       </c>
-      <c r="AW25">
-        <v>0</v>
+      <c r="AW25" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="AX25" t="s">
         <v>8</v>
       </c>
-      <c r="AY25" t="s">
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>105</v>
       </c>
@@ -5233,80 +5404,86 @@
       <c r="AA26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AB26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC26" s="7" t="s">
+      <c r="AB26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC26" s="11" t="s">
         <v>8</v>
       </c>
       <c r="AD26" s="7" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="AE26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AF26" s="8" t="s">
+      <c r="AF26" s="7" t="s">
         <v>8</v>
       </c>
       <c r="AG26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AH26" s="7" t="s">
+      <c r="AH26" s="8" t="s">
         <v>8</v>
       </c>
       <c r="AI26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AJ26" s="11" t="s">
+      <c r="AJ26" s="7" t="s">
         <v>8</v>
       </c>
       <c r="AK26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AL26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM26" s="8" t="s">
+      <c r="AL26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM26" s="7" t="s">
         <v>8</v>
       </c>
       <c r="AN26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AO26" s="7" t="s">
+      <c r="AO26" s="8" t="s">
         <v>8</v>
       </c>
       <c r="AP26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AQ26" s="8" t="s">
+      <c r="AQ26" s="7" t="s">
         <v>8</v>
       </c>
       <c r="AR26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AS26" s="7" t="s">
+      <c r="AS26" s="8" t="s">
         <v>8</v>
       </c>
       <c r="AT26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AU26" s="11" t="s">
+      <c r="AU26" s="7" t="s">
         <v>8</v>
       </c>
       <c r="AV26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AW26" s="7">
-        <v>0</v>
+      <c r="AW26" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="AX26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AY26" s="7" t="s">
+      <c r="AY26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA26" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -5371,11 +5548,11 @@
         <f t="shared" ref="U27:U34" si="1" xml:space="preserve"> S27 + T27</f>
         <v>5</v>
       </c>
-      <c r="V27">
+      <c r="V27" t="s">
+        <v>8</v>
+      </c>
+      <c r="W27">
         <v>3</v>
-      </c>
-      <c r="W27">
-        <v>1</v>
       </c>
       <c r="X27">
         <v>16</v>
@@ -5384,89 +5561,95 @@
         <v>100</v>
       </c>
       <c r="Z27">
-        <v>8</v>
-      </c>
-      <c r="AA27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA27">
+        <v>8</v>
+      </c>
+      <c r="AB27" t="s">
         <v>102</v>
       </c>
-      <c r="AB27" s="10" t="s">
+      <c r="AC27" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="AC27" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE27">
-        <f t="shared" ref="AE27" si="2" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM27*AN27*AO27)</f>
+      <c r="AD27" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" ref="AG27" si="2" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO27*AP27*AQ27)</f>
         <v>83027.753778838392</v>
       </c>
-      <c r="AF27" s="1">
+      <c r="AH27" s="1">
         <v>81920</v>
       </c>
-      <c r="AG27">
+      <c r="AI27">
         <v>81049.600000000006</v>
       </c>
-      <c r="AH27">
+      <c r="AJ27">
         <v>79.150000000000006</v>
       </c>
-      <c r="AI27" t="s">
+      <c r="AK27" t="s">
         <v>111</v>
       </c>
-      <c r="AJ27" s="10">
+      <c r="AL27" s="10">
         <v>125</v>
       </c>
-      <c r="AK27">
+      <c r="AM27">
         <v>1169</v>
       </c>
-      <c r="AL27">
+      <c r="AN27">
         <v>414</v>
       </c>
-      <c r="AM27" s="1">
+      <c r="AO27" s="1">
         <v>112</v>
       </c>
-      <c r="AN27">
+      <c r="AP27">
         <v>864</v>
       </c>
-      <c r="AO27">
+      <c r="AQ27">
         <v>400</v>
       </c>
-      <c r="AP27" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ27" s="1">
-        <f t="shared" ref="AQ27:AQ34" si="3" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ27 - AM27) / 2)</f>
+      <c r="AR27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS27" s="1">
+        <f t="shared" ref="AS27:AS34" si="3" xml:space="preserve"> _xlfn.FLOOR.MATH((AL27 - AO27) / 2)</f>
         <v>6</v>
       </c>
-      <c r="AR27">
-        <f t="shared" ref="AR27" si="4" xml:space="preserve"> _xlfn.FLOOR.MATH((AK27 - AN27) / 2)</f>
+      <c r="AT27">
+        <f t="shared" ref="AT27" si="4" xml:space="preserve"> _xlfn.FLOOR.MATH((AM27 - AP27) / 2)</f>
         <v>152</v>
       </c>
-      <c r="AS27">
-        <f t="shared" ref="AS27" si="5" xml:space="preserve"> _xlfn.FLOOR.MATH((AL27 - AO27) / 2)</f>
+      <c r="AU27">
+        <f t="shared" ref="AU27" si="5" xml:space="preserve"> _xlfn.FLOOR.MATH((AN27 - AQ27) / 2)</f>
         <v>7</v>
       </c>
-      <c r="AT27" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU27" s="10" t="s">
+      <c r="AV27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW27" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AV27" t="s">
+      <c r="AX27" t="s">
         <v>176</v>
       </c>
-      <c r="AW27">
-        <v>0</v>
-      </c>
-      <c r="AX27" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY27" t="s">
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>110</v>
       </c>
@@ -5531,11 +5714,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="V28">
+      <c r="V28" t="s">
+        <v>8</v>
+      </c>
+      <c r="W28">
         <v>3</v>
-      </c>
-      <c r="W28">
-        <v>1</v>
       </c>
       <c r="X28">
         <v>16</v>
@@ -5544,90 +5727,96 @@
         <v>100</v>
       </c>
       <c r="Z28">
-        <v>8</v>
-      </c>
-      <c r="AA28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <v>8</v>
+      </c>
+      <c r="AB28" t="s">
         <v>102</v>
       </c>
-      <c r="AB28" s="10" t="s">
+      <c r="AC28" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="AC28">
+      <c r="AD28" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE28">
         <v>82032.639999999999</v>
       </c>
-      <c r="AD28">
+      <c r="AF28">
         <f xml:space="preserve"> 75.58 + 4.53</f>
         <v>80.11</v>
       </c>
-      <c r="AE28">
-        <f t="shared" ref="AE28:AE33" si="6" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM28*AN28*AO28)</f>
+      <c r="AG28">
+        <f t="shared" ref="AG28:AG33" si="6" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO28*AP28*AQ28)</f>
         <v>81518.129922434266</v>
       </c>
-      <c r="AF28" s="1">
+      <c r="AH28" s="1">
         <v>81920</v>
       </c>
-      <c r="AG28">
+      <c r="AI28">
         <v>81049.600000000006</v>
       </c>
-      <c r="AH28">
+      <c r="AJ28">
         <v>79.150000000000006</v>
       </c>
-      <c r="AI28" t="s">
+      <c r="AK28" t="s">
         <v>111</v>
       </c>
-      <c r="AJ28" s="10">
+      <c r="AL28" s="10">
         <v>125</v>
       </c>
-      <c r="AK28">
+      <c r="AM28">
         <v>1169</v>
       </c>
-      <c r="AL28">
+      <c r="AN28">
         <v>414</v>
       </c>
-      <c r="AM28" s="1">
+      <c r="AO28" s="1">
         <v>112</v>
       </c>
-      <c r="AN28">
+      <c r="AP28">
         <v>848</v>
       </c>
-      <c r="AO28">
+      <c r="AQ28">
         <v>400</v>
       </c>
-      <c r="AP28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ28" s="1">
+      <c r="AR28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS28" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AR28">
-        <f t="shared" ref="AR28" si="7" xml:space="preserve"> _xlfn.FLOOR.MATH((AK28 - AN28) / 2)</f>
+      <c r="AT28">
+        <f t="shared" ref="AT28" si="7" xml:space="preserve"> _xlfn.FLOOR.MATH((AM28 - AP28) / 2)</f>
         <v>160</v>
       </c>
-      <c r="AS28">
-        <f t="shared" ref="AS28" si="8" xml:space="preserve"> _xlfn.FLOOR.MATH((AL28 - AO28) / 2)</f>
+      <c r="AU28">
+        <f t="shared" ref="AU28" si="8" xml:space="preserve"> _xlfn.FLOOR.MATH((AN28 - AQ28) / 2)</f>
         <v>7</v>
       </c>
-      <c r="AT28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU28" s="10" t="s">
+      <c r="AV28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW28" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AV28" t="s">
+      <c r="AX28" t="s">
         <v>176</v>
       </c>
-      <c r="AW28">
-        <v>1</v>
-      </c>
-      <c r="AX28" t="s">
+      <c r="AY28">
+        <v>1</v>
+      </c>
+      <c r="AZ28" t="s">
         <v>115</v>
       </c>
-      <c r="AY28" t="s">
+      <c r="BA28" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -5692,11 +5881,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="V29">
+      <c r="V29" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29">
         <v>3</v>
-      </c>
-      <c r="W29">
-        <v>1</v>
       </c>
       <c r="X29">
         <v>16</v>
@@ -5705,89 +5894,95 @@
         <v>100</v>
       </c>
       <c r="Z29">
-        <v>8</v>
-      </c>
-      <c r="AA29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>8</v>
+      </c>
+      <c r="AB29" t="s">
         <v>102</v>
       </c>
-      <c r="AB29" s="10">
+      <c r="AC29" s="10">
         <v>77887</v>
       </c>
-      <c r="AC29" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE29">
+      <c r="AD29" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG29">
         <f t="shared" si="6"/>
         <v>76989.258353221856</v>
       </c>
-      <c r="AF29" s="1">
+      <c r="AH29" s="1">
         <v>81920</v>
       </c>
-      <c r="AG29">
+      <c r="AI29">
         <v>81049.600000000006</v>
       </c>
-      <c r="AH29">
+      <c r="AJ29">
         <v>79.150000000000006</v>
       </c>
-      <c r="AI29" t="s">
+      <c r="AK29" t="s">
         <v>111</v>
       </c>
-      <c r="AJ29" s="10">
+      <c r="AL29" s="10">
         <v>125</v>
       </c>
-      <c r="AK29">
+      <c r="AM29">
         <v>1169</v>
       </c>
-      <c r="AL29">
+      <c r="AN29">
         <v>414</v>
       </c>
-      <c r="AM29" s="1">
+      <c r="AO29" s="1">
         <v>112</v>
       </c>
-      <c r="AN29">
+      <c r="AP29">
         <v>800</v>
       </c>
-      <c r="AO29">
+      <c r="AQ29">
         <v>400</v>
       </c>
-      <c r="AP29" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ29" s="1">
+      <c r="AR29" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS29" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AR29">
-        <f t="shared" ref="AR29" si="9" xml:space="preserve"> _xlfn.FLOOR.MATH((AK29 - AN29) / 2)</f>
+      <c r="AT29">
+        <f t="shared" ref="AT29" si="9" xml:space="preserve"> _xlfn.FLOOR.MATH((AM29 - AP29) / 2)</f>
         <v>184</v>
       </c>
-      <c r="AS29">
-        <f t="shared" ref="AS29" si="10" xml:space="preserve"> _xlfn.FLOOR.MATH((AL29 - AO29) / 2)</f>
+      <c r="AU29">
+        <f t="shared" ref="AU29" si="10" xml:space="preserve"> _xlfn.FLOOR.MATH((AN29 - AQ29) / 2)</f>
         <v>7</v>
       </c>
-      <c r="AT29" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU29" s="10" t="s">
+      <c r="AV29" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW29" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AV29" t="s">
+      <c r="AX29" t="s">
         <v>176</v>
       </c>
-      <c r="AW29">
-        <v>0</v>
-      </c>
-      <c r="AX29" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY29" t="s">
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>157</v>
       </c>
@@ -5852,11 +6047,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="V30">
+      <c r="V30" t="s">
+        <v>8</v>
+      </c>
+      <c r="W30">
         <v>3</v>
-      </c>
-      <c r="W30">
-        <v>1</v>
       </c>
       <c r="X30">
         <v>16</v>
@@ -5865,89 +6060,95 @@
         <v>100</v>
       </c>
       <c r="Z30">
-        <v>8</v>
-      </c>
-      <c r="AA30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <v>8</v>
+      </c>
+      <c r="AB30" t="s">
         <v>102</v>
       </c>
-      <c r="AB30" s="10">
+      <c r="AC30" s="10">
         <v>77885</v>
       </c>
-      <c r="AC30" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE30">
+      <c r="AD30" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG30">
         <f t="shared" si="6"/>
         <v>76989.258353221856</v>
       </c>
-      <c r="AF30" s="1">
+      <c r="AH30" s="1">
         <v>81920</v>
       </c>
-      <c r="AG30">
+      <c r="AI30">
         <v>81049.600000000006</v>
       </c>
-      <c r="AH30">
+      <c r="AJ30">
         <v>79.150000000000006</v>
       </c>
-      <c r="AI30" s="15" t="s">
+      <c r="AK30" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="AJ30" s="10">
+      <c r="AL30" s="10">
         <v>125</v>
       </c>
-      <c r="AK30">
+      <c r="AM30">
         <v>1169</v>
       </c>
-      <c r="AL30">
+      <c r="AN30">
         <v>414</v>
       </c>
-      <c r="AM30" s="1">
+      <c r="AO30" s="1">
         <v>112</v>
       </c>
-      <c r="AN30">
+      <c r="AP30">
         <v>800</v>
       </c>
-      <c r="AO30">
+      <c r="AQ30">
         <v>400</v>
       </c>
-      <c r="AP30" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ30" s="1">
+      <c r="AR30" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS30" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AR30">
-        <f t="shared" ref="AR30:AR34" si="11" xml:space="preserve"> _xlfn.FLOOR.MATH((AK30 - AN30) / 2)</f>
+      <c r="AT30">
+        <f t="shared" ref="AT30:AT34" si="11" xml:space="preserve"> _xlfn.FLOOR.MATH((AM30 - AP30) / 2)</f>
         <v>184</v>
       </c>
-      <c r="AS30">
-        <f t="shared" ref="AS30:AS34" si="12" xml:space="preserve"> _xlfn.FLOOR.MATH((AL30 - AO30) / 2)</f>
+      <c r="AU30">
+        <f t="shared" ref="AU30:AU34" si="12" xml:space="preserve"> _xlfn.FLOOR.MATH((AN30 - AQ30) / 2)</f>
         <v>7</v>
       </c>
-      <c r="AT30" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU30" s="10" t="s">
+      <c r="AV30" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW30" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AV30" t="s">
+      <c r="AX30" t="s">
         <v>176</v>
       </c>
-      <c r="AW30">
-        <v>0</v>
-      </c>
-      <c r="AX30" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY30" t="s">
+      <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>161</v>
       </c>
@@ -6012,11 +6213,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="V31">
+      <c r="V31" t="s">
+        <v>8</v>
+      </c>
+      <c r="W31">
         <v>3</v>
-      </c>
-      <c r="W31">
-        <v>1</v>
       </c>
       <c r="X31">
         <v>16</v>
@@ -6025,89 +6226,95 @@
         <v>100</v>
       </c>
       <c r="Z31">
-        <v>8</v>
-      </c>
-      <c r="AA31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA31">
+        <v>8</v>
+      </c>
+      <c r="AB31" t="s">
         <v>102</v>
       </c>
-      <c r="AB31" s="10">
+      <c r="AC31" s="10">
         <v>78017</v>
       </c>
-      <c r="AC31" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE31">
+      <c r="AD31" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG31">
         <f t="shared" si="6"/>
         <v>76989.258353221856</v>
       </c>
-      <c r="AF31" s="1">
+      <c r="AH31" s="1">
         <v>81920</v>
       </c>
-      <c r="AG31">
+      <c r="AI31">
         <v>81049.600000000006</v>
       </c>
-      <c r="AH31">
+      <c r="AJ31">
         <v>79.150000000000006</v>
       </c>
-      <c r="AI31" t="s">
+      <c r="AK31" t="s">
         <v>111</v>
       </c>
-      <c r="AJ31" s="10">
+      <c r="AL31" s="10">
         <v>125</v>
       </c>
-      <c r="AK31">
+      <c r="AM31">
         <v>1169</v>
       </c>
-      <c r="AL31">
+      <c r="AN31">
         <v>414</v>
       </c>
-      <c r="AM31" s="1">
+      <c r="AO31" s="1">
         <v>112</v>
       </c>
-      <c r="AN31">
+      <c r="AP31">
         <v>800</v>
       </c>
-      <c r="AO31">
+      <c r="AQ31">
         <v>400</v>
       </c>
-      <c r="AP31" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ31" s="1">
+      <c r="AR31" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS31" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AR31">
+      <c r="AT31">
         <f t="shared" si="11"/>
         <v>184</v>
       </c>
-      <c r="AS31">
+      <c r="AU31">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="AT31" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU31" s="10" t="s">
+      <c r="AV31" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW31" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AV31" t="s">
+      <c r="AX31" t="s">
         <v>176</v>
       </c>
-      <c r="AW31">
-        <v>0</v>
-      </c>
-      <c r="AX31" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY31" t="s">
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>168</v>
       </c>
@@ -6172,11 +6379,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="V32">
+      <c r="V32" t="s">
+        <v>8</v>
+      </c>
+      <c r="W32">
         <v>3</v>
-      </c>
-      <c r="W32">
-        <v>1</v>
       </c>
       <c r="X32">
         <v>16</v>
@@ -6185,104 +6392,110 @@
         <v>100</v>
       </c>
       <c r="Z32">
-        <v>8</v>
-      </c>
-      <c r="AA32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <v>8</v>
+      </c>
+      <c r="AB32" t="s">
         <v>102</v>
       </c>
-      <c r="AB32" s="10" t="s">
+      <c r="AC32" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="AC32" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE32">
+      <c r="AD32" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG32">
         <f t="shared" si="6"/>
         <v>76989.258353221856</v>
       </c>
-      <c r="AF32" s="1">
+      <c r="AH32" s="1">
         <v>81920</v>
       </c>
-      <c r="AG32">
+      <c r="AI32">
         <v>81049.600000000006</v>
       </c>
-      <c r="AH32">
+      <c r="AJ32">
         <v>79.150000000000006</v>
       </c>
-      <c r="AI32" t="s">
+      <c r="AK32" t="s">
         <v>111</v>
       </c>
-      <c r="AJ32" s="10">
+      <c r="AL32" s="10">
         <v>125</v>
       </c>
-      <c r="AK32">
+      <c r="AM32">
         <v>1169</v>
       </c>
-      <c r="AL32">
+      <c r="AN32">
         <v>414</v>
       </c>
-      <c r="AM32" s="1">
+      <c r="AO32" s="1">
         <v>112</v>
       </c>
-      <c r="AN32">
+      <c r="AP32">
         <v>800</v>
       </c>
-      <c r="AO32">
+      <c r="AQ32">
         <v>400</v>
       </c>
-      <c r="AP32" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ32" s="1">
+      <c r="AR32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS32" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AR32">
+      <c r="AT32">
         <f t="shared" si="11"/>
         <v>184</v>
       </c>
-      <c r="AS32">
+      <c r="AU32">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="AT32" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU32" s="10" t="s">
+      <c r="AV32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW32" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AV32" t="s">
+      <c r="AX32" t="s">
         <v>176</v>
       </c>
-      <c r="AW32">
-        <v>0</v>
-      </c>
-      <c r="AX32" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY32" t="s">
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s">
         <v>132</v>
       </c>
       <c r="C33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" t="s">
         <v>185</v>
       </c>
-      <c r="D33" t="s">
-        <v>186</v>
-      </c>
-      <c r="E33" t="s">
-        <v>187</v>
-      </c>
       <c r="F33" s="10">
         <v>0</v>
       </c>
@@ -6290,7 +6503,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -6332,11 +6545,11 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="V33">
-        <v>1</v>
+      <c r="V33" t="s">
+        <v>8</v>
       </c>
       <c r="W33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X33">
         <v>16</v>
@@ -6345,91 +6558,97 @@
         <v>100</v>
       </c>
       <c r="Z33">
-        <v>8</v>
-      </c>
-      <c r="AA33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <v>8</v>
+      </c>
+      <c r="AB33" t="s">
         <v>102</v>
       </c>
-      <c r="AB33" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE33">
+      <c r="AC33" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD33" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG33">
         <f t="shared" si="6"/>
         <v>76989.258353221856</v>
       </c>
-      <c r="AF33" s="1">
+      <c r="AH33" s="1">
         <v>81920</v>
       </c>
-      <c r="AG33">
+      <c r="AI33">
         <v>81049.600000000006</v>
       </c>
-      <c r="AH33">
+      <c r="AJ33">
         <v>79.150000000000006</v>
       </c>
-      <c r="AI33" t="s">
+      <c r="AK33" t="s">
         <v>111</v>
       </c>
-      <c r="AJ33" s="10">
+      <c r="AL33" s="10">
         <v>125</v>
       </c>
-      <c r="AK33">
+      <c r="AM33">
         <v>1169</v>
       </c>
-      <c r="AL33">
+      <c r="AN33">
         <v>414</v>
       </c>
-      <c r="AM33" s="1">
+      <c r="AO33" s="1">
         <v>112</v>
       </c>
-      <c r="AN33">
+      <c r="AP33">
         <v>800</v>
       </c>
-      <c r="AO33">
+      <c r="AQ33">
         <v>400</v>
       </c>
-      <c r="AP33" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ33" s="1">
+      <c r="AR33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS33" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AR33">
+      <c r="AT33">
         <f t="shared" si="11"/>
         <v>184</v>
       </c>
-      <c r="AS33">
+      <c r="AU33">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="AT33" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU33" s="10" t="s">
+      <c r="AV33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW33" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AV33" t="s">
+      <c r="AX33" t="s">
         <v>176</v>
       </c>
-      <c r="AW33">
-        <v>1</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>189</v>
-      </c>
-      <c r="AY33" t="s">
+      <c r="AY33">
+        <v>1</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BA33" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B34" t="s">
         <v>132</v>
@@ -6441,7 +6660,7 @@
         <v>180</v>
       </c>
       <c r="E34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F34" s="10">
         <v>0</v>
@@ -6456,7 +6675,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K34" t="s">
         <v>8</v>
@@ -6492,11 +6711,11 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="V34">
-        <v>1</v>
+      <c r="V34" t="s">
+        <v>8</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X34">
         <v>16</v>
@@ -6505,112 +6724,118 @@
         <v>100</v>
       </c>
       <c r="Z34">
-        <v>8</v>
-      </c>
-      <c r="AA34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <v>8</v>
+      </c>
+      <c r="AB34" t="s">
         <v>102</v>
       </c>
-      <c r="AB34" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE34">
-        <f t="shared" ref="AE34:AE44" si="13" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM34*AN34*AO34) / 5 * U34</f>
+      <c r="AC34" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD34" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG34">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO34*AP34*AQ34) / 5 * U34</f>
         <v>74549.706201272784</v>
       </c>
-      <c r="AF34" s="1">
+      <c r="AH34" s="1">
         <v>81920</v>
       </c>
-      <c r="AG34">
+      <c r="AI34">
         <v>81049.600000000006</v>
       </c>
-      <c r="AH34">
+      <c r="AJ34">
         <v>79.150000000000006</v>
       </c>
-      <c r="AI34" t="s">
+      <c r="AK34" t="s">
         <v>111</v>
       </c>
-      <c r="AJ34" s="10">
+      <c r="AL34" s="10">
         <v>125</v>
       </c>
-      <c r="AK34">
+      <c r="AM34">
         <v>1169</v>
       </c>
-      <c r="AL34">
+      <c r="AN34">
         <v>414</v>
       </c>
-      <c r="AM34" s="1">
+      <c r="AO34" s="1">
         <v>96</v>
       </c>
-      <c r="AN34">
+      <c r="AP34">
         <v>784</v>
       </c>
-      <c r="AO34">
+      <c r="AQ34">
         <v>384</v>
       </c>
-      <c r="AP34" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ34" s="1">
+      <c r="AR34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS34" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="AR34">
+      <c r="AT34">
         <f t="shared" si="11"/>
         <v>192</v>
       </c>
-      <c r="AS34">
+      <c r="AU34">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
-      <c r="AT34" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU34" s="10" t="s">
+      <c r="AV34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW34" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AV34" t="s">
+      <c r="AX34" t="s">
         <v>176</v>
       </c>
-      <c r="AW34">
-        <v>1</v>
-      </c>
-      <c r="AX34" t="s">
+      <c r="AY34">
+        <v>1</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>192</v>
-      </c>
-      <c r="AY34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>194</v>
       </c>
       <c r="B35" t="s">
         <v>132</v>
       </c>
       <c r="C35" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D35" t="s">
         <v>180</v>
       </c>
       <c r="E35" t="s">
+        <v>194</v>
+      </c>
+      <c r="F35" s="10">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
         <v>196</v>
-      </c>
-      <c r="F35" s="10">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35" t="s">
-        <v>198</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -6649,14 +6874,14 @@
         <v>1</v>
       </c>
       <c r="U35">
-        <f t="shared" ref="U35" si="14" xml:space="preserve"> S35 + T35</f>
+        <f t="shared" ref="U35" si="13" xml:space="preserve"> S35 + T35</f>
         <v>6</v>
       </c>
-      <c r="V35">
-        <v>1</v>
+      <c r="V35" t="s">
+        <v>8</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X35">
         <v>16</v>
@@ -6665,103 +6890,109 @@
         <v>100</v>
       </c>
       <c r="Z35">
-        <v>8</v>
-      </c>
-      <c r="AA35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA35">
+        <v>8</v>
+      </c>
+      <c r="AB35" t="s">
         <v>102</v>
       </c>
-      <c r="AB35" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE35">
-        <f t="shared" si="13"/>
+      <c r="AC35" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD35" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG35">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO35*AP35*AQ35) / 5 * U35</f>
         <v>76071.407048528155</v>
       </c>
-      <c r="AF35" s="1">
+      <c r="AH35" s="1">
         <v>81920</v>
       </c>
-      <c r="AG35">
+      <c r="AI35">
         <v>81049.600000000006</v>
       </c>
-      <c r="AH35">
+      <c r="AJ35">
         <v>79.150000000000006</v>
       </c>
-      <c r="AI35" t="s">
+      <c r="AK35" t="s">
         <v>111</v>
       </c>
-      <c r="AJ35" s="10">
+      <c r="AL35" s="10">
         <v>125</v>
       </c>
-      <c r="AK35">
+      <c r="AM35">
         <v>1169</v>
       </c>
-      <c r="AL35">
+      <c r="AN35">
         <v>414</v>
       </c>
-      <c r="AM35" s="1">
+      <c r="AO35" s="1">
         <v>98</v>
       </c>
-      <c r="AN35">
+      <c r="AP35">
         <v>784</v>
       </c>
-      <c r="AO35">
+      <c r="AQ35">
         <v>384</v>
       </c>
-      <c r="AP35" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ35" s="1">
-        <f t="shared" ref="AQ35" si="15" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ35 - AM35) / 2)</f>
+      <c r="AR35" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS35" s="1">
+        <f t="shared" ref="AS35" si="14" xml:space="preserve"> _xlfn.FLOOR.MATH((AL35 - AO35) / 2)</f>
         <v>13</v>
       </c>
-      <c r="AR35">
-        <f t="shared" ref="AR35" si="16" xml:space="preserve"> _xlfn.FLOOR.MATH((AK35 - AN35) / 2)</f>
+      <c r="AT35">
+        <f t="shared" ref="AT35" si="15" xml:space="preserve"> _xlfn.FLOOR.MATH((AM35 - AP35) / 2)</f>
         <v>192</v>
       </c>
-      <c r="AS35">
-        <f t="shared" ref="AS35" si="17" xml:space="preserve"> _xlfn.FLOOR.MATH((AL35 - AO35) / 2)</f>
+      <c r="AU35">
+        <f t="shared" ref="AU35" si="16" xml:space="preserve"> _xlfn.FLOOR.MATH((AN35 - AQ35) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AT35" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU35" s="10" t="s">
+      <c r="AV35" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW35" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AV35" t="s">
+      <c r="AX35" t="s">
         <v>176</v>
       </c>
-      <c r="AW35">
-        <v>1</v>
-      </c>
-      <c r="AX35" t="s">
-        <v>200</v>
-      </c>
-      <c r="AY35" t="s">
+      <c r="AY35">
+        <v>1</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>198</v>
+      </c>
+      <c r="BA35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B36" t="s">
         <v>132</v>
       </c>
       <c r="C36" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D36" t="s">
         <v>180</v>
       </c>
       <c r="E36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F36" s="10">
         <v>0</v>
@@ -6770,7 +7001,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -6809,14 +7040,14 @@
         <v>1</v>
       </c>
       <c r="U36">
-        <f t="shared" ref="U36" si="18" xml:space="preserve"> S36 + T36</f>
+        <f t="shared" ref="U36" si="17" xml:space="preserve"> S36 + T36</f>
         <v>6</v>
       </c>
-      <c r="V36">
-        <v>1</v>
+      <c r="V36" t="s">
+        <v>8</v>
       </c>
       <c r="W36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X36">
         <v>16</v>
@@ -6825,103 +7056,109 @@
         <v>100</v>
       </c>
       <c r="Z36">
-        <v>8</v>
-      </c>
-      <c r="AA36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA36">
+        <v>8</v>
+      </c>
+      <c r="AB36" t="s">
         <v>102</v>
       </c>
-      <c r="AB36" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE36">
-        <f t="shared" si="13"/>
+      <c r="AC36" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD36" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG36">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO36*AP36*AQ36) / 5 * U36</f>
         <v>76071.407048528155</v>
       </c>
-      <c r="AF36" s="1">
+      <c r="AH36" s="1">
         <v>81920</v>
       </c>
-      <c r="AG36">
+      <c r="AI36">
         <v>81049.600000000006</v>
       </c>
-      <c r="AH36">
+      <c r="AJ36">
         <v>79.150000000000006</v>
       </c>
-      <c r="AI36" t="s">
+      <c r="AK36" t="s">
         <v>111</v>
       </c>
-      <c r="AJ36" s="10">
+      <c r="AL36" s="10">
         <v>125</v>
       </c>
-      <c r="AK36">
+      <c r="AM36">
         <v>1169</v>
       </c>
-      <c r="AL36">
+      <c r="AN36">
         <v>414</v>
       </c>
-      <c r="AM36" s="1">
+      <c r="AO36" s="1">
         <v>98</v>
       </c>
-      <c r="AN36">
+      <c r="AP36">
         <v>784</v>
       </c>
-      <c r="AO36">
+      <c r="AQ36">
         <v>384</v>
       </c>
-      <c r="AP36" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ36" s="1">
-        <f t="shared" ref="AQ36" si="19" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ36 - AM36) / 2)</f>
+      <c r="AR36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS36" s="1">
+        <f t="shared" ref="AS36" si="18" xml:space="preserve"> _xlfn.FLOOR.MATH((AL36 - AO36) / 2)</f>
         <v>13</v>
       </c>
-      <c r="AR36">
-        <f t="shared" ref="AR36" si="20" xml:space="preserve"> _xlfn.FLOOR.MATH((AK36 - AN36) / 2)</f>
+      <c r="AT36">
+        <f t="shared" ref="AT36" si="19" xml:space="preserve"> _xlfn.FLOOR.MATH((AM36 - AP36) / 2)</f>
         <v>192</v>
       </c>
-      <c r="AS36">
-        <f t="shared" ref="AS36" si="21" xml:space="preserve"> _xlfn.FLOOR.MATH((AL36 - AO36) / 2)</f>
+      <c r="AU36">
+        <f t="shared" ref="AU36" si="20" xml:space="preserve"> _xlfn.FLOOR.MATH((AN36 - AQ36) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AT36" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU36" s="10" t="s">
+      <c r="AV36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW36" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AV36" t="s">
+      <c r="AX36" t="s">
         <v>176</v>
       </c>
-      <c r="AW36">
-        <v>1</v>
-      </c>
-      <c r="AX36" t="s">
-        <v>205</v>
-      </c>
-      <c r="AY36" t="s">
+      <c r="AY36">
+        <v>1</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA36" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B37" t="s">
         <v>132</v>
       </c>
       <c r="C37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D37" t="s">
         <v>180</v>
       </c>
       <c r="E37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F37" s="10">
         <v>0</v>
@@ -6930,7 +7167,7 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -6969,14 +7206,14 @@
         <v>1</v>
       </c>
       <c r="U37">
-        <f t="shared" ref="U37" si="22" xml:space="preserve"> S37 + T37</f>
+        <f t="shared" ref="U37" si="21" xml:space="preserve"> S37 + T37</f>
         <v>6</v>
       </c>
-      <c r="V37">
-        <v>1</v>
+      <c r="V37" t="s">
+        <v>8</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X37">
         <v>16</v>
@@ -6985,103 +7222,109 @@
         <v>100</v>
       </c>
       <c r="Z37">
-        <v>8</v>
-      </c>
-      <c r="AA37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA37">
+        <v>8</v>
+      </c>
+      <c r="AB37" t="s">
         <v>102</v>
       </c>
-      <c r="AB37" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE37">
-        <f t="shared" si="13"/>
+      <c r="AC37" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD37" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG37">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO37*AP37*AQ37) / 5 * U37</f>
         <v>74549.706201272784</v>
       </c>
-      <c r="AF37" s="1">
+      <c r="AH37" s="1">
         <v>81920</v>
       </c>
-      <c r="AG37">
+      <c r="AI37">
         <v>81049.600000000006</v>
       </c>
-      <c r="AH37">
+      <c r="AJ37">
         <v>79.150000000000006</v>
       </c>
-      <c r="AI37" t="s">
+      <c r="AK37" t="s">
         <v>111</v>
       </c>
-      <c r="AJ37" s="10">
+      <c r="AL37" s="10">
         <v>125</v>
       </c>
-      <c r="AK37">
+      <c r="AM37">
         <v>1169</v>
       </c>
-      <c r="AL37">
+      <c r="AN37">
         <v>414</v>
       </c>
-      <c r="AM37" s="1">
+      <c r="AO37" s="1">
         <v>96</v>
       </c>
-      <c r="AN37">
+      <c r="AP37">
         <v>784</v>
       </c>
-      <c r="AO37">
+      <c r="AQ37">
         <v>384</v>
       </c>
-      <c r="AP37" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ37" s="1">
-        <f t="shared" ref="AQ37" si="23" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ37 - AM37) / 2)</f>
+      <c r="AR37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS37" s="1">
+        <f t="shared" ref="AS37" si="22" xml:space="preserve"> _xlfn.FLOOR.MATH((AL37 - AO37) / 2)</f>
         <v>14</v>
       </c>
-      <c r="AR37">
-        <f t="shared" ref="AR37" si="24" xml:space="preserve"> _xlfn.FLOOR.MATH((AK37 - AN37) / 2)</f>
+      <c r="AT37">
+        <f t="shared" ref="AT37" si="23" xml:space="preserve"> _xlfn.FLOOR.MATH((AM37 - AP37) / 2)</f>
         <v>192</v>
       </c>
-      <c r="AS37">
-        <f t="shared" ref="AS37" si="25" xml:space="preserve"> _xlfn.FLOOR.MATH((AL37 - AO37) / 2)</f>
+      <c r="AU37">
+        <f t="shared" ref="AU37" si="24" xml:space="preserve"> _xlfn.FLOOR.MATH((AN37 - AQ37) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AT37" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU37" s="10" t="s">
+      <c r="AV37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW37" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AV37" t="s">
+      <c r="AX37" t="s">
         <v>176</v>
       </c>
-      <c r="AW37">
-        <v>1</v>
-      </c>
-      <c r="AX37" t="s">
-        <v>210</v>
-      </c>
-      <c r="AY37" t="s">
+      <c r="AY37">
+        <v>1</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>208</v>
+      </c>
+      <c r="BA37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B38" t="s">
         <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D38" t="s">
         <v>180</v>
       </c>
       <c r="E38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F38" s="10">
         <v>0</v>
@@ -7096,7 +7339,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K38" t="s">
         <v>8</v>
@@ -7129,14 +7372,14 @@
         <v>1</v>
       </c>
       <c r="U38">
-        <f t="shared" ref="U38" si="26" xml:space="preserve"> S38 + T38</f>
+        <f t="shared" ref="U38" si="25" xml:space="preserve"> S38 + T38</f>
         <v>6</v>
       </c>
-      <c r="V38">
-        <v>1</v>
+      <c r="V38" t="s">
+        <v>8</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X38">
         <v>16</v>
@@ -7145,103 +7388,109 @@
         <v>100</v>
       </c>
       <c r="Z38">
-        <v>8</v>
-      </c>
-      <c r="AA38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA38">
+        <v>8</v>
+      </c>
+      <c r="AB38" t="s">
         <v>102</v>
       </c>
-      <c r="AB38" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE38">
-        <f t="shared" si="13"/>
+      <c r="AC38" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD38" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG38">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO38*AP38*AQ38) / 5 * U38</f>
         <v>74549.706201272784</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AH38" s="1">
         <v>81920</v>
       </c>
-      <c r="AG38">
+      <c r="AI38">
         <v>81049.600000000006</v>
       </c>
-      <c r="AH38">
+      <c r="AJ38">
         <v>79.150000000000006</v>
       </c>
-      <c r="AI38" t="s">
+      <c r="AK38" t="s">
         <v>111</v>
       </c>
-      <c r="AJ38" s="10">
+      <c r="AL38" s="10">
         <v>125</v>
       </c>
-      <c r="AK38">
+      <c r="AM38">
         <v>1169</v>
       </c>
-      <c r="AL38">
+      <c r="AN38">
         <v>414</v>
       </c>
-      <c r="AM38" s="1">
+      <c r="AO38" s="1">
         <v>96</v>
       </c>
-      <c r="AN38">
+      <c r="AP38">
         <v>784</v>
       </c>
-      <c r="AO38">
+      <c r="AQ38">
         <v>384</v>
       </c>
-      <c r="AP38" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ38" s="1">
-        <f t="shared" ref="AQ38" si="27" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ38 - AM38) / 2)</f>
+      <c r="AR38" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS38" s="1">
+        <f t="shared" ref="AS38" si="26" xml:space="preserve"> _xlfn.FLOOR.MATH((AL38 - AO38) / 2)</f>
         <v>14</v>
       </c>
-      <c r="AR38">
-        <f t="shared" ref="AR38" si="28" xml:space="preserve"> _xlfn.FLOOR.MATH((AK38 - AN38) / 2)</f>
+      <c r="AT38">
+        <f t="shared" ref="AT38" si="27" xml:space="preserve"> _xlfn.FLOOR.MATH((AM38 - AP38) / 2)</f>
         <v>192</v>
       </c>
-      <c r="AS38">
-        <f t="shared" ref="AS38" si="29" xml:space="preserve"> _xlfn.FLOOR.MATH((AL38 - AO38) / 2)</f>
+      <c r="AU38">
+        <f t="shared" ref="AU38" si="28" xml:space="preserve"> _xlfn.FLOOR.MATH((AN38 - AQ38) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AT38" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU38" s="10" t="s">
+      <c r="AV38" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW38" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AV38" t="s">
+      <c r="AX38" t="s">
         <v>176</v>
       </c>
-      <c r="AW38">
-        <v>0</v>
-      </c>
-      <c r="AX38" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY38" t="s">
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B39" t="s">
         <v>132</v>
       </c>
       <c r="C39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D39" t="s">
         <v>180</v>
       </c>
       <c r="E39" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F39" s="10">
         <v>0</v>
@@ -7256,7 +7505,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K39" t="s">
         <v>8</v>
@@ -7289,14 +7538,14 @@
         <v>1</v>
       </c>
       <c r="U39">
-        <f t="shared" ref="U39" si="30" xml:space="preserve"> S39 + T39</f>
+        <f t="shared" ref="U39" si="29" xml:space="preserve"> S39 + T39</f>
         <v>6</v>
       </c>
-      <c r="V39">
-        <v>1</v>
+      <c r="V39" t="s">
+        <v>8</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X39">
         <v>16</v>
@@ -7305,103 +7554,109 @@
         <v>100</v>
       </c>
       <c r="Z39">
-        <v>8</v>
-      </c>
-      <c r="AA39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <v>8</v>
+      </c>
+      <c r="AB39" t="s">
         <v>102</v>
       </c>
-      <c r="AB39" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE39">
-        <f t="shared" si="13"/>
+      <c r="AC39" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD39" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG39">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO39*AP39*AQ39) / 5 * U39</f>
         <v>74549.706201272784</v>
       </c>
-      <c r="AF39" s="1">
+      <c r="AH39" s="1">
         <v>81920</v>
       </c>
-      <c r="AG39">
+      <c r="AI39">
         <v>81049.600000000006</v>
       </c>
-      <c r="AH39">
+      <c r="AJ39">
         <v>79.150000000000006</v>
       </c>
-      <c r="AI39" t="s">
+      <c r="AK39" t="s">
         <v>111</v>
       </c>
-      <c r="AJ39" s="10">
+      <c r="AL39" s="10">
         <v>125</v>
       </c>
-      <c r="AK39">
+      <c r="AM39">
         <v>1169</v>
       </c>
-      <c r="AL39">
+      <c r="AN39">
         <v>414</v>
       </c>
-      <c r="AM39" s="1">
+      <c r="AO39" s="1">
         <v>96</v>
       </c>
-      <c r="AN39">
+      <c r="AP39">
         <v>784</v>
       </c>
-      <c r="AO39">
+      <c r="AQ39">
         <v>384</v>
       </c>
-      <c r="AP39" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ39" s="1">
-        <f t="shared" ref="AQ39" si="31" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ39 - AM39) / 2)</f>
+      <c r="AR39" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS39" s="1">
+        <f t="shared" ref="AS39" si="30" xml:space="preserve"> _xlfn.FLOOR.MATH((AL39 - AO39) / 2)</f>
         <v>14</v>
       </c>
-      <c r="AR39">
-        <f t="shared" ref="AR39" si="32" xml:space="preserve"> _xlfn.FLOOR.MATH((AK39 - AN39) / 2)</f>
+      <c r="AT39">
+        <f t="shared" ref="AT39" si="31" xml:space="preserve"> _xlfn.FLOOR.MATH((AM39 - AP39) / 2)</f>
         <v>192</v>
       </c>
-      <c r="AS39">
-        <f t="shared" ref="AS39" si="33" xml:space="preserve"> _xlfn.FLOOR.MATH((AL39 - AO39) / 2)</f>
+      <c r="AU39">
+        <f t="shared" ref="AU39" si="32" xml:space="preserve"> _xlfn.FLOOR.MATH((AN39 - AQ39) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AT39" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU39" s="10" t="s">
+      <c r="AV39" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW39" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AV39" t="s">
+      <c r="AX39" t="s">
         <v>176</v>
       </c>
-      <c r="AW39">
-        <v>0</v>
-      </c>
-      <c r="AX39" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY39" t="s">
+      <c r="AY39">
+        <v>0</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B40" t="s">
         <v>132</v>
       </c>
       <c r="C40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D40" t="s">
         <v>180</v>
       </c>
       <c r="E40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F40" s="10">
         <v>0</v>
@@ -7416,7 +7671,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K40" t="s">
         <v>8</v>
@@ -7449,14 +7704,14 @@
         <v>1</v>
       </c>
       <c r="U40">
-        <f t="shared" ref="U40" si="34" xml:space="preserve"> S40 + T40</f>
+        <f t="shared" ref="U40" si="33" xml:space="preserve"> S40 + T40</f>
         <v>6</v>
       </c>
-      <c r="V40">
-        <v>1</v>
+      <c r="V40" t="s">
+        <v>8</v>
       </c>
       <c r="W40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X40">
         <v>16</v>
@@ -7465,103 +7720,109 @@
         <v>100</v>
       </c>
       <c r="Z40">
-        <v>8</v>
-      </c>
-      <c r="AA40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA40">
+        <v>8</v>
+      </c>
+      <c r="AB40" t="s">
         <v>102</v>
       </c>
-      <c r="AB40" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE40">
-        <f t="shared" si="13"/>
+      <c r="AC40" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD40" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG40">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO40*AP40*AQ40) / 5 * U40</f>
         <v>74549.706201272784</v>
       </c>
-      <c r="AF40" s="1">
+      <c r="AH40" s="1">
         <v>81920</v>
       </c>
-      <c r="AG40">
+      <c r="AI40">
         <v>81049.600000000006</v>
       </c>
-      <c r="AH40">
+      <c r="AJ40">
         <v>79.150000000000006</v>
       </c>
-      <c r="AI40" t="s">
+      <c r="AK40" t="s">
         <v>111</v>
       </c>
-      <c r="AJ40" s="10">
+      <c r="AL40" s="10">
         <v>125</v>
       </c>
-      <c r="AK40">
+      <c r="AM40">
         <v>1169</v>
       </c>
-      <c r="AL40">
+      <c r="AN40">
         <v>414</v>
       </c>
-      <c r="AM40" s="1">
+      <c r="AO40" s="1">
         <v>96</v>
       </c>
-      <c r="AN40">
+      <c r="AP40">
         <v>784</v>
       </c>
-      <c r="AO40">
+      <c r="AQ40">
         <v>384</v>
       </c>
-      <c r="AP40" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ40" s="1">
-        <f t="shared" ref="AQ40" si="35" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ40 - AM40) / 2)</f>
+      <c r="AR40" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS40" s="1">
+        <f t="shared" ref="AS40" si="34" xml:space="preserve"> _xlfn.FLOOR.MATH((AL40 - AO40) / 2)</f>
         <v>14</v>
       </c>
-      <c r="AR40">
-        <f t="shared" ref="AR40" si="36" xml:space="preserve"> _xlfn.FLOOR.MATH((AK40 - AN40) / 2)</f>
+      <c r="AT40">
+        <f t="shared" ref="AT40" si="35" xml:space="preserve"> _xlfn.FLOOR.MATH((AM40 - AP40) / 2)</f>
         <v>192</v>
       </c>
-      <c r="AS40">
-        <f t="shared" ref="AS40" si="37" xml:space="preserve"> _xlfn.FLOOR.MATH((AL40 - AO40) / 2)</f>
+      <c r="AU40">
+        <f t="shared" ref="AU40" si="36" xml:space="preserve"> _xlfn.FLOOR.MATH((AN40 - AQ40) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AT40" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU40" s="10" t="s">
+      <c r="AV40" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW40" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AV40" t="s">
+      <c r="AX40" t="s">
         <v>176</v>
       </c>
-      <c r="AW40">
-        <v>0</v>
-      </c>
-      <c r="AX40" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY40" t="s">
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA40" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B41" t="s">
         <v>132</v>
       </c>
       <c r="C41" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D41" t="s">
         <v>180</v>
       </c>
       <c r="E41" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F41" s="10">
         <v>0</v>
@@ -7576,7 +7837,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K41" t="s">
         <v>8</v>
@@ -7609,14 +7870,14 @@
         <v>1</v>
       </c>
       <c r="U41">
-        <f t="shared" ref="U41" si="38" xml:space="preserve"> S41 + T41</f>
+        <f t="shared" ref="U41" si="37" xml:space="preserve"> S41 + T41</f>
         <v>6</v>
       </c>
-      <c r="V41">
-        <v>1</v>
+      <c r="V41" t="s">
+        <v>8</v>
       </c>
       <c r="W41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X41">
         <v>16</v>
@@ -7625,103 +7886,109 @@
         <v>100</v>
       </c>
       <c r="Z41">
-        <v>8</v>
-      </c>
-      <c r="AA41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA41">
+        <v>8</v>
+      </c>
+      <c r="AB41" t="s">
         <v>102</v>
       </c>
-      <c r="AB41" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE41">
-        <f t="shared" si="13"/>
+      <c r="AC41" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD41" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG41">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO41*AP41*AQ41) / 5 * U41</f>
         <v>74549.706201272784</v>
       </c>
-      <c r="AF41" s="1">
+      <c r="AH41" s="1">
         <v>81920</v>
       </c>
-      <c r="AG41">
+      <c r="AI41">
         <v>81049.600000000006</v>
       </c>
-      <c r="AH41">
+      <c r="AJ41">
         <v>79.150000000000006</v>
       </c>
-      <c r="AI41" t="s">
+      <c r="AK41" t="s">
         <v>111</v>
       </c>
-      <c r="AJ41" s="10">
+      <c r="AL41" s="10">
         <v>125</v>
       </c>
-      <c r="AK41">
+      <c r="AM41">
         <v>1169</v>
       </c>
-      <c r="AL41">
+      <c r="AN41">
         <v>414</v>
       </c>
-      <c r="AM41" s="1">
+      <c r="AO41" s="1">
         <v>96</v>
       </c>
-      <c r="AN41">
+      <c r="AP41">
         <v>784</v>
       </c>
-      <c r="AO41">
+      <c r="AQ41">
         <v>384</v>
       </c>
-      <c r="AP41" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ41" s="1">
-        <f t="shared" ref="AQ41" si="39" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ41 - AM41) / 2)</f>
+      <c r="AR41" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS41" s="1">
+        <f t="shared" ref="AS41" si="38" xml:space="preserve"> _xlfn.FLOOR.MATH((AL41 - AO41) / 2)</f>
         <v>14</v>
       </c>
-      <c r="AR41">
-        <f t="shared" ref="AR41" si="40" xml:space="preserve"> _xlfn.FLOOR.MATH((AK41 - AN41) / 2)</f>
+      <c r="AT41">
+        <f t="shared" ref="AT41" si="39" xml:space="preserve"> _xlfn.FLOOR.MATH((AM41 - AP41) / 2)</f>
         <v>192</v>
       </c>
-      <c r="AS41">
-        <f t="shared" ref="AS41" si="41" xml:space="preserve"> _xlfn.FLOOR.MATH((AL41 - AO41) / 2)</f>
+      <c r="AU41">
+        <f t="shared" ref="AU41" si="40" xml:space="preserve"> _xlfn.FLOOR.MATH((AN41 - AQ41) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AT41" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU41" s="10" t="s">
+      <c r="AV41" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW41" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AV41" t="s">
+      <c r="AX41" t="s">
         <v>176</v>
       </c>
-      <c r="AW41">
-        <v>1</v>
-      </c>
-      <c r="AX41" t="s">
-        <v>220</v>
-      </c>
-      <c r="AY41" t="s">
+      <c r="AY41">
+        <v>1</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>218</v>
+      </c>
+      <c r="BA41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B42" t="s">
         <v>132</v>
       </c>
       <c r="C42" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D42" t="s">
         <v>180</v>
       </c>
       <c r="E42" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F42" s="10">
         <v>0</v>
@@ -7736,7 +8003,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K42" t="s">
         <v>8</v>
@@ -7769,14 +8036,14 @@
         <v>1</v>
       </c>
       <c r="U42">
-        <f t="shared" ref="U42" si="42" xml:space="preserve"> S42 + T42</f>
+        <f t="shared" ref="U42" si="41" xml:space="preserve"> S42 + T42</f>
         <v>6</v>
       </c>
-      <c r="V42">
-        <v>1</v>
+      <c r="V42" t="s">
+        <v>8</v>
       </c>
       <c r="W42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X42">
         <v>16</v>
@@ -7785,103 +8052,109 @@
         <v>100</v>
       </c>
       <c r="Z42">
-        <v>8</v>
-      </c>
-      <c r="AA42" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA42">
+        <v>8</v>
+      </c>
+      <c r="AB42" t="s">
         <v>102</v>
       </c>
-      <c r="AB42" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE42">
-        <f t="shared" si="13"/>
+      <c r="AC42" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD42" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG42">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO42*AP42*AQ42) / 5 * U42</f>
         <v>74549.706201272784</v>
       </c>
-      <c r="AF42" s="1">
+      <c r="AH42" s="1">
         <v>81920</v>
       </c>
-      <c r="AG42">
+      <c r="AI42">
         <v>81049.600000000006</v>
       </c>
-      <c r="AH42">
+      <c r="AJ42">
         <v>79.150000000000006</v>
       </c>
-      <c r="AI42" t="s">
+      <c r="AK42" t="s">
         <v>111</v>
       </c>
-      <c r="AJ42" s="10">
+      <c r="AL42" s="10">
         <v>125</v>
       </c>
-      <c r="AK42">
+      <c r="AM42">
         <v>1169</v>
       </c>
-      <c r="AL42">
+      <c r="AN42">
         <v>414</v>
       </c>
-      <c r="AM42" s="1">
+      <c r="AO42" s="1">
         <v>96</v>
       </c>
-      <c r="AN42">
+      <c r="AP42">
         <v>784</v>
       </c>
-      <c r="AO42">
+      <c r="AQ42">
         <v>384</v>
       </c>
-      <c r="AP42" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ42" s="1">
-        <f t="shared" ref="AQ42" si="43" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ42 - AM42) / 2)</f>
+      <c r="AR42" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS42" s="1">
+        <f t="shared" ref="AS42" si="42" xml:space="preserve"> _xlfn.FLOOR.MATH((AL42 - AO42) / 2)</f>
         <v>14</v>
       </c>
-      <c r="AR42">
-        <f t="shared" ref="AR42" si="44" xml:space="preserve"> _xlfn.FLOOR.MATH((AK42 - AN42) / 2)</f>
+      <c r="AT42">
+        <f t="shared" ref="AT42" si="43" xml:space="preserve"> _xlfn.FLOOR.MATH((AM42 - AP42) / 2)</f>
         <v>192</v>
       </c>
-      <c r="AS42">
-        <f t="shared" ref="AS42" si="45" xml:space="preserve"> _xlfn.FLOOR.MATH((AL42 - AO42) / 2)</f>
+      <c r="AU42">
+        <f t="shared" ref="AU42" si="44" xml:space="preserve"> _xlfn.FLOOR.MATH((AN42 - AQ42) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AT42" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU42" s="10" t="s">
+      <c r="AV42" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW42" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AV42" t="s">
+      <c r="AX42" t="s">
         <v>176</v>
       </c>
-      <c r="AW42">
-        <v>0</v>
-      </c>
-      <c r="AX42" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY42" t="s">
+      <c r="AY42">
+        <v>0</v>
+      </c>
+      <c r="AZ42" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B43" t="s">
         <v>132</v>
       </c>
       <c r="C43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D43" t="s">
         <v>180</v>
       </c>
       <c r="E43" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F43" s="10">
         <v>0</v>
@@ -7896,7 +8169,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K43" t="s">
         <v>8</v>
@@ -7929,14 +8202,14 @@
         <v>1</v>
       </c>
       <c r="U43">
-        <f t="shared" ref="U43" si="46" xml:space="preserve"> S43 + T43</f>
+        <f t="shared" ref="U43" si="45" xml:space="preserve"> S43 + T43</f>
         <v>6</v>
       </c>
-      <c r="V43">
-        <v>1</v>
+      <c r="V43" t="s">
+        <v>8</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X43">
         <v>16</v>
@@ -7945,103 +8218,109 @@
         <v>100</v>
       </c>
       <c r="Z43">
-        <v>8</v>
-      </c>
-      <c r="AA43" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA43">
+        <v>8</v>
+      </c>
+      <c r="AB43" t="s">
         <v>102</v>
       </c>
-      <c r="AB43" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE43">
-        <f t="shared" ref="AE43" si="47" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM43*AN43*AO43) / 5 * U43</f>
+      <c r="AC43" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD43" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG43">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO43*AP43*AQ43) / 5 * U43</f>
         <v>74549.706201272784</v>
       </c>
-      <c r="AF43" s="1">
+      <c r="AH43" s="1">
         <v>81920</v>
       </c>
-      <c r="AG43">
+      <c r="AI43">
         <v>81049.600000000006</v>
       </c>
-      <c r="AH43">
+      <c r="AJ43">
         <v>79.150000000000006</v>
       </c>
-      <c r="AI43" t="s">
+      <c r="AK43" t="s">
         <v>111</v>
       </c>
-      <c r="AJ43" s="10">
+      <c r="AL43" s="10">
         <v>125</v>
       </c>
-      <c r="AK43">
+      <c r="AM43">
         <v>1169</v>
       </c>
-      <c r="AL43">
+      <c r="AN43">
         <v>414</v>
       </c>
-      <c r="AM43" s="1">
+      <c r="AO43" s="1">
         <v>96</v>
       </c>
-      <c r="AN43">
+      <c r="AP43">
         <v>784</v>
       </c>
-      <c r="AO43">
+      <c r="AQ43">
         <v>384</v>
       </c>
-      <c r="AP43" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ43" s="1">
-        <f t="shared" ref="AQ43" si="48" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ43 - AM43) / 2)</f>
+      <c r="AR43" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS43" s="1">
+        <f t="shared" ref="AS43" si="46" xml:space="preserve"> _xlfn.FLOOR.MATH((AL43 - AO43) / 2)</f>
         <v>14</v>
       </c>
-      <c r="AR43">
-        <f t="shared" ref="AR43" si="49" xml:space="preserve"> _xlfn.FLOOR.MATH((AK43 - AN43) / 2)</f>
+      <c r="AT43">
+        <f t="shared" ref="AT43" si="47" xml:space="preserve"> _xlfn.FLOOR.MATH((AM43 - AP43) / 2)</f>
         <v>192</v>
       </c>
-      <c r="AS43">
-        <f t="shared" ref="AS43" si="50" xml:space="preserve"> _xlfn.FLOOR.MATH((AL43 - AO43) / 2)</f>
+      <c r="AU43">
+        <f t="shared" ref="AU43" si="48" xml:space="preserve"> _xlfn.FLOOR.MATH((AN43 - AQ43) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AT43" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU43" s="10" t="s">
+      <c r="AV43" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW43" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AV43" t="s">
+      <c r="AX43" t="s">
         <v>176</v>
       </c>
-      <c r="AW43">
-        <v>0</v>
-      </c>
-      <c r="AX43" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY43" t="s">
+      <c r="AY43">
+        <v>0</v>
+      </c>
+      <c r="AZ43" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B44" t="s">
         <v>132</v>
       </c>
       <c r="C44" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D44" t="s">
         <v>180</v>
       </c>
       <c r="E44" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F44" s="10">
         <v>1</v>
@@ -8089,14 +8368,14 @@
         <v>1</v>
       </c>
       <c r="U44">
-        <f t="shared" ref="U44" si="51" xml:space="preserve"> S44 + T44</f>
+        <f t="shared" ref="U44" si="49" xml:space="preserve"> S44 + T44</f>
         <v>6</v>
       </c>
-      <c r="V44">
-        <v>1</v>
+      <c r="V44" t="s">
+        <v>8</v>
       </c>
       <c r="W44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X44">
         <v>16</v>
@@ -8105,317 +8384,289 @@
         <v>100</v>
       </c>
       <c r="Z44">
-        <v>8</v>
-      </c>
-      <c r="AA44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA44">
+        <v>8</v>
+      </c>
+      <c r="AB44" t="s">
         <v>102</v>
       </c>
-      <c r="AB44" s="10">
+      <c r="AC44" s="10">
         <v>74967</v>
       </c>
-      <c r="AC44" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE44">
-        <f t="shared" si="13"/>
+      <c r="AD44" s="17">
+        <v>6085</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG44">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO44*AP44*AQ44) / 5 * U44</f>
         <v>74549.706201272784</v>
       </c>
-      <c r="AF44" s="1">
+      <c r="AH44" s="1">
         <v>81920</v>
       </c>
-      <c r="AG44">
+      <c r="AI44">
         <v>81049.600000000006</v>
       </c>
-      <c r="AH44">
+      <c r="AJ44">
         <v>79.150000000000006</v>
       </c>
-      <c r="AI44" t="s">
+      <c r="AK44" t="s">
         <v>111</v>
       </c>
-      <c r="AJ44" s="10">
+      <c r="AL44" s="10">
         <v>125</v>
       </c>
-      <c r="AK44">
+      <c r="AM44">
         <v>1169</v>
       </c>
-      <c r="AL44">
+      <c r="AN44">
         <v>414</v>
       </c>
-      <c r="AM44" s="1">
+      <c r="AO44" s="1">
         <v>96</v>
       </c>
-      <c r="AN44">
+      <c r="AP44">
         <v>784</v>
       </c>
-      <c r="AO44">
+      <c r="AQ44">
         <v>384</v>
       </c>
-      <c r="AP44" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ44" s="1">
-        <f t="shared" ref="AQ44" si="52" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ44 - AM44) / 2)</f>
+      <c r="AR44" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS44" s="1">
+        <f t="shared" ref="AS44" si="50" xml:space="preserve"> _xlfn.FLOOR.MATH((AL44 - AO44) / 2)</f>
         <v>14</v>
       </c>
-      <c r="AR44">
-        <f t="shared" ref="AR44" si="53" xml:space="preserve"> _xlfn.FLOOR.MATH((AK44 - AN44) / 2)</f>
+      <c r="AT44">
+        <f t="shared" ref="AT44" si="51" xml:space="preserve"> _xlfn.FLOOR.MATH((AM44 - AP44) / 2)</f>
         <v>192</v>
       </c>
-      <c r="AS44">
-        <f t="shared" ref="AS44" si="54" xml:space="preserve"> _xlfn.FLOOR.MATH((AL44 - AO44) / 2)</f>
+      <c r="AU44">
+        <f t="shared" ref="AU44" si="52" xml:space="preserve"> _xlfn.FLOOR.MATH((AN44 - AQ44) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AT44" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU44" s="10" t="s">
+      <c r="AV44" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW44" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AV44" t="s">
+      <c r="AX44" t="s">
         <v>176</v>
       </c>
-      <c r="AW44">
-        <v>0</v>
-      </c>
-      <c r="AX44" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY44" t="s">
+      <c r="AY44">
+        <v>0</v>
+      </c>
+      <c r="AZ44" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="B45" t="s">
-        <v>132</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="E45" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F45" s="11">
+        <v>0</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="7">
+        <v>1</v>
+      </c>
+      <c r="J45" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D45" t="s">
-        <v>228</v>
-      </c>
-      <c r="E45" t="s">
-        <v>130</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G45" t="s">
-        <v>130</v>
-      </c>
-      <c r="H45" t="s">
-        <v>130</v>
-      </c>
-      <c r="I45" t="s">
-        <v>130</v>
-      </c>
-      <c r="J45" t="s">
-        <v>130</v>
-      </c>
-      <c r="K45" t="s">
-        <v>130</v>
-      </c>
-      <c r="L45" t="s">
-        <v>130</v>
-      </c>
-      <c r="M45" t="s">
-        <v>130</v>
-      </c>
-      <c r="N45" t="s">
-        <v>130</v>
-      </c>
-      <c r="O45" t="s">
-        <v>130</v>
-      </c>
-      <c r="P45" s="1" t="s">
+      <c r="K45" s="7">
+        <v>1</v>
+      </c>
+      <c r="L45" s="7">
+        <v>1</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>1</v>
+      </c>
+      <c r="O45" s="7">
+        <v>1</v>
+      </c>
+      <c r="P45" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" s="7">
         <v>6</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="7">
         <v>6</v>
       </c>
-      <c r="S45">
-        <v>5</v>
-      </c>
-      <c r="T45">
-        <v>1</v>
-      </c>
-      <c r="U45">
-        <f t="shared" ref="U45" si="55" xml:space="preserve"> S45 + T45</f>
+      <c r="S45" s="7">
+        <v>5</v>
+      </c>
+      <c r="T45" s="7">
+        <v>1</v>
+      </c>
+      <c r="U45" s="7">
+        <f t="shared" ref="U45" si="53" xml:space="preserve"> S45 + T45</f>
         <v>6</v>
       </c>
-      <c r="V45">
-        <v>1</v>
-      </c>
-      <c r="W45">
-        <v>1</v>
-      </c>
-      <c r="X45">
+      <c r="V45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="W45" s="7">
+        <v>3</v>
+      </c>
+      <c r="X45" s="7">
         <v>16</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Y45" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="Z45">
-        <v>8</v>
-      </c>
-      <c r="AA45" t="s">
+      <c r="Z45" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="7">
+        <v>8</v>
+      </c>
+      <c r="AB45" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AB45" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE45">
-        <f t="shared" ref="AE45" si="56" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM45*AN45*AO45) / 5 * U45</f>
+      <c r="AC45" s="11">
+        <v>74965</v>
+      </c>
+      <c r="AD45" s="19">
+        <v>6087</v>
+      </c>
+      <c r="AE45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG45" s="7">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO45*AP45*AQ45) / 5 * U45</f>
         <v>74549.706201272784</v>
       </c>
-      <c r="AF45" s="1">
+      <c r="AH45" s="8">
         <v>81920</v>
       </c>
-      <c r="AG45">
+      <c r="AI45" s="7">
         <v>81049.600000000006</v>
       </c>
-      <c r="AH45">
+      <c r="AJ45" s="7">
         <v>79.150000000000006</v>
       </c>
-      <c r="AI45" t="s">
+      <c r="AK45" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AJ45" s="10">
+      <c r="AL45" s="11">
         <v>125</v>
       </c>
-      <c r="AK45">
+      <c r="AM45" s="7">
         <v>1169</v>
       </c>
-      <c r="AL45">
+      <c r="AN45" s="7">
         <v>414</v>
       </c>
-      <c r="AM45" s="1">
+      <c r="AO45" s="8">
         <v>96</v>
       </c>
-      <c r="AN45">
+      <c r="AP45" s="7">
         <v>784</v>
       </c>
-      <c r="AO45">
+      <c r="AQ45" s="7">
         <v>384</v>
       </c>
-      <c r="AP45" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ45" s="1">
-        <f t="shared" ref="AQ45" si="57" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ45 - AM45) / 2)</f>
+      <c r="AR45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS45" s="8">
+        <f t="shared" ref="AS45" si="54" xml:space="preserve"> _xlfn.FLOOR.MATH((AL45 - AO45) / 2)</f>
         <v>14</v>
       </c>
-      <c r="AR45">
-        <f t="shared" ref="AR45" si="58" xml:space="preserve"> _xlfn.FLOOR.MATH((AK45 - AN45) / 2)</f>
+      <c r="AT45" s="7">
+        <f t="shared" ref="AT45" si="55" xml:space="preserve"> _xlfn.FLOOR.MATH((AM45 - AP45) / 2)</f>
         <v>192</v>
       </c>
-      <c r="AS45">
-        <f t="shared" ref="AS45" si="59" xml:space="preserve"> _xlfn.FLOOR.MATH((AL45 - AO45) / 2)</f>
+      <c r="AU45" s="7">
+        <f t="shared" ref="AU45" si="56" xml:space="preserve"> _xlfn.FLOOR.MATH((AN45 - AQ45) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AT45" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU45" s="10" t="s">
+      <c r="AV45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW45" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="AV45" t="s">
+      <c r="AX45" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="AW45" t="s">
-        <v>130</v>
-      </c>
-      <c r="AX45" t="s">
-        <v>130</v>
-      </c>
-      <c r="AY45" t="s">
-        <v>130</v>
+      <c r="AY45" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA45" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B46" t="s">
         <v>132</v>
       </c>
-      <c r="C46" t="s">
-        <v>227</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="P46" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q46" s="18">
+        <v>6</v>
+      </c>
+      <c r="R46" t="s">
         <v>130</v>
       </c>
-      <c r="E46" t="s">
-        <v>130</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G46" t="s">
-        <v>130</v>
-      </c>
-      <c r="H46" t="s">
-        <v>130</v>
-      </c>
-      <c r="I46" t="s">
-        <v>130</v>
-      </c>
-      <c r="J46" t="s">
-        <v>130</v>
-      </c>
-      <c r="K46" t="s">
-        <v>130</v>
-      </c>
-      <c r="L46" t="s">
-        <v>130</v>
-      </c>
-      <c r="M46" t="s">
-        <v>130</v>
-      </c>
-      <c r="N46" t="s">
-        <v>130</v>
-      </c>
-      <c r="O46" t="s">
-        <v>130</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q46">
+      <c r="S46" s="18">
+        <v>5</v>
+      </c>
+      <c r="T46" s="18">
+        <v>1</v>
+      </c>
+      <c r="U46">
         <v>6</v>
       </c>
-      <c r="R46">
-        <v>6</v>
-      </c>
-      <c r="S46">
-        <v>5</v>
-      </c>
-      <c r="T46">
-        <v>1</v>
-      </c>
-      <c r="U46">
-        <f t="shared" ref="U46" si="60" xml:space="preserve"> S46 + T46</f>
-        <v>6</v>
-      </c>
-      <c r="V46">
-        <v>1</v>
-      </c>
-      <c r="W46">
+      <c r="V46" t="s">
+        <v>8</v>
+      </c>
+      <c r="W46" s="18">
         <v>1</v>
       </c>
       <c r="X46">
@@ -8424,101 +8675,93 @@
       <c r="Y46" t="s">
         <v>100</v>
       </c>
-      <c r="Z46">
-        <v>8</v>
-      </c>
-      <c r="AA46" t="s">
+      <c r="Z46" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA46">
+        <v>8</v>
+      </c>
+      <c r="AB46" t="s">
         <v>102</v>
       </c>
-      <c r="AB46" s="10" t="s">
+      <c r="AC46" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="AC46" t="s">
+      <c r="AD46" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="AD46" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE46">
-        <f t="shared" ref="AE46" si="61" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AM46*AN46*AO46) / 5 * U46</f>
+      <c r="AE46" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG46">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO46*AP46*AQ46) / 5 * U46</f>
         <v>74549.706201272784</v>
       </c>
-      <c r="AF46" s="1">
+      <c r="AH46" s="1">
         <v>81920</v>
       </c>
-      <c r="AG46">
+      <c r="AI46">
         <v>81049.600000000006</v>
       </c>
-      <c r="AH46">
+      <c r="AJ46">
         <v>79.150000000000006</v>
       </c>
-      <c r="AI46" t="s">
+      <c r="AK46" t="s">
         <v>111</v>
       </c>
-      <c r="AJ46" s="10">
+      <c r="AL46" s="10">
         <v>125</v>
       </c>
-      <c r="AK46">
+      <c r="AM46">
         <v>1169</v>
       </c>
-      <c r="AL46">
+      <c r="AN46">
         <v>414</v>
       </c>
-      <c r="AM46" s="1">
+      <c r="AO46" s="1">
         <v>96</v>
       </c>
-      <c r="AN46">
+      <c r="AP46">
         <v>784</v>
       </c>
-      <c r="AO46">
+      <c r="AQ46">
         <v>384</v>
       </c>
-      <c r="AP46" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ46" s="1">
-        <f t="shared" ref="AQ46" si="62" xml:space="preserve"> _xlfn.FLOOR.MATH((AJ46 - AM46) / 2)</f>
+      <c r="AR46" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS46" s="1">
+        <f t="shared" ref="AS46" si="57" xml:space="preserve"> _xlfn.FLOOR.MATH((AL46 - AO46) / 2)</f>
         <v>14</v>
       </c>
-      <c r="AR46">
-        <f t="shared" ref="AR46" si="63" xml:space="preserve"> _xlfn.FLOOR.MATH((AK46 - AN46) / 2)</f>
+      <c r="AT46">
+        <f t="shared" ref="AT46" si="58" xml:space="preserve"> _xlfn.FLOOR.MATH((AM46 - AP46) / 2)</f>
         <v>192</v>
       </c>
-      <c r="AS46">
-        <f t="shared" ref="AS46" si="64" xml:space="preserve"> _xlfn.FLOOR.MATH((AL46 - AO46) / 2)</f>
+      <c r="AU46">
+        <f t="shared" ref="AU46" si="59" xml:space="preserve"> _xlfn.FLOOR.MATH((AN46 - AQ46) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AT46" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU46" s="10" t="s">
+      <c r="AV46" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW46" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AV46" t="s">
+      <c r="AX46" t="s">
         <v>176</v>
       </c>
-      <c r="AW46" t="s">
-        <v>130</v>
-      </c>
-      <c r="AX46" t="s">
-        <v>130</v>
-      </c>
-      <c r="AY46" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>132</v>
-      </c>
-      <c r="C48" t="s">
-        <v>181</v>
-      </c>
-      <c r="D48" t="s">
-        <v>182</v>
-      </c>
-      <c r="E48" t="s">
-        <v>130</v>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+      <c r="AZ46" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA46" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE886B3A-EED0-4679-90D0-198701C1F037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9051096A-6410-469E-907E-A5F7937DE625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="272">
   <si>
     <t>patch z</t>
   </si>
@@ -723,17 +723,143 @@
     <t>VRAM free (MiB) nvidia-smi output</t>
   </si>
   <si>
+    <t>230927-0</t>
+  </si>
+  <si>
     <t>dataset06</t>
   </si>
   <si>
     <t>n test</t>
+  </si>
+  <si>
+    <t>230927-1</t>
+  </si>
+  <si>
+    <t>230927-2</t>
+  </si>
+  <si>
+    <t>230927-3</t>
+  </si>
+  <si>
+    <t>230927-4</t>
+  </si>
+  <si>
+    <t>230927-5</t>
+  </si>
+  <si>
+    <t>230927-6</t>
+  </si>
+  <si>
+    <t>230927-7</t>
+  </si>
+  <si>
+    <t>230927-8</t>
+  </si>
+  <si>
+    <t>230927-9</t>
+  </si>
+  <si>
+    <t>230927-10</t>
+  </si>
+  <si>
+    <t>230927-11</t>
+  </si>
+  <si>
+    <t>230927-12</t>
+  </si>
+  <si>
+    <t>230927-13</t>
+  </si>
+  <si>
+    <t>230927-14</t>
+  </si>
+  <si>
+    <t>230927-15</t>
+  </si>
+  <si>
+    <t>230927-16</t>
+  </si>
+  <si>
+    <t>230927-17</t>
+  </si>
+  <si>
+    <t>VRAM study: 16 bit, 3 raw channels, patch_shape 0. VRAM ~ n_channel, channel_bitdepth, patch_shape.</t>
+  </si>
+  <si>
+    <t>VRAM study: 16 bit, 3 raw channels, patch_shape 1. VRAM ~ n_channel, channel_bitdepth, patch_shape.</t>
+  </si>
+  <si>
+    <t>VRAM study: 16 bit, 3 raw channels, patch_shape 2. VRAM ~ n_channel, channel_bitdepth, patch_shape.</t>
+  </si>
+  <si>
+    <t>VRAM study: 16 bit, 2 raw channels, patch_shape 0. VRAM ~ n_channel, channel_bitdepth, patch_shape.</t>
+  </si>
+  <si>
+    <t>VRAM study: 16 bit, 2 raw channels, patch_shape 1. VRAM ~ n_channel, channel_bitdepth, patch_shape.</t>
+  </si>
+  <si>
+    <t>VRAM study: 16 bit, 2 raw channels, patch_shape 2. VRAM ~ n_channel, channel_bitdepth, patch_shape.</t>
+  </si>
+  <si>
+    <t>VRAM study: 16 bit, 1 raw channels, patch_shape 0. VRAM ~ n_channel, channel_bitdepth, patch_shape.</t>
+  </si>
+  <si>
+    <t>VRAM study: 16 bit, 1 raw channels, patch_shape 1. VRAM ~ n_channel, channel_bitdepth, patch_shape.</t>
+  </si>
+  <si>
+    <t>VRAM study: 16 bit, 1 raw channels, patch_shape 2. VRAM ~ n_channel, channel_bitdepth, patch_shape.</t>
+  </si>
+  <si>
+    <t>VRAM study: 8 bit, 3 raw channels, patch_shape 0. VRAM ~ n_channel, channel_bitdepth, patch_shape.</t>
+  </si>
+  <si>
+    <t>VRAM study: 8 bit, 3 raw channels, patch_shape 1. VRAM ~ n_channel, channel_bitdepth, patch_shape.</t>
+  </si>
+  <si>
+    <t>VRAM study: 8 bit, 3 raw channels, patch_shape 2. VRAM ~ n_channel, channel_bitdepth, patch_shape.</t>
+  </si>
+  <si>
+    <t>VRAM study: 8 bit, 2 raw channels, patch_shape 0. VRAM ~ n_channel, channel_bitdepth, patch_shape.</t>
+  </si>
+  <si>
+    <t>VRAM study: 8 bit, 2 raw channels, patch_shape 1. VRAM ~ n_channel, channel_bitdepth, patch_shape.</t>
+  </si>
+  <si>
+    <t>VRAM study: 8 bit, 2 raw channels, patch_shape 2. VRAM ~ n_channel, channel_bitdepth, patch_shape.</t>
+  </si>
+  <si>
+    <t>VRAM study: 8 bit, 1 raw channels, patch_shape 0. VRAM ~ n_channel, channel_bitdepth, patch_shape.</t>
+  </si>
+  <si>
+    <t>VRAM study: 8 bit, 1 raw channels, patch_shape 1. VRAM ~ n_channel, channel_bitdepth, patch_shape.</t>
+  </si>
+  <si>
+    <t>VRAM study: 8 bit, 1 raw channels, patch_shape 2. VRAM ~ n_channel, channel_bitdepth, patch_shape.</t>
+  </si>
+  <si>
+    <t>dataset06.0</t>
+  </si>
+  <si>
+    <t>dataset06.1</t>
+  </si>
+  <si>
+    <t>dataset06.2</t>
+  </si>
+  <si>
+    <t>dataset06.3</t>
+  </si>
+  <si>
+    <t>dataset06.4</t>
+  </si>
+  <si>
+    <t>dataset06.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -751,6 +877,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -874,7 +1006,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -897,6 +1029,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1211,25 +1346,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
-  <dimension ref="A1:BA46"/>
+  <dimension ref="A1:BA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="109" customWidth="1"/>
+    <col min="4" max="4" width="71" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="10" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="30.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="9.140625" customWidth="1" outlineLevel="1"/>
     <col min="19" max="19" width="6.7109375" customWidth="1" outlineLevel="1"/>
     <col min="20" max="20" width="5.140625" customWidth="1" outlineLevel="1"/>
@@ -1333,7 +1468,7 @@
         <v>188</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>5</v>
@@ -8639,129 +8774,420 @@
       </c>
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>222</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="A46" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>132</v>
       </c>
+      <c r="C46" s="20" t="s">
+        <v>248</v>
+      </c>
       <c r="P46" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q46" s="18">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="47" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" t="s">
+        <v>130</v>
+      </c>
+      <c r="E69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H69" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="I69" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J69" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K69" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L69" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M69" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="N69" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="O69" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q69" s="18">
         <v>6</v>
       </c>
-      <c r="R46" t="s">
+      <c r="R69" t="s">
         <v>130</v>
       </c>
-      <c r="S46" s="18">
-        <v>5</v>
-      </c>
-      <c r="T46" s="18">
-        <v>1</v>
-      </c>
-      <c r="U46">
+      <c r="S69" s="18">
+        <v>5</v>
+      </c>
+      <c r="T69" s="18">
+        <v>1</v>
+      </c>
+      <c r="U69">
         <v>6</v>
       </c>
-      <c r="V46" t="s">
-        <v>8</v>
-      </c>
-      <c r="W46" s="18">
-        <v>1</v>
-      </c>
-      <c r="X46">
+      <c r="V69" t="s">
+        <v>8</v>
+      </c>
+      <c r="W69" s="18">
+        <v>1</v>
+      </c>
+      <c r="X69">
         <v>16</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Y69" t="s">
         <v>100</v>
       </c>
-      <c r="Z46" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA46">
-        <v>8</v>
-      </c>
-      <c r="AB46" t="s">
+      <c r="Z69" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA69">
+        <v>8</v>
+      </c>
+      <c r="AB69" t="s">
         <v>102</v>
       </c>
-      <c r="AC46" s="10" t="s">
+      <c r="AC69" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="AD46" s="18" t="s">
+      <c r="AD69" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="AE46" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF46" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG46">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO46*AP46*AQ46) / 5 * U46</f>
-        <v>74549.706201272784</v>
-      </c>
-      <c r="AH46" s="1">
+      <c r="AE69" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG69" t="e">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO69*AP69*AQ69) / 5 * U69</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH69" s="1">
         <v>81920</v>
       </c>
-      <c r="AI46">
+      <c r="AI69">
         <v>81049.600000000006</v>
       </c>
-      <c r="AJ46">
+      <c r="AJ69">
         <v>79.150000000000006</v>
       </c>
-      <c r="AK46" t="s">
+      <c r="AK69" t="s">
         <v>111</v>
       </c>
-      <c r="AL46" s="10">
-        <v>125</v>
-      </c>
-      <c r="AM46">
-        <v>1169</v>
-      </c>
-      <c r="AN46">
-        <v>414</v>
-      </c>
-      <c r="AO46" s="1">
-        <v>96</v>
-      </c>
-      <c r="AP46">
-        <v>784</v>
-      </c>
-      <c r="AQ46">
-        <v>384</v>
-      </c>
-      <c r="AR46" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS46" s="1">
-        <f t="shared" ref="AS46" si="57" xml:space="preserve"> _xlfn.FLOOR.MATH((AL46 - AO46) / 2)</f>
-        <v>14</v>
-      </c>
-      <c r="AT46">
-        <f t="shared" ref="AT46" si="58" xml:space="preserve"> _xlfn.FLOOR.MATH((AM46 - AP46) / 2)</f>
-        <v>192</v>
-      </c>
-      <c r="AU46">
-        <f t="shared" ref="AU46" si="59" xml:space="preserve"> _xlfn.FLOOR.MATH((AN46 - AQ46) / 2)</f>
-        <v>15</v>
-      </c>
-      <c r="AV46" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW46" s="10" t="s">
+      <c r="AL69" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN69" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO69" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP69" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ69" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR69" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS69" s="1" t="e">
+        <f t="shared" ref="AS69" si="57" xml:space="preserve"> _xlfn.FLOOR.MATH((AL69 - AO69) / 2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT69" t="e">
+        <f t="shared" ref="AT69" si="58" xml:space="preserve"> _xlfn.FLOOR.MATH((AM69 - AP69) / 2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU69" t="e">
+        <f t="shared" ref="AU69" si="59" xml:space="preserve"> _xlfn.FLOOR.MATH((AN69 - AQ69) / 2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV69" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW69" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AX46" t="s">
+      <c r="AX69" t="s">
         <v>176</v>
       </c>
-      <c r="AY46">
-        <v>0</v>
-      </c>
-      <c r="AZ46" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA46" t="s">
-        <v>8</v>
+      <c r="AY69" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ69" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA69" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9051096A-6410-469E-907E-A5F7937DE625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F12854F-9503-4618-A348-BB74DB8BD537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
+    <workbookView xWindow="-21720" yWindow="2595" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -723,66 +723,12 @@
     <t>VRAM free (MiB) nvidia-smi output</t>
   </si>
   <si>
-    <t>230927-0</t>
-  </si>
-  <si>
     <t>dataset06</t>
   </si>
   <si>
     <t>n test</t>
   </si>
   <si>
-    <t>230927-1</t>
-  </si>
-  <si>
-    <t>230927-2</t>
-  </si>
-  <si>
-    <t>230927-3</t>
-  </si>
-  <si>
-    <t>230927-4</t>
-  </si>
-  <si>
-    <t>230927-5</t>
-  </si>
-  <si>
-    <t>230927-6</t>
-  </si>
-  <si>
-    <t>230927-7</t>
-  </si>
-  <si>
-    <t>230927-8</t>
-  </si>
-  <si>
-    <t>230927-9</t>
-  </si>
-  <si>
-    <t>230927-10</t>
-  </si>
-  <si>
-    <t>230927-11</t>
-  </si>
-  <si>
-    <t>230927-12</t>
-  </si>
-  <si>
-    <t>230927-13</t>
-  </si>
-  <si>
-    <t>230927-14</t>
-  </si>
-  <si>
-    <t>230927-15</t>
-  </si>
-  <si>
-    <t>230927-16</t>
-  </si>
-  <si>
-    <t>230927-17</t>
-  </si>
-  <si>
     <t>VRAM study: 16 bit, 3 raw channels, patch_shape 0. VRAM ~ n_channel, channel_bitdepth, patch_shape.</t>
   </si>
   <si>
@@ -853,6 +799,60 @@
   </si>
   <si>
     <t>dataset06.5</t>
+  </si>
+  <si>
+    <t>230928-0</t>
+  </si>
+  <si>
+    <t>230928-1</t>
+  </si>
+  <si>
+    <t>230928-2</t>
+  </si>
+  <si>
+    <t>230928-3</t>
+  </si>
+  <si>
+    <t>230928-4</t>
+  </si>
+  <si>
+    <t>230928-5</t>
+  </si>
+  <si>
+    <t>230928-6</t>
+  </si>
+  <si>
+    <t>230928-7</t>
+  </si>
+  <si>
+    <t>230928-8</t>
+  </si>
+  <si>
+    <t>230928-9</t>
+  </si>
+  <si>
+    <t>230928-10</t>
+  </si>
+  <si>
+    <t>230928-11</t>
+  </si>
+  <si>
+    <t>230928-12</t>
+  </si>
+  <si>
+    <t>230928-13</t>
+  </si>
+  <si>
+    <t>230928-14</t>
+  </si>
+  <si>
+    <t>230928-15</t>
+  </si>
+  <si>
+    <t>230928-16</t>
+  </si>
+  <si>
+    <t>230928-17</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1006,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1026,9 +1026,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1348,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
   <dimension ref="A1:BA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1377,7 +1374,7 @@
     <col min="27" max="27" width="7.7109375" customWidth="1" outlineLevel="1"/>
     <col min="28" max="28" width="9.7109375" customWidth="1" outlineLevel="1"/>
     <col min="29" max="29" width="16.7109375" style="10" customWidth="1"/>
-    <col min="30" max="30" width="14.85546875" style="17" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" customWidth="1"/>
     <col min="31" max="33" width="9.140625" customWidth="1"/>
     <col min="34" max="34" width="7.28515625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="35" max="36" width="7.28515625" customWidth="1" outlineLevel="1"/>
@@ -1468,7 +1465,7 @@
         <v>188</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>5</v>
@@ -1653,7 +1650,7 @@
       <c r="AC2" s="10">
         <v>0</v>
       </c>
-      <c r="AD2" s="17" t="s">
+      <c r="AD2" t="s">
         <v>130</v>
       </c>
       <c r="AE2" t="s">
@@ -1815,7 +1812,7 @@
       <c r="AC3" s="10">
         <v>20769</v>
       </c>
-      <c r="AD3" s="17" t="s">
+      <c r="AD3" t="s">
         <v>130</v>
       </c>
       <c r="AE3" t="s">
@@ -2139,7 +2136,7 @@
       <c r="AC5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AD5" s="17" t="s">
+      <c r="AD5" t="s">
         <v>130</v>
       </c>
       <c r="AE5" t="s">
@@ -2301,7 +2298,7 @@
       <c r="AC6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD6" s="17" t="s">
+      <c r="AD6" t="s">
         <v>130</v>
       </c>
       <c r="AE6" t="s">
@@ -2463,7 +2460,7 @@
       <c r="AC7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD7" s="17" t="s">
+      <c r="AD7" t="s">
         <v>130</v>
       </c>
       <c r="AE7" t="s">
@@ -2625,7 +2622,7 @@
       <c r="AC8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AD8" s="17" t="s">
+      <c r="AD8" t="s">
         <v>130</v>
       </c>
       <c r="AE8" t="s">
@@ -2787,7 +2784,7 @@
       <c r="AC9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD9" s="17" t="s">
+      <c r="AD9" t="s">
         <v>130</v>
       </c>
       <c r="AE9" t="s">
@@ -2955,7 +2952,7 @@
       <c r="AC10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD10" s="17" t="s">
+      <c r="AD10" t="s">
         <v>130</v>
       </c>
       <c r="AE10" t="s">
@@ -3117,7 +3114,7 @@
       <c r="AC11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AD11" s="17" t="s">
+      <c r="AD11" t="s">
         <v>130</v>
       </c>
       <c r="AE11" t="s">
@@ -3279,7 +3276,7 @@
       <c r="AC12" s="10">
         <v>10135</v>
       </c>
-      <c r="AD12" s="17" t="s">
+      <c r="AD12" t="s">
         <v>130</v>
       </c>
       <c r="AE12" t="s">
@@ -3441,7 +3438,7 @@
       <c r="AC13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD13" s="17" t="s">
+      <c r="AD13" t="s">
         <v>130</v>
       </c>
       <c r="AE13" t="s">
@@ -3603,7 +3600,7 @@
       <c r="AC14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD14" s="17" t="s">
+      <c r="AD14" t="s">
         <v>130</v>
       </c>
       <c r="AE14" t="s">
@@ -3765,7 +3762,7 @@
       <c r="AC15" s="10">
         <v>13843</v>
       </c>
-      <c r="AD15" s="17" t="s">
+      <c r="AD15" t="s">
         <v>130</v>
       </c>
       <c r="AE15" t="s">
@@ -4089,7 +4086,7 @@
       <c r="AC17" s="10">
         <v>10135</v>
       </c>
-      <c r="AD17" s="17" t="s">
+      <c r="AD17" t="s">
         <v>130</v>
       </c>
       <c r="AE17" t="s">
@@ -4251,7 +4248,7 @@
       <c r="AC18" s="10">
         <v>10135</v>
       </c>
-      <c r="AD18" s="17" t="s">
+      <c r="AD18" t="s">
         <v>130</v>
       </c>
       <c r="AE18" t="s">
@@ -4413,7 +4410,7 @@
       <c r="AC19" s="10">
         <v>10999</v>
       </c>
-      <c r="AD19" s="17" t="s">
+      <c r="AD19" t="s">
         <v>130</v>
       </c>
       <c r="AE19" t="s">
@@ -4575,7 +4572,7 @@
       <c r="AC20" s="10">
         <v>11843</v>
       </c>
-      <c r="AD20" s="17" t="s">
+      <c r="AD20" t="s">
         <v>130</v>
       </c>
       <c r="AE20" t="s">
@@ -4737,7 +4734,7 @@
       <c r="AC21" s="10">
         <v>10473</v>
       </c>
-      <c r="AD21" s="17" t="s">
+      <c r="AD21" t="s">
         <v>130</v>
       </c>
       <c r="AE21" t="s">
@@ -4899,7 +4896,7 @@
       <c r="AC22" s="10">
         <v>10825</v>
       </c>
-      <c r="AD22" s="17" t="s">
+      <c r="AD22" t="s">
         <v>130</v>
       </c>
       <c r="AE22" t="s">
@@ -5061,7 +5058,7 @@
       <c r="AC23" s="10">
         <v>12317</v>
       </c>
-      <c r="AD23" s="17" t="s">
+      <c r="AD23" t="s">
         <v>130</v>
       </c>
       <c r="AE23" t="s">
@@ -5223,7 +5220,7 @@
       <c r="AC24" s="10">
         <v>14443</v>
       </c>
-      <c r="AD24" s="17" t="s">
+      <c r="AD24" t="s">
         <v>130</v>
       </c>
       <c r="AE24" t="s">
@@ -5384,7 +5381,7 @@
       <c r="AC25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD25" s="17" t="s">
+      <c r="AD25" t="s">
         <v>130</v>
       </c>
       <c r="AE25" t="s">
@@ -5707,7 +5704,7 @@
       <c r="AC27" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="AD27" s="17" t="s">
+      <c r="AD27" t="s">
         <v>130</v>
       </c>
       <c r="AE27" t="s">
@@ -5873,7 +5870,7 @@
       <c r="AC28" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="AD28" s="17" t="s">
+      <c r="AD28" t="s">
         <v>130</v>
       </c>
       <c r="AE28">
@@ -6040,7 +6037,7 @@
       <c r="AC29" s="10">
         <v>77887</v>
       </c>
-      <c r="AD29" s="17" t="s">
+      <c r="AD29" t="s">
         <v>130</v>
       </c>
       <c r="AE29" t="s">
@@ -6206,7 +6203,7 @@
       <c r="AC30" s="10">
         <v>77885</v>
       </c>
-      <c r="AD30" s="17" t="s">
+      <c r="AD30" t="s">
         <v>130</v>
       </c>
       <c r="AE30" t="s">
@@ -6372,7 +6369,7 @@
       <c r="AC31" s="10">
         <v>78017</v>
       </c>
-      <c r="AD31" s="17" t="s">
+      <c r="AD31" t="s">
         <v>130</v>
       </c>
       <c r="AE31" t="s">
@@ -6538,7 +6535,7 @@
       <c r="AC32" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="AD32" s="17" t="s">
+      <c r="AD32" t="s">
         <v>130</v>
       </c>
       <c r="AE32" t="s">
@@ -6704,7 +6701,7 @@
       <c r="AC33" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="AD33" s="17" t="s">
+      <c r="AD33" t="s">
         <v>130</v>
       </c>
       <c r="AE33" t="s">
@@ -6870,7 +6867,7 @@
       <c r="AC34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD34" s="17" t="s">
+      <c r="AD34" t="s">
         <v>130</v>
       </c>
       <c r="AE34" t="s">
@@ -6880,7 +6877,7 @@
         <v>8</v>
       </c>
       <c r="AG34">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO34*AP34*AQ34) / 5 * U34</f>
+        <f t="shared" ref="AG34:AG45" si="13" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO34*AP34*AQ34) / 5 * U34</f>
         <v>74549.706201272784</v>
       </c>
       <c r="AH34" s="1">
@@ -7009,7 +7006,7 @@
         <v>1</v>
       </c>
       <c r="U35">
-        <f t="shared" ref="U35" si="13" xml:space="preserve"> S35 + T35</f>
+        <f t="shared" ref="U35" si="14" xml:space="preserve"> S35 + T35</f>
         <v>6</v>
       </c>
       <c r="V35" t="s">
@@ -7036,7 +7033,7 @@
       <c r="AC35" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD35" s="17" t="s">
+      <c r="AD35" t="s">
         <v>130</v>
       </c>
       <c r="AE35" t="s">
@@ -7046,7 +7043,7 @@
         <v>8</v>
       </c>
       <c r="AG35">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO35*AP35*AQ35) / 5 * U35</f>
+        <f t="shared" si="13"/>
         <v>76071.407048528155</v>
       </c>
       <c r="AH35" s="1">
@@ -7083,15 +7080,15 @@
         <v>50</v>
       </c>
       <c r="AS35" s="1">
-        <f t="shared" ref="AS35" si="14" xml:space="preserve"> _xlfn.FLOOR.MATH((AL35 - AO35) / 2)</f>
+        <f t="shared" ref="AS35" si="15" xml:space="preserve"> _xlfn.FLOOR.MATH((AL35 - AO35) / 2)</f>
         <v>13</v>
       </c>
       <c r="AT35">
-        <f t="shared" ref="AT35" si="15" xml:space="preserve"> _xlfn.FLOOR.MATH((AM35 - AP35) / 2)</f>
+        <f t="shared" ref="AT35" si="16" xml:space="preserve"> _xlfn.FLOOR.MATH((AM35 - AP35) / 2)</f>
         <v>192</v>
       </c>
       <c r="AU35">
-        <f t="shared" ref="AU35" si="16" xml:space="preserve"> _xlfn.FLOOR.MATH((AN35 - AQ35) / 2)</f>
+        <f t="shared" ref="AU35" si="17" xml:space="preserve"> _xlfn.FLOOR.MATH((AN35 - AQ35) / 2)</f>
         <v>15</v>
       </c>
       <c r="AV35" t="s">
@@ -7175,7 +7172,7 @@
         <v>1</v>
       </c>
       <c r="U36">
-        <f t="shared" ref="U36" si="17" xml:space="preserve"> S36 + T36</f>
+        <f t="shared" ref="U36" si="18" xml:space="preserve"> S36 + T36</f>
         <v>6</v>
       </c>
       <c r="V36" t="s">
@@ -7202,7 +7199,7 @@
       <c r="AC36" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD36" s="17" t="s">
+      <c r="AD36" t="s">
         <v>130</v>
       </c>
       <c r="AE36" t="s">
@@ -7212,7 +7209,7 @@
         <v>8</v>
       </c>
       <c r="AG36">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO36*AP36*AQ36) / 5 * U36</f>
+        <f t="shared" si="13"/>
         <v>76071.407048528155</v>
       </c>
       <c r="AH36" s="1">
@@ -7249,15 +7246,15 @@
         <v>50</v>
       </c>
       <c r="AS36" s="1">
-        <f t="shared" ref="AS36" si="18" xml:space="preserve"> _xlfn.FLOOR.MATH((AL36 - AO36) / 2)</f>
+        <f t="shared" ref="AS36" si="19" xml:space="preserve"> _xlfn.FLOOR.MATH((AL36 - AO36) / 2)</f>
         <v>13</v>
       </c>
       <c r="AT36">
-        <f t="shared" ref="AT36" si="19" xml:space="preserve"> _xlfn.FLOOR.MATH((AM36 - AP36) / 2)</f>
+        <f t="shared" ref="AT36" si="20" xml:space="preserve"> _xlfn.FLOOR.MATH((AM36 - AP36) / 2)</f>
         <v>192</v>
       </c>
       <c r="AU36">
-        <f t="shared" ref="AU36" si="20" xml:space="preserve"> _xlfn.FLOOR.MATH((AN36 - AQ36) / 2)</f>
+        <f t="shared" ref="AU36" si="21" xml:space="preserve"> _xlfn.FLOOR.MATH((AN36 - AQ36) / 2)</f>
         <v>15</v>
       </c>
       <c r="AV36" t="s">
@@ -7341,7 +7338,7 @@
         <v>1</v>
       </c>
       <c r="U37">
-        <f t="shared" ref="U37" si="21" xml:space="preserve"> S37 + T37</f>
+        <f t="shared" ref="U37" si="22" xml:space="preserve"> S37 + T37</f>
         <v>6</v>
       </c>
       <c r="V37" t="s">
@@ -7368,7 +7365,7 @@
       <c r="AC37" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD37" s="17" t="s">
+      <c r="AD37" t="s">
         <v>130</v>
       </c>
       <c r="AE37" t="s">
@@ -7378,7 +7375,7 @@
         <v>8</v>
       </c>
       <c r="AG37">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO37*AP37*AQ37) / 5 * U37</f>
+        <f t="shared" si="13"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AH37" s="1">
@@ -7415,15 +7412,15 @@
         <v>50</v>
       </c>
       <c r="AS37" s="1">
-        <f t="shared" ref="AS37" si="22" xml:space="preserve"> _xlfn.FLOOR.MATH((AL37 - AO37) / 2)</f>
+        <f t="shared" ref="AS37" si="23" xml:space="preserve"> _xlfn.FLOOR.MATH((AL37 - AO37) / 2)</f>
         <v>14</v>
       </c>
       <c r="AT37">
-        <f t="shared" ref="AT37" si="23" xml:space="preserve"> _xlfn.FLOOR.MATH((AM37 - AP37) / 2)</f>
+        <f t="shared" ref="AT37" si="24" xml:space="preserve"> _xlfn.FLOOR.MATH((AM37 - AP37) / 2)</f>
         <v>192</v>
       </c>
       <c r="AU37">
-        <f t="shared" ref="AU37" si="24" xml:space="preserve"> _xlfn.FLOOR.MATH((AN37 - AQ37) / 2)</f>
+        <f t="shared" ref="AU37" si="25" xml:space="preserve"> _xlfn.FLOOR.MATH((AN37 - AQ37) / 2)</f>
         <v>15</v>
       </c>
       <c r="AV37" t="s">
@@ -7507,7 +7504,7 @@
         <v>1</v>
       </c>
       <c r="U38">
-        <f t="shared" ref="U38" si="25" xml:space="preserve"> S38 + T38</f>
+        <f t="shared" ref="U38" si="26" xml:space="preserve"> S38 + T38</f>
         <v>6</v>
       </c>
       <c r="V38" t="s">
@@ -7534,7 +7531,7 @@
       <c r="AC38" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD38" s="17" t="s">
+      <c r="AD38" t="s">
         <v>130</v>
       </c>
       <c r="AE38" t="s">
@@ -7544,7 +7541,7 @@
         <v>8</v>
       </c>
       <c r="AG38">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO38*AP38*AQ38) / 5 * U38</f>
+        <f t="shared" si="13"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AH38" s="1">
@@ -7581,15 +7578,15 @@
         <v>50</v>
       </c>
       <c r="AS38" s="1">
-        <f t="shared" ref="AS38" si="26" xml:space="preserve"> _xlfn.FLOOR.MATH((AL38 - AO38) / 2)</f>
+        <f t="shared" ref="AS38" si="27" xml:space="preserve"> _xlfn.FLOOR.MATH((AL38 - AO38) / 2)</f>
         <v>14</v>
       </c>
       <c r="AT38">
-        <f t="shared" ref="AT38" si="27" xml:space="preserve"> _xlfn.FLOOR.MATH((AM38 - AP38) / 2)</f>
+        <f t="shared" ref="AT38" si="28" xml:space="preserve"> _xlfn.FLOOR.MATH((AM38 - AP38) / 2)</f>
         <v>192</v>
       </c>
       <c r="AU38">
-        <f t="shared" ref="AU38" si="28" xml:space="preserve"> _xlfn.FLOOR.MATH((AN38 - AQ38) / 2)</f>
+        <f t="shared" ref="AU38" si="29" xml:space="preserve"> _xlfn.FLOOR.MATH((AN38 - AQ38) / 2)</f>
         <v>15</v>
       </c>
       <c r="AV38" t="s">
@@ -7673,7 +7670,7 @@
         <v>1</v>
       </c>
       <c r="U39">
-        <f t="shared" ref="U39" si="29" xml:space="preserve"> S39 + T39</f>
+        <f t="shared" ref="U39" si="30" xml:space="preserve"> S39 + T39</f>
         <v>6</v>
       </c>
       <c r="V39" t="s">
@@ -7700,7 +7697,7 @@
       <c r="AC39" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD39" s="17" t="s">
+      <c r="AD39" t="s">
         <v>130</v>
       </c>
       <c r="AE39" t="s">
@@ -7710,7 +7707,7 @@
         <v>8</v>
       </c>
       <c r="AG39">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO39*AP39*AQ39) / 5 * U39</f>
+        <f t="shared" si="13"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AH39" s="1">
@@ -7747,15 +7744,15 @@
         <v>50</v>
       </c>
       <c r="AS39" s="1">
-        <f t="shared" ref="AS39" si="30" xml:space="preserve"> _xlfn.FLOOR.MATH((AL39 - AO39) / 2)</f>
+        <f t="shared" ref="AS39" si="31" xml:space="preserve"> _xlfn.FLOOR.MATH((AL39 - AO39) / 2)</f>
         <v>14</v>
       </c>
       <c r="AT39">
-        <f t="shared" ref="AT39" si="31" xml:space="preserve"> _xlfn.FLOOR.MATH((AM39 - AP39) / 2)</f>
+        <f t="shared" ref="AT39" si="32" xml:space="preserve"> _xlfn.FLOOR.MATH((AM39 - AP39) / 2)</f>
         <v>192</v>
       </c>
       <c r="AU39">
-        <f t="shared" ref="AU39" si="32" xml:space="preserve"> _xlfn.FLOOR.MATH((AN39 - AQ39) / 2)</f>
+        <f t="shared" ref="AU39" si="33" xml:space="preserve"> _xlfn.FLOOR.MATH((AN39 - AQ39) / 2)</f>
         <v>15</v>
       </c>
       <c r="AV39" t="s">
@@ -7839,7 +7836,7 @@
         <v>1</v>
       </c>
       <c r="U40">
-        <f t="shared" ref="U40" si="33" xml:space="preserve"> S40 + T40</f>
+        <f t="shared" ref="U40" si="34" xml:space="preserve"> S40 + T40</f>
         <v>6</v>
       </c>
       <c r="V40" t="s">
@@ -7866,7 +7863,7 @@
       <c r="AC40" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD40" s="17" t="s">
+      <c r="AD40" t="s">
         <v>130</v>
       </c>
       <c r="AE40" t="s">
@@ -7876,7 +7873,7 @@
         <v>8</v>
       </c>
       <c r="AG40">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO40*AP40*AQ40) / 5 * U40</f>
+        <f t="shared" si="13"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AH40" s="1">
@@ -7913,15 +7910,15 @@
         <v>50</v>
       </c>
       <c r="AS40" s="1">
-        <f t="shared" ref="AS40" si="34" xml:space="preserve"> _xlfn.FLOOR.MATH((AL40 - AO40) / 2)</f>
+        <f t="shared" ref="AS40" si="35" xml:space="preserve"> _xlfn.FLOOR.MATH((AL40 - AO40) / 2)</f>
         <v>14</v>
       </c>
       <c r="AT40">
-        <f t="shared" ref="AT40" si="35" xml:space="preserve"> _xlfn.FLOOR.MATH((AM40 - AP40) / 2)</f>
+        <f t="shared" ref="AT40" si="36" xml:space="preserve"> _xlfn.FLOOR.MATH((AM40 - AP40) / 2)</f>
         <v>192</v>
       </c>
       <c r="AU40">
-        <f t="shared" ref="AU40" si="36" xml:space="preserve"> _xlfn.FLOOR.MATH((AN40 - AQ40) / 2)</f>
+        <f t="shared" ref="AU40" si="37" xml:space="preserve"> _xlfn.FLOOR.MATH((AN40 - AQ40) / 2)</f>
         <v>15</v>
       </c>
       <c r="AV40" t="s">
@@ -8005,7 +8002,7 @@
         <v>1</v>
       </c>
       <c r="U41">
-        <f t="shared" ref="U41" si="37" xml:space="preserve"> S41 + T41</f>
+        <f t="shared" ref="U41" si="38" xml:space="preserve"> S41 + T41</f>
         <v>6</v>
       </c>
       <c r="V41" t="s">
@@ -8032,7 +8029,7 @@
       <c r="AC41" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD41" s="17" t="s">
+      <c r="AD41" t="s">
         <v>130</v>
       </c>
       <c r="AE41" t="s">
@@ -8042,7 +8039,7 @@
         <v>8</v>
       </c>
       <c r="AG41">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO41*AP41*AQ41) / 5 * U41</f>
+        <f t="shared" si="13"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AH41" s="1">
@@ -8079,15 +8076,15 @@
         <v>50</v>
       </c>
       <c r="AS41" s="1">
-        <f t="shared" ref="AS41" si="38" xml:space="preserve"> _xlfn.FLOOR.MATH((AL41 - AO41) / 2)</f>
+        <f t="shared" ref="AS41" si="39" xml:space="preserve"> _xlfn.FLOOR.MATH((AL41 - AO41) / 2)</f>
         <v>14</v>
       </c>
       <c r="AT41">
-        <f t="shared" ref="AT41" si="39" xml:space="preserve"> _xlfn.FLOOR.MATH((AM41 - AP41) / 2)</f>
+        <f t="shared" ref="AT41" si="40" xml:space="preserve"> _xlfn.FLOOR.MATH((AM41 - AP41) / 2)</f>
         <v>192</v>
       </c>
       <c r="AU41">
-        <f t="shared" ref="AU41" si="40" xml:space="preserve"> _xlfn.FLOOR.MATH((AN41 - AQ41) / 2)</f>
+        <f t="shared" ref="AU41" si="41" xml:space="preserve"> _xlfn.FLOOR.MATH((AN41 - AQ41) / 2)</f>
         <v>15</v>
       </c>
       <c r="AV41" t="s">
@@ -8171,7 +8168,7 @@
         <v>1</v>
       </c>
       <c r="U42">
-        <f t="shared" ref="U42" si="41" xml:space="preserve"> S42 + T42</f>
+        <f t="shared" ref="U42" si="42" xml:space="preserve"> S42 + T42</f>
         <v>6</v>
       </c>
       <c r="V42" t="s">
@@ -8198,7 +8195,7 @@
       <c r="AC42" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD42" s="17" t="s">
+      <c r="AD42" t="s">
         <v>130</v>
       </c>
       <c r="AE42" t="s">
@@ -8208,7 +8205,7 @@
         <v>8</v>
       </c>
       <c r="AG42">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO42*AP42*AQ42) / 5 * U42</f>
+        <f t="shared" si="13"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AH42" s="1">
@@ -8245,15 +8242,15 @@
         <v>50</v>
       </c>
       <c r="AS42" s="1">
-        <f t="shared" ref="AS42" si="42" xml:space="preserve"> _xlfn.FLOOR.MATH((AL42 - AO42) / 2)</f>
+        <f t="shared" ref="AS42" si="43" xml:space="preserve"> _xlfn.FLOOR.MATH((AL42 - AO42) / 2)</f>
         <v>14</v>
       </c>
       <c r="AT42">
-        <f t="shared" ref="AT42" si="43" xml:space="preserve"> _xlfn.FLOOR.MATH((AM42 - AP42) / 2)</f>
+        <f t="shared" ref="AT42" si="44" xml:space="preserve"> _xlfn.FLOOR.MATH((AM42 - AP42) / 2)</f>
         <v>192</v>
       </c>
       <c r="AU42">
-        <f t="shared" ref="AU42" si="44" xml:space="preserve"> _xlfn.FLOOR.MATH((AN42 - AQ42) / 2)</f>
+        <f t="shared" ref="AU42" si="45" xml:space="preserve"> _xlfn.FLOOR.MATH((AN42 - AQ42) / 2)</f>
         <v>15</v>
       </c>
       <c r="AV42" t="s">
@@ -8337,7 +8334,7 @@
         <v>1</v>
       </c>
       <c r="U43">
-        <f t="shared" ref="U43" si="45" xml:space="preserve"> S43 + T43</f>
+        <f t="shared" ref="U43" si="46" xml:space="preserve"> S43 + T43</f>
         <v>6</v>
       </c>
       <c r="V43" t="s">
@@ -8364,7 +8361,7 @@
       <c r="AC43" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD43" s="17" t="s">
+      <c r="AD43" t="s">
         <v>130</v>
       </c>
       <c r="AE43" t="s">
@@ -8374,7 +8371,7 @@
         <v>8</v>
       </c>
       <c r="AG43">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO43*AP43*AQ43) / 5 * U43</f>
+        <f t="shared" si="13"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AH43" s="1">
@@ -8411,15 +8408,15 @@
         <v>50</v>
       </c>
       <c r="AS43" s="1">
-        <f t="shared" ref="AS43" si="46" xml:space="preserve"> _xlfn.FLOOR.MATH((AL43 - AO43) / 2)</f>
+        <f t="shared" ref="AS43" si="47" xml:space="preserve"> _xlfn.FLOOR.MATH((AL43 - AO43) / 2)</f>
         <v>14</v>
       </c>
       <c r="AT43">
-        <f t="shared" ref="AT43" si="47" xml:space="preserve"> _xlfn.FLOOR.MATH((AM43 - AP43) / 2)</f>
+        <f t="shared" ref="AT43" si="48" xml:space="preserve"> _xlfn.FLOOR.MATH((AM43 - AP43) / 2)</f>
         <v>192</v>
       </c>
       <c r="AU43">
-        <f t="shared" ref="AU43" si="48" xml:space="preserve"> _xlfn.FLOOR.MATH((AN43 - AQ43) / 2)</f>
+        <f t="shared" ref="AU43" si="49" xml:space="preserve"> _xlfn.FLOOR.MATH((AN43 - AQ43) / 2)</f>
         <v>15</v>
       </c>
       <c r="AV43" t="s">
@@ -8503,7 +8500,7 @@
         <v>1</v>
       </c>
       <c r="U44">
-        <f t="shared" ref="U44" si="49" xml:space="preserve"> S44 + T44</f>
+        <f t="shared" ref="U44" si="50" xml:space="preserve"> S44 + T44</f>
         <v>6</v>
       </c>
       <c r="V44" t="s">
@@ -8530,7 +8527,7 @@
       <c r="AC44" s="10">
         <v>74967</v>
       </c>
-      <c r="AD44" s="17">
+      <c r="AD44">
         <v>6085</v>
       </c>
       <c r="AE44" t="s">
@@ -8540,7 +8537,7 @@
         <v>8</v>
       </c>
       <c r="AG44">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO44*AP44*AQ44) / 5 * U44</f>
+        <f t="shared" si="13"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AH44" s="1">
@@ -8577,15 +8574,15 @@
         <v>50</v>
       </c>
       <c r="AS44" s="1">
-        <f t="shared" ref="AS44" si="50" xml:space="preserve"> _xlfn.FLOOR.MATH((AL44 - AO44) / 2)</f>
+        <f t="shared" ref="AS44" si="51" xml:space="preserve"> _xlfn.FLOOR.MATH((AL44 - AO44) / 2)</f>
         <v>14</v>
       </c>
       <c r="AT44">
-        <f t="shared" ref="AT44" si="51" xml:space="preserve"> _xlfn.FLOOR.MATH((AM44 - AP44) / 2)</f>
+        <f t="shared" ref="AT44" si="52" xml:space="preserve"> _xlfn.FLOOR.MATH((AM44 - AP44) / 2)</f>
         <v>192</v>
       </c>
       <c r="AU44">
-        <f t="shared" ref="AU44" si="52" xml:space="preserve"> _xlfn.FLOOR.MATH((AN44 - AQ44) / 2)</f>
+        <f t="shared" ref="AU44" si="53" xml:space="preserve"> _xlfn.FLOOR.MATH((AN44 - AQ44) / 2)</f>
         <v>15</v>
       </c>
       <c r="AV44" t="s">
@@ -8669,7 +8666,7 @@
         <v>1</v>
       </c>
       <c r="U45" s="7">
-        <f t="shared" ref="U45" si="53" xml:space="preserve"> S45 + T45</f>
+        <f t="shared" ref="U45" si="54" xml:space="preserve"> S45 + T45</f>
         <v>6</v>
       </c>
       <c r="V45" s="7" t="s">
@@ -8696,7 +8693,7 @@
       <c r="AC45" s="11">
         <v>74965</v>
       </c>
-      <c r="AD45" s="19">
+      <c r="AD45" s="7">
         <v>6087</v>
       </c>
       <c r="AE45" s="7" t="s">
@@ -8706,7 +8703,7 @@
         <v>8</v>
       </c>
       <c r="AG45" s="7">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO45*AP45*AQ45) / 5 * U45</f>
+        <f t="shared" si="13"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AH45" s="8">
@@ -8743,15 +8740,15 @@
         <v>50</v>
       </c>
       <c r="AS45" s="8">
-        <f t="shared" ref="AS45" si="54" xml:space="preserve"> _xlfn.FLOOR.MATH((AL45 - AO45) / 2)</f>
+        <f t="shared" ref="AS45" si="55" xml:space="preserve"> _xlfn.FLOOR.MATH((AL45 - AO45) / 2)</f>
         <v>14</v>
       </c>
       <c r="AT45" s="7">
-        <f t="shared" ref="AT45" si="55" xml:space="preserve"> _xlfn.FLOOR.MATH((AM45 - AP45) / 2)</f>
+        <f t="shared" ref="AT45" si="56" xml:space="preserve"> _xlfn.FLOOR.MATH((AM45 - AP45) / 2)</f>
         <v>192</v>
       </c>
       <c r="AU45" s="7">
-        <f t="shared" ref="AU45" si="56" xml:space="preserve"> _xlfn.FLOOR.MATH((AN45 - AQ45) / 2)</f>
+        <f t="shared" ref="AU45" si="57" xml:space="preserve"> _xlfn.FLOOR.MATH((AN45 - AQ45) / 2)</f>
         <v>15</v>
       </c>
       <c r="AV45" s="7" t="s">
@@ -8774,255 +8771,255 @@
       </c>
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="B46" s="18" t="s">
+      <c r="A46" t="s">
+        <v>254</v>
+      </c>
+      <c r="B46" t="s">
         <v>132</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="P46" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="47" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
+      <c r="A47" t="s">
+        <v>255</v>
+      </c>
+      <c r="B47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="B47" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>249</v>
-      </c>
       <c r="P47" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
+      <c r="A48" t="s">
+        <v>256</v>
+      </c>
+      <c r="B48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="B48" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>250</v>
-      </c>
       <c r="P48" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
+      <c r="A49" t="s">
+        <v>257</v>
+      </c>
+      <c r="B49" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="B49" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>251</v>
-      </c>
       <c r="P49" s="1" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
+      <c r="A50" t="s">
+        <v>258</v>
+      </c>
+      <c r="B50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="B50" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>252</v>
-      </c>
       <c r="P50" s="1" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
+      <c r="A51" t="s">
+        <v>259</v>
+      </c>
+      <c r="B51" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="B51" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>253</v>
-      </c>
       <c r="P51" s="1" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
+      <c r="A52" t="s">
+        <v>260</v>
+      </c>
+      <c r="B52" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="B52" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>254</v>
-      </c>
       <c r="P52" s="1" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
+      <c r="A53" t="s">
+        <v>261</v>
+      </c>
+      <c r="B53" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="B53" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>255</v>
-      </c>
       <c r="P53" s="1" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
+      <c r="A54" t="s">
+        <v>262</v>
+      </c>
+      <c r="B54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="B54" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>256</v>
-      </c>
       <c r="P54" s="1" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="18" t="s">
+      <c r="A55" t="s">
+        <v>263</v>
+      </c>
+      <c r="B55" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="B55" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>257</v>
-      </c>
       <c r="P55" s="1" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
+      <c r="A56" t="s">
+        <v>264</v>
+      </c>
+      <c r="B56" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="B56" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>258</v>
-      </c>
       <c r="P56" s="1" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="18" t="s">
+      <c r="A57" t="s">
+        <v>265</v>
+      </c>
+      <c r="B57" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="B57" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>259</v>
-      </c>
       <c r="P57" s="1" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="18" t="s">
+      <c r="A58" t="s">
+        <v>266</v>
+      </c>
+      <c r="B58" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="B58" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>260</v>
-      </c>
       <c r="P58" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="18" t="s">
+      <c r="A59" t="s">
+        <v>267</v>
+      </c>
+      <c r="B59" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="B59" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>261</v>
-      </c>
       <c r="P59" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
+      <c r="A60" t="s">
+        <v>268</v>
+      </c>
+      <c r="B60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="B60" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>262</v>
-      </c>
       <c r="P60" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="18" t="s">
+      <c r="A61" t="s">
+        <v>269</v>
+      </c>
+      <c r="B61" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="B61" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>263</v>
-      </c>
       <c r="P61" s="1" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
+      <c r="A62" t="s">
+        <v>270</v>
+      </c>
+      <c r="B62" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="B62" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>264</v>
-      </c>
       <c r="P62" s="1" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="18" t="s">
+      <c r="A63" t="s">
+        <v>271</v>
+      </c>
+      <c r="B63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="B63" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>265</v>
-      </c>
       <c r="P63" s="1" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="69" spans="1:53" x14ac:dyDescent="0.25">
@@ -9044,46 +9041,46 @@
       <c r="F69" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G69" s="18" t="s">
+      <c r="G69" t="s">
         <v>130</v>
       </c>
-      <c r="H69" s="18" t="s">
+      <c r="H69" t="s">
         <v>130</v>
       </c>
-      <c r="I69" s="18" t="s">
+      <c r="I69" t="s">
         <v>130</v>
       </c>
-      <c r="J69" s="18" t="s">
+      <c r="J69" t="s">
         <v>130</v>
       </c>
-      <c r="K69" s="18" t="s">
+      <c r="K69" t="s">
         <v>130</v>
       </c>
-      <c r="L69" s="18" t="s">
+      <c r="L69" t="s">
         <v>130</v>
       </c>
-      <c r="M69" s="18" t="s">
+      <c r="M69" t="s">
         <v>130</v>
       </c>
-      <c r="N69" s="18" t="s">
+      <c r="N69" t="s">
         <v>130</v>
       </c>
-      <c r="O69" s="18" t="s">
+      <c r="O69" t="s">
         <v>130</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q69" s="18">
+        <v>228</v>
+      </c>
+      <c r="Q69">
         <v>6</v>
       </c>
       <c r="R69" t="s">
         <v>130</v>
       </c>
-      <c r="S69" s="18">
-        <v>5</v>
-      </c>
-      <c r="T69" s="18">
+      <c r="S69">
+        <v>5</v>
+      </c>
+      <c r="T69">
         <v>1</v>
       </c>
       <c r="U69">
@@ -9092,7 +9089,7 @@
       <c r="V69" t="s">
         <v>8</v>
       </c>
-      <c r="W69" s="18">
+      <c r="W69">
         <v>1</v>
       </c>
       <c r="X69">
@@ -9101,7 +9098,7 @@
       <c r="Y69" t="s">
         <v>100</v>
       </c>
-      <c r="Z69" s="18">
+      <c r="Z69">
         <v>1</v>
       </c>
       <c r="AA69">
@@ -9113,7 +9110,7 @@
       <c r="AC69" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="AD69" s="18" t="s">
+      <c r="AD69" t="s">
         <v>130</v>
       </c>
       <c r="AE69" t="s">
@@ -9160,15 +9157,15 @@
         <v>130</v>
       </c>
       <c r="AS69" s="1" t="e">
-        <f t="shared" ref="AS69" si="57" xml:space="preserve"> _xlfn.FLOOR.MATH((AL69 - AO69) / 2)</f>
+        <f t="shared" ref="AS69" si="58" xml:space="preserve"> _xlfn.FLOOR.MATH((AL69 - AO69) / 2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AT69" t="e">
-        <f t="shared" ref="AT69" si="58" xml:space="preserve"> _xlfn.FLOOR.MATH((AM69 - AP69) / 2)</f>
+        <f t="shared" ref="AT69" si="59" xml:space="preserve"> _xlfn.FLOOR.MATH((AM69 - AP69) / 2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AU69" t="e">
-        <f t="shared" ref="AU69" si="59" xml:space="preserve"> _xlfn.FLOOR.MATH((AN69 - AQ69) / 2)</f>
+        <f t="shared" ref="AU69" si="60" xml:space="preserve"> _xlfn.FLOOR.MATH((AN69 - AQ69) / 2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AV69" t="s">

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F12854F-9503-4618-A348-BB74DB8BD537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4127893C-12E3-4026-B6D4-7AC4598C12FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="2595" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
+    <workbookView xWindow="28680" yWindow="2505" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="272">
   <si>
     <t>patch z</t>
   </si>
@@ -1006,7 +1006,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1029,6 +1029,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1345,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
   <dimension ref="A1:BA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="X8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL32" sqref="AL32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1378,7 +1379,7 @@
     <col min="31" max="33" width="9.140625" customWidth="1"/>
     <col min="34" max="34" width="7.28515625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="35" max="36" width="7.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="37" max="37" width="23.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="26.28515625" customWidth="1" outlineLevel="1"/>
     <col min="38" max="38" width="6" style="10" bestFit="1" customWidth="1"/>
     <col min="39" max="40" width="6" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="5.28515625" style="1" customWidth="1"/>
@@ -8666,7 +8667,7 @@
         <v>1</v>
       </c>
       <c r="U45" s="7">
-        <f t="shared" ref="U45" si="54" xml:space="preserve"> S45 + T45</f>
+        <f t="shared" ref="U45:U46" si="54" xml:space="preserve"> S45 + T45</f>
         <v>6</v>
       </c>
       <c r="V45" s="7" t="s">
@@ -8782,6 +8783,67 @@
       </c>
       <c r="P46" s="1" t="s">
         <v>248</v>
+      </c>
+      <c r="Q46" s="18">
+        <v>6</v>
+      </c>
+      <c r="R46" t="s">
+        <v>130</v>
+      </c>
+      <c r="S46" s="18">
+        <v>5</v>
+      </c>
+      <c r="T46" s="18">
+        <v>1</v>
+      </c>
+      <c r="U46" s="18">
+        <f t="shared" si="54"/>
+        <v>6</v>
+      </c>
+      <c r="V46" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="W46" s="18">
+        <v>3</v>
+      </c>
+      <c r="X46" s="18">
+        <v>16</v>
+      </c>
+      <c r="Y46" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z46" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="18">
+        <v>8</v>
+      </c>
+      <c r="AB46" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC46" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD46" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE46" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF46" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI46" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ46" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:53" x14ac:dyDescent="0.25">

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4127893C-12E3-4026-B6D4-7AC4598C12FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4004801-FDF5-4100-BDA7-4907FED6A80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2505" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="274">
   <si>
     <t>patch z</t>
   </si>
@@ -801,58 +801,64 @@
     <t>dataset06.5</t>
   </si>
   <si>
-    <t>230928-0</t>
-  </si>
-  <si>
-    <t>230928-1</t>
-  </si>
-  <si>
-    <t>230928-2</t>
-  </si>
-  <si>
-    <t>230928-3</t>
-  </si>
-  <si>
-    <t>230928-4</t>
-  </si>
-  <si>
-    <t>230928-5</t>
-  </si>
-  <si>
-    <t>230928-6</t>
-  </si>
-  <si>
-    <t>230928-7</t>
-  </si>
-  <si>
-    <t>230928-8</t>
-  </si>
-  <si>
-    <t>230928-9</t>
-  </si>
-  <si>
-    <t>230928-10</t>
-  </si>
-  <si>
-    <t>230928-11</t>
-  </si>
-  <si>
-    <t>230928-12</t>
-  </si>
-  <si>
-    <t>230928-13</t>
-  </si>
-  <si>
-    <t>230928-14</t>
-  </si>
-  <si>
-    <t>230928-15</t>
-  </si>
-  <si>
-    <t>230928-16</t>
-  </si>
-  <si>
-    <t>230928-17</t>
+    <t>patch = arbitrary even int_2^3 chosen previously when maxing out (one) A100</t>
+  </si>
+  <si>
+    <t>patch = arbitrary even int_2^3 smaller than most previous run</t>
+  </si>
+  <si>
+    <t>230930-0</t>
+  </si>
+  <si>
+    <t>230930-1</t>
+  </si>
+  <si>
+    <t>230930-2</t>
+  </si>
+  <si>
+    <t>230930-3</t>
+  </si>
+  <si>
+    <t>230930-4</t>
+  </si>
+  <si>
+    <t>230930-5</t>
+  </si>
+  <si>
+    <t>230930-6</t>
+  </si>
+  <si>
+    <t>230930-7</t>
+  </si>
+  <si>
+    <t>230930-8</t>
+  </si>
+  <si>
+    <t>230930-9</t>
+  </si>
+  <si>
+    <t>230930-10</t>
+  </si>
+  <si>
+    <t>230930-11</t>
+  </si>
+  <si>
+    <t>230930-12</t>
+  </si>
+  <si>
+    <t>230930-13</t>
+  </si>
+  <si>
+    <t>230930-14</t>
+  </si>
+  <si>
+    <t>230930-15</t>
+  </si>
+  <si>
+    <t>230930-16</t>
+  </si>
+  <si>
+    <t>230930-17</t>
   </si>
 </sst>
 </file>
@@ -1346,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
   <dimension ref="A1:BA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL32" sqref="AL32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1362,7 +1368,7 @@
     <col min="8" max="8" width="30.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="9.140625" customWidth="1" outlineLevel="1"/>
     <col min="19" max="19" width="6.7109375" customWidth="1" outlineLevel="1"/>
     <col min="20" max="20" width="5.140625" customWidth="1" outlineLevel="1"/>
@@ -1389,7 +1395,7 @@
     <col min="46" max="46" width="6.5703125" customWidth="1"/>
     <col min="47" max="47" width="5" customWidth="1"/>
     <col min="48" max="48" width="6" customWidth="1"/>
-    <col min="49" max="49" width="34.28515625" style="10" customWidth="1"/>
+    <col min="49" max="49" width="74.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="74.42578125" customWidth="1"/>
     <col min="51" max="51" width="5.140625" customWidth="1"/>
     <col min="52" max="52" width="73.85546875" customWidth="1"/>
@@ -8667,7 +8673,7 @@
         <v>1</v>
       </c>
       <c r="U45" s="7">
-        <f t="shared" ref="U45:U46" si="54" xml:space="preserve"> S45 + T45</f>
+        <f t="shared" ref="U45:U63" si="54" xml:space="preserve"> S45 + T45</f>
         <v>6</v>
       </c>
       <c r="V45" s="7" t="s">
@@ -8772,8 +8778,8 @@
       </c>
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>254</v>
+      <c r="A46" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="B46" t="s">
         <v>132</v>
@@ -8781,74 +8787,159 @@
       <c r="C46" s="17" t="s">
         <v>230</v>
       </c>
+      <c r="F46" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G46" t="s">
+        <v>130</v>
+      </c>
+      <c r="H46" t="s">
+        <v>130</v>
+      </c>
+      <c r="I46" t="s">
+        <v>130</v>
+      </c>
+      <c r="J46" t="s">
+        <v>130</v>
+      </c>
+      <c r="K46" t="s">
+        <v>130</v>
+      </c>
+      <c r="L46" t="s">
+        <v>130</v>
+      </c>
+      <c r="M46" t="s">
+        <v>130</v>
+      </c>
+      <c r="N46" t="s">
+        <v>130</v>
+      </c>
+      <c r="O46" t="s">
+        <v>130</v>
+      </c>
       <c r="P46" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="Q46" s="18">
+      <c r="Q46">
         <v>6</v>
       </c>
       <c r="R46" t="s">
         <v>130</v>
       </c>
-      <c r="S46" s="18">
+      <c r="S46">
         <v>5</v>
       </c>
-      <c r="T46" s="18">
-        <v>1</v>
-      </c>
-      <c r="U46" s="18">
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46">
         <f t="shared" si="54"/>
         <v>6</v>
       </c>
-      <c r="V46" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="W46" s="18">
+      <c r="V46" t="s">
+        <v>8</v>
+      </c>
+      <c r="W46">
         <v>3</v>
       </c>
-      <c r="X46" s="18">
+      <c r="X46">
         <v>16</v>
       </c>
-      <c r="Y46" s="18" t="s">
+      <c r="Y46" t="s">
         <v>100</v>
       </c>
-      <c r="Z46" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA46" s="18">
-        <v>8</v>
-      </c>
-      <c r="AB46" s="18" t="s">
+      <c r="Z46">
+        <v>1</v>
+      </c>
+      <c r="AA46">
+        <v>8</v>
+      </c>
+      <c r="AB46" t="s">
         <v>102</v>
       </c>
       <c r="AC46" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD46" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE46" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF46" s="18" t="s">
-        <v>8</v>
+        <v>130</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG46">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO46*AP46*AQ46) * ((W46*X46 + Z46*AA46) / (3*16 + 1*8)) * (U46 / 5)</f>
+        <v>74549.706201272769</v>
       </c>
       <c r="AH46" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI46" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ46" s="18" t="s">
-        <v>8</v>
+        <v>130</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>130</v>
       </c>
       <c r="AK46" t="s">
         <v>111</v>
       </c>
+      <c r="AL46" s="10">
+        <v>125</v>
+      </c>
+      <c r="AM46" s="18">
+        <v>1169</v>
+      </c>
+      <c r="AN46" s="18">
+        <v>414</v>
+      </c>
+      <c r="AO46" s="1">
+        <v>96</v>
+      </c>
+      <c r="AP46">
+        <v>784</v>
+      </c>
+      <c r="AQ46">
+        <v>384</v>
+      </c>
+      <c r="AR46" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS46" s="1">
+        <f t="shared" ref="AS46:AS47" si="58" xml:space="preserve"> _xlfn.FLOOR.MATH((AL46 - AO46) / 2)</f>
+        <v>14</v>
+      </c>
+      <c r="AT46">
+        <f t="shared" ref="AT46:AT47" si="59" xml:space="preserve"> _xlfn.FLOOR.MATH((AM46 - AP46) / 2)</f>
+        <v>192</v>
+      </c>
+      <c r="AU46">
+        <f t="shared" ref="AU46:AU47" si="60" xml:space="preserve"> _xlfn.FLOOR.MATH((AN46 - AQ46) / 2)</f>
+        <v>15</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW46" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AX46" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY46" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ46" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA46" s="18" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="47" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>255</v>
+      <c r="A47" s="17" t="s">
+        <v>257</v>
       </c>
       <c r="B47" t="s">
         <v>132</v>
@@ -8856,13 +8947,159 @@
       <c r="C47" s="17" t="s">
         <v>231</v>
       </c>
+      <c r="F47" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" t="s">
+        <v>130</v>
+      </c>
+      <c r="H47" t="s">
+        <v>130</v>
+      </c>
+      <c r="I47" t="s">
+        <v>130</v>
+      </c>
+      <c r="J47" t="s">
+        <v>130</v>
+      </c>
+      <c r="K47" t="s">
+        <v>130</v>
+      </c>
+      <c r="L47" t="s">
+        <v>130</v>
+      </c>
+      <c r="M47" t="s">
+        <v>130</v>
+      </c>
+      <c r="N47" t="s">
+        <v>130</v>
+      </c>
+      <c r="O47" t="s">
+        <v>130</v>
+      </c>
       <c r="P47" s="1" t="s">
         <v>248</v>
       </c>
+      <c r="Q47">
+        <v>6</v>
+      </c>
+      <c r="R47" t="s">
+        <v>130</v>
+      </c>
+      <c r="S47">
+        <v>5</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="54"/>
+        <v>6</v>
+      </c>
+      <c r="V47" t="s">
+        <v>8</v>
+      </c>
+      <c r="W47">
+        <v>3</v>
+      </c>
+      <c r="X47">
+        <v>16</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z47">
+        <v>1</v>
+      </c>
+      <c r="AA47">
+        <v>8</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC47" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG47">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO47*AP47*AQ47) * ((W47*X47 + Z47*AA47) / (3*16 + 1*8)) * (U47 / 5)</f>
+        <v>22708.360330151121</v>
+      </c>
+      <c r="AH47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL47" s="10">
+        <v>125</v>
+      </c>
+      <c r="AM47" s="18">
+        <v>1169</v>
+      </c>
+      <c r="AN47" s="18">
+        <v>414</v>
+      </c>
+      <c r="AO47" s="1">
+        <v>64</v>
+      </c>
+      <c r="AP47" s="18">
+        <v>512</v>
+      </c>
+      <c r="AQ47" s="18">
+        <v>256</v>
+      </c>
+      <c r="AR47" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS47" s="1">
+        <f t="shared" si="58"/>
+        <v>30</v>
+      </c>
+      <c r="AT47">
+        <f t="shared" si="59"/>
+        <v>328</v>
+      </c>
+      <c r="AU47">
+        <f t="shared" si="60"/>
+        <v>79</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW47" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AX47" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY47" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ47" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA47" s="18" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="48" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>256</v>
+      <c r="A48" s="17" t="s">
+        <v>258</v>
       </c>
       <c r="B48" t="s">
         <v>132</v>
@@ -8870,13 +9107,159 @@
       <c r="C48" s="17" t="s">
         <v>232</v>
       </c>
+      <c r="F48" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48" t="s">
+        <v>130</v>
+      </c>
+      <c r="H48" t="s">
+        <v>130</v>
+      </c>
+      <c r="I48" t="s">
+        <v>130</v>
+      </c>
+      <c r="J48" t="s">
+        <v>130</v>
+      </c>
+      <c r="K48" t="s">
+        <v>130</v>
+      </c>
+      <c r="L48" t="s">
+        <v>130</v>
+      </c>
+      <c r="M48" t="s">
+        <v>130</v>
+      </c>
+      <c r="N48" t="s">
+        <v>130</v>
+      </c>
+      <c r="O48" t="s">
+        <v>130</v>
+      </c>
       <c r="P48" s="1" t="s">
         <v>248</v>
       </c>
+      <c r="Q48">
+        <v>6</v>
+      </c>
+      <c r="R48" t="s">
+        <v>130</v>
+      </c>
+      <c r="S48">
+        <v>5</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="54"/>
+        <v>6</v>
+      </c>
+      <c r="V48" t="s">
+        <v>8</v>
+      </c>
+      <c r="W48">
+        <v>3</v>
+      </c>
+      <c r="X48">
+        <v>16</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z48">
+        <v>1</v>
+      </c>
+      <c r="AA48">
+        <v>8</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC48" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG48">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO48*AP48*AQ48) * ((W48*X48 + Z48*AA48) / (3*16 + 1*8)) * (U48 / 5)</f>
+        <v>4158.1023826571118</v>
+      </c>
+      <c r="AH48" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL48" s="10">
+        <v>125</v>
+      </c>
+      <c r="AM48" s="18">
+        <v>1169</v>
+      </c>
+      <c r="AN48" s="18">
+        <v>414</v>
+      </c>
+      <c r="AO48" s="1">
+        <v>32</v>
+      </c>
+      <c r="AP48" s="18">
+        <v>256</v>
+      </c>
+      <c r="AQ48" s="18">
+        <v>128</v>
+      </c>
+      <c r="AR48" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS48" s="1">
+        <f t="shared" ref="AS48:AS63" si="61" xml:space="preserve"> _xlfn.FLOOR.MATH((AL48 - AO48) / 2)</f>
+        <v>46</v>
+      </c>
+      <c r="AT48">
+        <f t="shared" ref="AT48:AT63" si="62" xml:space="preserve"> _xlfn.FLOOR.MATH((AM48 - AP48) / 2)</f>
+        <v>456</v>
+      </c>
+      <c r="AU48">
+        <f t="shared" ref="AU48:AU63" si="63" xml:space="preserve"> _xlfn.FLOOR.MATH((AN48 - AQ48) / 2)</f>
+        <v>143</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW48" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AX48" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY48" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ48" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA48" s="18" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>257</v>
+    <row r="49" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>259</v>
       </c>
       <c r="B49" t="s">
         <v>132</v>
@@ -8884,13 +9267,159 @@
       <c r="C49" s="17" t="s">
         <v>233</v>
       </c>
+      <c r="F49" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G49" t="s">
+        <v>130</v>
+      </c>
+      <c r="H49" t="s">
+        <v>130</v>
+      </c>
+      <c r="I49" t="s">
+        <v>130</v>
+      </c>
+      <c r="J49" t="s">
+        <v>130</v>
+      </c>
+      <c r="K49" t="s">
+        <v>130</v>
+      </c>
+      <c r="L49" t="s">
+        <v>130</v>
+      </c>
+      <c r="M49" t="s">
+        <v>130</v>
+      </c>
+      <c r="N49" t="s">
+        <v>130</v>
+      </c>
+      <c r="O49" t="s">
+        <v>130</v>
+      </c>
       <c r="P49" s="1" t="s">
         <v>249</v>
       </c>
+      <c r="Q49">
+        <v>6</v>
+      </c>
+      <c r="R49" t="s">
+        <v>130</v>
+      </c>
+      <c r="S49">
+        <v>5</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="54"/>
+        <v>6</v>
+      </c>
+      <c r="V49" t="s">
+        <v>8</v>
+      </c>
+      <c r="W49">
+        <v>2</v>
+      </c>
+      <c r="X49">
+        <v>16</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z49">
+        <v>1</v>
+      </c>
+      <c r="AA49">
+        <v>8</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC49" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG49">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO49*AP49*AQ49) * ((W49*X49 + Z49*AA49) / (3*16 + 1*8)) * (U49 / 5)</f>
+        <v>53680.666010342022</v>
+      </c>
+      <c r="AH49" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL49" s="10">
+        <v>125</v>
+      </c>
+      <c r="AM49" s="18">
+        <v>1169</v>
+      </c>
+      <c r="AN49" s="18">
+        <v>414</v>
+      </c>
+      <c r="AO49" s="1">
+        <v>96</v>
+      </c>
+      <c r="AP49">
+        <v>784</v>
+      </c>
+      <c r="AQ49">
+        <v>384</v>
+      </c>
+      <c r="AR49" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS49" s="1">
+        <f t="shared" si="61"/>
+        <v>14</v>
+      </c>
+      <c r="AT49">
+        <f t="shared" si="62"/>
+        <v>192</v>
+      </c>
+      <c r="AU49">
+        <f t="shared" si="63"/>
+        <v>15</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW49" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AX49" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY49" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ49" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA49" s="18" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>258</v>
+    <row r="50" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>260</v>
       </c>
       <c r="B50" t="s">
         <v>132</v>
@@ -8898,13 +9427,159 @@
       <c r="C50" s="17" t="s">
         <v>234</v>
       </c>
+      <c r="F50" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G50" t="s">
+        <v>130</v>
+      </c>
+      <c r="H50" t="s">
+        <v>130</v>
+      </c>
+      <c r="I50" t="s">
+        <v>130</v>
+      </c>
+      <c r="J50" t="s">
+        <v>130</v>
+      </c>
+      <c r="K50" t="s">
+        <v>130</v>
+      </c>
+      <c r="L50" t="s">
+        <v>130</v>
+      </c>
+      <c r="M50" t="s">
+        <v>130</v>
+      </c>
+      <c r="N50" t="s">
+        <v>130</v>
+      </c>
+      <c r="O50" t="s">
+        <v>130</v>
+      </c>
       <c r="P50" s="1" t="s">
         <v>249</v>
       </c>
+      <c r="Q50">
+        <v>6</v>
+      </c>
+      <c r="R50" t="s">
+        <v>130</v>
+      </c>
+      <c r="S50">
+        <v>5</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="54"/>
+        <v>6</v>
+      </c>
+      <c r="V50" t="s">
+        <v>8</v>
+      </c>
+      <c r="W50">
+        <v>2</v>
+      </c>
+      <c r="X50">
+        <v>16</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z50">
+        <v>1</v>
+      </c>
+      <c r="AA50">
+        <v>8</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC50" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG50">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO50*AP50*AQ50) * ((W50*X50 + Z50*AA50) / (3*16 + 1*8)) * (U50 / 5)</f>
+        <v>16651.133245255118</v>
+      </c>
+      <c r="AH50" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL50" s="10">
+        <v>125</v>
+      </c>
+      <c r="AM50" s="18">
+        <v>1169</v>
+      </c>
+      <c r="AN50" s="18">
+        <v>414</v>
+      </c>
+      <c r="AO50" s="1">
+        <v>64</v>
+      </c>
+      <c r="AP50" s="18">
+        <v>512</v>
+      </c>
+      <c r="AQ50" s="18">
+        <v>256</v>
+      </c>
+      <c r="AR50" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS50" s="1">
+        <f t="shared" si="61"/>
+        <v>30</v>
+      </c>
+      <c r="AT50">
+        <f t="shared" si="62"/>
+        <v>328</v>
+      </c>
+      <c r="AU50">
+        <f t="shared" si="63"/>
+        <v>79</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW50" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AX50" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY50" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ50" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA50" s="18" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>259</v>
+    <row r="51" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>261</v>
       </c>
       <c r="B51" t="s">
         <v>132</v>
@@ -8912,13 +9587,159 @@
       <c r="C51" s="17" t="s">
         <v>235</v>
       </c>
+      <c r="F51" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G51" t="s">
+        <v>130</v>
+      </c>
+      <c r="H51" t="s">
+        <v>130</v>
+      </c>
+      <c r="I51" t="s">
+        <v>130</v>
+      </c>
+      <c r="J51" t="s">
+        <v>130</v>
+      </c>
+      <c r="K51" t="s">
+        <v>130</v>
+      </c>
+      <c r="L51" t="s">
+        <v>130</v>
+      </c>
+      <c r="M51" t="s">
+        <v>130</v>
+      </c>
+      <c r="N51" t="s">
+        <v>130</v>
+      </c>
+      <c r="O51" t="s">
+        <v>130</v>
+      </c>
       <c r="P51" s="1" t="s">
         <v>249</v>
       </c>
+      <c r="Q51">
+        <v>6</v>
+      </c>
+      <c r="R51" t="s">
+        <v>130</v>
+      </c>
+      <c r="S51">
+        <v>5</v>
+      </c>
+      <c r="T51">
+        <v>1</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="54"/>
+        <v>6</v>
+      </c>
+      <c r="V51" t="s">
+        <v>8</v>
+      </c>
+      <c r="W51">
+        <v>2</v>
+      </c>
+      <c r="X51">
+        <v>16</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z51">
+        <v>1</v>
+      </c>
+      <c r="AA51">
+        <v>8</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC51" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG51">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO51*AP51*AQ51) * ((W51*X51 + Z51*AA51) / (3*16 + 1*8)) * (U51 / 5)</f>
+        <v>3400.9489970451114</v>
+      </c>
+      <c r="AH51" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL51" s="10">
+        <v>125</v>
+      </c>
+      <c r="AM51" s="18">
+        <v>1169</v>
+      </c>
+      <c r="AN51" s="18">
+        <v>414</v>
+      </c>
+      <c r="AO51" s="1">
+        <v>32</v>
+      </c>
+      <c r="AP51" s="18">
+        <v>256</v>
+      </c>
+      <c r="AQ51" s="18">
+        <v>128</v>
+      </c>
+      <c r="AR51" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS51" s="1">
+        <f t="shared" si="61"/>
+        <v>46</v>
+      </c>
+      <c r="AT51">
+        <f t="shared" si="62"/>
+        <v>456</v>
+      </c>
+      <c r="AU51">
+        <f t="shared" si="63"/>
+        <v>143</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW51" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AX51" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY51" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ51" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA51" s="18" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>260</v>
+    <row r="52" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>262</v>
       </c>
       <c r="B52" t="s">
         <v>132</v>
@@ -8926,13 +9747,159 @@
       <c r="C52" s="17" t="s">
         <v>236</v>
       </c>
+      <c r="F52" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G52" t="s">
+        <v>130</v>
+      </c>
+      <c r="H52" t="s">
+        <v>130</v>
+      </c>
+      <c r="I52" t="s">
+        <v>130</v>
+      </c>
+      <c r="J52" t="s">
+        <v>130</v>
+      </c>
+      <c r="K52" t="s">
+        <v>130</v>
+      </c>
+      <c r="L52" t="s">
+        <v>130</v>
+      </c>
+      <c r="M52" t="s">
+        <v>130</v>
+      </c>
+      <c r="N52" t="s">
+        <v>130</v>
+      </c>
+      <c r="O52" t="s">
+        <v>130</v>
+      </c>
       <c r="P52" s="1" t="s">
         <v>250</v>
       </c>
+      <c r="Q52">
+        <v>6</v>
+      </c>
+      <c r="R52" t="s">
+        <v>130</v>
+      </c>
+      <c r="S52">
+        <v>5</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="54"/>
+        <v>6</v>
+      </c>
+      <c r="V52" t="s">
+        <v>8</v>
+      </c>
+      <c r="W52">
+        <v>1</v>
+      </c>
+      <c r="X52">
+        <v>16</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z52">
+        <v>1</v>
+      </c>
+      <c r="AA52">
+        <v>8</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC52" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG52">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO52*AP52*AQ52) * ((W52*X52 + Z52*AA52) / (3*16 + 1*8)) * (U52 / 5)</f>
+        <v>32811.625819411252</v>
+      </c>
+      <c r="AH52" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL52" s="10">
+        <v>125</v>
+      </c>
+      <c r="AM52" s="18">
+        <v>1169</v>
+      </c>
+      <c r="AN52" s="18">
+        <v>414</v>
+      </c>
+      <c r="AO52" s="1">
+        <v>96</v>
+      </c>
+      <c r="AP52">
+        <v>784</v>
+      </c>
+      <c r="AQ52">
+        <v>384</v>
+      </c>
+      <c r="AR52" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS52" s="1">
+        <f t="shared" si="61"/>
+        <v>14</v>
+      </c>
+      <c r="AT52">
+        <f t="shared" si="62"/>
+        <v>192</v>
+      </c>
+      <c r="AU52">
+        <f t="shared" si="63"/>
+        <v>15</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW52" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY52" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ52" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA52" s="18" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>261</v>
+    <row r="53" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>263</v>
       </c>
       <c r="B53" t="s">
         <v>132</v>
@@ -8940,13 +9907,159 @@
       <c r="C53" s="17" t="s">
         <v>237</v>
       </c>
+      <c r="F53" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G53" t="s">
+        <v>130</v>
+      </c>
+      <c r="H53" t="s">
+        <v>130</v>
+      </c>
+      <c r="I53" t="s">
+        <v>130</v>
+      </c>
+      <c r="J53" t="s">
+        <v>130</v>
+      </c>
+      <c r="K53" t="s">
+        <v>130</v>
+      </c>
+      <c r="L53" t="s">
+        <v>130</v>
+      </c>
+      <c r="M53" t="s">
+        <v>130</v>
+      </c>
+      <c r="N53" t="s">
+        <v>130</v>
+      </c>
+      <c r="O53" t="s">
+        <v>130</v>
+      </c>
       <c r="P53" s="1" t="s">
         <v>250</v>
       </c>
+      <c r="Q53">
+        <v>6</v>
+      </c>
+      <c r="R53" t="s">
+        <v>130</v>
+      </c>
+      <c r="S53">
+        <v>5</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="54"/>
+        <v>6</v>
+      </c>
+      <c r="V53" t="s">
+        <v>8</v>
+      </c>
+      <c r="W53">
+        <v>1</v>
+      </c>
+      <c r="X53">
+        <v>16</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z53">
+        <v>1</v>
+      </c>
+      <c r="AA53">
+        <v>8</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC53" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG53">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO53*AP53*AQ53) * ((W53*X53 + Z53*AA53) / (3*16 + 1*8)) * (U53 / 5)</f>
+        <v>10593.906160359114</v>
+      </c>
+      <c r="AH53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL53" s="10">
+        <v>125</v>
+      </c>
+      <c r="AM53" s="18">
+        <v>1169</v>
+      </c>
+      <c r="AN53" s="18">
+        <v>414</v>
+      </c>
+      <c r="AO53" s="1">
+        <v>64</v>
+      </c>
+      <c r="AP53" s="18">
+        <v>512</v>
+      </c>
+      <c r="AQ53" s="18">
+        <v>256</v>
+      </c>
+      <c r="AR53" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS53" s="1">
+        <f t="shared" si="61"/>
+        <v>30</v>
+      </c>
+      <c r="AT53">
+        <f t="shared" si="62"/>
+        <v>328</v>
+      </c>
+      <c r="AU53">
+        <f t="shared" si="63"/>
+        <v>79</v>
+      </c>
+      <c r="AV53" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW53" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AX53" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY53" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ53" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA53" s="18" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>262</v>
+    <row r="54" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>264</v>
       </c>
       <c r="B54" t="s">
         <v>132</v>
@@ -8954,13 +10067,159 @@
       <c r="C54" s="17" t="s">
         <v>238</v>
       </c>
+      <c r="F54" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G54" t="s">
+        <v>130</v>
+      </c>
+      <c r="H54" t="s">
+        <v>130</v>
+      </c>
+      <c r="I54" t="s">
+        <v>130</v>
+      </c>
+      <c r="J54" t="s">
+        <v>130</v>
+      </c>
+      <c r="K54" t="s">
+        <v>130</v>
+      </c>
+      <c r="L54" t="s">
+        <v>130</v>
+      </c>
+      <c r="M54" t="s">
+        <v>130</v>
+      </c>
+      <c r="N54" t="s">
+        <v>130</v>
+      </c>
+      <c r="O54" t="s">
+        <v>130</v>
+      </c>
       <c r="P54" s="1" t="s">
         <v>250</v>
       </c>
+      <c r="Q54">
+        <v>6</v>
+      </c>
+      <c r="R54" t="s">
+        <v>130</v>
+      </c>
+      <c r="S54">
+        <v>5</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="54"/>
+        <v>6</v>
+      </c>
+      <c r="V54" t="s">
+        <v>8</v>
+      </c>
+      <c r="W54">
+        <v>1</v>
+      </c>
+      <c r="X54">
+        <v>16</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z54">
+        <v>1</v>
+      </c>
+      <c r="AA54">
+        <v>8</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC54" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG54">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO54*AP54*AQ54) * ((W54*X54 + Z54*AA54) / (3*16 + 1*8)) * (U54 / 5)</f>
+        <v>2643.7956114331109</v>
+      </c>
+      <c r="AH54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL54" s="10">
+        <v>125</v>
+      </c>
+      <c r="AM54" s="18">
+        <v>1169</v>
+      </c>
+      <c r="AN54" s="18">
+        <v>414</v>
+      </c>
+      <c r="AO54" s="1">
+        <v>32</v>
+      </c>
+      <c r="AP54" s="18">
+        <v>256</v>
+      </c>
+      <c r="AQ54" s="18">
+        <v>128</v>
+      </c>
+      <c r="AR54" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS54" s="1">
+        <f t="shared" si="61"/>
+        <v>46</v>
+      </c>
+      <c r="AT54">
+        <f t="shared" si="62"/>
+        <v>456</v>
+      </c>
+      <c r="AU54">
+        <f t="shared" si="63"/>
+        <v>143</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW54" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AX54" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY54" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ54" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA54" s="18" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>263</v>
+    <row r="55" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>265</v>
       </c>
       <c r="B55" t="s">
         <v>132</v>
@@ -8968,13 +10227,159 @@
       <c r="C55" s="17" t="s">
         <v>239</v>
       </c>
+      <c r="F55" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G55" t="s">
+        <v>130</v>
+      </c>
+      <c r="H55" t="s">
+        <v>130</v>
+      </c>
+      <c r="I55" t="s">
+        <v>130</v>
+      </c>
+      <c r="J55" t="s">
+        <v>130</v>
+      </c>
+      <c r="K55" t="s">
+        <v>130</v>
+      </c>
+      <c r="L55" t="s">
+        <v>130</v>
+      </c>
+      <c r="M55" t="s">
+        <v>130</v>
+      </c>
+      <c r="N55" t="s">
+        <v>130</v>
+      </c>
+      <c r="O55" t="s">
+        <v>130</v>
+      </c>
       <c r="P55" s="1" t="s">
         <v>251</v>
       </c>
+      <c r="Q55">
+        <v>6</v>
+      </c>
+      <c r="R55" t="s">
+        <v>130</v>
+      </c>
+      <c r="S55">
+        <v>5</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="54"/>
+        <v>6</v>
+      </c>
+      <c r="V55" t="s">
+        <v>8</v>
+      </c>
+      <c r="W55">
+        <v>3</v>
+      </c>
+      <c r="X55">
+        <v>8</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z55">
+        <v>1</v>
+      </c>
+      <c r="AA55">
+        <v>8</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC55" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG55">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO55*AP55*AQ55) * ((W55*X55 + Z55*AA55) / (3*16 + 1*8)) * (U55 / 5)</f>
+        <v>43246.145914876637</v>
+      </c>
+      <c r="AH55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL55" s="10">
+        <v>125</v>
+      </c>
+      <c r="AM55" s="18">
+        <v>1169</v>
+      </c>
+      <c r="AN55" s="18">
+        <v>414</v>
+      </c>
+      <c r="AO55" s="1">
+        <v>96</v>
+      </c>
+      <c r="AP55">
+        <v>784</v>
+      </c>
+      <c r="AQ55">
+        <v>384</v>
+      </c>
+      <c r="AR55" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS55" s="1">
+        <f t="shared" si="61"/>
+        <v>14</v>
+      </c>
+      <c r="AT55">
+        <f t="shared" si="62"/>
+        <v>192</v>
+      </c>
+      <c r="AU55">
+        <f t="shared" si="63"/>
+        <v>15</v>
+      </c>
+      <c r="AV55" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW55" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AX55" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY55" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ55" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA55" s="18" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>264</v>
+    <row r="56" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>266</v>
       </c>
       <c r="B56" t="s">
         <v>132</v>
@@ -8982,13 +10387,159 @@
       <c r="C56" s="17" t="s">
         <v>240</v>
       </c>
+      <c r="F56" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G56" t="s">
+        <v>130</v>
+      </c>
+      <c r="H56" t="s">
+        <v>130</v>
+      </c>
+      <c r="I56" t="s">
+        <v>130</v>
+      </c>
+      <c r="J56" t="s">
+        <v>130</v>
+      </c>
+      <c r="K56" t="s">
+        <v>130</v>
+      </c>
+      <c r="L56" t="s">
+        <v>130</v>
+      </c>
+      <c r="M56" t="s">
+        <v>130</v>
+      </c>
+      <c r="N56" t="s">
+        <v>130</v>
+      </c>
+      <c r="O56" t="s">
+        <v>130</v>
+      </c>
       <c r="P56" s="1" t="s">
         <v>251</v>
       </c>
+      <c r="Q56">
+        <v>6</v>
+      </c>
+      <c r="R56" t="s">
+        <v>130</v>
+      </c>
+      <c r="S56">
+        <v>5</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="54"/>
+        <v>6</v>
+      </c>
+      <c r="V56" t="s">
+        <v>8</v>
+      </c>
+      <c r="W56">
+        <v>3</v>
+      </c>
+      <c r="X56">
+        <v>8</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z56">
+        <v>1</v>
+      </c>
+      <c r="AA56">
+        <v>8</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC56" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG56">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO56*AP56*AQ56) * ((W56*X56 + Z56*AA56) / (3*16 + 1*8)) * (U56 / 5)</f>
+        <v>13622.519702807114</v>
+      </c>
+      <c r="AH56" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL56" s="10">
+        <v>125</v>
+      </c>
+      <c r="AM56" s="18">
+        <v>1169</v>
+      </c>
+      <c r="AN56" s="18">
+        <v>414</v>
+      </c>
+      <c r="AO56" s="1">
+        <v>64</v>
+      </c>
+      <c r="AP56" s="18">
+        <v>512</v>
+      </c>
+      <c r="AQ56" s="18">
+        <v>256</v>
+      </c>
+      <c r="AR56" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS56" s="1">
+        <f t="shared" si="61"/>
+        <v>30</v>
+      </c>
+      <c r="AT56">
+        <f t="shared" si="62"/>
+        <v>328</v>
+      </c>
+      <c r="AU56">
+        <f t="shared" si="63"/>
+        <v>79</v>
+      </c>
+      <c r="AV56" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW56" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AX56" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY56" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ56" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA56" s="18" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>265</v>
+    <row r="57" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>267</v>
       </c>
       <c r="B57" t="s">
         <v>132</v>
@@ -8996,13 +10547,159 @@
       <c r="C57" s="17" t="s">
         <v>241</v>
       </c>
+      <c r="F57" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G57" t="s">
+        <v>130</v>
+      </c>
+      <c r="H57" t="s">
+        <v>130</v>
+      </c>
+      <c r="I57" t="s">
+        <v>130</v>
+      </c>
+      <c r="J57" t="s">
+        <v>130</v>
+      </c>
+      <c r="K57" t="s">
+        <v>130</v>
+      </c>
+      <c r="L57" t="s">
+        <v>130</v>
+      </c>
+      <c r="M57" t="s">
+        <v>130</v>
+      </c>
+      <c r="N57" t="s">
+        <v>130</v>
+      </c>
+      <c r="O57" t="s">
+        <v>130</v>
+      </c>
       <c r="P57" s="1" t="s">
         <v>251</v>
       </c>
+      <c r="Q57">
+        <v>6</v>
+      </c>
+      <c r="R57" t="s">
+        <v>130</v>
+      </c>
+      <c r="S57">
+        <v>5</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="54"/>
+        <v>6</v>
+      </c>
+      <c r="V57" t="s">
+        <v>8</v>
+      </c>
+      <c r="W57">
+        <v>3</v>
+      </c>
+      <c r="X57">
+        <v>8</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z57">
+        <v>1</v>
+      </c>
+      <c r="AA57">
+        <v>8</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC57" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG57">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO57*AP57*AQ57) * ((W57*X57 + Z57*AA57) / (3*16 + 1*8)) * (U57 / 5)</f>
+        <v>3022.3723042391107</v>
+      </c>
+      <c r="AH57" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK57" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL57" s="10">
+        <v>125</v>
+      </c>
+      <c r="AM57" s="18">
+        <v>1169</v>
+      </c>
+      <c r="AN57" s="18">
+        <v>414</v>
+      </c>
+      <c r="AO57" s="1">
+        <v>32</v>
+      </c>
+      <c r="AP57" s="18">
+        <v>256</v>
+      </c>
+      <c r="AQ57" s="18">
+        <v>128</v>
+      </c>
+      <c r="AR57" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS57" s="1">
+        <f t="shared" si="61"/>
+        <v>46</v>
+      </c>
+      <c r="AT57">
+        <f t="shared" si="62"/>
+        <v>456</v>
+      </c>
+      <c r="AU57">
+        <f t="shared" si="63"/>
+        <v>143</v>
+      </c>
+      <c r="AV57" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW57" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AX57" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY57" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ57" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA57" s="18" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>266</v>
+    <row r="58" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>268</v>
       </c>
       <c r="B58" t="s">
         <v>132</v>
@@ -9010,13 +10707,159 @@
       <c r="C58" s="17" t="s">
         <v>242</v>
       </c>
+      <c r="F58" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G58" t="s">
+        <v>130</v>
+      </c>
+      <c r="H58" t="s">
+        <v>130</v>
+      </c>
+      <c r="I58" t="s">
+        <v>130</v>
+      </c>
+      <c r="J58" t="s">
+        <v>130</v>
+      </c>
+      <c r="K58" t="s">
+        <v>130</v>
+      </c>
+      <c r="L58" t="s">
+        <v>130</v>
+      </c>
+      <c r="M58" t="s">
+        <v>130</v>
+      </c>
+      <c r="N58" t="s">
+        <v>130</v>
+      </c>
+      <c r="O58" t="s">
+        <v>130</v>
+      </c>
       <c r="P58" s="1" t="s">
         <v>252</v>
       </c>
+      <c r="Q58">
+        <v>6</v>
+      </c>
+      <c r="R58" t="s">
+        <v>130</v>
+      </c>
+      <c r="S58">
+        <v>5</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="54"/>
+        <v>6</v>
+      </c>
+      <c r="V58" t="s">
+        <v>8</v>
+      </c>
+      <c r="W58">
+        <v>2</v>
+      </c>
+      <c r="X58">
+        <v>8</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z58">
+        <v>1</v>
+      </c>
+      <c r="AA58">
+        <v>8</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC58" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG58">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO58*AP58*AQ58) * ((W58*X58 + Z58*AA58) / (3*16 + 1*8)) * (U58 / 5)</f>
+        <v>32811.625819411252</v>
+      </c>
+      <c r="AH58" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL58" s="10">
+        <v>125</v>
+      </c>
+      <c r="AM58" s="18">
+        <v>1169</v>
+      </c>
+      <c r="AN58" s="18">
+        <v>414</v>
+      </c>
+      <c r="AO58" s="1">
+        <v>96</v>
+      </c>
+      <c r="AP58">
+        <v>784</v>
+      </c>
+      <c r="AQ58">
+        <v>384</v>
+      </c>
+      <c r="AR58" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS58" s="1">
+        <f t="shared" si="61"/>
+        <v>14</v>
+      </c>
+      <c r="AT58">
+        <f t="shared" si="62"/>
+        <v>192</v>
+      </c>
+      <c r="AU58">
+        <f t="shared" si="63"/>
+        <v>15</v>
+      </c>
+      <c r="AV58" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW58" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AX58" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY58" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ58" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA58" s="18" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>267</v>
+    <row r="59" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
+        <v>269</v>
       </c>
       <c r="B59" t="s">
         <v>132</v>
@@ -9024,13 +10867,159 @@
       <c r="C59" s="17" t="s">
         <v>243</v>
       </c>
+      <c r="F59" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G59" t="s">
+        <v>130</v>
+      </c>
+      <c r="H59" t="s">
+        <v>130</v>
+      </c>
+      <c r="I59" t="s">
+        <v>130</v>
+      </c>
+      <c r="J59" t="s">
+        <v>130</v>
+      </c>
+      <c r="K59" t="s">
+        <v>130</v>
+      </c>
+      <c r="L59" t="s">
+        <v>130</v>
+      </c>
+      <c r="M59" t="s">
+        <v>130</v>
+      </c>
+      <c r="N59" t="s">
+        <v>130</v>
+      </c>
+      <c r="O59" t="s">
+        <v>130</v>
+      </c>
       <c r="P59" s="1" t="s">
         <v>252</v>
       </c>
+      <c r="Q59">
+        <v>6</v>
+      </c>
+      <c r="R59" t="s">
+        <v>130</v>
+      </c>
+      <c r="S59">
+        <v>5</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="54"/>
+        <v>6</v>
+      </c>
+      <c r="V59" t="s">
+        <v>8</v>
+      </c>
+      <c r="W59">
+        <v>2</v>
+      </c>
+      <c r="X59">
+        <v>8</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z59">
+        <v>1</v>
+      </c>
+      <c r="AA59">
+        <v>8</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC59" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG59">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO59*AP59*AQ59) * ((W59*X59 + Z59*AA59) / (3*16 + 1*8)) * (U59 / 5)</f>
+        <v>10593.906160359114</v>
+      </c>
+      <c r="AH59" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL59" s="10">
+        <v>125</v>
+      </c>
+      <c r="AM59" s="18">
+        <v>1169</v>
+      </c>
+      <c r="AN59" s="18">
+        <v>414</v>
+      </c>
+      <c r="AO59" s="1">
+        <v>64</v>
+      </c>
+      <c r="AP59" s="18">
+        <v>512</v>
+      </c>
+      <c r="AQ59" s="18">
+        <v>256</v>
+      </c>
+      <c r="AR59" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS59" s="1">
+        <f t="shared" si="61"/>
+        <v>30</v>
+      </c>
+      <c r="AT59">
+        <f t="shared" si="62"/>
+        <v>328</v>
+      </c>
+      <c r="AU59">
+        <f t="shared" si="63"/>
+        <v>79</v>
+      </c>
+      <c r="AV59" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW59" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AX59" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY59" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ59" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA59" s="18" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>268</v>
+    <row r="60" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="B60" t="s">
         <v>132</v>
@@ -9038,13 +11027,159 @@
       <c r="C60" s="17" t="s">
         <v>244</v>
       </c>
+      <c r="F60" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G60" t="s">
+        <v>130</v>
+      </c>
+      <c r="H60" t="s">
+        <v>130</v>
+      </c>
+      <c r="I60" t="s">
+        <v>130</v>
+      </c>
+      <c r="J60" t="s">
+        <v>130</v>
+      </c>
+      <c r="K60" t="s">
+        <v>130</v>
+      </c>
+      <c r="L60" t="s">
+        <v>130</v>
+      </c>
+      <c r="M60" t="s">
+        <v>130</v>
+      </c>
+      <c r="N60" t="s">
+        <v>130</v>
+      </c>
+      <c r="O60" t="s">
+        <v>130</v>
+      </c>
       <c r="P60" s="1" t="s">
         <v>252</v>
       </c>
+      <c r="Q60">
+        <v>6</v>
+      </c>
+      <c r="R60" t="s">
+        <v>130</v>
+      </c>
+      <c r="S60">
+        <v>5</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="54"/>
+        <v>6</v>
+      </c>
+      <c r="V60" t="s">
+        <v>8</v>
+      </c>
+      <c r="W60">
+        <v>2</v>
+      </c>
+      <c r="X60">
+        <v>8</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z60">
+        <v>1</v>
+      </c>
+      <c r="AA60">
+        <v>8</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC60" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG60">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO60*AP60*AQ60) * ((W60*X60 + Z60*AA60) / (3*16 + 1*8)) * (U60 / 5)</f>
+        <v>2643.7956114331109</v>
+      </c>
+      <c r="AH60" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL60" s="10">
+        <v>125</v>
+      </c>
+      <c r="AM60" s="18">
+        <v>1169</v>
+      </c>
+      <c r="AN60" s="18">
+        <v>414</v>
+      </c>
+      <c r="AO60" s="1">
+        <v>32</v>
+      </c>
+      <c r="AP60" s="18">
+        <v>256</v>
+      </c>
+      <c r="AQ60" s="18">
+        <v>128</v>
+      </c>
+      <c r="AR60" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS60" s="1">
+        <f t="shared" si="61"/>
+        <v>46</v>
+      </c>
+      <c r="AT60">
+        <f t="shared" si="62"/>
+        <v>456</v>
+      </c>
+      <c r="AU60">
+        <f t="shared" si="63"/>
+        <v>143</v>
+      </c>
+      <c r="AV60" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW60" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AX60" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY60" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ60" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA60" s="18" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>269</v>
+    <row r="61" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
+        <v>271</v>
       </c>
       <c r="B61" t="s">
         <v>132</v>
@@ -9052,13 +11187,159 @@
       <c r="C61" s="17" t="s">
         <v>245</v>
       </c>
+      <c r="F61" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G61" t="s">
+        <v>130</v>
+      </c>
+      <c r="H61" t="s">
+        <v>130</v>
+      </c>
+      <c r="I61" t="s">
+        <v>130</v>
+      </c>
+      <c r="J61" t="s">
+        <v>130</v>
+      </c>
+      <c r="K61" t="s">
+        <v>130</v>
+      </c>
+      <c r="L61" t="s">
+        <v>130</v>
+      </c>
+      <c r="M61" t="s">
+        <v>130</v>
+      </c>
+      <c r="N61" t="s">
+        <v>130</v>
+      </c>
+      <c r="O61" t="s">
+        <v>130</v>
+      </c>
       <c r="P61" s="1" t="s">
         <v>253</v>
       </c>
+      <c r="Q61">
+        <v>6</v>
+      </c>
+      <c r="R61" t="s">
+        <v>130</v>
+      </c>
+      <c r="S61">
+        <v>5</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="54"/>
+        <v>6</v>
+      </c>
+      <c r="V61" t="s">
+        <v>8</v>
+      </c>
+      <c r="W61">
+        <v>1</v>
+      </c>
+      <c r="X61">
+        <v>8</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z61">
+        <v>1</v>
+      </c>
+      <c r="AA61">
+        <v>8</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC61" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG61">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO61*AP61*AQ61) * ((W61*X61 + Z61*AA61) / (3*16 + 1*8)) * (U61 / 5)</f>
+        <v>22377.105723945871</v>
+      </c>
+      <c r="AH61" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL61" s="10">
+        <v>125</v>
+      </c>
+      <c r="AM61" s="18">
+        <v>1169</v>
+      </c>
+      <c r="AN61" s="18">
+        <v>414</v>
+      </c>
+      <c r="AO61" s="1">
+        <v>96</v>
+      </c>
+      <c r="AP61">
+        <v>784</v>
+      </c>
+      <c r="AQ61">
+        <v>384</v>
+      </c>
+      <c r="AR61" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS61" s="1">
+        <f t="shared" si="61"/>
+        <v>14</v>
+      </c>
+      <c r="AT61">
+        <f t="shared" si="62"/>
+        <v>192</v>
+      </c>
+      <c r="AU61">
+        <f t="shared" si="63"/>
+        <v>15</v>
+      </c>
+      <c r="AV61" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW61" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AX61" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY61" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ61" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA61" s="18" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>270</v>
+    <row r="62" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
+        <v>272</v>
       </c>
       <c r="B62" t="s">
         <v>132</v>
@@ -9066,13 +11347,159 @@
       <c r="C62" s="17" t="s">
         <v>246</v>
       </c>
+      <c r="F62" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G62" t="s">
+        <v>130</v>
+      </c>
+      <c r="H62" t="s">
+        <v>130</v>
+      </c>
+      <c r="I62" t="s">
+        <v>130</v>
+      </c>
+      <c r="J62" t="s">
+        <v>130</v>
+      </c>
+      <c r="K62" t="s">
+        <v>130</v>
+      </c>
+      <c r="L62" t="s">
+        <v>130</v>
+      </c>
+      <c r="M62" t="s">
+        <v>130</v>
+      </c>
+      <c r="N62" t="s">
+        <v>130</v>
+      </c>
+      <c r="O62" t="s">
+        <v>130</v>
+      </c>
       <c r="P62" s="1" t="s">
         <v>253</v>
       </c>
+      <c r="Q62">
+        <v>6</v>
+      </c>
+      <c r="R62" t="s">
+        <v>130</v>
+      </c>
+      <c r="S62">
+        <v>5</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="54"/>
+        <v>6</v>
+      </c>
+      <c r="V62" t="s">
+        <v>8</v>
+      </c>
+      <c r="W62">
+        <v>1</v>
+      </c>
+      <c r="X62">
+        <v>8</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z62">
+        <v>1</v>
+      </c>
+      <c r="AA62">
+        <v>8</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC62" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG62">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO62*AP62*AQ62) * ((W62*X62 + Z62*AA62) / (3*16 + 1*8)) * (U62 / 5)</f>
+        <v>7565.2926179111128</v>
+      </c>
+      <c r="AH62" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL62" s="10">
+        <v>125</v>
+      </c>
+      <c r="AM62" s="18">
+        <v>1169</v>
+      </c>
+      <c r="AN62" s="18">
+        <v>414</v>
+      </c>
+      <c r="AO62" s="1">
+        <v>64</v>
+      </c>
+      <c r="AP62" s="18">
+        <v>512</v>
+      </c>
+      <c r="AQ62" s="18">
+        <v>256</v>
+      </c>
+      <c r="AR62" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS62" s="1">
+        <f t="shared" si="61"/>
+        <v>30</v>
+      </c>
+      <c r="AT62">
+        <f t="shared" si="62"/>
+        <v>328</v>
+      </c>
+      <c r="AU62">
+        <f t="shared" si="63"/>
+        <v>79</v>
+      </c>
+      <c r="AV62" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW62" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AX62" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY62" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ62" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA62" s="18" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>271</v>
+    <row r="63" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
+        <v>273</v>
       </c>
       <c r="B63" t="s">
         <v>132</v>
@@ -9080,9 +11507,175 @@
       <c r="C63" s="17" t="s">
         <v>247</v>
       </c>
+      <c r="F63" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G63" t="s">
+        <v>130</v>
+      </c>
+      <c r="H63" t="s">
+        <v>130</v>
+      </c>
+      <c r="I63" t="s">
+        <v>130</v>
+      </c>
+      <c r="J63" t="s">
+        <v>130</v>
+      </c>
+      <c r="K63" t="s">
+        <v>130</v>
+      </c>
+      <c r="L63" t="s">
+        <v>130</v>
+      </c>
+      <c r="M63" t="s">
+        <v>130</v>
+      </c>
+      <c r="N63" t="s">
+        <v>130</v>
+      </c>
+      <c r="O63" t="s">
+        <v>130</v>
+      </c>
       <c r="P63" s="1" t="s">
         <v>253</v>
       </c>
+      <c r="Q63">
+        <v>6</v>
+      </c>
+      <c r="R63" t="s">
+        <v>130</v>
+      </c>
+      <c r="S63">
+        <v>5</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="54"/>
+        <v>6</v>
+      </c>
+      <c r="V63" t="s">
+        <v>8</v>
+      </c>
+      <c r="W63">
+        <v>1</v>
+      </c>
+      <c r="X63">
+        <v>8</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z63">
+        <v>1</v>
+      </c>
+      <c r="AA63">
+        <v>8</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC63" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG63">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO63*AP63*AQ63) * ((W63*X63 + Z63*AA63) / (3*16 + 1*8)) * (U63 / 5)</f>
+        <v>2265.2189186271103</v>
+      </c>
+      <c r="AH63" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK63" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL63" s="10">
+        <v>125</v>
+      </c>
+      <c r="AM63" s="18">
+        <v>1169</v>
+      </c>
+      <c r="AN63" s="18">
+        <v>414</v>
+      </c>
+      <c r="AO63" s="1">
+        <v>32</v>
+      </c>
+      <c r="AP63" s="18">
+        <v>256</v>
+      </c>
+      <c r="AQ63" s="18">
+        <v>128</v>
+      </c>
+      <c r="AR63" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS63" s="1">
+        <f t="shared" si="61"/>
+        <v>46</v>
+      </c>
+      <c r="AT63">
+        <f t="shared" si="62"/>
+        <v>456</v>
+      </c>
+      <c r="AU63">
+        <f t="shared" si="63"/>
+        <v>143</v>
+      </c>
+      <c r="AV63" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW63" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AX63" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ63" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA63" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="AZ64" s="18"/>
+      <c r="BA64" s="18"/>
+    </row>
+    <row r="65" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="AZ65" s="18"/>
+      <c r="BA65" s="18"/>
+    </row>
+    <row r="66" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="AZ66" s="18"/>
+      <c r="BA66" s="18"/>
+    </row>
+    <row r="67" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="AZ67" s="18"/>
+      <c r="BA67" s="18"/>
+    </row>
+    <row r="68" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="AZ68" s="18"/>
+      <c r="BA68" s="18"/>
     </row>
     <row r="69" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -9219,15 +11812,15 @@
         <v>130</v>
       </c>
       <c r="AS69" s="1" t="e">
-        <f t="shared" ref="AS69" si="58" xml:space="preserve"> _xlfn.FLOOR.MATH((AL69 - AO69) / 2)</f>
+        <f t="shared" ref="AS69" si="64" xml:space="preserve"> _xlfn.FLOOR.MATH((AL69 - AO69) / 2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AT69" t="e">
-        <f t="shared" ref="AT69" si="59" xml:space="preserve"> _xlfn.FLOOR.MATH((AM69 - AP69) / 2)</f>
+        <f t="shared" ref="AT69" si="65" xml:space="preserve"> _xlfn.FLOOR.MATH((AM69 - AP69) / 2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AU69" t="e">
-        <f t="shared" ref="AU69" si="60" xml:space="preserve"> _xlfn.FLOOR.MATH((AN69 - AQ69) / 2)</f>
+        <f t="shared" ref="AU69" si="66" xml:space="preserve"> _xlfn.FLOOR.MATH((AN69 - AQ69) / 2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AV69" t="s">

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4004801-FDF5-4100-BDA7-4907FED6A80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433EBFC6-1BF2-4FC7-8D1A-715721F3A6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2505" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
@@ -1012,7 +1012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1035,7 +1035,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1352,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
   <dimension ref="A1:BA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="M22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI42" sqref="AI42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -8870,7 +8869,7 @@
         <v>130</v>
       </c>
       <c r="AG46">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO46*AP46*AQ46) * ((W46*X46 + Z46*AA46) / (3*16 + 1*8)) * (U46 / 5)</f>
+        <f t="shared" ref="AG46:AG63" si="58" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO46*AP46*AQ46) * ((W46*X46 + Z46*AA46) / (3*16 + 1*8)) * (U46 / 5)</f>
         <v>74549.706201272769</v>
       </c>
       <c r="AH46" s="1" t="s">
@@ -8888,10 +8887,10 @@
       <c r="AL46" s="10">
         <v>125</v>
       </c>
-      <c r="AM46" s="18">
+      <c r="AM46">
         <v>1169</v>
       </c>
-      <c r="AN46" s="18">
+      <c r="AN46">
         <v>414</v>
       </c>
       <c r="AO46" s="1">
@@ -8903,19 +8902,19 @@
       <c r="AQ46">
         <v>384</v>
       </c>
-      <c r="AR46" s="18" t="s">
+      <c r="AR46" t="s">
         <v>50</v>
       </c>
       <c r="AS46" s="1">
-        <f t="shared" ref="AS46:AS47" si="58" xml:space="preserve"> _xlfn.FLOOR.MATH((AL46 - AO46) / 2)</f>
+        <f t="shared" ref="AS46:AS47" si="59" xml:space="preserve"> _xlfn.FLOOR.MATH((AL46 - AO46) / 2)</f>
         <v>14</v>
       </c>
       <c r="AT46">
-        <f t="shared" ref="AT46:AT47" si="59" xml:space="preserve"> _xlfn.FLOOR.MATH((AM46 - AP46) / 2)</f>
+        <f t="shared" ref="AT46:AT47" si="60" xml:space="preserve"> _xlfn.FLOOR.MATH((AM46 - AP46) / 2)</f>
         <v>192</v>
       </c>
       <c r="AU46">
-        <f t="shared" ref="AU46:AU47" si="60" xml:space="preserve"> _xlfn.FLOOR.MATH((AN46 - AQ46) / 2)</f>
+        <f t="shared" ref="AU46:AU47" si="61" xml:space="preserve"> _xlfn.FLOOR.MATH((AN46 - AQ46) / 2)</f>
         <v>15</v>
       </c>
       <c r="AV46" t="s">
@@ -8930,10 +8929,10 @@
       <c r="AY46" t="s">
         <v>130</v>
       </c>
-      <c r="AZ46" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA46" s="18" t="s">
+      <c r="AZ46" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA46" t="s">
         <v>130</v>
       </c>
     </row>
@@ -9030,7 +9029,7 @@
         <v>130</v>
       </c>
       <c r="AG47">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO47*AP47*AQ47) * ((W47*X47 + Z47*AA47) / (3*16 + 1*8)) * (U47 / 5)</f>
+        <f t="shared" si="58"/>
         <v>22708.360330151121</v>
       </c>
       <c r="AH47" s="1" t="s">
@@ -9048,34 +9047,34 @@
       <c r="AL47" s="10">
         <v>125</v>
       </c>
-      <c r="AM47" s="18">
+      <c r="AM47">
         <v>1169</v>
       </c>
-      <c r="AN47" s="18">
+      <c r="AN47">
         <v>414</v>
       </c>
       <c r="AO47" s="1">
         <v>64</v>
       </c>
-      <c r="AP47" s="18">
+      <c r="AP47">
         <v>512</v>
       </c>
-      <c r="AQ47" s="18">
+      <c r="AQ47">
         <v>256</v>
       </c>
-      <c r="AR47" s="18" t="s">
+      <c r="AR47" t="s">
         <v>50</v>
       </c>
       <c r="AS47" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>30</v>
       </c>
       <c r="AT47">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>328</v>
       </c>
       <c r="AU47">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>79</v>
       </c>
       <c r="AV47" t="s">
@@ -9090,10 +9089,10 @@
       <c r="AY47" t="s">
         <v>130</v>
       </c>
-      <c r="AZ47" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA47" s="18" t="s">
+      <c r="AZ47" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA47" t="s">
         <v>130</v>
       </c>
     </row>
@@ -9190,7 +9189,7 @@
         <v>130</v>
       </c>
       <c r="AG48">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO48*AP48*AQ48) * ((W48*X48 + Z48*AA48) / (3*16 + 1*8)) * (U48 / 5)</f>
+        <f t="shared" si="58"/>
         <v>4158.1023826571118</v>
       </c>
       <c r="AH48" s="1" t="s">
@@ -9208,34 +9207,34 @@
       <c r="AL48" s="10">
         <v>125</v>
       </c>
-      <c r="AM48" s="18">
+      <c r="AM48">
         <v>1169</v>
       </c>
-      <c r="AN48" s="18">
+      <c r="AN48">
         <v>414</v>
       </c>
       <c r="AO48" s="1">
         <v>32</v>
       </c>
-      <c r="AP48" s="18">
+      <c r="AP48">
         <v>256</v>
       </c>
-      <c r="AQ48" s="18">
+      <c r="AQ48">
         <v>128</v>
       </c>
-      <c r="AR48" s="18" t="s">
+      <c r="AR48" t="s">
         <v>50</v>
       </c>
       <c r="AS48" s="1">
-        <f t="shared" ref="AS48:AS63" si="61" xml:space="preserve"> _xlfn.FLOOR.MATH((AL48 - AO48) / 2)</f>
+        <f t="shared" ref="AS48:AS63" si="62" xml:space="preserve"> _xlfn.FLOOR.MATH((AL48 - AO48) / 2)</f>
         <v>46</v>
       </c>
       <c r="AT48">
-        <f t="shared" ref="AT48:AT63" si="62" xml:space="preserve"> _xlfn.FLOOR.MATH((AM48 - AP48) / 2)</f>
+        <f t="shared" ref="AT48:AT63" si="63" xml:space="preserve"> _xlfn.FLOOR.MATH((AM48 - AP48) / 2)</f>
         <v>456</v>
       </c>
       <c r="AU48">
-        <f t="shared" ref="AU48:AU63" si="63" xml:space="preserve"> _xlfn.FLOOR.MATH((AN48 - AQ48) / 2)</f>
+        <f t="shared" ref="AU48:AU63" si="64" xml:space="preserve"> _xlfn.FLOOR.MATH((AN48 - AQ48) / 2)</f>
         <v>143</v>
       </c>
       <c r="AV48" t="s">
@@ -9250,10 +9249,10 @@
       <c r="AY48" t="s">
         <v>130</v>
       </c>
-      <c r="AZ48" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA48" s="18" t="s">
+      <c r="AZ48" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA48" t="s">
         <v>130</v>
       </c>
     </row>
@@ -9350,7 +9349,7 @@
         <v>130</v>
       </c>
       <c r="AG49">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO49*AP49*AQ49) * ((W49*X49 + Z49*AA49) / (3*16 + 1*8)) * (U49 / 5)</f>
+        <f t="shared" si="58"/>
         <v>53680.666010342022</v>
       </c>
       <c r="AH49" s="1" t="s">
@@ -9368,10 +9367,10 @@
       <c r="AL49" s="10">
         <v>125</v>
       </c>
-      <c r="AM49" s="18">
+      <c r="AM49">
         <v>1169</v>
       </c>
-      <c r="AN49" s="18">
+      <c r="AN49">
         <v>414</v>
       </c>
       <c r="AO49" s="1">
@@ -9383,19 +9382,19 @@
       <c r="AQ49">
         <v>384</v>
       </c>
-      <c r="AR49" s="18" t="s">
+      <c r="AR49" t="s">
         <v>50</v>
       </c>
       <c r="AS49" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>14</v>
       </c>
       <c r="AT49">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>192</v>
       </c>
       <c r="AU49">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>15</v>
       </c>
       <c r="AV49" t="s">
@@ -9410,10 +9409,10 @@
       <c r="AY49" t="s">
         <v>130</v>
       </c>
-      <c r="AZ49" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA49" s="18" t="s">
+      <c r="AZ49" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA49" t="s">
         <v>130</v>
       </c>
     </row>
@@ -9510,7 +9509,7 @@
         <v>130</v>
       </c>
       <c r="AG50">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO50*AP50*AQ50) * ((W50*X50 + Z50*AA50) / (3*16 + 1*8)) * (U50 / 5)</f>
+        <f t="shared" si="58"/>
         <v>16651.133245255118</v>
       </c>
       <c r="AH50" s="1" t="s">
@@ -9528,34 +9527,34 @@
       <c r="AL50" s="10">
         <v>125</v>
       </c>
-      <c r="AM50" s="18">
+      <c r="AM50">
         <v>1169</v>
       </c>
-      <c r="AN50" s="18">
+      <c r="AN50">
         <v>414</v>
       </c>
       <c r="AO50" s="1">
         <v>64</v>
       </c>
-      <c r="AP50" s="18">
+      <c r="AP50">
         <v>512</v>
       </c>
-      <c r="AQ50" s="18">
+      <c r="AQ50">
         <v>256</v>
       </c>
-      <c r="AR50" s="18" t="s">
+      <c r="AR50" t="s">
         <v>50</v>
       </c>
       <c r="AS50" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>30</v>
       </c>
       <c r="AT50">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>328</v>
       </c>
       <c r="AU50">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>79</v>
       </c>
       <c r="AV50" t="s">
@@ -9570,10 +9569,10 @@
       <c r="AY50" t="s">
         <v>130</v>
       </c>
-      <c r="AZ50" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA50" s="18" t="s">
+      <c r="AZ50" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA50" t="s">
         <v>130</v>
       </c>
     </row>
@@ -9670,7 +9669,7 @@
         <v>130</v>
       </c>
       <c r="AG51">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO51*AP51*AQ51) * ((W51*X51 + Z51*AA51) / (3*16 + 1*8)) * (U51 / 5)</f>
+        <f t="shared" si="58"/>
         <v>3400.9489970451114</v>
       </c>
       <c r="AH51" s="1" t="s">
@@ -9688,34 +9687,34 @@
       <c r="AL51" s="10">
         <v>125</v>
       </c>
-      <c r="AM51" s="18">
+      <c r="AM51">
         <v>1169</v>
       </c>
-      <c r="AN51" s="18">
+      <c r="AN51">
         <v>414</v>
       </c>
       <c r="AO51" s="1">
         <v>32</v>
       </c>
-      <c r="AP51" s="18">
+      <c r="AP51">
         <v>256</v>
       </c>
-      <c r="AQ51" s="18">
+      <c r="AQ51">
         <v>128</v>
       </c>
-      <c r="AR51" s="18" t="s">
+      <c r="AR51" t="s">
         <v>50</v>
       </c>
       <c r="AS51" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>46</v>
       </c>
       <c r="AT51">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>456</v>
       </c>
       <c r="AU51">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>143</v>
       </c>
       <c r="AV51" t="s">
@@ -9730,10 +9729,10 @@
       <c r="AY51" t="s">
         <v>130</v>
       </c>
-      <c r="AZ51" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA51" s="18" t="s">
+      <c r="AZ51" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA51" t="s">
         <v>130</v>
       </c>
     </row>
@@ -9830,7 +9829,7 @@
         <v>130</v>
       </c>
       <c r="AG52">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO52*AP52*AQ52) * ((W52*X52 + Z52*AA52) / (3*16 + 1*8)) * (U52 / 5)</f>
+        <f t="shared" si="58"/>
         <v>32811.625819411252</v>
       </c>
       <c r="AH52" s="1" t="s">
@@ -9848,10 +9847,10 @@
       <c r="AL52" s="10">
         <v>125</v>
       </c>
-      <c r="AM52" s="18">
+      <c r="AM52">
         <v>1169</v>
       </c>
-      <c r="AN52" s="18">
+      <c r="AN52">
         <v>414</v>
       </c>
       <c r="AO52" s="1">
@@ -9863,19 +9862,19 @@
       <c r="AQ52">
         <v>384</v>
       </c>
-      <c r="AR52" s="18" t="s">
+      <c r="AR52" t="s">
         <v>50</v>
       </c>
       <c r="AS52" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>14</v>
       </c>
       <c r="AT52">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>192</v>
       </c>
       <c r="AU52">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>15</v>
       </c>
       <c r="AV52" t="s">
@@ -9890,10 +9889,10 @@
       <c r="AY52" t="s">
         <v>130</v>
       </c>
-      <c r="AZ52" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA52" s="18" t="s">
+      <c r="AZ52" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA52" t="s">
         <v>130</v>
       </c>
     </row>
@@ -9990,7 +9989,7 @@
         <v>130</v>
       </c>
       <c r="AG53">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO53*AP53*AQ53) * ((W53*X53 + Z53*AA53) / (3*16 + 1*8)) * (U53 / 5)</f>
+        <f t="shared" si="58"/>
         <v>10593.906160359114</v>
       </c>
       <c r="AH53" s="1" t="s">
@@ -10008,34 +10007,34 @@
       <c r="AL53" s="10">
         <v>125</v>
       </c>
-      <c r="AM53" s="18">
+      <c r="AM53">
         <v>1169</v>
       </c>
-      <c r="AN53" s="18">
+      <c r="AN53">
         <v>414</v>
       </c>
       <c r="AO53" s="1">
         <v>64</v>
       </c>
-      <c r="AP53" s="18">
+      <c r="AP53">
         <v>512</v>
       </c>
-      <c r="AQ53" s="18">
+      <c r="AQ53">
         <v>256</v>
       </c>
-      <c r="AR53" s="18" t="s">
+      <c r="AR53" t="s">
         <v>50</v>
       </c>
       <c r="AS53" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>30</v>
       </c>
       <c r="AT53">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>328</v>
       </c>
       <c r="AU53">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>79</v>
       </c>
       <c r="AV53" t="s">
@@ -10050,10 +10049,10 @@
       <c r="AY53" t="s">
         <v>130</v>
       </c>
-      <c r="AZ53" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA53" s="18" t="s">
+      <c r="AZ53" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA53" t="s">
         <v>130</v>
       </c>
     </row>
@@ -10150,7 +10149,7 @@
         <v>130</v>
       </c>
       <c r="AG54">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO54*AP54*AQ54) * ((W54*X54 + Z54*AA54) / (3*16 + 1*8)) * (U54 / 5)</f>
+        <f t="shared" si="58"/>
         <v>2643.7956114331109</v>
       </c>
       <c r="AH54" s="1" t="s">
@@ -10168,34 +10167,34 @@
       <c r="AL54" s="10">
         <v>125</v>
       </c>
-      <c r="AM54" s="18">
+      <c r="AM54">
         <v>1169</v>
       </c>
-      <c r="AN54" s="18">
+      <c r="AN54">
         <v>414</v>
       </c>
       <c r="AO54" s="1">
         <v>32</v>
       </c>
-      <c r="AP54" s="18">
+      <c r="AP54">
         <v>256</v>
       </c>
-      <c r="AQ54" s="18">
+      <c r="AQ54">
         <v>128</v>
       </c>
-      <c r="AR54" s="18" t="s">
+      <c r="AR54" t="s">
         <v>50</v>
       </c>
       <c r="AS54" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>46</v>
       </c>
       <c r="AT54">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>456</v>
       </c>
       <c r="AU54">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>143</v>
       </c>
       <c r="AV54" t="s">
@@ -10210,10 +10209,10 @@
       <c r="AY54" t="s">
         <v>130</v>
       </c>
-      <c r="AZ54" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA54" s="18" t="s">
+      <c r="AZ54" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA54" t="s">
         <v>130</v>
       </c>
     </row>
@@ -10310,7 +10309,7 @@
         <v>130</v>
       </c>
       <c r="AG55">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO55*AP55*AQ55) * ((W55*X55 + Z55*AA55) / (3*16 + 1*8)) * (U55 / 5)</f>
+        <f t="shared" si="58"/>
         <v>43246.145914876637</v>
       </c>
       <c r="AH55" s="1" t="s">
@@ -10328,10 +10327,10 @@
       <c r="AL55" s="10">
         <v>125</v>
       </c>
-      <c r="AM55" s="18">
+      <c r="AM55">
         <v>1169</v>
       </c>
-      <c r="AN55" s="18">
+      <c r="AN55">
         <v>414</v>
       </c>
       <c r="AO55" s="1">
@@ -10343,19 +10342,19 @@
       <c r="AQ55">
         <v>384</v>
       </c>
-      <c r="AR55" s="18" t="s">
+      <c r="AR55" t="s">
         <v>50</v>
       </c>
       <c r="AS55" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>14</v>
       </c>
       <c r="AT55">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>192</v>
       </c>
       <c r="AU55">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>15</v>
       </c>
       <c r="AV55" t="s">
@@ -10370,10 +10369,10 @@
       <c r="AY55" t="s">
         <v>130</v>
       </c>
-      <c r="AZ55" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA55" s="18" t="s">
+      <c r="AZ55" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA55" t="s">
         <v>130</v>
       </c>
     </row>
@@ -10470,7 +10469,7 @@
         <v>130</v>
       </c>
       <c r="AG56">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO56*AP56*AQ56) * ((W56*X56 + Z56*AA56) / (3*16 + 1*8)) * (U56 / 5)</f>
+        <f t="shared" si="58"/>
         <v>13622.519702807114</v>
       </c>
       <c r="AH56" s="1" t="s">
@@ -10488,34 +10487,34 @@
       <c r="AL56" s="10">
         <v>125</v>
       </c>
-      <c r="AM56" s="18">
+      <c r="AM56">
         <v>1169</v>
       </c>
-      <c r="AN56" s="18">
+      <c r="AN56">
         <v>414</v>
       </c>
       <c r="AO56" s="1">
         <v>64</v>
       </c>
-      <c r="AP56" s="18">
+      <c r="AP56">
         <v>512</v>
       </c>
-      <c r="AQ56" s="18">
+      <c r="AQ56">
         <v>256</v>
       </c>
-      <c r="AR56" s="18" t="s">
+      <c r="AR56" t="s">
         <v>50</v>
       </c>
       <c r="AS56" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>30</v>
       </c>
       <c r="AT56">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>328</v>
       </c>
       <c r="AU56">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>79</v>
       </c>
       <c r="AV56" t="s">
@@ -10530,10 +10529,10 @@
       <c r="AY56" t="s">
         <v>130</v>
       </c>
-      <c r="AZ56" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA56" s="18" t="s">
+      <c r="AZ56" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA56" t="s">
         <v>130</v>
       </c>
     </row>
@@ -10630,7 +10629,7 @@
         <v>130</v>
       </c>
       <c r="AG57">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO57*AP57*AQ57) * ((W57*X57 + Z57*AA57) / (3*16 + 1*8)) * (U57 / 5)</f>
+        <f t="shared" si="58"/>
         <v>3022.3723042391107</v>
       </c>
       <c r="AH57" s="1" t="s">
@@ -10648,34 +10647,34 @@
       <c r="AL57" s="10">
         <v>125</v>
       </c>
-      <c r="AM57" s="18">
+      <c r="AM57">
         <v>1169</v>
       </c>
-      <c r="AN57" s="18">
+      <c r="AN57">
         <v>414</v>
       </c>
       <c r="AO57" s="1">
         <v>32</v>
       </c>
-      <c r="AP57" s="18">
+      <c r="AP57">
         <v>256</v>
       </c>
-      <c r="AQ57" s="18">
+      <c r="AQ57">
         <v>128</v>
       </c>
-      <c r="AR57" s="18" t="s">
+      <c r="AR57" t="s">
         <v>50</v>
       </c>
       <c r="AS57" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>46</v>
       </c>
       <c r="AT57">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>456</v>
       </c>
       <c r="AU57">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>143</v>
       </c>
       <c r="AV57" t="s">
@@ -10690,10 +10689,10 @@
       <c r="AY57" t="s">
         <v>130</v>
       </c>
-      <c r="AZ57" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA57" s="18" t="s">
+      <c r="AZ57" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA57" t="s">
         <v>130</v>
       </c>
     </row>
@@ -10790,7 +10789,7 @@
         <v>130</v>
       </c>
       <c r="AG58">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO58*AP58*AQ58) * ((W58*X58 + Z58*AA58) / (3*16 + 1*8)) * (U58 / 5)</f>
+        <f t="shared" si="58"/>
         <v>32811.625819411252</v>
       </c>
       <c r="AH58" s="1" t="s">
@@ -10808,10 +10807,10 @@
       <c r="AL58" s="10">
         <v>125</v>
       </c>
-      <c r="AM58" s="18">
+      <c r="AM58">
         <v>1169</v>
       </c>
-      <c r="AN58" s="18">
+      <c r="AN58">
         <v>414</v>
       </c>
       <c r="AO58" s="1">
@@ -10823,19 +10822,19 @@
       <c r="AQ58">
         <v>384</v>
       </c>
-      <c r="AR58" s="18" t="s">
+      <c r="AR58" t="s">
         <v>50</v>
       </c>
       <c r="AS58" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>14</v>
       </c>
       <c r="AT58">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>192</v>
       </c>
       <c r="AU58">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>15</v>
       </c>
       <c r="AV58" t="s">
@@ -10850,10 +10849,10 @@
       <c r="AY58" t="s">
         <v>130</v>
       </c>
-      <c r="AZ58" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA58" s="18" t="s">
+      <c r="AZ58" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA58" t="s">
         <v>130</v>
       </c>
     </row>
@@ -10950,7 +10949,7 @@
         <v>130</v>
       </c>
       <c r="AG59">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO59*AP59*AQ59) * ((W59*X59 + Z59*AA59) / (3*16 + 1*8)) * (U59 / 5)</f>
+        <f t="shared" si="58"/>
         <v>10593.906160359114</v>
       </c>
       <c r="AH59" s="1" t="s">
@@ -10968,34 +10967,34 @@
       <c r="AL59" s="10">
         <v>125</v>
       </c>
-      <c r="AM59" s="18">
+      <c r="AM59">
         <v>1169</v>
       </c>
-      <c r="AN59" s="18">
+      <c r="AN59">
         <v>414</v>
       </c>
       <c r="AO59" s="1">
         <v>64</v>
       </c>
-      <c r="AP59" s="18">
+      <c r="AP59">
         <v>512</v>
       </c>
-      <c r="AQ59" s="18">
+      <c r="AQ59">
         <v>256</v>
       </c>
-      <c r="AR59" s="18" t="s">
+      <c r="AR59" t="s">
         <v>50</v>
       </c>
       <c r="AS59" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>30</v>
       </c>
       <c r="AT59">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>328</v>
       </c>
       <c r="AU59">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>79</v>
       </c>
       <c r="AV59" t="s">
@@ -11010,10 +11009,10 @@
       <c r="AY59" t="s">
         <v>130</v>
       </c>
-      <c r="AZ59" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA59" s="18" t="s">
+      <c r="AZ59" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA59" t="s">
         <v>130</v>
       </c>
     </row>
@@ -11110,7 +11109,7 @@
         <v>130</v>
       </c>
       <c r="AG60">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO60*AP60*AQ60) * ((W60*X60 + Z60*AA60) / (3*16 + 1*8)) * (U60 / 5)</f>
+        <f t="shared" si="58"/>
         <v>2643.7956114331109</v>
       </c>
       <c r="AH60" s="1" t="s">
@@ -11128,34 +11127,34 @@
       <c r="AL60" s="10">
         <v>125</v>
       </c>
-      <c r="AM60" s="18">
+      <c r="AM60">
         <v>1169</v>
       </c>
-      <c r="AN60" s="18">
+      <c r="AN60">
         <v>414</v>
       </c>
       <c r="AO60" s="1">
         <v>32</v>
       </c>
-      <c r="AP60" s="18">
+      <c r="AP60">
         <v>256</v>
       </c>
-      <c r="AQ60" s="18">
+      <c r="AQ60">
         <v>128</v>
       </c>
-      <c r="AR60" s="18" t="s">
+      <c r="AR60" t="s">
         <v>50</v>
       </c>
       <c r="AS60" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>46</v>
       </c>
       <c r="AT60">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>456</v>
       </c>
       <c r="AU60">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>143</v>
       </c>
       <c r="AV60" t="s">
@@ -11170,10 +11169,10 @@
       <c r="AY60" t="s">
         <v>130</v>
       </c>
-      <c r="AZ60" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA60" s="18" t="s">
+      <c r="AZ60" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA60" t="s">
         <v>130</v>
       </c>
     </row>
@@ -11270,7 +11269,7 @@
         <v>130</v>
       </c>
       <c r="AG61">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO61*AP61*AQ61) * ((W61*X61 + Z61*AA61) / (3*16 + 1*8)) * (U61 / 5)</f>
+        <f t="shared" si="58"/>
         <v>22377.105723945871</v>
       </c>
       <c r="AH61" s="1" t="s">
@@ -11288,10 +11287,10 @@
       <c r="AL61" s="10">
         <v>125</v>
       </c>
-      <c r="AM61" s="18">
+      <c r="AM61">
         <v>1169</v>
       </c>
-      <c r="AN61" s="18">
+      <c r="AN61">
         <v>414</v>
       </c>
       <c r="AO61" s="1">
@@ -11303,19 +11302,19 @@
       <c r="AQ61">
         <v>384</v>
       </c>
-      <c r="AR61" s="18" t="s">
+      <c r="AR61" t="s">
         <v>50</v>
       </c>
       <c r="AS61" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>14</v>
       </c>
       <c r="AT61">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>192</v>
       </c>
       <c r="AU61">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>15</v>
       </c>
       <c r="AV61" t="s">
@@ -11330,10 +11329,10 @@
       <c r="AY61" t="s">
         <v>130</v>
       </c>
-      <c r="AZ61" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA61" s="18" t="s">
+      <c r="AZ61" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA61" t="s">
         <v>130</v>
       </c>
     </row>
@@ -11430,7 +11429,7 @@
         <v>130</v>
       </c>
       <c r="AG62">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO62*AP62*AQ62) * ((W62*X62 + Z62*AA62) / (3*16 + 1*8)) * (U62 / 5)</f>
+        <f t="shared" si="58"/>
         <v>7565.2926179111128</v>
       </c>
       <c r="AH62" s="1" t="s">
@@ -11448,34 +11447,34 @@
       <c r="AL62" s="10">
         <v>125</v>
       </c>
-      <c r="AM62" s="18">
+      <c r="AM62">
         <v>1169</v>
       </c>
-      <c r="AN62" s="18">
+      <c r="AN62">
         <v>414</v>
       </c>
       <c r="AO62" s="1">
         <v>64</v>
       </c>
-      <c r="AP62" s="18">
+      <c r="AP62">
         <v>512</v>
       </c>
-      <c r="AQ62" s="18">
+      <c r="AQ62">
         <v>256</v>
       </c>
-      <c r="AR62" s="18" t="s">
+      <c r="AR62" t="s">
         <v>50</v>
       </c>
       <c r="AS62" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>30</v>
       </c>
       <c r="AT62">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>328</v>
       </c>
       <c r="AU62">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>79</v>
       </c>
       <c r="AV62" t="s">
@@ -11490,10 +11489,10 @@
       <c r="AY62" t="s">
         <v>130</v>
       </c>
-      <c r="AZ62" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA62" s="18" t="s">
+      <c r="AZ62" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA62" t="s">
         <v>130</v>
       </c>
     </row>
@@ -11590,7 +11589,7 @@
         <v>130</v>
       </c>
       <c r="AG63">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO63*AP63*AQ63) * ((W63*X63 + Z63*AA63) / (3*16 + 1*8)) * (U63 / 5)</f>
+        <f t="shared" si="58"/>
         <v>2265.2189186271103</v>
       </c>
       <c r="AH63" s="1" t="s">
@@ -11608,34 +11607,34 @@
       <c r="AL63" s="10">
         <v>125</v>
       </c>
-      <c r="AM63" s="18">
+      <c r="AM63">
         <v>1169</v>
       </c>
-      <c r="AN63" s="18">
+      <c r="AN63">
         <v>414</v>
       </c>
       <c r="AO63" s="1">
         <v>32</v>
       </c>
-      <c r="AP63" s="18">
+      <c r="AP63">
         <v>256</v>
       </c>
-      <c r="AQ63" s="18">
+      <c r="AQ63">
         <v>128</v>
       </c>
-      <c r="AR63" s="18" t="s">
+      <c r="AR63" t="s">
         <v>50</v>
       </c>
       <c r="AS63" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>46</v>
       </c>
       <c r="AT63">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>456</v>
       </c>
       <c r="AU63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>143</v>
       </c>
       <c r="AV63" t="s">
@@ -11650,32 +11649,12 @@
       <c r="AY63" t="s">
         <v>130</v>
       </c>
-      <c r="AZ63" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA63" s="18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="AZ64" s="18"/>
-      <c r="BA64" s="18"/>
-    </row>
-    <row r="65" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="AZ65" s="18"/>
-      <c r="BA65" s="18"/>
-    </row>
-    <row r="66" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="AZ66" s="18"/>
-      <c r="BA66" s="18"/>
-    </row>
-    <row r="67" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="AZ67" s="18"/>
-      <c r="BA67" s="18"/>
-    </row>
-    <row r="68" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="AZ68" s="18"/>
-      <c r="BA68" s="18"/>
+      <c r="AZ63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA63" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="69" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -11812,15 +11791,15 @@
         <v>130</v>
       </c>
       <c r="AS69" s="1" t="e">
-        <f t="shared" ref="AS69" si="64" xml:space="preserve"> _xlfn.FLOOR.MATH((AL69 - AO69) / 2)</f>
+        <f t="shared" ref="AS69" si="65" xml:space="preserve"> _xlfn.FLOOR.MATH((AL69 - AO69) / 2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AT69" t="e">
-        <f t="shared" ref="AT69" si="65" xml:space="preserve"> _xlfn.FLOOR.MATH((AM69 - AP69) / 2)</f>
+        <f t="shared" ref="AT69" si="66" xml:space="preserve"> _xlfn.FLOOR.MATH((AM69 - AP69) / 2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AU69" t="e">
-        <f t="shared" ref="AU69" si="66" xml:space="preserve"> _xlfn.FLOOR.MATH((AN69 - AQ69) / 2)</f>
+        <f t="shared" ref="AU69" si="67" xml:space="preserve"> _xlfn.FLOOR.MATH((AN69 - AQ69) / 2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AV69" t="s">

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433EBFC6-1BF2-4FC7-8D1A-715721F3A6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE9CE58-9316-4FE5-9F6D-BEC83742122D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2505" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="274">
   <si>
     <t>patch z</t>
   </si>
@@ -1351,35 +1351,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
   <dimension ref="A1:BA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI42" sqref="AI42"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG55" sqref="AG55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="109" customWidth="1"/>
-    <col min="4" max="4" width="71" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="33" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="6.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="5.140625" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="6" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="7.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="8.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="15.42578125" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="7.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="9.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="16.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="109" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="71" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="26.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="14.5703125" style="10" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="20" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="30.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="15.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="33" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="9.140625" collapsed="1"/>
+    <col min="19" max="19" width="6.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="5.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="11.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="6" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="14.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="7.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="8.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="15.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="7.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="9.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="16.7109375" style="10" customWidth="1" collapsed="1"/>
     <col min="30" max="30" width="14.85546875" customWidth="1"/>
     <col min="31" max="33" width="9.140625" customWidth="1"/>
     <col min="34" max="34" width="7.28515625" style="1" customWidth="1" outlineLevel="1"/>
@@ -8856,11 +8857,11 @@
       <c r="AB46" t="s">
         <v>102</v>
       </c>
-      <c r="AC46" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>130</v>
+      <c r="AC46" s="10">
+        <v>74967</v>
+      </c>
+      <c r="AD46">
+        <v>6085</v>
       </c>
       <c r="AE46" t="s">
         <v>130</v>
@@ -9016,11 +9017,11 @@
       <c r="AB47" t="s">
         <v>102</v>
       </c>
-      <c r="AC47" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>130</v>
+      <c r="AC47" s="10">
+        <v>23033</v>
+      </c>
+      <c r="AD47">
+        <v>58019</v>
       </c>
       <c r="AE47" t="s">
         <v>130</v>
@@ -9176,11 +9177,11 @@
       <c r="AB48" t="s">
         <v>102</v>
       </c>
-      <c r="AC48" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>130</v>
+      <c r="AC48" s="10">
+        <v>4739</v>
+      </c>
+      <c r="AD48">
+        <v>76313</v>
       </c>
       <c r="AE48" t="s">
         <v>130</v>
@@ -9336,11 +9337,11 @@
       <c r="AB49" t="s">
         <v>102</v>
       </c>
-      <c r="AC49" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>130</v>
+      <c r="AC49" s="10">
+        <v>74853</v>
+      </c>
+      <c r="AD49">
+        <v>6199</v>
       </c>
       <c r="AE49" t="s">
         <v>130</v>
@@ -9496,11 +9497,11 @@
       <c r="AB50" t="s">
         <v>102</v>
       </c>
-      <c r="AC50" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD50" t="s">
-        <v>130</v>
+      <c r="AC50" s="10">
+        <v>22999</v>
+      </c>
+      <c r="AD50">
+        <v>58053</v>
       </c>
       <c r="AE50" t="s">
         <v>130</v>
@@ -9656,11 +9657,11 @@
       <c r="AB51" t="s">
         <v>102</v>
       </c>
-      <c r="AC51" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>130</v>
+      <c r="AC51" s="10">
+        <v>4727</v>
+      </c>
+      <c r="AD51">
+        <v>76325</v>
       </c>
       <c r="AE51" t="s">
         <v>130</v>
@@ -9816,11 +9817,11 @@
       <c r="AB52" t="s">
         <v>102</v>
       </c>
-      <c r="AC52" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD52" t="s">
-        <v>130</v>
+      <c r="AC52" s="10">
+        <v>74743</v>
+      </c>
+      <c r="AD52">
+        <v>6309</v>
       </c>
       <c r="AE52" t="s">
         <v>130</v>
@@ -9976,11 +9977,11 @@
       <c r="AB53" t="s">
         <v>102</v>
       </c>
-      <c r="AC53" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD53" t="s">
-        <v>130</v>
+      <c r="AC53" s="10">
+        <v>22967</v>
+      </c>
+      <c r="AD53">
+        <v>58085</v>
       </c>
       <c r="AE53" t="s">
         <v>130</v>
@@ -10136,11 +10137,11 @@
       <c r="AB54" t="s">
         <v>102</v>
       </c>
-      <c r="AC54" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD54" t="s">
-        <v>130</v>
+      <c r="AC54" s="10">
+        <v>4727</v>
+      </c>
+      <c r="AD54">
+        <v>76325</v>
       </c>
       <c r="AE54" t="s">
         <v>130</v>
@@ -10296,11 +10297,11 @@
       <c r="AB55" t="s">
         <v>102</v>
       </c>
-      <c r="AC55" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD55" t="s">
-        <v>130</v>
+      <c r="AC55" s="10">
+        <v>74965</v>
+      </c>
+      <c r="AD55">
+        <v>6087</v>
       </c>
       <c r="AE55" t="s">
         <v>130</v>
@@ -10456,11 +10457,11 @@
       <c r="AB56" t="s">
         <v>102</v>
       </c>
-      <c r="AC56" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD56" t="s">
-        <v>130</v>
+      <c r="AC56" s="10">
+        <v>23033</v>
+      </c>
+      <c r="AD56">
+        <v>58019</v>
       </c>
       <c r="AE56" t="s">
         <v>130</v>
@@ -10616,11 +10617,11 @@
       <c r="AB57" t="s">
         <v>102</v>
       </c>
-      <c r="AC57" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD57" t="s">
-        <v>130</v>
+      <c r="AC57" s="10">
+        <v>4739</v>
+      </c>
+      <c r="AD57">
+        <v>76313</v>
       </c>
       <c r="AE57" t="s">
         <v>130</v>
@@ -10776,11 +10777,11 @@
       <c r="AB58" t="s">
         <v>102</v>
       </c>
-      <c r="AC58" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD58" t="s">
-        <v>130</v>
+      <c r="AC58" s="10">
+        <v>74853</v>
+      </c>
+      <c r="AD58">
+        <v>6199</v>
       </c>
       <c r="AE58" t="s">
         <v>130</v>
@@ -10936,11 +10937,11 @@
       <c r="AB59" t="s">
         <v>102</v>
       </c>
-      <c r="AC59" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD59" t="s">
-        <v>130</v>
+      <c r="AC59" s="10">
+        <v>22999</v>
+      </c>
+      <c r="AD59">
+        <v>58053</v>
       </c>
       <c r="AE59" t="s">
         <v>130</v>
@@ -11096,11 +11097,11 @@
       <c r="AB60" t="s">
         <v>102</v>
       </c>
-      <c r="AC60" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD60" t="s">
-        <v>130</v>
+      <c r="AC60" s="10">
+        <v>4727</v>
+      </c>
+      <c r="AD60">
+        <v>76325</v>
       </c>
       <c r="AE60" t="s">
         <v>130</v>
@@ -11256,11 +11257,11 @@
       <c r="AB61" t="s">
         <v>102</v>
       </c>
-      <c r="AC61" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD61" t="s">
-        <v>130</v>
+      <c r="AC61" s="10">
+        <v>74743</v>
+      </c>
+      <c r="AD61">
+        <v>6309</v>
       </c>
       <c r="AE61" t="s">
         <v>130</v>
@@ -11416,11 +11417,11 @@
       <c r="AB62" t="s">
         <v>102</v>
       </c>
-      <c r="AC62" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD62" t="s">
-        <v>130</v>
+      <c r="AC62" s="10">
+        <v>22967</v>
+      </c>
+      <c r="AD62">
+        <v>58085</v>
       </c>
       <c r="AE62" t="s">
         <v>130</v>
@@ -11576,11 +11577,11 @@
       <c r="AB63" t="s">
         <v>102</v>
       </c>
-      <c r="AC63" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD63" t="s">
-        <v>130</v>
+      <c r="AC63" s="10">
+        <v>4727</v>
+      </c>
+      <c r="AD63">
+        <v>76325</v>
       </c>
       <c r="AE63" t="s">
         <v>130</v>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE9CE58-9316-4FE5-9F6D-BEC83742122D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC861816-DADB-4E65-B011-F6317F2AD1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="278">
   <si>
     <t>patch z</t>
   </si>
@@ -859,13 +859,25 @@
   </si>
   <si>
     <t>230930-17</t>
+  </si>
+  <si>
+    <t>del</t>
+  </si>
+  <si>
+    <t>64,896,160</t>
+  </si>
+  <si>
+    <t>32,128,80</t>
+  </si>
+  <si>
+    <t>usage pre error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -892,6 +904,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1012,7 +1036,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1035,6 +1059,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1349,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
-  <dimension ref="A1:BA69"/>
+  <dimension ref="A1:BD76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG55" sqref="AG55"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF35" sqref="AF35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1381,33 +1420,34 @@
     <col min="27" max="27" width="7.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="28" max="28" width="9.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="29" max="29" width="16.7109375" style="10" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="14.85546875" customWidth="1"/>
-    <col min="31" max="33" width="9.140625" customWidth="1"/>
-    <col min="34" max="34" width="7.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="36" width="7.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="37" max="37" width="26.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="38" max="38" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="6" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.28515625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="6.140625" customWidth="1"/>
-    <col min="43" max="44" width="5" customWidth="1"/>
-    <col min="45" max="45" width="6.140625" style="1" customWidth="1"/>
-    <col min="46" max="46" width="6.5703125" customWidth="1"/>
-    <col min="47" max="47" width="5" customWidth="1"/>
-    <col min="48" max="48" width="6" customWidth="1"/>
-    <col min="49" max="49" width="74.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="74.42578125" customWidth="1"/>
-    <col min="51" max="51" width="5.140625" customWidth="1"/>
-    <col min="52" max="52" width="73.85546875" customWidth="1"/>
-    <col min="53" max="53" width="206" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.7109375" customWidth="1"/>
-    <col min="58" max="58" width="12.140625" customWidth="1"/>
+    <col min="30" max="30" width="16.7109375" style="22" customWidth="1"/>
+    <col min="31" max="32" width="14.85546875" customWidth="1"/>
+    <col min="33" max="35" width="9.140625" customWidth="1"/>
+    <col min="36" max="36" width="7.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="38" width="7.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="26.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="6" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.28515625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="6.140625" customWidth="1"/>
+    <col min="45" max="46" width="5" customWidth="1"/>
+    <col min="47" max="47" width="6.140625" style="1" customWidth="1"/>
+    <col min="48" max="48" width="6.5703125" customWidth="1"/>
+    <col min="49" max="49" width="5" customWidth="1"/>
+    <col min="50" max="50" width="6" customWidth="1"/>
+    <col min="51" max="51" width="74.85546875" style="10" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="52" width="74.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="5.140625" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="73.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="55" max="55" width="206" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="56" max="56" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.7109375" customWidth="1"/>
+    <col min="60" max="60" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -1496,79 +1536,82 @@
         <v>120</v>
       </c>
       <c r="AD1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AN1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AO1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="AY1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -1657,10 +1700,7 @@
       <c r="AC2" s="10">
         <v>0</v>
       </c>
-      <c r="AD2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AE2" s="19" t="s">
         <v>8</v>
       </c>
       <c r="AF2" t="s">
@@ -1669,68 +1709,74 @@
       <c r="AG2" t="s">
         <v>8</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>114</v>
+      <c r="AH2" t="s">
+        <v>8</v>
       </c>
       <c r="AI2" t="s">
         <v>8</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AJ2" s="18" t="s">
         <v>8</v>
       </c>
       <c r="AK2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL2" s="10">
+        <v>8</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN2" s="10">
         <v>125</v>
       </c>
-      <c r="AM2">
+      <c r="AO2">
         <v>1169</v>
       </c>
-      <c r="AN2">
+      <c r="AP2">
         <v>414</v>
       </c>
-      <c r="AO2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW2" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AY2">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="s">
+      <c r="AQ2">
+        <v>64</v>
+      </c>
+      <c r="AR2" s="19">
+        <v>896</v>
+      </c>
+      <c r="AS2" s="19">
+        <v>160</v>
+      </c>
+      <c r="AT2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU2" s="18">
+        <v>32</v>
+      </c>
+      <c r="AV2" s="19">
+        <v>128</v>
+      </c>
+      <c r="AW2" s="19">
+        <v>80</v>
+      </c>
+      <c r="AX2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY2" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ2" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="s">
         <v>150</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BC2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>138</v>
       </c>
@@ -1819,80 +1865,84 @@
       <c r="AC3" s="10">
         <v>20769</v>
       </c>
-      <c r="AD3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>8</v>
+      <c r="AE3" s="19">
+        <v>11731</v>
+      </c>
+      <c r="AF3">
+        <f>AC3+AE3</f>
+        <v>32500</v>
       </c>
       <c r="AG3" t="s">
         <v>8</v>
       </c>
-      <c r="AH3" s="1" t="s">
-        <v>114</v>
+      <c r="AH3" t="s">
+        <v>8</v>
       </c>
       <c r="AI3" t="s">
         <v>8</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>8</v>
+      <c r="AJ3" s="18" t="s">
+        <v>274</v>
       </c>
       <c r="AK3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL3" s="10">
+        <v>8</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN3" s="10">
         <v>125</v>
       </c>
-      <c r="AM3">
+      <c r="AO3">
         <v>1169</v>
       </c>
-      <c r="AN3">
+      <c r="AP3">
         <v>414</v>
       </c>
-      <c r="AO3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW3" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA3" t="s">
+      <c r="AQ3" s="18">
+        <v>64</v>
+      </c>
+      <c r="AR3" s="19">
+        <v>896</v>
+      </c>
+      <c r="AS3" s="19">
+        <v>160</v>
+      </c>
+      <c r="AT3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU3" s="18">
+        <v>32</v>
+      </c>
+      <c r="AV3" s="19">
+        <v>128</v>
+      </c>
+      <c r="AW3" s="19">
+        <v>80</v>
+      </c>
+      <c r="AX3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY3" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ3" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>56</v>
       </c>
@@ -1981,10 +2031,7 @@
       <c r="AC4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AD4" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE4" s="12" t="s">
+      <c r="AE4" s="21" t="s">
         <v>8</v>
       </c>
       <c r="AF4" s="12" t="s">
@@ -1993,68 +2040,74 @@
       <c r="AG4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="14">
+      <c r="AH4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ4" s="14">
         <v>32768</v>
       </c>
-      <c r="AI4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ4" s="12" t="s">
-        <v>8</v>
-      </c>
       <c r="AK4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AL4" s="13">
+      <c r="AN4" s="13">
         <v>125</v>
       </c>
-      <c r="AM4" s="12">
+      <c r="AO4" s="12">
         <v>1169</v>
       </c>
-      <c r="AN4" s="12">
+      <c r="AP4" s="12">
         <v>414</v>
       </c>
-      <c r="AO4" s="14">
+      <c r="AQ4" s="14">
         <v>105</v>
       </c>
-      <c r="AP4" s="12">
+      <c r="AR4" s="12">
         <v>1149</v>
       </c>
-      <c r="AQ4" s="12">
+      <c r="AS4" s="12">
         <v>394</v>
       </c>
-      <c r="AR4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS4" s="14">
+      <c r="AT4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU4" s="14">
         <v>10</v>
       </c>
-      <c r="AT4" s="12">
+      <c r="AV4" s="12">
         <v>10</v>
       </c>
-      <c r="AU4" s="12">
+      <c r="AW4" s="12">
         <v>10</v>
       </c>
-      <c r="AV4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW4" s="13" t="s">
+      <c r="AX4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AX4" s="12" t="s">
+      <c r="AZ4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AY4" s="12">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA4" s="12" t="s">
+      <c r="BA4" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC4" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2143,80 +2196,87 @@
       <c r="AC5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AD5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>8</v>
+      <c r="AD5" s="24">
+        <v>31715</v>
+      </c>
+      <c r="AE5" s="27">
+        <v>785</v>
+      </c>
+      <c r="AF5" t="e">
+        <f>AC5+AE5</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AG5" t="s">
         <v>8</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AH5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ5" s="1">
         <v>32768</v>
       </c>
-      <c r="AI5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>8</v>
-      </c>
       <c r="AK5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM5" t="s">
         <v>34</v>
       </c>
-      <c r="AL5" s="10">
+      <c r="AN5" s="10">
         <v>125</v>
       </c>
-      <c r="AM5">
+      <c r="AO5">
         <v>1169</v>
       </c>
-      <c r="AN5">
+      <c r="AP5">
         <v>414</v>
       </c>
-      <c r="AO5" s="1">
+      <c r="AQ5" s="1">
         <v>100</v>
       </c>
-      <c r="AP5">
+      <c r="AR5">
         <v>1100</v>
       </c>
-      <c r="AQ5">
+      <c r="AS5">
         <v>390</v>
       </c>
-      <c r="AR5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS5" s="1">
+      <c r="AT5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU5" s="1">
         <v>10</v>
       </c>
-      <c r="AT5">
+      <c r="AV5">
         <v>10</v>
       </c>
-      <c r="AU5">
+      <c r="AW5">
         <v>10</v>
       </c>
-      <c r="AV5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW5" s="10" t="s">
+      <c r="AX5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AZ5" t="s">
         <v>15</v>
       </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA5" t="s">
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2305,11 +2365,11 @@
       <c r="AC6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>8</v>
+      <c r="AD6" s="24">
+        <v>957</v>
+      </c>
+      <c r="AE6" s="27">
+        <v>31543</v>
       </c>
       <c r="AF6" t="s">
         <v>8</v>
@@ -2317,68 +2377,74 @@
       <c r="AG6" t="s">
         <v>8</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AH6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ6" s="1">
         <v>32768</v>
       </c>
-      <c r="AI6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>8</v>
-      </c>
       <c r="AK6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM6" t="s">
         <v>34</v>
       </c>
-      <c r="AL6" s="10">
+      <c r="AN6" s="10">
         <v>125</v>
       </c>
-      <c r="AM6">
+      <c r="AO6">
         <v>1169</v>
       </c>
-      <c r="AN6">
+      <c r="AP6">
         <v>414</v>
       </c>
-      <c r="AO6" s="1">
+      <c r="AQ6" s="1">
         <v>100</v>
       </c>
-      <c r="AP6">
+      <c r="AR6">
         <v>1100</v>
       </c>
-      <c r="AQ6">
+      <c r="AS6">
         <v>390</v>
       </c>
-      <c r="AR6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS6" s="1">
+      <c r="AT6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU6" s="1">
         <v>26</v>
       </c>
-      <c r="AT6">
+      <c r="AV6">
         <v>70</v>
       </c>
-      <c r="AU6">
+      <c r="AW6">
         <v>25</v>
       </c>
-      <c r="AV6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW6" s="10" t="s">
+      <c r="AX6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AZ6" t="s">
         <v>10</v>
       </c>
-      <c r="AY6">
-        <v>1</v>
-      </c>
-      <c r="AZ6" t="s">
+      <c r="BA6">
+        <v>1</v>
+      </c>
+      <c r="BB6" t="s">
         <v>14</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BC6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2467,11 +2533,11 @@
       <c r="AC7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>8</v>
+      <c r="AD7" s="24">
+        <v>957</v>
+      </c>
+      <c r="AE7" s="27">
+        <v>31543</v>
       </c>
       <c r="AF7" t="s">
         <v>8</v>
@@ -2479,68 +2545,74 @@
       <c r="AG7" t="s">
         <v>8</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AH7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ7" s="1">
         <v>32768</v>
       </c>
-      <c r="AI7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>8</v>
-      </c>
       <c r="AK7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM7" t="s">
         <v>34</v>
       </c>
-      <c r="AL7" s="10">
+      <c r="AN7" s="10">
         <v>125</v>
       </c>
-      <c r="AM7">
+      <c r="AO7">
         <v>1169</v>
       </c>
-      <c r="AN7">
+      <c r="AP7">
         <v>414</v>
       </c>
-      <c r="AO7" s="1">
+      <c r="AQ7" s="1">
         <v>100</v>
       </c>
-      <c r="AP7">
+      <c r="AR7">
         <v>1100</v>
       </c>
-      <c r="AQ7">
+      <c r="AS7">
         <v>390</v>
       </c>
-      <c r="AR7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS7" s="1">
+      <c r="AT7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU7" s="1">
         <v>25</v>
       </c>
-      <c r="AT7">
+      <c r="AV7">
         <v>69</v>
       </c>
-      <c r="AU7">
+      <c r="AW7">
         <v>24</v>
       </c>
-      <c r="AV7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW7" s="10" t="s">
+      <c r="AX7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AZ7" t="s">
         <v>9</v>
       </c>
-      <c r="AY7">
-        <v>1</v>
-      </c>
-      <c r="AZ7" t="s">
+      <c r="BA7">
+        <v>1</v>
+      </c>
+      <c r="BB7" t="s">
         <v>14</v>
       </c>
-      <c r="BA7" t="s">
+      <c r="BC7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2629,80 +2701,87 @@
       <c r="AC8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AD8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>8</v>
+      <c r="AD8" s="24">
+        <v>31413</v>
+      </c>
+      <c r="AE8" s="27">
+        <v>1087</v>
+      </c>
+      <c r="AF8" t="e">
+        <f>AC8+AE8</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AG8" t="s">
         <v>8</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AH8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ8" s="1">
         <v>32768</v>
       </c>
-      <c r="AI8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>8</v>
-      </c>
       <c r="AK8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM8" t="s">
         <v>34</v>
       </c>
-      <c r="AL8" s="10">
+      <c r="AN8" s="10">
         <v>125</v>
       </c>
-      <c r="AM8">
+      <c r="AO8">
         <v>1169</v>
       </c>
-      <c r="AN8">
+      <c r="AP8">
         <v>414</v>
       </c>
-      <c r="AO8" s="1">
+      <c r="AQ8" s="1">
         <v>101</v>
       </c>
-      <c r="AP8">
+      <c r="AR8">
         <v>1009</v>
       </c>
-      <c r="AQ8">
+      <c r="AS8">
         <v>400</v>
       </c>
-      <c r="AR8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS8" s="1">
+      <c r="AT8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU8" s="1">
         <v>12</v>
       </c>
-      <c r="AT8">
+      <c r="AV8">
         <v>90</v>
       </c>
-      <c r="AU8">
+      <c r="AW8">
         <v>7</v>
       </c>
-      <c r="AV8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW8" s="10" t="s">
+      <c r="AX8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AZ8" t="s">
         <v>15</v>
       </c>
-      <c r="AY8">
-        <v>1</v>
-      </c>
-      <c r="AZ8" t="s">
+      <c r="BA8">
+        <v>1</v>
+      </c>
+      <c r="BB8" t="s">
         <v>21</v>
       </c>
-      <c r="BA8" t="s">
+      <c r="BC8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2791,11 +2870,11 @@
       <c r="AC9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD9" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>8</v>
+      <c r="AD9" s="24">
+        <v>20319</v>
+      </c>
+      <c r="AE9" s="27">
+        <v>12181</v>
       </c>
       <c r="AF9" t="s">
         <v>8</v>
@@ -2803,74 +2882,80 @@
       <c r="AG9" t="s">
         <v>8</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AH9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ9" s="1">
         <v>32768</v>
       </c>
-      <c r="AI9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>8</v>
-      </c>
       <c r="AK9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM9" t="s">
         <v>34</v>
       </c>
-      <c r="AL9" s="10">
+      <c r="AN9" s="10">
         <v>125</v>
       </c>
-      <c r="AM9">
+      <c r="AO9">
         <v>1169</v>
       </c>
-      <c r="AN9">
+      <c r="AP9">
         <v>414</v>
       </c>
-      <c r="AO9" s="1">
-        <f>AL9-50</f>
+      <c r="AQ9" s="1">
+        <f>AN9-50</f>
         <v>75</v>
       </c>
-      <c r="AP9">
-        <f>AM9-240</f>
+      <c r="AR9">
+        <f>AO9-240</f>
         <v>929</v>
       </c>
-      <c r="AQ9">
-        <f>AN9-110</f>
+      <c r="AS9">
+        <f>AP9-110</f>
         <v>304</v>
       </c>
-      <c r="AR9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS9" s="1">
-        <f>(AL9-AO9)/2</f>
+      <c r="AT9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU9" s="1">
+        <f>(AN9-AQ9)/2</f>
         <v>25</v>
       </c>
-      <c r="AT9">
-        <f>(AM9-AP9)/2</f>
+      <c r="AV9">
+        <f>(AO9-AR9)/2</f>
         <v>120</v>
       </c>
-      <c r="AU9">
-        <f>(AN9-AQ9)/2</f>
+      <c r="AW9">
+        <f>(AP9-AS9)/2</f>
         <v>55</v>
       </c>
-      <c r="AV9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW9" s="10" t="s">
+      <c r="AX9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="AZ9" t="s">
         <v>15</v>
       </c>
-      <c r="AY9">
-        <v>1</v>
-      </c>
-      <c r="AZ9" t="s">
+      <c r="BA9">
+        <v>1</v>
+      </c>
+      <c r="BB9" t="s">
         <v>25</v>
       </c>
-      <c r="BA9" t="s">
+      <c r="BC9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2959,11 +3044,11 @@
       <c r="AC10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>8</v>
+      <c r="AD10" s="24">
+        <v>19417</v>
+      </c>
+      <c r="AE10" s="27">
+        <v>13083</v>
       </c>
       <c r="AF10" t="s">
         <v>8</v>
@@ -2971,68 +3056,74 @@
       <c r="AG10" t="s">
         <v>8</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="AH10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ10" s="1">
         <v>32768</v>
       </c>
-      <c r="AI10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>8</v>
-      </c>
       <c r="AK10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM10" t="s">
         <v>34</v>
       </c>
-      <c r="AL10" s="10">
+      <c r="AN10" s="10">
         <v>125</v>
       </c>
-      <c r="AM10">
+      <c r="AO10">
         <v>1169</v>
       </c>
-      <c r="AN10">
+      <c r="AP10">
         <v>414</v>
       </c>
-      <c r="AO10" s="1">
+      <c r="AQ10" s="1">
         <v>72</v>
       </c>
-      <c r="AP10">
+      <c r="AR10">
         <v>928</v>
       </c>
-      <c r="AQ10">
+      <c r="AS10">
         <v>304</v>
       </c>
-      <c r="AR10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS10" s="1">
+      <c r="AT10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU10" s="1">
         <v>24</v>
       </c>
-      <c r="AT10">
+      <c r="AV10">
         <v>120</v>
       </c>
-      <c r="AU10">
+      <c r="AW10">
         <v>48</v>
       </c>
-      <c r="AV10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW10" s="10" t="s">
+      <c r="AX10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AZ10" t="s">
         <v>74</v>
       </c>
-      <c r="AY10">
-        <v>1</v>
-      </c>
-      <c r="AZ10" t="s">
+      <c r="BA10">
+        <v>1</v>
+      </c>
+      <c r="BB10" t="s">
         <v>25</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="BC10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3121,80 +3212,87 @@
       <c r="AC11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AD11" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>8</v>
+      <c r="AD11" s="24">
+        <v>30325</v>
+      </c>
+      <c r="AE11" s="27">
+        <v>2175</v>
+      </c>
+      <c r="AF11" t="e">
+        <f>AC11+AE11</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AG11" t="s">
         <v>8</v>
       </c>
-      <c r="AH11" s="1">
+      <c r="AH11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ11" s="1">
         <v>32768</v>
       </c>
-      <c r="AI11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>8</v>
-      </c>
       <c r="AK11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM11" t="s">
         <v>34</v>
       </c>
-      <c r="AL11" s="10">
+      <c r="AN11" s="10">
         <v>125</v>
       </c>
-      <c r="AM11">
+      <c r="AO11">
         <v>1169</v>
       </c>
-      <c r="AN11">
+      <c r="AP11">
         <v>414</v>
       </c>
-      <c r="AO11" s="1">
+      <c r="AQ11" s="1">
         <v>64</v>
       </c>
-      <c r="AP11">
+      <c r="AR11">
         <v>928</v>
       </c>
-      <c r="AQ11">
+      <c r="AS11">
         <v>304</v>
       </c>
-      <c r="AR11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS11" s="1">
+      <c r="AT11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU11" s="1">
         <v>24</v>
       </c>
-      <c r="AT11">
+      <c r="AV11">
         <v>120</v>
       </c>
-      <c r="AU11">
+      <c r="AW11">
         <v>40</v>
       </c>
-      <c r="AV11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW11" s="10" t="s">
+      <c r="AX11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="AZ11" t="s">
         <v>30</v>
       </c>
-      <c r="AY11">
-        <v>1</v>
-      </c>
-      <c r="AZ11" t="s">
+      <c r="BA11">
+        <v>1</v>
+      </c>
+      <c r="BB11" t="s">
         <v>31</v>
       </c>
-      <c r="BA11" s="3" t="s">
+      <c r="BC11" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -3283,80 +3381,87 @@
       <c r="AC12" s="10">
         <v>10135</v>
       </c>
-      <c r="AD12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>8</v>
+      <c r="AD12" s="24">
+        <v>10135</v>
+      </c>
+      <c r="AE12" s="27">
+        <v>22365</v>
+      </c>
+      <c r="AF12">
+        <f>AC12+AE12</f>
+        <v>32500</v>
       </c>
       <c r="AG12" t="s">
         <v>8</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AH12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ12" s="1">
         <v>32768</v>
       </c>
-      <c r="AI12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>8</v>
-      </c>
       <c r="AK12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM12" t="s">
         <v>34</v>
       </c>
-      <c r="AL12" s="10">
+      <c r="AN12" s="10">
         <v>125</v>
       </c>
-      <c r="AM12">
+      <c r="AO12">
         <v>1169</v>
       </c>
-      <c r="AN12">
+      <c r="AP12">
         <v>414</v>
       </c>
-      <c r="AO12" s="1">
+      <c r="AQ12" s="1">
         <v>64</v>
       </c>
-      <c r="AP12">
+      <c r="AR12">
         <v>400</v>
       </c>
-      <c r="AQ12">
+      <c r="AS12">
         <v>160</v>
       </c>
-      <c r="AR12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS12" s="1">
+      <c r="AT12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU12" s="1">
         <v>24</v>
       </c>
-      <c r="AT12">
+      <c r="AV12">
         <v>376</v>
       </c>
-      <c r="AU12">
+      <c r="AW12">
         <v>120</v>
       </c>
-      <c r="AV12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW12" s="10" t="s">
+      <c r="AX12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="AZ12" t="s">
         <v>30</v>
       </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA12" t="s">
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -3445,11 +3550,11 @@
       <c r="AC13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD13" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>8</v>
+      <c r="AD13" s="24">
+        <v>5881</v>
+      </c>
+      <c r="AE13" s="27">
+        <v>26619</v>
       </c>
       <c r="AF13" t="s">
         <v>8</v>
@@ -3457,68 +3562,74 @@
       <c r="AG13" t="s">
         <v>8</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AH13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ13" s="1">
         <v>32768</v>
       </c>
-      <c r="AI13" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>8</v>
-      </c>
       <c r="AK13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM13" t="s">
         <v>34</v>
       </c>
-      <c r="AL13" s="10">
+      <c r="AN13" s="10">
         <v>125</v>
       </c>
-      <c r="AM13">
+      <c r="AO13">
         <v>1169</v>
       </c>
-      <c r="AN13">
+      <c r="AP13">
         <v>414</v>
       </c>
-      <c r="AO13" s="1">
+      <c r="AQ13" s="1">
         <v>72</v>
       </c>
-      <c r="AP13">
+      <c r="AR13">
         <v>408</v>
       </c>
-      <c r="AQ13">
+      <c r="AS13">
         <v>168</v>
       </c>
-      <c r="AR13" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS13" s="1">
+      <c r="AT13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU13" s="1">
         <v>24</v>
       </c>
-      <c r="AT13">
+      <c r="AV13">
         <v>376</v>
       </c>
-      <c r="AU13">
+      <c r="AW13">
         <v>120</v>
       </c>
-      <c r="AV13" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW13" s="10" t="s">
+      <c r="AX13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="AZ13" t="s">
         <v>30</v>
       </c>
-      <c r="AY13">
-        <v>1</v>
-      </c>
-      <c r="AZ13" t="s">
+      <c r="BA13">
+        <v>1</v>
+      </c>
+      <c r="BB13" t="s">
         <v>40</v>
       </c>
-      <c r="BA13" t="s">
+      <c r="BC13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -3607,11 +3718,11 @@
       <c r="AC14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD14" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>8</v>
+      <c r="AD14" s="24">
+        <v>5881</v>
+      </c>
+      <c r="AE14" s="27">
+        <v>26619</v>
       </c>
       <c r="AF14" t="s">
         <v>8</v>
@@ -3619,68 +3730,74 @@
       <c r="AG14" t="s">
         <v>8</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AH14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ14" s="1">
         <v>32768</v>
       </c>
-      <c r="AI14" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>8</v>
-      </c>
       <c r="AK14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM14" t="s">
         <v>34</v>
       </c>
-      <c r="AL14" s="10">
+      <c r="AN14" s="10">
         <v>125</v>
       </c>
-      <c r="AM14">
+      <c r="AO14">
         <v>1169</v>
       </c>
-      <c r="AN14">
+      <c r="AP14">
         <v>414</v>
       </c>
-      <c r="AO14" s="1">
+      <c r="AQ14" s="1">
         <v>72</v>
       </c>
-      <c r="AP14">
+      <c r="AR14">
         <v>408</v>
       </c>
-      <c r="AQ14">
+      <c r="AS14">
         <v>168</v>
       </c>
-      <c r="AR14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS14" s="1">
+      <c r="AT14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU14" s="1">
         <v>16</v>
       </c>
-      <c r="AT14">
+      <c r="AV14">
         <v>368</v>
       </c>
-      <c r="AU14">
+      <c r="AW14">
         <v>112</v>
       </c>
-      <c r="AV14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW14" s="10" t="s">
+      <c r="AX14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AX14" t="s">
+      <c r="AZ14" t="s">
         <v>48</v>
       </c>
-      <c r="AY14">
-        <v>1</v>
-      </c>
-      <c r="AZ14" t="s">
+      <c r="BA14">
+        <v>1</v>
+      </c>
+      <c r="BB14" t="s">
         <v>40</v>
       </c>
-      <c r="BA14" t="s">
+      <c r="BC14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -3769,80 +3886,87 @@
       <c r="AC15" s="10">
         <v>13843</v>
       </c>
-      <c r="AD15" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>8</v>
+      <c r="AD15" s="24">
+        <v>13843</v>
+      </c>
+      <c r="AE15" s="27">
+        <v>18657</v>
+      </c>
+      <c r="AF15">
+        <f>AC15+AE15</f>
+        <v>32500</v>
       </c>
       <c r="AG15" t="s">
         <v>8</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AH15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ15" s="1">
         <v>32768</v>
       </c>
-      <c r="AI15" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>8</v>
-      </c>
       <c r="AK15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM15" t="s">
         <v>34</v>
       </c>
-      <c r="AL15" s="10">
+      <c r="AN15" s="10">
         <v>125</v>
       </c>
-      <c r="AM15">
+      <c r="AO15">
         <v>1169</v>
       </c>
-      <c r="AN15">
+      <c r="AP15">
         <v>414</v>
       </c>
-      <c r="AO15" s="1">
+      <c r="AQ15" s="1">
         <v>80</v>
       </c>
-      <c r="AP15">
+      <c r="AR15">
         <v>416</v>
       </c>
-      <c r="AQ15">
+      <c r="AS15">
         <v>176</v>
       </c>
-      <c r="AR15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS15" s="1">
-        <v>8</v>
-      </c>
-      <c r="AT15">
+      <c r="AT15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>8</v>
+      </c>
+      <c r="AV15">
         <v>376</v>
       </c>
-      <c r="AU15">
+      <c r="AW15">
         <v>104</v>
       </c>
-      <c r="AV15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW15" s="10" t="s">
+      <c r="AX15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AX15" t="s">
+      <c r="AZ15" t="s">
         <v>30</v>
       </c>
-      <c r="AY15">
-        <v>0</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA15" t="s">
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>47</v>
       </c>
@@ -3931,80 +4055,87 @@
       <c r="AC16" s="11">
         <v>13843</v>
       </c>
-      <c r="AD16" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF16" s="7" t="s">
-        <v>8</v>
+      <c r="AD16" s="25">
+        <v>13843</v>
+      </c>
+      <c r="AE16" s="28">
+        <v>18657</v>
+      </c>
+      <c r="AF16" s="7">
+        <f>AC16+AE16</f>
+        <v>32500</v>
       </c>
       <c r="AG16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AH16" s="8">
+      <c r="AH16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ16" s="8">
         <v>32768</v>
       </c>
-      <c r="AI16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ16" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="AK16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AL16" s="11">
+      <c r="AN16" s="11">
         <v>125</v>
       </c>
-      <c r="AM16" s="7">
+      <c r="AO16" s="7">
         <v>1169</v>
       </c>
-      <c r="AN16" s="7">
+      <c r="AP16" s="7">
         <v>414</v>
       </c>
-      <c r="AO16" s="8">
+      <c r="AQ16" s="8">
         <v>80</v>
       </c>
-      <c r="AP16" s="7">
+      <c r="AR16" s="7">
         <v>416</v>
       </c>
-      <c r="AQ16" s="7">
+      <c r="AS16" s="7">
         <v>176</v>
       </c>
-      <c r="AR16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS16" s="8">
+      <c r="AT16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU16" s="8">
         <v>16</v>
       </c>
-      <c r="AT16" s="7">
+      <c r="AV16" s="7">
         <v>368</v>
       </c>
-      <c r="AU16" s="7">
+      <c r="AW16" s="7">
         <v>112</v>
       </c>
-      <c r="AV16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW16" s="11" t="s">
+      <c r="AX16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY16" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AX16" s="7" t="s">
+      <c r="AZ16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AY16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA16" s="7" t="s">
+      <c r="BA16" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC16" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -4093,80 +4224,87 @@
       <c r="AC17" s="10">
         <v>10135</v>
       </c>
-      <c r="AD17" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>8</v>
+      <c r="AD17" s="24">
+        <v>10135</v>
+      </c>
+      <c r="AE17" s="27">
+        <v>22365</v>
+      </c>
+      <c r="AF17">
+        <f>AC17+AE17</f>
+        <v>32500</v>
       </c>
       <c r="AG17" t="s">
         <v>8</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AH17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ17" s="1">
         <v>32768</v>
       </c>
-      <c r="AI17" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>8</v>
-      </c>
       <c r="AK17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM17" t="s">
         <v>34</v>
       </c>
-      <c r="AL17" s="10">
+      <c r="AN17" s="10">
         <v>125</v>
       </c>
-      <c r="AM17">
+      <c r="AO17">
         <v>1169</v>
       </c>
-      <c r="AN17">
+      <c r="AP17">
         <v>414</v>
       </c>
-      <c r="AO17" s="1">
+      <c r="AQ17" s="1">
         <v>64</v>
       </c>
-      <c r="AP17">
+      <c r="AR17">
         <v>400</v>
       </c>
-      <c r="AQ17">
+      <c r="AS17">
         <v>160</v>
       </c>
-      <c r="AR17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS17" s="4">
-        <v>8</v>
-      </c>
-      <c r="AT17">
+      <c r="AT17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU17" s="4">
+        <v>8</v>
+      </c>
+      <c r="AV17">
         <v>368</v>
       </c>
-      <c r="AU17">
+      <c r="AW17">
         <v>96</v>
       </c>
-      <c r="AV17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW17" s="10" t="s">
+      <c r="AX17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY17" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AZ17" t="s">
         <v>76</v>
       </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA17" t="s">
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -4255,80 +4393,87 @@
       <c r="AC18" s="10">
         <v>10135</v>
       </c>
-      <c r="AD18" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>8</v>
+      <c r="AD18" s="24">
+        <v>10135</v>
+      </c>
+      <c r="AE18" s="27">
+        <v>22365</v>
+      </c>
+      <c r="AF18">
+        <f>AC18+AE18</f>
+        <v>32500</v>
       </c>
       <c r="AG18" t="s">
         <v>8</v>
       </c>
-      <c r="AH18" s="1">
+      <c r="AH18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ18" s="1">
         <v>32768</v>
       </c>
-      <c r="AI18" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>8</v>
-      </c>
       <c r="AK18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM18" t="s">
         <v>34</v>
       </c>
-      <c r="AL18" s="10">
+      <c r="AN18" s="10">
         <v>125</v>
       </c>
-      <c r="AM18">
+      <c r="AO18">
         <v>1169</v>
       </c>
-      <c r="AN18">
+      <c r="AP18">
         <v>414</v>
       </c>
-      <c r="AO18" s="1">
+      <c r="AQ18" s="1">
         <v>64</v>
       </c>
-      <c r="AP18">
+      <c r="AR18">
         <v>400</v>
       </c>
-      <c r="AQ18">
+      <c r="AS18">
         <v>160</v>
       </c>
-      <c r="AR18" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS18" s="1">
+      <c r="AT18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU18" s="1">
         <v>24</v>
       </c>
-      <c r="AT18">
+      <c r="AV18">
         <v>384</v>
       </c>
-      <c r="AU18">
+      <c r="AW18">
         <v>120</v>
       </c>
-      <c r="AV18" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW18" s="10" t="s">
+      <c r="AX18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY18" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AX18" t="s">
+      <c r="AZ18" t="s">
         <v>73</v>
       </c>
-      <c r="AY18">
-        <v>0</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA18" t="s">
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -4417,80 +4562,87 @@
       <c r="AC19" s="10">
         <v>10999</v>
       </c>
-      <c r="AD19" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>8</v>
+      <c r="AD19" s="24">
+        <v>10999</v>
+      </c>
+      <c r="AE19" s="27">
+        <v>21501</v>
+      </c>
+      <c r="AF19">
+        <f>AC19+AE19</f>
+        <v>32500</v>
       </c>
       <c r="AG19" t="s">
         <v>8</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AH19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ19" s="1">
         <v>32768</v>
       </c>
-      <c r="AI19" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>8</v>
-      </c>
       <c r="AK19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM19" t="s">
         <v>34</v>
       </c>
-      <c r="AL19" s="10">
+      <c r="AN19" s="10">
         <v>125</v>
       </c>
-      <c r="AM19">
+      <c r="AO19">
         <v>1169</v>
       </c>
-      <c r="AN19">
+      <c r="AP19">
         <v>414</v>
       </c>
-      <c r="AO19" s="1">
+      <c r="AQ19" s="1">
         <v>64</v>
       </c>
-      <c r="AP19">
+      <c r="AR19">
         <v>400</v>
       </c>
-      <c r="AQ19">
+      <c r="AS19">
         <v>176</v>
       </c>
-      <c r="AR19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS19" s="1">
+      <c r="AT19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU19" s="1">
         <v>24</v>
       </c>
-      <c r="AT19">
+      <c r="AV19">
         <v>384</v>
       </c>
-      <c r="AU19">
+      <c r="AW19">
         <v>112</v>
       </c>
-      <c r="AV19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW19" s="10" t="s">
+      <c r="AX19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY19" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AX19" t="s">
+      <c r="AZ19" t="s">
         <v>73</v>
       </c>
-      <c r="AY19">
-        <v>0</v>
-      </c>
-      <c r="AZ19" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA19" t="s">
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4579,80 +4731,87 @@
       <c r="AC20" s="10">
         <v>11843</v>
       </c>
-      <c r="AD20" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>8</v>
+      <c r="AD20" s="24">
+        <v>11843</v>
+      </c>
+      <c r="AE20" s="27">
+        <v>20657</v>
+      </c>
+      <c r="AF20">
+        <f>AC20+AE20</f>
+        <v>32500</v>
       </c>
       <c r="AG20" t="s">
         <v>8</v>
       </c>
-      <c r="AH20" s="1">
+      <c r="AH20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ20" s="1">
         <v>32768</v>
       </c>
-      <c r="AI20" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>8</v>
-      </c>
       <c r="AK20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM20" t="s">
         <v>34</v>
       </c>
-      <c r="AL20" s="10">
+      <c r="AN20" s="10">
         <v>125</v>
       </c>
-      <c r="AM20">
+      <c r="AO20">
         <v>1169</v>
       </c>
-      <c r="AN20">
+      <c r="AP20">
         <v>414</v>
       </c>
-      <c r="AO20" s="1">
+      <c r="AQ20" s="1">
         <v>64</v>
       </c>
-      <c r="AP20">
+      <c r="AR20">
         <v>400</v>
       </c>
-      <c r="AQ20">
+      <c r="AS20">
         <v>192</v>
       </c>
-      <c r="AR20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS20" s="1">
+      <c r="AT20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU20" s="1">
         <v>24</v>
       </c>
-      <c r="AT20">
+      <c r="AV20">
         <v>384</v>
       </c>
-      <c r="AU20">
+      <c r="AW20">
         <v>104</v>
       </c>
-      <c r="AV20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW20" s="10" t="s">
+      <c r="AX20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY20" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AX20" t="s">
+      <c r="AZ20" t="s">
         <v>73</v>
       </c>
-      <c r="AY20">
-        <v>0</v>
-      </c>
-      <c r="AZ20" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA20" t="s">
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -4741,80 +4900,87 @@
       <c r="AC21" s="10">
         <v>10473</v>
       </c>
-      <c r="AD21" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>8</v>
+      <c r="AD21" s="24">
+        <v>10473</v>
+      </c>
+      <c r="AE21" s="27">
+        <v>22027</v>
+      </c>
+      <c r="AF21">
+        <f>AC21+AE21</f>
+        <v>32500</v>
       </c>
       <c r="AG21" t="s">
         <v>8</v>
       </c>
-      <c r="AH21" s="1">
+      <c r="AH21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ21" s="1">
         <v>32768</v>
       </c>
-      <c r="AI21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>8</v>
-      </c>
       <c r="AK21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM21" t="s">
         <v>34</v>
       </c>
-      <c r="AL21" s="10">
+      <c r="AN21" s="10">
         <v>125</v>
       </c>
-      <c r="AM21">
+      <c r="AO21">
         <v>1169</v>
       </c>
-      <c r="AN21">
+      <c r="AP21">
         <v>414</v>
       </c>
-      <c r="AO21" s="1">
+      <c r="AQ21" s="1">
         <v>64</v>
       </c>
-      <c r="AP21">
+      <c r="AR21">
         <v>416</v>
       </c>
-      <c r="AQ21">
+      <c r="AS21">
         <v>160</v>
       </c>
-      <c r="AR21" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS21" s="1">
+      <c r="AT21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU21" s="1">
         <v>24</v>
       </c>
-      <c r="AT21">
+      <c r="AV21">
         <v>376</v>
       </c>
-      <c r="AU21">
+      <c r="AW21">
         <v>120</v>
       </c>
-      <c r="AV21" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW21" s="10" t="s">
+      <c r="AX21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY21" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AX21" t="s">
+      <c r="AZ21" t="s">
         <v>73</v>
       </c>
-      <c r="AY21">
-        <v>0</v>
-      </c>
-      <c r="AZ21" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA21" t="s">
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -4903,80 +5069,87 @@
       <c r="AC22" s="10">
         <v>10825</v>
       </c>
-      <c r="AD22" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>8</v>
+      <c r="AD22" s="24">
+        <v>10825</v>
+      </c>
+      <c r="AE22" s="27">
+        <v>21675</v>
+      </c>
+      <c r="AF22">
+        <f>AC22+AE22</f>
+        <v>32500</v>
       </c>
       <c r="AG22" t="s">
         <v>8</v>
       </c>
-      <c r="AH22" s="1">
+      <c r="AH22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ22" s="1">
         <v>32768</v>
       </c>
-      <c r="AI22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>8</v>
-      </c>
       <c r="AK22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM22" t="s">
         <v>34</v>
       </c>
-      <c r="AL22" s="10">
+      <c r="AN22" s="10">
         <v>125</v>
       </c>
-      <c r="AM22">
+      <c r="AO22">
         <v>1169</v>
       </c>
-      <c r="AN22">
+      <c r="AP22">
         <v>414</v>
       </c>
-      <c r="AO22" s="1">
+      <c r="AQ22" s="1">
         <v>64</v>
       </c>
-      <c r="AP22">
+      <c r="AR22">
         <v>432</v>
       </c>
-      <c r="AQ22">
+      <c r="AS22">
         <v>160</v>
       </c>
-      <c r="AR22" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS22" s="1">
+      <c r="AT22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU22" s="1">
         <v>24</v>
       </c>
-      <c r="AT22">
+      <c r="AV22">
         <v>368</v>
       </c>
-      <c r="AU22">
+      <c r="AW22">
         <v>120</v>
       </c>
-      <c r="AV22" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW22" s="10" t="s">
+      <c r="AX22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY22" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AX22" t="s">
+      <c r="AZ22" t="s">
         <v>73</v>
       </c>
-      <c r="AY22">
-        <v>0</v>
-      </c>
-      <c r="AZ22" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA22" t="s">
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -5065,80 +5238,87 @@
       <c r="AC23" s="10">
         <v>12317</v>
       </c>
-      <c r="AD23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>8</v>
+      <c r="AD23" s="24">
+        <v>12317</v>
+      </c>
+      <c r="AE23" s="27">
+        <v>20183</v>
+      </c>
+      <c r="AF23">
+        <f>AC23+AE23</f>
+        <v>32500</v>
       </c>
       <c r="AG23" t="s">
         <v>8</v>
       </c>
-      <c r="AH23" s="1">
+      <c r="AH23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ23" s="1">
         <v>32768</v>
       </c>
-      <c r="AI23" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>8</v>
-      </c>
       <c r="AK23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM23" t="s">
         <v>34</v>
       </c>
-      <c r="AL23" s="10">
+      <c r="AN23" s="10">
         <v>125</v>
       </c>
-      <c r="AM23">
+      <c r="AO23">
         <v>1169</v>
       </c>
-      <c r="AN23">
+      <c r="AP23">
         <v>414</v>
       </c>
-      <c r="AO23" s="1">
+      <c r="AQ23" s="1">
         <v>80</v>
       </c>
-      <c r="AP23">
+      <c r="AR23">
         <v>400</v>
       </c>
-      <c r="AQ23">
+      <c r="AS23">
         <v>160</v>
       </c>
-      <c r="AR23" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS23" s="1">
+      <c r="AT23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU23" s="1">
         <v>16</v>
       </c>
-      <c r="AT23">
+      <c r="AV23">
         <v>384</v>
       </c>
-      <c r="AU23">
+      <c r="AW23">
         <v>120</v>
       </c>
-      <c r="AV23" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW23" s="10" t="s">
+      <c r="AX23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY23" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AX23" t="s">
+      <c r="AZ23" t="s">
         <v>73</v>
       </c>
-      <c r="AY23">
-        <v>0</v>
-      </c>
-      <c r="AZ23" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA23" t="s">
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -5227,80 +5407,87 @@
       <c r="AC24" s="10">
         <v>14443</v>
       </c>
-      <c r="AD24" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>8</v>
+      <c r="AD24" s="24">
+        <v>14443</v>
+      </c>
+      <c r="AE24" s="27">
+        <v>18057</v>
+      </c>
+      <c r="AF24">
+        <f>AC24+AE24</f>
+        <v>32500</v>
       </c>
       <c r="AG24" t="s">
         <v>8</v>
       </c>
-      <c r="AH24" s="1">
+      <c r="AH24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ24" s="1">
         <v>32768</v>
       </c>
-      <c r="AI24" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>8</v>
-      </c>
       <c r="AK24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM24" t="s">
         <v>34</v>
       </c>
-      <c r="AL24" s="10">
+      <c r="AN24" s="10">
         <v>125</v>
       </c>
-      <c r="AM24">
+      <c r="AO24">
         <v>1169</v>
       </c>
-      <c r="AN24">
+      <c r="AP24">
         <v>414</v>
       </c>
-      <c r="AO24" s="1">
+      <c r="AQ24" s="1">
         <v>96</v>
       </c>
-      <c r="AP24">
+      <c r="AR24">
         <v>400</v>
       </c>
-      <c r="AQ24">
+      <c r="AS24">
         <v>160</v>
       </c>
-      <c r="AR24" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS24" s="1">
-        <v>8</v>
-      </c>
-      <c r="AT24">
+      <c r="AT24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU24" s="1">
+        <v>8</v>
+      </c>
+      <c r="AV24">
         <v>384</v>
       </c>
-      <c r="AU24">
+      <c r="AW24">
         <v>120</v>
       </c>
-      <c r="AV24" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW24" s="10" t="s">
+      <c r="AX24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY24" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AX24" t="s">
+      <c r="AZ24" t="s">
         <v>73</v>
       </c>
-      <c r="AY24">
-        <v>0</v>
-      </c>
-      <c r="AZ24" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA24" t="s">
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -5388,8 +5575,8 @@
       <c r="AC25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD25" t="s">
-        <v>130</v>
+      <c r="AD25" s="26" t="s">
+        <v>8</v>
       </c>
       <c r="AE25" t="s">
         <v>8</v>
@@ -5400,68 +5587,74 @@
       <c r="AG25" t="s">
         <v>8</v>
       </c>
-      <c r="AH25" s="1" t="s">
+      <c r="AH25" t="s">
         <v>8</v>
       </c>
       <c r="AI25" t="s">
         <v>8</v>
       </c>
-      <c r="AJ25" t="s">
+      <c r="AJ25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AK25" t="s">
         <v>8</v>
       </c>
-      <c r="AL25" s="10" t="s">
+      <c r="AL25" t="s">
         <v>8</v>
       </c>
       <c r="AM25" t="s">
         <v>8</v>
       </c>
-      <c r="AN25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO25" s="1" t="s">
+      <c r="AN25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO25" t="s">
         <v>8</v>
       </c>
       <c r="AP25" t="s">
         <v>8</v>
       </c>
-      <c r="AQ25" t="s">
+      <c r="AQ25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AR25" t="s">
         <v>8</v>
       </c>
-      <c r="AS25" s="1" t="s">
+      <c r="AS25" t="s">
         <v>8</v>
       </c>
       <c r="AT25" t="s">
         <v>8</v>
       </c>
-      <c r="AU25" t="s">
+      <c r="AU25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AV25" t="s">
         <v>8</v>
       </c>
-      <c r="AW25" s="10" t="s">
+      <c r="AW25" t="s">
         <v>8</v>
       </c>
       <c r="AX25" t="s">
         <v>8</v>
       </c>
-      <c r="AY25">
-        <v>0</v>
+      <c r="AY25" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="AZ25" t="s">
         <v>8</v>
       </c>
-      <c r="BA25" t="s">
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>105</v>
       </c>
@@ -5550,7 +5743,7 @@
         <v>8</v>
       </c>
       <c r="AD26" s="7" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="AE26" s="7" t="s">
         <v>8</v>
@@ -5561,68 +5754,74 @@
       <c r="AG26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AH26" s="8" t="s">
+      <c r="AH26" s="7" t="s">
         <v>8</v>
       </c>
       <c r="AI26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AJ26" s="7" t="s">
+      <c r="AJ26" s="8" t="s">
         <v>8</v>
       </c>
       <c r="AK26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AL26" s="11" t="s">
+      <c r="AL26" s="7" t="s">
         <v>8</v>
       </c>
       <c r="AM26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AN26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO26" s="8" t="s">
+      <c r="AN26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO26" s="7" t="s">
         <v>8</v>
       </c>
       <c r="AP26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AQ26" s="7" t="s">
+      <c r="AQ26" s="8" t="s">
         <v>8</v>
       </c>
       <c r="AR26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AS26" s="8" t="s">
+      <c r="AS26" s="7" t="s">
         <v>8</v>
       </c>
       <c r="AT26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AU26" s="7" t="s">
+      <c r="AU26" s="8" t="s">
         <v>8</v>
       </c>
       <c r="AV26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AW26" s="11" t="s">
+      <c r="AW26" s="7" t="s">
         <v>8</v>
       </c>
       <c r="AX26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AY26" s="7">
-        <v>0</v>
+      <c r="AY26" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="AZ26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="BA26" s="7" t="s">
+      <c r="BA26" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC26" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -5708,87 +5907,92 @@
       <c r="AB27" t="s">
         <v>102</v>
       </c>
-      <c r="AC27" s="10" t="s">
+      <c r="AC27" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="AD27" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG27">
-        <f t="shared" ref="AG27" si="2" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO27*AP27*AQ27)</f>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF27" t="e">
+        <f>AC27+AE27</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" ref="AI27" si="2" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AQ27*AR27*AS27)</f>
         <v>83027.753778838392</v>
       </c>
-      <c r="AH27" s="1">
+      <c r="AJ27" s="1">
         <v>81920</v>
       </c>
-      <c r="AI27">
+      <c r="AK27">
         <v>81049.600000000006</v>
       </c>
-      <c r="AJ27">
+      <c r="AL27">
         <v>79.150000000000006</v>
       </c>
-      <c r="AK27" t="s">
+      <c r="AM27" t="s">
         <v>111</v>
       </c>
-      <c r="AL27" s="10">
+      <c r="AN27" s="10">
         <v>125</v>
       </c>
-      <c r="AM27">
+      <c r="AO27">
         <v>1169</v>
       </c>
-      <c r="AN27">
+      <c r="AP27">
         <v>414</v>
       </c>
-      <c r="AO27" s="1">
+      <c r="AQ27" s="1">
         <v>112</v>
       </c>
-      <c r="AP27">
+      <c r="AR27">
         <v>864</v>
       </c>
-      <c r="AQ27">
+      <c r="AS27">
         <v>400</v>
       </c>
-      <c r="AR27" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS27" s="1">
-        <f t="shared" ref="AS27:AS34" si="3" xml:space="preserve"> _xlfn.FLOOR.MATH((AL27 - AO27) / 2)</f>
+      <c r="AT27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU27" s="1">
+        <f t="shared" ref="AU27:AU34" si="3" xml:space="preserve"> _xlfn.FLOOR.MATH((AN27 - AQ27) / 2)</f>
         <v>6</v>
       </c>
-      <c r="AT27">
-        <f t="shared" ref="AT27" si="4" xml:space="preserve"> _xlfn.FLOOR.MATH((AM27 - AP27) / 2)</f>
+      <c r="AV27">
+        <f t="shared" ref="AV27" si="4" xml:space="preserve"> _xlfn.FLOOR.MATH((AO27 - AR27) / 2)</f>
         <v>152</v>
       </c>
-      <c r="AU27">
-        <f t="shared" ref="AU27" si="5" xml:space="preserve"> _xlfn.FLOOR.MATH((AN27 - AQ27) / 2)</f>
+      <c r="AW27">
+        <f t="shared" ref="AW27" si="5" xml:space="preserve"> _xlfn.FLOOR.MATH((AP27 - AS27) / 2)</f>
         <v>7</v>
       </c>
-      <c r="AV27" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW27" s="10" t="s">
+      <c r="AX27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY27" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AX27" t="s">
+      <c r="AZ27" t="s">
         <v>176</v>
       </c>
-      <c r="AY27">
-        <v>0</v>
-      </c>
-      <c r="AZ27" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA27" t="s">
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>110</v>
       </c>
@@ -5874,88 +6078,93 @@
       <c r="AB28" t="s">
         <v>102</v>
       </c>
-      <c r="AC28" s="10" t="s">
+      <c r="AC28" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="AD28" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE28">
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF28" t="e">
+        <f>AC28+AE28</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG28">
         <v>82032.639999999999</v>
       </c>
-      <c r="AF28">
+      <c r="AH28">
         <f xml:space="preserve"> 75.58 + 4.53</f>
         <v>80.11</v>
       </c>
-      <c r="AG28">
-        <f t="shared" ref="AG28:AG33" si="6" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO28*AP28*AQ28)</f>
+      <c r="AI28">
+        <f t="shared" ref="AI28:AI33" si="6" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AQ28*AR28*AS28)</f>
         <v>81518.129922434266</v>
       </c>
-      <c r="AH28" s="1">
+      <c r="AJ28" s="1">
         <v>81920</v>
       </c>
-      <c r="AI28">
+      <c r="AK28">
         <v>81049.600000000006</v>
       </c>
-      <c r="AJ28">
+      <c r="AL28">
         <v>79.150000000000006</v>
       </c>
-      <c r="AK28" t="s">
+      <c r="AM28" t="s">
         <v>111</v>
       </c>
-      <c r="AL28" s="10">
+      <c r="AN28" s="10">
         <v>125</v>
       </c>
-      <c r="AM28">
+      <c r="AO28">
         <v>1169</v>
       </c>
-      <c r="AN28">
+      <c r="AP28">
         <v>414</v>
       </c>
-      <c r="AO28" s="1">
+      <c r="AQ28" s="1">
         <v>112</v>
       </c>
-      <c r="AP28">
+      <c r="AR28">
         <v>848</v>
       </c>
-      <c r="AQ28">
+      <c r="AS28">
         <v>400</v>
       </c>
-      <c r="AR28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS28" s="1">
+      <c r="AT28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU28" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AT28">
-        <f t="shared" ref="AT28" si="7" xml:space="preserve"> _xlfn.FLOOR.MATH((AM28 - AP28) / 2)</f>
+      <c r="AV28">
+        <f t="shared" ref="AV28" si="7" xml:space="preserve"> _xlfn.FLOOR.MATH((AO28 - AR28) / 2)</f>
         <v>160</v>
       </c>
-      <c r="AU28">
-        <f t="shared" ref="AU28" si="8" xml:space="preserve"> _xlfn.FLOOR.MATH((AN28 - AQ28) / 2)</f>
+      <c r="AW28">
+        <f t="shared" ref="AW28" si="8" xml:space="preserve"> _xlfn.FLOOR.MATH((AP28 - AS28) / 2)</f>
         <v>7</v>
       </c>
-      <c r="AV28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW28" s="10" t="s">
+      <c r="AX28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY28" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AX28" t="s">
+      <c r="AZ28" t="s">
         <v>176</v>
       </c>
-      <c r="AY28">
-        <v>1</v>
-      </c>
-      <c r="AZ28" t="s">
+      <c r="BA28">
+        <v>1</v>
+      </c>
+      <c r="BB28" t="s">
         <v>115</v>
       </c>
-      <c r="BA28" t="s">
+      <c r="BC28" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -6044,84 +6253,88 @@
       <c r="AC29" s="10">
         <v>77887</v>
       </c>
-      <c r="AD29" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG29">
+      <c r="AE29" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF29" t="e">
+        <f>AC29+AE29</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI29">
         <f t="shared" si="6"/>
         <v>76989.258353221856</v>
       </c>
-      <c r="AH29" s="1">
+      <c r="AJ29" s="1">
         <v>81920</v>
       </c>
-      <c r="AI29">
+      <c r="AK29">
         <v>81049.600000000006</v>
       </c>
-      <c r="AJ29">
+      <c r="AL29">
         <v>79.150000000000006</v>
       </c>
-      <c r="AK29" t="s">
+      <c r="AM29" t="s">
         <v>111</v>
       </c>
-      <c r="AL29" s="10">
+      <c r="AN29" s="10">
         <v>125</v>
       </c>
-      <c r="AM29">
+      <c r="AO29">
         <v>1169</v>
       </c>
-      <c r="AN29">
+      <c r="AP29">
         <v>414</v>
       </c>
-      <c r="AO29" s="1">
+      <c r="AQ29" s="1">
         <v>112</v>
       </c>
-      <c r="AP29">
+      <c r="AR29">
         <v>800</v>
       </c>
-      <c r="AQ29">
+      <c r="AS29">
         <v>400</v>
       </c>
-      <c r="AR29" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS29" s="1">
+      <c r="AT29" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU29" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AT29">
-        <f t="shared" ref="AT29" si="9" xml:space="preserve"> _xlfn.FLOOR.MATH((AM29 - AP29) / 2)</f>
+      <c r="AV29">
+        <f t="shared" ref="AV29" si="9" xml:space="preserve"> _xlfn.FLOOR.MATH((AO29 - AR29) / 2)</f>
         <v>184</v>
       </c>
-      <c r="AU29">
-        <f t="shared" ref="AU29" si="10" xml:space="preserve"> _xlfn.FLOOR.MATH((AN29 - AQ29) / 2)</f>
+      <c r="AW29">
+        <f t="shared" ref="AW29" si="10" xml:space="preserve"> _xlfn.FLOOR.MATH((AP29 - AS29) / 2)</f>
         <v>7</v>
       </c>
-      <c r="AV29" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW29" s="10" t="s">
+      <c r="AX29" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY29" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AX29" t="s">
+      <c r="AZ29" t="s">
         <v>176</v>
       </c>
-      <c r="AY29">
-        <v>0</v>
-      </c>
-      <c r="AZ29" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA29" t="s">
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>157</v>
       </c>
@@ -6210,84 +6423,88 @@
       <c r="AC30" s="10">
         <v>77885</v>
       </c>
-      <c r="AD30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG30">
+      <c r="AE30" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF30" t="e">
+        <f>AC30+AE30</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI30">
         <f t="shared" si="6"/>
         <v>76989.258353221856</v>
       </c>
-      <c r="AH30" s="1">
+      <c r="AJ30" s="1">
         <v>81920</v>
       </c>
-      <c r="AI30">
+      <c r="AK30">
         <v>81049.600000000006</v>
       </c>
-      <c r="AJ30">
+      <c r="AL30">
         <v>79.150000000000006</v>
       </c>
-      <c r="AK30" s="15" t="s">
+      <c r="AM30" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="AL30" s="10">
+      <c r="AN30" s="10">
         <v>125</v>
       </c>
-      <c r="AM30">
+      <c r="AO30">
         <v>1169</v>
       </c>
-      <c r="AN30">
+      <c r="AP30">
         <v>414</v>
       </c>
-      <c r="AO30" s="1">
+      <c r="AQ30" s="1">
         <v>112</v>
       </c>
-      <c r="AP30">
+      <c r="AR30">
         <v>800</v>
       </c>
-      <c r="AQ30">
+      <c r="AS30">
         <v>400</v>
       </c>
-      <c r="AR30" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS30" s="1">
+      <c r="AT30" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU30" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AT30">
-        <f t="shared" ref="AT30:AT34" si="11" xml:space="preserve"> _xlfn.FLOOR.MATH((AM30 - AP30) / 2)</f>
+      <c r="AV30">
+        <f t="shared" ref="AV30:AV34" si="11" xml:space="preserve"> _xlfn.FLOOR.MATH((AO30 - AR30) / 2)</f>
         <v>184</v>
       </c>
-      <c r="AU30">
-        <f t="shared" ref="AU30:AU34" si="12" xml:space="preserve"> _xlfn.FLOOR.MATH((AN30 - AQ30) / 2)</f>
+      <c r="AW30">
+        <f t="shared" ref="AW30:AW34" si="12" xml:space="preserve"> _xlfn.FLOOR.MATH((AP30 - AS30) / 2)</f>
         <v>7</v>
       </c>
-      <c r="AV30" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW30" s="10" t="s">
+      <c r="AX30" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY30" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AX30" t="s">
+      <c r="AZ30" t="s">
         <v>176</v>
       </c>
-      <c r="AY30">
-        <v>0</v>
-      </c>
-      <c r="AZ30" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA30" t="s">
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>161</v>
       </c>
@@ -6376,84 +6593,88 @@
       <c r="AC31" s="10">
         <v>78017</v>
       </c>
-      <c r="AD31" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG31">
+      <c r="AE31" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF31" t="e">
+        <f>AC31+AE31</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI31">
         <f t="shared" si="6"/>
         <v>76989.258353221856</v>
       </c>
-      <c r="AH31" s="1">
+      <c r="AJ31" s="1">
         <v>81920</v>
       </c>
-      <c r="AI31">
+      <c r="AK31">
         <v>81049.600000000006</v>
       </c>
-      <c r="AJ31">
+      <c r="AL31">
         <v>79.150000000000006</v>
       </c>
-      <c r="AK31" t="s">
+      <c r="AM31" t="s">
         <v>111</v>
       </c>
-      <c r="AL31" s="10">
+      <c r="AN31" s="10">
         <v>125</v>
       </c>
-      <c r="AM31">
+      <c r="AO31">
         <v>1169</v>
       </c>
-      <c r="AN31">
+      <c r="AP31">
         <v>414</v>
       </c>
-      <c r="AO31" s="1">
+      <c r="AQ31" s="1">
         <v>112</v>
       </c>
-      <c r="AP31">
+      <c r="AR31">
         <v>800</v>
       </c>
-      <c r="AQ31">
+      <c r="AS31">
         <v>400</v>
       </c>
-      <c r="AR31" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS31" s="1">
+      <c r="AT31" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU31" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AT31">
+      <c r="AV31">
         <f t="shared" si="11"/>
         <v>184</v>
       </c>
-      <c r="AU31">
+      <c r="AW31">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="AV31" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW31" s="10" t="s">
+      <c r="AX31" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY31" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AX31" t="s">
+      <c r="AZ31" t="s">
         <v>176</v>
       </c>
-      <c r="AY31">
-        <v>0</v>
-      </c>
-      <c r="AZ31" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA31" t="s">
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>168</v>
       </c>
@@ -6539,87 +6760,92 @@
       <c r="AB32" t="s">
         <v>102</v>
       </c>
-      <c r="AC32" s="10" t="s">
+      <c r="AC32" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="AD32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG32">
+      <c r="AD32" s="23"/>
+      <c r="AE32" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF32" t="e">
+        <f>AC32+AE32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI32">
         <f t="shared" si="6"/>
         <v>76989.258353221856</v>
       </c>
-      <c r="AH32" s="1">
+      <c r="AJ32" s="1">
         <v>81920</v>
       </c>
-      <c r="AI32">
+      <c r="AK32">
         <v>81049.600000000006</v>
       </c>
-      <c r="AJ32">
+      <c r="AL32">
         <v>79.150000000000006</v>
       </c>
-      <c r="AK32" t="s">
+      <c r="AM32" t="s">
         <v>111</v>
       </c>
-      <c r="AL32" s="10">
+      <c r="AN32" s="10">
         <v>125</v>
       </c>
-      <c r="AM32">
+      <c r="AO32">
         <v>1169</v>
       </c>
-      <c r="AN32">
+      <c r="AP32">
         <v>414</v>
       </c>
-      <c r="AO32" s="1">
+      <c r="AQ32" s="1">
         <v>112</v>
       </c>
-      <c r="AP32">
+      <c r="AR32">
         <v>800</v>
       </c>
-      <c r="AQ32">
+      <c r="AS32">
         <v>400</v>
       </c>
-      <c r="AR32" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS32" s="1">
+      <c r="AT32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU32" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AT32">
+      <c r="AV32">
         <f t="shared" si="11"/>
         <v>184</v>
       </c>
-      <c r="AU32">
+      <c r="AW32">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="AV32" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW32" s="10" t="s">
+      <c r="AX32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY32" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AX32" t="s">
+      <c r="AZ32" t="s">
         <v>176</v>
       </c>
-      <c r="AY32">
-        <v>0</v>
-      </c>
-      <c r="AZ32" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA32" t="s">
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>181</v>
       </c>
@@ -6708,84 +6934,88 @@
       <c r="AC33" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="AD33" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG33">
+      <c r="AE33" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF33" t="e">
+        <f>AC33+AE33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI33">
         <f t="shared" si="6"/>
         <v>76989.258353221856</v>
       </c>
-      <c r="AH33" s="1">
+      <c r="AJ33" s="1">
         <v>81920</v>
       </c>
-      <c r="AI33">
+      <c r="AK33">
         <v>81049.600000000006</v>
       </c>
-      <c r="AJ33">
+      <c r="AL33">
         <v>79.150000000000006</v>
       </c>
-      <c r="AK33" t="s">
+      <c r="AM33" t="s">
         <v>111</v>
       </c>
-      <c r="AL33" s="10">
+      <c r="AN33" s="10">
         <v>125</v>
       </c>
-      <c r="AM33">
+      <c r="AO33">
         <v>1169</v>
       </c>
-      <c r="AN33">
+      <c r="AP33">
         <v>414</v>
       </c>
-      <c r="AO33" s="1">
+      <c r="AQ33" s="1">
         <v>112</v>
       </c>
-      <c r="AP33">
+      <c r="AR33">
         <v>800</v>
       </c>
-      <c r="AQ33">
+      <c r="AS33">
         <v>400</v>
       </c>
-      <c r="AR33" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS33" s="1">
+      <c r="AT33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU33" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AT33">
+      <c r="AV33">
         <f t="shared" si="11"/>
         <v>184</v>
       </c>
-      <c r="AU33">
+      <c r="AW33">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="AV33" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW33" s="10" t="s">
+      <c r="AX33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY33" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AX33" t="s">
+      <c r="AZ33" t="s">
         <v>176</v>
       </c>
-      <c r="AY33">
-        <v>1</v>
-      </c>
-      <c r="AZ33" t="s">
+      <c r="BA33">
+        <v>1</v>
+      </c>
+      <c r="BB33" t="s">
         <v>187</v>
       </c>
-      <c r="BA33" t="s">
+      <c r="BC33" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>182</v>
       </c>
@@ -6874,84 +7104,87 @@
       <c r="AC34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD34" t="s">
-        <v>130</v>
-      </c>
       <c r="AE34" t="s">
         <v>8</v>
       </c>
       <c r="AF34" t="s">
         <v>8</v>
       </c>
-      <c r="AG34">
-        <f t="shared" ref="AG34:AG45" si="13" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO34*AP34*AQ34) / 5 * U34</f>
+      <c r="AG34" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" ref="AI34:AI45" si="13" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AQ34*AR34*AS34) / 5 * U34</f>
         <v>74549.706201272784</v>
       </c>
-      <c r="AH34" s="1">
+      <c r="AJ34" s="1">
         <v>81920</v>
       </c>
-      <c r="AI34">
+      <c r="AK34">
         <v>81049.600000000006</v>
       </c>
-      <c r="AJ34">
+      <c r="AL34">
         <v>79.150000000000006</v>
       </c>
-      <c r="AK34" t="s">
+      <c r="AM34" t="s">
         <v>111</v>
       </c>
-      <c r="AL34" s="10">
+      <c r="AN34" s="10">
         <v>125</v>
       </c>
-      <c r="AM34">
+      <c r="AO34">
         <v>1169</v>
       </c>
-      <c r="AN34">
+      <c r="AP34">
         <v>414</v>
       </c>
-      <c r="AO34" s="1">
+      <c r="AQ34" s="1">
         <v>96</v>
       </c>
-      <c r="AP34">
+      <c r="AR34">
         <v>784</v>
       </c>
-      <c r="AQ34">
+      <c r="AS34">
         <v>384</v>
       </c>
-      <c r="AR34" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS34" s="1">
+      <c r="AT34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU34" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="AT34">
+      <c r="AV34">
         <f t="shared" si="11"/>
         <v>192</v>
       </c>
-      <c r="AU34">
+      <c r="AW34">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
-      <c r="AV34" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW34" s="10" t="s">
+      <c r="AX34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY34" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AX34" t="s">
+      <c r="AZ34" t="s">
         <v>176</v>
       </c>
-      <c r="AY34">
-        <v>1</v>
-      </c>
-      <c r="AZ34" t="s">
+      <c r="BA34">
+        <v>1</v>
+      </c>
+      <c r="BB34" t="s">
         <v>190</v>
       </c>
-      <c r="BA34" t="s">
+      <c r="BC34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>192</v>
       </c>
@@ -7040,84 +7273,87 @@
       <c r="AC35" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD35" t="s">
-        <v>130</v>
-      </c>
       <c r="AE35" t="s">
         <v>8</v>
       </c>
       <c r="AF35" t="s">
         <v>8</v>
       </c>
-      <c r="AG35">
+      <c r="AG35" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI35">
         <f t="shared" si="13"/>
         <v>76071.407048528155</v>
       </c>
-      <c r="AH35" s="1">
+      <c r="AJ35" s="1">
         <v>81920</v>
       </c>
-      <c r="AI35">
+      <c r="AK35">
         <v>81049.600000000006</v>
       </c>
-      <c r="AJ35">
+      <c r="AL35">
         <v>79.150000000000006</v>
       </c>
-      <c r="AK35" t="s">
+      <c r="AM35" t="s">
         <v>111</v>
       </c>
-      <c r="AL35" s="10">
+      <c r="AN35" s="10">
         <v>125</v>
       </c>
-      <c r="AM35">
+      <c r="AO35">
         <v>1169</v>
       </c>
-      <c r="AN35">
+      <c r="AP35">
         <v>414</v>
       </c>
-      <c r="AO35" s="1">
+      <c r="AQ35" s="1">
         <v>98</v>
       </c>
-      <c r="AP35">
+      <c r="AR35">
         <v>784</v>
       </c>
-      <c r="AQ35">
+      <c r="AS35">
         <v>384</v>
       </c>
-      <c r="AR35" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS35" s="1">
-        <f t="shared" ref="AS35" si="15" xml:space="preserve"> _xlfn.FLOOR.MATH((AL35 - AO35) / 2)</f>
+      <c r="AT35" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU35" s="1">
+        <f t="shared" ref="AU35" si="15" xml:space="preserve"> _xlfn.FLOOR.MATH((AN35 - AQ35) / 2)</f>
         <v>13</v>
       </c>
-      <c r="AT35">
-        <f t="shared" ref="AT35" si="16" xml:space="preserve"> _xlfn.FLOOR.MATH((AM35 - AP35) / 2)</f>
+      <c r="AV35">
+        <f t="shared" ref="AV35" si="16" xml:space="preserve"> _xlfn.FLOOR.MATH((AO35 - AR35) / 2)</f>
         <v>192</v>
       </c>
-      <c r="AU35">
-        <f t="shared" ref="AU35" si="17" xml:space="preserve"> _xlfn.FLOOR.MATH((AN35 - AQ35) / 2)</f>
+      <c r="AW35">
+        <f t="shared" ref="AW35" si="17" xml:space="preserve"> _xlfn.FLOOR.MATH((AP35 - AS35) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AV35" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW35" s="10" t="s">
+      <c r="AX35" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY35" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AX35" t="s">
+      <c r="AZ35" t="s">
         <v>176</v>
       </c>
-      <c r="AY35">
-        <v>1</v>
-      </c>
-      <c r="AZ35" t="s">
+      <c r="BA35">
+        <v>1</v>
+      </c>
+      <c r="BB35" t="s">
         <v>198</v>
       </c>
-      <c r="BA35" t="s">
+      <c r="BC35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>197</v>
       </c>
@@ -7206,84 +7442,87 @@
       <c r="AC36" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD36" t="s">
-        <v>130</v>
-      </c>
       <c r="AE36" t="s">
         <v>8</v>
       </c>
       <c r="AF36" t="s">
         <v>8</v>
       </c>
-      <c r="AG36">
+      <c r="AG36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI36">
         <f t="shared" si="13"/>
         <v>76071.407048528155</v>
       </c>
-      <c r="AH36" s="1">
+      <c r="AJ36" s="1">
         <v>81920</v>
       </c>
-      <c r="AI36">
+      <c r="AK36">
         <v>81049.600000000006</v>
       </c>
-      <c r="AJ36">
+      <c r="AL36">
         <v>79.150000000000006</v>
       </c>
-      <c r="AK36" t="s">
+      <c r="AM36" t="s">
         <v>111</v>
       </c>
-      <c r="AL36" s="10">
+      <c r="AN36" s="10">
         <v>125</v>
       </c>
-      <c r="AM36">
+      <c r="AO36">
         <v>1169</v>
       </c>
-      <c r="AN36">
+      <c r="AP36">
         <v>414</v>
       </c>
-      <c r="AO36" s="1">
+      <c r="AQ36" s="1">
         <v>98</v>
       </c>
-      <c r="AP36">
+      <c r="AR36">
         <v>784</v>
       </c>
-      <c r="AQ36">
+      <c r="AS36">
         <v>384</v>
       </c>
-      <c r="AR36" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS36" s="1">
-        <f t="shared" ref="AS36" si="19" xml:space="preserve"> _xlfn.FLOOR.MATH((AL36 - AO36) / 2)</f>
+      <c r="AT36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU36" s="1">
+        <f t="shared" ref="AU36" si="19" xml:space="preserve"> _xlfn.FLOOR.MATH((AN36 - AQ36) / 2)</f>
         <v>13</v>
       </c>
-      <c r="AT36">
-        <f t="shared" ref="AT36" si="20" xml:space="preserve"> _xlfn.FLOOR.MATH((AM36 - AP36) / 2)</f>
+      <c r="AV36">
+        <f t="shared" ref="AV36" si="20" xml:space="preserve"> _xlfn.FLOOR.MATH((AO36 - AR36) / 2)</f>
         <v>192</v>
       </c>
-      <c r="AU36">
-        <f t="shared" ref="AU36" si="21" xml:space="preserve"> _xlfn.FLOOR.MATH((AN36 - AQ36) / 2)</f>
+      <c r="AW36">
+        <f t="shared" ref="AW36" si="21" xml:space="preserve"> _xlfn.FLOOR.MATH((AP36 - AS36) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AV36" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW36" s="10" t="s">
+      <c r="AX36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY36" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AX36" t="s">
+      <c r="AZ36" t="s">
         <v>176</v>
       </c>
-      <c r="AY36">
-        <v>1</v>
-      </c>
-      <c r="AZ36" t="s">
+      <c r="BA36">
+        <v>1</v>
+      </c>
+      <c r="BB36" t="s">
         <v>203</v>
       </c>
-      <c r="BA36" t="s">
+      <c r="BC36" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>200</v>
       </c>
@@ -7372,84 +7611,87 @@
       <c r="AC37" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD37" t="s">
-        <v>130</v>
-      </c>
       <c r="AE37" t="s">
         <v>8</v>
       </c>
       <c r="AF37" t="s">
         <v>8</v>
       </c>
-      <c r="AG37">
+      <c r="AG37" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI37">
         <f t="shared" si="13"/>
         <v>74549.706201272784</v>
       </c>
-      <c r="AH37" s="1">
+      <c r="AJ37" s="1">
         <v>81920</v>
       </c>
-      <c r="AI37">
+      <c r="AK37">
         <v>81049.600000000006</v>
       </c>
-      <c r="AJ37">
+      <c r="AL37">
         <v>79.150000000000006</v>
       </c>
-      <c r="AK37" t="s">
+      <c r="AM37" t="s">
         <v>111</v>
       </c>
-      <c r="AL37" s="10">
+      <c r="AN37" s="10">
         <v>125</v>
       </c>
-      <c r="AM37">
+      <c r="AO37">
         <v>1169</v>
       </c>
-      <c r="AN37">
+      <c r="AP37">
         <v>414</v>
       </c>
-      <c r="AO37" s="1">
+      <c r="AQ37" s="1">
         <v>96</v>
       </c>
-      <c r="AP37">
+      <c r="AR37">
         <v>784</v>
       </c>
-      <c r="AQ37">
+      <c r="AS37">
         <v>384</v>
       </c>
-      <c r="AR37" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS37" s="1">
-        <f t="shared" ref="AS37" si="23" xml:space="preserve"> _xlfn.FLOOR.MATH((AL37 - AO37) / 2)</f>
+      <c r="AT37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU37" s="1">
+        <f t="shared" ref="AU37" si="23" xml:space="preserve"> _xlfn.FLOOR.MATH((AN37 - AQ37) / 2)</f>
         <v>14</v>
       </c>
-      <c r="AT37">
-        <f t="shared" ref="AT37" si="24" xml:space="preserve"> _xlfn.FLOOR.MATH((AM37 - AP37) / 2)</f>
+      <c r="AV37">
+        <f t="shared" ref="AV37" si="24" xml:space="preserve"> _xlfn.FLOOR.MATH((AO37 - AR37) / 2)</f>
         <v>192</v>
       </c>
-      <c r="AU37">
-        <f t="shared" ref="AU37" si="25" xml:space="preserve"> _xlfn.FLOOR.MATH((AN37 - AQ37) / 2)</f>
+      <c r="AW37">
+        <f t="shared" ref="AW37" si="25" xml:space="preserve"> _xlfn.FLOOR.MATH((AP37 - AS37) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AV37" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW37" s="10" t="s">
+      <c r="AX37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY37" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AX37" t="s">
+      <c r="AZ37" t="s">
         <v>176</v>
       </c>
-      <c r="AY37">
-        <v>1</v>
-      </c>
-      <c r="AZ37" t="s">
+      <c r="BA37">
+        <v>1</v>
+      </c>
+      <c r="BB37" t="s">
         <v>208</v>
       </c>
-      <c r="BA37" t="s">
+      <c r="BC37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>206</v>
       </c>
@@ -7538,84 +7780,87 @@
       <c r="AC38" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD38" t="s">
-        <v>130</v>
-      </c>
       <c r="AE38" t="s">
         <v>8</v>
       </c>
       <c r="AF38" t="s">
         <v>8</v>
       </c>
-      <c r="AG38">
+      <c r="AG38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI38">
         <f t="shared" si="13"/>
         <v>74549.706201272784</v>
       </c>
-      <c r="AH38" s="1">
+      <c r="AJ38" s="1">
         <v>81920</v>
       </c>
-      <c r="AI38">
+      <c r="AK38">
         <v>81049.600000000006</v>
       </c>
-      <c r="AJ38">
+      <c r="AL38">
         <v>79.150000000000006</v>
       </c>
-      <c r="AK38" t="s">
+      <c r="AM38" t="s">
         <v>111</v>
       </c>
-      <c r="AL38" s="10">
+      <c r="AN38" s="10">
         <v>125</v>
       </c>
-      <c r="AM38">
+      <c r="AO38">
         <v>1169</v>
       </c>
-      <c r="AN38">
+      <c r="AP38">
         <v>414</v>
       </c>
-      <c r="AO38" s="1">
+      <c r="AQ38" s="1">
         <v>96</v>
       </c>
-      <c r="AP38">
+      <c r="AR38">
         <v>784</v>
       </c>
-      <c r="AQ38">
+      <c r="AS38">
         <v>384</v>
       </c>
-      <c r="AR38" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS38" s="1">
-        <f t="shared" ref="AS38" si="27" xml:space="preserve"> _xlfn.FLOOR.MATH((AL38 - AO38) / 2)</f>
+      <c r="AT38" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU38" s="1">
+        <f t="shared" ref="AU38" si="27" xml:space="preserve"> _xlfn.FLOOR.MATH((AN38 - AQ38) / 2)</f>
         <v>14</v>
       </c>
-      <c r="AT38">
-        <f t="shared" ref="AT38" si="28" xml:space="preserve"> _xlfn.FLOOR.MATH((AM38 - AP38) / 2)</f>
+      <c r="AV38">
+        <f t="shared" ref="AV38" si="28" xml:space="preserve"> _xlfn.FLOOR.MATH((AO38 - AR38) / 2)</f>
         <v>192</v>
       </c>
-      <c r="AU38">
-        <f t="shared" ref="AU38" si="29" xml:space="preserve"> _xlfn.FLOOR.MATH((AN38 - AQ38) / 2)</f>
+      <c r="AW38">
+        <f t="shared" ref="AW38" si="29" xml:space="preserve"> _xlfn.FLOOR.MATH((AP38 - AS38) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AV38" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW38" s="10" t="s">
+      <c r="AX38" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY38" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AX38" t="s">
+      <c r="AZ38" t="s">
         <v>176</v>
       </c>
-      <c r="AY38">
-        <v>0</v>
-      </c>
-      <c r="AZ38" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA38" t="s">
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>209</v>
       </c>
@@ -7704,84 +7949,87 @@
       <c r="AC39" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD39" t="s">
-        <v>130</v>
-      </c>
       <c r="AE39" t="s">
         <v>8</v>
       </c>
       <c r="AF39" t="s">
         <v>8</v>
       </c>
-      <c r="AG39">
+      <c r="AG39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI39">
         <f t="shared" si="13"/>
         <v>74549.706201272784</v>
       </c>
-      <c r="AH39" s="1">
+      <c r="AJ39" s="1">
         <v>81920</v>
       </c>
-      <c r="AI39">
+      <c r="AK39">
         <v>81049.600000000006</v>
       </c>
-      <c r="AJ39">
+      <c r="AL39">
         <v>79.150000000000006</v>
       </c>
-      <c r="AK39" t="s">
+      <c r="AM39" t="s">
         <v>111</v>
       </c>
-      <c r="AL39" s="10">
+      <c r="AN39" s="10">
         <v>125</v>
       </c>
-      <c r="AM39">
+      <c r="AO39">
         <v>1169</v>
       </c>
-      <c r="AN39">
+      <c r="AP39">
         <v>414</v>
       </c>
-      <c r="AO39" s="1">
+      <c r="AQ39" s="1">
         <v>96</v>
       </c>
-      <c r="AP39">
+      <c r="AR39">
         <v>784</v>
       </c>
-      <c r="AQ39">
+      <c r="AS39">
         <v>384</v>
       </c>
-      <c r="AR39" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS39" s="1">
-        <f t="shared" ref="AS39" si="31" xml:space="preserve"> _xlfn.FLOOR.MATH((AL39 - AO39) / 2)</f>
+      <c r="AT39" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU39" s="1">
+        <f t="shared" ref="AU39" si="31" xml:space="preserve"> _xlfn.FLOOR.MATH((AN39 - AQ39) / 2)</f>
         <v>14</v>
       </c>
-      <c r="AT39">
-        <f t="shared" ref="AT39" si="32" xml:space="preserve"> _xlfn.FLOOR.MATH((AM39 - AP39) / 2)</f>
+      <c r="AV39">
+        <f t="shared" ref="AV39" si="32" xml:space="preserve"> _xlfn.FLOOR.MATH((AO39 - AR39) / 2)</f>
         <v>192</v>
       </c>
-      <c r="AU39">
-        <f t="shared" ref="AU39" si="33" xml:space="preserve"> _xlfn.FLOOR.MATH((AN39 - AQ39) / 2)</f>
+      <c r="AW39">
+        <f t="shared" ref="AW39" si="33" xml:space="preserve"> _xlfn.FLOOR.MATH((AP39 - AS39) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AV39" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW39" s="10" t="s">
+      <c r="AX39" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY39" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AX39" t="s">
+      <c r="AZ39" t="s">
         <v>176</v>
       </c>
-      <c r="AY39">
-        <v>0</v>
-      </c>
-      <c r="AZ39" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA39" t="s">
+      <c r="BA39">
+        <v>0</v>
+      </c>
+      <c r="BB39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>213</v>
       </c>
@@ -7870,84 +8118,87 @@
       <c r="AC40" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD40" t="s">
-        <v>130</v>
-      </c>
       <c r="AE40" t="s">
         <v>8</v>
       </c>
       <c r="AF40" t="s">
         <v>8</v>
       </c>
-      <c r="AG40">
+      <c r="AG40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI40">
         <f t="shared" si="13"/>
         <v>74549.706201272784</v>
       </c>
-      <c r="AH40" s="1">
+      <c r="AJ40" s="1">
         <v>81920</v>
       </c>
-      <c r="AI40">
+      <c r="AK40">
         <v>81049.600000000006</v>
       </c>
-      <c r="AJ40">
+      <c r="AL40">
         <v>79.150000000000006</v>
       </c>
-      <c r="AK40" t="s">
+      <c r="AM40" t="s">
         <v>111</v>
       </c>
-      <c r="AL40" s="10">
+      <c r="AN40" s="10">
         <v>125</v>
       </c>
-      <c r="AM40">
+      <c r="AO40">
         <v>1169</v>
       </c>
-      <c r="AN40">
+      <c r="AP40">
         <v>414</v>
       </c>
-      <c r="AO40" s="1">
+      <c r="AQ40" s="1">
         <v>96</v>
       </c>
-      <c r="AP40">
+      <c r="AR40">
         <v>784</v>
       </c>
-      <c r="AQ40">
+      <c r="AS40">
         <v>384</v>
       </c>
-      <c r="AR40" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS40" s="1">
-        <f t="shared" ref="AS40" si="35" xml:space="preserve"> _xlfn.FLOOR.MATH((AL40 - AO40) / 2)</f>
+      <c r="AT40" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU40" s="1">
+        <f t="shared" ref="AU40" si="35" xml:space="preserve"> _xlfn.FLOOR.MATH((AN40 - AQ40) / 2)</f>
         <v>14</v>
       </c>
-      <c r="AT40">
-        <f t="shared" ref="AT40" si="36" xml:space="preserve"> _xlfn.FLOOR.MATH((AM40 - AP40) / 2)</f>
+      <c r="AV40">
+        <f t="shared" ref="AV40" si="36" xml:space="preserve"> _xlfn.FLOOR.MATH((AO40 - AR40) / 2)</f>
         <v>192</v>
       </c>
-      <c r="AU40">
-        <f t="shared" ref="AU40" si="37" xml:space="preserve"> _xlfn.FLOOR.MATH((AN40 - AQ40) / 2)</f>
+      <c r="AW40">
+        <f t="shared" ref="AW40" si="37" xml:space="preserve"> _xlfn.FLOOR.MATH((AP40 - AS40) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AV40" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW40" s="10" t="s">
+      <c r="AX40" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY40" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AX40" t="s">
+      <c r="AZ40" t="s">
         <v>176</v>
       </c>
-      <c r="AY40">
-        <v>0</v>
-      </c>
-      <c r="AZ40" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA40" t="s">
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC40" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>214</v>
       </c>
@@ -8036,84 +8287,87 @@
       <c r="AC41" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD41" t="s">
-        <v>130</v>
-      </c>
       <c r="AE41" t="s">
         <v>8</v>
       </c>
       <c r="AF41" t="s">
         <v>8</v>
       </c>
-      <c r="AG41">
+      <c r="AG41" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI41">
         <f t="shared" si="13"/>
         <v>74549.706201272784</v>
       </c>
-      <c r="AH41" s="1">
+      <c r="AJ41" s="1">
         <v>81920</v>
       </c>
-      <c r="AI41">
+      <c r="AK41">
         <v>81049.600000000006</v>
       </c>
-      <c r="AJ41">
+      <c r="AL41">
         <v>79.150000000000006</v>
       </c>
-      <c r="AK41" t="s">
+      <c r="AM41" t="s">
         <v>111</v>
       </c>
-      <c r="AL41" s="10">
+      <c r="AN41" s="10">
         <v>125</v>
       </c>
-      <c r="AM41">
+      <c r="AO41">
         <v>1169</v>
       </c>
-      <c r="AN41">
+      <c r="AP41">
         <v>414</v>
       </c>
-      <c r="AO41" s="1">
+      <c r="AQ41" s="1">
         <v>96</v>
       </c>
-      <c r="AP41">
+      <c r="AR41">
         <v>784</v>
       </c>
-      <c r="AQ41">
+      <c r="AS41">
         <v>384</v>
       </c>
-      <c r="AR41" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS41" s="1">
-        <f t="shared" ref="AS41" si="39" xml:space="preserve"> _xlfn.FLOOR.MATH((AL41 - AO41) / 2)</f>
+      <c r="AT41" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU41" s="1">
+        <f t="shared" ref="AU41" si="39" xml:space="preserve"> _xlfn.FLOOR.MATH((AN41 - AQ41) / 2)</f>
         <v>14</v>
       </c>
-      <c r="AT41">
-        <f t="shared" ref="AT41" si="40" xml:space="preserve"> _xlfn.FLOOR.MATH((AM41 - AP41) / 2)</f>
+      <c r="AV41">
+        <f t="shared" ref="AV41" si="40" xml:space="preserve"> _xlfn.FLOOR.MATH((AO41 - AR41) / 2)</f>
         <v>192</v>
       </c>
-      <c r="AU41">
-        <f t="shared" ref="AU41" si="41" xml:space="preserve"> _xlfn.FLOOR.MATH((AN41 - AQ41) / 2)</f>
+      <c r="AW41">
+        <f t="shared" ref="AW41" si="41" xml:space="preserve"> _xlfn.FLOOR.MATH((AP41 - AS41) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AV41" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW41" s="10" t="s">
+      <c r="AX41" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY41" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AX41" t="s">
+      <c r="AZ41" t="s">
         <v>176</v>
       </c>
-      <c r="AY41">
-        <v>1</v>
-      </c>
-      <c r="AZ41" t="s">
+      <c r="BA41">
+        <v>1</v>
+      </c>
+      <c r="BB41" t="s">
         <v>218</v>
       </c>
-      <c r="BA41" t="s">
+      <c r="BC41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>216</v>
       </c>
@@ -8202,84 +8456,87 @@
       <c r="AC42" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD42" t="s">
-        <v>130</v>
-      </c>
       <c r="AE42" t="s">
         <v>8</v>
       </c>
       <c r="AF42" t="s">
         <v>8</v>
       </c>
-      <c r="AG42">
+      <c r="AG42" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI42">
         <f t="shared" si="13"/>
         <v>74549.706201272784</v>
       </c>
-      <c r="AH42" s="1">
+      <c r="AJ42" s="1">
         <v>81920</v>
       </c>
-      <c r="AI42">
+      <c r="AK42">
         <v>81049.600000000006</v>
       </c>
-      <c r="AJ42">
+      <c r="AL42">
         <v>79.150000000000006</v>
       </c>
-      <c r="AK42" t="s">
+      <c r="AM42" t="s">
         <v>111</v>
       </c>
-      <c r="AL42" s="10">
+      <c r="AN42" s="10">
         <v>125</v>
       </c>
-      <c r="AM42">
+      <c r="AO42">
         <v>1169</v>
       </c>
-      <c r="AN42">
+      <c r="AP42">
         <v>414</v>
       </c>
-      <c r="AO42" s="1">
+      <c r="AQ42" s="1">
         <v>96</v>
       </c>
-      <c r="AP42">
+      <c r="AR42">
         <v>784</v>
       </c>
-      <c r="AQ42">
+      <c r="AS42">
         <v>384</v>
       </c>
-      <c r="AR42" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS42" s="1">
-        <f t="shared" ref="AS42" si="43" xml:space="preserve"> _xlfn.FLOOR.MATH((AL42 - AO42) / 2)</f>
+      <c r="AT42" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU42" s="1">
+        <f t="shared" ref="AU42" si="43" xml:space="preserve"> _xlfn.FLOOR.MATH((AN42 - AQ42) / 2)</f>
         <v>14</v>
       </c>
-      <c r="AT42">
-        <f t="shared" ref="AT42" si="44" xml:space="preserve"> _xlfn.FLOOR.MATH((AM42 - AP42) / 2)</f>
+      <c r="AV42">
+        <f t="shared" ref="AV42" si="44" xml:space="preserve"> _xlfn.FLOOR.MATH((AO42 - AR42) / 2)</f>
         <v>192</v>
       </c>
-      <c r="AU42">
-        <f t="shared" ref="AU42" si="45" xml:space="preserve"> _xlfn.FLOOR.MATH((AN42 - AQ42) / 2)</f>
+      <c r="AW42">
+        <f t="shared" ref="AW42" si="45" xml:space="preserve"> _xlfn.FLOOR.MATH((AP42 - AS42) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AV42" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW42" s="10" t="s">
+      <c r="AX42" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY42" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AX42" t="s">
+      <c r="AZ42" t="s">
         <v>176</v>
       </c>
-      <c r="AY42">
-        <v>0</v>
-      </c>
-      <c r="AZ42" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA42" t="s">
+      <c r="BA42">
+        <v>0</v>
+      </c>
+      <c r="BB42" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>219</v>
       </c>
@@ -8368,84 +8625,87 @@
       <c r="AC43" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD43" t="s">
-        <v>130</v>
-      </c>
       <c r="AE43" t="s">
         <v>8</v>
       </c>
       <c r="AF43" t="s">
         <v>8</v>
       </c>
-      <c r="AG43">
+      <c r="AG43" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI43">
         <f t="shared" si="13"/>
         <v>74549.706201272784</v>
       </c>
-      <c r="AH43" s="1">
+      <c r="AJ43" s="1">
         <v>81920</v>
       </c>
-      <c r="AI43">
+      <c r="AK43">
         <v>81049.600000000006</v>
       </c>
-      <c r="AJ43">
+      <c r="AL43">
         <v>79.150000000000006</v>
       </c>
-      <c r="AK43" t="s">
+      <c r="AM43" t="s">
         <v>111</v>
       </c>
-      <c r="AL43" s="10">
+      <c r="AN43" s="10">
         <v>125</v>
       </c>
-      <c r="AM43">
+      <c r="AO43">
         <v>1169</v>
       </c>
-      <c r="AN43">
+      <c r="AP43">
         <v>414</v>
       </c>
-      <c r="AO43" s="1">
+      <c r="AQ43" s="1">
         <v>96</v>
       </c>
-      <c r="AP43">
+      <c r="AR43">
         <v>784</v>
       </c>
-      <c r="AQ43">
+      <c r="AS43">
         <v>384</v>
       </c>
-      <c r="AR43" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS43" s="1">
-        <f t="shared" ref="AS43" si="47" xml:space="preserve"> _xlfn.FLOOR.MATH((AL43 - AO43) / 2)</f>
+      <c r="AT43" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU43" s="1">
+        <f t="shared" ref="AU43" si="47" xml:space="preserve"> _xlfn.FLOOR.MATH((AN43 - AQ43) / 2)</f>
         <v>14</v>
       </c>
-      <c r="AT43">
-        <f t="shared" ref="AT43" si="48" xml:space="preserve"> _xlfn.FLOOR.MATH((AM43 - AP43) / 2)</f>
+      <c r="AV43">
+        <f t="shared" ref="AV43" si="48" xml:space="preserve"> _xlfn.FLOOR.MATH((AO43 - AR43) / 2)</f>
         <v>192</v>
       </c>
-      <c r="AU43">
-        <f t="shared" ref="AU43" si="49" xml:space="preserve"> _xlfn.FLOOR.MATH((AN43 - AQ43) / 2)</f>
+      <c r="AW43">
+        <f t="shared" ref="AW43" si="49" xml:space="preserve"> _xlfn.FLOOR.MATH((AP43 - AS43) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AV43" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW43" s="10" t="s">
+      <c r="AX43" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY43" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AX43" t="s">
+      <c r="AZ43" t="s">
         <v>176</v>
       </c>
-      <c r="AY43">
-        <v>0</v>
-      </c>
-      <c r="AZ43" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA43" t="s">
+      <c r="BA43">
+        <v>0</v>
+      </c>
+      <c r="BB43" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>220</v>
       </c>
@@ -8534,84 +8794,88 @@
       <c r="AC44" s="10">
         <v>74967</v>
       </c>
-      <c r="AD44">
+      <c r="AE44">
         <v>6085</v>
       </c>
-      <c r="AE44" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG44">
+      <c r="AF44">
+        <f>AC44+AE44</f>
+        <v>81052</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI44">
         <f t="shared" si="13"/>
         <v>74549.706201272784</v>
       </c>
-      <c r="AH44" s="1">
+      <c r="AJ44" s="1">
         <v>81920</v>
       </c>
-      <c r="AI44">
+      <c r="AK44">
         <v>81049.600000000006</v>
       </c>
-      <c r="AJ44">
+      <c r="AL44">
         <v>79.150000000000006</v>
       </c>
-      <c r="AK44" t="s">
+      <c r="AM44" t="s">
         <v>111</v>
       </c>
-      <c r="AL44" s="10">
+      <c r="AN44" s="10">
         <v>125</v>
       </c>
-      <c r="AM44">
+      <c r="AO44">
         <v>1169</v>
       </c>
-      <c r="AN44">
+      <c r="AP44">
         <v>414</v>
       </c>
-      <c r="AO44" s="1">
+      <c r="AQ44" s="1">
         <v>96</v>
       </c>
-      <c r="AP44">
+      <c r="AR44">
         <v>784</v>
       </c>
-      <c r="AQ44">
+      <c r="AS44">
         <v>384</v>
       </c>
-      <c r="AR44" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS44" s="1">
-        <f t="shared" ref="AS44" si="51" xml:space="preserve"> _xlfn.FLOOR.MATH((AL44 - AO44) / 2)</f>
+      <c r="AT44" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU44" s="1">
+        <f t="shared" ref="AU44" si="51" xml:space="preserve"> _xlfn.FLOOR.MATH((AN44 - AQ44) / 2)</f>
         <v>14</v>
       </c>
-      <c r="AT44">
-        <f t="shared" ref="AT44" si="52" xml:space="preserve"> _xlfn.FLOOR.MATH((AM44 - AP44) / 2)</f>
+      <c r="AV44">
+        <f t="shared" ref="AV44" si="52" xml:space="preserve"> _xlfn.FLOOR.MATH((AO44 - AR44) / 2)</f>
         <v>192</v>
       </c>
-      <c r="AU44">
-        <f t="shared" ref="AU44" si="53" xml:space="preserve"> _xlfn.FLOOR.MATH((AN44 - AQ44) / 2)</f>
+      <c r="AW44">
+        <f t="shared" ref="AW44" si="53" xml:space="preserve"> _xlfn.FLOOR.MATH((AP44 - AS44) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AV44" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW44" s="10" t="s">
+      <c r="AX44" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY44" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AX44" t="s">
+      <c r="AZ44" t="s">
         <v>176</v>
       </c>
-      <c r="AY44">
-        <v>0</v>
-      </c>
-      <c r="AZ44" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA44" t="s">
+      <c r="BA44">
+        <v>0</v>
+      </c>
+      <c r="BB44" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:55" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>222</v>
       </c>
@@ -8700,84 +8964,88 @@
       <c r="AC45" s="11">
         <v>74965</v>
       </c>
-      <c r="AD45" s="7">
+      <c r="AE45" s="7">
         <v>6087</v>
       </c>
-      <c r="AE45" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF45" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG45" s="7">
+      <c r="AF45" s="7">
+        <f>AC45+AE45</f>
+        <v>81052</v>
+      </c>
+      <c r="AG45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI45" s="7">
         <f t="shared" si="13"/>
         <v>74549.706201272784</v>
       </c>
-      <c r="AH45" s="8">
+      <c r="AJ45" s="8">
         <v>81920</v>
       </c>
-      <c r="AI45" s="7">
+      <c r="AK45" s="7">
         <v>81049.600000000006</v>
       </c>
-      <c r="AJ45" s="7">
+      <c r="AL45" s="7">
         <v>79.150000000000006</v>
       </c>
-      <c r="AK45" s="7" t="s">
+      <c r="AM45" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AL45" s="11">
+      <c r="AN45" s="11">
         <v>125</v>
       </c>
-      <c r="AM45" s="7">
+      <c r="AO45" s="7">
         <v>1169</v>
       </c>
-      <c r="AN45" s="7">
+      <c r="AP45" s="7">
         <v>414</v>
       </c>
-      <c r="AO45" s="8">
+      <c r="AQ45" s="8">
         <v>96</v>
       </c>
-      <c r="AP45" s="7">
+      <c r="AR45" s="7">
         <v>784</v>
       </c>
-      <c r="AQ45" s="7">
+      <c r="AS45" s="7">
         <v>384</v>
       </c>
-      <c r="AR45" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS45" s="8">
-        <f t="shared" ref="AS45" si="55" xml:space="preserve"> _xlfn.FLOOR.MATH((AL45 - AO45) / 2)</f>
+      <c r="AT45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU45" s="8">
+        <f t="shared" ref="AU45" si="55" xml:space="preserve"> _xlfn.FLOOR.MATH((AN45 - AQ45) / 2)</f>
         <v>14</v>
       </c>
-      <c r="AT45" s="7">
-        <f t="shared" ref="AT45" si="56" xml:space="preserve"> _xlfn.FLOOR.MATH((AM45 - AP45) / 2)</f>
+      <c r="AV45" s="7">
+        <f t="shared" ref="AV45" si="56" xml:space="preserve"> _xlfn.FLOOR.MATH((AO45 - AR45) / 2)</f>
         <v>192</v>
       </c>
-      <c r="AU45" s="7">
-        <f t="shared" ref="AU45" si="57" xml:space="preserve"> _xlfn.FLOOR.MATH((AN45 - AQ45) / 2)</f>
+      <c r="AW45" s="7">
+        <f t="shared" ref="AW45" si="57" xml:space="preserve"> _xlfn.FLOOR.MATH((AP45 - AS45) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AV45" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW45" s="11" t="s">
+      <c r="AX45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY45" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="AX45" s="7" t="s">
+      <c r="AZ45" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="AY45" s="7">
-        <v>0</v>
-      </c>
-      <c r="AZ45" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA45" s="7" t="s">
+      <c r="BA45" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC45" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>256</v>
       </c>
@@ -8787,35 +9055,35 @@
       <c r="C46" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="F46" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G46" t="s">
-        <v>130</v>
-      </c>
-      <c r="H46" t="s">
-        <v>130</v>
-      </c>
-      <c r="I46" t="s">
-        <v>130</v>
-      </c>
-      <c r="J46" t="s">
-        <v>130</v>
-      </c>
-      <c r="K46" t="s">
-        <v>130</v>
-      </c>
-      <c r="L46" t="s">
-        <v>130</v>
-      </c>
-      <c r="M46" t="s">
-        <v>130</v>
-      </c>
-      <c r="N46" t="s">
-        <v>130</v>
-      </c>
-      <c r="O46" t="s">
-        <v>130</v>
+      <c r="F46" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K46" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L46" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="M46" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="N46" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>248</v>
@@ -8823,8 +9091,8 @@
       <c r="Q46">
         <v>6</v>
       </c>
-      <c r="R46" t="s">
-        <v>130</v>
+      <c r="R46">
+        <v>6</v>
       </c>
       <c r="S46">
         <v>5</v>
@@ -8860,84 +9128,88 @@
       <c r="AC46" s="10">
         <v>74967</v>
       </c>
-      <c r="AD46">
+      <c r="AE46">
         <v>6085</v>
       </c>
-      <c r="AE46" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF46" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG46">
-        <f t="shared" ref="AG46:AG63" si="58" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO46*AP46*AQ46) * ((W46*X46 + Z46*AA46) / (3*16 + 1*8)) * (U46 / 5)</f>
+      <c r="AF46">
+        <f>AC46+AE46</f>
+        <v>81052</v>
+      </c>
+      <c r="AG46" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH46" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI46">
+        <f t="shared" ref="AI46:AI63" si="58" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AQ46*AR46*AS46) * ((W46*X46 + Z46*AA46) / (3*16 + 1*8)) * (U46 / 5)</f>
         <v>74549.706201272769</v>
       </c>
-      <c r="AH46" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI46" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ46" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK46" t="s">
+      <c r="AJ46" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK46" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL46" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM46" t="s">
         <v>111</v>
       </c>
-      <c r="AL46" s="10">
+      <c r="AN46" s="10">
         <v>125</v>
       </c>
-      <c r="AM46">
+      <c r="AO46">
         <v>1169</v>
       </c>
-      <c r="AN46">
+      <c r="AP46">
         <v>414</v>
       </c>
-      <c r="AO46" s="1">
+      <c r="AQ46" s="1">
         <v>96</v>
       </c>
-      <c r="AP46">
+      <c r="AR46">
         <v>784</v>
       </c>
-      <c r="AQ46">
+      <c r="AS46">
         <v>384</v>
       </c>
-      <c r="AR46" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS46" s="1">
-        <f t="shared" ref="AS46:AS47" si="59" xml:space="preserve"> _xlfn.FLOOR.MATH((AL46 - AO46) / 2)</f>
+      <c r="AT46" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU46" s="1">
+        <f t="shared" ref="AU46:AU47" si="59" xml:space="preserve"> _xlfn.FLOOR.MATH((AN46 - AQ46) / 2)</f>
         <v>14</v>
       </c>
-      <c r="AT46">
-        <f t="shared" ref="AT46:AT47" si="60" xml:space="preserve"> _xlfn.FLOOR.MATH((AM46 - AP46) / 2)</f>
+      <c r="AV46">
+        <f t="shared" ref="AV46:AV47" si="60" xml:space="preserve"> _xlfn.FLOOR.MATH((AO46 - AR46) / 2)</f>
         <v>192</v>
       </c>
-      <c r="AU46">
-        <f t="shared" ref="AU46:AU47" si="61" xml:space="preserve"> _xlfn.FLOOR.MATH((AN46 - AQ46) / 2)</f>
+      <c r="AW46">
+        <f t="shared" ref="AW46:AW47" si="61" xml:space="preserve"> _xlfn.FLOOR.MATH((AP46 - AS46) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AV46" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW46" s="10" t="s">
+      <c r="AX46" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY46" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="AX46" t="s">
+      <c r="AZ46" t="s">
         <v>176</v>
       </c>
-      <c r="AY46" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ46" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA46" t="s">
+      <c r="BA46" s="19">
+        <v>0</v>
+      </c>
+      <c r="BB46" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC46" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>257</v>
       </c>
@@ -8947,35 +9219,35 @@
       <c r="C47" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="F47" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G47" t="s">
-        <v>130</v>
-      </c>
-      <c r="H47" t="s">
-        <v>130</v>
-      </c>
-      <c r="I47" t="s">
-        <v>130</v>
-      </c>
-      <c r="J47" t="s">
-        <v>130</v>
-      </c>
-      <c r="K47" t="s">
-        <v>130</v>
-      </c>
-      <c r="L47" t="s">
-        <v>130</v>
-      </c>
-      <c r="M47" t="s">
-        <v>130</v>
-      </c>
-      <c r="N47" t="s">
-        <v>130</v>
-      </c>
-      <c r="O47" t="s">
-        <v>130</v>
+      <c r="F47" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J47" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K47" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L47" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="M47" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="N47" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>248</v>
@@ -8983,8 +9255,8 @@
       <c r="Q47">
         <v>6</v>
       </c>
-      <c r="R47" t="s">
-        <v>130</v>
+      <c r="R47">
+        <v>6</v>
       </c>
       <c r="S47">
         <v>5</v>
@@ -9020,84 +9292,88 @@
       <c r="AC47" s="10">
         <v>23033</v>
       </c>
-      <c r="AD47">
+      <c r="AE47">
         <v>58019</v>
       </c>
-      <c r="AE47" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF47" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG47">
+      <c r="AF47">
+        <f>AC47+AE47</f>
+        <v>81052</v>
+      </c>
+      <c r="AG47" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH47" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI47">
         <f t="shared" si="58"/>
         <v>22708.360330151121</v>
       </c>
-      <c r="AH47" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI47" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ47" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK47" t="s">
+      <c r="AJ47" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK47" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL47" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM47" t="s">
         <v>111</v>
       </c>
-      <c r="AL47" s="10">
+      <c r="AN47" s="10">
         <v>125</v>
       </c>
-      <c r="AM47">
+      <c r="AO47">
         <v>1169</v>
       </c>
-      <c r="AN47">
+      <c r="AP47">
         <v>414</v>
       </c>
-      <c r="AO47" s="1">
+      <c r="AQ47" s="1">
         <v>64</v>
       </c>
-      <c r="AP47">
+      <c r="AR47">
         <v>512</v>
       </c>
-      <c r="AQ47">
+      <c r="AS47">
         <v>256</v>
       </c>
-      <c r="AR47" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS47" s="1">
+      <c r="AT47" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU47" s="1">
         <f t="shared" si="59"/>
         <v>30</v>
       </c>
-      <c r="AT47">
+      <c r="AV47">
         <f t="shared" si="60"/>
         <v>328</v>
       </c>
-      <c r="AU47">
+      <c r="AW47">
         <f t="shared" si="61"/>
         <v>79</v>
       </c>
-      <c r="AV47" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW47" s="10" t="s">
+      <c r="AX47" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY47" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="AX47" t="s">
+      <c r="AZ47" t="s">
         <v>176</v>
       </c>
-      <c r="AY47" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ47" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA47" t="s">
+      <c r="BA47" s="19">
+        <v>0</v>
+      </c>
+      <c r="BB47" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC47" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>258</v>
       </c>
@@ -9107,35 +9383,35 @@
       <c r="C48" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="F48" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G48" t="s">
-        <v>130</v>
-      </c>
-      <c r="H48" t="s">
-        <v>130</v>
-      </c>
-      <c r="I48" t="s">
-        <v>130</v>
-      </c>
-      <c r="J48" t="s">
-        <v>130</v>
-      </c>
-      <c r="K48" t="s">
-        <v>130</v>
-      </c>
-      <c r="L48" t="s">
-        <v>130</v>
-      </c>
-      <c r="M48" t="s">
-        <v>130</v>
-      </c>
-      <c r="N48" t="s">
-        <v>130</v>
-      </c>
-      <c r="O48" t="s">
-        <v>130</v>
+      <c r="F48" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J48" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K48" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L48" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="M48" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="N48" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>248</v>
@@ -9143,8 +9419,8 @@
       <c r="Q48">
         <v>6</v>
       </c>
-      <c r="R48" t="s">
-        <v>130</v>
+      <c r="R48">
+        <v>6</v>
       </c>
       <c r="S48">
         <v>5</v>
@@ -9180,84 +9456,88 @@
       <c r="AC48" s="10">
         <v>4739</v>
       </c>
-      <c r="AD48">
+      <c r="AE48">
         <v>76313</v>
       </c>
-      <c r="AE48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG48">
+      <c r="AF48">
+        <f>AC48+AE48</f>
+        <v>81052</v>
+      </c>
+      <c r="AG48" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH48" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI48">
         <f t="shared" si="58"/>
         <v>4158.1023826571118</v>
       </c>
-      <c r="AH48" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK48" t="s">
+      <c r="AJ48" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK48" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL48" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM48" t="s">
         <v>111</v>
       </c>
-      <c r="AL48" s="10">
+      <c r="AN48" s="10">
         <v>125</v>
       </c>
-      <c r="AM48">
+      <c r="AO48">
         <v>1169</v>
       </c>
-      <c r="AN48">
+      <c r="AP48">
         <v>414</v>
       </c>
-      <c r="AO48" s="1">
+      <c r="AQ48" s="1">
         <v>32</v>
       </c>
-      <c r="AP48">
+      <c r="AR48">
         <v>256</v>
       </c>
-      <c r="AQ48">
+      <c r="AS48">
         <v>128</v>
       </c>
-      <c r="AR48" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS48" s="1">
-        <f t="shared" ref="AS48:AS63" si="62" xml:space="preserve"> _xlfn.FLOOR.MATH((AL48 - AO48) / 2)</f>
+      <c r="AT48" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU48" s="1">
+        <f t="shared" ref="AU48:AU63" si="62" xml:space="preserve"> _xlfn.FLOOR.MATH((AN48 - AQ48) / 2)</f>
         <v>46</v>
       </c>
-      <c r="AT48">
-        <f t="shared" ref="AT48:AT63" si="63" xml:space="preserve"> _xlfn.FLOOR.MATH((AM48 - AP48) / 2)</f>
+      <c r="AV48">
+        <f t="shared" ref="AV48:AV63" si="63" xml:space="preserve"> _xlfn.FLOOR.MATH((AO48 - AR48) / 2)</f>
         <v>456</v>
       </c>
-      <c r="AU48">
-        <f t="shared" ref="AU48:AU63" si="64" xml:space="preserve"> _xlfn.FLOOR.MATH((AN48 - AQ48) / 2)</f>
+      <c r="AW48">
+        <f t="shared" ref="AW48:AW63" si="64" xml:space="preserve"> _xlfn.FLOOR.MATH((AP48 - AS48) / 2)</f>
         <v>143</v>
       </c>
-      <c r="AV48" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW48" s="10" t="s">
+      <c r="AX48" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY48" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="AX48" t="s">
+      <c r="AZ48" t="s">
         <v>176</v>
       </c>
-      <c r="AY48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ48" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA48" t="s">
+      <c r="BA48" s="19">
+        <v>0</v>
+      </c>
+      <c r="BB48" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC48" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>259</v>
       </c>
@@ -9267,35 +9547,35 @@
       <c r="C49" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="F49" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G49" t="s">
-        <v>130</v>
-      </c>
-      <c r="H49" t="s">
-        <v>130</v>
-      </c>
-      <c r="I49" t="s">
-        <v>130</v>
-      </c>
-      <c r="J49" t="s">
-        <v>130</v>
-      </c>
-      <c r="K49" t="s">
-        <v>130</v>
-      </c>
-      <c r="L49" t="s">
-        <v>130</v>
-      </c>
-      <c r="M49" t="s">
-        <v>130</v>
-      </c>
-      <c r="N49" t="s">
-        <v>130</v>
-      </c>
-      <c r="O49" t="s">
-        <v>130</v>
+      <c r="F49" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J49" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K49" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L49" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="M49" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="N49" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>249</v>
@@ -9303,8 +9583,8 @@
       <c r="Q49">
         <v>6</v>
       </c>
-      <c r="R49" t="s">
-        <v>130</v>
+      <c r="R49">
+        <v>6</v>
       </c>
       <c r="S49">
         <v>5</v>
@@ -9340,84 +9620,88 @@
       <c r="AC49" s="10">
         <v>74853</v>
       </c>
-      <c r="AD49">
+      <c r="AE49">
         <v>6199</v>
       </c>
-      <c r="AE49" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF49" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG49">
+      <c r="AF49">
+        <f>AC49+AE49</f>
+        <v>81052</v>
+      </c>
+      <c r="AG49" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH49" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI49">
         <f t="shared" si="58"/>
         <v>53680.666010342022</v>
       </c>
-      <c r="AH49" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI49" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ49" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK49" t="s">
+      <c r="AJ49" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK49" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL49" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM49" t="s">
         <v>111</v>
       </c>
-      <c r="AL49" s="10">
+      <c r="AN49" s="10">
         <v>125</v>
       </c>
-      <c r="AM49">
+      <c r="AO49">
         <v>1169</v>
       </c>
-      <c r="AN49">
+      <c r="AP49">
         <v>414</v>
       </c>
-      <c r="AO49" s="1">
+      <c r="AQ49" s="1">
         <v>96</v>
       </c>
-      <c r="AP49">
+      <c r="AR49">
         <v>784</v>
       </c>
-      <c r="AQ49">
+      <c r="AS49">
         <v>384</v>
       </c>
-      <c r="AR49" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS49" s="1">
+      <c r="AT49" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU49" s="1">
         <f t="shared" si="62"/>
         <v>14</v>
       </c>
-      <c r="AT49">
+      <c r="AV49">
         <f t="shared" si="63"/>
         <v>192</v>
       </c>
-      <c r="AU49">
+      <c r="AW49">
         <f t="shared" si="64"/>
         <v>15</v>
       </c>
-      <c r="AV49" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW49" s="10" t="s">
+      <c r="AX49" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY49" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="AX49" t="s">
+      <c r="AZ49" t="s">
         <v>176</v>
       </c>
-      <c r="AY49" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ49" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA49" t="s">
+      <c r="BA49" s="19">
+        <v>0</v>
+      </c>
+      <c r="BB49" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC49" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>260</v>
       </c>
@@ -9427,35 +9711,35 @@
       <c r="C50" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="F50" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G50" t="s">
-        <v>130</v>
-      </c>
-      <c r="H50" t="s">
-        <v>130</v>
-      </c>
-      <c r="I50" t="s">
-        <v>130</v>
-      </c>
-      <c r="J50" t="s">
-        <v>130</v>
-      </c>
-      <c r="K50" t="s">
-        <v>130</v>
-      </c>
-      <c r="L50" t="s">
-        <v>130</v>
-      </c>
-      <c r="M50" t="s">
-        <v>130</v>
-      </c>
-      <c r="N50" t="s">
-        <v>130</v>
-      </c>
-      <c r="O50" t="s">
-        <v>130</v>
+      <c r="F50" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J50" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K50" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L50" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="M50" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="N50" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>249</v>
@@ -9463,8 +9747,8 @@
       <c r="Q50">
         <v>6</v>
       </c>
-      <c r="R50" t="s">
-        <v>130</v>
+      <c r="R50">
+        <v>6</v>
       </c>
       <c r="S50">
         <v>5</v>
@@ -9500,84 +9784,88 @@
       <c r="AC50" s="10">
         <v>22999</v>
       </c>
-      <c r="AD50">
+      <c r="AE50">
         <v>58053</v>
       </c>
-      <c r="AE50" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF50" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG50">
+      <c r="AF50">
+        <f>AC50+AE50</f>
+        <v>81052</v>
+      </c>
+      <c r="AG50" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH50" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI50">
         <f t="shared" si="58"/>
         <v>16651.133245255118</v>
       </c>
-      <c r="AH50" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI50" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ50" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK50" t="s">
+      <c r="AJ50" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK50" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL50" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM50" t="s">
         <v>111</v>
       </c>
-      <c r="AL50" s="10">
+      <c r="AN50" s="10">
         <v>125</v>
       </c>
-      <c r="AM50">
+      <c r="AO50">
         <v>1169</v>
       </c>
-      <c r="AN50">
+      <c r="AP50">
         <v>414</v>
       </c>
-      <c r="AO50" s="1">
+      <c r="AQ50" s="1">
         <v>64</v>
       </c>
-      <c r="AP50">
+      <c r="AR50">
         <v>512</v>
       </c>
-      <c r="AQ50">
+      <c r="AS50">
         <v>256</v>
       </c>
-      <c r="AR50" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS50" s="1">
+      <c r="AT50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU50" s="1">
         <f t="shared" si="62"/>
         <v>30</v>
       </c>
-      <c r="AT50">
+      <c r="AV50">
         <f t="shared" si="63"/>
         <v>328</v>
       </c>
-      <c r="AU50">
+      <c r="AW50">
         <f t="shared" si="64"/>
         <v>79</v>
       </c>
-      <c r="AV50" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW50" s="10" t="s">
+      <c r="AX50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY50" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="AX50" t="s">
+      <c r="AZ50" t="s">
         <v>176</v>
       </c>
-      <c r="AY50" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ50" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA50" t="s">
+      <c r="BA50" s="19">
+        <v>0</v>
+      </c>
+      <c r="BB50" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC50" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>261</v>
       </c>
@@ -9587,35 +9875,35 @@
       <c r="C51" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="F51" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G51" t="s">
-        <v>130</v>
-      </c>
-      <c r="H51" t="s">
-        <v>130</v>
-      </c>
-      <c r="I51" t="s">
-        <v>130</v>
-      </c>
-      <c r="J51" t="s">
-        <v>130</v>
-      </c>
-      <c r="K51" t="s">
-        <v>130</v>
-      </c>
-      <c r="L51" t="s">
-        <v>130</v>
-      </c>
-      <c r="M51" t="s">
-        <v>130</v>
-      </c>
-      <c r="N51" t="s">
-        <v>130</v>
-      </c>
-      <c r="O51" t="s">
-        <v>130</v>
+      <c r="F51" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J51" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K51" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L51" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="M51" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="N51" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>249</v>
@@ -9623,8 +9911,8 @@
       <c r="Q51">
         <v>6</v>
       </c>
-      <c r="R51" t="s">
-        <v>130</v>
+      <c r="R51">
+        <v>6</v>
       </c>
       <c r="S51">
         <v>5</v>
@@ -9660,84 +9948,88 @@
       <c r="AC51" s="10">
         <v>4727</v>
       </c>
-      <c r="AD51">
+      <c r="AE51">
         <v>76325</v>
       </c>
-      <c r="AE51" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF51" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG51">
+      <c r="AF51">
+        <f>AC51+AE51</f>
+        <v>81052</v>
+      </c>
+      <c r="AG51" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH51" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI51">
         <f t="shared" si="58"/>
         <v>3400.9489970451114</v>
       </c>
-      <c r="AH51" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI51" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ51" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK51" t="s">
+      <c r="AJ51" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK51" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL51" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM51" t="s">
         <v>111</v>
       </c>
-      <c r="AL51" s="10">
+      <c r="AN51" s="10">
         <v>125</v>
       </c>
-      <c r="AM51">
+      <c r="AO51">
         <v>1169</v>
       </c>
-      <c r="AN51">
+      <c r="AP51">
         <v>414</v>
       </c>
-      <c r="AO51" s="1">
+      <c r="AQ51" s="1">
         <v>32</v>
       </c>
-      <c r="AP51">
+      <c r="AR51">
         <v>256</v>
       </c>
-      <c r="AQ51">
+      <c r="AS51">
         <v>128</v>
       </c>
-      <c r="AR51" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS51" s="1">
+      <c r="AT51" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU51" s="1">
         <f t="shared" si="62"/>
         <v>46</v>
       </c>
-      <c r="AT51">
+      <c r="AV51">
         <f t="shared" si="63"/>
         <v>456</v>
       </c>
-      <c r="AU51">
+      <c r="AW51">
         <f t="shared" si="64"/>
         <v>143</v>
       </c>
-      <c r="AV51" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW51" s="10" t="s">
+      <c r="AX51" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY51" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="AX51" t="s">
+      <c r="AZ51" t="s">
         <v>176</v>
       </c>
-      <c r="AY51" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ51" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA51" t="s">
+      <c r="BA51" s="19">
+        <v>0</v>
+      </c>
+      <c r="BB51" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC51" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>262</v>
       </c>
@@ -9747,35 +10039,35 @@
       <c r="C52" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="F52" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G52" t="s">
-        <v>130</v>
-      </c>
-      <c r="H52" t="s">
-        <v>130</v>
-      </c>
-      <c r="I52" t="s">
-        <v>130</v>
-      </c>
-      <c r="J52" t="s">
-        <v>130</v>
-      </c>
-      <c r="K52" t="s">
-        <v>130</v>
-      </c>
-      <c r="L52" t="s">
-        <v>130</v>
-      </c>
-      <c r="M52" t="s">
-        <v>130</v>
-      </c>
-      <c r="N52" t="s">
-        <v>130</v>
-      </c>
-      <c r="O52" t="s">
-        <v>130</v>
+      <c r="F52" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J52" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K52" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L52" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="M52" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="N52" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>250</v>
@@ -9783,8 +10075,8 @@
       <c r="Q52">
         <v>6</v>
       </c>
-      <c r="R52" t="s">
-        <v>130</v>
+      <c r="R52">
+        <v>6</v>
       </c>
       <c r="S52">
         <v>5</v>
@@ -9820,84 +10112,88 @@
       <c r="AC52" s="10">
         <v>74743</v>
       </c>
-      <c r="AD52">
+      <c r="AE52">
         <v>6309</v>
       </c>
-      <c r="AE52" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF52" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG52">
+      <c r="AF52">
+        <f>AC52+AE52</f>
+        <v>81052</v>
+      </c>
+      <c r="AG52" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH52" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI52">
         <f t="shared" si="58"/>
         <v>32811.625819411252</v>
       </c>
-      <c r="AH52" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI52" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ52" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK52" t="s">
+      <c r="AJ52" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK52" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL52" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM52" t="s">
         <v>111</v>
       </c>
-      <c r="AL52" s="10">
+      <c r="AN52" s="10">
         <v>125</v>
       </c>
-      <c r="AM52">
+      <c r="AO52">
         <v>1169</v>
       </c>
-      <c r="AN52">
+      <c r="AP52">
         <v>414</v>
       </c>
-      <c r="AO52" s="1">
+      <c r="AQ52" s="1">
         <v>96</v>
       </c>
-      <c r="AP52">
+      <c r="AR52">
         <v>784</v>
       </c>
-      <c r="AQ52">
+      <c r="AS52">
         <v>384</v>
       </c>
-      <c r="AR52" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS52" s="1">
+      <c r="AT52" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU52" s="1">
         <f t="shared" si="62"/>
         <v>14</v>
       </c>
-      <c r="AT52">
+      <c r="AV52">
         <f t="shared" si="63"/>
         <v>192</v>
       </c>
-      <c r="AU52">
+      <c r="AW52">
         <f t="shared" si="64"/>
         <v>15</v>
       </c>
-      <c r="AV52" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW52" s="10" t="s">
+      <c r="AX52" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY52" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="AX52" t="s">
+      <c r="AZ52" t="s">
         <v>176</v>
       </c>
-      <c r="AY52" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ52" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA52" t="s">
+      <c r="BA52" s="19">
+        <v>0</v>
+      </c>
+      <c r="BB52" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC52" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>263</v>
       </c>
@@ -9907,35 +10203,35 @@
       <c r="C53" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="F53" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G53" t="s">
-        <v>130</v>
-      </c>
-      <c r="H53" t="s">
-        <v>130</v>
-      </c>
-      <c r="I53" t="s">
-        <v>130</v>
-      </c>
-      <c r="J53" t="s">
-        <v>130</v>
-      </c>
-      <c r="K53" t="s">
-        <v>130</v>
-      </c>
-      <c r="L53" t="s">
-        <v>130</v>
-      </c>
-      <c r="M53" t="s">
-        <v>130</v>
-      </c>
-      <c r="N53" t="s">
-        <v>130</v>
-      </c>
-      <c r="O53" t="s">
-        <v>130</v>
+      <c r="F53" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J53" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K53" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L53" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="M53" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="N53" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>250</v>
@@ -9943,8 +10239,8 @@
       <c r="Q53">
         <v>6</v>
       </c>
-      <c r="R53" t="s">
-        <v>130</v>
+      <c r="R53">
+        <v>6</v>
       </c>
       <c r="S53">
         <v>5</v>
@@ -9980,84 +10276,88 @@
       <c r="AC53" s="10">
         <v>22967</v>
       </c>
-      <c r="AD53">
+      <c r="AE53">
         <v>58085</v>
       </c>
-      <c r="AE53" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF53" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG53">
+      <c r="AF53">
+        <f>AC53+AE53</f>
+        <v>81052</v>
+      </c>
+      <c r="AG53" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH53" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI53">
         <f t="shared" si="58"/>
         <v>10593.906160359114</v>
       </c>
-      <c r="AH53" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI53" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ53" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK53" t="s">
+      <c r="AJ53" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK53" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL53" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM53" t="s">
         <v>111</v>
       </c>
-      <c r="AL53" s="10">
+      <c r="AN53" s="10">
         <v>125</v>
       </c>
-      <c r="AM53">
+      <c r="AO53">
         <v>1169</v>
       </c>
-      <c r="AN53">
+      <c r="AP53">
         <v>414</v>
       </c>
-      <c r="AO53" s="1">
+      <c r="AQ53" s="1">
         <v>64</v>
       </c>
-      <c r="AP53">
+      <c r="AR53">
         <v>512</v>
       </c>
-      <c r="AQ53">
+      <c r="AS53">
         <v>256</v>
       </c>
-      <c r="AR53" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS53" s="1">
+      <c r="AT53" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU53" s="1">
         <f t="shared" si="62"/>
         <v>30</v>
       </c>
-      <c r="AT53">
+      <c r="AV53">
         <f t="shared" si="63"/>
         <v>328</v>
       </c>
-      <c r="AU53">
+      <c r="AW53">
         <f t="shared" si="64"/>
         <v>79</v>
       </c>
-      <c r="AV53" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW53" s="10" t="s">
+      <c r="AX53" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY53" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="AX53" t="s">
+      <c r="AZ53" t="s">
         <v>176</v>
       </c>
-      <c r="AY53" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ53" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA53" t="s">
+      <c r="BA53" s="19">
+        <v>0</v>
+      </c>
+      <c r="BB53" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC53" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>264</v>
       </c>
@@ -10067,35 +10367,35 @@
       <c r="C54" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="F54" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G54" t="s">
-        <v>130</v>
-      </c>
-      <c r="H54" t="s">
-        <v>130</v>
-      </c>
-      <c r="I54" t="s">
-        <v>130</v>
-      </c>
-      <c r="J54" t="s">
-        <v>130</v>
-      </c>
-      <c r="K54" t="s">
-        <v>130</v>
-      </c>
-      <c r="L54" t="s">
-        <v>130</v>
-      </c>
-      <c r="M54" t="s">
-        <v>130</v>
-      </c>
-      <c r="N54" t="s">
-        <v>130</v>
-      </c>
-      <c r="O54" t="s">
-        <v>130</v>
+      <c r="F54" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J54" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K54" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L54" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="M54" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="N54" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>250</v>
@@ -10103,8 +10403,8 @@
       <c r="Q54">
         <v>6</v>
       </c>
-      <c r="R54" t="s">
-        <v>130</v>
+      <c r="R54">
+        <v>6</v>
       </c>
       <c r="S54">
         <v>5</v>
@@ -10140,84 +10440,88 @@
       <c r="AC54" s="10">
         <v>4727</v>
       </c>
-      <c r="AD54">
+      <c r="AE54">
         <v>76325</v>
       </c>
-      <c r="AE54" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF54" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG54">
+      <c r="AF54">
+        <f>AC54+AE54</f>
+        <v>81052</v>
+      </c>
+      <c r="AG54" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH54" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI54">
         <f t="shared" si="58"/>
         <v>2643.7956114331109</v>
       </c>
-      <c r="AH54" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI54" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ54" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK54" t="s">
+      <c r="AJ54" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK54" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL54" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM54" t="s">
         <v>111</v>
       </c>
-      <c r="AL54" s="10">
+      <c r="AN54" s="10">
         <v>125</v>
       </c>
-      <c r="AM54">
+      <c r="AO54">
         <v>1169</v>
       </c>
-      <c r="AN54">
+      <c r="AP54">
         <v>414</v>
       </c>
-      <c r="AO54" s="1">
+      <c r="AQ54" s="1">
         <v>32</v>
       </c>
-      <c r="AP54">
+      <c r="AR54">
         <v>256</v>
       </c>
-      <c r="AQ54">
+      <c r="AS54">
         <v>128</v>
       </c>
-      <c r="AR54" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS54" s="1">
+      <c r="AT54" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU54" s="1">
         <f t="shared" si="62"/>
         <v>46</v>
       </c>
-      <c r="AT54">
+      <c r="AV54">
         <f t="shared" si="63"/>
         <v>456</v>
       </c>
-      <c r="AU54">
+      <c r="AW54">
         <f t="shared" si="64"/>
         <v>143</v>
       </c>
-      <c r="AV54" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW54" s="10" t="s">
+      <c r="AX54" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY54" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="AX54" t="s">
+      <c r="AZ54" t="s">
         <v>176</v>
       </c>
-      <c r="AY54" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ54" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA54" t="s">
+      <c r="BA54" s="19">
+        <v>0</v>
+      </c>
+      <c r="BB54" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC54" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>265</v>
       </c>
@@ -10227,35 +10531,35 @@
       <c r="C55" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="F55" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G55" t="s">
-        <v>130</v>
-      </c>
-      <c r="H55" t="s">
-        <v>130</v>
-      </c>
-      <c r="I55" t="s">
-        <v>130</v>
-      </c>
-      <c r="J55" t="s">
-        <v>130</v>
-      </c>
-      <c r="K55" t="s">
-        <v>130</v>
-      </c>
-      <c r="L55" t="s">
-        <v>130</v>
-      </c>
-      <c r="M55" t="s">
-        <v>130</v>
-      </c>
-      <c r="N55" t="s">
-        <v>130</v>
-      </c>
-      <c r="O55" t="s">
-        <v>130</v>
+      <c r="F55" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J55" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K55" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L55" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="M55" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="N55" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>251</v>
@@ -10263,8 +10567,8 @@
       <c r="Q55">
         <v>6</v>
       </c>
-      <c r="R55" t="s">
-        <v>130</v>
+      <c r="R55">
+        <v>6</v>
       </c>
       <c r="S55">
         <v>5</v>
@@ -10300,84 +10604,88 @@
       <c r="AC55" s="10">
         <v>74965</v>
       </c>
-      <c r="AD55">
+      <c r="AE55">
         <v>6087</v>
       </c>
-      <c r="AE55" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF55" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG55">
+      <c r="AF55">
+        <f>AC55+AE55</f>
+        <v>81052</v>
+      </c>
+      <c r="AG55" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH55" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI55">
         <f t="shared" si="58"/>
         <v>43246.145914876637</v>
       </c>
-      <c r="AH55" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI55" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ55" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK55" t="s">
+      <c r="AJ55" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK55" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL55" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM55" t="s">
         <v>111</v>
       </c>
-      <c r="AL55" s="10">
+      <c r="AN55" s="10">
         <v>125</v>
       </c>
-      <c r="AM55">
+      <c r="AO55">
         <v>1169</v>
       </c>
-      <c r="AN55">
+      <c r="AP55">
         <v>414</v>
       </c>
-      <c r="AO55" s="1">
+      <c r="AQ55" s="1">
         <v>96</v>
       </c>
-      <c r="AP55">
+      <c r="AR55">
         <v>784</v>
       </c>
-      <c r="AQ55">
+      <c r="AS55">
         <v>384</v>
       </c>
-      <c r="AR55" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS55" s="1">
+      <c r="AT55" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU55" s="1">
         <f t="shared" si="62"/>
         <v>14</v>
       </c>
-      <c r="AT55">
+      <c r="AV55">
         <f t="shared" si="63"/>
         <v>192</v>
       </c>
-      <c r="AU55">
+      <c r="AW55">
         <f t="shared" si="64"/>
         <v>15</v>
       </c>
-      <c r="AV55" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW55" s="10" t="s">
+      <c r="AX55" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY55" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="AX55" t="s">
+      <c r="AZ55" t="s">
         <v>176</v>
       </c>
-      <c r="AY55" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ55" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA55" t="s">
+      <c r="BA55" s="19">
+        <v>0</v>
+      </c>
+      <c r="BB55" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC55" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>266</v>
       </c>
@@ -10387,35 +10695,35 @@
       <c r="C56" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G56" t="s">
-        <v>130</v>
-      </c>
-      <c r="H56" t="s">
-        <v>130</v>
-      </c>
-      <c r="I56" t="s">
-        <v>130</v>
-      </c>
-      <c r="J56" t="s">
-        <v>130</v>
-      </c>
-      <c r="K56" t="s">
-        <v>130</v>
-      </c>
-      <c r="L56" t="s">
-        <v>130</v>
-      </c>
-      <c r="M56" t="s">
-        <v>130</v>
-      </c>
-      <c r="N56" t="s">
-        <v>130</v>
-      </c>
-      <c r="O56" t="s">
-        <v>130</v>
+      <c r="F56" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J56" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K56" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L56" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="M56" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="N56" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>251</v>
@@ -10423,8 +10731,8 @@
       <c r="Q56">
         <v>6</v>
       </c>
-      <c r="R56" t="s">
-        <v>130</v>
+      <c r="R56">
+        <v>6</v>
       </c>
       <c r="S56">
         <v>5</v>
@@ -10460,84 +10768,88 @@
       <c r="AC56" s="10">
         <v>23033</v>
       </c>
-      <c r="AD56">
+      <c r="AE56">
         <v>58019</v>
       </c>
-      <c r="AE56" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF56" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG56">
+      <c r="AF56">
+        <f>AC56+AE56</f>
+        <v>81052</v>
+      </c>
+      <c r="AG56" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH56" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI56">
         <f t="shared" si="58"/>
         <v>13622.519702807114</v>
       </c>
-      <c r="AH56" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI56" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ56" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK56" t="s">
+      <c r="AJ56" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK56" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL56" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM56" t="s">
         <v>111</v>
       </c>
-      <c r="AL56" s="10">
+      <c r="AN56" s="10">
         <v>125</v>
       </c>
-      <c r="AM56">
+      <c r="AO56">
         <v>1169</v>
       </c>
-      <c r="AN56">
+      <c r="AP56">
         <v>414</v>
       </c>
-      <c r="AO56" s="1">
+      <c r="AQ56" s="1">
         <v>64</v>
       </c>
-      <c r="AP56">
+      <c r="AR56">
         <v>512</v>
       </c>
-      <c r="AQ56">
+      <c r="AS56">
         <v>256</v>
       </c>
-      <c r="AR56" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS56" s="1">
+      <c r="AT56" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU56" s="1">
         <f t="shared" si="62"/>
         <v>30</v>
       </c>
-      <c r="AT56">
+      <c r="AV56">
         <f t="shared" si="63"/>
         <v>328</v>
       </c>
-      <c r="AU56">
+      <c r="AW56">
         <f t="shared" si="64"/>
         <v>79</v>
       </c>
-      <c r="AV56" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW56" s="10" t="s">
+      <c r="AX56" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY56" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="AX56" t="s">
+      <c r="AZ56" t="s">
         <v>176</v>
       </c>
-      <c r="AY56" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ56" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA56" t="s">
+      <c r="BA56" s="19">
+        <v>0</v>
+      </c>
+      <c r="BB56" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC56" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>267</v>
       </c>
@@ -10547,35 +10859,35 @@
       <c r="C57" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="F57" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G57" t="s">
-        <v>130</v>
-      </c>
-      <c r="H57" t="s">
-        <v>130</v>
-      </c>
-      <c r="I57" t="s">
-        <v>130</v>
-      </c>
-      <c r="J57" t="s">
-        <v>130</v>
-      </c>
-      <c r="K57" t="s">
-        <v>130</v>
-      </c>
-      <c r="L57" t="s">
-        <v>130</v>
-      </c>
-      <c r="M57" t="s">
-        <v>130</v>
-      </c>
-      <c r="N57" t="s">
-        <v>130</v>
-      </c>
-      <c r="O57" t="s">
-        <v>130</v>
+      <c r="F57" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H57" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J57" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K57" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L57" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="M57" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="N57" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>251</v>
@@ -10583,8 +10895,8 @@
       <c r="Q57">
         <v>6</v>
       </c>
-      <c r="R57" t="s">
-        <v>130</v>
+      <c r="R57">
+        <v>6</v>
       </c>
       <c r="S57">
         <v>5</v>
@@ -10620,84 +10932,88 @@
       <c r="AC57" s="10">
         <v>4739</v>
       </c>
-      <c r="AD57">
+      <c r="AE57">
         <v>76313</v>
       </c>
-      <c r="AE57" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF57" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG57">
+      <c r="AF57">
+        <f>AC57+AE57</f>
+        <v>81052</v>
+      </c>
+      <c r="AG57" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH57" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI57">
         <f t="shared" si="58"/>
         <v>3022.3723042391107</v>
       </c>
-      <c r="AH57" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI57" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ57" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK57" t="s">
+      <c r="AJ57" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK57" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL57" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM57" t="s">
         <v>111</v>
       </c>
-      <c r="AL57" s="10">
+      <c r="AN57" s="10">
         <v>125</v>
       </c>
-      <c r="AM57">
+      <c r="AO57">
         <v>1169</v>
       </c>
-      <c r="AN57">
+      <c r="AP57">
         <v>414</v>
       </c>
-      <c r="AO57" s="1">
+      <c r="AQ57" s="1">
         <v>32</v>
       </c>
-      <c r="AP57">
+      <c r="AR57">
         <v>256</v>
       </c>
-      <c r="AQ57">
+      <c r="AS57">
         <v>128</v>
       </c>
-      <c r="AR57" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS57" s="1">
+      <c r="AT57" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU57" s="1">
         <f t="shared" si="62"/>
         <v>46</v>
       </c>
-      <c r="AT57">
+      <c r="AV57">
         <f t="shared" si="63"/>
         <v>456</v>
       </c>
-      <c r="AU57">
+      <c r="AW57">
         <f t="shared" si="64"/>
         <v>143</v>
       </c>
-      <c r="AV57" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW57" s="10" t="s">
+      <c r="AX57" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY57" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="AX57" t="s">
+      <c r="AZ57" t="s">
         <v>176</v>
       </c>
-      <c r="AY57" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ57" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA57" t="s">
+      <c r="BA57" s="19">
+        <v>0</v>
+      </c>
+      <c r="BB57" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC57" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>268</v>
       </c>
@@ -10707,35 +11023,35 @@
       <c r="C58" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="F58" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G58" t="s">
-        <v>130</v>
-      </c>
-      <c r="H58" t="s">
-        <v>130</v>
-      </c>
-      <c r="I58" t="s">
-        <v>130</v>
-      </c>
-      <c r="J58" t="s">
-        <v>130</v>
-      </c>
-      <c r="K58" t="s">
-        <v>130</v>
-      </c>
-      <c r="L58" t="s">
-        <v>130</v>
-      </c>
-      <c r="M58" t="s">
-        <v>130</v>
-      </c>
-      <c r="N58" t="s">
-        <v>130</v>
-      </c>
-      <c r="O58" t="s">
-        <v>130</v>
+      <c r="F58" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J58" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K58" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L58" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="M58" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="N58" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>252</v>
@@ -10743,8 +11059,8 @@
       <c r="Q58">
         <v>6</v>
       </c>
-      <c r="R58" t="s">
-        <v>130</v>
+      <c r="R58">
+        <v>6</v>
       </c>
       <c r="S58">
         <v>5</v>
@@ -10780,84 +11096,88 @@
       <c r="AC58" s="10">
         <v>74853</v>
       </c>
-      <c r="AD58">
+      <c r="AE58">
         <v>6199</v>
       </c>
-      <c r="AE58" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF58" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG58">
+      <c r="AF58">
+        <f>AC58+AE58</f>
+        <v>81052</v>
+      </c>
+      <c r="AG58" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH58" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI58">
         <f t="shared" si="58"/>
         <v>32811.625819411252</v>
       </c>
-      <c r="AH58" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI58" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ58" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK58" t="s">
+      <c r="AJ58" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK58" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL58" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM58" t="s">
         <v>111</v>
       </c>
-      <c r="AL58" s="10">
+      <c r="AN58" s="10">
         <v>125</v>
       </c>
-      <c r="AM58">
+      <c r="AO58">
         <v>1169</v>
       </c>
-      <c r="AN58">
+      <c r="AP58">
         <v>414</v>
       </c>
-      <c r="AO58" s="1">
+      <c r="AQ58" s="1">
         <v>96</v>
       </c>
-      <c r="AP58">
+      <c r="AR58">
         <v>784</v>
       </c>
-      <c r="AQ58">
+      <c r="AS58">
         <v>384</v>
       </c>
-      <c r="AR58" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS58" s="1">
+      <c r="AT58" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU58" s="1">
         <f t="shared" si="62"/>
         <v>14</v>
       </c>
-      <c r="AT58">
+      <c r="AV58">
         <f t="shared" si="63"/>
         <v>192</v>
       </c>
-      <c r="AU58">
+      <c r="AW58">
         <f t="shared" si="64"/>
         <v>15</v>
       </c>
-      <c r="AV58" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW58" s="10" t="s">
+      <c r="AX58" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY58" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="AX58" t="s">
+      <c r="AZ58" t="s">
         <v>176</v>
       </c>
-      <c r="AY58" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ58" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA58" t="s">
+      <c r="BA58" s="19">
+        <v>0</v>
+      </c>
+      <c r="BB58" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC58" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>269</v>
       </c>
@@ -10867,35 +11187,35 @@
       <c r="C59" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="F59" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G59" t="s">
-        <v>130</v>
-      </c>
-      <c r="H59" t="s">
-        <v>130</v>
-      </c>
-      <c r="I59" t="s">
-        <v>130</v>
-      </c>
-      <c r="J59" t="s">
-        <v>130</v>
-      </c>
-      <c r="K59" t="s">
-        <v>130</v>
-      </c>
-      <c r="L59" t="s">
-        <v>130</v>
-      </c>
-      <c r="M59" t="s">
-        <v>130</v>
-      </c>
-      <c r="N59" t="s">
-        <v>130</v>
-      </c>
-      <c r="O59" t="s">
-        <v>130</v>
+      <c r="F59" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J59" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K59" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L59" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="M59" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="N59" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
       </c>
       <c r="P59" s="1" t="s">
         <v>252</v>
@@ -10903,8 +11223,8 @@
       <c r="Q59">
         <v>6</v>
       </c>
-      <c r="R59" t="s">
-        <v>130</v>
+      <c r="R59">
+        <v>6</v>
       </c>
       <c r="S59">
         <v>5</v>
@@ -10940,84 +11260,88 @@
       <c r="AC59" s="10">
         <v>22999</v>
       </c>
-      <c r="AD59">
+      <c r="AE59">
         <v>58053</v>
       </c>
-      <c r="AE59" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF59" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG59">
+      <c r="AF59">
+        <f>AC59+AE59</f>
+        <v>81052</v>
+      </c>
+      <c r="AG59" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH59" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI59">
         <f t="shared" si="58"/>
         <v>10593.906160359114</v>
       </c>
-      <c r="AH59" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI59" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ59" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK59" t="s">
+      <c r="AJ59" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK59" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL59" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM59" t="s">
         <v>111</v>
       </c>
-      <c r="AL59" s="10">
+      <c r="AN59" s="10">
         <v>125</v>
       </c>
-      <c r="AM59">
+      <c r="AO59">
         <v>1169</v>
       </c>
-      <c r="AN59">
+      <c r="AP59">
         <v>414</v>
       </c>
-      <c r="AO59" s="1">
+      <c r="AQ59" s="1">
         <v>64</v>
       </c>
-      <c r="AP59">
+      <c r="AR59">
         <v>512</v>
       </c>
-      <c r="AQ59">
+      <c r="AS59">
         <v>256</v>
       </c>
-      <c r="AR59" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS59" s="1">
+      <c r="AT59" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU59" s="1">
         <f t="shared" si="62"/>
         <v>30</v>
       </c>
-      <c r="AT59">
+      <c r="AV59">
         <f t="shared" si="63"/>
         <v>328</v>
       </c>
-      <c r="AU59">
+      <c r="AW59">
         <f t="shared" si="64"/>
         <v>79</v>
       </c>
-      <c r="AV59" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW59" s="10" t="s">
+      <c r="AX59" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY59" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="AX59" t="s">
+      <c r="AZ59" t="s">
         <v>176</v>
       </c>
-      <c r="AY59" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ59" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA59" t="s">
+      <c r="BA59" s="19">
+        <v>0</v>
+      </c>
+      <c r="BB59" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC59" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>270</v>
       </c>
@@ -11027,35 +11351,35 @@
       <c r="C60" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="F60" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G60" t="s">
-        <v>130</v>
-      </c>
-      <c r="H60" t="s">
-        <v>130</v>
-      </c>
-      <c r="I60" t="s">
-        <v>130</v>
-      </c>
-      <c r="J60" t="s">
-        <v>130</v>
-      </c>
-      <c r="K60" t="s">
-        <v>130</v>
-      </c>
-      <c r="L60" t="s">
-        <v>130</v>
-      </c>
-      <c r="M60" t="s">
-        <v>130</v>
-      </c>
-      <c r="N60" t="s">
-        <v>130</v>
-      </c>
-      <c r="O60" t="s">
-        <v>130</v>
+      <c r="F60" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I60" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J60" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K60" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L60" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="M60" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="N60" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
       </c>
       <c r="P60" s="1" t="s">
         <v>252</v>
@@ -11063,8 +11387,8 @@
       <c r="Q60">
         <v>6</v>
       </c>
-      <c r="R60" t="s">
-        <v>130</v>
+      <c r="R60">
+        <v>6</v>
       </c>
       <c r="S60">
         <v>5</v>
@@ -11100,84 +11424,88 @@
       <c r="AC60" s="10">
         <v>4727</v>
       </c>
-      <c r="AD60">
+      <c r="AE60">
         <v>76325</v>
       </c>
-      <c r="AE60" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF60" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG60">
+      <c r="AF60">
+        <f>AC60+AE60</f>
+        <v>81052</v>
+      </c>
+      <c r="AG60" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH60" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI60">
         <f t="shared" si="58"/>
         <v>2643.7956114331109</v>
       </c>
-      <c r="AH60" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI60" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ60" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK60" t="s">
+      <c r="AJ60" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK60" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL60" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM60" t="s">
         <v>111</v>
       </c>
-      <c r="AL60" s="10">
+      <c r="AN60" s="10">
         <v>125</v>
       </c>
-      <c r="AM60">
+      <c r="AO60">
         <v>1169</v>
       </c>
-      <c r="AN60">
+      <c r="AP60">
         <v>414</v>
       </c>
-      <c r="AO60" s="1">
+      <c r="AQ60" s="1">
         <v>32</v>
       </c>
-      <c r="AP60">
+      <c r="AR60">
         <v>256</v>
       </c>
-      <c r="AQ60">
+      <c r="AS60">
         <v>128</v>
       </c>
-      <c r="AR60" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS60" s="1">
+      <c r="AT60" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU60" s="1">
         <f t="shared" si="62"/>
         <v>46</v>
       </c>
-      <c r="AT60">
+      <c r="AV60">
         <f t="shared" si="63"/>
         <v>456</v>
       </c>
-      <c r="AU60">
+      <c r="AW60">
         <f t="shared" si="64"/>
         <v>143</v>
       </c>
-      <c r="AV60" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW60" s="10" t="s">
+      <c r="AX60" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY60" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="AX60" t="s">
+      <c r="AZ60" t="s">
         <v>176</v>
       </c>
-      <c r="AY60" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ60" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA60" t="s">
+      <c r="BA60" s="19">
+        <v>0</v>
+      </c>
+      <c r="BB60" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC60" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>271</v>
       </c>
@@ -11187,35 +11515,35 @@
       <c r="C61" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="F61" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G61" t="s">
-        <v>130</v>
-      </c>
-      <c r="H61" t="s">
-        <v>130</v>
-      </c>
-      <c r="I61" t="s">
-        <v>130</v>
-      </c>
-      <c r="J61" t="s">
-        <v>130</v>
-      </c>
-      <c r="K61" t="s">
-        <v>130</v>
-      </c>
-      <c r="L61" t="s">
-        <v>130</v>
-      </c>
-      <c r="M61" t="s">
-        <v>130</v>
-      </c>
-      <c r="N61" t="s">
-        <v>130</v>
-      </c>
-      <c r="O61" t="s">
-        <v>130</v>
+      <c r="F61" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J61" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K61" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L61" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="M61" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="N61" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
       </c>
       <c r="P61" s="1" t="s">
         <v>253</v>
@@ -11223,8 +11551,8 @@
       <c r="Q61">
         <v>6</v>
       </c>
-      <c r="R61" t="s">
-        <v>130</v>
+      <c r="R61">
+        <v>6</v>
       </c>
       <c r="S61">
         <v>5</v>
@@ -11260,84 +11588,88 @@
       <c r="AC61" s="10">
         <v>74743</v>
       </c>
-      <c r="AD61">
+      <c r="AE61">
         <v>6309</v>
       </c>
-      <c r="AE61" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF61" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG61">
+      <c r="AF61">
+        <f>AC61+AE61</f>
+        <v>81052</v>
+      </c>
+      <c r="AG61" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH61" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI61">
         <f t="shared" si="58"/>
         <v>22377.105723945871</v>
       </c>
-      <c r="AH61" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI61" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ61" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK61" t="s">
+      <c r="AJ61" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK61" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL61" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM61" t="s">
         <v>111</v>
       </c>
-      <c r="AL61" s="10">
+      <c r="AN61" s="10">
         <v>125</v>
       </c>
-      <c r="AM61">
+      <c r="AO61">
         <v>1169</v>
       </c>
-      <c r="AN61">
+      <c r="AP61">
         <v>414</v>
       </c>
-      <c r="AO61" s="1">
+      <c r="AQ61" s="1">
         <v>96</v>
       </c>
-      <c r="AP61">
+      <c r="AR61">
         <v>784</v>
       </c>
-      <c r="AQ61">
+      <c r="AS61">
         <v>384</v>
       </c>
-      <c r="AR61" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS61" s="1">
+      <c r="AT61" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU61" s="1">
         <f t="shared" si="62"/>
         <v>14</v>
       </c>
-      <c r="AT61">
+      <c r="AV61">
         <f t="shared" si="63"/>
         <v>192</v>
       </c>
-      <c r="AU61">
+      <c r="AW61">
         <f t="shared" si="64"/>
         <v>15</v>
       </c>
-      <c r="AV61" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW61" s="10" t="s">
+      <c r="AX61" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY61" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="AX61" t="s">
+      <c r="AZ61" t="s">
         <v>176</v>
       </c>
-      <c r="AY61" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ61" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA61" t="s">
+      <c r="BA61" s="19">
+        <v>0</v>
+      </c>
+      <c r="BB61" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC61" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>272</v>
       </c>
@@ -11347,35 +11679,35 @@
       <c r="C62" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="F62" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G62" t="s">
-        <v>130</v>
-      </c>
-      <c r="H62" t="s">
-        <v>130</v>
-      </c>
-      <c r="I62" t="s">
-        <v>130</v>
-      </c>
-      <c r="J62" t="s">
-        <v>130</v>
-      </c>
-      <c r="K62" t="s">
-        <v>130</v>
-      </c>
-      <c r="L62" t="s">
-        <v>130</v>
-      </c>
-      <c r="M62" t="s">
-        <v>130</v>
-      </c>
-      <c r="N62" t="s">
-        <v>130</v>
-      </c>
-      <c r="O62" t="s">
-        <v>130</v>
+      <c r="F62" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H62" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J62" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K62" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L62" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="M62" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="N62" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
       </c>
       <c r="P62" s="1" t="s">
         <v>253</v>
@@ -11383,8 +11715,8 @@
       <c r="Q62">
         <v>6</v>
       </c>
-      <c r="R62" t="s">
-        <v>130</v>
+      <c r="R62">
+        <v>6</v>
       </c>
       <c r="S62">
         <v>5</v>
@@ -11420,84 +11752,88 @@
       <c r="AC62" s="10">
         <v>22967</v>
       </c>
-      <c r="AD62">
+      <c r="AE62">
         <v>58085</v>
       </c>
-      <c r="AE62" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF62" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG62">
+      <c r="AF62">
+        <f>AC62+AE62</f>
+        <v>81052</v>
+      </c>
+      <c r="AG62" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH62" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI62">
         <f t="shared" si="58"/>
         <v>7565.2926179111128</v>
       </c>
-      <c r="AH62" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI62" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ62" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK62" t="s">
+      <c r="AJ62" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK62" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL62" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM62" t="s">
         <v>111</v>
       </c>
-      <c r="AL62" s="10">
+      <c r="AN62" s="10">
         <v>125</v>
       </c>
-      <c r="AM62">
+      <c r="AO62">
         <v>1169</v>
       </c>
-      <c r="AN62">
+      <c r="AP62">
         <v>414</v>
       </c>
-      <c r="AO62" s="1">
+      <c r="AQ62" s="1">
         <v>64</v>
       </c>
-      <c r="AP62">
+      <c r="AR62">
         <v>512</v>
       </c>
-      <c r="AQ62">
+      <c r="AS62">
         <v>256</v>
       </c>
-      <c r="AR62" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS62" s="1">
+      <c r="AT62" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU62" s="1">
         <f t="shared" si="62"/>
         <v>30</v>
       </c>
-      <c r="AT62">
+      <c r="AV62">
         <f t="shared" si="63"/>
         <v>328</v>
       </c>
-      <c r="AU62">
+      <c r="AW62">
         <f t="shared" si="64"/>
         <v>79</v>
       </c>
-      <c r="AV62" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW62" s="10" t="s">
+      <c r="AX62" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY62" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="AX62" t="s">
+      <c r="AZ62" t="s">
         <v>176</v>
       </c>
-      <c r="AY62" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ62" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA62" t="s">
+      <c r="BA62" s="19">
+        <v>0</v>
+      </c>
+      <c r="BB62" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC62" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
         <v>273</v>
       </c>
@@ -11507,35 +11843,35 @@
       <c r="C63" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="F63" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G63" t="s">
-        <v>130</v>
-      </c>
-      <c r="H63" t="s">
-        <v>130</v>
-      </c>
-      <c r="I63" t="s">
-        <v>130</v>
-      </c>
-      <c r="J63" t="s">
-        <v>130</v>
-      </c>
-      <c r="K63" t="s">
-        <v>130</v>
-      </c>
-      <c r="L63" t="s">
-        <v>130</v>
-      </c>
-      <c r="M63" t="s">
-        <v>130</v>
-      </c>
-      <c r="N63" t="s">
-        <v>130</v>
-      </c>
-      <c r="O63" t="s">
-        <v>130</v>
+      <c r="F63" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H63" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I63" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J63" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K63" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L63" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="M63" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="N63" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>253</v>
@@ -11543,8 +11879,8 @@
       <c r="Q63">
         <v>6</v>
       </c>
-      <c r="R63" t="s">
-        <v>130</v>
+      <c r="R63">
+        <v>6</v>
       </c>
       <c r="S63">
         <v>5</v>
@@ -11580,127 +11916,131 @@
       <c r="AC63" s="10">
         <v>4727</v>
       </c>
-      <c r="AD63">
+      <c r="AE63">
         <v>76325</v>
       </c>
-      <c r="AE63" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF63" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG63">
+      <c r="AF63">
+        <f>AC63+AE63</f>
+        <v>81052</v>
+      </c>
+      <c r="AG63" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH63" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI63">
         <f t="shared" si="58"/>
         <v>2265.2189186271103</v>
       </c>
-      <c r="AH63" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI63" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ63" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK63" t="s">
+      <c r="AJ63" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK63" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL63" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM63" t="s">
         <v>111</v>
       </c>
-      <c r="AL63" s="10">
+      <c r="AN63" s="10">
         <v>125</v>
       </c>
-      <c r="AM63">
+      <c r="AO63">
         <v>1169</v>
       </c>
-      <c r="AN63">
+      <c r="AP63">
         <v>414</v>
       </c>
-      <c r="AO63" s="1">
+      <c r="AQ63" s="1">
         <v>32</v>
       </c>
-      <c r="AP63">
+      <c r="AR63">
         <v>256</v>
       </c>
-      <c r="AQ63">
+      <c r="AS63">
         <v>128</v>
       </c>
-      <c r="AR63" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS63" s="1">
+      <c r="AT63" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU63" s="1">
         <f t="shared" si="62"/>
         <v>46</v>
       </c>
-      <c r="AT63">
+      <c r="AV63">
         <f t="shared" si="63"/>
         <v>456</v>
       </c>
-      <c r="AU63">
+      <c r="AW63">
         <f t="shared" si="64"/>
         <v>143</v>
       </c>
-      <c r="AV63" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW63" s="10" t="s">
+      <c r="AX63" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY63" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="AX63" t="s">
+      <c r="AZ63" t="s">
         <v>176</v>
       </c>
-      <c r="AY63" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ63" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA63" t="s">
+      <c r="BA63" s="19">
+        <v>0</v>
+      </c>
+      <c r="BB63" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC63" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A69" s="19" t="s">
         <v>130</v>
       </c>
       <c r="B69" t="s">
         <v>132</v>
       </c>
-      <c r="C69" t="s">
-        <v>130</v>
-      </c>
-      <c r="D69" t="s">
-        <v>130</v>
-      </c>
-      <c r="E69" t="s">
-        <v>130</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G69" t="s">
-        <v>130</v>
-      </c>
-      <c r="H69" t="s">
-        <v>130</v>
-      </c>
-      <c r="I69" t="s">
-        <v>130</v>
-      </c>
-      <c r="J69" t="s">
-        <v>130</v>
-      </c>
-      <c r="K69" t="s">
-        <v>130</v>
-      </c>
-      <c r="L69" t="s">
-        <v>130</v>
-      </c>
-      <c r="M69" t="s">
-        <v>130</v>
-      </c>
-      <c r="N69" t="s">
-        <v>130</v>
-      </c>
-      <c r="O69" t="s">
+      <c r="C69" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G69" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H69" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I69" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J69" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K69" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L69" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="M69" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="N69" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="O69" s="19" t="s">
         <v>130</v>
       </c>
       <c r="P69" s="1" t="s">
@@ -11709,7 +12049,7 @@
       <c r="Q69">
         <v>6</v>
       </c>
-      <c r="R69" t="s">
+      <c r="R69" s="19" t="s">
         <v>130</v>
       </c>
       <c r="S69">
@@ -11742,84 +12082,95 @@
       <c r="AB69" t="s">
         <v>102</v>
       </c>
-      <c r="AC69" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD69" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE69" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF69" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG69" t="e">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AO69*AP69*AQ69) / 5 * U69</f>
+      <c r="AC69" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD69" s="23"/>
+      <c r="AE69" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI69" t="e">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AQ69*AR69*AS69) / 5 * U69</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AH69" s="1">
+      <c r="AJ69" s="1">
         <v>81920</v>
       </c>
-      <c r="AI69">
+      <c r="AK69">
         <v>81049.600000000006</v>
       </c>
-      <c r="AJ69">
+      <c r="AL69">
         <v>79.150000000000006</v>
       </c>
-      <c r="AK69" t="s">
+      <c r="AM69" t="s">
         <v>111</v>
       </c>
-      <c r="AL69" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM69" t="s">
-        <v>130</v>
-      </c>
-      <c r="AN69" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO69" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP69" t="s">
-        <v>130</v>
-      </c>
-      <c r="AQ69" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR69" t="s">
-        <v>130</v>
-      </c>
-      <c r="AS69" s="1" t="e">
-        <f t="shared" ref="AS69" si="65" xml:space="preserve"> _xlfn.FLOOR.MATH((AL69 - AO69) / 2)</f>
+      <c r="AN69" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO69" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP69" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ69" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR69" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS69" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT69" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU69" s="1" t="e">
+        <f t="shared" ref="AU69" si="65" xml:space="preserve"> _xlfn.FLOOR.MATH((AN69 - AQ69) / 2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AT69" t="e">
-        <f t="shared" ref="AT69" si="66" xml:space="preserve"> _xlfn.FLOOR.MATH((AM69 - AP69) / 2)</f>
+      <c r="AV69" t="e">
+        <f t="shared" ref="AV69" si="66" xml:space="preserve"> _xlfn.FLOOR.MATH((AO69 - AR69) / 2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AU69" t="e">
-        <f t="shared" ref="AU69" si="67" xml:space="preserve"> _xlfn.FLOOR.MATH((AN69 - AQ69) / 2)</f>
+      <c r="AW69" t="e">
+        <f t="shared" ref="AW69" si="67" xml:space="preserve"> _xlfn.FLOOR.MATH((AP69 - AS69) / 2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AV69" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW69" s="10" t="s">
+      <c r="AX69" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY69" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AX69" t="s">
+      <c r="AZ69" t="s">
         <v>176</v>
       </c>
-      <c r="AY69" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ69" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA69" t="s">
-        <v>130</v>
+      <c r="BA69" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BB69" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC69" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AR75" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="76" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AR76" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC861816-DADB-4E65-B011-F6317F2AD1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5BB880-4F2E-49E1-B18A-717F122AD225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="278">
   <si>
     <t>patch z</t>
   </si>
@@ -1036,7 +1036,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1063,15 +1063,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -1390,22 +1387,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
   <dimension ref="A1:BD76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF35" sqref="AF35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="109" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="71" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="26.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="14.5703125" style="10" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="20" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="30.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="15.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="33" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="14.5703125" style="10" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="33" customWidth="1"/>
     <col min="16" max="16" width="12.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="18" max="18" width="9.140625" collapsed="1"/>
@@ -1420,7 +1417,7 @@
     <col min="27" max="27" width="7.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="28" max="28" width="9.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="29" max="29" width="16.7109375" style="10" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="16.7109375" style="22" customWidth="1"/>
+    <col min="30" max="30" width="16.7109375" customWidth="1"/>
     <col min="31" max="32" width="14.85546875" customWidth="1"/>
     <col min="33" max="35" width="9.140625" customWidth="1"/>
     <col min="36" max="36" width="7.28515625" style="1" customWidth="1" outlineLevel="1"/>
@@ -2196,10 +2193,10 @@
       <c r="AC5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AD5" s="24">
+      <c r="AD5" s="22">
         <v>31715</v>
       </c>
-      <c r="AE5" s="27">
+      <c r="AE5" s="24">
         <v>785</v>
       </c>
       <c r="AF5" t="e">
@@ -2365,10 +2362,10 @@
       <c r="AC6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD6" s="24">
+      <c r="AD6" s="22">
         <v>957</v>
       </c>
-      <c r="AE6" s="27">
+      <c r="AE6" s="24">
         <v>31543</v>
       </c>
       <c r="AF6" t="s">
@@ -2533,10 +2530,10 @@
       <c r="AC7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD7" s="24">
+      <c r="AD7" s="22">
         <v>957</v>
       </c>
-      <c r="AE7" s="27">
+      <c r="AE7" s="24">
         <v>31543</v>
       </c>
       <c r="AF7" t="s">
@@ -2701,10 +2698,10 @@
       <c r="AC8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AD8" s="24">
+      <c r="AD8" s="22">
         <v>31413</v>
       </c>
-      <c r="AE8" s="27">
+      <c r="AE8" s="24">
         <v>1087</v>
       </c>
       <c r="AF8" t="e">
@@ -2870,10 +2867,10 @@
       <c r="AC9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD9" s="24">
+      <c r="AD9" s="22">
         <v>20319</v>
       </c>
-      <c r="AE9" s="27">
+      <c r="AE9" s="24">
         <v>12181</v>
       </c>
       <c r="AF9" t="s">
@@ -3044,10 +3041,10 @@
       <c r="AC10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD10" s="24">
+      <c r="AD10" s="22">
         <v>19417</v>
       </c>
-      <c r="AE10" s="27">
+      <c r="AE10" s="24">
         <v>13083</v>
       </c>
       <c r="AF10" t="s">
@@ -3212,10 +3209,10 @@
       <c r="AC11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AD11" s="24">
+      <c r="AD11" s="22">
         <v>30325</v>
       </c>
-      <c r="AE11" s="27">
+      <c r="AE11" s="24">
         <v>2175</v>
       </c>
       <c r="AF11" t="e">
@@ -3381,10 +3378,10 @@
       <c r="AC12" s="10">
         <v>10135</v>
       </c>
-      <c r="AD12" s="24">
+      <c r="AD12" s="22">
         <v>10135</v>
       </c>
-      <c r="AE12" s="27">
+      <c r="AE12" s="24">
         <v>22365</v>
       </c>
       <c r="AF12">
@@ -3550,10 +3547,10 @@
       <c r="AC13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD13" s="24">
+      <c r="AD13" s="22">
         <v>5881</v>
       </c>
-      <c r="AE13" s="27">
+      <c r="AE13" s="24">
         <v>26619</v>
       </c>
       <c r="AF13" t="s">
@@ -3718,10 +3715,10 @@
       <c r="AC14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD14" s="24">
+      <c r="AD14" s="22">
         <v>5881</v>
       </c>
-      <c r="AE14" s="27">
+      <c r="AE14" s="24">
         <v>26619</v>
       </c>
       <c r="AF14" t="s">
@@ -3886,14 +3883,14 @@
       <c r="AC15" s="10">
         <v>13843</v>
       </c>
-      <c r="AD15" s="24">
+      <c r="AD15" s="22">
         <v>13843</v>
       </c>
-      <c r="AE15" s="27">
+      <c r="AE15" s="24">
         <v>18657</v>
       </c>
       <c r="AF15">
-        <f>AC15+AE15</f>
+        <f t="shared" ref="AF15:AF24" si="1">AC15+AE15</f>
         <v>32500</v>
       </c>
       <c r="AG15" t="s">
@@ -4055,14 +4052,14 @@
       <c r="AC16" s="11">
         <v>13843</v>
       </c>
-      <c r="AD16" s="25">
+      <c r="AD16" s="23">
         <v>13843</v>
       </c>
-      <c r="AE16" s="28">
+      <c r="AE16" s="25">
         <v>18657</v>
       </c>
       <c r="AF16" s="7">
-        <f>AC16+AE16</f>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
       <c r="AG16" s="7" t="s">
@@ -4224,14 +4221,14 @@
       <c r="AC17" s="10">
         <v>10135</v>
       </c>
-      <c r="AD17" s="24">
+      <c r="AD17" s="22">
         <v>10135</v>
       </c>
-      <c r="AE17" s="27">
+      <c r="AE17" s="24">
         <v>22365</v>
       </c>
       <c r="AF17">
-        <f>AC17+AE17</f>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
       <c r="AG17" t="s">
@@ -4393,14 +4390,14 @@
       <c r="AC18" s="10">
         <v>10135</v>
       </c>
-      <c r="AD18" s="24">
+      <c r="AD18" s="22">
         <v>10135</v>
       </c>
-      <c r="AE18" s="27">
+      <c r="AE18" s="24">
         <v>22365</v>
       </c>
       <c r="AF18">
-        <f>AC18+AE18</f>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
       <c r="AG18" t="s">
@@ -4562,14 +4559,14 @@
       <c r="AC19" s="10">
         <v>10999</v>
       </c>
-      <c r="AD19" s="24">
+      <c r="AD19" s="22">
         <v>10999</v>
       </c>
-      <c r="AE19" s="27">
+      <c r="AE19" s="24">
         <v>21501</v>
       </c>
       <c r="AF19">
-        <f>AC19+AE19</f>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
       <c r="AG19" t="s">
@@ -4731,14 +4728,14 @@
       <c r="AC20" s="10">
         <v>11843</v>
       </c>
-      <c r="AD20" s="24">
+      <c r="AD20" s="22">
         <v>11843</v>
       </c>
-      <c r="AE20" s="27">
+      <c r="AE20" s="24">
         <v>20657</v>
       </c>
       <c r="AF20">
-        <f>AC20+AE20</f>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
       <c r="AG20" t="s">
@@ -4900,14 +4897,14 @@
       <c r="AC21" s="10">
         <v>10473</v>
       </c>
-      <c r="AD21" s="24">
+      <c r="AD21" s="22">
         <v>10473</v>
       </c>
-      <c r="AE21" s="27">
+      <c r="AE21" s="24">
         <v>22027</v>
       </c>
       <c r="AF21">
-        <f>AC21+AE21</f>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
       <c r="AG21" t="s">
@@ -5069,14 +5066,14 @@
       <c r="AC22" s="10">
         <v>10825</v>
       </c>
-      <c r="AD22" s="24">
+      <c r="AD22" s="22">
         <v>10825</v>
       </c>
-      <c r="AE22" s="27">
+      <c r="AE22" s="24">
         <v>21675</v>
       </c>
       <c r="AF22">
-        <f>AC22+AE22</f>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
       <c r="AG22" t="s">
@@ -5238,14 +5235,14 @@
       <c r="AC23" s="10">
         <v>12317</v>
       </c>
-      <c r="AD23" s="24">
+      <c r="AD23" s="22">
         <v>12317</v>
       </c>
-      <c r="AE23" s="27">
+      <c r="AE23" s="24">
         <v>20183</v>
       </c>
       <c r="AF23">
-        <f>AC23+AE23</f>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
       <c r="AG23" t="s">
@@ -5407,14 +5404,14 @@
       <c r="AC24" s="10">
         <v>14443</v>
       </c>
-      <c r="AD24" s="24">
+      <c r="AD24" s="22">
         <v>14443</v>
       </c>
-      <c r="AE24" s="27">
+      <c r="AE24" s="24">
         <v>18057</v>
       </c>
       <c r="AF24">
-        <f>AC24+AE24</f>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
       <c r="AG24" t="s">
@@ -5575,7 +5572,7 @@
       <c r="AC25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD25" s="26" t="s">
+      <c r="AD25" t="s">
         <v>8</v>
       </c>
       <c r="AE25" t="s">
@@ -5883,7 +5880,7 @@
         <v>2</v>
       </c>
       <c r="U27">
-        <f t="shared" ref="U27:U34" si="1" xml:space="preserve"> S27 + T27</f>
+        <f t="shared" ref="U27:U34" si="2" xml:space="preserve"> S27 + T27</f>
         <v>5</v>
       </c>
       <c r="V27" t="s">
@@ -5907,16 +5904,18 @@
       <c r="AB27" t="s">
         <v>102</v>
       </c>
-      <c r="AC27" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD27" s="23"/>
-      <c r="AE27" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF27" t="e">
-        <f>AC27+AE27</f>
-        <v>#VALUE!</v>
+      <c r="AC27" s="20">
+        <v>80545</v>
+      </c>
+      <c r="AD27" s="19">
+        <v>80545</v>
+      </c>
+      <c r="AE27" s="19">
+        <v>507</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" ref="AF27:AF33" si="3">AC27+AE27</f>
+        <v>81052</v>
       </c>
       <c r="AG27" t="s">
         <v>8</v>
@@ -5925,7 +5924,7 @@
         <v>8</v>
       </c>
       <c r="AI27">
-        <f t="shared" ref="AI27" si="2" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AQ27*AR27*AS27)</f>
+        <f t="shared" ref="AI27" si="4" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AQ27*AR27*AS27)</f>
         <v>83027.753778838392</v>
       </c>
       <c r="AJ27" s="1">
@@ -5962,15 +5961,15 @@
         <v>50</v>
       </c>
       <c r="AU27" s="1">
-        <f t="shared" ref="AU27:AU34" si="3" xml:space="preserve"> _xlfn.FLOOR.MATH((AN27 - AQ27) / 2)</f>
+        <f t="shared" ref="AU27:AU34" si="5" xml:space="preserve"> _xlfn.FLOOR.MATH((AN27 - AQ27) / 2)</f>
         <v>6</v>
       </c>
       <c r="AV27">
-        <f t="shared" ref="AV27" si="4" xml:space="preserve"> _xlfn.FLOOR.MATH((AO27 - AR27) / 2)</f>
+        <f t="shared" ref="AV27" si="6" xml:space="preserve"> _xlfn.FLOOR.MATH((AO27 - AR27) / 2)</f>
         <v>152</v>
       </c>
       <c r="AW27">
-        <f t="shared" ref="AW27" si="5" xml:space="preserve"> _xlfn.FLOOR.MATH((AP27 - AS27) / 2)</f>
+        <f t="shared" ref="AW27" si="7" xml:space="preserve"> _xlfn.FLOOR.MATH((AP27 - AS27) / 2)</f>
         <v>7</v>
       </c>
       <c r="AX27" t="s">
@@ -6054,7 +6053,7 @@
         <v>2</v>
       </c>
       <c r="U28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="V28" t="s">
@@ -6081,12 +6080,12 @@
       <c r="AC28" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="AD28" s="23"/>
+      <c r="AD28" s="19"/>
       <c r="AE28" s="19" t="s">
         <v>130</v>
       </c>
       <c r="AF28" t="e">
-        <f>AC28+AE28</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG28">
@@ -6097,7 +6096,7 @@
         <v>80.11</v>
       </c>
       <c r="AI28">
-        <f t="shared" ref="AI28:AI33" si="6" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AQ28*AR28*AS28)</f>
+        <f t="shared" ref="AI28:AI33" si="8" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AQ28*AR28*AS28)</f>
         <v>81518.129922434266</v>
       </c>
       <c r="AJ28" s="1">
@@ -6134,15 +6133,15 @@
         <v>50</v>
       </c>
       <c r="AU28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="AV28">
-        <f t="shared" ref="AV28" si="7" xml:space="preserve"> _xlfn.FLOOR.MATH((AO28 - AR28) / 2)</f>
+        <f t="shared" ref="AV28" si="9" xml:space="preserve"> _xlfn.FLOOR.MATH((AO28 - AR28) / 2)</f>
         <v>160</v>
       </c>
       <c r="AW28">
-        <f t="shared" ref="AW28" si="8" xml:space="preserve"> _xlfn.FLOOR.MATH((AP28 - AS28) / 2)</f>
+        <f t="shared" ref="AW28" si="10" xml:space="preserve"> _xlfn.FLOOR.MATH((AP28 - AS28) / 2)</f>
         <v>7</v>
       </c>
       <c r="AX28" t="s">
@@ -6226,7 +6225,7 @@
         <v>2</v>
       </c>
       <c r="U29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="V29" t="s">
@@ -6257,7 +6256,7 @@
         <v>130</v>
       </c>
       <c r="AF29" t="e">
-        <f>AC29+AE29</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG29" t="s">
@@ -6267,7 +6266,7 @@
         <v>8</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>76989.258353221856</v>
       </c>
       <c r="AJ29" s="1">
@@ -6304,15 +6303,15 @@
         <v>50</v>
       </c>
       <c r="AU29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="AV29">
-        <f t="shared" ref="AV29" si="9" xml:space="preserve"> _xlfn.FLOOR.MATH((AO29 - AR29) / 2)</f>
+        <f t="shared" ref="AV29" si="11" xml:space="preserve"> _xlfn.FLOOR.MATH((AO29 - AR29) / 2)</f>
         <v>184</v>
       </c>
       <c r="AW29">
-        <f t="shared" ref="AW29" si="10" xml:space="preserve"> _xlfn.FLOOR.MATH((AP29 - AS29) / 2)</f>
+        <f t="shared" ref="AW29" si="12" xml:space="preserve"> _xlfn.FLOOR.MATH((AP29 - AS29) / 2)</f>
         <v>7</v>
       </c>
       <c r="AX29" t="s">
@@ -6396,7 +6395,7 @@
         <v>2</v>
       </c>
       <c r="U30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="V30" t="s">
@@ -6427,7 +6426,7 @@
         <v>130</v>
       </c>
       <c r="AF30" t="e">
-        <f>AC30+AE30</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG30" t="s">
@@ -6437,7 +6436,7 @@
         <v>8</v>
       </c>
       <c r="AI30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>76989.258353221856</v>
       </c>
       <c r="AJ30" s="1">
@@ -6474,15 +6473,15 @@
         <v>50</v>
       </c>
       <c r="AU30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="AV30">
-        <f t="shared" ref="AV30:AV34" si="11" xml:space="preserve"> _xlfn.FLOOR.MATH((AO30 - AR30) / 2)</f>
+        <f t="shared" ref="AV30:AV34" si="13" xml:space="preserve"> _xlfn.FLOOR.MATH((AO30 - AR30) / 2)</f>
         <v>184</v>
       </c>
       <c r="AW30">
-        <f t="shared" ref="AW30:AW34" si="12" xml:space="preserve"> _xlfn.FLOOR.MATH((AP30 - AS30) / 2)</f>
+        <f t="shared" ref="AW30:AW34" si="14" xml:space="preserve"> _xlfn.FLOOR.MATH((AP30 - AS30) / 2)</f>
         <v>7</v>
       </c>
       <c r="AX30" t="s">
@@ -6566,7 +6565,7 @@
         <v>2</v>
       </c>
       <c r="U31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="V31" t="s">
@@ -6597,7 +6596,7 @@
         <v>130</v>
       </c>
       <c r="AF31" t="e">
-        <f>AC31+AE31</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG31" t="s">
@@ -6607,7 +6606,7 @@
         <v>8</v>
       </c>
       <c r="AI31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>76989.258353221856</v>
       </c>
       <c r="AJ31" s="1">
@@ -6644,15 +6643,15 @@
         <v>50</v>
       </c>
       <c r="AU31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="AV31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>184</v>
       </c>
       <c r="AW31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="AX31" t="s">
@@ -6736,7 +6735,7 @@
         <v>2</v>
       </c>
       <c r="U32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="V32" t="s">
@@ -6763,12 +6762,12 @@
       <c r="AC32" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="AD32" s="23"/>
+      <c r="AD32" s="19"/>
       <c r="AE32" s="19" t="s">
         <v>130</v>
       </c>
       <c r="AF32" t="e">
-        <f>AC32+AE32</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG32" t="s">
@@ -6778,7 +6777,7 @@
         <v>8</v>
       </c>
       <c r="AI32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>76989.258353221856</v>
       </c>
       <c r="AJ32" s="1">
@@ -6815,15 +6814,15 @@
         <v>50</v>
       </c>
       <c r="AU32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="AV32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>184</v>
       </c>
       <c r="AW32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="AX32" t="s">
@@ -6907,7 +6906,7 @@
         <v>1</v>
       </c>
       <c r="U33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="V33" t="s">
@@ -6938,7 +6937,7 @@
         <v>130</v>
       </c>
       <c r="AF33" t="e">
-        <f>AC33+AE33</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG33" t="s">
@@ -6948,7 +6947,7 @@
         <v>8</v>
       </c>
       <c r="AI33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>76989.258353221856</v>
       </c>
       <c r="AJ33" s="1">
@@ -6985,15 +6984,15 @@
         <v>50</v>
       </c>
       <c r="AU33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="AV33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>184</v>
       </c>
       <c r="AW33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="AX33" t="s">
@@ -7077,7 +7076,7 @@
         <v>1</v>
       </c>
       <c r="U34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="V34" t="s">
@@ -7117,7 +7116,7 @@
         <v>8</v>
       </c>
       <c r="AI34">
-        <f t="shared" ref="AI34:AI45" si="13" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AQ34*AR34*AS34) / 5 * U34</f>
+        <f t="shared" ref="AI34:AI45" si="15" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AQ34*AR34*AS34) / 5 * U34</f>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ34" s="1">
@@ -7154,15 +7153,15 @@
         <v>50</v>
       </c>
       <c r="AU34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="AV34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>192</v>
       </c>
       <c r="AW34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="AX34" t="s">
@@ -7246,7 +7245,7 @@
         <v>1</v>
       </c>
       <c r="U35">
-        <f t="shared" ref="U35" si="14" xml:space="preserve"> S35 + T35</f>
+        <f t="shared" ref="U35" si="16" xml:space="preserve"> S35 + T35</f>
         <v>6</v>
       </c>
       <c r="V35" t="s">
@@ -7286,7 +7285,7 @@
         <v>8</v>
       </c>
       <c r="AI35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>76071.407048528155</v>
       </c>
       <c r="AJ35" s="1">
@@ -7323,15 +7322,15 @@
         <v>50</v>
       </c>
       <c r="AU35" s="1">
-        <f t="shared" ref="AU35" si="15" xml:space="preserve"> _xlfn.FLOOR.MATH((AN35 - AQ35) / 2)</f>
+        <f t="shared" ref="AU35" si="17" xml:space="preserve"> _xlfn.FLOOR.MATH((AN35 - AQ35) / 2)</f>
         <v>13</v>
       </c>
       <c r="AV35">
-        <f t="shared" ref="AV35" si="16" xml:space="preserve"> _xlfn.FLOOR.MATH((AO35 - AR35) / 2)</f>
+        <f t="shared" ref="AV35" si="18" xml:space="preserve"> _xlfn.FLOOR.MATH((AO35 - AR35) / 2)</f>
         <v>192</v>
       </c>
       <c r="AW35">
-        <f t="shared" ref="AW35" si="17" xml:space="preserve"> _xlfn.FLOOR.MATH((AP35 - AS35) / 2)</f>
+        <f t="shared" ref="AW35" si="19" xml:space="preserve"> _xlfn.FLOOR.MATH((AP35 - AS35) / 2)</f>
         <v>15</v>
       </c>
       <c r="AX35" t="s">
@@ -7415,7 +7414,7 @@
         <v>1</v>
       </c>
       <c r="U36">
-        <f t="shared" ref="U36" si="18" xml:space="preserve"> S36 + T36</f>
+        <f t="shared" ref="U36" si="20" xml:space="preserve"> S36 + T36</f>
         <v>6</v>
       </c>
       <c r="V36" t="s">
@@ -7455,7 +7454,7 @@
         <v>8</v>
       </c>
       <c r="AI36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>76071.407048528155</v>
       </c>
       <c r="AJ36" s="1">
@@ -7492,15 +7491,15 @@
         <v>50</v>
       </c>
       <c r="AU36" s="1">
-        <f t="shared" ref="AU36" si="19" xml:space="preserve"> _xlfn.FLOOR.MATH((AN36 - AQ36) / 2)</f>
+        <f t="shared" ref="AU36" si="21" xml:space="preserve"> _xlfn.FLOOR.MATH((AN36 - AQ36) / 2)</f>
         <v>13</v>
       </c>
       <c r="AV36">
-        <f t="shared" ref="AV36" si="20" xml:space="preserve"> _xlfn.FLOOR.MATH((AO36 - AR36) / 2)</f>
+        <f t="shared" ref="AV36" si="22" xml:space="preserve"> _xlfn.FLOOR.MATH((AO36 - AR36) / 2)</f>
         <v>192</v>
       </c>
       <c r="AW36">
-        <f t="shared" ref="AW36" si="21" xml:space="preserve"> _xlfn.FLOOR.MATH((AP36 - AS36) / 2)</f>
+        <f t="shared" ref="AW36" si="23" xml:space="preserve"> _xlfn.FLOOR.MATH((AP36 - AS36) / 2)</f>
         <v>15</v>
       </c>
       <c r="AX36" t="s">
@@ -7584,7 +7583,7 @@
         <v>1</v>
       </c>
       <c r="U37">
-        <f t="shared" ref="U37" si="22" xml:space="preserve"> S37 + T37</f>
+        <f t="shared" ref="U37" si="24" xml:space="preserve"> S37 + T37</f>
         <v>6</v>
       </c>
       <c r="V37" t="s">
@@ -7624,7 +7623,7 @@
         <v>8</v>
       </c>
       <c r="AI37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ37" s="1">
@@ -7661,15 +7660,15 @@
         <v>50</v>
       </c>
       <c r="AU37" s="1">
-        <f t="shared" ref="AU37" si="23" xml:space="preserve"> _xlfn.FLOOR.MATH((AN37 - AQ37) / 2)</f>
+        <f t="shared" ref="AU37" si="25" xml:space="preserve"> _xlfn.FLOOR.MATH((AN37 - AQ37) / 2)</f>
         <v>14</v>
       </c>
       <c r="AV37">
-        <f t="shared" ref="AV37" si="24" xml:space="preserve"> _xlfn.FLOOR.MATH((AO37 - AR37) / 2)</f>
+        <f t="shared" ref="AV37" si="26" xml:space="preserve"> _xlfn.FLOOR.MATH((AO37 - AR37) / 2)</f>
         <v>192</v>
       </c>
       <c r="AW37">
-        <f t="shared" ref="AW37" si="25" xml:space="preserve"> _xlfn.FLOOR.MATH((AP37 - AS37) / 2)</f>
+        <f t="shared" ref="AW37" si="27" xml:space="preserve"> _xlfn.FLOOR.MATH((AP37 - AS37) / 2)</f>
         <v>15</v>
       </c>
       <c r="AX37" t="s">
@@ -7753,7 +7752,7 @@
         <v>1</v>
       </c>
       <c r="U38">
-        <f t="shared" ref="U38" si="26" xml:space="preserve"> S38 + T38</f>
+        <f t="shared" ref="U38" si="28" xml:space="preserve"> S38 + T38</f>
         <v>6</v>
       </c>
       <c r="V38" t="s">
@@ -7793,7 +7792,7 @@
         <v>8</v>
       </c>
       <c r="AI38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ38" s="1">
@@ -7830,15 +7829,15 @@
         <v>50</v>
       </c>
       <c r="AU38" s="1">
-        <f t="shared" ref="AU38" si="27" xml:space="preserve"> _xlfn.FLOOR.MATH((AN38 - AQ38) / 2)</f>
+        <f t="shared" ref="AU38" si="29" xml:space="preserve"> _xlfn.FLOOR.MATH((AN38 - AQ38) / 2)</f>
         <v>14</v>
       </c>
       <c r="AV38">
-        <f t="shared" ref="AV38" si="28" xml:space="preserve"> _xlfn.FLOOR.MATH((AO38 - AR38) / 2)</f>
+        <f t="shared" ref="AV38" si="30" xml:space="preserve"> _xlfn.FLOOR.MATH((AO38 - AR38) / 2)</f>
         <v>192</v>
       </c>
       <c r="AW38">
-        <f t="shared" ref="AW38" si="29" xml:space="preserve"> _xlfn.FLOOR.MATH((AP38 - AS38) / 2)</f>
+        <f t="shared" ref="AW38" si="31" xml:space="preserve"> _xlfn.FLOOR.MATH((AP38 - AS38) / 2)</f>
         <v>15</v>
       </c>
       <c r="AX38" t="s">
@@ -7922,7 +7921,7 @@
         <v>1</v>
       </c>
       <c r="U39">
-        <f t="shared" ref="U39" si="30" xml:space="preserve"> S39 + T39</f>
+        <f t="shared" ref="U39" si="32" xml:space="preserve"> S39 + T39</f>
         <v>6</v>
       </c>
       <c r="V39" t="s">
@@ -7962,7 +7961,7 @@
         <v>8</v>
       </c>
       <c r="AI39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ39" s="1">
@@ -7999,15 +7998,15 @@
         <v>50</v>
       </c>
       <c r="AU39" s="1">
-        <f t="shared" ref="AU39" si="31" xml:space="preserve"> _xlfn.FLOOR.MATH((AN39 - AQ39) / 2)</f>
+        <f t="shared" ref="AU39" si="33" xml:space="preserve"> _xlfn.FLOOR.MATH((AN39 - AQ39) / 2)</f>
         <v>14</v>
       </c>
       <c r="AV39">
-        <f t="shared" ref="AV39" si="32" xml:space="preserve"> _xlfn.FLOOR.MATH((AO39 - AR39) / 2)</f>
+        <f t="shared" ref="AV39" si="34" xml:space="preserve"> _xlfn.FLOOR.MATH((AO39 - AR39) / 2)</f>
         <v>192</v>
       </c>
       <c r="AW39">
-        <f t="shared" ref="AW39" si="33" xml:space="preserve"> _xlfn.FLOOR.MATH((AP39 - AS39) / 2)</f>
+        <f t="shared" ref="AW39" si="35" xml:space="preserve"> _xlfn.FLOOR.MATH((AP39 - AS39) / 2)</f>
         <v>15</v>
       </c>
       <c r="AX39" t="s">
@@ -8091,7 +8090,7 @@
         <v>1</v>
       </c>
       <c r="U40">
-        <f t="shared" ref="U40" si="34" xml:space="preserve"> S40 + T40</f>
+        <f t="shared" ref="U40" si="36" xml:space="preserve"> S40 + T40</f>
         <v>6</v>
       </c>
       <c r="V40" t="s">
@@ -8131,7 +8130,7 @@
         <v>8</v>
       </c>
       <c r="AI40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ40" s="1">
@@ -8168,15 +8167,15 @@
         <v>50</v>
       </c>
       <c r="AU40" s="1">
-        <f t="shared" ref="AU40" si="35" xml:space="preserve"> _xlfn.FLOOR.MATH((AN40 - AQ40) / 2)</f>
+        <f t="shared" ref="AU40" si="37" xml:space="preserve"> _xlfn.FLOOR.MATH((AN40 - AQ40) / 2)</f>
         <v>14</v>
       </c>
       <c r="AV40">
-        <f t="shared" ref="AV40" si="36" xml:space="preserve"> _xlfn.FLOOR.MATH((AO40 - AR40) / 2)</f>
+        <f t="shared" ref="AV40" si="38" xml:space="preserve"> _xlfn.FLOOR.MATH((AO40 - AR40) / 2)</f>
         <v>192</v>
       </c>
       <c r="AW40">
-        <f t="shared" ref="AW40" si="37" xml:space="preserve"> _xlfn.FLOOR.MATH((AP40 - AS40) / 2)</f>
+        <f t="shared" ref="AW40" si="39" xml:space="preserve"> _xlfn.FLOOR.MATH((AP40 - AS40) / 2)</f>
         <v>15</v>
       </c>
       <c r="AX40" t="s">
@@ -8260,7 +8259,7 @@
         <v>1</v>
       </c>
       <c r="U41">
-        <f t="shared" ref="U41" si="38" xml:space="preserve"> S41 + T41</f>
+        <f t="shared" ref="U41" si="40" xml:space="preserve"> S41 + T41</f>
         <v>6</v>
       </c>
       <c r="V41" t="s">
@@ -8300,7 +8299,7 @@
         <v>8</v>
       </c>
       <c r="AI41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ41" s="1">
@@ -8337,15 +8336,15 @@
         <v>50</v>
       </c>
       <c r="AU41" s="1">
-        <f t="shared" ref="AU41" si="39" xml:space="preserve"> _xlfn.FLOOR.MATH((AN41 - AQ41) / 2)</f>
+        <f t="shared" ref="AU41" si="41" xml:space="preserve"> _xlfn.FLOOR.MATH((AN41 - AQ41) / 2)</f>
         <v>14</v>
       </c>
       <c r="AV41">
-        <f t="shared" ref="AV41" si="40" xml:space="preserve"> _xlfn.FLOOR.MATH((AO41 - AR41) / 2)</f>
+        <f t="shared" ref="AV41" si="42" xml:space="preserve"> _xlfn.FLOOR.MATH((AO41 - AR41) / 2)</f>
         <v>192</v>
       </c>
       <c r="AW41">
-        <f t="shared" ref="AW41" si="41" xml:space="preserve"> _xlfn.FLOOR.MATH((AP41 - AS41) / 2)</f>
+        <f t="shared" ref="AW41" si="43" xml:space="preserve"> _xlfn.FLOOR.MATH((AP41 - AS41) / 2)</f>
         <v>15</v>
       </c>
       <c r="AX41" t="s">
@@ -8429,7 +8428,7 @@
         <v>1</v>
       </c>
       <c r="U42">
-        <f t="shared" ref="U42" si="42" xml:space="preserve"> S42 + T42</f>
+        <f t="shared" ref="U42" si="44" xml:space="preserve"> S42 + T42</f>
         <v>6</v>
       </c>
       <c r="V42" t="s">
@@ -8469,7 +8468,7 @@
         <v>8</v>
       </c>
       <c r="AI42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ42" s="1">
@@ -8506,15 +8505,15 @@
         <v>50</v>
       </c>
       <c r="AU42" s="1">
-        <f t="shared" ref="AU42" si="43" xml:space="preserve"> _xlfn.FLOOR.MATH((AN42 - AQ42) / 2)</f>
+        <f t="shared" ref="AU42" si="45" xml:space="preserve"> _xlfn.FLOOR.MATH((AN42 - AQ42) / 2)</f>
         <v>14</v>
       </c>
       <c r="AV42">
-        <f t="shared" ref="AV42" si="44" xml:space="preserve"> _xlfn.FLOOR.MATH((AO42 - AR42) / 2)</f>
+        <f t="shared" ref="AV42" si="46" xml:space="preserve"> _xlfn.FLOOR.MATH((AO42 - AR42) / 2)</f>
         <v>192</v>
       </c>
       <c r="AW42">
-        <f t="shared" ref="AW42" si="45" xml:space="preserve"> _xlfn.FLOOR.MATH((AP42 - AS42) / 2)</f>
+        <f t="shared" ref="AW42" si="47" xml:space="preserve"> _xlfn.FLOOR.MATH((AP42 - AS42) / 2)</f>
         <v>15</v>
       </c>
       <c r="AX42" t="s">
@@ -8598,7 +8597,7 @@
         <v>1</v>
       </c>
       <c r="U43">
-        <f t="shared" ref="U43" si="46" xml:space="preserve"> S43 + T43</f>
+        <f t="shared" ref="U43" si="48" xml:space="preserve"> S43 + T43</f>
         <v>6</v>
       </c>
       <c r="V43" t="s">
@@ -8638,7 +8637,7 @@
         <v>8</v>
       </c>
       <c r="AI43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ43" s="1">
@@ -8675,15 +8674,15 @@
         <v>50</v>
       </c>
       <c r="AU43" s="1">
-        <f t="shared" ref="AU43" si="47" xml:space="preserve"> _xlfn.FLOOR.MATH((AN43 - AQ43) / 2)</f>
+        <f t="shared" ref="AU43" si="49" xml:space="preserve"> _xlfn.FLOOR.MATH((AN43 - AQ43) / 2)</f>
         <v>14</v>
       </c>
       <c r="AV43">
-        <f t="shared" ref="AV43" si="48" xml:space="preserve"> _xlfn.FLOOR.MATH((AO43 - AR43) / 2)</f>
+        <f t="shared" ref="AV43" si="50" xml:space="preserve"> _xlfn.FLOOR.MATH((AO43 - AR43) / 2)</f>
         <v>192</v>
       </c>
       <c r="AW43">
-        <f t="shared" ref="AW43" si="49" xml:space="preserve"> _xlfn.FLOOR.MATH((AP43 - AS43) / 2)</f>
+        <f t="shared" ref="AW43" si="51" xml:space="preserve"> _xlfn.FLOOR.MATH((AP43 - AS43) / 2)</f>
         <v>15</v>
       </c>
       <c r="AX43" t="s">
@@ -8767,7 +8766,7 @@
         <v>1</v>
       </c>
       <c r="U44">
-        <f t="shared" ref="U44" si="50" xml:space="preserve"> S44 + T44</f>
+        <f t="shared" ref="U44" si="52" xml:space="preserve"> S44 + T44</f>
         <v>6</v>
       </c>
       <c r="V44" t="s">
@@ -8798,7 +8797,7 @@
         <v>6085</v>
       </c>
       <c r="AF44">
-        <f>AC44+AE44</f>
+        <f t="shared" ref="AF44:AF63" si="53">AC44+AE44</f>
         <v>81052</v>
       </c>
       <c r="AG44" t="s">
@@ -8808,7 +8807,7 @@
         <v>8</v>
       </c>
       <c r="AI44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ44" s="1">
@@ -8845,15 +8844,15 @@
         <v>50</v>
       </c>
       <c r="AU44" s="1">
-        <f t="shared" ref="AU44" si="51" xml:space="preserve"> _xlfn.FLOOR.MATH((AN44 - AQ44) / 2)</f>
+        <f t="shared" ref="AU44" si="54" xml:space="preserve"> _xlfn.FLOOR.MATH((AN44 - AQ44) / 2)</f>
         <v>14</v>
       </c>
       <c r="AV44">
-        <f t="shared" ref="AV44" si="52" xml:space="preserve"> _xlfn.FLOOR.MATH((AO44 - AR44) / 2)</f>
+        <f t="shared" ref="AV44" si="55" xml:space="preserve"> _xlfn.FLOOR.MATH((AO44 - AR44) / 2)</f>
         <v>192</v>
       </c>
       <c r="AW44">
-        <f t="shared" ref="AW44" si="53" xml:space="preserve"> _xlfn.FLOOR.MATH((AP44 - AS44) / 2)</f>
+        <f t="shared" ref="AW44" si="56" xml:space="preserve"> _xlfn.FLOOR.MATH((AP44 - AS44) / 2)</f>
         <v>15</v>
       </c>
       <c r="AX44" t="s">
@@ -8937,7 +8936,7 @@
         <v>1</v>
       </c>
       <c r="U45" s="7">
-        <f t="shared" ref="U45:U63" si="54" xml:space="preserve"> S45 + T45</f>
+        <f t="shared" ref="U45:U63" si="57" xml:space="preserve"> S45 + T45</f>
         <v>6</v>
       </c>
       <c r="V45" s="7" t="s">
@@ -8968,7 +8967,7 @@
         <v>6087</v>
       </c>
       <c r="AF45" s="7">
-        <f>AC45+AE45</f>
+        <f t="shared" si="53"/>
         <v>81052</v>
       </c>
       <c r="AG45" s="7" t="s">
@@ -8978,7 +8977,7 @@
         <v>8</v>
       </c>
       <c r="AI45" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ45" s="8">
@@ -9015,15 +9014,15 @@
         <v>50</v>
       </c>
       <c r="AU45" s="8">
-        <f t="shared" ref="AU45" si="55" xml:space="preserve"> _xlfn.FLOOR.MATH((AN45 - AQ45) / 2)</f>
+        <f t="shared" ref="AU45" si="58" xml:space="preserve"> _xlfn.FLOOR.MATH((AN45 - AQ45) / 2)</f>
         <v>14</v>
       </c>
       <c r="AV45" s="7">
-        <f t="shared" ref="AV45" si="56" xml:space="preserve"> _xlfn.FLOOR.MATH((AO45 - AR45) / 2)</f>
+        <f t="shared" ref="AV45" si="59" xml:space="preserve"> _xlfn.FLOOR.MATH((AO45 - AR45) / 2)</f>
         <v>192</v>
       </c>
       <c r="AW45" s="7">
-        <f t="shared" ref="AW45" si="57" xml:space="preserve"> _xlfn.FLOOR.MATH((AP45 - AS45) / 2)</f>
+        <f t="shared" ref="AW45" si="60" xml:space="preserve"> _xlfn.FLOOR.MATH((AP45 - AS45) / 2)</f>
         <v>15</v>
       </c>
       <c r="AX45" s="7" t="s">
@@ -9101,7 +9100,7 @@
         <v>1</v>
       </c>
       <c r="U46">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>6</v>
       </c>
       <c r="V46" t="s">
@@ -9132,7 +9131,7 @@
         <v>6085</v>
       </c>
       <c r="AF46">
-        <f>AC46+AE46</f>
+        <f t="shared" si="53"/>
         <v>81052</v>
       </c>
       <c r="AG46" s="19" t="s">
@@ -9142,7 +9141,7 @@
         <v>130</v>
       </c>
       <c r="AI46">
-        <f t="shared" ref="AI46:AI63" si="58" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AQ46*AR46*AS46) * ((W46*X46 + Z46*AA46) / (3*16 + 1*8)) * (U46 / 5)</f>
+        <f t="shared" ref="AI46:AI63" si="61" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AQ46*AR46*AS46) * ((W46*X46 + Z46*AA46) / (3*16 + 1*8)) * (U46 / 5)</f>
         <v>74549.706201272769</v>
       </c>
       <c r="AJ46" s="18" t="s">
@@ -9179,15 +9178,15 @@
         <v>50</v>
       </c>
       <c r="AU46" s="1">
-        <f t="shared" ref="AU46:AU47" si="59" xml:space="preserve"> _xlfn.FLOOR.MATH((AN46 - AQ46) / 2)</f>
+        <f t="shared" ref="AU46:AU47" si="62" xml:space="preserve"> _xlfn.FLOOR.MATH((AN46 - AQ46) / 2)</f>
         <v>14</v>
       </c>
       <c r="AV46">
-        <f t="shared" ref="AV46:AV47" si="60" xml:space="preserve"> _xlfn.FLOOR.MATH((AO46 - AR46) / 2)</f>
+        <f t="shared" ref="AV46:AV47" si="63" xml:space="preserve"> _xlfn.FLOOR.MATH((AO46 - AR46) / 2)</f>
         <v>192</v>
       </c>
       <c r="AW46">
-        <f t="shared" ref="AW46:AW47" si="61" xml:space="preserve"> _xlfn.FLOOR.MATH((AP46 - AS46) / 2)</f>
+        <f t="shared" ref="AW46:AW47" si="64" xml:space="preserve"> _xlfn.FLOOR.MATH((AP46 - AS46) / 2)</f>
         <v>15</v>
       </c>
       <c r="AX46" t="s">
@@ -9265,7 +9264,7 @@
         <v>1</v>
       </c>
       <c r="U47">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>6</v>
       </c>
       <c r="V47" t="s">
@@ -9296,7 +9295,7 @@
         <v>58019</v>
       </c>
       <c r="AF47">
-        <f>AC47+AE47</f>
+        <f t="shared" si="53"/>
         <v>81052</v>
       </c>
       <c r="AG47" s="19" t="s">
@@ -9306,7 +9305,7 @@
         <v>130</v>
       </c>
       <c r="AI47">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>22708.360330151121</v>
       </c>
       <c r="AJ47" s="18" t="s">
@@ -9343,15 +9342,15 @@
         <v>50</v>
       </c>
       <c r="AU47" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>30</v>
       </c>
       <c r="AV47">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>328</v>
       </c>
       <c r="AW47">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>79</v>
       </c>
       <c r="AX47" t="s">
@@ -9429,7 +9428,7 @@
         <v>1</v>
       </c>
       <c r="U48">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>6</v>
       </c>
       <c r="V48" t="s">
@@ -9460,7 +9459,7 @@
         <v>76313</v>
       </c>
       <c r="AF48">
-        <f>AC48+AE48</f>
+        <f t="shared" si="53"/>
         <v>81052</v>
       </c>
       <c r="AG48" s="19" t="s">
@@ -9470,7 +9469,7 @@
         <v>130</v>
       </c>
       <c r="AI48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>4158.1023826571118</v>
       </c>
       <c r="AJ48" s="18" t="s">
@@ -9507,15 +9506,15 @@
         <v>50</v>
       </c>
       <c r="AU48" s="1">
-        <f t="shared" ref="AU48:AU63" si="62" xml:space="preserve"> _xlfn.FLOOR.MATH((AN48 - AQ48) / 2)</f>
+        <f t="shared" ref="AU48:AU63" si="65" xml:space="preserve"> _xlfn.FLOOR.MATH((AN48 - AQ48) / 2)</f>
         <v>46</v>
       </c>
       <c r="AV48">
-        <f t="shared" ref="AV48:AV63" si="63" xml:space="preserve"> _xlfn.FLOOR.MATH((AO48 - AR48) / 2)</f>
+        <f t="shared" ref="AV48:AV63" si="66" xml:space="preserve"> _xlfn.FLOOR.MATH((AO48 - AR48) / 2)</f>
         <v>456</v>
       </c>
       <c r="AW48">
-        <f t="shared" ref="AW48:AW63" si="64" xml:space="preserve"> _xlfn.FLOOR.MATH((AP48 - AS48) / 2)</f>
+        <f t="shared" ref="AW48:AW63" si="67" xml:space="preserve"> _xlfn.FLOOR.MATH((AP48 - AS48) / 2)</f>
         <v>143</v>
       </c>
       <c r="AX48" t="s">
@@ -9593,7 +9592,7 @@
         <v>1</v>
       </c>
       <c r="U49">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>6</v>
       </c>
       <c r="V49" t="s">
@@ -9624,7 +9623,7 @@
         <v>6199</v>
       </c>
       <c r="AF49">
-        <f>AC49+AE49</f>
+        <f t="shared" si="53"/>
         <v>81052</v>
       </c>
       <c r="AG49" s="19" t="s">
@@ -9634,7 +9633,7 @@
         <v>130</v>
       </c>
       <c r="AI49">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>53680.666010342022</v>
       </c>
       <c r="AJ49" s="18" t="s">
@@ -9671,15 +9670,15 @@
         <v>50</v>
       </c>
       <c r="AU49" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>14</v>
       </c>
       <c r="AV49">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>192</v>
       </c>
       <c r="AW49">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>15</v>
       </c>
       <c r="AX49" t="s">
@@ -9757,7 +9756,7 @@
         <v>1</v>
       </c>
       <c r="U50">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>6</v>
       </c>
       <c r="V50" t="s">
@@ -9788,7 +9787,7 @@
         <v>58053</v>
       </c>
       <c r="AF50">
-        <f>AC50+AE50</f>
+        <f t="shared" si="53"/>
         <v>81052</v>
       </c>
       <c r="AG50" s="19" t="s">
@@ -9798,7 +9797,7 @@
         <v>130</v>
       </c>
       <c r="AI50">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>16651.133245255118</v>
       </c>
       <c r="AJ50" s="18" t="s">
@@ -9835,15 +9834,15 @@
         <v>50</v>
       </c>
       <c r="AU50" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>30</v>
       </c>
       <c r="AV50">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>328</v>
       </c>
       <c r="AW50">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>79</v>
       </c>
       <c r="AX50" t="s">
@@ -9921,7 +9920,7 @@
         <v>1</v>
       </c>
       <c r="U51">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>6</v>
       </c>
       <c r="V51" t="s">
@@ -9952,7 +9951,7 @@
         <v>76325</v>
       </c>
       <c r="AF51">
-        <f>AC51+AE51</f>
+        <f t="shared" si="53"/>
         <v>81052</v>
       </c>
       <c r="AG51" s="19" t="s">
@@ -9962,7 +9961,7 @@
         <v>130</v>
       </c>
       <c r="AI51">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>3400.9489970451114</v>
       </c>
       <c r="AJ51" s="18" t="s">
@@ -9999,15 +9998,15 @@
         <v>50</v>
       </c>
       <c r="AU51" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>46</v>
       </c>
       <c r="AV51">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>456</v>
       </c>
       <c r="AW51">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>143</v>
       </c>
       <c r="AX51" t="s">
@@ -10085,7 +10084,7 @@
         <v>1</v>
       </c>
       <c r="U52">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>6</v>
       </c>
       <c r="V52" t="s">
@@ -10116,7 +10115,7 @@
         <v>6309</v>
       </c>
       <c r="AF52">
-        <f>AC52+AE52</f>
+        <f t="shared" si="53"/>
         <v>81052</v>
       </c>
       <c r="AG52" s="19" t="s">
@@ -10126,7 +10125,7 @@
         <v>130</v>
       </c>
       <c r="AI52">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>32811.625819411252</v>
       </c>
       <c r="AJ52" s="18" t="s">
@@ -10163,15 +10162,15 @@
         <v>50</v>
       </c>
       <c r="AU52" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>14</v>
       </c>
       <c r="AV52">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>192</v>
       </c>
       <c r="AW52">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>15</v>
       </c>
       <c r="AX52" t="s">
@@ -10249,7 +10248,7 @@
         <v>1</v>
       </c>
       <c r="U53">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>6</v>
       </c>
       <c r="V53" t="s">
@@ -10280,7 +10279,7 @@
         <v>58085</v>
       </c>
       <c r="AF53">
-        <f>AC53+AE53</f>
+        <f t="shared" si="53"/>
         <v>81052</v>
       </c>
       <c r="AG53" s="19" t="s">
@@ -10290,7 +10289,7 @@
         <v>130</v>
       </c>
       <c r="AI53">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>10593.906160359114</v>
       </c>
       <c r="AJ53" s="18" t="s">
@@ -10327,15 +10326,15 @@
         <v>50</v>
       </c>
       <c r="AU53" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>30</v>
       </c>
       <c r="AV53">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>328</v>
       </c>
       <c r="AW53">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>79</v>
       </c>
       <c r="AX53" t="s">
@@ -10413,7 +10412,7 @@
         <v>1</v>
       </c>
       <c r="U54">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>6</v>
       </c>
       <c r="V54" t="s">
@@ -10444,7 +10443,7 @@
         <v>76325</v>
       </c>
       <c r="AF54">
-        <f>AC54+AE54</f>
+        <f t="shared" si="53"/>
         <v>81052</v>
       </c>
       <c r="AG54" s="19" t="s">
@@ -10454,7 +10453,7 @@
         <v>130</v>
       </c>
       <c r="AI54">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>2643.7956114331109</v>
       </c>
       <c r="AJ54" s="18" t="s">
@@ -10491,15 +10490,15 @@
         <v>50</v>
       </c>
       <c r="AU54" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>46</v>
       </c>
       <c r="AV54">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>456</v>
       </c>
       <c r="AW54">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>143</v>
       </c>
       <c r="AX54" t="s">
@@ -10577,7 +10576,7 @@
         <v>1</v>
       </c>
       <c r="U55">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>6</v>
       </c>
       <c r="V55" t="s">
@@ -10608,7 +10607,7 @@
         <v>6087</v>
       </c>
       <c r="AF55">
-        <f>AC55+AE55</f>
+        <f t="shared" si="53"/>
         <v>81052</v>
       </c>
       <c r="AG55" s="19" t="s">
@@ -10618,7 +10617,7 @@
         <v>130</v>
       </c>
       <c r="AI55">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>43246.145914876637</v>
       </c>
       <c r="AJ55" s="18" t="s">
@@ -10655,15 +10654,15 @@
         <v>50</v>
       </c>
       <c r="AU55" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>14</v>
       </c>
       <c r="AV55">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>192</v>
       </c>
       <c r="AW55">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>15</v>
       </c>
       <c r="AX55" t="s">
@@ -10741,7 +10740,7 @@
         <v>1</v>
       </c>
       <c r="U56">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>6</v>
       </c>
       <c r="V56" t="s">
@@ -10772,7 +10771,7 @@
         <v>58019</v>
       </c>
       <c r="AF56">
-        <f>AC56+AE56</f>
+        <f t="shared" si="53"/>
         <v>81052</v>
       </c>
       <c r="AG56" s="19" t="s">
@@ -10782,7 +10781,7 @@
         <v>130</v>
       </c>
       <c r="AI56">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>13622.519702807114</v>
       </c>
       <c r="AJ56" s="18" t="s">
@@ -10819,15 +10818,15 @@
         <v>50</v>
       </c>
       <c r="AU56" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>30</v>
       </c>
       <c r="AV56">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>328</v>
       </c>
       <c r="AW56">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>79</v>
       </c>
       <c r="AX56" t="s">
@@ -10905,7 +10904,7 @@
         <v>1</v>
       </c>
       <c r="U57">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>6</v>
       </c>
       <c r="V57" t="s">
@@ -10936,7 +10935,7 @@
         <v>76313</v>
       </c>
       <c r="AF57">
-        <f>AC57+AE57</f>
+        <f t="shared" si="53"/>
         <v>81052</v>
       </c>
       <c r="AG57" s="19" t="s">
@@ -10946,7 +10945,7 @@
         <v>130</v>
       </c>
       <c r="AI57">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>3022.3723042391107</v>
       </c>
       <c r="AJ57" s="18" t="s">
@@ -10983,15 +10982,15 @@
         <v>50</v>
       </c>
       <c r="AU57" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>46</v>
       </c>
       <c r="AV57">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>456</v>
       </c>
       <c r="AW57">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>143</v>
       </c>
       <c r="AX57" t="s">
@@ -11069,7 +11068,7 @@
         <v>1</v>
       </c>
       <c r="U58">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>6</v>
       </c>
       <c r="V58" t="s">
@@ -11100,7 +11099,7 @@
         <v>6199</v>
       </c>
       <c r="AF58">
-        <f>AC58+AE58</f>
+        <f t="shared" si="53"/>
         <v>81052</v>
       </c>
       <c r="AG58" s="19" t="s">
@@ -11110,7 +11109,7 @@
         <v>130</v>
       </c>
       <c r="AI58">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>32811.625819411252</v>
       </c>
       <c r="AJ58" s="18" t="s">
@@ -11147,15 +11146,15 @@
         <v>50</v>
       </c>
       <c r="AU58" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>14</v>
       </c>
       <c r="AV58">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>192</v>
       </c>
       <c r="AW58">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>15</v>
       </c>
       <c r="AX58" t="s">
@@ -11233,7 +11232,7 @@
         <v>1</v>
       </c>
       <c r="U59">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>6</v>
       </c>
       <c r="V59" t="s">
@@ -11264,7 +11263,7 @@
         <v>58053</v>
       </c>
       <c r="AF59">
-        <f>AC59+AE59</f>
+        <f t="shared" si="53"/>
         <v>81052</v>
       </c>
       <c r="AG59" s="19" t="s">
@@ -11274,7 +11273,7 @@
         <v>130</v>
       </c>
       <c r="AI59">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>10593.906160359114</v>
       </c>
       <c r="AJ59" s="18" t="s">
@@ -11311,15 +11310,15 @@
         <v>50</v>
       </c>
       <c r="AU59" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>30</v>
       </c>
       <c r="AV59">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>328</v>
       </c>
       <c r="AW59">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>79</v>
       </c>
       <c r="AX59" t="s">
@@ -11397,7 +11396,7 @@
         <v>1</v>
       </c>
       <c r="U60">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>6</v>
       </c>
       <c r="V60" t="s">
@@ -11428,7 +11427,7 @@
         <v>76325</v>
       </c>
       <c r="AF60">
-        <f>AC60+AE60</f>
+        <f t="shared" si="53"/>
         <v>81052</v>
       </c>
       <c r="AG60" s="19" t="s">
@@ -11438,7 +11437,7 @@
         <v>130</v>
       </c>
       <c r="AI60">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>2643.7956114331109</v>
       </c>
       <c r="AJ60" s="18" t="s">
@@ -11475,15 +11474,15 @@
         <v>50</v>
       </c>
       <c r="AU60" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>46</v>
       </c>
       <c r="AV60">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>456</v>
       </c>
       <c r="AW60">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>143</v>
       </c>
       <c r="AX60" t="s">
@@ -11561,7 +11560,7 @@
         <v>1</v>
       </c>
       <c r="U61">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>6</v>
       </c>
       <c r="V61" t="s">
@@ -11592,7 +11591,7 @@
         <v>6309</v>
       </c>
       <c r="AF61">
-        <f>AC61+AE61</f>
+        <f t="shared" si="53"/>
         <v>81052</v>
       </c>
       <c r="AG61" s="19" t="s">
@@ -11602,7 +11601,7 @@
         <v>130</v>
       </c>
       <c r="AI61">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>22377.105723945871</v>
       </c>
       <c r="AJ61" s="18" t="s">
@@ -11639,15 +11638,15 @@
         <v>50</v>
       </c>
       <c r="AU61" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>14</v>
       </c>
       <c r="AV61">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>192</v>
       </c>
       <c r="AW61">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>15</v>
       </c>
       <c r="AX61" t="s">
@@ -11725,7 +11724,7 @@
         <v>1</v>
       </c>
       <c r="U62">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>6</v>
       </c>
       <c r="V62" t="s">
@@ -11756,7 +11755,7 @@
         <v>58085</v>
       </c>
       <c r="AF62">
-        <f>AC62+AE62</f>
+        <f t="shared" si="53"/>
         <v>81052</v>
       </c>
       <c r="AG62" s="19" t="s">
@@ -11766,7 +11765,7 @@
         <v>130</v>
       </c>
       <c r="AI62">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>7565.2926179111128</v>
       </c>
       <c r="AJ62" s="18" t="s">
@@ -11803,15 +11802,15 @@
         <v>50</v>
       </c>
       <c r="AU62" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>30</v>
       </c>
       <c r="AV62">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>328</v>
       </c>
       <c r="AW62">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>79</v>
       </c>
       <c r="AX62" t="s">
@@ -11889,7 +11888,7 @@
         <v>1</v>
       </c>
       <c r="U63">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>6</v>
       </c>
       <c r="V63" t="s">
@@ -11920,7 +11919,7 @@
         <v>76325</v>
       </c>
       <c r="AF63">
-        <f>AC63+AE63</f>
+        <f t="shared" si="53"/>
         <v>81052</v>
       </c>
       <c r="AG63" s="19" t="s">
@@ -11930,7 +11929,7 @@
         <v>130</v>
       </c>
       <c r="AI63">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>2265.2189186271103</v>
       </c>
       <c r="AJ63" s="18" t="s">
@@ -11967,15 +11966,15 @@
         <v>50</v>
       </c>
       <c r="AU63" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>46</v>
       </c>
       <c r="AV63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>456</v>
       </c>
       <c r="AW63">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>143</v>
       </c>
       <c r="AX63" t="s">
@@ -12085,7 +12084,7 @@
       <c r="AC69" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="AD69" s="23"/>
+      <c r="AD69" s="19"/>
       <c r="AE69" s="19" t="s">
         <v>130</v>
       </c>
@@ -12133,15 +12132,15 @@
         <v>130</v>
       </c>
       <c r="AU69" s="1" t="e">
-        <f t="shared" ref="AU69" si="65" xml:space="preserve"> _xlfn.FLOOR.MATH((AN69 - AQ69) / 2)</f>
+        <f t="shared" ref="AU69" si="68" xml:space="preserve"> _xlfn.FLOOR.MATH((AN69 - AQ69) / 2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AV69" t="e">
-        <f t="shared" ref="AV69" si="66" xml:space="preserve"> _xlfn.FLOOR.MATH((AO69 - AR69) / 2)</f>
+        <f t="shared" ref="AV69" si="69" xml:space="preserve"> _xlfn.FLOOR.MATH((AO69 - AR69) / 2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AW69" t="e">
-        <f t="shared" ref="AW69" si="67" xml:space="preserve"> _xlfn.FLOOR.MATH((AP69 - AS69) / 2)</f>
+        <f t="shared" ref="AW69" si="70" xml:space="preserve"> _xlfn.FLOOR.MATH((AP69 - AS69) / 2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AX69" t="s">

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\popsicle_cell\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC5B80D-D68C-440E-B476-5DAD59D3CC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4479ECC5-EA09-429F-9FA9-8AB5B7937757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="278">
   <si>
     <t>patch z</t>
   </si>
@@ -862,6 +862,15 @@
   </si>
   <si>
     <t>The val eval scores plateaud higher (by .05) but the peek was about the same. Nvidia-smi.log files were created again: Needs a `cd ~/data/cloud; bash pull-script.sh` (or just proper handling of working directory and sourced script files).</t>
+  </si>
+  <si>
+    <t>Get fluorescence segmentation to work - since autofluorescence segmentation models did reach usable predictive powers, I am switching to the classical fluo. Segm. Approach instead of the unconventional autofluorescence segmentation.</t>
+  </si>
+  <si>
+    <t>I expect, 3dunet will have a substantially easier time predicting validation targets since the tissue of interest is fluorescently marked. It might have a hard time ignoring the eyes in the heart stains but I think it will manage.</t>
+  </si>
+  <si>
+    <t>patch = arbitrary even int_2^3 as large a possible, confirmed (slightly) updated formula considered</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1031,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1050,12 +1059,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1370,63 +1387,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
-  <dimension ref="A1:BH76"/>
+  <dimension ref="A1:AZ76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="AI38" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AV65" sqref="AV65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="64.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="14.5703125" style="10" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="8.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="64.5546875" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="14.5546875" style="10" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.5546875" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="9.44140625" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
-    <col min="11" max="17" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="12.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="6.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="5.140625" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="11.140625" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="17" width="9.109375" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="12.88671875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="9.109375" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="6.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="5.109375" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="11.109375" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="6" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="14.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="7.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="8.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="15.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="7.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="9.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="16.7109375" style="10" customWidth="1"/>
-    <col min="33" max="34" width="14.85546875" customWidth="1"/>
-    <col min="35" max="35" width="68.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="26.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="14.33203125" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="7.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="8.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="15.44140625" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="7.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="9.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="16.6640625" style="10" customWidth="1"/>
+    <col min="33" max="34" width="14.88671875" customWidth="1"/>
+    <col min="35" max="35" width="21" customWidth="1"/>
+    <col min="36" max="36" width="26.33203125" customWidth="1" outlineLevel="1"/>
     <col min="37" max="37" width="6" style="10" bestFit="1" customWidth="1"/>
     <col min="38" max="39" width="6" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.28515625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="6.140625" customWidth="1"/>
+    <col min="40" max="40" width="5.33203125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="6.109375" customWidth="1"/>
     <col min="42" max="43" width="5" customWidth="1"/>
-    <col min="44" max="44" width="6.140625" style="1" customWidth="1"/>
-    <col min="45" max="45" width="6.5703125" customWidth="1"/>
+    <col min="44" max="44" width="6.109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="6.5546875" customWidth="1"/>
     <col min="46" max="46" width="5" customWidth="1"/>
     <col min="47" max="47" width="6" customWidth="1"/>
-    <col min="48" max="48" width="74.85546875" style="10" customWidth="1" outlineLevel="1"/>
-    <col min="49" max="49" width="74.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="50" max="50" width="5.140625" customWidth="1"/>
-    <col min="51" max="51" width="73.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="48" width="74.88671875" style="10" customWidth="1" outlineLevel="1"/>
+    <col min="49" max="49" width="74.44140625" customWidth="1" outlineLevel="1"/>
+    <col min="50" max="50" width="5.109375" customWidth="1"/>
+    <col min="51" max="51" width="73.88671875" customWidth="1" outlineLevel="1"/>
     <col min="52" max="52" width="206" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.7109375" customWidth="1"/>
-    <col min="57" max="57" width="12.140625" customWidth="1"/>
+    <col min="53" max="53" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.6640625" customWidth="1"/>
+    <col min="57" max="57" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
@@ -1584,7 +1601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -1694,7 +1711,7 @@
       <c r="AJ2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AK2" s="24">
+      <c r="AK2" s="23">
         <v>125</v>
       </c>
       <c r="AL2" s="21">
@@ -1715,7 +1732,7 @@
       <c r="AQ2" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="AR2" s="26">
+      <c r="AR2" s="25">
         <v>32</v>
       </c>
       <c r="AS2" s="21">
@@ -1727,7 +1744,7 @@
       <c r="AU2" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="AV2" s="24" t="s">
+      <c r="AV2" s="23" t="s">
         <v>271</v>
       </c>
       <c r="AW2" s="21" t="s">
@@ -1743,7 +1760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -1854,7 +1871,7 @@
       <c r="AJ3" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="AK3" s="24">
+      <c r="AK3" s="23">
         <v>125</v>
       </c>
       <c r="AL3" s="21">
@@ -1863,7 +1880,7 @@
       <c r="AM3" s="21">
         <v>414</v>
       </c>
-      <c r="AN3" s="26">
+      <c r="AN3" s="25">
         <v>64</v>
       </c>
       <c r="AO3" s="21">
@@ -1875,7 +1892,7 @@
       <c r="AQ3" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="AR3" s="26">
+      <c r="AR3" s="25">
         <v>32</v>
       </c>
       <c r="AS3" s="21">
@@ -1887,7 +1904,7 @@
       <c r="AU3" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="AV3" s="24" t="s">
+      <c r="AV3" s="23" t="s">
         <v>271</v>
       </c>
       <c r="AW3" s="21" t="s">
@@ -1903,7 +1920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:52" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>55</v>
       </c>
@@ -2001,55 +2018,55 @@
       <c r="AF4" s="13">
         <v>-1</v>
       </c>
-      <c r="AG4" s="25">
+      <c r="AG4" s="24">
         <v>-1</v>
       </c>
       <c r="AH4" s="12">
         <v>32500</v>
       </c>
-      <c r="AI4" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ4" s="25" t="s">
+      <c r="AI4" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ4" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="AK4" s="27">
+      <c r="AK4" s="26">
         <v>125</v>
       </c>
-      <c r="AL4" s="25">
+      <c r="AL4" s="24">
         <v>1169</v>
       </c>
-      <c r="AM4" s="25">
+      <c r="AM4" s="24">
         <v>414</v>
       </c>
-      <c r="AN4" s="28">
+      <c r="AN4" s="27">
         <v>105</v>
       </c>
-      <c r="AO4" s="25">
+      <c r="AO4" s="24">
         <v>1149</v>
       </c>
-      <c r="AP4" s="25">
+      <c r="AP4" s="24">
         <v>394</v>
       </c>
-      <c r="AQ4" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR4" s="28">
+      <c r="AQ4" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR4" s="27">
         <v>10</v>
       </c>
-      <c r="AS4" s="25">
+      <c r="AS4" s="24">
         <v>10</v>
       </c>
-      <c r="AT4" s="25">
+      <c r="AT4" s="24">
         <v>10</v>
       </c>
-      <c r="AU4" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV4" s="27" t="s">
+      <c r="AU4" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="AW4" s="25" t="s">
+      <c r="AW4" s="24" t="s">
         <v>15</v>
       </c>
       <c r="AX4" s="12">
@@ -2062,7 +2079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2105,7 +2122,7 @@
       <c r="N5" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" t="s">
         <v>8</v>
       </c>
       <c r="P5" t="s">
@@ -2205,7 +2222,7 @@
       <c r="AU5" t="s">
         <v>49</v>
       </c>
-      <c r="AV5" s="24" t="s">
+      <c r="AV5" s="23" t="s">
         <v>24</v>
       </c>
       <c r="AW5" s="21" t="s">
@@ -2221,7 +2238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2380,7 +2397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2539,7 +2556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2698,7 +2715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2863,7 +2880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -3022,7 +3039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3181,7 +3198,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -3341,7 +3358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -3500,7 +3517,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -3659,7 +3676,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -3761,7 +3778,7 @@
         <v>18657</v>
       </c>
       <c r="AH15">
-        <f>AF15+AG15</f>
+        <f t="shared" ref="AH15:AH24" si="1">AF15+AG15</f>
         <v>32500</v>
       </c>
       <c r="AI15" t="s">
@@ -3819,7 +3836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
@@ -3921,7 +3938,7 @@
         <v>18657</v>
       </c>
       <c r="AH16" s="7">
-        <f>AF16+AG16</f>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
       <c r="AI16" s="7" t="s">
@@ -3979,7 +3996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -4081,7 +4098,7 @@
         <v>22365</v>
       </c>
       <c r="AH17">
-        <f>AF17+AG17</f>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
       <c r="AI17" t="s">
@@ -4139,7 +4156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -4241,7 +4258,7 @@
         <v>22365</v>
       </c>
       <c r="AH18">
-        <f>AF18+AG18</f>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
       <c r="AI18" t="s">
@@ -4299,7 +4316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -4401,7 +4418,7 @@
         <v>21501</v>
       </c>
       <c r="AH19">
-        <f>AF19+AG19</f>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
       <c r="AI19" t="s">
@@ -4459,7 +4476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -4561,7 +4578,7 @@
         <v>20657</v>
       </c>
       <c r="AH20">
-        <f>AF20+AG20</f>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
       <c r="AI20" t="s">
@@ -4619,7 +4636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -4721,7 +4738,7 @@
         <v>22027</v>
       </c>
       <c r="AH21">
-        <f>AF21+AG21</f>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
       <c r="AI21" t="s">
@@ -4779,7 +4796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -4881,7 +4898,7 @@
         <v>21675</v>
       </c>
       <c r="AH22">
-        <f>AF22+AG22</f>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
       <c r="AI22" t="s">
@@ -4939,7 +4956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -5041,7 +5058,7 @@
         <v>20183</v>
       </c>
       <c r="AH23">
-        <f>AF23+AG23</f>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
       <c r="AI23" t="s">
@@ -5099,7 +5116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -5201,7 +5218,7 @@
         <v>18057</v>
       </c>
       <c r="AH24">
-        <f>AF24+AG24</f>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
       <c r="AI24" t="s">
@@ -5259,7 +5276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -5417,7 +5434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>104</v>
       </c>
@@ -5575,7 +5592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -5646,7 +5663,7 @@
         <v>2</v>
       </c>
       <c r="X27">
-        <f t="shared" ref="X27:X34" si="1" xml:space="preserve"> V27 + W27</f>
+        <f t="shared" ref="X27:X34" si="2" xml:space="preserve"> V27 + W27</f>
         <v>5</v>
       </c>
       <c r="Y27" t="s">
@@ -5670,7 +5687,7 @@
       <c r="AE27" t="s">
         <v>101</v>
       </c>
-      <c r="AF27" s="24">
+      <c r="AF27" s="23">
         <v>80545</v>
       </c>
       <c r="AG27" s="21">
@@ -5681,7 +5698,7 @@
         <v>81052</v>
       </c>
       <c r="AI27">
-        <f t="shared" ref="AI27" si="2" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN27*AO27*AP27)</f>
+        <f t="shared" ref="AI27" si="3" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN27*AO27*AP27)</f>
         <v>83027.753778838392</v>
       </c>
       <c r="AJ27" t="s">
@@ -5709,15 +5726,15 @@
         <v>49</v>
       </c>
       <c r="AR27" s="1">
-        <f t="shared" ref="AR27:AR34" si="3" xml:space="preserve"> _xlfn.FLOOR.MATH((AK27 - AN27) / 2)</f>
+        <f t="shared" ref="AR27:AR34" si="4" xml:space="preserve"> _xlfn.FLOOR.MATH((AK27 - AN27) / 2)</f>
         <v>6</v>
       </c>
       <c r="AS27">
-        <f t="shared" ref="AS27" si="4" xml:space="preserve"> _xlfn.FLOOR.MATH((AL27 - AO27) / 2)</f>
+        <f t="shared" ref="AS27" si="5" xml:space="preserve"> _xlfn.FLOOR.MATH((AL27 - AO27) / 2)</f>
         <v>152</v>
       </c>
       <c r="AT27">
-        <f t="shared" ref="AT27" si="5" xml:space="preserve"> _xlfn.FLOOR.MATH((AM27 - AP27) / 2)</f>
+        <f t="shared" ref="AT27" si="6" xml:space="preserve"> _xlfn.FLOOR.MATH((AM27 - AP27) / 2)</f>
         <v>7</v>
       </c>
       <c r="AU27" t="s">
@@ -5739,7 +5756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>109</v>
       </c>
@@ -5810,7 +5827,7 @@
         <v>2</v>
       </c>
       <c r="X28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="Y28" t="s">
@@ -5834,7 +5851,7 @@
       <c r="AE28" t="s">
         <v>101</v>
       </c>
-      <c r="AF28" s="24">
+      <c r="AF28" s="23">
         <v>-1</v>
       </c>
       <c r="AG28" s="21">
@@ -5844,7 +5861,7 @@
         <v>81052</v>
       </c>
       <c r="AI28">
-        <f t="shared" ref="AI28:AI33" si="6" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN28*AO28*AP28)</f>
+        <f t="shared" ref="AI28:AI33" si="7" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN28*AO28*AP28)</f>
         <v>81518.129922434266</v>
       </c>
       <c r="AJ28" t="s">
@@ -5872,15 +5889,15 @@
         <v>49</v>
       </c>
       <c r="AR28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AS28">
-        <f t="shared" ref="AS28" si="7" xml:space="preserve"> _xlfn.FLOOR.MATH((AL28 - AO28) / 2)</f>
+        <f t="shared" ref="AS28" si="8" xml:space="preserve"> _xlfn.FLOOR.MATH((AL28 - AO28) / 2)</f>
         <v>160</v>
       </c>
       <c r="AT28">
-        <f t="shared" ref="AT28" si="8" xml:space="preserve"> _xlfn.FLOOR.MATH((AM28 - AP28) / 2)</f>
+        <f t="shared" ref="AT28" si="9" xml:space="preserve"> _xlfn.FLOOR.MATH((AM28 - AP28) / 2)</f>
         <v>7</v>
       </c>
       <c r="AU28" t="s">
@@ -5902,7 +5919,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -5973,7 +5990,7 @@
         <v>2</v>
       </c>
       <c r="X29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="Y29" t="s">
@@ -5997,7 +6014,7 @@
       <c r="AE29" t="s">
         <v>101</v>
       </c>
-      <c r="AF29" s="24">
+      <c r="AF29" s="23">
         <v>78019</v>
       </c>
       <c r="AG29" s="21">
@@ -6008,7 +6025,7 @@
         <v>81052</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>76989.258353221856</v>
       </c>
       <c r="AJ29" t="s">
@@ -6036,15 +6053,15 @@
         <v>49</v>
       </c>
       <c r="AR29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AS29">
-        <f t="shared" ref="AS29" si="9" xml:space="preserve"> _xlfn.FLOOR.MATH((AL29 - AO29) / 2)</f>
+        <f t="shared" ref="AS29" si="10" xml:space="preserve"> _xlfn.FLOOR.MATH((AL29 - AO29) / 2)</f>
         <v>184</v>
       </c>
       <c r="AT29">
-        <f t="shared" ref="AT29" si="10" xml:space="preserve"> _xlfn.FLOOR.MATH((AM29 - AP29) / 2)</f>
+        <f t="shared" ref="AT29" si="11" xml:space="preserve"> _xlfn.FLOOR.MATH((AM29 - AP29) / 2)</f>
         <v>7</v>
       </c>
       <c r="AU29" t="s">
@@ -6066,7 +6083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>148</v>
       </c>
@@ -6137,7 +6154,7 @@
         <v>2</v>
       </c>
       <c r="X30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="Y30" t="s">
@@ -6161,7 +6178,7 @@
       <c r="AE30" t="s">
         <v>101</v>
       </c>
-      <c r="AF30" s="24">
+      <c r="AF30" s="23">
         <v>78019</v>
       </c>
       <c r="AG30" s="21">
@@ -6172,7 +6189,7 @@
         <v>81052</v>
       </c>
       <c r="AI30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>76989.258353221856</v>
       </c>
       <c r="AJ30" s="15" t="s">
@@ -6200,15 +6217,15 @@
         <v>49</v>
       </c>
       <c r="AR30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AS30">
-        <f t="shared" ref="AS30:AS34" si="11" xml:space="preserve"> _xlfn.FLOOR.MATH((AL30 - AO30) / 2)</f>
+        <f t="shared" ref="AS30:AS34" si="12" xml:space="preserve"> _xlfn.FLOOR.MATH((AL30 - AO30) / 2)</f>
         <v>184</v>
       </c>
       <c r="AT30">
-        <f t="shared" ref="AT30:AT34" si="12" xml:space="preserve"> _xlfn.FLOOR.MATH((AM30 - AP30) / 2)</f>
+        <f t="shared" ref="AT30:AT34" si="13" xml:space="preserve"> _xlfn.FLOOR.MATH((AM30 - AP30) / 2)</f>
         <v>7</v>
       </c>
       <c r="AU30" t="s">
@@ -6230,7 +6247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>152</v>
       </c>
@@ -6301,7 +6318,7 @@
         <v>2</v>
       </c>
       <c r="X31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="Y31" t="s">
@@ -6325,7 +6342,7 @@
       <c r="AE31" t="s">
         <v>101</v>
       </c>
-      <c r="AF31" s="24">
+      <c r="AF31" s="23">
         <v>78019</v>
       </c>
       <c r="AG31" s="21">
@@ -6336,7 +6353,7 @@
         <v>81052</v>
       </c>
       <c r="AI31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>76989.258353221856</v>
       </c>
       <c r="AJ31" t="s">
@@ -6364,15 +6381,15 @@
         <v>49</v>
       </c>
       <c r="AR31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AS31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>184</v>
       </c>
       <c r="AT31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="AU31" t="s">
@@ -6394,7 +6411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>159</v>
       </c>
@@ -6465,7 +6482,7 @@
         <v>2</v>
       </c>
       <c r="X32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="Y32" t="s">
@@ -6489,7 +6506,7 @@
       <c r="AE32" t="s">
         <v>101</v>
       </c>
-      <c r="AF32" s="24" t="s">
+      <c r="AF32" s="23" t="s">
         <v>8</v>
       </c>
       <c r="AG32" s="21" t="s">
@@ -6499,7 +6516,7 @@
         <v>81052</v>
       </c>
       <c r="AI32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>76989.258353221856</v>
       </c>
       <c r="AJ32" t="s">
@@ -6527,15 +6544,15 @@
         <v>49</v>
       </c>
       <c r="AR32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AS32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>184</v>
       </c>
       <c r="AT32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="AU32" t="s">
@@ -6557,7 +6574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>172</v>
       </c>
@@ -6628,7 +6645,7 @@
         <v>1</v>
       </c>
       <c r="X33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="Y33" t="s">
@@ -6662,7 +6679,7 @@
         <v>81052</v>
       </c>
       <c r="AI33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>76989.258353221856</v>
       </c>
       <c r="AJ33" t="s">
@@ -6690,15 +6707,15 @@
         <v>49</v>
       </c>
       <c r="AR33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AS33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>184</v>
       </c>
       <c r="AT33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="AU33" t="s">
@@ -6720,7 +6737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>173</v>
       </c>
@@ -6791,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="X34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="Y34" t="s">
@@ -6853,15 +6870,15 @@
         <v>49</v>
       </c>
       <c r="AR34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="AS34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>192</v>
       </c>
       <c r="AT34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="AU34" t="s">
@@ -6883,7 +6900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>182</v>
       </c>
@@ -6954,7 +6971,7 @@
         <v>1</v>
       </c>
       <c r="X35">
-        <f t="shared" ref="X35" si="13" xml:space="preserve"> V35 + W35</f>
+        <f t="shared" ref="X35" si="14" xml:space="preserve"> V35 + W35</f>
         <v>6</v>
       </c>
       <c r="Y35" t="s">
@@ -7016,15 +7033,15 @@
         <v>49</v>
       </c>
       <c r="AR35" s="1">
-        <f t="shared" ref="AR35" si="14" xml:space="preserve"> _xlfn.FLOOR.MATH((AK35 - AN35) / 2)</f>
+        <f t="shared" ref="AR35" si="15" xml:space="preserve"> _xlfn.FLOOR.MATH((AK35 - AN35) / 2)</f>
         <v>13</v>
       </c>
       <c r="AS35">
-        <f t="shared" ref="AS35" si="15" xml:space="preserve"> _xlfn.FLOOR.MATH((AL35 - AO35) / 2)</f>
+        <f t="shared" ref="AS35" si="16" xml:space="preserve"> _xlfn.FLOOR.MATH((AL35 - AO35) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT35">
-        <f t="shared" ref="AT35" si="16" xml:space="preserve"> _xlfn.FLOOR.MATH((AM35 - AP35) / 2)</f>
+        <f t="shared" ref="AT35" si="17" xml:space="preserve"> _xlfn.FLOOR.MATH((AM35 - AP35) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU35" t="s">
@@ -7046,7 +7063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>187</v>
       </c>
@@ -7117,7 +7134,7 @@
         <v>1</v>
       </c>
       <c r="X36">
-        <f t="shared" ref="X36" si="17" xml:space="preserve"> V36 + W36</f>
+        <f t="shared" ref="X36" si="18" xml:space="preserve"> V36 + W36</f>
         <v>6</v>
       </c>
       <c r="Y36" t="s">
@@ -7179,15 +7196,15 @@
         <v>49</v>
       </c>
       <c r="AR36" s="1">
-        <f t="shared" ref="AR36" si="18" xml:space="preserve"> _xlfn.FLOOR.MATH((AK36 - AN36) / 2)</f>
+        <f t="shared" ref="AR36" si="19" xml:space="preserve"> _xlfn.FLOOR.MATH((AK36 - AN36) / 2)</f>
         <v>13</v>
       </c>
       <c r="AS36">
-        <f t="shared" ref="AS36" si="19" xml:space="preserve"> _xlfn.FLOOR.MATH((AL36 - AO36) / 2)</f>
+        <f t="shared" ref="AS36" si="20" xml:space="preserve"> _xlfn.FLOOR.MATH((AL36 - AO36) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT36">
-        <f t="shared" ref="AT36" si="20" xml:space="preserve"> _xlfn.FLOOR.MATH((AM36 - AP36) / 2)</f>
+        <f t="shared" ref="AT36" si="21" xml:space="preserve"> _xlfn.FLOOR.MATH((AM36 - AP36) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU36" t="s">
@@ -7209,7 +7226,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>190</v>
       </c>
@@ -7280,7 +7297,7 @@
         <v>1</v>
       </c>
       <c r="X37">
-        <f t="shared" ref="X37" si="21" xml:space="preserve"> V37 + W37</f>
+        <f t="shared" ref="X37" si="22" xml:space="preserve"> V37 + W37</f>
         <v>6</v>
       </c>
       <c r="Y37" t="s">
@@ -7342,15 +7359,15 @@
         <v>49</v>
       </c>
       <c r="AR37" s="1">
-        <f t="shared" ref="AR37" si="22" xml:space="preserve"> _xlfn.FLOOR.MATH((AK37 - AN37) / 2)</f>
+        <f t="shared" ref="AR37" si="23" xml:space="preserve"> _xlfn.FLOOR.MATH((AK37 - AN37) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS37">
-        <f t="shared" ref="AS37" si="23" xml:space="preserve"> _xlfn.FLOOR.MATH((AL37 - AO37) / 2)</f>
+        <f t="shared" ref="AS37" si="24" xml:space="preserve"> _xlfn.FLOOR.MATH((AL37 - AO37) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT37">
-        <f t="shared" ref="AT37" si="24" xml:space="preserve"> _xlfn.FLOOR.MATH((AM37 - AP37) / 2)</f>
+        <f t="shared" ref="AT37" si="25" xml:space="preserve"> _xlfn.FLOOR.MATH((AM37 - AP37) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU37" t="s">
@@ -7372,7 +7389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>195</v>
       </c>
@@ -7443,7 +7460,7 @@
         <v>1</v>
       </c>
       <c r="X38">
-        <f t="shared" ref="X38" si="25" xml:space="preserve"> V38 + W38</f>
+        <f t="shared" ref="X38" si="26" xml:space="preserve"> V38 + W38</f>
         <v>6</v>
       </c>
       <c r="Y38" t="s">
@@ -7505,15 +7522,15 @@
         <v>49</v>
       </c>
       <c r="AR38" s="1">
-        <f t="shared" ref="AR38" si="26" xml:space="preserve"> _xlfn.FLOOR.MATH((AK38 - AN38) / 2)</f>
+        <f t="shared" ref="AR38" si="27" xml:space="preserve"> _xlfn.FLOOR.MATH((AK38 - AN38) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS38">
-        <f t="shared" ref="AS38" si="27" xml:space="preserve"> _xlfn.FLOOR.MATH((AL38 - AO38) / 2)</f>
+        <f t="shared" ref="AS38" si="28" xml:space="preserve"> _xlfn.FLOOR.MATH((AL38 - AO38) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT38">
-        <f t="shared" ref="AT38" si="28" xml:space="preserve"> _xlfn.FLOOR.MATH((AM38 - AP38) / 2)</f>
+        <f t="shared" ref="AT38" si="29" xml:space="preserve"> _xlfn.FLOOR.MATH((AM38 - AP38) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU38" t="s">
@@ -7535,7 +7552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>198</v>
       </c>
@@ -7606,7 +7623,7 @@
         <v>1</v>
       </c>
       <c r="X39">
-        <f t="shared" ref="X39" si="29" xml:space="preserve"> V39 + W39</f>
+        <f t="shared" ref="X39" si="30" xml:space="preserve"> V39 + W39</f>
         <v>6</v>
       </c>
       <c r="Y39" t="s">
@@ -7668,15 +7685,15 @@
         <v>49</v>
       </c>
       <c r="AR39" s="1">
-        <f t="shared" ref="AR39" si="30" xml:space="preserve"> _xlfn.FLOOR.MATH((AK39 - AN39) / 2)</f>
+        <f t="shared" ref="AR39" si="31" xml:space="preserve"> _xlfn.FLOOR.MATH((AK39 - AN39) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS39">
-        <f t="shared" ref="AS39" si="31" xml:space="preserve"> _xlfn.FLOOR.MATH((AL39 - AO39) / 2)</f>
+        <f t="shared" ref="AS39" si="32" xml:space="preserve"> _xlfn.FLOOR.MATH((AL39 - AO39) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT39">
-        <f t="shared" ref="AT39" si="32" xml:space="preserve"> _xlfn.FLOOR.MATH((AM39 - AP39) / 2)</f>
+        <f t="shared" ref="AT39" si="33" xml:space="preserve"> _xlfn.FLOOR.MATH((AM39 - AP39) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU39" t="s">
@@ -7698,7 +7715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>202</v>
       </c>
@@ -7769,7 +7786,7 @@
         <v>1</v>
       </c>
       <c r="X40">
-        <f t="shared" ref="X40" si="33" xml:space="preserve"> V40 + W40</f>
+        <f t="shared" ref="X40" si="34" xml:space="preserve"> V40 + W40</f>
         <v>6</v>
       </c>
       <c r="Y40" t="s">
@@ -7831,15 +7848,15 @@
         <v>49</v>
       </c>
       <c r="AR40" s="1">
-        <f t="shared" ref="AR40" si="34" xml:space="preserve"> _xlfn.FLOOR.MATH((AK40 - AN40) / 2)</f>
+        <f t="shared" ref="AR40" si="35" xml:space="preserve"> _xlfn.FLOOR.MATH((AK40 - AN40) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS40">
-        <f t="shared" ref="AS40" si="35" xml:space="preserve"> _xlfn.FLOOR.MATH((AL40 - AO40) / 2)</f>
+        <f t="shared" ref="AS40" si="36" xml:space="preserve"> _xlfn.FLOOR.MATH((AL40 - AO40) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT40">
-        <f t="shared" ref="AT40" si="36" xml:space="preserve"> _xlfn.FLOOR.MATH((AM40 - AP40) / 2)</f>
+        <f t="shared" ref="AT40" si="37" xml:space="preserve"> _xlfn.FLOOR.MATH((AM40 - AP40) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU40" t="s">
@@ -7861,7 +7878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>203</v>
       </c>
@@ -7932,7 +7949,7 @@
         <v>1</v>
       </c>
       <c r="X41">
-        <f t="shared" ref="X41" si="37" xml:space="preserve"> V41 + W41</f>
+        <f t="shared" ref="X41" si="38" xml:space="preserve"> V41 + W41</f>
         <v>6</v>
       </c>
       <c r="Y41" t="s">
@@ -7994,15 +8011,15 @@
         <v>49</v>
       </c>
       <c r="AR41" s="1">
-        <f t="shared" ref="AR41" si="38" xml:space="preserve"> _xlfn.FLOOR.MATH((AK41 - AN41) / 2)</f>
+        <f t="shared" ref="AR41" si="39" xml:space="preserve"> _xlfn.FLOOR.MATH((AK41 - AN41) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS41">
-        <f t="shared" ref="AS41" si="39" xml:space="preserve"> _xlfn.FLOOR.MATH((AL41 - AO41) / 2)</f>
+        <f t="shared" ref="AS41" si="40" xml:space="preserve"> _xlfn.FLOOR.MATH((AL41 - AO41) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT41">
-        <f t="shared" ref="AT41" si="40" xml:space="preserve"> _xlfn.FLOOR.MATH((AM41 - AP41) / 2)</f>
+        <f t="shared" ref="AT41" si="41" xml:space="preserve"> _xlfn.FLOOR.MATH((AM41 - AP41) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU41" t="s">
@@ -8024,7 +8041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>205</v>
       </c>
@@ -8095,7 +8112,7 @@
         <v>1</v>
       </c>
       <c r="X42">
-        <f t="shared" ref="X42" si="41" xml:space="preserve"> V42 + W42</f>
+        <f t="shared" ref="X42" si="42" xml:space="preserve"> V42 + W42</f>
         <v>6</v>
       </c>
       <c r="Y42" t="s">
@@ -8157,15 +8174,15 @@
         <v>49</v>
       </c>
       <c r="AR42" s="1">
-        <f t="shared" ref="AR42" si="42" xml:space="preserve"> _xlfn.FLOOR.MATH((AK42 - AN42) / 2)</f>
+        <f t="shared" ref="AR42" si="43" xml:space="preserve"> _xlfn.FLOOR.MATH((AK42 - AN42) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS42">
-        <f t="shared" ref="AS42" si="43" xml:space="preserve"> _xlfn.FLOOR.MATH((AL42 - AO42) / 2)</f>
+        <f t="shared" ref="AS42" si="44" xml:space="preserve"> _xlfn.FLOOR.MATH((AL42 - AO42) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT42">
-        <f t="shared" ref="AT42" si="44" xml:space="preserve"> _xlfn.FLOOR.MATH((AM42 - AP42) / 2)</f>
+        <f t="shared" ref="AT42" si="45" xml:space="preserve"> _xlfn.FLOOR.MATH((AM42 - AP42) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU42" t="s">
@@ -8187,7 +8204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>208</v>
       </c>
@@ -8258,7 +8275,7 @@
         <v>1</v>
       </c>
       <c r="X43">
-        <f t="shared" ref="X43" si="45" xml:space="preserve"> V43 + W43</f>
+        <f t="shared" ref="X43" si="46" xml:space="preserve"> V43 + W43</f>
         <v>6</v>
       </c>
       <c r="Y43" t="s">
@@ -8320,15 +8337,15 @@
         <v>49</v>
       </c>
       <c r="AR43" s="1">
-        <f t="shared" ref="AR43" si="46" xml:space="preserve"> _xlfn.FLOOR.MATH((AK43 - AN43) / 2)</f>
+        <f t="shared" ref="AR43" si="47" xml:space="preserve"> _xlfn.FLOOR.MATH((AK43 - AN43) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS43">
-        <f t="shared" ref="AS43" si="47" xml:space="preserve"> _xlfn.FLOOR.MATH((AL43 - AO43) / 2)</f>
+        <f t="shared" ref="AS43" si="48" xml:space="preserve"> _xlfn.FLOOR.MATH((AL43 - AO43) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT43">
-        <f t="shared" ref="AT43" si="48" xml:space="preserve"> _xlfn.FLOOR.MATH((AM43 - AP43) / 2)</f>
+        <f t="shared" ref="AT43" si="49" xml:space="preserve"> _xlfn.FLOOR.MATH((AM43 - AP43) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU43" t="s">
@@ -8350,7 +8367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>209</v>
       </c>
@@ -8415,7 +8432,7 @@
         <v>1</v>
       </c>
       <c r="X44">
-        <f t="shared" ref="X44" si="49" xml:space="preserve"> V44 + W44</f>
+        <f t="shared" ref="X44" si="50" xml:space="preserve"> V44 + W44</f>
         <v>6</v>
       </c>
       <c r="Y44" t="s">
@@ -8446,7 +8463,7 @@
         <v>6085</v>
       </c>
       <c r="AH44">
-        <f>AF44+AG44</f>
+        <f t="shared" ref="AH44:AH63" si="51">AF44+AG44</f>
         <v>81052</v>
       </c>
       <c r="AI44">
@@ -8478,15 +8495,15 @@
         <v>49</v>
       </c>
       <c r="AR44" s="1">
-        <f t="shared" ref="AR44" si="50" xml:space="preserve"> _xlfn.FLOOR.MATH((AK44 - AN44) / 2)</f>
+        <f t="shared" ref="AR44" si="52" xml:space="preserve"> _xlfn.FLOOR.MATH((AK44 - AN44) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS44">
-        <f t="shared" ref="AS44" si="51" xml:space="preserve"> _xlfn.FLOOR.MATH((AL44 - AO44) / 2)</f>
+        <f t="shared" ref="AS44" si="53" xml:space="preserve"> _xlfn.FLOOR.MATH((AL44 - AO44) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT44">
-        <f t="shared" ref="AT44" si="52" xml:space="preserve"> _xlfn.FLOOR.MATH((AM44 - AP44) / 2)</f>
+        <f t="shared" ref="AT44" si="54" xml:space="preserve"> _xlfn.FLOOR.MATH((AM44 - AP44) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU44" t="s">
@@ -8508,7 +8525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>210</v>
       </c>
@@ -8573,7 +8590,7 @@
         <v>1</v>
       </c>
       <c r="X45" s="7">
-        <f t="shared" ref="X45:X63" si="53" xml:space="preserve"> V45 + W45</f>
+        <f t="shared" ref="X45:X63" si="55" xml:space="preserve"> V45 + W45</f>
         <v>6</v>
       </c>
       <c r="Y45" s="7" t="s">
@@ -8604,7 +8621,7 @@
         <v>6087</v>
       </c>
       <c r="AH45" s="7">
-        <f>AF45+AG45</f>
+        <f t="shared" si="51"/>
         <v>81052</v>
       </c>
       <c r="AI45" s="7">
@@ -8636,15 +8653,15 @@
         <v>49</v>
       </c>
       <c r="AR45" s="8">
-        <f t="shared" ref="AR45" si="54" xml:space="preserve"> _xlfn.FLOOR.MATH((AK45 - AN45) / 2)</f>
+        <f t="shared" ref="AR45" si="56" xml:space="preserve"> _xlfn.FLOOR.MATH((AK45 - AN45) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS45" s="7">
-        <f t="shared" ref="AS45" si="55" xml:space="preserve"> _xlfn.FLOOR.MATH((AL45 - AO45) / 2)</f>
+        <f t="shared" ref="AS45" si="57" xml:space="preserve"> _xlfn.FLOOR.MATH((AL45 - AO45) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT45" s="7">
-        <f t="shared" ref="AT45" si="56" xml:space="preserve"> _xlfn.FLOOR.MATH((AM45 - AP45) / 2)</f>
+        <f t="shared" ref="AT45" si="58" xml:space="preserve"> _xlfn.FLOOR.MATH((AM45 - AP45) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU45" s="7" t="s">
@@ -8666,7 +8683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>243</v>
       </c>
@@ -8676,7 +8693,7 @@
       <c r="C46" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="F46" s="24">
+      <c r="F46" s="23">
         <v>0</v>
       </c>
       <c r="G46" s="21">
@@ -8731,7 +8748,7 @@
         <v>1</v>
       </c>
       <c r="X46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>6</v>
       </c>
       <c r="Y46" t="s">
@@ -8762,7 +8779,7 @@
         <v>6085</v>
       </c>
       <c r="AH46">
-        <f>AF46+AG46</f>
+        <f t="shared" si="51"/>
         <v>81052</v>
       </c>
       <c r="AI46">
@@ -8794,15 +8811,15 @@
         <v>49</v>
       </c>
       <c r="AR46" s="1">
-        <f t="shared" ref="AR46:AR47" si="57" xml:space="preserve"> _xlfn.FLOOR.MATH((AK46 - AN46) / 2)</f>
+        <f t="shared" ref="AR46:AR47" si="59" xml:space="preserve"> _xlfn.FLOOR.MATH((AK46 - AN46) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS46">
-        <f t="shared" ref="AS46:AS47" si="58" xml:space="preserve"> _xlfn.FLOOR.MATH((AL46 - AO46) / 2)</f>
+        <f t="shared" ref="AS46:AS47" si="60" xml:space="preserve"> _xlfn.FLOOR.MATH((AL46 - AO46) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT46">
-        <f t="shared" ref="AT46:AT47" si="59" xml:space="preserve"> _xlfn.FLOOR.MATH((AM46 - AP46) / 2)</f>
+        <f t="shared" ref="AT46:AT47" si="61" xml:space="preserve"> _xlfn.FLOOR.MATH((AM46 - AP46) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU46" t="s">
@@ -8824,7 +8841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
         <v>244</v>
       </c>
@@ -8834,7 +8851,7 @@
       <c r="C47" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="F47" s="24">
+      <c r="F47" s="23">
         <v>0</v>
       </c>
       <c r="G47" s="21">
@@ -8889,7 +8906,7 @@
         <v>1</v>
       </c>
       <c r="X47">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>6</v>
       </c>
       <c r="Y47" t="s">
@@ -8920,7 +8937,7 @@
         <v>58019</v>
       </c>
       <c r="AH47">
-        <f>AF47+AG47</f>
+        <f t="shared" si="51"/>
         <v>81052</v>
       </c>
       <c r="AI47">
@@ -8952,15 +8969,15 @@
         <v>49</v>
       </c>
       <c r="AR47" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>30</v>
       </c>
       <c r="AS47">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>328</v>
       </c>
       <c r="AT47">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>79</v>
       </c>
       <c r="AU47" t="s">
@@ -8982,7 +8999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>245</v>
       </c>
@@ -8992,7 +9009,7 @@
       <c r="C48" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="F48" s="24">
+      <c r="F48" s="23">
         <v>0</v>
       </c>
       <c r="G48" s="21">
@@ -9047,7 +9064,7 @@
         <v>1</v>
       </c>
       <c r="X48">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>6</v>
       </c>
       <c r="Y48" t="s">
@@ -9078,7 +9095,7 @@
         <v>76313</v>
       </c>
       <c r="AH48">
-        <f>AF48+AG48</f>
+        <f t="shared" si="51"/>
         <v>81052</v>
       </c>
       <c r="AI48">
@@ -9110,15 +9127,15 @@
         <v>49</v>
       </c>
       <c r="AR48" s="1">
-        <f t="shared" ref="AR48:AR63" si="60" xml:space="preserve"> _xlfn.FLOOR.MATH((AK48 - AN48) / 2)</f>
+        <f t="shared" ref="AR48:AR63" si="62" xml:space="preserve"> _xlfn.FLOOR.MATH((AK48 - AN48) / 2)</f>
         <v>46</v>
       </c>
       <c r="AS48">
-        <f t="shared" ref="AS48:AS63" si="61" xml:space="preserve"> _xlfn.FLOOR.MATH((AL48 - AO48) / 2)</f>
+        <f t="shared" ref="AS48:AS63" si="63" xml:space="preserve"> _xlfn.FLOOR.MATH((AL48 - AO48) / 2)</f>
         <v>456</v>
       </c>
       <c r="AT48">
-        <f t="shared" ref="AT48:AT63" si="62" xml:space="preserve"> _xlfn.FLOOR.MATH((AM48 - AP48) / 2)</f>
+        <f t="shared" ref="AT48:AT63" si="64" xml:space="preserve"> _xlfn.FLOOR.MATH((AM48 - AP48) / 2)</f>
         <v>143</v>
       </c>
       <c r="AU48" t="s">
@@ -9140,7 +9157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A49" s="17" t="s">
         <v>246</v>
       </c>
@@ -9150,7 +9167,7 @@
       <c r="C49" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="F49" s="24">
+      <c r="F49" s="23">
         <v>0</v>
       </c>
       <c r="G49" s="21">
@@ -9205,7 +9222,7 @@
         <v>1</v>
       </c>
       <c r="X49">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>6</v>
       </c>
       <c r="Y49" t="s">
@@ -9236,7 +9253,7 @@
         <v>6199</v>
       </c>
       <c r="AH49">
-        <f>AF49+AG49</f>
+        <f t="shared" si="51"/>
         <v>81052</v>
       </c>
       <c r="AI49">
@@ -9268,15 +9285,15 @@
         <v>49</v>
       </c>
       <c r="AR49" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>14</v>
       </c>
       <c r="AS49">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>192</v>
       </c>
       <c r="AT49">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>15</v>
       </c>
       <c r="AU49" t="s">
@@ -9298,7 +9315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
         <v>247</v>
       </c>
@@ -9308,7 +9325,7 @@
       <c r="C50" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="F50" s="24">
+      <c r="F50" s="23">
         <v>0</v>
       </c>
       <c r="G50" s="21">
@@ -9363,7 +9380,7 @@
         <v>1</v>
       </c>
       <c r="X50">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>6</v>
       </c>
       <c r="Y50" t="s">
@@ -9394,7 +9411,7 @@
         <v>58053</v>
       </c>
       <c r="AH50">
-        <f>AF50+AG50</f>
+        <f t="shared" si="51"/>
         <v>81052</v>
       </c>
       <c r="AI50">
@@ -9426,15 +9443,15 @@
         <v>49</v>
       </c>
       <c r="AR50" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>30</v>
       </c>
       <c r="AS50">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>328</v>
       </c>
       <c r="AT50">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>79</v>
       </c>
       <c r="AU50" t="s">
@@ -9456,7 +9473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>248</v>
       </c>
@@ -9466,7 +9483,7 @@
       <c r="C51" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="F51" s="24">
+      <c r="F51" s="23">
         <v>0</v>
       </c>
       <c r="G51" s="21">
@@ -9521,7 +9538,7 @@
         <v>1</v>
       </c>
       <c r="X51">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>6</v>
       </c>
       <c r="Y51" t="s">
@@ -9552,7 +9569,7 @@
         <v>76325</v>
       </c>
       <c r="AH51">
-        <f>AF51+AG51</f>
+        <f t="shared" si="51"/>
         <v>81052</v>
       </c>
       <c r="AI51">
@@ -9584,15 +9601,15 @@
         <v>49</v>
       </c>
       <c r="AR51" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>46</v>
       </c>
       <c r="AS51">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>456</v>
       </c>
       <c r="AT51">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>143</v>
       </c>
       <c r="AU51" t="s">
@@ -9614,7 +9631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
         <v>249</v>
       </c>
@@ -9624,7 +9641,7 @@
       <c r="C52" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="F52" s="24">
+      <c r="F52" s="23">
         <v>0</v>
       </c>
       <c r="G52" s="21">
@@ -9679,7 +9696,7 @@
         <v>1</v>
       </c>
       <c r="X52">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>6</v>
       </c>
       <c r="Y52" t="s">
@@ -9710,7 +9727,7 @@
         <v>6309</v>
       </c>
       <c r="AH52">
-        <f>AF52+AG52</f>
+        <f t="shared" si="51"/>
         <v>81052</v>
       </c>
       <c r="AI52">
@@ -9742,15 +9759,15 @@
         <v>49</v>
       </c>
       <c r="AR52" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>14</v>
       </c>
       <c r="AS52">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>192</v>
       </c>
       <c r="AT52">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>15</v>
       </c>
       <c r="AU52" t="s">
@@ -9772,7 +9789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
         <v>250</v>
       </c>
@@ -9782,7 +9799,7 @@
       <c r="C53" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="F53" s="24">
+      <c r="F53" s="23">
         <v>0</v>
       </c>
       <c r="G53" s="21">
@@ -9837,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="X53">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>6</v>
       </c>
       <c r="Y53" t="s">
@@ -9868,7 +9885,7 @@
         <v>58085</v>
       </c>
       <c r="AH53">
-        <f>AF53+AG53</f>
+        <f t="shared" si="51"/>
         <v>81052</v>
       </c>
       <c r="AI53">
@@ -9900,15 +9917,15 @@
         <v>49</v>
       </c>
       <c r="AR53" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>30</v>
       </c>
       <c r="AS53">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>328</v>
       </c>
       <c r="AT53">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>79</v>
       </c>
       <c r="AU53" t="s">
@@ -9930,7 +9947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A54" s="17" t="s">
         <v>251</v>
       </c>
@@ -9940,7 +9957,7 @@
       <c r="C54" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="F54" s="24">
+      <c r="F54" s="23">
         <v>0</v>
       </c>
       <c r="G54" s="21">
@@ -9995,7 +10012,7 @@
         <v>1</v>
       </c>
       <c r="X54">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>6</v>
       </c>
       <c r="Y54" t="s">
@@ -10026,7 +10043,7 @@
         <v>76325</v>
       </c>
       <c r="AH54">
-        <f>AF54+AG54</f>
+        <f t="shared" si="51"/>
         <v>81052</v>
       </c>
       <c r="AI54">
@@ -10058,15 +10075,15 @@
         <v>49</v>
       </c>
       <c r="AR54" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>46</v>
       </c>
       <c r="AS54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>456</v>
       </c>
       <c r="AT54">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>143</v>
       </c>
       <c r="AU54" t="s">
@@ -10088,7 +10105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A55" s="17" t="s">
         <v>252</v>
       </c>
@@ -10098,7 +10115,7 @@
       <c r="C55" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="F55" s="24">
+      <c r="F55" s="23">
         <v>0</v>
       </c>
       <c r="G55" s="21">
@@ -10153,7 +10170,7 @@
         <v>1</v>
       </c>
       <c r="X55">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>6</v>
       </c>
       <c r="Y55" t="s">
@@ -10184,7 +10201,7 @@
         <v>6087</v>
       </c>
       <c r="AH55">
-        <f>AF55+AG55</f>
+        <f t="shared" si="51"/>
         <v>81052</v>
       </c>
       <c r="AI55">
@@ -10216,15 +10233,15 @@
         <v>49</v>
       </c>
       <c r="AR55" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>14</v>
       </c>
       <c r="AS55">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>192</v>
       </c>
       <c r="AT55">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>15</v>
       </c>
       <c r="AU55" t="s">
@@ -10246,7 +10263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A56" s="17" t="s">
         <v>253</v>
       </c>
@@ -10256,7 +10273,7 @@
       <c r="C56" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="F56" s="24">
+      <c r="F56" s="23">
         <v>0</v>
       </c>
       <c r="G56" s="21">
@@ -10311,7 +10328,7 @@
         <v>1</v>
       </c>
       <c r="X56">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>6</v>
       </c>
       <c r="Y56" t="s">
@@ -10342,7 +10359,7 @@
         <v>58019</v>
       </c>
       <c r="AH56">
-        <f>AF56+AG56</f>
+        <f t="shared" si="51"/>
         <v>81052</v>
       </c>
       <c r="AI56">
@@ -10374,15 +10391,15 @@
         <v>49</v>
       </c>
       <c r="AR56" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>30</v>
       </c>
       <c r="AS56">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>328</v>
       </c>
       <c r="AT56">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>79</v>
       </c>
       <c r="AU56" t="s">
@@ -10404,7 +10421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A57" s="17" t="s">
         <v>254</v>
       </c>
@@ -10414,7 +10431,7 @@
       <c r="C57" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="F57" s="24">
+      <c r="F57" s="23">
         <v>0</v>
       </c>
       <c r="G57" s="21">
@@ -10469,7 +10486,7 @@
         <v>1</v>
       </c>
       <c r="X57">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>6</v>
       </c>
       <c r="Y57" t="s">
@@ -10500,7 +10517,7 @@
         <v>76313</v>
       </c>
       <c r="AH57">
-        <f>AF57+AG57</f>
+        <f t="shared" si="51"/>
         <v>81052</v>
       </c>
       <c r="AI57">
@@ -10532,15 +10549,15 @@
         <v>49</v>
       </c>
       <c r="AR57" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>46</v>
       </c>
       <c r="AS57">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>456</v>
       </c>
       <c r="AT57">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>143</v>
       </c>
       <c r="AU57" t="s">
@@ -10562,7 +10579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A58" s="17" t="s">
         <v>255</v>
       </c>
@@ -10572,7 +10589,7 @@
       <c r="C58" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="F58" s="24">
+      <c r="F58" s="23">
         <v>0</v>
       </c>
       <c r="G58" s="21">
@@ -10627,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="X58">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>6</v>
       </c>
       <c r="Y58" t="s">
@@ -10658,7 +10675,7 @@
         <v>6199</v>
       </c>
       <c r="AH58">
-        <f>AF58+AG58</f>
+        <f t="shared" si="51"/>
         <v>81052</v>
       </c>
       <c r="AI58">
@@ -10690,15 +10707,15 @@
         <v>49</v>
       </c>
       <c r="AR58" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>14</v>
       </c>
       <c r="AS58">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>192</v>
       </c>
       <c r="AT58">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>15</v>
       </c>
       <c r="AU58" t="s">
@@ -10720,7 +10737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A59" s="17" t="s">
         <v>256</v>
       </c>
@@ -10730,7 +10747,7 @@
       <c r="C59" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="F59" s="24">
+      <c r="F59" s="23">
         <v>0</v>
       </c>
       <c r="G59" s="21">
@@ -10785,7 +10802,7 @@
         <v>1</v>
       </c>
       <c r="X59">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>6</v>
       </c>
       <c r="Y59" t="s">
@@ -10816,7 +10833,7 @@
         <v>58053</v>
       </c>
       <c r="AH59">
-        <f>AF59+AG59</f>
+        <f t="shared" si="51"/>
         <v>81052</v>
       </c>
       <c r="AI59">
@@ -10848,15 +10865,15 @@
         <v>49</v>
       </c>
       <c r="AR59" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>30</v>
       </c>
       <c r="AS59">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>328</v>
       </c>
       <c r="AT59">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>79</v>
       </c>
       <c r="AU59" t="s">
@@ -10878,7 +10895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A60" s="17" t="s">
         <v>257</v>
       </c>
@@ -10888,7 +10905,7 @@
       <c r="C60" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="F60" s="24">
+      <c r="F60" s="23">
         <v>0</v>
       </c>
       <c r="G60" s="21">
@@ -10943,7 +10960,7 @@
         <v>1</v>
       </c>
       <c r="X60">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>6</v>
       </c>
       <c r="Y60" t="s">
@@ -10974,7 +10991,7 @@
         <v>76325</v>
       </c>
       <c r="AH60">
-        <f>AF60+AG60</f>
+        <f t="shared" si="51"/>
         <v>81052</v>
       </c>
       <c r="AI60">
@@ -11006,15 +11023,15 @@
         <v>49</v>
       </c>
       <c r="AR60" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>46</v>
       </c>
       <c r="AS60">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>456</v>
       </c>
       <c r="AT60">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>143</v>
       </c>
       <c r="AU60" t="s">
@@ -11036,7 +11053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="s">
         <v>258</v>
       </c>
@@ -11046,7 +11063,7 @@
       <c r="C61" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="F61" s="24">
+      <c r="F61" s="23">
         <v>0</v>
       </c>
       <c r="G61" s="21">
@@ -11101,7 +11118,7 @@
         <v>1</v>
       </c>
       <c r="X61">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>6</v>
       </c>
       <c r="Y61" t="s">
@@ -11132,7 +11149,7 @@
         <v>6309</v>
       </c>
       <c r="AH61">
-        <f>AF61+AG61</f>
+        <f t="shared" si="51"/>
         <v>81052</v>
       </c>
       <c r="AI61">
@@ -11164,15 +11181,15 @@
         <v>49</v>
       </c>
       <c r="AR61" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>14</v>
       </c>
       <c r="AS61">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>192</v>
       </c>
       <c r="AT61">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>15</v>
       </c>
       <c r="AU61" t="s">
@@ -11194,7 +11211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A62" s="17" t="s">
         <v>259</v>
       </c>
@@ -11204,7 +11221,7 @@
       <c r="C62" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="F62" s="24">
+      <c r="F62" s="23">
         <v>0</v>
       </c>
       <c r="G62" s="21">
@@ -11259,7 +11276,7 @@
         <v>1</v>
       </c>
       <c r="X62">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>6</v>
       </c>
       <c r="Y62" t="s">
@@ -11290,7 +11307,7 @@
         <v>58085</v>
       </c>
       <c r="AH62">
-        <f>AF62+AG62</f>
+        <f t="shared" si="51"/>
         <v>81052</v>
       </c>
       <c r="AI62">
@@ -11322,15 +11339,15 @@
         <v>49</v>
       </c>
       <c r="AR62" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>30</v>
       </c>
       <c r="AS62">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>328</v>
       </c>
       <c r="AT62">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>79</v>
       </c>
       <c r="AU62" t="s">
@@ -11352,165 +11369,324 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A63" s="17" t="s">
+    <row r="63" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="F63" s="24">
-        <v>0</v>
-      </c>
-      <c r="G63" s="21">
-        <v>1</v>
-      </c>
-      <c r="H63" s="21" t="s">
+      <c r="F63" s="29">
+        <v>0</v>
+      </c>
+      <c r="G63" s="22">
+        <v>1</v>
+      </c>
+      <c r="H63" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="I63" s="21">
-        <v>0</v>
-      </c>
-      <c r="J63" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K63" s="21">
-        <v>1</v>
-      </c>
-      <c r="L63" s="21">
-        <v>1</v>
-      </c>
-      <c r="M63" s="21">
-        <v>1</v>
-      </c>
-      <c r="N63" s="21">
-        <v>1</v>
-      </c>
-      <c r="O63" s="21">
-        <v>0</v>
-      </c>
-      <c r="P63" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="21">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>1</v>
-      </c>
-      <c r="S63" s="1" t="s">
+      <c r="I63" s="22">
+        <v>0</v>
+      </c>
+      <c r="J63" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K63" s="22">
+        <v>1</v>
+      </c>
+      <c r="L63" s="22">
+        <v>1</v>
+      </c>
+      <c r="M63" s="22">
+        <v>1</v>
+      </c>
+      <c r="N63" s="22">
+        <v>1</v>
+      </c>
+      <c r="O63" s="22">
+        <v>0</v>
+      </c>
+      <c r="P63" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="22">
+        <v>0</v>
+      </c>
+      <c r="R63" s="7">
+        <v>1</v>
+      </c>
+      <c r="S63" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="T63">
+      <c r="T63" s="7">
         <v>6</v>
       </c>
-      <c r="U63">
+      <c r="U63" s="7">
         <v>6</v>
       </c>
-      <c r="V63">
+      <c r="V63" s="7">
         <v>5</v>
       </c>
-      <c r="W63">
-        <v>1</v>
-      </c>
-      <c r="X63">
-        <f t="shared" si="53"/>
+      <c r="W63" s="7">
+        <v>1</v>
+      </c>
+      <c r="X63" s="7">
+        <f t="shared" si="55"/>
         <v>6</v>
       </c>
-      <c r="Y63" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z63">
-        <v>1</v>
-      </c>
-      <c r="AA63">
-        <v>8</v>
-      </c>
-      <c r="AB63" t="s">
+      <c r="Y63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z63" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA63" s="7">
+        <v>8</v>
+      </c>
+      <c r="AB63" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="AC63">
-        <v>1</v>
-      </c>
-      <c r="AD63">
-        <v>8</v>
-      </c>
-      <c r="AE63" t="s">
+      <c r="AC63" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD63" s="7">
+        <v>8</v>
+      </c>
+      <c r="AE63" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="AF63" s="10">
+      <c r="AF63" s="11">
         <v>4727</v>
       </c>
-      <c r="AG63">
+      <c r="AG63" s="7">
         <v>76325</v>
       </c>
-      <c r="AH63">
-        <f>AF63+AG63</f>
+      <c r="AH63" s="7">
+        <f t="shared" si="51"/>
         <v>81052</v>
       </c>
-      <c r="AI63">
+      <c r="AI63" s="7">
         <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN63*AO63*AP63) * ((Z63*AA63 + AC63*AD63) / (3*16 + 1*8)) * (X63 / 5)</f>
         <v>2265.2189186271103</v>
       </c>
-      <c r="AJ63" t="s">
+      <c r="AJ63" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AK63" s="10">
+      <c r="AK63" s="11">
         <v>125</v>
       </c>
-      <c r="AL63">
+      <c r="AL63" s="7">
         <v>1169</v>
       </c>
-      <c r="AM63">
+      <c r="AM63" s="7">
         <v>414</v>
       </c>
-      <c r="AN63" s="1">
+      <c r="AN63" s="8">
         <v>32</v>
       </c>
-      <c r="AO63">
+      <c r="AO63" s="7">
         <v>256</v>
       </c>
-      <c r="AP63">
+      <c r="AP63" s="7">
         <v>128</v>
       </c>
-      <c r="AQ63" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR63" s="1">
-        <f t="shared" si="60"/>
+      <c r="AQ63" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR63" s="8">
+        <f t="shared" si="62"/>
         <v>46</v>
       </c>
-      <c r="AS63">
-        <f t="shared" si="61"/>
+      <c r="AS63" s="7">
+        <f t="shared" si="63"/>
         <v>456</v>
       </c>
-      <c r="AT63">
-        <f t="shared" si="62"/>
+      <c r="AT63" s="7">
+        <f t="shared" si="64"/>
         <v>143</v>
       </c>
-      <c r="AU63" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV63" s="10" t="s">
+      <c r="AU63" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV63" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="AW63" t="s">
+      <c r="AW63" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="AX63" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY63" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ63" s="21" t="s">
+      <c r="AX63" s="22">
+        <v>0</v>
+      </c>
+      <c r="AY63" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ63" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="B64" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="D64" t="s">
+        <v>276</v>
+      </c>
+      <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G64" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="H64" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="I64" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="J64" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="K64" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="L64" t="s">
+        <v>122</v>
+      </c>
+      <c r="M64" t="s">
+        <v>122</v>
+      </c>
+      <c r="N64" t="s">
+        <v>122</v>
+      </c>
+      <c r="O64" t="s">
+        <v>122</v>
+      </c>
+      <c r="P64" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>122</v>
+      </c>
+      <c r="R64" t="s">
+        <v>122</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="T64">
+        <v>6</v>
+      </c>
+      <c r="U64">
+        <v>6</v>
+      </c>
+      <c r="V64">
+        <v>5</v>
+      </c>
+      <c r="W64">
+        <v>1</v>
+      </c>
+      <c r="X64">
+        <v>6</v>
+      </c>
+      <c r="Y64" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z64" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA64" s="30">
+        <v>16</v>
+      </c>
+      <c r="AB64" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC64" s="30">
+        <v>1</v>
+      </c>
+      <c r="AD64" s="30">
+        <v>8</v>
+      </c>
+      <c r="AE64" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF64" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG64" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH64" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI64">
+        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN64*AO64*AP64) * (X64 / 5) + 441</f>
+        <v>74990.706201272769</v>
+      </c>
+      <c r="AJ64" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK64" s="10">
+        <v>125</v>
+      </c>
+      <c r="AL64" s="30">
+        <v>1169</v>
+      </c>
+      <c r="AM64" s="30">
+        <v>414</v>
+      </c>
+      <c r="AN64" s="1">
+        <v>96</v>
+      </c>
+      <c r="AO64">
+        <v>784</v>
+      </c>
+      <c r="AP64">
+        <v>384</v>
+      </c>
+      <c r="AQ64" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR64" s="1">
+        <f t="shared" ref="AR64" si="65" xml:space="preserve"> _xlfn.FLOOR.MATH((AK64 - AN64) / 2)</f>
+        <v>14</v>
+      </c>
+      <c r="AS64">
+        <f t="shared" ref="AS64" si="66" xml:space="preserve"> _xlfn.FLOOR.MATH((AL64 - AO64) / 2)</f>
+        <v>192</v>
+      </c>
+      <c r="AT64">
+        <f t="shared" ref="AT64" si="67" xml:space="preserve"> _xlfn.FLOOR.MATH((AM64 - AP64) / 2)</f>
+        <v>15</v>
+      </c>
+      <c r="AU64" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV64" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="AW64" t="s">
+        <v>167</v>
+      </c>
+      <c r="AX64" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY64" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ64" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
         <v>122</v>
       </c>
@@ -11633,15 +11809,15 @@
         <v>122</v>
       </c>
       <c r="AR69" s="1" t="e">
-        <f t="shared" ref="AR69" si="63" xml:space="preserve"> _xlfn.FLOOR.MATH((AK69 - AN69) / 2)</f>
+        <f t="shared" ref="AR69" si="68" xml:space="preserve"> _xlfn.FLOOR.MATH((AK69 - AN69) / 2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AS69" t="e">
-        <f t="shared" ref="AS69" si="64" xml:space="preserve"> _xlfn.FLOOR.MATH((AL69 - AO69) / 2)</f>
+        <f t="shared" ref="AS69" si="69" xml:space="preserve"> _xlfn.FLOOR.MATH((AL69 - AO69) / 2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AT69" t="e">
-        <f t="shared" ref="AT69" si="65" xml:space="preserve"> _xlfn.FLOOR.MATH((AM69 - AP69) / 2)</f>
+        <f t="shared" ref="AT69" si="70" xml:space="preserve"> _xlfn.FLOOR.MATH((AM69 - AP69) / 2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AU69" t="s">
@@ -11663,12 +11839,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AO75" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AO76" t="s">
         <v>262</v>
       </c>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\popsicle_cell\Documents\cloud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4479ECC5-EA09-429F-9FA9-8AB5B7937757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CAC8B0-04B4-4008-BE14-D4F502516981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
+    <workbookView xWindow="-21720" yWindow="2595" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="281">
   <si>
     <t>patch z</t>
   </si>
@@ -864,13 +864,22 @@
     <t>The val eval scores plateaud higher (by .05) but the peek was about the same. Nvidia-smi.log files were created again: Needs a `cd ~/data/cloud; bash pull-script.sh` (or just proper handling of working directory and sourced script files).</t>
   </si>
   <si>
-    <t>Get fluorescence segmentation to work - since autofluorescence segmentation models did reach usable predictive powers, I am switching to the classical fluo. Segm. Approach instead of the unconventional autofluorescence segmentation.</t>
-  </si>
-  <si>
     <t>I expect, 3dunet will have a substantially easier time predicting validation targets since the tissue of interest is fluorescently marked. It might have a hard time ignoring the eyes in the heart stains but I think it will manage.</t>
   </si>
   <si>
     <t>patch = arbitrary even int_2^3 as large a possible, confirmed (slightly) updated formula considered</t>
+  </si>
+  <si>
+    <t>231007-0</t>
+  </si>
+  <si>
+    <t>dataset07.0</t>
+  </si>
+  <si>
+    <t>Get fluorescence segmentation to work - since autofluorescence segmentation models did reach usable predictive powers, I am switching to the classical fluo. Segm. Approach instead of the unconventional autofluorescence segmentation. The train-config.yml file was adapted to session 230910-7, which is so far the best performing model, based on tensorboard metrics (val eval score is the most relevant metric / was the most relevant metric for the decision) and prediction images - this regards things like patience and validate_after_iters hyper parameters.</t>
+  </si>
+  <si>
+    <t>TBD (compare to session 230910-7)</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1040,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1068,11 +1077,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1389,61 +1396,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
   <dimension ref="A1:AZ76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI38" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AV65" sqref="AV65"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="64.5546875" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="14.5546875" style="10" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="30.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="9.44140625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="64.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="14.5703125" style="10" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
-    <col min="11" max="17" width="9.109375" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="12.88671875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="9.109375" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="6.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="5.109375" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="11.109375" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="17" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="12.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="6.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="5.140625" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="11.140625" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="6" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="14.33203125" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="7.88671875" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="8.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="15.44140625" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="7.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="9.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="16.6640625" style="10" customWidth="1"/>
-    <col min="33" max="34" width="14.88671875" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="7.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="8.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="15.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="7.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="9.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="16.7109375" style="10" customWidth="1"/>
+    <col min="33" max="34" width="14.85546875" customWidth="1"/>
     <col min="35" max="35" width="21" customWidth="1"/>
-    <col min="36" max="36" width="26.33203125" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="26.28515625" customWidth="1" outlineLevel="1"/>
     <col min="37" max="37" width="6" style="10" bestFit="1" customWidth="1"/>
     <col min="38" max="39" width="6" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.33203125" style="1" customWidth="1"/>
-    <col min="41" max="41" width="6.109375" customWidth="1"/>
+    <col min="40" max="40" width="5.28515625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="6.140625" customWidth="1"/>
     <col min="42" max="43" width="5" customWidth="1"/>
-    <col min="44" max="44" width="6.109375" style="1" customWidth="1"/>
-    <col min="45" max="45" width="6.5546875" customWidth="1"/>
+    <col min="44" max="44" width="6.140625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="6.5703125" customWidth="1"/>
     <col min="46" max="46" width="5" customWidth="1"/>
     <col min="47" max="47" width="6" customWidth="1"/>
-    <col min="48" max="48" width="74.88671875" style="10" customWidth="1" outlineLevel="1"/>
-    <col min="49" max="49" width="74.44140625" customWidth="1" outlineLevel="1"/>
-    <col min="50" max="50" width="5.109375" customWidth="1"/>
-    <col min="51" max="51" width="73.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="48" width="74.85546875" style="10" customWidth="1" outlineLevel="1"/>
+    <col min="49" max="49" width="74.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="50" max="50" width="5.140625" customWidth="1"/>
+    <col min="51" max="51" width="73.85546875" customWidth="1" outlineLevel="1"/>
     <col min="52" max="52" width="206" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.6640625" customWidth="1"/>
-    <col min="57" max="57" width="12.109375" customWidth="1"/>
+    <col min="53" max="53" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.7109375" customWidth="1"/>
+    <col min="57" max="57" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
@@ -1601,7 +1608,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -1760,7 +1767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -1920,7 +1927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:52" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:52" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>55</v>
       </c>
@@ -2079,7 +2086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2238,7 +2245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2397,7 +2404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2556,7 +2563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2715,7 +2722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2880,7 +2887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -3039,7 +3046,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3198,7 +3205,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -3358,7 +3365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -3517,7 +3524,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -3676,7 +3683,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -3836,7 +3843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
@@ -3996,7 +4003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -4156,7 +4163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -4316,7 +4323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -4476,7 +4483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -4636,7 +4643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -4796,7 +4803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -4956,7 +4963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -5116,7 +5123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -5276,7 +5283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -5434,7 +5441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>104</v>
       </c>
@@ -5592,7 +5599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -5756,7 +5763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>109</v>
       </c>
@@ -5919,7 +5926,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -6083,7 +6090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>148</v>
       </c>
@@ -6247,7 +6254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>152</v>
       </c>
@@ -6411,7 +6418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>159</v>
       </c>
@@ -6574,7 +6581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>172</v>
       </c>
@@ -6737,7 +6744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>173</v>
       </c>
@@ -6842,7 +6849,7 @@
         <v>81052</v>
       </c>
       <c r="AI34">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN34*AO34*AP34) / 5 * X34</f>
+        <f t="shared" ref="AI34:AI45" si="14" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN34*AO34*AP34) / 5 * X34</f>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ34" t="s">
@@ -6900,7 +6907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>182</v>
       </c>
@@ -6971,7 +6978,7 @@
         <v>1</v>
       </c>
       <c r="X35">
-        <f t="shared" ref="X35" si="14" xml:space="preserve"> V35 + W35</f>
+        <f t="shared" ref="X35" si="15" xml:space="preserve"> V35 + W35</f>
         <v>6</v>
       </c>
       <c r="Y35" t="s">
@@ -7005,7 +7012,7 @@
         <v>81052</v>
       </c>
       <c r="AI35">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN35*AO35*AP35) / 5 * X35</f>
+        <f t="shared" si="14"/>
         <v>76071.407048528155</v>
       </c>
       <c r="AJ35" t="s">
@@ -7033,15 +7040,15 @@
         <v>49</v>
       </c>
       <c r="AR35" s="1">
-        <f t="shared" ref="AR35" si="15" xml:space="preserve"> _xlfn.FLOOR.MATH((AK35 - AN35) / 2)</f>
+        <f t="shared" ref="AR35" si="16" xml:space="preserve"> _xlfn.FLOOR.MATH((AK35 - AN35) / 2)</f>
         <v>13</v>
       </c>
       <c r="AS35">
-        <f t="shared" ref="AS35" si="16" xml:space="preserve"> _xlfn.FLOOR.MATH((AL35 - AO35) / 2)</f>
+        <f t="shared" ref="AS35" si="17" xml:space="preserve"> _xlfn.FLOOR.MATH((AL35 - AO35) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT35">
-        <f t="shared" ref="AT35" si="17" xml:space="preserve"> _xlfn.FLOOR.MATH((AM35 - AP35) / 2)</f>
+        <f t="shared" ref="AT35" si="18" xml:space="preserve"> _xlfn.FLOOR.MATH((AM35 - AP35) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU35" t="s">
@@ -7063,7 +7070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>187</v>
       </c>
@@ -7134,7 +7141,7 @@
         <v>1</v>
       </c>
       <c r="X36">
-        <f t="shared" ref="X36" si="18" xml:space="preserve"> V36 + W36</f>
+        <f t="shared" ref="X36" si="19" xml:space="preserve"> V36 + W36</f>
         <v>6</v>
       </c>
       <c r="Y36" t="s">
@@ -7168,7 +7175,7 @@
         <v>81052</v>
       </c>
       <c r="AI36">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN36*AO36*AP36) / 5 * X36</f>
+        <f t="shared" si="14"/>
         <v>76071.407048528155</v>
       </c>
       <c r="AJ36" t="s">
@@ -7196,15 +7203,15 @@
         <v>49</v>
       </c>
       <c r="AR36" s="1">
-        <f t="shared" ref="AR36" si="19" xml:space="preserve"> _xlfn.FLOOR.MATH((AK36 - AN36) / 2)</f>
+        <f t="shared" ref="AR36" si="20" xml:space="preserve"> _xlfn.FLOOR.MATH((AK36 - AN36) / 2)</f>
         <v>13</v>
       </c>
       <c r="AS36">
-        <f t="shared" ref="AS36" si="20" xml:space="preserve"> _xlfn.FLOOR.MATH((AL36 - AO36) / 2)</f>
+        <f t="shared" ref="AS36" si="21" xml:space="preserve"> _xlfn.FLOOR.MATH((AL36 - AO36) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT36">
-        <f t="shared" ref="AT36" si="21" xml:space="preserve"> _xlfn.FLOOR.MATH((AM36 - AP36) / 2)</f>
+        <f t="shared" ref="AT36" si="22" xml:space="preserve"> _xlfn.FLOOR.MATH((AM36 - AP36) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU36" t="s">
@@ -7226,7 +7233,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>190</v>
       </c>
@@ -7297,7 +7304,7 @@
         <v>1</v>
       </c>
       <c r="X37">
-        <f t="shared" ref="X37" si="22" xml:space="preserve"> V37 + W37</f>
+        <f t="shared" ref="X37" si="23" xml:space="preserve"> V37 + W37</f>
         <v>6</v>
       </c>
       <c r="Y37" t="s">
@@ -7331,7 +7338,7 @@
         <v>81052</v>
       </c>
       <c r="AI37">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN37*AO37*AP37) / 5 * X37</f>
+        <f t="shared" si="14"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ37" t="s">
@@ -7359,15 +7366,15 @@
         <v>49</v>
       </c>
       <c r="AR37" s="1">
-        <f t="shared" ref="AR37" si="23" xml:space="preserve"> _xlfn.FLOOR.MATH((AK37 - AN37) / 2)</f>
+        <f t="shared" ref="AR37" si="24" xml:space="preserve"> _xlfn.FLOOR.MATH((AK37 - AN37) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS37">
-        <f t="shared" ref="AS37" si="24" xml:space="preserve"> _xlfn.FLOOR.MATH((AL37 - AO37) / 2)</f>
+        <f t="shared" ref="AS37" si="25" xml:space="preserve"> _xlfn.FLOOR.MATH((AL37 - AO37) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT37">
-        <f t="shared" ref="AT37" si="25" xml:space="preserve"> _xlfn.FLOOR.MATH((AM37 - AP37) / 2)</f>
+        <f t="shared" ref="AT37" si="26" xml:space="preserve"> _xlfn.FLOOR.MATH((AM37 - AP37) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU37" t="s">
@@ -7389,7 +7396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>195</v>
       </c>
@@ -7460,7 +7467,7 @@
         <v>1</v>
       </c>
       <c r="X38">
-        <f t="shared" ref="X38" si="26" xml:space="preserve"> V38 + W38</f>
+        <f t="shared" ref="X38" si="27" xml:space="preserve"> V38 + W38</f>
         <v>6</v>
       </c>
       <c r="Y38" t="s">
@@ -7494,7 +7501,7 @@
         <v>81052</v>
       </c>
       <c r="AI38">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN38*AO38*AP38) / 5 * X38</f>
+        <f t="shared" si="14"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ38" t="s">
@@ -7522,15 +7529,15 @@
         <v>49</v>
       </c>
       <c r="AR38" s="1">
-        <f t="shared" ref="AR38" si="27" xml:space="preserve"> _xlfn.FLOOR.MATH((AK38 - AN38) / 2)</f>
+        <f t="shared" ref="AR38" si="28" xml:space="preserve"> _xlfn.FLOOR.MATH((AK38 - AN38) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS38">
-        <f t="shared" ref="AS38" si="28" xml:space="preserve"> _xlfn.FLOOR.MATH((AL38 - AO38) / 2)</f>
+        <f t="shared" ref="AS38" si="29" xml:space="preserve"> _xlfn.FLOOR.MATH((AL38 - AO38) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT38">
-        <f t="shared" ref="AT38" si="29" xml:space="preserve"> _xlfn.FLOOR.MATH((AM38 - AP38) / 2)</f>
+        <f t="shared" ref="AT38" si="30" xml:space="preserve"> _xlfn.FLOOR.MATH((AM38 - AP38) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU38" t="s">
@@ -7552,7 +7559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>198</v>
       </c>
@@ -7623,7 +7630,7 @@
         <v>1</v>
       </c>
       <c r="X39">
-        <f t="shared" ref="X39" si="30" xml:space="preserve"> V39 + W39</f>
+        <f t="shared" ref="X39" si="31" xml:space="preserve"> V39 + W39</f>
         <v>6</v>
       </c>
       <c r="Y39" t="s">
@@ -7657,7 +7664,7 @@
         <v>81052</v>
       </c>
       <c r="AI39">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN39*AO39*AP39) / 5 * X39</f>
+        <f t="shared" si="14"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ39" t="s">
@@ -7685,15 +7692,15 @@
         <v>49</v>
       </c>
       <c r="AR39" s="1">
-        <f t="shared" ref="AR39" si="31" xml:space="preserve"> _xlfn.FLOOR.MATH((AK39 - AN39) / 2)</f>
+        <f t="shared" ref="AR39" si="32" xml:space="preserve"> _xlfn.FLOOR.MATH((AK39 - AN39) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS39">
-        <f t="shared" ref="AS39" si="32" xml:space="preserve"> _xlfn.FLOOR.MATH((AL39 - AO39) / 2)</f>
+        <f t="shared" ref="AS39" si="33" xml:space="preserve"> _xlfn.FLOOR.MATH((AL39 - AO39) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT39">
-        <f t="shared" ref="AT39" si="33" xml:space="preserve"> _xlfn.FLOOR.MATH((AM39 - AP39) / 2)</f>
+        <f t="shared" ref="AT39" si="34" xml:space="preserve"> _xlfn.FLOOR.MATH((AM39 - AP39) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU39" t="s">
@@ -7715,7 +7722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>202</v>
       </c>
@@ -7786,7 +7793,7 @@
         <v>1</v>
       </c>
       <c r="X40">
-        <f t="shared" ref="X40" si="34" xml:space="preserve"> V40 + W40</f>
+        <f t="shared" ref="X40" si="35" xml:space="preserve"> V40 + W40</f>
         <v>6</v>
       </c>
       <c r="Y40" t="s">
@@ -7820,7 +7827,7 @@
         <v>81052</v>
       </c>
       <c r="AI40">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN40*AO40*AP40) / 5 * X40</f>
+        <f t="shared" si="14"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ40" t="s">
@@ -7848,15 +7855,15 @@
         <v>49</v>
       </c>
       <c r="AR40" s="1">
-        <f t="shared" ref="AR40" si="35" xml:space="preserve"> _xlfn.FLOOR.MATH((AK40 - AN40) / 2)</f>
+        <f t="shared" ref="AR40" si="36" xml:space="preserve"> _xlfn.FLOOR.MATH((AK40 - AN40) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS40">
-        <f t="shared" ref="AS40" si="36" xml:space="preserve"> _xlfn.FLOOR.MATH((AL40 - AO40) / 2)</f>
+        <f t="shared" ref="AS40" si="37" xml:space="preserve"> _xlfn.FLOOR.MATH((AL40 - AO40) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT40">
-        <f t="shared" ref="AT40" si="37" xml:space="preserve"> _xlfn.FLOOR.MATH((AM40 - AP40) / 2)</f>
+        <f t="shared" ref="AT40" si="38" xml:space="preserve"> _xlfn.FLOOR.MATH((AM40 - AP40) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU40" t="s">
@@ -7878,7 +7885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>203</v>
       </c>
@@ -7949,7 +7956,7 @@
         <v>1</v>
       </c>
       <c r="X41">
-        <f t="shared" ref="X41" si="38" xml:space="preserve"> V41 + W41</f>
+        <f t="shared" ref="X41" si="39" xml:space="preserve"> V41 + W41</f>
         <v>6</v>
       </c>
       <c r="Y41" t="s">
@@ -7983,7 +7990,7 @@
         <v>81052</v>
       </c>
       <c r="AI41">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN41*AO41*AP41) / 5 * X41</f>
+        <f t="shared" si="14"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ41" t="s">
@@ -8011,15 +8018,15 @@
         <v>49</v>
       </c>
       <c r="AR41" s="1">
-        <f t="shared" ref="AR41" si="39" xml:space="preserve"> _xlfn.FLOOR.MATH((AK41 - AN41) / 2)</f>
+        <f t="shared" ref="AR41" si="40" xml:space="preserve"> _xlfn.FLOOR.MATH((AK41 - AN41) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS41">
-        <f t="shared" ref="AS41" si="40" xml:space="preserve"> _xlfn.FLOOR.MATH((AL41 - AO41) / 2)</f>
+        <f t="shared" ref="AS41" si="41" xml:space="preserve"> _xlfn.FLOOR.MATH((AL41 - AO41) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT41">
-        <f t="shared" ref="AT41" si="41" xml:space="preserve"> _xlfn.FLOOR.MATH((AM41 - AP41) / 2)</f>
+        <f t="shared" ref="AT41" si="42" xml:space="preserve"> _xlfn.FLOOR.MATH((AM41 - AP41) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU41" t="s">
@@ -8041,7 +8048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>205</v>
       </c>
@@ -8112,7 +8119,7 @@
         <v>1</v>
       </c>
       <c r="X42">
-        <f t="shared" ref="X42" si="42" xml:space="preserve"> V42 + W42</f>
+        <f t="shared" ref="X42" si="43" xml:space="preserve"> V42 + W42</f>
         <v>6</v>
       </c>
       <c r="Y42" t="s">
@@ -8146,7 +8153,7 @@
         <v>81052</v>
       </c>
       <c r="AI42">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN42*AO42*AP42) / 5 * X42</f>
+        <f t="shared" si="14"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ42" t="s">
@@ -8174,15 +8181,15 @@
         <v>49</v>
       </c>
       <c r="AR42" s="1">
-        <f t="shared" ref="AR42" si="43" xml:space="preserve"> _xlfn.FLOOR.MATH((AK42 - AN42) / 2)</f>
+        <f t="shared" ref="AR42" si="44" xml:space="preserve"> _xlfn.FLOOR.MATH((AK42 - AN42) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS42">
-        <f t="shared" ref="AS42" si="44" xml:space="preserve"> _xlfn.FLOOR.MATH((AL42 - AO42) / 2)</f>
+        <f t="shared" ref="AS42" si="45" xml:space="preserve"> _xlfn.FLOOR.MATH((AL42 - AO42) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT42">
-        <f t="shared" ref="AT42" si="45" xml:space="preserve"> _xlfn.FLOOR.MATH((AM42 - AP42) / 2)</f>
+        <f t="shared" ref="AT42" si="46" xml:space="preserve"> _xlfn.FLOOR.MATH((AM42 - AP42) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU42" t="s">
@@ -8204,7 +8211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>208</v>
       </c>
@@ -8275,7 +8282,7 @@
         <v>1</v>
       </c>
       <c r="X43">
-        <f t="shared" ref="X43" si="46" xml:space="preserve"> V43 + W43</f>
+        <f t="shared" ref="X43" si="47" xml:space="preserve"> V43 + W43</f>
         <v>6</v>
       </c>
       <c r="Y43" t="s">
@@ -8309,7 +8316,7 @@
         <v>81052</v>
       </c>
       <c r="AI43">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN43*AO43*AP43) / 5 * X43</f>
+        <f t="shared" si="14"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ43" t="s">
@@ -8337,15 +8344,15 @@
         <v>49</v>
       </c>
       <c r="AR43" s="1">
-        <f t="shared" ref="AR43" si="47" xml:space="preserve"> _xlfn.FLOOR.MATH((AK43 - AN43) / 2)</f>
+        <f t="shared" ref="AR43" si="48" xml:space="preserve"> _xlfn.FLOOR.MATH((AK43 - AN43) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS43">
-        <f t="shared" ref="AS43" si="48" xml:space="preserve"> _xlfn.FLOOR.MATH((AL43 - AO43) / 2)</f>
+        <f t="shared" ref="AS43" si="49" xml:space="preserve"> _xlfn.FLOOR.MATH((AL43 - AO43) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT43">
-        <f t="shared" ref="AT43" si="49" xml:space="preserve"> _xlfn.FLOOR.MATH((AM43 - AP43) / 2)</f>
+        <f t="shared" ref="AT43" si="50" xml:space="preserve"> _xlfn.FLOOR.MATH((AM43 - AP43) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU43" t="s">
@@ -8367,7 +8374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>209</v>
       </c>
@@ -8432,7 +8439,7 @@
         <v>1</v>
       </c>
       <c r="X44">
-        <f t="shared" ref="X44" si="50" xml:space="preserve"> V44 + W44</f>
+        <f t="shared" ref="X44" si="51" xml:space="preserve"> V44 + W44</f>
         <v>6</v>
       </c>
       <c r="Y44" t="s">
@@ -8463,11 +8470,11 @@
         <v>6085</v>
       </c>
       <c r="AH44">
-        <f t="shared" ref="AH44:AH63" si="51">AF44+AG44</f>
+        <f t="shared" ref="AH44:AH63" si="52">AF44+AG44</f>
         <v>81052</v>
       </c>
       <c r="AI44">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN44*AO44*AP44) / 5 * X44</f>
+        <f t="shared" si="14"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ44" t="s">
@@ -8495,15 +8502,15 @@
         <v>49</v>
       </c>
       <c r="AR44" s="1">
-        <f t="shared" ref="AR44" si="52" xml:space="preserve"> _xlfn.FLOOR.MATH((AK44 - AN44) / 2)</f>
+        <f t="shared" ref="AR44" si="53" xml:space="preserve"> _xlfn.FLOOR.MATH((AK44 - AN44) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS44">
-        <f t="shared" ref="AS44" si="53" xml:space="preserve"> _xlfn.FLOOR.MATH((AL44 - AO44) / 2)</f>
+        <f t="shared" ref="AS44" si="54" xml:space="preserve"> _xlfn.FLOOR.MATH((AL44 - AO44) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT44">
-        <f t="shared" ref="AT44" si="54" xml:space="preserve"> _xlfn.FLOOR.MATH((AM44 - AP44) / 2)</f>
+        <f t="shared" ref="AT44" si="55" xml:space="preserve"> _xlfn.FLOOR.MATH((AM44 - AP44) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU44" t="s">
@@ -8525,7 +8532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>210</v>
       </c>
@@ -8590,7 +8597,7 @@
         <v>1</v>
       </c>
       <c r="X45" s="7">
-        <f t="shared" ref="X45:X63" si="55" xml:space="preserve"> V45 + W45</f>
+        <f t="shared" ref="X45:X63" si="56" xml:space="preserve"> V45 + W45</f>
         <v>6</v>
       </c>
       <c r="Y45" s="7" t="s">
@@ -8621,11 +8628,11 @@
         <v>6087</v>
       </c>
       <c r="AH45" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI45" s="7">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN45*AO45*AP45) / 5 * X45</f>
+        <f t="shared" si="14"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ45" s="7" t="s">
@@ -8653,15 +8660,15 @@
         <v>49</v>
       </c>
       <c r="AR45" s="8">
-        <f t="shared" ref="AR45" si="56" xml:space="preserve"> _xlfn.FLOOR.MATH((AK45 - AN45) / 2)</f>
+        <f t="shared" ref="AR45" si="57" xml:space="preserve"> _xlfn.FLOOR.MATH((AK45 - AN45) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS45" s="7">
-        <f t="shared" ref="AS45" si="57" xml:space="preserve"> _xlfn.FLOOR.MATH((AL45 - AO45) / 2)</f>
+        <f t="shared" ref="AS45" si="58" xml:space="preserve"> _xlfn.FLOOR.MATH((AL45 - AO45) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT45" s="7">
-        <f t="shared" ref="AT45" si="58" xml:space="preserve"> _xlfn.FLOOR.MATH((AM45 - AP45) / 2)</f>
+        <f t="shared" ref="AT45" si="59" xml:space="preserve"> _xlfn.FLOOR.MATH((AM45 - AP45) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU45" s="7" t="s">
@@ -8683,7 +8690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>243</v>
       </c>
@@ -8748,7 +8755,7 @@
         <v>1</v>
       </c>
       <c r="X46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y46" t="s">
@@ -8779,11 +8786,11 @@
         <v>6085</v>
       </c>
       <c r="AH46">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI46">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN46*AO46*AP46) * ((Z46*AA46 + AC46*AD46) / (3*16 + 1*8)) * (X46 / 5)</f>
+        <f t="shared" ref="AI46:AI63" si="60" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN46*AO46*AP46) * ((Z46*AA46 + AC46*AD46) / (3*16 + 1*8)) * (X46 / 5)</f>
         <v>74549.706201272769</v>
       </c>
       <c r="AJ46" t="s">
@@ -8811,15 +8818,15 @@
         <v>49</v>
       </c>
       <c r="AR46" s="1">
-        <f t="shared" ref="AR46:AR47" si="59" xml:space="preserve"> _xlfn.FLOOR.MATH((AK46 - AN46) / 2)</f>
+        <f t="shared" ref="AR46:AR47" si="61" xml:space="preserve"> _xlfn.FLOOR.MATH((AK46 - AN46) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS46">
-        <f t="shared" ref="AS46:AS47" si="60" xml:space="preserve"> _xlfn.FLOOR.MATH((AL46 - AO46) / 2)</f>
+        <f t="shared" ref="AS46:AS47" si="62" xml:space="preserve"> _xlfn.FLOOR.MATH((AL46 - AO46) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT46">
-        <f t="shared" ref="AT46:AT47" si="61" xml:space="preserve"> _xlfn.FLOOR.MATH((AM46 - AP46) / 2)</f>
+        <f t="shared" ref="AT46:AT47" si="63" xml:space="preserve"> _xlfn.FLOOR.MATH((AM46 - AP46) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU46" t="s">
@@ -8841,7 +8848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>244</v>
       </c>
@@ -8906,7 +8913,7 @@
         <v>1</v>
       </c>
       <c r="X47">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y47" t="s">
@@ -8937,11 +8944,11 @@
         <v>58019</v>
       </c>
       <c r="AH47">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI47">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN47*AO47*AP47) * ((Z47*AA47 + AC47*AD47) / (3*16 + 1*8)) * (X47 / 5)</f>
+        <f t="shared" si="60"/>
         <v>22708.360330151121</v>
       </c>
       <c r="AJ47" t="s">
@@ -8969,15 +8976,15 @@
         <v>49</v>
       </c>
       <c r="AR47" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>30</v>
       </c>
       <c r="AS47">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>328</v>
       </c>
       <c r="AT47">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>79</v>
       </c>
       <c r="AU47" t="s">
@@ -8999,7 +9006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>245</v>
       </c>
@@ -9064,7 +9071,7 @@
         <v>1</v>
       </c>
       <c r="X48">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y48" t="s">
@@ -9095,11 +9102,11 @@
         <v>76313</v>
       </c>
       <c r="AH48">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI48">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN48*AO48*AP48) * ((Z48*AA48 + AC48*AD48) / (3*16 + 1*8)) * (X48 / 5)</f>
+        <f t="shared" si="60"/>
         <v>4158.1023826571118</v>
       </c>
       <c r="AJ48" t="s">
@@ -9127,15 +9134,15 @@
         <v>49</v>
       </c>
       <c r="AR48" s="1">
-        <f t="shared" ref="AR48:AR63" si="62" xml:space="preserve"> _xlfn.FLOOR.MATH((AK48 - AN48) / 2)</f>
+        <f t="shared" ref="AR48:AR63" si="64" xml:space="preserve"> _xlfn.FLOOR.MATH((AK48 - AN48) / 2)</f>
         <v>46</v>
       </c>
       <c r="AS48">
-        <f t="shared" ref="AS48:AS63" si="63" xml:space="preserve"> _xlfn.FLOOR.MATH((AL48 - AO48) / 2)</f>
+        <f t="shared" ref="AS48:AS63" si="65" xml:space="preserve"> _xlfn.FLOOR.MATH((AL48 - AO48) / 2)</f>
         <v>456</v>
       </c>
       <c r="AT48">
-        <f t="shared" ref="AT48:AT63" si="64" xml:space="preserve"> _xlfn.FLOOR.MATH((AM48 - AP48) / 2)</f>
+        <f t="shared" ref="AT48:AT63" si="66" xml:space="preserve"> _xlfn.FLOOR.MATH((AM48 - AP48) / 2)</f>
         <v>143</v>
       </c>
       <c r="AU48" t="s">
@@ -9157,7 +9164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>246</v>
       </c>
@@ -9222,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="X49">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y49" t="s">
@@ -9253,11 +9260,11 @@
         <v>6199</v>
       </c>
       <c r="AH49">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI49">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN49*AO49*AP49) * ((Z49*AA49 + AC49*AD49) / (3*16 + 1*8)) * (X49 / 5)</f>
+        <f t="shared" si="60"/>
         <v>53680.666010342022</v>
       </c>
       <c r="AJ49" t="s">
@@ -9285,15 +9292,15 @@
         <v>49</v>
       </c>
       <c r="AR49" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>14</v>
       </c>
       <c r="AS49">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>192</v>
       </c>
       <c r="AT49">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>15</v>
       </c>
       <c r="AU49" t="s">
@@ -9315,7 +9322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>247</v>
       </c>
@@ -9380,7 +9387,7 @@
         <v>1</v>
       </c>
       <c r="X50">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y50" t="s">
@@ -9411,11 +9418,11 @@
         <v>58053</v>
       </c>
       <c r="AH50">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI50">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN50*AO50*AP50) * ((Z50*AA50 + AC50*AD50) / (3*16 + 1*8)) * (X50 / 5)</f>
+        <f t="shared" si="60"/>
         <v>16651.133245255118</v>
       </c>
       <c r="AJ50" t="s">
@@ -9443,15 +9450,15 @@
         <v>49</v>
       </c>
       <c r="AR50" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>30</v>
       </c>
       <c r="AS50">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>328</v>
       </c>
       <c r="AT50">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>79</v>
       </c>
       <c r="AU50" t="s">
@@ -9473,7 +9480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>248</v>
       </c>
@@ -9538,7 +9545,7 @@
         <v>1</v>
       </c>
       <c r="X51">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y51" t="s">
@@ -9569,11 +9576,11 @@
         <v>76325</v>
       </c>
       <c r="AH51">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI51">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN51*AO51*AP51) * ((Z51*AA51 + AC51*AD51) / (3*16 + 1*8)) * (X51 / 5)</f>
+        <f t="shared" si="60"/>
         <v>3400.9489970451114</v>
       </c>
       <c r="AJ51" t="s">
@@ -9601,15 +9608,15 @@
         <v>49</v>
       </c>
       <c r="AR51" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>46</v>
       </c>
       <c r="AS51">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>456</v>
       </c>
       <c r="AT51">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>143</v>
       </c>
       <c r="AU51" t="s">
@@ -9631,7 +9638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>249</v>
       </c>
@@ -9696,7 +9703,7 @@
         <v>1</v>
       </c>
       <c r="X52">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y52" t="s">
@@ -9727,11 +9734,11 @@
         <v>6309</v>
       </c>
       <c r="AH52">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI52">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN52*AO52*AP52) * ((Z52*AA52 + AC52*AD52) / (3*16 + 1*8)) * (X52 / 5)</f>
+        <f t="shared" si="60"/>
         <v>32811.625819411252</v>
       </c>
       <c r="AJ52" t="s">
@@ -9759,15 +9766,15 @@
         <v>49</v>
       </c>
       <c r="AR52" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>14</v>
       </c>
       <c r="AS52">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>192</v>
       </c>
       <c r="AT52">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>15</v>
       </c>
       <c r="AU52" t="s">
@@ -9789,7 +9796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>250</v>
       </c>
@@ -9854,7 +9861,7 @@
         <v>1</v>
       </c>
       <c r="X53">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y53" t="s">
@@ -9885,11 +9892,11 @@
         <v>58085</v>
       </c>
       <c r="AH53">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI53">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN53*AO53*AP53) * ((Z53*AA53 + AC53*AD53) / (3*16 + 1*8)) * (X53 / 5)</f>
+        <f t="shared" si="60"/>
         <v>10593.906160359114</v>
       </c>
       <c r="AJ53" t="s">
@@ -9917,15 +9924,15 @@
         <v>49</v>
       </c>
       <c r="AR53" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>30</v>
       </c>
       <c r="AS53">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>328</v>
       </c>
       <c r="AT53">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>79</v>
       </c>
       <c r="AU53" t="s">
@@ -9947,7 +9954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>251</v>
       </c>
@@ -10012,7 +10019,7 @@
         <v>1</v>
       </c>
       <c r="X54">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y54" t="s">
@@ -10043,11 +10050,11 @@
         <v>76325</v>
       </c>
       <c r="AH54">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI54">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN54*AO54*AP54) * ((Z54*AA54 + AC54*AD54) / (3*16 + 1*8)) * (X54 / 5)</f>
+        <f t="shared" si="60"/>
         <v>2643.7956114331109</v>
       </c>
       <c r="AJ54" t="s">
@@ -10075,15 +10082,15 @@
         <v>49</v>
       </c>
       <c r="AR54" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>46</v>
       </c>
       <c r="AS54">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>456</v>
       </c>
       <c r="AT54">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>143</v>
       </c>
       <c r="AU54" t="s">
@@ -10105,7 +10112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>252</v>
       </c>
@@ -10170,7 +10177,7 @@
         <v>1</v>
       </c>
       <c r="X55">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y55" t="s">
@@ -10201,11 +10208,11 @@
         <v>6087</v>
       </c>
       <c r="AH55">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI55">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN55*AO55*AP55) * ((Z55*AA55 + AC55*AD55) / (3*16 + 1*8)) * (X55 / 5)</f>
+        <f t="shared" si="60"/>
         <v>43246.145914876637</v>
       </c>
       <c r="AJ55" t="s">
@@ -10233,15 +10240,15 @@
         <v>49</v>
       </c>
       <c r="AR55" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>14</v>
       </c>
       <c r="AS55">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>192</v>
       </c>
       <c r="AT55">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>15</v>
       </c>
       <c r="AU55" t="s">
@@ -10263,7 +10270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>253</v>
       </c>
@@ -10328,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="X56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y56" t="s">
@@ -10359,11 +10366,11 @@
         <v>58019</v>
       </c>
       <c r="AH56">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI56">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN56*AO56*AP56) * ((Z56*AA56 + AC56*AD56) / (3*16 + 1*8)) * (X56 / 5)</f>
+        <f t="shared" si="60"/>
         <v>13622.519702807114</v>
       </c>
       <c r="AJ56" t="s">
@@ -10391,15 +10398,15 @@
         <v>49</v>
       </c>
       <c r="AR56" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>30</v>
       </c>
       <c r="AS56">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>328</v>
       </c>
       <c r="AT56">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>79</v>
       </c>
       <c r="AU56" t="s">
@@ -10421,7 +10428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>254</v>
       </c>
@@ -10486,7 +10493,7 @@
         <v>1</v>
       </c>
       <c r="X57">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y57" t="s">
@@ -10517,11 +10524,11 @@
         <v>76313</v>
       </c>
       <c r="AH57">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI57">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN57*AO57*AP57) * ((Z57*AA57 + AC57*AD57) / (3*16 + 1*8)) * (X57 / 5)</f>
+        <f t="shared" si="60"/>
         <v>3022.3723042391107</v>
       </c>
       <c r="AJ57" t="s">
@@ -10549,15 +10556,15 @@
         <v>49</v>
       </c>
       <c r="AR57" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>46</v>
       </c>
       <c r="AS57">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>456</v>
       </c>
       <c r="AT57">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>143</v>
       </c>
       <c r="AU57" t="s">
@@ -10579,7 +10586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>255</v>
       </c>
@@ -10644,7 +10651,7 @@
         <v>1</v>
       </c>
       <c r="X58">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y58" t="s">
@@ -10675,11 +10682,11 @@
         <v>6199</v>
       </c>
       <c r="AH58">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI58">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN58*AO58*AP58) * ((Z58*AA58 + AC58*AD58) / (3*16 + 1*8)) * (X58 / 5)</f>
+        <f t="shared" si="60"/>
         <v>32811.625819411252</v>
       </c>
       <c r="AJ58" t="s">
@@ -10707,15 +10714,15 @@
         <v>49</v>
       </c>
       <c r="AR58" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>14</v>
       </c>
       <c r="AS58">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>192</v>
       </c>
       <c r="AT58">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>15</v>
       </c>
       <c r="AU58" t="s">
@@ -10737,7 +10744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>256</v>
       </c>
@@ -10802,7 +10809,7 @@
         <v>1</v>
       </c>
       <c r="X59">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y59" t="s">
@@ -10833,11 +10840,11 @@
         <v>58053</v>
       </c>
       <c r="AH59">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI59">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN59*AO59*AP59) * ((Z59*AA59 + AC59*AD59) / (3*16 + 1*8)) * (X59 / 5)</f>
+        <f t="shared" si="60"/>
         <v>10593.906160359114</v>
       </c>
       <c r="AJ59" t="s">
@@ -10865,15 +10872,15 @@
         <v>49</v>
       </c>
       <c r="AR59" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>30</v>
       </c>
       <c r="AS59">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>328</v>
       </c>
       <c r="AT59">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>79</v>
       </c>
       <c r="AU59" t="s">
@@ -10895,7 +10902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>257</v>
       </c>
@@ -10960,7 +10967,7 @@
         <v>1</v>
       </c>
       <c r="X60">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y60" t="s">
@@ -10991,11 +10998,11 @@
         <v>76325</v>
       </c>
       <c r="AH60">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI60">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN60*AO60*AP60) * ((Z60*AA60 + AC60*AD60) / (3*16 + 1*8)) * (X60 / 5)</f>
+        <f t="shared" si="60"/>
         <v>2643.7956114331109</v>
       </c>
       <c r="AJ60" t="s">
@@ -11023,15 +11030,15 @@
         <v>49</v>
       </c>
       <c r="AR60" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>46</v>
       </c>
       <c r="AS60">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>456</v>
       </c>
       <c r="AT60">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>143</v>
       </c>
       <c r="AU60" t="s">
@@ -11053,7 +11060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>258</v>
       </c>
@@ -11118,7 +11125,7 @@
         <v>1</v>
       </c>
       <c r="X61">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y61" t="s">
@@ -11149,11 +11156,11 @@
         <v>6309</v>
       </c>
       <c r="AH61">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI61">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN61*AO61*AP61) * ((Z61*AA61 + AC61*AD61) / (3*16 + 1*8)) * (X61 / 5)</f>
+        <f t="shared" si="60"/>
         <v>22377.105723945871</v>
       </c>
       <c r="AJ61" t="s">
@@ -11181,15 +11188,15 @@
         <v>49</v>
       </c>
       <c r="AR61" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>14</v>
       </c>
       <c r="AS61">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>192</v>
       </c>
       <c r="AT61">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>15</v>
       </c>
       <c r="AU61" t="s">
@@ -11211,7 +11218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>259</v>
       </c>
@@ -11276,7 +11283,7 @@
         <v>1</v>
       </c>
       <c r="X62">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y62" t="s">
@@ -11307,11 +11314,11 @@
         <v>58085</v>
       </c>
       <c r="AH62">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI62">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN62*AO62*AP62) * ((Z62*AA62 + AC62*AD62) / (3*16 + 1*8)) * (X62 / 5)</f>
+        <f t="shared" si="60"/>
         <v>7565.2926179111128</v>
       </c>
       <c r="AJ62" t="s">
@@ -11339,15 +11346,15 @@
         <v>49</v>
       </c>
       <c r="AR62" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>30</v>
       </c>
       <c r="AS62">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>328</v>
       </c>
       <c r="AT62">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>79</v>
       </c>
       <c r="AU62" t="s">
@@ -11369,7 +11376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="28" t="s">
         <v>260</v>
       </c>
@@ -11434,7 +11441,7 @@
         <v>1</v>
       </c>
       <c r="X63" s="7">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y63" s="7" t="s">
@@ -11465,11 +11472,11 @@
         <v>76325</v>
       </c>
       <c r="AH63" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI63" s="7">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN63*AO63*AP63) * ((Z63*AA63 + AC63*AD63) / (3*16 + 1*8)) * (X63 / 5)</f>
+        <f t="shared" si="60"/>
         <v>2265.2189186271103</v>
       </c>
       <c r="AJ63" s="7" t="s">
@@ -11497,15 +11504,15 @@
         <v>49</v>
       </c>
       <c r="AR63" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>46</v>
       </c>
       <c r="AS63" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>456</v>
       </c>
       <c r="AT63" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>143</v>
       </c>
       <c r="AU63" s="7" t="s">
@@ -11527,35 +11534,38 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B64" s="30" t="s">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A64" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="B64" t="s">
         <v>124</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="D64" t="s">
         <v>275</v>
       </c>
-      <c r="D64" t="s">
-        <v>276</v>
-      </c>
       <c r="E64" t="s">
-        <v>122</v>
+        <v>280</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G64" s="30" t="s">
+      <c r="G64" t="s">
         <v>122</v>
       </c>
-      <c r="H64" s="32" t="s">
+      <c r="H64" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="I64" s="30" t="s">
+      <c r="I64" t="s">
         <v>122</v>
       </c>
-      <c r="J64" s="32" t="s">
+      <c r="J64" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="K64" s="30" t="s">
+      <c r="K64" t="s">
         <v>122</v>
       </c>
       <c r="L64" t="s">
@@ -11580,7 +11590,7 @@
         <v>122</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>122</v>
+        <v>278</v>
       </c>
       <c r="T64">
         <v>6</v>
@@ -11597,34 +11607,34 @@
       <c r="X64">
         <v>6</v>
       </c>
-      <c r="Y64" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z64" s="30">
-        <v>1</v>
-      </c>
-      <c r="AA64" s="30">
+      <c r="Y64" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z64">
+        <v>1</v>
+      </c>
+      <c r="AA64">
         <v>16</v>
       </c>
-      <c r="AB64" s="30" t="s">
+      <c r="AB64" t="s">
         <v>99</v>
       </c>
-      <c r="AC64" s="30">
-        <v>1</v>
-      </c>
-      <c r="AD64" s="30">
-        <v>8</v>
-      </c>
-      <c r="AE64" s="30" t="s">
+      <c r="AC64">
+        <v>1</v>
+      </c>
+      <c r="AD64">
+        <v>8</v>
+      </c>
+      <c r="AE64" t="s">
         <v>101</v>
       </c>
       <c r="AF64" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="AG64" s="30" t="s">
+      <c r="AG64" t="s">
         <v>122</v>
       </c>
-      <c r="AH64" s="30" t="s">
+      <c r="AH64" t="s">
         <v>122</v>
       </c>
       <c r="AI64">
@@ -11637,10 +11647,10 @@
       <c r="AK64" s="10">
         <v>125</v>
       </c>
-      <c r="AL64" s="30">
+      <c r="AL64">
         <v>1169</v>
       </c>
-      <c r="AM64" s="30">
+      <c r="AM64">
         <v>414</v>
       </c>
       <c r="AN64" s="1">
@@ -11652,26 +11662,26 @@
       <c r="AP64">
         <v>384</v>
       </c>
-      <c r="AQ64" s="30" t="s">
+      <c r="AQ64" t="s">
         <v>49</v>
       </c>
       <c r="AR64" s="1">
-        <f t="shared" ref="AR64" si="65" xml:space="preserve"> _xlfn.FLOOR.MATH((AK64 - AN64) / 2)</f>
+        <f t="shared" ref="AR64" si="67" xml:space="preserve"> _xlfn.FLOOR.MATH((AK64 - AN64) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS64">
-        <f t="shared" ref="AS64" si="66" xml:space="preserve"> _xlfn.FLOOR.MATH((AL64 - AO64) / 2)</f>
+        <f t="shared" ref="AS64" si="68" xml:space="preserve"> _xlfn.FLOOR.MATH((AL64 - AO64) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT64">
-        <f t="shared" ref="AT64" si="67" xml:space="preserve"> _xlfn.FLOOR.MATH((AM64 - AP64) / 2)</f>
+        <f t="shared" ref="AT64" si="69" xml:space="preserve"> _xlfn.FLOOR.MATH((AM64 - AP64) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AU64" s="30" t="s">
+      <c r="AU64" t="s">
         <v>49</v>
       </c>
       <c r="AV64" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AW64" t="s">
         <v>167</v>
@@ -11679,14 +11689,14 @@
       <c r="AX64" t="s">
         <v>122</v>
       </c>
-      <c r="AY64" s="32" t="s">
+      <c r="AY64" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="AZ64" s="32" t="s">
+      <c r="AZ64" s="21" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
         <v>122</v>
       </c>
@@ -11809,15 +11819,15 @@
         <v>122</v>
       </c>
       <c r="AR69" s="1" t="e">
-        <f t="shared" ref="AR69" si="68" xml:space="preserve"> _xlfn.FLOOR.MATH((AK69 - AN69) / 2)</f>
+        <f t="shared" ref="AR69" si="70" xml:space="preserve"> _xlfn.FLOOR.MATH((AK69 - AN69) / 2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AS69" t="e">
-        <f t="shared" ref="AS69" si="69" xml:space="preserve"> _xlfn.FLOOR.MATH((AL69 - AO69) / 2)</f>
+        <f t="shared" ref="AS69" si="71" xml:space="preserve"> _xlfn.FLOOR.MATH((AL69 - AO69) / 2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AT69" t="e">
-        <f t="shared" ref="AT69" si="70" xml:space="preserve"> _xlfn.FLOOR.MATH((AM69 - AP69) / 2)</f>
+        <f t="shared" ref="AT69" si="72" xml:space="preserve"> _xlfn.FLOOR.MATH((AM69 - AP69) / 2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AU69" t="s">
@@ -11839,12 +11849,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AO75" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="76" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AO76" t="s">
         <v>262</v>
       </c>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\popsicle_cell\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CAC8B0-04B4-4008-BE14-D4F502516981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85F6D3D-DC61-41FE-8BBB-7E79C5EC7193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="2595" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="285">
   <si>
     <t>patch z</t>
   </si>
@@ -876,10 +876,22 @@
     <t>dataset07.0</t>
   </si>
   <si>
-    <t>Get fluorescence segmentation to work - since autofluorescence segmentation models did reach usable predictive powers, I am switching to the classical fluo. Segm. Approach instead of the unconventional autofluorescence segmentation. The train-config.yml file was adapted to session 230910-7, which is so far the best performing model, based on tensorboard metrics (val eval score is the most relevant metric / was the most relevant metric for the decision) and prediction images - this regards things like patience and validate_after_iters hyper parameters.</t>
-  </si>
-  <si>
-    <t>TBD (compare to session 230910-7)</t>
+    <t>231008-0</t>
+  </si>
+  <si>
+    <t>test3dunet</t>
+  </si>
+  <si>
+    <t>Get fluorescence segmentation to work - since autofluorescence segmentation models did not reach usable predictive powers, I am switching to the classical fluo. Segm. Approach instead of the unconventional autofluorescence segmentation. The train-config.yml file was adapted to session 230910-7, which is so far the best performing model, based on tensorboard metrics (val eval score is the most relevant metric / was the most relevant metric for the decision) and prediction images - this regards things like patience and validate_after_iters hyper parameters.</t>
+  </si>
+  <si>
+    <t>Success, 3dunet did managed to segment the fluorescently labelled heart very accurately and precisely. Interestingly, the val eval scores peek and plateau around the same value as session 230910-7 (and 230911-0). The train loss decreases much more steeply than the mentioned two sessions. The validation prediction images were accurate and precise already after around 80 training iterations (which was just when I first checked the tensorboard analytics). Interestingly, the val eval scores keep increasing all the way until the end of training, compared to peeking followed by slightly decreasing and forming a plateau - I deduct that this is because in this (the fluorescence segmentation training), the brightest pixels are the tissue of interest and the 'train loss learning funnel' (gradient descent visualisation) makes it easier to reach the global loss minimum than when training with autofuorescence images as done in the other two sessions. Whether the eyes were segmented, too, is not known yet, because the browser based tensorboard statistics only show one z-slice as a sample of the prediction images and targets.</t>
+  </si>
+  <si>
+    <t>Run test3dunet on the 231007-0 train3dunet model trained on babb03 ct3 heart fluorescence images.</t>
+  </si>
+  <si>
+    <t>I expect 3dunet to succeed in the test set fluorescence segmentation.</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1052,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1077,9 +1089,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1396,61 +1408,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
   <dimension ref="A1:AZ76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="AA50" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="AN65" sqref="AN65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="64.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="14.5703125" style="10" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="8.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="64.5546875" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="14.5546875" style="10" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.5546875" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="9.44140625" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
-    <col min="11" max="17" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="12.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="6.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="5.140625" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="11.140625" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="17" width="9.109375" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="12.88671875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="9.109375" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="6.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="5.109375" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="11.109375" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="6" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="14.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="7.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="8.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="15.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="7.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="9.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="16.7109375" style="10" customWidth="1"/>
-    <col min="33" max="34" width="14.85546875" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="7.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="8.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="15.44140625" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="7.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="9.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="16.6640625" style="10" customWidth="1"/>
+    <col min="33" max="34" width="14.88671875" customWidth="1"/>
     <col min="35" max="35" width="21" customWidth="1"/>
-    <col min="36" max="36" width="26.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="26.33203125" customWidth="1" outlineLevel="1"/>
     <col min="37" max="37" width="6" style="10" bestFit="1" customWidth="1"/>
     <col min="38" max="39" width="6" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.28515625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="6.140625" customWidth="1"/>
+    <col min="40" max="40" width="5.33203125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="6.109375" customWidth="1"/>
     <col min="42" max="43" width="5" customWidth="1"/>
-    <col min="44" max="44" width="6.140625" style="1" customWidth="1"/>
-    <col min="45" max="45" width="6.5703125" customWidth="1"/>
+    <col min="44" max="44" width="6.109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="6.5546875" customWidth="1"/>
     <col min="46" max="46" width="5" customWidth="1"/>
     <col min="47" max="47" width="6" customWidth="1"/>
-    <col min="48" max="48" width="74.85546875" style="10" customWidth="1" outlineLevel="1"/>
-    <col min="49" max="49" width="74.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="50" max="50" width="5.140625" customWidth="1"/>
-    <col min="51" max="51" width="73.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="48" width="74.88671875" style="10" customWidth="1" outlineLevel="1"/>
+    <col min="49" max="49" width="74.44140625" customWidth="1" outlineLevel="1"/>
+    <col min="50" max="50" width="5.109375" customWidth="1"/>
+    <col min="51" max="51" width="73.88671875" customWidth="1" outlineLevel="1"/>
     <col min="52" max="52" width="206" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.7109375" customWidth="1"/>
-    <col min="57" max="57" width="12.140625" customWidth="1"/>
+    <col min="53" max="53" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.6640625" customWidth="1"/>
+    <col min="57" max="57" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
@@ -1608,7 +1620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -1767,7 +1779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -1813,11 +1825,11 @@
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
+      <c r="P3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>8</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -1927,7 +1939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:52" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>55</v>
       </c>
@@ -2086,7 +2098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2245,7 +2257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2404,7 +2416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2563,7 +2575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2722,7 +2734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2887,7 +2899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -3046,7 +3058,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3205,7 +3217,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -3251,11 +3263,11 @@
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
+      <c r="P12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>8</v>
       </c>
       <c r="R12">
         <v>1</v>
@@ -3365,7 +3377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -3524,7 +3536,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -3683,7 +3695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -3729,11 +3741,11 @@
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
+      <c r="P15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>8</v>
       </c>
       <c r="R15">
         <v>1</v>
@@ -3843,7 +3855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
@@ -3889,11 +3901,11 @@
       <c r="O16" s="7">
         <v>0</v>
       </c>
-      <c r="P16" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>0</v>
+      <c r="P16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="R16" s="7">
         <v>1</v>
@@ -4003,7 +4015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -4049,11 +4061,11 @@
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
+      <c r="P17" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="R17">
         <v>1</v>
@@ -4163,7 +4175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -4209,11 +4221,11 @@
       <c r="O18">
         <v>0</v>
       </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
+      <c r="P18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>8</v>
       </c>
       <c r="R18">
         <v>1</v>
@@ -4323,7 +4335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -4369,11 +4381,11 @@
       <c r="O19">
         <v>0</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
+      <c r="P19" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>8</v>
       </c>
       <c r="R19">
         <v>1</v>
@@ -4483,7 +4495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -4529,11 +4541,11 @@
       <c r="O20">
         <v>0</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
+      <c r="P20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>8</v>
       </c>
       <c r="R20">
         <v>1</v>
@@ -4643,7 +4655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -4689,11 +4701,11 @@
       <c r="O21">
         <v>0</v>
       </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
+      <c r="P21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>8</v>
       </c>
       <c r="R21">
         <v>1</v>
@@ -4803,7 +4815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -4849,11 +4861,11 @@
       <c r="O22">
         <v>0</v>
       </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
+      <c r="P22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>8</v>
       </c>
       <c r="R22">
         <v>1</v>
@@ -4963,7 +4975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -5009,11 +5021,11 @@
       <c r="O23">
         <v>0</v>
       </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
+      <c r="P23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>8</v>
       </c>
       <c r="R23">
         <v>1</v>
@@ -5123,7 +5135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -5169,11 +5181,11 @@
       <c r="O24">
         <v>0</v>
       </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
+      <c r="P24" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>8</v>
       </c>
       <c r="R24">
         <v>1</v>
@@ -5283,7 +5295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -5441,7 +5453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>104</v>
       </c>
@@ -5599,7 +5611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -5645,11 +5657,11 @@
       <c r="O27">
         <v>0</v>
       </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
+      <c r="P27" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>8</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -5763,7 +5775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>109</v>
       </c>
@@ -5926,7 +5938,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -6090,7 +6102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>148</v>
       </c>
@@ -6136,11 +6148,11 @@
       <c r="O30">
         <v>0</v>
       </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
+      <c r="P30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>8</v>
       </c>
       <c r="R30">
         <v>1</v>
@@ -6254,7 +6266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>152</v>
       </c>
@@ -6300,11 +6312,11 @@
       <c r="O31">
         <v>0</v>
       </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
+      <c r="P31" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>8</v>
       </c>
       <c r="R31">
         <v>1</v>
@@ -6418,7 +6430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>159</v>
       </c>
@@ -6464,11 +6476,11 @@
       <c r="O32">
         <v>0</v>
       </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
+      <c r="P32" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>8</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -6581,7 +6593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>172</v>
       </c>
@@ -6744,7 +6756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>173</v>
       </c>
@@ -6907,7 +6919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>182</v>
       </c>
@@ -7070,7 +7082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>187</v>
       </c>
@@ -7233,7 +7245,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>190</v>
       </c>
@@ -7396,7 +7408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>195</v>
       </c>
@@ -7559,7 +7571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>198</v>
       </c>
@@ -7722,7 +7734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>202</v>
       </c>
@@ -7885,7 +7897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>203</v>
       </c>
@@ -8048,7 +8060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>205</v>
       </c>
@@ -8211,7 +8223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>208</v>
       </c>
@@ -8374,7 +8386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>209</v>
       </c>
@@ -8419,6 +8431,12 @@
       </c>
       <c r="O44">
         <v>0</v>
+      </c>
+      <c r="P44" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>8</v>
       </c>
       <c r="R44">
         <v>1</v>
@@ -8532,7 +8550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>210</v>
       </c>
@@ -8577,6 +8595,12 @@
       </c>
       <c r="O45" s="7">
         <v>0</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="R45" s="7">
         <v>1</v>
@@ -8690,7 +8714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>243</v>
       </c>
@@ -8848,7 +8872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
         <v>244</v>
       </c>
@@ -8888,11 +8912,11 @@
       <c r="O47" s="21">
         <v>0</v>
       </c>
-      <c r="P47" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="21">
-        <v>0</v>
+      <c r="P47" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="R47">
         <v>1</v>
@@ -9006,7 +9030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>245</v>
       </c>
@@ -9046,11 +9070,11 @@
       <c r="O48" s="21">
         <v>0</v>
       </c>
-      <c r="P48" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="21">
-        <v>0</v>
+      <c r="P48" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="R48">
         <v>1</v>
@@ -9164,7 +9188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A49" s="17" t="s">
         <v>246</v>
       </c>
@@ -9204,11 +9228,11 @@
       <c r="O49" s="21">
         <v>0</v>
       </c>
-      <c r="P49" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="21">
-        <v>0</v>
+      <c r="P49" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="R49">
         <v>1</v>
@@ -9322,7 +9346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
         <v>247</v>
       </c>
@@ -9362,11 +9386,11 @@
       <c r="O50" s="21">
         <v>0</v>
       </c>
-      <c r="P50" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="21">
-        <v>0</v>
+      <c r="P50" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q50" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="R50">
         <v>1</v>
@@ -9480,7 +9504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>248</v>
       </c>
@@ -9520,11 +9544,11 @@
       <c r="O51" s="21">
         <v>0</v>
       </c>
-      <c r="P51" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="21">
-        <v>0</v>
+      <c r="P51" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q51" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="R51">
         <v>1</v>
@@ -9638,7 +9662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
         <v>249</v>
       </c>
@@ -9678,11 +9702,11 @@
       <c r="O52" s="21">
         <v>0</v>
       </c>
-      <c r="P52" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="21">
-        <v>0</v>
+      <c r="P52" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="R52">
         <v>1</v>
@@ -9796,7 +9820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
         <v>250</v>
       </c>
@@ -9836,11 +9860,11 @@
       <c r="O53" s="21">
         <v>0</v>
       </c>
-      <c r="P53" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="21">
-        <v>0</v>
+      <c r="P53" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q53" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="R53">
         <v>1</v>
@@ -9954,7 +9978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A54" s="17" t="s">
         <v>251</v>
       </c>
@@ -9994,11 +10018,11 @@
       <c r="O54" s="21">
         <v>0</v>
       </c>
-      <c r="P54" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="21">
-        <v>0</v>
+      <c r="P54" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="R54">
         <v>1</v>
@@ -10112,7 +10136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A55" s="17" t="s">
         <v>252</v>
       </c>
@@ -10270,7 +10294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A56" s="17" t="s">
         <v>253</v>
       </c>
@@ -10310,11 +10334,11 @@
       <c r="O56" s="21">
         <v>0</v>
       </c>
-      <c r="P56" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="21">
-        <v>0</v>
+      <c r="P56" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q56" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="R56">
         <v>1</v>
@@ -10428,7 +10452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A57" s="17" t="s">
         <v>254</v>
       </c>
@@ -10468,11 +10492,11 @@
       <c r="O57" s="21">
         <v>0</v>
       </c>
-      <c r="P57" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="21">
-        <v>0</v>
+      <c r="P57" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="R57">
         <v>1</v>
@@ -10586,7 +10610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A58" s="17" t="s">
         <v>255</v>
       </c>
@@ -10626,11 +10650,11 @@
       <c r="O58" s="21">
         <v>0</v>
       </c>
-      <c r="P58" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="21">
-        <v>0</v>
+      <c r="P58" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="R58">
         <v>1</v>
@@ -10744,7 +10768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A59" s="17" t="s">
         <v>256</v>
       </c>
@@ -10784,11 +10808,11 @@
       <c r="O59" s="21">
         <v>0</v>
       </c>
-      <c r="P59" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="21">
-        <v>0</v>
+      <c r="P59" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="R59">
         <v>1</v>
@@ -10902,7 +10926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A60" s="17" t="s">
         <v>257</v>
       </c>
@@ -10942,11 +10966,11 @@
       <c r="O60" s="21">
         <v>0</v>
       </c>
-      <c r="P60" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="21">
-        <v>0</v>
+      <c r="P60" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="R60">
         <v>1</v>
@@ -11060,7 +11084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="s">
         <v>258</v>
       </c>
@@ -11100,11 +11124,11 @@
       <c r="O61" s="21">
         <v>0</v>
       </c>
-      <c r="P61" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="21">
-        <v>0</v>
+      <c r="P61" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q61" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="R61">
         <v>1</v>
@@ -11218,7 +11242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A62" s="17" t="s">
         <v>259</v>
       </c>
@@ -11258,11 +11282,11 @@
       <c r="O62" s="21">
         <v>0</v>
       </c>
-      <c r="P62" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="21">
-        <v>0</v>
+      <c r="P62" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="R62">
         <v>1</v>
@@ -11376,7 +11400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="28" t="s">
         <v>260</v>
       </c>
@@ -11416,11 +11440,11 @@
       <c r="O63" s="22">
         <v>0</v>
       </c>
-      <c r="P63" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="22">
-        <v>0</v>
+      <c r="P63" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q63" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="R63" s="7">
         <v>1</v>
@@ -11534,51 +11558,51 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A64" s="30" t="s">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A64" s="17" t="s">
         <v>277</v>
       </c>
       <c r="B64" t="s">
         <v>124</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D64" t="s">
         <v>275</v>
       </c>
       <c r="E64" t="s">
-        <v>280</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G64" t="s">
-        <v>122</v>
+        <v>282</v>
+      </c>
+      <c r="F64" s="10">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
       </c>
       <c r="H64" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="I64" t="s">
-        <v>122</v>
+        <v>8</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
       </c>
       <c r="J64" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="K64" t="s">
-        <v>122</v>
-      </c>
-      <c r="L64" t="s">
-        <v>122</v>
-      </c>
-      <c r="M64" t="s">
-        <v>122</v>
-      </c>
-      <c r="N64" t="s">
-        <v>122</v>
-      </c>
-      <c r="O64" t="s">
-        <v>122</v>
+        <v>8</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
       </c>
       <c r="P64" t="s">
         <v>122</v>
@@ -11586,8 +11610,8 @@
       <c r="Q64" t="s">
         <v>122</v>
       </c>
-      <c r="R64" t="s">
-        <v>122</v>
+      <c r="R64">
+        <v>1</v>
       </c>
       <c r="S64" s="1" t="s">
         <v>278</v>
@@ -11696,7 +11720,75 @@
         <v>122</v>
       </c>
     </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A65" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="B65" t="s">
+        <v>280</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D65" t="s">
+        <v>284</v>
+      </c>
+      <c r="E65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G65" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="H65" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="I65" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="J65" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="K65" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="L65" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="M65" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="N65" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="O65" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="P65" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q65" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="R65" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AK65" s="10">
+        <v>125</v>
+      </c>
+      <c r="AL65">
+        <v>1169</v>
+      </c>
+      <c r="AM65">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="69" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
         <v>122</v>
       </c>
@@ -11849,12 +11941,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AO75" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AO76" t="s">
         <v>262</v>
       </c>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\popsicle_cell\Documents\cloud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85F6D3D-DC61-41FE-8BBB-7E79C5EC7193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F6EDCA-CA62-43C3-819A-769DCC534157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="294">
   <si>
     <t>patch z</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>ValueError: requested an output size of torch.Size([9, 38, 116]), but valid sizes range from [7, 37, 115] to [8, 38, 116] (for an input of torch.Size([4, 19, 58]))</t>
-  </si>
-  <si>
-    <t>file of error origin</t>
   </si>
   <si>
     <t>output padding, assignment of 'output_padding'</t>
@@ -879,9 +876,6 @@
     <t>231008-0</t>
   </si>
   <si>
-    <t>test3dunet</t>
-  </si>
-  <si>
     <t>Get fluorescence segmentation to work - since autofluorescence segmentation models did not reach usable predictive powers, I am switching to the classical fluo. Segm. Approach instead of the unconventional autofluorescence segmentation. The train-config.yml file was adapted to session 230910-7, which is so far the best performing model, based on tensorboard metrics (val eval score is the most relevant metric / was the most relevant metric for the decision) and prediction images - this regards things like patience and validate_after_iters hyper parameters.</t>
   </si>
   <si>
@@ -892,6 +886,39 @@
   </si>
   <si>
     <t>I expect 3dunet to succeed in the test set fluorescence segmentation.</t>
+  </si>
+  <si>
+    <t>231008-1</t>
+  </si>
+  <si>
+    <t>predict3dunet</t>
+  </si>
+  <si>
+    <t>Same as 231008-0. Also, install missing python package 'tqdm'.</t>
+  </si>
+  <si>
+    <t>See 231008-1 cell below for results, because: Error, missing a python package 'tqdm' (for showing progress in CLI).</t>
+  </si>
+  <si>
+    <t>error, missing python package 'tqdm'.</t>
+  </si>
+  <si>
+    <t>TBD: formula is TBD</t>
+  </si>
+  <si>
+    <t>patch = default test_config.yml values from wolny/pytorch-3dunet repo</t>
+  </si>
+  <si>
+    <t>stride = default test_config.yml values from wolny/pytorch-3dunet repo. Also, stride &gt;= patch / 2</t>
+  </si>
+  <si>
+    <t>ModuleNotFoundError: No module named 'tqdm'</t>
+  </si>
+  <si>
+    <t>file of error origin (the file that contains the error message = the last (!= the first) line from the error traceback)</t>
+  </si>
+  <si>
+    <t>File "/data/dwalth/pytorch-3dunet/pytorch3dunet/unet3d/predictor.py", line 10, in &lt;module&gt;: from tqdm import tqdm</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1079,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1089,9 +1116,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1408,117 +1438,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
   <dimension ref="A1:AZ76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA50" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="AN65" sqref="AN65"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="64.5546875" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="14.5546875" style="10" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="30.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="9.44140625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="64.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="14.5703125" style="10" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
-    <col min="11" max="17" width="9.109375" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="12.88671875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="9.109375" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="6.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="5.109375" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="11.109375" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="17" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="12.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="6.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="5.140625" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="11.140625" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="6" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="14.33203125" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="7.88671875" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="8.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="15.44140625" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="7.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="9.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="16.6640625" style="10" customWidth="1"/>
-    <col min="33" max="34" width="14.88671875" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="7.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="8.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="15.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="7.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="9.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="16.7109375" style="10" customWidth="1"/>
+    <col min="33" max="34" width="14.85546875" customWidth="1"/>
     <col min="35" max="35" width="21" customWidth="1"/>
-    <col min="36" max="36" width="26.33203125" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="26.28515625" customWidth="1" outlineLevel="1"/>
     <col min="37" max="37" width="6" style="10" bestFit="1" customWidth="1"/>
     <col min="38" max="39" width="6" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.33203125" style="1" customWidth="1"/>
-    <col min="41" max="41" width="6.109375" customWidth="1"/>
+    <col min="40" max="40" width="5.28515625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="6.140625" customWidth="1"/>
     <col min="42" max="43" width="5" customWidth="1"/>
-    <col min="44" max="44" width="6.109375" style="1" customWidth="1"/>
-    <col min="45" max="45" width="6.5546875" customWidth="1"/>
+    <col min="44" max="44" width="6.140625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="6.5703125" customWidth="1"/>
     <col min="46" max="46" width="5" customWidth="1"/>
     <col min="47" max="47" width="6" customWidth="1"/>
-    <col min="48" max="48" width="74.88671875" style="10" customWidth="1" outlineLevel="1"/>
-    <col min="49" max="49" width="74.44140625" customWidth="1" outlineLevel="1"/>
-    <col min="50" max="50" width="5.109375" customWidth="1"/>
-    <col min="51" max="51" width="73.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="48" width="74.85546875" style="10" customWidth="1" outlineLevel="1"/>
+    <col min="49" max="49" width="74.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="50" max="50" width="5.140625" customWidth="1"/>
+    <col min="51" max="51" width="73.85546875" customWidth="1" outlineLevel="1"/>
     <col min="52" max="52" width="206" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.6640625" customWidth="1"/>
-    <col min="57" max="57" width="12.109375" customWidth="1"/>
+    <col min="53" max="53" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.7109375" customWidth="1"/>
+    <col min="57" max="57" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="K1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="S1" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>3</v>
@@ -1527,49 +1557,49 @@
         <v>4</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="X1" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AA1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="AE1" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF1" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AK1" s="9" t="s">
         <v>11</v>
@@ -1590,19 +1620,19 @@
         <v>2</v>
       </c>
       <c r="AQ1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="AR1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="AV1" s="9" t="s">
         <v>23</v>
@@ -1611,31 +1641,31 @@
         <v>22</v>
       </c>
       <c r="AX1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AY1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AY1" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="AZ1" s="2" t="s">
-        <v>26</v>
+        <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
         <v>133</v>
       </c>
-      <c r="E2" t="s">
-        <v>134</v>
-      </c>
       <c r="F2" s="10">
         <v>0</v>
       </c>
@@ -1649,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
         <v>8</v>
@@ -1676,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T2">
         <v>5</v>
@@ -1694,8 +1724,8 @@
         <f xml:space="preserve"> V2 + W2</f>
         <v>5</v>
       </c>
-      <c r="Y2" t="s">
-        <v>8</v>
+      <c r="Y2">
+        <v>2</v>
       </c>
       <c r="Z2">
         <v>3</v>
@@ -1704,7 +1734,7 @@
         <v>16</v>
       </c>
       <c r="AB2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC2">
         <v>1</v>
@@ -1713,7 +1743,7 @@
         <v>8</v>
       </c>
       <c r="AE2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF2" s="10" t="s">
         <v>8</v>
@@ -1749,7 +1779,7 @@
         <v>160</v>
       </c>
       <c r="AQ2" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR2" s="25">
         <v>32</v>
@@ -1761,39 +1791,39 @@
         <v>80</v>
       </c>
       <c r="AU2" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV2" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="AW2" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="AW2" s="21" t="s">
-        <v>272</v>
-      </c>
       <c r="AX2">
         <v>1</v>
       </c>
       <c r="AY2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AZ2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
         <v>130</v>
       </c>
-      <c r="B3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" t="s">
-        <v>131</v>
-      </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F3" s="10">
         <v>0</v>
@@ -1808,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1835,7 +1865,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T3">
         <v>5</v>
@@ -1853,8 +1883,8 @@
         <f t="shared" ref="X3:X24" si="0" xml:space="preserve"> V3 + W3</f>
         <v>5</v>
       </c>
-      <c r="Y3" t="s">
-        <v>8</v>
+      <c r="Y3">
+        <v>2</v>
       </c>
       <c r="Z3">
         <v>3</v>
@@ -1863,7 +1893,7 @@
         <v>16</v>
       </c>
       <c r="AB3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC3">
         <v>1</v>
@@ -1872,7 +1902,7 @@
         <v>8</v>
       </c>
       <c r="AE3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF3" s="10">
         <v>20769</v>
@@ -1888,7 +1918,7 @@
         <v>8</v>
       </c>
       <c r="AJ3" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AK3" s="23">
         <v>125</v>
@@ -1909,7 +1939,7 @@
         <v>160</v>
       </c>
       <c r="AQ3" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR3" s="25">
         <v>32</v>
@@ -1921,14 +1951,14 @@
         <v>80</v>
       </c>
       <c r="AU3" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV3" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="AW3" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="AW3" s="21" t="s">
-        <v>272</v>
-      </c>
       <c r="AX3">
         <v>0</v>
       </c>
@@ -1939,21 +1969,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:52" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:52" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>125</v>
-      </c>
       <c r="D4" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" s="13">
         <v>0</v>
@@ -1962,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I4" s="12">
         <v>0</v>
@@ -1995,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T4" s="12">
         <v>5</v>
@@ -2013,8 +2043,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Y4" s="12" t="s">
-        <v>8</v>
+      <c r="Y4" s="12">
+        <v>2</v>
       </c>
       <c r="Z4" s="12">
         <v>3</v>
@@ -2023,7 +2053,7 @@
         <v>16</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC4" s="12">
         <v>1</v>
@@ -2032,7 +2062,7 @@
         <v>8</v>
       </c>
       <c r="AE4" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF4" s="13">
         <v>-1</v>
@@ -2047,7 +2077,7 @@
         <v>8</v>
       </c>
       <c r="AJ4" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AK4" s="26">
         <v>125</v>
@@ -2068,7 +2098,7 @@
         <v>394</v>
       </c>
       <c r="AQ4" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR4" s="27">
         <v>10</v>
@@ -2080,7 +2110,7 @@
         <v>10</v>
       </c>
       <c r="AU4" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV4" s="26" t="s">
         <v>24</v>
@@ -2098,21 +2128,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" s="10">
         <v>0</v>
@@ -2121,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I5" s="16">
         <v>0</v>
@@ -2154,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T5">
         <v>5</v>
@@ -2172,8 +2202,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Y5" t="s">
-        <v>8</v>
+      <c r="Y5">
+        <v>2</v>
       </c>
       <c r="Z5">
         <v>3</v>
@@ -2182,7 +2212,7 @@
         <v>16</v>
       </c>
       <c r="AB5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC5">
         <v>1</v>
@@ -2191,7 +2221,7 @@
         <v>8</v>
       </c>
       <c r="AE5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF5" s="10">
         <v>-1</v>
@@ -2206,7 +2236,7 @@
         <v>8</v>
       </c>
       <c r="AJ5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AK5" s="10">
         <v>125</v>
@@ -2227,7 +2257,7 @@
         <v>390</v>
       </c>
       <c r="AQ5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR5" s="1">
         <v>10</v>
@@ -2239,7 +2269,7 @@
         <v>10</v>
       </c>
       <c r="AU5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV5" s="23" t="s">
         <v>24</v>
@@ -2257,21 +2287,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" s="10">
         <v>0</v>
@@ -2280,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2313,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T6">
         <v>5</v>
@@ -2331,8 +2361,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Y6" t="s">
-        <v>8</v>
+      <c r="Y6">
+        <v>2</v>
       </c>
       <c r="Z6">
         <v>3</v>
@@ -2341,7 +2371,7 @@
         <v>16</v>
       </c>
       <c r="AB6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC6">
         <v>1</v>
@@ -2350,7 +2380,7 @@
         <v>8</v>
       </c>
       <c r="AE6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF6" s="10" t="s">
         <v>8</v>
@@ -2365,7 +2395,7 @@
         <v>8</v>
       </c>
       <c r="AJ6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AK6" s="10">
         <v>125</v>
@@ -2386,7 +2416,7 @@
         <v>390</v>
       </c>
       <c r="AQ6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR6" s="1">
         <v>26</v>
@@ -2398,7 +2428,7 @@
         <v>25</v>
       </c>
       <c r="AU6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV6" s="10" t="s">
         <v>24</v>
@@ -2416,22 +2446,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
         <v>87</v>
       </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>88</v>
-      </c>
       <c r="F7" s="10">
         <v>0</v>
       </c>
@@ -2439,7 +2469,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2472,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T7">
         <v>5</v>
@@ -2490,8 +2520,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Y7" t="s">
-        <v>8</v>
+      <c r="Y7">
+        <v>2</v>
       </c>
       <c r="Z7">
         <v>3</v>
@@ -2500,7 +2530,7 @@
         <v>16</v>
       </c>
       <c r="AB7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC7">
         <v>1</v>
@@ -2509,7 +2539,7 @@
         <v>8</v>
       </c>
       <c r="AE7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF7" s="10" t="s">
         <v>8</v>
@@ -2524,7 +2554,7 @@
         <v>8</v>
       </c>
       <c r="AJ7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AK7" s="10">
         <v>125</v>
@@ -2545,7 +2575,7 @@
         <v>390</v>
       </c>
       <c r="AQ7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR7" s="1">
         <v>25</v>
@@ -2557,7 +2587,7 @@
         <v>24</v>
       </c>
       <c r="AU7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV7" s="10" t="s">
         <v>24</v>
@@ -2575,21 +2605,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" s="10">
         <v>0</v>
@@ -2598,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2631,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T8">
         <v>5</v>
@@ -2649,8 +2679,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Y8" t="s">
-        <v>8</v>
+      <c r="Y8">
+        <v>2</v>
       </c>
       <c r="Z8">
         <v>3</v>
@@ -2659,7 +2689,7 @@
         <v>16</v>
       </c>
       <c r="AB8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC8">
         <v>1</v>
@@ -2668,7 +2698,7 @@
         <v>8</v>
       </c>
       <c r="AE8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF8" s="10">
         <v>-1</v>
@@ -2683,7 +2713,7 @@
         <v>8</v>
       </c>
       <c r="AJ8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AK8" s="10">
         <v>125</v>
@@ -2704,7 +2734,7 @@
         <v>400</v>
       </c>
       <c r="AQ8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR8" s="1">
         <v>12</v>
@@ -2716,7 +2746,7 @@
         <v>7</v>
       </c>
       <c r="AU8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV8" s="10" t="s">
         <v>24</v>
@@ -2734,21 +2764,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" s="10">
         <v>0</v>
@@ -2757,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2790,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T9">
         <v>5</v>
@@ -2808,8 +2838,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Y9" t="s">
-        <v>8</v>
+      <c r="Y9">
+        <v>2</v>
       </c>
       <c r="Z9">
         <v>3</v>
@@ -2818,7 +2848,7 @@
         <v>16</v>
       </c>
       <c r="AB9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC9">
         <v>1</v>
@@ -2827,7 +2857,7 @@
         <v>8</v>
       </c>
       <c r="AE9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF9" s="10">
         <v>20319</v>
@@ -2842,7 +2872,7 @@
         <v>8</v>
       </c>
       <c r="AJ9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AK9" s="10">
         <v>125</v>
@@ -2866,7 +2896,7 @@
         <v>304</v>
       </c>
       <c r="AQ9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR9" s="1">
         <f>(AK9-AN9)/2</f>
@@ -2881,7 +2911,7 @@
         <v>55</v>
       </c>
       <c r="AU9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV9" s="10" t="s">
         <v>24</v>
@@ -2899,21 +2929,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" s="10">
         <v>0</v>
@@ -2922,7 +2952,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2955,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T10">
         <v>5</v>
@@ -2973,8 +3003,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Y10" t="s">
-        <v>8</v>
+      <c r="Y10">
+        <v>2</v>
       </c>
       <c r="Z10">
         <v>3</v>
@@ -2983,7 +3013,7 @@
         <v>16</v>
       </c>
       <c r="AB10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC10">
         <v>1</v>
@@ -2992,7 +3022,7 @@
         <v>8</v>
       </c>
       <c r="AE10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF10" s="10">
         <v>19417</v>
@@ -3007,7 +3037,7 @@
         <v>8</v>
       </c>
       <c r="AJ10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AK10" s="10">
         <v>125</v>
@@ -3028,7 +3058,7 @@
         <v>304</v>
       </c>
       <c r="AQ10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR10" s="1">
         <v>24</v>
@@ -3040,13 +3070,13 @@
         <v>48</v>
       </c>
       <c r="AU10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV10" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AX10">
         <v>1</v>
@@ -3055,24 +3085,24 @@
         <v>25</v>
       </c>
       <c r="AZ10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" s="10">
         <v>0</v>
@@ -3081,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -3114,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T11">
         <v>5</v>
@@ -3132,8 +3162,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Y11" t="s">
-        <v>8</v>
+      <c r="Y11">
+        <v>2</v>
       </c>
       <c r="Z11">
         <v>3</v>
@@ -3142,7 +3172,7 @@
         <v>16</v>
       </c>
       <c r="AB11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC11">
         <v>1</v>
@@ -3151,7 +3181,7 @@
         <v>8</v>
       </c>
       <c r="AE11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF11" s="10">
         <v>-1</v>
@@ -3166,7 +3196,7 @@
         <v>8</v>
       </c>
       <c r="AJ11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AK11" s="10">
         <v>125</v>
@@ -3187,7 +3217,7 @@
         <v>304</v>
       </c>
       <c r="AQ11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR11" s="1">
         <v>24</v>
@@ -3199,39 +3229,39 @@
         <v>40</v>
       </c>
       <c r="AU11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV11" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AX11">
+        <v>1</v>
+      </c>
+      <c r="AY11" t="s">
         <v>30</v>
       </c>
-      <c r="AX11">
-        <v>1</v>
-      </c>
-      <c r="AY11" t="s">
+      <c r="AZ11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="AZ11" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" s="10">
         <v>0</v>
@@ -3246,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -3273,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T12">
         <v>5</v>
@@ -3291,8 +3321,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Y12" t="s">
-        <v>8</v>
+      <c r="Y12">
+        <v>2</v>
       </c>
       <c r="Z12">
         <v>3</v>
@@ -3301,7 +3331,7 @@
         <v>16</v>
       </c>
       <c r="AB12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC12">
         <v>1</v>
@@ -3310,7 +3340,7 @@
         <v>8</v>
       </c>
       <c r="AE12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF12" s="10">
         <v>10135</v>
@@ -3326,7 +3356,7 @@
         <v>8</v>
       </c>
       <c r="AJ12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AK12" s="10">
         <v>125</v>
@@ -3347,7 +3377,7 @@
         <v>160</v>
       </c>
       <c r="AQ12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR12" s="1">
         <v>24</v>
@@ -3359,13 +3389,13 @@
         <v>120</v>
       </c>
       <c r="AU12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV12" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX12">
         <v>0</v>
@@ -3377,21 +3407,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="10">
         <v>0</v>
@@ -3400,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3433,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T13">
         <v>5</v>
@@ -3451,8 +3481,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Y13" t="s">
-        <v>8</v>
+      <c r="Y13">
+        <v>2</v>
       </c>
       <c r="Z13">
         <v>3</v>
@@ -3461,7 +3491,7 @@
         <v>16</v>
       </c>
       <c r="AB13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC13">
         <v>1</v>
@@ -3470,7 +3500,7 @@
         <v>8</v>
       </c>
       <c r="AE13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF13" s="10" t="s">
         <v>8</v>
@@ -3485,7 +3515,7 @@
         <v>8</v>
       </c>
       <c r="AJ13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AK13" s="10">
         <v>125</v>
@@ -3506,7 +3536,7 @@
         <v>168</v>
       </c>
       <c r="AQ13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR13" s="1">
         <v>24</v>
@@ -3518,39 +3548,39 @@
         <v>120</v>
       </c>
       <c r="AU13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV13" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AW13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX13">
         <v>1</v>
       </c>
       <c r="AY13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AZ13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="10">
         <v>0</v>
@@ -3559,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3592,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T14">
         <v>5</v>
@@ -3610,8 +3640,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Y14" t="s">
-        <v>8</v>
+      <c r="Y14">
+        <v>2</v>
       </c>
       <c r="Z14">
         <v>3</v>
@@ -3620,7 +3650,7 @@
         <v>16</v>
       </c>
       <c r="AB14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC14">
         <v>1</v>
@@ -3629,7 +3659,7 @@
         <v>8</v>
       </c>
       <c r="AE14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF14" s="10" t="s">
         <v>8</v>
@@ -3644,7 +3674,7 @@
         <v>8</v>
       </c>
       <c r="AJ14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AK14" s="10">
         <v>125</v>
@@ -3665,7 +3695,7 @@
         <v>168</v>
       </c>
       <c r="AQ14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR14" s="1">
         <v>16</v>
@@ -3677,39 +3707,39 @@
         <v>112</v>
       </c>
       <c r="AU14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV14" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AW14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX14">
         <v>1</v>
       </c>
       <c r="AY14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AZ14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" s="10">
         <v>0</v>
@@ -3724,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -3751,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T15">
         <v>5</v>
@@ -3769,8 +3799,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Y15" t="s">
-        <v>8</v>
+      <c r="Y15">
+        <v>2</v>
       </c>
       <c r="Z15">
         <v>3</v>
@@ -3779,7 +3809,7 @@
         <v>16</v>
       </c>
       <c r="AB15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC15">
         <v>1</v>
@@ -3788,7 +3818,7 @@
         <v>8</v>
       </c>
       <c r="AE15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF15" s="10">
         <v>13843</v>
@@ -3804,7 +3834,7 @@
         <v>8</v>
       </c>
       <c r="AJ15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AK15" s="10">
         <v>125</v>
@@ -3825,7 +3855,7 @@
         <v>176</v>
       </c>
       <c r="AQ15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR15" s="1">
         <v>8</v>
@@ -3837,13 +3867,13 @@
         <v>104</v>
       </c>
       <c r="AU15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV15" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX15">
         <v>0</v>
@@ -3855,21 +3885,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" s="11">
         <v>0</v>
@@ -3884,7 +3914,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K16" s="7">
         <v>0</v>
@@ -3911,7 +3941,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T16" s="7">
         <v>5</v>
@@ -3929,8 +3959,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Y16" s="7" t="s">
-        <v>8</v>
+      <c r="Y16" s="7">
+        <v>2</v>
       </c>
       <c r="Z16" s="7">
         <v>3</v>
@@ -3939,7 +3969,7 @@
         <v>16</v>
       </c>
       <c r="AB16" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC16" s="7">
         <v>1</v>
@@ -3948,7 +3978,7 @@
         <v>8</v>
       </c>
       <c r="AE16" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF16" s="11">
         <v>13843</v>
@@ -3964,7 +3994,7 @@
         <v>8</v>
       </c>
       <c r="AJ16" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AK16" s="11">
         <v>125</v>
@@ -3985,7 +4015,7 @@
         <v>176</v>
       </c>
       <c r="AQ16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR16" s="8">
         <v>16</v>
@@ -3997,39 +4027,39 @@
         <v>112</v>
       </c>
       <c r="AU16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV16" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ16" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>49</v>
       </c>
-      <c r="AV16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ16" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" s="10">
         <v>0</v>
@@ -4044,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -4064,14 +4094,14 @@
       <c r="P17" t="s">
         <v>8</v>
       </c>
-      <c r="Q17" s="30" t="s">
+      <c r="Q17" t="s">
         <v>8</v>
       </c>
       <c r="R17">
         <v>1</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T17">
         <v>5</v>
@@ -4089,8 +4119,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Y17" t="s">
-        <v>8</v>
+      <c r="Y17">
+        <v>2</v>
       </c>
       <c r="Z17">
         <v>3</v>
@@ -4099,7 +4129,7 @@
         <v>16</v>
       </c>
       <c r="AB17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC17">
         <v>1</v>
@@ -4108,7 +4138,7 @@
         <v>8</v>
       </c>
       <c r="AE17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF17" s="10">
         <v>10135</v>
@@ -4124,7 +4154,7 @@
         <v>8</v>
       </c>
       <c r="AJ17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AK17" s="10">
         <v>125</v>
@@ -4145,7 +4175,7 @@
         <v>160</v>
       </c>
       <c r="AQ17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR17" s="4">
         <v>8</v>
@@ -4157,13 +4187,13 @@
         <v>96</v>
       </c>
       <c r="AU17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV17" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AW17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AX17">
         <v>0</v>
@@ -4175,21 +4205,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="10">
         <v>0</v>
@@ -4204,7 +4234,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -4231,7 +4261,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T18">
         <v>5</v>
@@ -4249,8 +4279,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Y18" t="s">
-        <v>8</v>
+      <c r="Y18">
+        <v>2</v>
       </c>
       <c r="Z18">
         <v>3</v>
@@ -4259,7 +4289,7 @@
         <v>16</v>
       </c>
       <c r="AB18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC18">
         <v>1</v>
@@ -4268,7 +4298,7 @@
         <v>8</v>
       </c>
       <c r="AE18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF18" s="10">
         <v>10135</v>
@@ -4284,7 +4314,7 @@
         <v>8</v>
       </c>
       <c r="AJ18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AK18" s="10">
         <v>125</v>
@@ -4305,7 +4335,7 @@
         <v>160</v>
       </c>
       <c r="AQ18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR18" s="1">
         <v>24</v>
@@ -4317,13 +4347,13 @@
         <v>120</v>
       </c>
       <c r="AU18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV18" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AW18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AX18">
         <v>0</v>
@@ -4335,21 +4365,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="10">
         <v>0</v>
@@ -4364,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -4391,7 +4421,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T19">
         <v>5</v>
@@ -4409,8 +4439,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Y19" t="s">
-        <v>8</v>
+      <c r="Y19">
+        <v>2</v>
       </c>
       <c r="Z19">
         <v>3</v>
@@ -4419,7 +4449,7 @@
         <v>16</v>
       </c>
       <c r="AB19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC19">
         <v>1</v>
@@ -4428,7 +4458,7 @@
         <v>8</v>
       </c>
       <c r="AE19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF19" s="10">
         <v>10999</v>
@@ -4444,7 +4474,7 @@
         <v>8</v>
       </c>
       <c r="AJ19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AK19" s="10">
         <v>125</v>
@@ -4465,7 +4495,7 @@
         <v>176</v>
       </c>
       <c r="AQ19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR19" s="1">
         <v>24</v>
@@ -4477,13 +4507,13 @@
         <v>112</v>
       </c>
       <c r="AU19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV19" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AW19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AX19">
         <v>0</v>
@@ -4495,21 +4525,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" s="10">
         <v>0</v>
@@ -4524,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -4551,7 +4581,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T20">
         <v>5</v>
@@ -4569,8 +4599,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Y20" t="s">
-        <v>8</v>
+      <c r="Y20">
+        <v>2</v>
       </c>
       <c r="Z20">
         <v>3</v>
@@ -4579,7 +4609,7 @@
         <v>16</v>
       </c>
       <c r="AB20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC20">
         <v>1</v>
@@ -4588,7 +4618,7 @@
         <v>8</v>
       </c>
       <c r="AE20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF20" s="10">
         <v>11843</v>
@@ -4604,7 +4634,7 @@
         <v>8</v>
       </c>
       <c r="AJ20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AK20" s="10">
         <v>125</v>
@@ -4625,7 +4655,7 @@
         <v>192</v>
       </c>
       <c r="AQ20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR20" s="1">
         <v>24</v>
@@ -4637,13 +4667,13 @@
         <v>104</v>
       </c>
       <c r="AU20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV20" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AW20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AX20">
         <v>0</v>
@@ -4655,21 +4685,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" s="10">
         <v>0</v>
@@ -4684,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -4711,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T21">
         <v>5</v>
@@ -4729,8 +4759,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Y21" t="s">
-        <v>8</v>
+      <c r="Y21">
+        <v>2</v>
       </c>
       <c r="Z21">
         <v>3</v>
@@ -4739,7 +4769,7 @@
         <v>16</v>
       </c>
       <c r="AB21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC21">
         <v>1</v>
@@ -4748,7 +4778,7 @@
         <v>8</v>
       </c>
       <c r="AE21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF21" s="10">
         <v>10473</v>
@@ -4764,7 +4794,7 @@
         <v>8</v>
       </c>
       <c r="AJ21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AK21" s="10">
         <v>125</v>
@@ -4785,7 +4815,7 @@
         <v>160</v>
       </c>
       <c r="AQ21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR21" s="1">
         <v>24</v>
@@ -4797,13 +4827,13 @@
         <v>120</v>
       </c>
       <c r="AU21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV21" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AW21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AX21">
         <v>0</v>
@@ -4815,21 +4845,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="10">
         <v>0</v>
@@ -4844,7 +4874,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -4871,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T22">
         <v>5</v>
@@ -4889,8 +4919,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Y22" t="s">
-        <v>8</v>
+      <c r="Y22">
+        <v>2</v>
       </c>
       <c r="Z22">
         <v>3</v>
@@ -4899,7 +4929,7 @@
         <v>16</v>
       </c>
       <c r="AB22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC22">
         <v>1</v>
@@ -4908,7 +4938,7 @@
         <v>8</v>
       </c>
       <c r="AE22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF22" s="10">
         <v>10825</v>
@@ -4924,7 +4954,7 @@
         <v>8</v>
       </c>
       <c r="AJ22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AK22" s="10">
         <v>125</v>
@@ -4945,7 +4975,7 @@
         <v>160</v>
       </c>
       <c r="AQ22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR22" s="1">
         <v>24</v>
@@ -4957,13 +4987,13 @@
         <v>120</v>
       </c>
       <c r="AU22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV22" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AW22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AX22">
         <v>0</v>
@@ -4975,21 +5005,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="10">
         <v>0</v>
@@ -5004,7 +5034,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -5031,7 +5061,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T23">
         <v>5</v>
@@ -5049,8 +5079,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Y23" t="s">
-        <v>8</v>
+      <c r="Y23">
+        <v>2</v>
       </c>
       <c r="Z23">
         <v>3</v>
@@ -5059,7 +5089,7 @@
         <v>16</v>
       </c>
       <c r="AB23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC23">
         <v>1</v>
@@ -5068,7 +5098,7 @@
         <v>8</v>
       </c>
       <c r="AE23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF23" s="10">
         <v>12317</v>
@@ -5084,7 +5114,7 @@
         <v>8</v>
       </c>
       <c r="AJ23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AK23" s="10">
         <v>125</v>
@@ -5105,7 +5135,7 @@
         <v>160</v>
       </c>
       <c r="AQ23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR23" s="1">
         <v>16</v>
@@ -5117,13 +5147,13 @@
         <v>120</v>
       </c>
       <c r="AU23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV23" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AW23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AX23">
         <v>0</v>
@@ -5135,21 +5165,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="10">
         <v>0</v>
@@ -5164,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -5191,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T24">
         <v>5</v>
@@ -5209,8 +5239,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Y24" t="s">
-        <v>8</v>
+      <c r="Y24">
+        <v>2</v>
       </c>
       <c r="Z24">
         <v>3</v>
@@ -5219,7 +5249,7 @@
         <v>16</v>
       </c>
       <c r="AB24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC24">
         <v>1</v>
@@ -5228,7 +5258,7 @@
         <v>8</v>
       </c>
       <c r="AE24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF24" s="10">
         <v>14443</v>
@@ -5244,7 +5274,7 @@
         <v>8</v>
       </c>
       <c r="AJ24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AK24" s="10">
         <v>125</v>
@@ -5265,7 +5295,7 @@
         <v>160</v>
       </c>
       <c r="AQ24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR24" s="1">
         <v>8</v>
@@ -5277,13 +5307,13 @@
         <v>120</v>
       </c>
       <c r="AU24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV24" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AW24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AX24">
         <v>0</v>
@@ -5295,337 +5325,337 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" t="s">
+        <v>8</v>
+      </c>
+      <c r="O25" t="s">
+        <v>8</v>
+      </c>
+      <c r="P25" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>8</v>
+      </c>
+      <c r="R25" t="s">
+        <v>8</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T25" t="s">
+        <v>8</v>
+      </c>
+      <c r="U25" t="s">
+        <v>8</v>
+      </c>
+      <c r="V25" t="s">
+        <v>8</v>
+      </c>
+      <c r="W25" t="s">
+        <v>8</v>
+      </c>
+      <c r="X25" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="V26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="W26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="X26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ26" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>104</v>
       </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" t="s">
-        <v>8</v>
-      </c>
-      <c r="K25" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25" t="s">
-        <v>8</v>
-      </c>
-      <c r="M25" t="s">
-        <v>8</v>
-      </c>
-      <c r="N25" t="s">
-        <v>8</v>
-      </c>
-      <c r="O25" t="s">
-        <v>8</v>
-      </c>
-      <c r="P25" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>8</v>
-      </c>
-      <c r="R25" t="s">
-        <v>8</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T25" t="s">
-        <v>8</v>
-      </c>
-      <c r="U25" t="s">
-        <v>8</v>
-      </c>
-      <c r="V25" t="s">
-        <v>8</v>
-      </c>
-      <c r="W25" t="s">
-        <v>8</v>
-      </c>
-      <c r="X25" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AW25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX25">
-        <v>0</v>
-      </c>
-      <c r="AY25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="S26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="T26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="U26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="V26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="W26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="X26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AW26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AY26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ26" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>105</v>
-      </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F27" s="10">
         <v>0</v>
@@ -5640,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -5667,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T27">
         <v>5</v>
@@ -5685,8 +5715,8 @@
         <f t="shared" ref="X27:X34" si="2" xml:space="preserve"> V27 + W27</f>
         <v>5</v>
       </c>
-      <c r="Y27" t="s">
-        <v>8</v>
+      <c r="Y27">
+        <v>2</v>
       </c>
       <c r="Z27">
         <v>3</v>
@@ -5695,7 +5725,7 @@
         <v>16</v>
       </c>
       <c r="AB27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC27">
         <v>1</v>
@@ -5704,7 +5734,7 @@
         <v>8</v>
       </c>
       <c r="AE27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF27" s="23">
         <v>80545</v>
@@ -5721,7 +5751,7 @@
         <v>83027.753778838392</v>
       </c>
       <c r="AJ27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK27" s="10">
         <v>125</v>
@@ -5742,7 +5772,7 @@
         <v>400</v>
       </c>
       <c r="AQ27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR27" s="1">
         <f t="shared" ref="AR27:AR34" si="4" xml:space="preserve"> _xlfn.FLOOR.MATH((AK27 - AN27) / 2)</f>
@@ -5757,13 +5787,13 @@
         <v>7</v>
       </c>
       <c r="AU27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV27" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AW27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AX27">
         <v>0</v>
@@ -5775,21 +5805,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F28" s="10">
         <v>0</v>
@@ -5798,7 +5828,7 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -5831,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T28">
         <v>5</v>
@@ -5849,8 +5879,8 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="Y28" t="s">
-        <v>8</v>
+      <c r="Y28">
+        <v>2</v>
       </c>
       <c r="Z28">
         <v>3</v>
@@ -5859,7 +5889,7 @@
         <v>16</v>
       </c>
       <c r="AB28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC28">
         <v>1</v>
@@ -5868,7 +5898,7 @@
         <v>8</v>
       </c>
       <c r="AE28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF28" s="23">
         <v>-1</v>
@@ -5884,7 +5914,7 @@
         <v>81518.129922434266</v>
       </c>
       <c r="AJ28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK28" s="10">
         <v>125</v>
@@ -5905,7 +5935,7 @@
         <v>400</v>
       </c>
       <c r="AQ28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR28" s="1">
         <f t="shared" si="4"/>
@@ -5920,39 +5950,39 @@
         <v>7</v>
       </c>
       <c r="AU28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV28" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AW28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AX28">
         <v>1</v>
       </c>
       <c r="AY28" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ28" t="s">
         <v>113</v>
       </c>
-      <c r="AZ28" t="s">
-        <v>114</v>
-      </c>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F29" s="10">
         <v>0</v>
@@ -5961,7 +5991,7 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -5994,7 +6024,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T29">
         <v>5</v>
@@ -6012,8 +6042,8 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="Y29" t="s">
-        <v>8</v>
+      <c r="Y29">
+        <v>2</v>
       </c>
       <c r="Z29">
         <v>3</v>
@@ -6022,7 +6052,7 @@
         <v>16</v>
       </c>
       <c r="AB29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC29">
         <v>1</v>
@@ -6031,7 +6061,7 @@
         <v>8</v>
       </c>
       <c r="AE29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF29" s="23">
         <v>78019</v>
@@ -6048,7 +6078,7 @@
         <v>76989.258353221856</v>
       </c>
       <c r="AJ29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK29" s="10">
         <v>125</v>
@@ -6069,7 +6099,7 @@
         <v>400</v>
       </c>
       <c r="AQ29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR29" s="1">
         <f t="shared" si="4"/>
@@ -6084,13 +6114,13 @@
         <v>7</v>
       </c>
       <c r="AU29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV29" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AX29">
         <v>0</v>
@@ -6102,22 +6132,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" t="s">
         <v>157</v>
       </c>
-      <c r="D30" t="s">
-        <v>153</v>
-      </c>
-      <c r="E30" t="s">
-        <v>158</v>
-      </c>
       <c r="F30" s="10">
         <v>0</v>
       </c>
@@ -6131,7 +6161,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -6158,7 +6188,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T30">
         <v>5</v>
@@ -6176,8 +6206,8 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="Y30" t="s">
-        <v>8</v>
+      <c r="Y30">
+        <v>2</v>
       </c>
       <c r="Z30">
         <v>3</v>
@@ -6186,7 +6216,7 @@
         <v>16</v>
       </c>
       <c r="AB30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC30">
         <v>1</v>
@@ -6195,7 +6225,7 @@
         <v>8</v>
       </c>
       <c r="AE30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF30" s="23">
         <v>78019</v>
@@ -6212,7 +6242,7 @@
         <v>76989.258353221856</v>
       </c>
       <c r="AJ30" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK30" s="10">
         <v>125</v>
@@ -6233,7 +6263,7 @@
         <v>400</v>
       </c>
       <c r="AQ30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR30" s="1">
         <f t="shared" si="4"/>
@@ -6248,13 +6278,13 @@
         <v>7</v>
       </c>
       <c r="AU30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV30" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AX30">
         <v>0</v>
@@ -6266,21 +6296,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C31" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" t="s">
         <v>150</v>
       </c>
-      <c r="D31" t="s">
-        <v>151</v>
-      </c>
       <c r="E31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F31" s="10">
         <v>0</v>
@@ -6289,7 +6319,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -6322,7 +6352,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T31">
         <v>5</v>
@@ -6340,8 +6370,8 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="Y31" t="s">
-        <v>8</v>
+      <c r="Y31">
+        <v>2</v>
       </c>
       <c r="Z31">
         <v>3</v>
@@ -6350,7 +6380,7 @@
         <v>16</v>
       </c>
       <c r="AB31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC31">
         <v>1</v>
@@ -6359,7 +6389,7 @@
         <v>8</v>
       </c>
       <c r="AE31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF31" s="23">
         <v>78019</v>
@@ -6376,7 +6406,7 @@
         <v>76989.258353221856</v>
       </c>
       <c r="AJ31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK31" s="10">
         <v>125</v>
@@ -6397,7 +6427,7 @@
         <v>400</v>
       </c>
       <c r="AQ31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR31" s="1">
         <f t="shared" si="4"/>
@@ -6412,13 +6442,13 @@
         <v>7</v>
       </c>
       <c r="AU31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV31" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AX31">
         <v>0</v>
@@ -6430,21 +6460,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" t="s">
         <v>159</v>
       </c>
-      <c r="B32" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>160</v>
       </c>
-      <c r="D32" t="s">
-        <v>161</v>
-      </c>
       <c r="E32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F32" s="10">
         <v>0</v>
@@ -6459,7 +6489,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -6486,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T32">
         <v>5</v>
@@ -6504,8 +6534,8 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="Y32" t="s">
-        <v>8</v>
+      <c r="Y32">
+        <v>2</v>
       </c>
       <c r="Z32">
         <v>3</v>
@@ -6514,7 +6544,7 @@
         <v>16</v>
       </c>
       <c r="AB32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC32">
         <v>1</v>
@@ -6523,7 +6553,7 @@
         <v>8</v>
       </c>
       <c r="AE32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF32" s="23" t="s">
         <v>8</v>
@@ -6539,7 +6569,7 @@
         <v>76989.258353221856</v>
       </c>
       <c r="AJ32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK32" s="10">
         <v>125</v>
@@ -6560,7 +6590,7 @@
         <v>400</v>
       </c>
       <c r="AQ32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR32" s="1">
         <f t="shared" si="4"/>
@@ -6575,81 +6605,81 @@
         <v>7</v>
       </c>
       <c r="AU32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV32" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW32" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>263</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P33" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>8</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="AX32">
-        <v>0</v>
-      </c>
-      <c r="AY32" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>172</v>
-      </c>
-      <c r="B33" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" t="s">
-        <v>174</v>
-      </c>
-      <c r="D33" t="s">
-        <v>175</v>
-      </c>
-      <c r="E33" t="s">
-        <v>176</v>
-      </c>
-      <c r="F33" s="10">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33" t="s">
-        <v>264</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" t="s">
-        <v>8</v>
-      </c>
-      <c r="L33" t="s">
-        <v>8</v>
-      </c>
-      <c r="M33" t="s">
-        <v>8</v>
-      </c>
-      <c r="N33" t="s">
-        <v>8</v>
-      </c>
-      <c r="O33" t="s">
-        <v>8</v>
-      </c>
-      <c r="P33" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>8</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="T33">
         <v>6</v>
@@ -6667,8 +6697,8 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="Y33" t="s">
-        <v>8</v>
+      <c r="Y33">
+        <v>1</v>
       </c>
       <c r="Z33">
         <v>3</v>
@@ -6677,7 +6707,7 @@
         <v>16</v>
       </c>
       <c r="AB33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC33">
         <v>1</v>
@@ -6686,7 +6716,7 @@
         <v>8</v>
       </c>
       <c r="AE33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF33" s="10" t="s">
         <v>8</v>
@@ -6702,7 +6732,7 @@
         <v>76989.258353221856</v>
       </c>
       <c r="AJ33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK33" s="10">
         <v>125</v>
@@ -6723,7 +6753,7 @@
         <v>400</v>
       </c>
       <c r="AQ33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR33" s="1">
         <f t="shared" si="4"/>
@@ -6738,81 +6768,81 @@
         <v>7</v>
       </c>
       <c r="AU33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV33" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX33">
+        <v>1</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>172</v>
+      </c>
+      <c r="B34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" t="s">
         <v>169</v>
       </c>
-      <c r="AW33" t="s">
+      <c r="D34" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>178</v>
+      </c>
+      <c r="K34" t="s">
+        <v>8</v>
+      </c>
+      <c r="L34" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" t="s">
+        <v>8</v>
+      </c>
+      <c r="O34" t="s">
+        <v>8</v>
+      </c>
+      <c r="P34" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>8</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="AX33">
-        <v>1</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>177</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>173</v>
-      </c>
-      <c r="B34" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" t="s">
-        <v>170</v>
-      </c>
-      <c r="D34" t="s">
-        <v>171</v>
-      </c>
-      <c r="E34" t="s">
-        <v>181</v>
-      </c>
-      <c r="F34" s="10">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34" t="s">
-        <v>179</v>
-      </c>
-      <c r="K34" t="s">
-        <v>8</v>
-      </c>
-      <c r="L34" t="s">
-        <v>8</v>
-      </c>
-      <c r="M34" t="s">
-        <v>8</v>
-      </c>
-      <c r="N34" t="s">
-        <v>8</v>
-      </c>
-      <c r="O34" t="s">
-        <v>8</v>
-      </c>
-      <c r="P34" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>8</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="T34">
         <v>6</v>
@@ -6830,8 +6860,8 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="Y34" t="s">
-        <v>8</v>
+      <c r="Y34">
+        <v>1</v>
       </c>
       <c r="Z34">
         <v>3</v>
@@ -6840,7 +6870,7 @@
         <v>16</v>
       </c>
       <c r="AB34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC34">
         <v>1</v>
@@ -6849,7 +6879,7 @@
         <v>8</v>
       </c>
       <c r="AE34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF34" s="10" t="s">
         <v>8</v>
@@ -6865,7 +6895,7 @@
         <v>74549.706201272784</v>
       </c>
       <c r="AJ34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK34" s="10">
         <v>125</v>
@@ -6886,7 +6916,7 @@
         <v>384</v>
       </c>
       <c r="AQ34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR34" s="1">
         <f t="shared" si="4"/>
@@ -6901,81 +6931,81 @@
         <v>15</v>
       </c>
       <c r="AU34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV34" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW34" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX34">
+        <v>1</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>179</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" t="s">
+        <v>183</v>
+      </c>
+      <c r="F35" s="10">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>185</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35" t="s">
+        <v>8</v>
+      </c>
+      <c r="P35" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>8</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="AX34">
-        <v>1</v>
-      </c>
-      <c r="AY34" t="s">
-        <v>180</v>
-      </c>
-      <c r="AZ34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>182</v>
-      </c>
-      <c r="B35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" t="s">
-        <v>183</v>
-      </c>
-      <c r="D35" t="s">
-        <v>171</v>
-      </c>
-      <c r="E35" t="s">
-        <v>184</v>
-      </c>
-      <c r="F35" s="10">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35" t="s">
-        <v>186</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" t="s">
-        <v>8</v>
-      </c>
-      <c r="M35" t="s">
-        <v>8</v>
-      </c>
-      <c r="N35" t="s">
-        <v>8</v>
-      </c>
-      <c r="O35" t="s">
-        <v>8</v>
-      </c>
-      <c r="P35" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>8</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="T35">
         <v>6</v>
@@ -6993,8 +7023,8 @@
         <f t="shared" ref="X35" si="15" xml:space="preserve"> V35 + W35</f>
         <v>6</v>
       </c>
-      <c r="Y35" t="s">
-        <v>8</v>
+      <c r="Y35">
+        <v>1</v>
       </c>
       <c r="Z35">
         <v>3</v>
@@ -7003,7 +7033,7 @@
         <v>16</v>
       </c>
       <c r="AB35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC35">
         <v>1</v>
@@ -7012,7 +7042,7 @@
         <v>8</v>
       </c>
       <c r="AE35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF35" s="10" t="s">
         <v>8</v>
@@ -7028,7 +7058,7 @@
         <v>76071.407048528155</v>
       </c>
       <c r="AJ35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK35" s="10">
         <v>125</v>
@@ -7049,7 +7079,7 @@
         <v>384</v>
       </c>
       <c r="AQ35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR35" s="1">
         <f t="shared" ref="AR35" si="16" xml:space="preserve"> _xlfn.FLOOR.MATH((AK35 - AN35) / 2)</f>
@@ -7064,81 +7094,81 @@
         <v>15</v>
       </c>
       <c r="AU35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV35" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW35" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX35">
+        <v>1</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>187</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" t="s">
+        <v>188</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>191</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" t="s">
+        <v>8</v>
+      </c>
+      <c r="L36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M36" t="s">
+        <v>8</v>
+      </c>
+      <c r="N36" t="s">
+        <v>8</v>
+      </c>
+      <c r="O36" t="s">
+        <v>8</v>
+      </c>
+      <c r="P36" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>8</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="AX35">
-        <v>1</v>
-      </c>
-      <c r="AY35" t="s">
-        <v>188</v>
-      </c>
-      <c r="AZ35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>187</v>
-      </c>
-      <c r="B36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" t="s">
-        <v>185</v>
-      </c>
-      <c r="D36" t="s">
-        <v>171</v>
-      </c>
-      <c r="E36" t="s">
-        <v>189</v>
-      </c>
-      <c r="F36" s="10">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
-        <v>192</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36" t="s">
-        <v>8</v>
-      </c>
-      <c r="K36" t="s">
-        <v>8</v>
-      </c>
-      <c r="L36" t="s">
-        <v>8</v>
-      </c>
-      <c r="M36" t="s">
-        <v>8</v>
-      </c>
-      <c r="N36" t="s">
-        <v>8</v>
-      </c>
-      <c r="O36" t="s">
-        <v>8</v>
-      </c>
-      <c r="P36" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>8</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="T36">
         <v>6</v>
@@ -7156,8 +7186,8 @@
         <f t="shared" ref="X36" si="19" xml:space="preserve"> V36 + W36</f>
         <v>6</v>
       </c>
-      <c r="Y36" t="s">
-        <v>8</v>
+      <c r="Y36">
+        <v>1</v>
       </c>
       <c r="Z36">
         <v>3</v>
@@ -7166,7 +7196,7 @@
         <v>16</v>
       </c>
       <c r="AB36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC36">
         <v>1</v>
@@ -7175,7 +7205,7 @@
         <v>8</v>
       </c>
       <c r="AE36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF36" s="10" t="s">
         <v>8</v>
@@ -7191,7 +7221,7 @@
         <v>76071.407048528155</v>
       </c>
       <c r="AJ36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK36" s="10">
         <v>125</v>
@@ -7212,7 +7242,7 @@
         <v>384</v>
       </c>
       <c r="AQ36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR36" s="1">
         <f t="shared" ref="AR36" si="20" xml:space="preserve"> _xlfn.FLOOR.MATH((AK36 - AN36) / 2)</f>
@@ -7227,81 +7257,81 @@
         <v>15</v>
       </c>
       <c r="AU36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV36" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW36" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX36">
+        <v>1</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>192</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>263</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" t="s">
+        <v>8</v>
+      </c>
+      <c r="L37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M37" t="s">
+        <v>8</v>
+      </c>
+      <c r="N37" t="s">
+        <v>8</v>
+      </c>
+      <c r="O37" t="s">
+        <v>8</v>
+      </c>
+      <c r="P37" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>8</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="AX36">
-        <v>1</v>
-      </c>
-      <c r="AY36" t="s">
-        <v>193</v>
-      </c>
-      <c r="AZ36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>190</v>
-      </c>
-      <c r="B37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D37" t="s">
-        <v>171</v>
-      </c>
-      <c r="E37" t="s">
-        <v>194</v>
-      </c>
-      <c r="F37" s="10">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37" t="s">
-        <v>264</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37" t="s">
-        <v>8</v>
-      </c>
-      <c r="K37" t="s">
-        <v>8</v>
-      </c>
-      <c r="L37" t="s">
-        <v>8</v>
-      </c>
-      <c r="M37" t="s">
-        <v>8</v>
-      </c>
-      <c r="N37" t="s">
-        <v>8</v>
-      </c>
-      <c r="O37" t="s">
-        <v>8</v>
-      </c>
-      <c r="P37" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>8</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="T37">
         <v>6</v>
@@ -7319,8 +7349,8 @@
         <f t="shared" ref="X37" si="23" xml:space="preserve"> V37 + W37</f>
         <v>6</v>
       </c>
-      <c r="Y37" t="s">
-        <v>8</v>
+      <c r="Y37">
+        <v>1</v>
       </c>
       <c r="Z37">
         <v>3</v>
@@ -7329,7 +7359,7 @@
         <v>16</v>
       </c>
       <c r="AB37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC37">
         <v>1</v>
@@ -7338,7 +7368,7 @@
         <v>8</v>
       </c>
       <c r="AE37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF37" s="10" t="s">
         <v>8</v>
@@ -7354,7 +7384,7 @@
         <v>74549.706201272784</v>
       </c>
       <c r="AJ37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK37" s="10">
         <v>125</v>
@@ -7375,7 +7405,7 @@
         <v>384</v>
       </c>
       <c r="AQ37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR37" s="1">
         <f t="shared" ref="AR37" si="24" xml:space="preserve"> _xlfn.FLOOR.MATH((AK37 - AN37) / 2)</f>
@@ -7390,81 +7420,81 @@
         <v>15</v>
       </c>
       <c r="AU37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV37" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW37" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX37">
+        <v>1</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>196</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D38" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38" s="10">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>200</v>
+      </c>
+      <c r="K38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L38" t="s">
+        <v>8</v>
+      </c>
+      <c r="M38" t="s">
+        <v>8</v>
+      </c>
+      <c r="N38" t="s">
+        <v>8</v>
+      </c>
+      <c r="O38" t="s">
+        <v>8</v>
+      </c>
+      <c r="P38" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>8</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="AX37">
-        <v>1</v>
-      </c>
-      <c r="AY37" t="s">
-        <v>197</v>
-      </c>
-      <c r="AZ37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>195</v>
-      </c>
-      <c r="B38" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" t="s">
-        <v>196</v>
-      </c>
-      <c r="D38" t="s">
-        <v>171</v>
-      </c>
-      <c r="E38" t="s">
-        <v>200</v>
-      </c>
-      <c r="F38" s="10">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38" t="s">
-        <v>201</v>
-      </c>
-      <c r="K38" t="s">
-        <v>8</v>
-      </c>
-      <c r="L38" t="s">
-        <v>8</v>
-      </c>
-      <c r="M38" t="s">
-        <v>8</v>
-      </c>
-      <c r="N38" t="s">
-        <v>8</v>
-      </c>
-      <c r="O38" t="s">
-        <v>8</v>
-      </c>
-      <c r="P38" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>8</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="T38">
         <v>6</v>
@@ -7482,8 +7512,8 @@
         <f t="shared" ref="X38" si="27" xml:space="preserve"> V38 + W38</f>
         <v>6</v>
       </c>
-      <c r="Y38" t="s">
-        <v>8</v>
+      <c r="Y38">
+        <v>1</v>
       </c>
       <c r="Z38">
         <v>3</v>
@@ -7492,7 +7522,7 @@
         <v>16</v>
       </c>
       <c r="AB38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC38">
         <v>1</v>
@@ -7501,7 +7531,7 @@
         <v>8</v>
       </c>
       <c r="AE38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF38" s="10" t="s">
         <v>8</v>
@@ -7517,7 +7547,7 @@
         <v>74549.706201272784</v>
       </c>
       <c r="AJ38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK38" s="10">
         <v>125</v>
@@ -7538,7 +7568,7 @@
         <v>384</v>
       </c>
       <c r="AQ38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR38" s="1">
         <f t="shared" ref="AR38" si="28" xml:space="preserve"> _xlfn.FLOOR.MATH((AK38 - AN38) / 2)</f>
@@ -7553,81 +7583,81 @@
         <v>15</v>
       </c>
       <c r="AU38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV38" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW38" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" t="s">
+        <v>170</v>
+      </c>
+      <c r="E39" t="s">
+        <v>199</v>
+      </c>
+      <c r="F39" s="10">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>200</v>
+      </c>
+      <c r="K39" t="s">
+        <v>8</v>
+      </c>
+      <c r="L39" t="s">
+        <v>8</v>
+      </c>
+      <c r="M39" t="s">
+        <v>8</v>
+      </c>
+      <c r="N39" t="s">
+        <v>8</v>
+      </c>
+      <c r="O39" t="s">
+        <v>8</v>
+      </c>
+      <c r="P39" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>8</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="AX38">
-        <v>0</v>
-      </c>
-      <c r="AY38" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>198</v>
-      </c>
-      <c r="B39" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" t="s">
-        <v>199</v>
-      </c>
-      <c r="D39" t="s">
-        <v>171</v>
-      </c>
-      <c r="E39" t="s">
-        <v>200</v>
-      </c>
-      <c r="F39" s="10">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39" t="s">
-        <v>8</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39" t="s">
-        <v>201</v>
-      </c>
-      <c r="K39" t="s">
-        <v>8</v>
-      </c>
-      <c r="L39" t="s">
-        <v>8</v>
-      </c>
-      <c r="M39" t="s">
-        <v>8</v>
-      </c>
-      <c r="N39" t="s">
-        <v>8</v>
-      </c>
-      <c r="O39" t="s">
-        <v>8</v>
-      </c>
-      <c r="P39" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>8</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="T39">
         <v>6</v>
@@ -7645,8 +7675,8 @@
         <f t="shared" ref="X39" si="31" xml:space="preserve"> V39 + W39</f>
         <v>6</v>
       </c>
-      <c r="Y39" t="s">
-        <v>8</v>
+      <c r="Y39">
+        <v>1</v>
       </c>
       <c r="Z39">
         <v>3</v>
@@ -7655,7 +7685,7 @@
         <v>16</v>
       </c>
       <c r="AB39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC39">
         <v>1</v>
@@ -7664,7 +7694,7 @@
         <v>8</v>
       </c>
       <c r="AE39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF39" s="10" t="s">
         <v>8</v>
@@ -7680,7 +7710,7 @@
         <v>74549.706201272784</v>
       </c>
       <c r="AJ39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK39" s="10">
         <v>125</v>
@@ -7701,7 +7731,7 @@
         <v>384</v>
       </c>
       <c r="AQ39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR39" s="1">
         <f t="shared" ref="AR39" si="32" xml:space="preserve"> _xlfn.FLOOR.MATH((AK39 - AN39) / 2)</f>
@@ -7716,81 +7746,81 @@
         <v>15</v>
       </c>
       <c r="AU39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV39" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW39" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ39" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" t="s">
+        <v>170</v>
+      </c>
+      <c r="E40" t="s">
+        <v>203</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>200</v>
+      </c>
+      <c r="K40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L40" t="s">
+        <v>8</v>
+      </c>
+      <c r="M40" t="s">
+        <v>8</v>
+      </c>
+      <c r="N40" t="s">
+        <v>8</v>
+      </c>
+      <c r="O40" t="s">
+        <v>8</v>
+      </c>
+      <c r="P40" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>8</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="AX39">
-        <v>0</v>
-      </c>
-      <c r="AY39" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ39" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>202</v>
-      </c>
-      <c r="B40" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" t="s">
-        <v>199</v>
-      </c>
-      <c r="D40" t="s">
-        <v>171</v>
-      </c>
-      <c r="E40" t="s">
-        <v>204</v>
-      </c>
-      <c r="F40" s="10">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40" t="s">
-        <v>201</v>
-      </c>
-      <c r="K40" t="s">
-        <v>8</v>
-      </c>
-      <c r="L40" t="s">
-        <v>8</v>
-      </c>
-      <c r="M40" t="s">
-        <v>8</v>
-      </c>
-      <c r="N40" t="s">
-        <v>8</v>
-      </c>
-      <c r="O40" t="s">
-        <v>8</v>
-      </c>
-      <c r="P40" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>8</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="T40">
         <v>6</v>
@@ -7808,8 +7838,8 @@
         <f t="shared" ref="X40" si="35" xml:space="preserve"> V40 + W40</f>
         <v>6</v>
       </c>
-      <c r="Y40" t="s">
-        <v>8</v>
+      <c r="Y40">
+        <v>1</v>
       </c>
       <c r="Z40">
         <v>3</v>
@@ -7818,7 +7848,7 @@
         <v>16</v>
       </c>
       <c r="AB40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC40">
         <v>1</v>
@@ -7827,7 +7857,7 @@
         <v>8</v>
       </c>
       <c r="AE40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF40" s="10" t="s">
         <v>8</v>
@@ -7843,7 +7873,7 @@
         <v>74549.706201272784</v>
       </c>
       <c r="AJ40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK40" s="10">
         <v>125</v>
@@ -7864,7 +7894,7 @@
         <v>384</v>
       </c>
       <c r="AQ40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR40" s="1">
         <f t="shared" ref="AR40" si="36" xml:space="preserve"> _xlfn.FLOOR.MATH((AK40 - AN40) / 2)</f>
@@ -7879,81 +7909,81 @@
         <v>15</v>
       </c>
       <c r="AU40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV40" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW40" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ40" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>202</v>
+      </c>
+      <c r="B41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" t="s">
+        <v>205</v>
+      </c>
+      <c r="F41" s="10">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>178</v>
+      </c>
+      <c r="K41" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" t="s">
+        <v>8</v>
+      </c>
+      <c r="P41" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="AX40">
-        <v>0</v>
-      </c>
-      <c r="AY40" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ40" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>203</v>
-      </c>
-      <c r="B41" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" t="s">
-        <v>199</v>
-      </c>
-      <c r="D41" t="s">
-        <v>171</v>
-      </c>
-      <c r="E41" t="s">
-        <v>206</v>
-      </c>
-      <c r="F41" s="10">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41" t="s">
-        <v>179</v>
-      </c>
-      <c r="K41" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" t="s">
-        <v>8</v>
-      </c>
-      <c r="N41" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" t="s">
-        <v>8</v>
-      </c>
-      <c r="P41" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>8</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="T41">
         <v>6</v>
@@ -7971,8 +8001,8 @@
         <f t="shared" ref="X41" si="39" xml:space="preserve"> V41 + W41</f>
         <v>6</v>
       </c>
-      <c r="Y41" t="s">
-        <v>8</v>
+      <c r="Y41">
+        <v>1</v>
       </c>
       <c r="Z41">
         <v>3</v>
@@ -7981,7 +8011,7 @@
         <v>16</v>
       </c>
       <c r="AB41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC41">
         <v>1</v>
@@ -7990,7 +8020,7 @@
         <v>8</v>
       </c>
       <c r="AE41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF41" s="10" t="s">
         <v>8</v>
@@ -8006,7 +8036,7 @@
         <v>74549.706201272784</v>
       </c>
       <c r="AJ41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK41" s="10">
         <v>125</v>
@@ -8027,7 +8057,7 @@
         <v>384</v>
       </c>
       <c r="AQ41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR41" s="1">
         <f t="shared" ref="AR41" si="40" xml:space="preserve"> _xlfn.FLOOR.MATH((AK41 - AN41) / 2)</f>
@@ -8042,81 +8072,81 @@
         <v>15</v>
       </c>
       <c r="AU41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV41" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW41" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX41">
+        <v>1</v>
+      </c>
+      <c r="AY41" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ41" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>204</v>
+      </c>
+      <c r="B42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" t="s">
+        <v>199</v>
+      </c>
+      <c r="F42" s="10">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>200</v>
+      </c>
+      <c r="K42" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" t="s">
+        <v>8</v>
+      </c>
+      <c r="P42" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="AX41">
-        <v>1</v>
-      </c>
-      <c r="AY41" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="AZ41" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>205</v>
-      </c>
-      <c r="B42" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" t="s">
-        <v>199</v>
-      </c>
-      <c r="D42" t="s">
-        <v>171</v>
-      </c>
-      <c r="E42" t="s">
-        <v>200</v>
-      </c>
-      <c r="F42" s="10">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42" t="s">
-        <v>201</v>
-      </c>
-      <c r="K42" t="s">
-        <v>8</v>
-      </c>
-      <c r="L42" t="s">
-        <v>8</v>
-      </c>
-      <c r="M42" t="s">
-        <v>8</v>
-      </c>
-      <c r="N42" t="s">
-        <v>8</v>
-      </c>
-      <c r="O42" t="s">
-        <v>8</v>
-      </c>
-      <c r="P42" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>8</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="T42">
         <v>6</v>
@@ -8134,8 +8164,8 @@
         <f t="shared" ref="X42" si="43" xml:space="preserve"> V42 + W42</f>
         <v>6</v>
       </c>
-      <c r="Y42" t="s">
-        <v>8</v>
+      <c r="Y42">
+        <v>1</v>
       </c>
       <c r="Z42">
         <v>3</v>
@@ -8144,7 +8174,7 @@
         <v>16</v>
       </c>
       <c r="AB42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC42">
         <v>1</v>
@@ -8153,7 +8183,7 @@
         <v>8</v>
       </c>
       <c r="AE42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF42" s="10" t="s">
         <v>8</v>
@@ -8169,7 +8199,7 @@
         <v>74549.706201272784</v>
       </c>
       <c r="AJ42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK42" s="10">
         <v>125</v>
@@ -8190,7 +8220,7 @@
         <v>384</v>
       </c>
       <c r="AQ42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR42" s="1">
         <f t="shared" ref="AR42" si="44" xml:space="preserve"> _xlfn.FLOOR.MATH((AK42 - AN42) / 2)</f>
@@ -8205,81 +8235,81 @@
         <v>15</v>
       </c>
       <c r="AU42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV42" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW42" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ42" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>207</v>
+      </c>
+      <c r="B43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D43" t="s">
+        <v>170</v>
+      </c>
+      <c r="E43" t="s">
+        <v>199</v>
+      </c>
+      <c r="F43" s="10">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>200</v>
+      </c>
+      <c r="K43" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="AX42">
-        <v>0</v>
-      </c>
-      <c r="AY42" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ42" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>208</v>
-      </c>
-      <c r="B43" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" t="s">
-        <v>199</v>
-      </c>
-      <c r="D43" t="s">
-        <v>171</v>
-      </c>
-      <c r="E43" t="s">
-        <v>200</v>
-      </c>
-      <c r="F43" s="10">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43" t="s">
-        <v>201</v>
-      </c>
-      <c r="K43" t="s">
-        <v>8</v>
-      </c>
-      <c r="L43" t="s">
-        <v>8</v>
-      </c>
-      <c r="M43" t="s">
-        <v>8</v>
-      </c>
-      <c r="N43" t="s">
-        <v>8</v>
-      </c>
-      <c r="O43" t="s">
-        <v>8</v>
-      </c>
-      <c r="P43" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>8</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="T43">
         <v>6</v>
@@ -8297,8 +8327,8 @@
         <f t="shared" ref="X43" si="47" xml:space="preserve"> V43 + W43</f>
         <v>6</v>
       </c>
-      <c r="Y43" t="s">
-        <v>8</v>
+      <c r="Y43">
+        <v>1</v>
       </c>
       <c r="Z43">
         <v>3</v>
@@ -8307,7 +8337,7 @@
         <v>16</v>
       </c>
       <c r="AB43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC43">
         <v>1</v>
@@ -8316,7 +8346,7 @@
         <v>8</v>
       </c>
       <c r="AE43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF43" s="10" t="s">
         <v>8</v>
@@ -8332,7 +8362,7 @@
         <v>74549.706201272784</v>
       </c>
       <c r="AJ43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK43" s="10">
         <v>125</v>
@@ -8353,7 +8383,7 @@
         <v>384</v>
       </c>
       <c r="AQ43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR43" s="1">
         <f t="shared" ref="AR43" si="48" xml:space="preserve"> _xlfn.FLOOR.MATH((AK43 - AN43) / 2)</f>
@@ -8368,81 +8398,81 @@
         <v>15</v>
       </c>
       <c r="AU43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV43" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW43" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AY43" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ43" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>208</v>
+      </c>
+      <c r="B44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" t="s">
+        <v>273</v>
+      </c>
+      <c r="F44" s="10">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>8</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="AX43">
-        <v>0</v>
-      </c>
-      <c r="AY43" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ43" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>209</v>
-      </c>
-      <c r="B44" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" t="s">
-        <v>199</v>
-      </c>
-      <c r="D44" t="s">
-        <v>171</v>
-      </c>
-      <c r="E44" t="s">
-        <v>274</v>
-      </c>
-      <c r="F44" s="10">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>8</v>
-      </c>
-      <c r="R44">
-        <v>1</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="T44">
         <v>6</v>
@@ -8460,8 +8490,8 @@
         <f t="shared" ref="X44" si="51" xml:space="preserve"> V44 + W44</f>
         <v>6</v>
       </c>
-      <c r="Y44" t="s">
-        <v>8</v>
+      <c r="Y44">
+        <v>1</v>
       </c>
       <c r="Z44">
         <v>3</v>
@@ -8470,7 +8500,7 @@
         <v>16</v>
       </c>
       <c r="AB44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC44">
         <v>1</v>
@@ -8479,7 +8509,7 @@
         <v>8</v>
       </c>
       <c r="AE44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF44" s="10">
         <v>74967</v>
@@ -8496,7 +8526,7 @@
         <v>74549.706201272784</v>
       </c>
       <c r="AJ44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK44" s="10">
         <v>125</v>
@@ -8517,7 +8547,7 @@
         <v>384</v>
       </c>
       <c r="AQ44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR44" s="1">
         <f t="shared" ref="AR44" si="53" xml:space="preserve"> _xlfn.FLOOR.MATH((AK44 - AN44) / 2)</f>
@@ -8532,81 +8562,81 @@
         <v>15</v>
       </c>
       <c r="AU44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV44" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW44" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AY44" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ44" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F45" s="11">
+        <v>0</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="7">
+        <v>1</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K45" s="7">
+        <v>1</v>
+      </c>
+      <c r="L45" s="7">
+        <v>1</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>1</v>
+      </c>
+      <c r="O45" s="7">
+        <v>0</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="7">
+        <v>1</v>
+      </c>
+      <c r="S45" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="AX44">
-        <v>0</v>
-      </c>
-      <c r="AY44" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ44" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F45" s="11">
-        <v>0</v>
-      </c>
-      <c r="G45" s="7">
-        <v>0</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="7">
-        <v>1</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K45" s="7">
-        <v>1</v>
-      </c>
-      <c r="L45" s="7">
-        <v>1</v>
-      </c>
-      <c r="M45" s="7">
-        <v>1</v>
-      </c>
-      <c r="N45" s="7">
-        <v>1</v>
-      </c>
-      <c r="O45" s="7">
-        <v>0</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R45" s="7">
-        <v>1</v>
-      </c>
-      <c r="S45" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="T45" s="7">
         <v>6</v>
@@ -8624,8 +8654,8 @@
         <f t="shared" ref="X45:X63" si="56" xml:space="preserve"> V45 + W45</f>
         <v>6</v>
       </c>
-      <c r="Y45" s="7" t="s">
-        <v>8</v>
+      <c r="Y45" s="7">
+        <v>1</v>
       </c>
       <c r="Z45" s="7">
         <v>3</v>
@@ -8634,7 +8664,7 @@
         <v>16</v>
       </c>
       <c r="AB45" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC45" s="7">
         <v>1</v>
@@ -8643,7 +8673,7 @@
         <v>8</v>
       </c>
       <c r="AE45" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF45" s="11">
         <v>74965</v>
@@ -8660,7 +8690,7 @@
         <v>74549.706201272784</v>
       </c>
       <c r="AJ45" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK45" s="11">
         <v>125</v>
@@ -8681,7 +8711,7 @@
         <v>384</v>
       </c>
       <c r="AQ45" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR45" s="8">
         <f t="shared" ref="AR45" si="57" xml:space="preserve"> _xlfn.FLOOR.MATH((AK45 - AN45) / 2)</f>
@@ -8696,13 +8726,13 @@
         <v>15</v>
       </c>
       <c r="AU45" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV45" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW45" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AX45" s="7">
         <v>0</v>
@@ -8714,15 +8744,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F46" s="23">
         <v>0</v>
@@ -8731,7 +8761,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I46" s="21">
         <v>0</v>
@@ -8764,7 +8794,7 @@
         <v>1</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T46">
         <v>6</v>
@@ -8782,8 +8812,8 @@
         <f t="shared" si="56"/>
         <v>6</v>
       </c>
-      <c r="Y46" t="s">
-        <v>8</v>
+      <c r="Y46">
+        <v>1</v>
       </c>
       <c r="Z46">
         <v>3</v>
@@ -8792,7 +8822,7 @@
         <v>16</v>
       </c>
       <c r="AB46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC46">
         <v>1</v>
@@ -8801,7 +8831,7 @@
         <v>8</v>
       </c>
       <c r="AE46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF46" s="10">
         <v>74967</v>
@@ -8818,7 +8848,7 @@
         <v>74549.706201272769</v>
       </c>
       <c r="AJ46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK46" s="10">
         <v>125</v>
@@ -8839,7 +8869,7 @@
         <v>384</v>
       </c>
       <c r="AQ46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR46" s="1">
         <f t="shared" ref="AR46:AR47" si="61" xml:space="preserve"> _xlfn.FLOOR.MATH((AK46 - AN46) / 2)</f>
@@ -8854,13 +8884,13 @@
         <v>15</v>
       </c>
       <c r="AU46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV46" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AW46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AX46" s="21">
         <v>0</v>
@@ -8872,15 +8902,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F47" s="23">
         <v>0</v>
@@ -8889,7 +8919,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I47" s="21">
         <v>0</v>
@@ -8922,7 +8952,7 @@
         <v>1</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T47">
         <v>6</v>
@@ -8940,8 +8970,8 @@
         <f t="shared" si="56"/>
         <v>6</v>
       </c>
-      <c r="Y47" t="s">
-        <v>8</v>
+      <c r="Y47">
+        <v>1</v>
       </c>
       <c r="Z47">
         <v>3</v>
@@ -8950,7 +8980,7 @@
         <v>16</v>
       </c>
       <c r="AB47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC47">
         <v>1</v>
@@ -8959,7 +8989,7 @@
         <v>8</v>
       </c>
       <c r="AE47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF47" s="10">
         <v>23033</v>
@@ -8976,7 +9006,7 @@
         <v>22708.360330151121</v>
       </c>
       <c r="AJ47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK47" s="10">
         <v>125</v>
@@ -8997,7 +9027,7 @@
         <v>256</v>
       </c>
       <c r="AQ47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR47" s="1">
         <f t="shared" si="61"/>
@@ -9012,13 +9042,13 @@
         <v>79</v>
       </c>
       <c r="AU47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV47" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AW47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AX47" s="21">
         <v>0</v>
@@ -9030,15 +9060,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F48" s="23">
         <v>0</v>
@@ -9047,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I48" s="21">
         <v>0</v>
@@ -9080,7 +9110,7 @@
         <v>1</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T48">
         <v>6</v>
@@ -9098,8 +9128,8 @@
         <f t="shared" si="56"/>
         <v>6</v>
       </c>
-      <c r="Y48" t="s">
-        <v>8</v>
+      <c r="Y48">
+        <v>1</v>
       </c>
       <c r="Z48">
         <v>3</v>
@@ -9108,7 +9138,7 @@
         <v>16</v>
       </c>
       <c r="AB48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC48">
         <v>1</v>
@@ -9117,7 +9147,7 @@
         <v>8</v>
       </c>
       <c r="AE48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF48" s="10">
         <v>4739</v>
@@ -9134,7 +9164,7 @@
         <v>4158.1023826571118</v>
       </c>
       <c r="AJ48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK48" s="10">
         <v>125</v>
@@ -9155,7 +9185,7 @@
         <v>128</v>
       </c>
       <c r="AQ48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR48" s="1">
         <f t="shared" ref="AR48:AR63" si="64" xml:space="preserve"> _xlfn.FLOOR.MATH((AK48 - AN48) / 2)</f>
@@ -9170,13 +9200,13 @@
         <v>143</v>
       </c>
       <c r="AU48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV48" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AW48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AX48" s="21">
         <v>0</v>
@@ -9188,15 +9218,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F49" s="23">
         <v>0</v>
@@ -9205,7 +9235,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I49" s="21">
         <v>0</v>
@@ -9238,7 +9268,7 @@
         <v>1</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T49">
         <v>6</v>
@@ -9256,8 +9286,8 @@
         <f t="shared" si="56"/>
         <v>6</v>
       </c>
-      <c r="Y49" t="s">
-        <v>8</v>
+      <c r="Y49">
+        <v>1</v>
       </c>
       <c r="Z49">
         <v>2</v>
@@ -9266,7 +9296,7 @@
         <v>16</v>
       </c>
       <c r="AB49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC49">
         <v>1</v>
@@ -9275,7 +9305,7 @@
         <v>8</v>
       </c>
       <c r="AE49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF49" s="10">
         <v>74853</v>
@@ -9292,7 +9322,7 @@
         <v>53680.666010342022</v>
       </c>
       <c r="AJ49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK49" s="10">
         <v>125</v>
@@ -9313,7 +9343,7 @@
         <v>384</v>
       </c>
       <c r="AQ49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR49" s="1">
         <f t="shared" si="64"/>
@@ -9328,13 +9358,13 @@
         <v>15</v>
       </c>
       <c r="AU49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV49" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AW49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AX49" s="21">
         <v>0</v>
@@ -9346,15 +9376,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F50" s="23">
         <v>0</v>
@@ -9363,7 +9393,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I50" s="21">
         <v>0</v>
@@ -9396,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T50">
         <v>6</v>
@@ -9414,8 +9444,8 @@
         <f t="shared" si="56"/>
         <v>6</v>
       </c>
-      <c r="Y50" t="s">
-        <v>8</v>
+      <c r="Y50">
+        <v>1</v>
       </c>
       <c r="Z50">
         <v>2</v>
@@ -9424,7 +9454,7 @@
         <v>16</v>
       </c>
       <c r="AB50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC50">
         <v>1</v>
@@ -9433,7 +9463,7 @@
         <v>8</v>
       </c>
       <c r="AE50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF50" s="10">
         <v>22999</v>
@@ -9450,7 +9480,7 @@
         <v>16651.133245255118</v>
       </c>
       <c r="AJ50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK50" s="10">
         <v>125</v>
@@ -9471,7 +9501,7 @@
         <v>256</v>
       </c>
       <c r="AQ50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR50" s="1">
         <f t="shared" si="64"/>
@@ -9486,13 +9516,13 @@
         <v>79</v>
       </c>
       <c r="AU50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV50" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AW50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AX50" s="21">
         <v>0</v>
@@ -9504,15 +9534,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F51" s="23">
         <v>0</v>
@@ -9521,7 +9551,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I51" s="21">
         <v>0</v>
@@ -9554,7 +9584,7 @@
         <v>1</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T51">
         <v>6</v>
@@ -9572,8 +9602,8 @@
         <f t="shared" si="56"/>
         <v>6</v>
       </c>
-      <c r="Y51" t="s">
-        <v>8</v>
+      <c r="Y51">
+        <v>1</v>
       </c>
       <c r="Z51">
         <v>2</v>
@@ -9582,7 +9612,7 @@
         <v>16</v>
       </c>
       <c r="AB51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC51">
         <v>1</v>
@@ -9591,7 +9621,7 @@
         <v>8</v>
       </c>
       <c r="AE51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF51" s="10">
         <v>4727</v>
@@ -9608,7 +9638,7 @@
         <v>3400.9489970451114</v>
       </c>
       <c r="AJ51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK51" s="10">
         <v>125</v>
@@ -9629,7 +9659,7 @@
         <v>128</v>
       </c>
       <c r="AQ51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR51" s="1">
         <f t="shared" si="64"/>
@@ -9644,13 +9674,13 @@
         <v>143</v>
       </c>
       <c r="AU51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV51" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AW51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AX51" s="21">
         <v>0</v>
@@ -9662,15 +9692,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F52" s="23">
         <v>0</v>
@@ -9679,7 +9709,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I52" s="21">
         <v>0</v>
@@ -9712,7 +9742,7 @@
         <v>1</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T52">
         <v>6</v>
@@ -9730,8 +9760,8 @@
         <f t="shared" si="56"/>
         <v>6</v>
       </c>
-      <c r="Y52" t="s">
-        <v>8</v>
+      <c r="Y52">
+        <v>1</v>
       </c>
       <c r="Z52">
         <v>1</v>
@@ -9740,7 +9770,7 @@
         <v>16</v>
       </c>
       <c r="AB52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC52">
         <v>1</v>
@@ -9749,7 +9779,7 @@
         <v>8</v>
       </c>
       <c r="AE52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF52" s="10">
         <v>74743</v>
@@ -9766,7 +9796,7 @@
         <v>32811.625819411252</v>
       </c>
       <c r="AJ52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK52" s="10">
         <v>125</v>
@@ -9787,7 +9817,7 @@
         <v>384</v>
       </c>
       <c r="AQ52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR52" s="1">
         <f t="shared" si="64"/>
@@ -9802,13 +9832,13 @@
         <v>15</v>
       </c>
       <c r="AU52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV52" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AW52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AX52" s="21">
         <v>0</v>
@@ -9820,15 +9850,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F53" s="23">
         <v>0</v>
@@ -9837,7 +9867,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I53" s="21">
         <v>0</v>
@@ -9870,7 +9900,7 @@
         <v>1</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T53">
         <v>6</v>
@@ -9888,8 +9918,8 @@
         <f t="shared" si="56"/>
         <v>6</v>
       </c>
-      <c r="Y53" t="s">
-        <v>8</v>
+      <c r="Y53">
+        <v>1</v>
       </c>
       <c r="Z53">
         <v>1</v>
@@ -9898,7 +9928,7 @@
         <v>16</v>
       </c>
       <c r="AB53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC53">
         <v>1</v>
@@ -9907,7 +9937,7 @@
         <v>8</v>
       </c>
       <c r="AE53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF53" s="10">
         <v>22967</v>
@@ -9924,7 +9954,7 @@
         <v>10593.906160359114</v>
       </c>
       <c r="AJ53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK53" s="10">
         <v>125</v>
@@ -9945,7 +9975,7 @@
         <v>256</v>
       </c>
       <c r="AQ53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR53" s="1">
         <f t="shared" si="64"/>
@@ -9960,13 +9990,13 @@
         <v>79</v>
       </c>
       <c r="AU53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV53" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AW53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AX53" s="21">
         <v>0</v>
@@ -9978,15 +10008,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F54" s="23">
         <v>0</v>
@@ -9995,7 +10025,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I54" s="21">
         <v>0</v>
@@ -10028,7 +10058,7 @@
         <v>1</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T54">
         <v>6</v>
@@ -10046,8 +10076,8 @@
         <f t="shared" si="56"/>
         <v>6</v>
       </c>
-      <c r="Y54" t="s">
-        <v>8</v>
+      <c r="Y54">
+        <v>1</v>
       </c>
       <c r="Z54">
         <v>1</v>
@@ -10056,7 +10086,7 @@
         <v>16</v>
       </c>
       <c r="AB54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC54">
         <v>1</v>
@@ -10065,7 +10095,7 @@
         <v>8</v>
       </c>
       <c r="AE54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF54" s="10">
         <v>4727</v>
@@ -10082,7 +10112,7 @@
         <v>2643.7956114331109</v>
       </c>
       <c r="AJ54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK54" s="10">
         <v>125</v>
@@ -10103,7 +10133,7 @@
         <v>128</v>
       </c>
       <c r="AQ54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR54" s="1">
         <f t="shared" si="64"/>
@@ -10118,13 +10148,13 @@
         <v>143</v>
       </c>
       <c r="AU54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV54" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AW54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AX54" s="21">
         <v>0</v>
@@ -10136,15 +10166,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F55" s="23">
         <v>0</v>
@@ -10153,7 +10183,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I55" s="21">
         <v>0</v>
@@ -10186,7 +10216,7 @@
         <v>1</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T55">
         <v>6</v>
@@ -10204,8 +10234,8 @@
         <f t="shared" si="56"/>
         <v>6</v>
       </c>
-      <c r="Y55" t="s">
-        <v>8</v>
+      <c r="Y55">
+        <v>1</v>
       </c>
       <c r="Z55">
         <v>3</v>
@@ -10214,7 +10244,7 @@
         <v>8</v>
       </c>
       <c r="AB55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC55">
         <v>1</v>
@@ -10223,7 +10253,7 @@
         <v>8</v>
       </c>
       <c r="AE55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF55" s="10">
         <v>74965</v>
@@ -10240,7 +10270,7 @@
         <v>43246.145914876637</v>
       </c>
       <c r="AJ55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK55" s="10">
         <v>125</v>
@@ -10261,7 +10291,7 @@
         <v>384</v>
       </c>
       <c r="AQ55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR55" s="1">
         <f t="shared" si="64"/>
@@ -10276,13 +10306,13 @@
         <v>15</v>
       </c>
       <c r="AU55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV55" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AW55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AX55" s="21">
         <v>0</v>
@@ -10294,15 +10324,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F56" s="23">
         <v>0</v>
@@ -10311,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I56" s="21">
         <v>0</v>
@@ -10344,7 +10374,7 @@
         <v>1</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T56">
         <v>6</v>
@@ -10362,8 +10392,8 @@
         <f t="shared" si="56"/>
         <v>6</v>
       </c>
-      <c r="Y56" t="s">
-        <v>8</v>
+      <c r="Y56">
+        <v>1</v>
       </c>
       <c r="Z56">
         <v>3</v>
@@ -10372,7 +10402,7 @@
         <v>8</v>
       </c>
       <c r="AB56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC56">
         <v>1</v>
@@ -10381,7 +10411,7 @@
         <v>8</v>
       </c>
       <c r="AE56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF56" s="10">
         <v>23033</v>
@@ -10398,7 +10428,7 @@
         <v>13622.519702807114</v>
       </c>
       <c r="AJ56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK56" s="10">
         <v>125</v>
@@ -10419,7 +10449,7 @@
         <v>256</v>
       </c>
       <c r="AQ56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR56" s="1">
         <f t="shared" si="64"/>
@@ -10434,13 +10464,13 @@
         <v>79</v>
       </c>
       <c r="AU56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV56" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AW56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AX56" s="21">
         <v>0</v>
@@ -10452,15 +10482,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F57" s="23">
         <v>0</v>
@@ -10469,7 +10499,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I57" s="21">
         <v>0</v>
@@ -10502,7 +10532,7 @@
         <v>1</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T57">
         <v>6</v>
@@ -10520,8 +10550,8 @@
         <f t="shared" si="56"/>
         <v>6</v>
       </c>
-      <c r="Y57" t="s">
-        <v>8</v>
+      <c r="Y57">
+        <v>1</v>
       </c>
       <c r="Z57">
         <v>3</v>
@@ -10530,7 +10560,7 @@
         <v>8</v>
       </c>
       <c r="AB57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC57">
         <v>1</v>
@@ -10539,7 +10569,7 @@
         <v>8</v>
       </c>
       <c r="AE57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF57" s="10">
         <v>4739</v>
@@ -10556,7 +10586,7 @@
         <v>3022.3723042391107</v>
       </c>
       <c r="AJ57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK57" s="10">
         <v>125</v>
@@ -10577,7 +10607,7 @@
         <v>128</v>
       </c>
       <c r="AQ57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR57" s="1">
         <f t="shared" si="64"/>
@@ -10592,13 +10622,13 @@
         <v>143</v>
       </c>
       <c r="AU57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV57" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AW57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AX57" s="21">
         <v>0</v>
@@ -10610,15 +10640,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F58" s="23">
         <v>0</v>
@@ -10627,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I58" s="21">
         <v>0</v>
@@ -10660,7 +10690,7 @@
         <v>1</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T58">
         <v>6</v>
@@ -10678,8 +10708,8 @@
         <f t="shared" si="56"/>
         <v>6</v>
       </c>
-      <c r="Y58" t="s">
-        <v>8</v>
+      <c r="Y58">
+        <v>1</v>
       </c>
       <c r="Z58">
         <v>2</v>
@@ -10688,7 +10718,7 @@
         <v>8</v>
       </c>
       <c r="AB58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC58">
         <v>1</v>
@@ -10697,7 +10727,7 @@
         <v>8</v>
       </c>
       <c r="AE58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF58" s="10">
         <v>74853</v>
@@ -10714,7 +10744,7 @@
         <v>32811.625819411252</v>
       </c>
       <c r="AJ58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK58" s="10">
         <v>125</v>
@@ -10735,7 +10765,7 @@
         <v>384</v>
       </c>
       <c r="AQ58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR58" s="1">
         <f t="shared" si="64"/>
@@ -10750,13 +10780,13 @@
         <v>15</v>
       </c>
       <c r="AU58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV58" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AW58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AX58" s="21">
         <v>0</v>
@@ -10768,15 +10798,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F59" s="23">
         <v>0</v>
@@ -10785,7 +10815,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I59" s="21">
         <v>0</v>
@@ -10818,7 +10848,7 @@
         <v>1</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T59">
         <v>6</v>
@@ -10836,8 +10866,8 @@
         <f t="shared" si="56"/>
         <v>6</v>
       </c>
-      <c r="Y59" t="s">
-        <v>8</v>
+      <c r="Y59">
+        <v>1</v>
       </c>
       <c r="Z59">
         <v>2</v>
@@ -10846,7 +10876,7 @@
         <v>8</v>
       </c>
       <c r="AB59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC59">
         <v>1</v>
@@ -10855,7 +10885,7 @@
         <v>8</v>
       </c>
       <c r="AE59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF59" s="10">
         <v>22999</v>
@@ -10872,7 +10902,7 @@
         <v>10593.906160359114</v>
       </c>
       <c r="AJ59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK59" s="10">
         <v>125</v>
@@ -10893,7 +10923,7 @@
         <v>256</v>
       </c>
       <c r="AQ59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR59" s="1">
         <f t="shared" si="64"/>
@@ -10908,13 +10938,13 @@
         <v>79</v>
       </c>
       <c r="AU59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV59" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AW59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AX59" s="21">
         <v>0</v>
@@ -10926,15 +10956,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F60" s="23">
         <v>0</v>
@@ -10943,7 +10973,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I60" s="21">
         <v>0</v>
@@ -10976,7 +11006,7 @@
         <v>1</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T60">
         <v>6</v>
@@ -10994,8 +11024,8 @@
         <f t="shared" si="56"/>
         <v>6</v>
       </c>
-      <c r="Y60" t="s">
-        <v>8</v>
+      <c r="Y60">
+        <v>1</v>
       </c>
       <c r="Z60">
         <v>2</v>
@@ -11004,7 +11034,7 @@
         <v>8</v>
       </c>
       <c r="AB60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC60">
         <v>1</v>
@@ -11013,7 +11043,7 @@
         <v>8</v>
       </c>
       <c r="AE60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF60" s="10">
         <v>4727</v>
@@ -11030,7 +11060,7 @@
         <v>2643.7956114331109</v>
       </c>
       <c r="AJ60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK60" s="10">
         <v>125</v>
@@ -11051,7 +11081,7 @@
         <v>128</v>
       </c>
       <c r="AQ60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR60" s="1">
         <f t="shared" si="64"/>
@@ -11066,13 +11096,13 @@
         <v>143</v>
       </c>
       <c r="AU60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV60" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AW60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AX60" s="21">
         <v>0</v>
@@ -11084,15 +11114,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F61" s="23">
         <v>0</v>
@@ -11101,7 +11131,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I61" s="21">
         <v>0</v>
@@ -11134,7 +11164,7 @@
         <v>1</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T61">
         <v>6</v>
@@ -11152,8 +11182,8 @@
         <f t="shared" si="56"/>
         <v>6</v>
       </c>
-      <c r="Y61" t="s">
-        <v>8</v>
+      <c r="Y61">
+        <v>1</v>
       </c>
       <c r="Z61">
         <v>1</v>
@@ -11162,7 +11192,7 @@
         <v>8</v>
       </c>
       <c r="AB61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC61">
         <v>1</v>
@@ -11171,7 +11201,7 @@
         <v>8</v>
       </c>
       <c r="AE61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF61" s="10">
         <v>74743</v>
@@ -11188,7 +11218,7 @@
         <v>22377.105723945871</v>
       </c>
       <c r="AJ61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK61" s="10">
         <v>125</v>
@@ -11209,7 +11239,7 @@
         <v>384</v>
       </c>
       <c r="AQ61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR61" s="1">
         <f t="shared" si="64"/>
@@ -11224,13 +11254,13 @@
         <v>15</v>
       </c>
       <c r="AU61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV61" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AW61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AX61" s="21">
         <v>0</v>
@@ -11242,15 +11272,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F62" s="23">
         <v>0</v>
@@ -11259,7 +11289,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I62" s="21">
         <v>0</v>
@@ -11292,7 +11322,7 @@
         <v>1</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T62">
         <v>6</v>
@@ -11310,8 +11340,8 @@
         <f t="shared" si="56"/>
         <v>6</v>
       </c>
-      <c r="Y62" t="s">
-        <v>8</v>
+      <c r="Y62">
+        <v>1</v>
       </c>
       <c r="Z62">
         <v>1</v>
@@ -11320,7 +11350,7 @@
         <v>8</v>
       </c>
       <c r="AB62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC62">
         <v>1</v>
@@ -11329,7 +11359,7 @@
         <v>8</v>
       </c>
       <c r="AE62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF62" s="10">
         <v>22967</v>
@@ -11346,7 +11376,7 @@
         <v>7565.2926179111128</v>
       </c>
       <c r="AJ62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK62" s="10">
         <v>125</v>
@@ -11367,7 +11397,7 @@
         <v>256</v>
       </c>
       <c r="AQ62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR62" s="1">
         <f t="shared" si="64"/>
@@ -11382,13 +11412,13 @@
         <v>79</v>
       </c>
       <c r="AU62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV62" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AW62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AX62" s="21">
         <v>0</v>
@@ -11400,15 +11430,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F63" s="29">
         <v>0</v>
@@ -11417,7 +11447,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I63" s="22">
         <v>0</v>
@@ -11450,7 +11480,7 @@
         <v>1</v>
       </c>
       <c r="S63" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T63" s="7">
         <v>6</v>
@@ -11468,8 +11498,8 @@
         <f t="shared" si="56"/>
         <v>6</v>
       </c>
-      <c r="Y63" s="7" t="s">
-        <v>8</v>
+      <c r="Y63" s="7">
+        <v>1</v>
       </c>
       <c r="Z63" s="7">
         <v>1</v>
@@ -11478,7 +11508,7 @@
         <v>8</v>
       </c>
       <c r="AB63" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC63" s="7">
         <v>1</v>
@@ -11487,7 +11517,7 @@
         <v>8</v>
       </c>
       <c r="AE63" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF63" s="11">
         <v>4727</v>
@@ -11504,7 +11534,7 @@
         <v>2265.2189186271103</v>
       </c>
       <c r="AJ63" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK63" s="11">
         <v>125</v>
@@ -11525,7 +11555,7 @@
         <v>128</v>
       </c>
       <c r="AQ63" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR63" s="8">
         <f t="shared" si="64"/>
@@ -11540,13 +11570,13 @@
         <v>143</v>
       </c>
       <c r="AU63" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV63" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AW63" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AX63" s="22">
         <v>0</v>
@@ -11558,63 +11588,63 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="B64" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="D64" t="s">
+        <v>274</v>
+      </c>
+      <c r="E64" t="s">
+        <v>280</v>
+      </c>
+      <c r="F64" s="10">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>121</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="S64" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="B64" t="s">
-        <v>124</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="D64" t="s">
-        <v>275</v>
-      </c>
-      <c r="E64" t="s">
-        <v>282</v>
-      </c>
-      <c r="F64" s="10">
-        <v>1</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>1</v>
-      </c>
-      <c r="P64" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>122</v>
-      </c>
-      <c r="R64">
-        <v>1</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="T64">
         <v>6</v>
@@ -11631,8 +11661,8 @@
       <c r="X64">
         <v>6</v>
       </c>
-      <c r="Y64" t="s">
-        <v>8</v>
+      <c r="Y64">
+        <v>1</v>
       </c>
       <c r="Z64">
         <v>1</v>
@@ -11641,7 +11671,7 @@
         <v>16</v>
       </c>
       <c r="AB64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC64">
         <v>1</v>
@@ -11650,23 +11680,23 @@
         <v>8</v>
       </c>
       <c r="AE64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF64" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AG64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AH64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AI64">
         <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN64*AO64*AP64) * (X64 / 5) + 441</f>
         <v>74990.706201272769</v>
       </c>
       <c r="AJ64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK64" s="10">
         <v>125</v>
@@ -11687,96 +11717,147 @@
         <v>384</v>
       </c>
       <c r="AQ64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR64" s="1">
-        <f t="shared" ref="AR64" si="67" xml:space="preserve"> _xlfn.FLOOR.MATH((AK64 - AN64) / 2)</f>
+        <f t="shared" ref="AR64:AR65" si="67" xml:space="preserve"> _xlfn.FLOOR.MATH((AK64 - AN64) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS64">
-        <f t="shared" ref="AS64" si="68" xml:space="preserve"> _xlfn.FLOOR.MATH((AL64 - AO64) / 2)</f>
+        <f t="shared" ref="AS64:AS65" si="68" xml:space="preserve"> _xlfn.FLOOR.MATH((AL64 - AO64) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT64">
-        <f t="shared" ref="AT64" si="69" xml:space="preserve"> _xlfn.FLOOR.MATH((AM64 - AP64) / 2)</f>
+        <f t="shared" ref="AT64:AT65" si="69" xml:space="preserve"> _xlfn.FLOOR.MATH((AM64 - AP64) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV64" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AW64" t="s">
-        <v>167</v>
-      </c>
-      <c r="AX64" t="s">
-        <v>122</v>
+        <v>166</v>
+      </c>
+      <c r="AX64">
+        <v>0</v>
       </c>
       <c r="AY64" s="21" t="s">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="AZ64" s="21" t="s">
-        <v>122</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B65" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D65" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E65" t="s">
-        <v>122</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G65" s="31" t="s">
-        <v>122</v>
+        <v>286</v>
+      </c>
+      <c r="F65" s="10">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
       </c>
       <c r="H65" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="I65" s="31" t="s">
-        <v>122</v>
+        <v>287</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
       </c>
       <c r="J65" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="K65" s="31" t="s">
-        <v>122</v>
+        <v>8</v>
+      </c>
+      <c r="K65" t="s">
+        <v>8</v>
       </c>
       <c r="L65" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="M65" s="31" t="s">
-        <v>122</v>
+        <v>8</v>
+      </c>
+      <c r="M65" t="s">
+        <v>8</v>
       </c>
       <c r="N65" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="O65" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="P65" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q65" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="R65" s="32" t="s">
-        <v>122</v>
+        <v>8</v>
+      </c>
+      <c r="O65" t="s">
+        <v>8</v>
+      </c>
+      <c r="P65" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q65" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="R65" s="21">
+        <v>0</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
+      </c>
+      <c r="T65" t="s">
+        <v>121</v>
+      </c>
+      <c r="U65" t="s">
+        <v>121</v>
+      </c>
+      <c r="V65">
+        <v>5</v>
+      </c>
+      <c r="W65">
+        <v>1</v>
+      </c>
+      <c r="X65">
+        <v>6</v>
+      </c>
+      <c r="Y65">
+        <v>1</v>
+      </c>
+      <c r="Z65">
+        <v>1</v>
+      </c>
+      <c r="AA65">
+        <v>16</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC65">
+        <v>1</v>
+      </c>
+      <c r="AD65">
+        <v>8</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF65" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>288</v>
+      </c>
+      <c r="AJ65" t="s">
+        <v>109</v>
       </c>
       <c r="AK65" s="10">
         <v>125</v>
@@ -11787,64 +11868,261 @@
       <c r="AM65">
         <v>414</v>
       </c>
+      <c r="AN65" s="1">
+        <v>80</v>
+      </c>
+      <c r="AO65" s="30">
+        <v>170</v>
+      </c>
+      <c r="AP65" s="30">
+        <v>170</v>
+      </c>
+      <c r="AQ65" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR65" s="1">
+        <v>40</v>
+      </c>
+      <c r="AS65">
+        <v>90</v>
+      </c>
+      <c r="AT65">
+        <v>90</v>
+      </c>
+      <c r="AU65" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV65" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="AW65" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="AX65" s="32">
+        <v>1</v>
+      </c>
+      <c r="AY65" t="s">
+        <v>291</v>
+      </c>
+      <c r="AZ65" t="s">
+        <v>293</v>
+      </c>
     </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B66" t="s">
+        <v>284</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G66" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="H66" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I66" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="J66" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="K66" t="s">
+        <v>121</v>
+      </c>
+      <c r="L66" t="s">
+        <v>121</v>
+      </c>
+      <c r="M66" t="s">
+        <v>121</v>
+      </c>
+      <c r="N66" t="s">
+        <v>121</v>
+      </c>
+      <c r="O66" t="s">
+        <v>121</v>
+      </c>
+      <c r="P66" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q66" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="R66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="T66" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="U66" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="V66">
+        <v>5</v>
+      </c>
+      <c r="W66">
+        <v>1</v>
+      </c>
+      <c r="X66">
+        <v>6</v>
+      </c>
+      <c r="Y66">
+        <v>1</v>
+      </c>
+      <c r="Z66">
+        <v>1</v>
+      </c>
+      <c r="AA66">
+        <v>16</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC66">
+        <v>1</v>
+      </c>
+      <c r="AD66">
+        <v>8</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF66" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG66" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH66" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI66" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="AJ66" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK66" s="10">
+        <v>125</v>
+      </c>
+      <c r="AL66">
+        <v>1169</v>
+      </c>
+      <c r="AM66">
+        <v>414</v>
+      </c>
+      <c r="AN66" s="1">
+        <v>80</v>
+      </c>
+      <c r="AO66" s="30">
+        <v>170</v>
+      </c>
+      <c r="AP66" s="30">
+        <v>170</v>
+      </c>
+      <c r="AQ66" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR66" s="1">
+        <v>40</v>
+      </c>
+      <c r="AS66">
+        <v>90</v>
+      </c>
+      <c r="AT66">
+        <v>90</v>
+      </c>
+      <c r="AU66" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV66" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="AW66" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="AX66" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY66" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ66" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B69" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I69" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J69" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L69" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M69" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N69" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O69" s="19"/>
       <c r="P69" s="19"/>
       <c r="Q69" s="19"/>
       <c r="R69" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="T69">
         <v>6</v>
       </c>
       <c r="U69" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V69">
         <v>5</v>
@@ -11865,7 +12143,7 @@
         <v>16</v>
       </c>
       <c r="AB69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC69">
         <v>1</v>
@@ -11874,41 +12152,41 @@
         <v>8</v>
       </c>
       <c r="AE69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF69" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AG69" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AI69" t="e">
         <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN69*AO69*AP69) / 5 * X69</f>
         <v>#VALUE!</v>
       </c>
       <c r="AJ69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK69" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL69" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AM69" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AN69" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AO69" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AP69" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AQ69" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AR69" s="1" t="e">
         <f t="shared" ref="AR69" si="70" xml:space="preserve"> _xlfn.FLOOR.MATH((AK69 - AN69) / 2)</f>
@@ -11923,32 +12201,32 @@
         <v>#VALUE!</v>
       </c>
       <c r="AU69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV69" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW69" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AX69" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AY69" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AZ69" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AO75" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AO76" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="76" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="AO76" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F6EDCA-CA62-43C3-819A-769DCC534157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6881210-4B84-4309-9FFD-504638F9C551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="298">
   <si>
     <t>patch z</t>
   </si>
@@ -681,9 +681,6 @@
     <t>VRAM free (MiB) nvidia-smi output</t>
   </si>
   <si>
-    <t>dataset06</t>
-  </si>
-  <si>
     <t>n test</t>
   </si>
   <si>
@@ -819,12 +816,6 @@
     <t>230930-17</t>
   </si>
   <si>
-    <t>64,896,160</t>
-  </si>
-  <si>
-    <t>32,128,80</t>
-  </si>
-  <si>
     <t>VRAM capacity (MiB)</t>
   </si>
   <si>
@@ -919,13 +910,34 @@
   </si>
   <si>
     <t>File "/data/dwalth/pytorch-3dunet/pytorch3dunet/unet3d/predictor.py", line 10, in &lt;module&gt;: from tqdm import tqdm</t>
+  </si>
+  <si>
+    <t>ValueError: requested an output size of torch.Size([11, 22, 22]), but valid sizes range from [9, 21, 21] to [10, 22, 22] (for an input of torch.Size([5, 11, 11]))</t>
+  </si>
+  <si>
+    <t>File "/home/dwalth/data/conda/envs/3dunet/lib/python3.11/site-packages/torch/nn/modules/conv.py", line 662, in _output_padding: raise ValueError((</t>
+  </si>
+  <si>
+    <t>patch = same as for the train3dunet config used to train the model being tested now.</t>
+  </si>
+  <si>
+    <t>stride = same as for the train3dunet config used to train the model being tested now.</t>
+  </si>
+  <si>
+    <t>See 231008-2 cell below for results, because: Error, invalid patch shape (torch.size error).</t>
+  </si>
+  <si>
+    <t>231008-2</t>
+  </si>
+  <si>
+    <t>Same as 231008-0, -1. Also, attempting to fix invalid patch shape.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -949,13 +961,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1079,7 +1084,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1102,9 +1107,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1436,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
-  <dimension ref="A1:AZ76"/>
+  <dimension ref="A1:AZ67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="AJ45" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="AV69" sqref="AV69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1527,22 +1529,22 @@
         <v>119</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>118</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>120</v>
@@ -1566,7 +1568,7 @@
         <v>177</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>5</v>
@@ -1593,7 +1595,7 @@
         <v>213</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AI1" s="2" t="s">
         <v>153</v>
@@ -1647,7 +1649,7 @@
         <v>155</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
@@ -1748,56 +1750,56 @@
       <c r="AF2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" s="21" t="s">
+      <c r="AG2" s="18" t="s">
         <v>8</v>
       </c>
       <c r="AH2" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ2" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK2" s="23">
+      <c r="AI2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK2" s="20">
         <v>125</v>
       </c>
-      <c r="AL2" s="21">
+      <c r="AL2" s="18">
         <v>1169</v>
       </c>
-      <c r="AM2" s="21">
+      <c r="AM2" s="18">
         <v>414</v>
       </c>
-      <c r="AN2" s="21">
+      <c r="AN2" s="18">
         <v>64</v>
       </c>
-      <c r="AO2" s="21">
+      <c r="AO2" s="18">
         <v>896</v>
       </c>
-      <c r="AP2" s="21">
+      <c r="AP2" s="18">
         <v>160</v>
       </c>
-      <c r="AQ2" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR2" s="25">
+      <c r="AQ2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR2" s="22">
         <v>32</v>
       </c>
-      <c r="AS2" s="21">
+      <c r="AS2" s="18">
         <v>128</v>
       </c>
-      <c r="AT2" s="21">
+      <c r="AT2" s="18">
         <v>80</v>
       </c>
-      <c r="AU2" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV2" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="AW2" s="21" t="s">
-        <v>271</v>
+      <c r="AU2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV2" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW2" s="18" t="s">
+        <v>268</v>
       </c>
       <c r="AX2">
         <v>1</v>
@@ -1907,57 +1909,57 @@
       <c r="AF3" s="10">
         <v>20769</v>
       </c>
-      <c r="AG3" s="21">
+      <c r="AG3" s="18">
         <v>11731</v>
       </c>
       <c r="AH3">
         <f>AF3+AG3</f>
         <v>32500</v>
       </c>
-      <c r="AI3" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ3" s="21" t="s">
+      <c r="AI3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="AK3" s="23">
+      <c r="AK3" s="20">
         <v>125</v>
       </c>
-      <c r="AL3" s="21">
+      <c r="AL3" s="18">
         <v>1169</v>
       </c>
-      <c r="AM3" s="21">
+      <c r="AM3" s="18">
         <v>414</v>
       </c>
-      <c r="AN3" s="25">
+      <c r="AN3" s="22">
         <v>64</v>
       </c>
-      <c r="AO3" s="21">
+      <c r="AO3" s="18">
         <v>896</v>
       </c>
-      <c r="AP3" s="21">
+      <c r="AP3" s="18">
         <v>160</v>
       </c>
-      <c r="AQ3" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR3" s="25">
+      <c r="AQ3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR3" s="22">
         <v>32</v>
       </c>
-      <c r="AS3" s="21">
+      <c r="AS3" s="18">
         <v>128</v>
       </c>
-      <c r="AT3" s="21">
+      <c r="AT3" s="18">
         <v>80</v>
       </c>
-      <c r="AU3" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV3" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="AW3" s="21" t="s">
-        <v>271</v>
+      <c r="AU3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV3" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW3" s="18" t="s">
+        <v>268</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -2067,55 +2069,55 @@
       <c r="AF4" s="13">
         <v>-1</v>
       </c>
-      <c r="AG4" s="24">
+      <c r="AG4" s="21">
         <v>-1</v>
       </c>
       <c r="AH4" s="12">
         <v>32500</v>
       </c>
-      <c r="AI4" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ4" s="24" t="s">
+      <c r="AI4" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AK4" s="26">
+      <c r="AK4" s="23">
         <v>125</v>
       </c>
-      <c r="AL4" s="24">
+      <c r="AL4" s="21">
         <v>1169</v>
       </c>
-      <c r="AM4" s="24">
+      <c r="AM4" s="21">
         <v>414</v>
       </c>
-      <c r="AN4" s="27">
+      <c r="AN4" s="24">
         <v>105</v>
       </c>
-      <c r="AO4" s="24">
+      <c r="AO4" s="21">
         <v>1149</v>
       </c>
-      <c r="AP4" s="24">
+      <c r="AP4" s="21">
         <v>394</v>
       </c>
-      <c r="AQ4" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR4" s="27">
+      <c r="AQ4" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR4" s="24">
         <v>10</v>
       </c>
-      <c r="AS4" s="24">
+      <c r="AS4" s="21">
         <v>10</v>
       </c>
-      <c r="AT4" s="24">
+      <c r="AT4" s="21">
         <v>10</v>
       </c>
-      <c r="AU4" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV4" s="26" t="s">
+      <c r="AU4" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AW4" s="24" t="s">
+      <c r="AW4" s="21" t="s">
         <v>15</v>
       </c>
       <c r="AX4" s="12">
@@ -2226,7 +2228,7 @@
       <c r="AF5" s="10">
         <v>-1</v>
       </c>
-      <c r="AG5" s="21">
+      <c r="AG5" s="18">
         <v>-1</v>
       </c>
       <c r="AH5">
@@ -2271,10 +2273,10 @@
       <c r="AU5" t="s">
         <v>48</v>
       </c>
-      <c r="AV5" s="23" t="s">
+      <c r="AV5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AW5" s="21" t="s">
+      <c r="AW5" s="18" t="s">
         <v>15</v>
       </c>
       <c r="AX5">
@@ -2385,7 +2387,7 @@
       <c r="AF6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AG6" s="21" t="s">
+      <c r="AG6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="AH6">
@@ -2544,7 +2546,7 @@
       <c r="AF7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="21" t="s">
+      <c r="AG7" s="18" t="s">
         <v>8</v>
       </c>
       <c r="AH7">
@@ -2703,7 +2705,7 @@
       <c r="AF8" s="10">
         <v>-1</v>
       </c>
-      <c r="AG8" s="21">
+      <c r="AG8" s="18">
         <v>-1</v>
       </c>
       <c r="AH8">
@@ -2862,7 +2864,7 @@
       <c r="AF9" s="10">
         <v>20319</v>
       </c>
-      <c r="AG9" s="21">
+      <c r="AG9" s="18">
         <v>12181</v>
       </c>
       <c r="AH9">
@@ -3027,7 +3029,7 @@
       <c r="AF10" s="10">
         <v>19417</v>
       </c>
-      <c r="AG10" s="21">
+      <c r="AG10" s="18">
         <v>13083</v>
       </c>
       <c r="AH10">
@@ -3186,7 +3188,7 @@
       <c r="AF11" s="10">
         <v>-1</v>
       </c>
-      <c r="AG11" s="21">
+      <c r="AG11" s="18">
         <v>-1</v>
       </c>
       <c r="AH11">
@@ -3345,7 +3347,7 @@
       <c r="AF12" s="10">
         <v>10135</v>
       </c>
-      <c r="AG12" s="21">
+      <c r="AG12" s="18">
         <v>22365</v>
       </c>
       <c r="AH12">
@@ -3505,7 +3507,7 @@
       <c r="AF13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AG13" s="21" t="s">
+      <c r="AG13" s="18" t="s">
         <v>8</v>
       </c>
       <c r="AH13">
@@ -3664,7 +3666,7 @@
       <c r="AF14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AG14" s="21" t="s">
+      <c r="AG14" s="18" t="s">
         <v>8</v>
       </c>
       <c r="AH14">
@@ -3823,7 +3825,7 @@
       <c r="AF15" s="10">
         <v>13843</v>
       </c>
-      <c r="AG15" s="21">
+      <c r="AG15" s="18">
         <v>18657</v>
       </c>
       <c r="AH15">
@@ -3983,7 +3985,7 @@
       <c r="AF16" s="11">
         <v>13843</v>
       </c>
-      <c r="AG16" s="22">
+      <c r="AG16" s="19">
         <v>18657</v>
       </c>
       <c r="AH16" s="7">
@@ -4143,7 +4145,7 @@
       <c r="AF17" s="10">
         <v>10135</v>
       </c>
-      <c r="AG17" s="21">
+      <c r="AG17" s="18">
         <v>22365</v>
       </c>
       <c r="AH17">
@@ -4303,7 +4305,7 @@
       <c r="AF18" s="10">
         <v>10135</v>
       </c>
-      <c r="AG18" s="21">
+      <c r="AG18" s="18">
         <v>22365</v>
       </c>
       <c r="AH18">
@@ -4463,7 +4465,7 @@
       <c r="AF19" s="10">
         <v>10999</v>
       </c>
-      <c r="AG19" s="21">
+      <c r="AG19" s="18">
         <v>21501</v>
       </c>
       <c r="AH19">
@@ -4623,7 +4625,7 @@
       <c r="AF20" s="10">
         <v>11843</v>
       </c>
-      <c r="AG20" s="21">
+      <c r="AG20" s="18">
         <v>20657</v>
       </c>
       <c r="AH20">
@@ -4783,7 +4785,7 @@
       <c r="AF21" s="10">
         <v>10473</v>
       </c>
-      <c r="AG21" s="21">
+      <c r="AG21" s="18">
         <v>22027</v>
       </c>
       <c r="AH21">
@@ -4943,7 +4945,7 @@
       <c r="AF22" s="10">
         <v>10825</v>
       </c>
-      <c r="AG22" s="21">
+      <c r="AG22" s="18">
         <v>21675</v>
       </c>
       <c r="AH22">
@@ -5103,7 +5105,7 @@
       <c r="AF23" s="10">
         <v>12317</v>
       </c>
-      <c r="AG23" s="21">
+      <c r="AG23" s="18">
         <v>20183</v>
       </c>
       <c r="AH23">
@@ -5263,7 +5265,7 @@
       <c r="AF24" s="10">
         <v>14443</v>
       </c>
-      <c r="AG24" s="21">
+      <c r="AG24" s="18">
         <v>18057</v>
       </c>
       <c r="AH24">
@@ -5736,10 +5738,10 @@
       <c r="AE27" t="s">
         <v>100</v>
       </c>
-      <c r="AF27" s="23">
+      <c r="AF27" s="20">
         <v>80545</v>
       </c>
-      <c r="AG27" s="21">
+      <c r="AG27" s="18">
         <v>507</v>
       </c>
       <c r="AH27">
@@ -5900,10 +5902,10 @@
       <c r="AE28" t="s">
         <v>100</v>
       </c>
-      <c r="AF28" s="23">
+      <c r="AF28" s="20">
         <v>-1</v>
       </c>
-      <c r="AG28" s="21">
+      <c r="AG28" s="18">
         <v>-1</v>
       </c>
       <c r="AH28">
@@ -6063,10 +6065,10 @@
       <c r="AE29" t="s">
         <v>100</v>
       </c>
-      <c r="AF29" s="23">
+      <c r="AF29" s="20">
         <v>78019</v>
       </c>
-      <c r="AG29" s="21">
+      <c r="AG29" s="18">
         <v>3033</v>
       </c>
       <c r="AH29">
@@ -6227,10 +6229,10 @@
       <c r="AE30" t="s">
         <v>100</v>
       </c>
-      <c r="AF30" s="23">
+      <c r="AF30" s="20">
         <v>78019</v>
       </c>
-      <c r="AG30" s="21">
+      <c r="AG30" s="18">
         <v>3033</v>
       </c>
       <c r="AH30">
@@ -6391,10 +6393,10 @@
       <c r="AE31" t="s">
         <v>100</v>
       </c>
-      <c r="AF31" s="23">
+      <c r="AF31" s="20">
         <v>78019</v>
       </c>
-      <c r="AG31" s="21">
+      <c r="AG31" s="18">
         <v>3033</v>
       </c>
       <c r="AH31">
@@ -6555,10 +6557,10 @@
       <c r="AE32" t="s">
         <v>100</v>
       </c>
-      <c r="AF32" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG32" s="21" t="s">
+      <c r="AF32" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG32" s="18" t="s">
         <v>8</v>
       </c>
       <c r="AH32">
@@ -6646,7 +6648,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -6721,7 +6723,7 @@
       <c r="AF33" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AG33" s="21" t="s">
+      <c r="AG33" s="18" t="s">
         <v>8</v>
       </c>
       <c r="AH33">
@@ -7298,7 +7300,7 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -7757,10 +7759,10 @@
       <c r="AX39">
         <v>0</v>
       </c>
-      <c r="AY39" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ39" s="21" t="s">
+      <c r="AY39" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ39" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7920,10 +7922,10 @@
       <c r="AX40">
         <v>0</v>
       </c>
-      <c r="AY40" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ40" s="21" t="s">
+      <c r="AY40" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ40" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8083,10 +8085,10 @@
       <c r="AX41">
         <v>1</v>
       </c>
-      <c r="AY41" s="21" t="s">
+      <c r="AY41" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="AZ41" s="21" t="s">
+      <c r="AZ41" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8246,10 +8248,10 @@
       <c r="AX42">
         <v>0</v>
       </c>
-      <c r="AY42" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ42" s="21" t="s">
+      <c r="AY42" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ42" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8409,10 +8411,10 @@
       <c r="AX43">
         <v>0</v>
       </c>
-      <c r="AY43" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ43" s="21" t="s">
+      <c r="AY43" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ43" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8430,7 +8432,7 @@
         <v>170</v>
       </c>
       <c r="E44" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F44" s="10">
         <v>1</v>
@@ -8573,10 +8575,10 @@
       <c r="AX44">
         <v>0</v>
       </c>
-      <c r="AY44" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ44" s="21" t="s">
+      <c r="AY44" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ44" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8594,7 +8596,7 @@
         <v>211</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F45" s="11">
         <v>0</v>
@@ -8737,64 +8739,64 @@
       <c r="AX45" s="7">
         <v>0</v>
       </c>
-      <c r="AY45" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ45" s="22" t="s">
+      <c r="AY45" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ45" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B46" t="s">
         <v>123</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="F46" s="23">
-        <v>0</v>
-      </c>
-      <c r="G46" s="21">
-        <v>1</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="I46" s="21">
-        <v>0</v>
-      </c>
-      <c r="J46" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K46" s="21">
-        <v>1</v>
-      </c>
-      <c r="L46" s="21">
-        <v>0</v>
-      </c>
-      <c r="M46" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="N46" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="O46" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="P46" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q46" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F46" s="20">
+        <v>0</v>
+      </c>
+      <c r="G46" s="18">
+        <v>1</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="I46" s="18">
+        <v>0</v>
+      </c>
+      <c r="J46" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="18">
+        <v>1</v>
+      </c>
+      <c r="L46" s="18">
+        <v>0</v>
+      </c>
+      <c r="M46" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="P46" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="18" t="s">
         <v>8</v>
       </c>
       <c r="R46">
         <v>1</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T46">
         <v>6</v>
@@ -8887,72 +8889,72 @@
         <v>48</v>
       </c>
       <c r="AV46" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AW46" t="s">
         <v>166</v>
       </c>
-      <c r="AX46" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY46" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ46" s="21" t="s">
+      <c r="AX46" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY46" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ46" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B47" t="s">
         <v>123</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="F47" s="23">
-        <v>0</v>
-      </c>
-      <c r="G47" s="21">
-        <v>1</v>
-      </c>
-      <c r="H47" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="I47" s="21">
-        <v>0</v>
-      </c>
-      <c r="J47" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="21">
-        <v>1</v>
-      </c>
-      <c r="L47" s="21">
-        <v>1</v>
-      </c>
-      <c r="M47" s="21">
-        <v>1</v>
-      </c>
-      <c r="N47" s="21">
-        <v>0</v>
-      </c>
-      <c r="O47" s="21">
-        <v>0</v>
-      </c>
-      <c r="P47" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q47" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F47" s="20">
+        <v>0</v>
+      </c>
+      <c r="G47" s="18">
+        <v>1</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="I47" s="18">
+        <v>0</v>
+      </c>
+      <c r="J47" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="18">
+        <v>1</v>
+      </c>
+      <c r="L47" s="18">
+        <v>1</v>
+      </c>
+      <c r="M47" s="18">
+        <v>1</v>
+      </c>
+      <c r="N47" s="18">
+        <v>0</v>
+      </c>
+      <c r="O47" s="18">
+        <v>0</v>
+      </c>
+      <c r="P47" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="18" t="s">
         <v>8</v>
       </c>
       <c r="R47">
         <v>1</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T47">
         <v>6</v>
@@ -9045,72 +9047,72 @@
         <v>48</v>
       </c>
       <c r="AV47" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AW47" t="s">
         <v>166</v>
       </c>
-      <c r="AX47" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY47" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ47" s="21" t="s">
+      <c r="AX47" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY47" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ47" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B48" t="s">
         <v>123</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="F48" s="23">
-        <v>0</v>
-      </c>
-      <c r="G48" s="21">
-        <v>1</v>
-      </c>
-      <c r="H48" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="I48" s="21">
-        <v>0</v>
-      </c>
-      <c r="J48" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="21">
-        <v>1</v>
-      </c>
-      <c r="L48" s="21">
-        <v>1</v>
-      </c>
-      <c r="M48" s="21">
-        <v>1</v>
-      </c>
-      <c r="N48" s="21">
-        <v>0</v>
-      </c>
-      <c r="O48" s="21">
-        <v>0</v>
-      </c>
-      <c r="P48" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="F48" s="20">
+        <v>0</v>
+      </c>
+      <c r="G48" s="18">
+        <v>1</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="I48" s="18">
+        <v>0</v>
+      </c>
+      <c r="J48" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="18">
+        <v>1</v>
+      </c>
+      <c r="L48" s="18">
+        <v>1</v>
+      </c>
+      <c r="M48" s="18">
+        <v>1</v>
+      </c>
+      <c r="N48" s="18">
+        <v>0</v>
+      </c>
+      <c r="O48" s="18">
+        <v>0</v>
+      </c>
+      <c r="P48" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="18" t="s">
         <v>8</v>
       </c>
       <c r="R48">
         <v>1</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T48">
         <v>6</v>
@@ -9203,72 +9205,72 @@
         <v>48</v>
       </c>
       <c r="AV48" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AW48" t="s">
         <v>166</v>
       </c>
-      <c r="AX48" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY48" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ48" s="21" t="s">
+      <c r="AX48" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY48" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ48" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B49" t="s">
         <v>123</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="F49" s="23">
-        <v>0</v>
-      </c>
-      <c r="G49" s="21">
-        <v>1</v>
-      </c>
-      <c r="H49" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="I49" s="21">
-        <v>0</v>
-      </c>
-      <c r="J49" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="21">
-        <v>1</v>
-      </c>
-      <c r="L49" s="21">
-        <v>0</v>
-      </c>
-      <c r="M49" s="21">
-        <v>1</v>
-      </c>
-      <c r="N49" s="21">
-        <v>0</v>
-      </c>
-      <c r="O49" s="21">
-        <v>0</v>
-      </c>
-      <c r="P49" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q49" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="F49" s="20">
+        <v>0</v>
+      </c>
+      <c r="G49" s="18">
+        <v>1</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="I49" s="18">
+        <v>0</v>
+      </c>
+      <c r="J49" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="18">
+        <v>1</v>
+      </c>
+      <c r="L49" s="18">
+        <v>0</v>
+      </c>
+      <c r="M49" s="18">
+        <v>1</v>
+      </c>
+      <c r="N49" s="18">
+        <v>0</v>
+      </c>
+      <c r="O49" s="18">
+        <v>0</v>
+      </c>
+      <c r="P49" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="18" t="s">
         <v>8</v>
       </c>
       <c r="R49">
         <v>1</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T49">
         <v>6</v>
@@ -9361,72 +9363,72 @@
         <v>48</v>
       </c>
       <c r="AV49" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AW49" t="s">
         <v>166</v>
       </c>
-      <c r="AX49" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY49" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ49" s="21" t="s">
+      <c r="AX49" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY49" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ49" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B50" t="s">
         <v>123</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="F50" s="23">
-        <v>0</v>
-      </c>
-      <c r="G50" s="21">
-        <v>1</v>
-      </c>
-      <c r="H50" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="I50" s="21">
-        <v>0</v>
-      </c>
-      <c r="J50" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K50" s="21">
-        <v>1</v>
-      </c>
-      <c r="L50" s="21">
-        <v>1</v>
-      </c>
-      <c r="M50" s="21">
-        <v>1</v>
-      </c>
-      <c r="N50" s="21">
-        <v>0</v>
-      </c>
-      <c r="O50" s="21">
-        <v>0</v>
-      </c>
-      <c r="P50" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q50" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="F50" s="20">
+        <v>0</v>
+      </c>
+      <c r="G50" s="18">
+        <v>1</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="I50" s="18">
+        <v>0</v>
+      </c>
+      <c r="J50" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K50" s="18">
+        <v>1</v>
+      </c>
+      <c r="L50" s="18">
+        <v>1</v>
+      </c>
+      <c r="M50" s="18">
+        <v>1</v>
+      </c>
+      <c r="N50" s="18">
+        <v>0</v>
+      </c>
+      <c r="O50" s="18">
+        <v>0</v>
+      </c>
+      <c r="P50" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q50" s="18" t="s">
         <v>8</v>
       </c>
       <c r="R50">
         <v>1</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T50">
         <v>6</v>
@@ -9519,72 +9521,72 @@
         <v>48</v>
       </c>
       <c r="AV50" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AW50" t="s">
         <v>166</v>
       </c>
-      <c r="AX50" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY50" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ50" s="21" t="s">
+      <c r="AX50" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY50" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ50" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B51" t="s">
         <v>123</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="F51" s="23">
-        <v>0</v>
-      </c>
-      <c r="G51" s="21">
-        <v>1</v>
-      </c>
-      <c r="H51" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="I51" s="21">
-        <v>0</v>
-      </c>
-      <c r="J51" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K51" s="21">
-        <v>1</v>
-      </c>
-      <c r="L51" s="21">
-        <v>1</v>
-      </c>
-      <c r="M51" s="21">
-        <v>1</v>
-      </c>
-      <c r="N51" s="21">
-        <v>1</v>
-      </c>
-      <c r="O51" s="21">
-        <v>0</v>
-      </c>
-      <c r="P51" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q51" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F51" s="20">
+        <v>0</v>
+      </c>
+      <c r="G51" s="18">
+        <v>1</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="I51" s="18">
+        <v>0</v>
+      </c>
+      <c r="J51" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K51" s="18">
+        <v>1</v>
+      </c>
+      <c r="L51" s="18">
+        <v>1</v>
+      </c>
+      <c r="M51" s="18">
+        <v>1</v>
+      </c>
+      <c r="N51" s="18">
+        <v>1</v>
+      </c>
+      <c r="O51" s="18">
+        <v>0</v>
+      </c>
+      <c r="P51" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q51" s="18" t="s">
         <v>8</v>
       </c>
       <c r="R51">
         <v>1</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T51">
         <v>6</v>
@@ -9677,72 +9679,72 @@
         <v>48</v>
       </c>
       <c r="AV51" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AW51" t="s">
         <v>166</v>
       </c>
-      <c r="AX51" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY51" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ51" s="21" t="s">
+      <c r="AX51" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY51" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ51" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B52" t="s">
         <v>123</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="F52" s="23">
-        <v>0</v>
-      </c>
-      <c r="G52" s="21">
-        <v>1</v>
-      </c>
-      <c r="H52" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="I52" s="21">
-        <v>0</v>
-      </c>
-      <c r="J52" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="21">
-        <v>1</v>
-      </c>
-      <c r="L52" s="21">
-        <v>0</v>
-      </c>
-      <c r="M52" s="21">
-        <v>0</v>
-      </c>
-      <c r="N52" s="21">
-        <v>0</v>
-      </c>
-      <c r="O52" s="21">
-        <v>0</v>
-      </c>
-      <c r="P52" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="F52" s="20">
+        <v>0</v>
+      </c>
+      <c r="G52" s="18">
+        <v>1</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="I52" s="18">
+        <v>0</v>
+      </c>
+      <c r="J52" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="18">
+        <v>1</v>
+      </c>
+      <c r="L52" s="18">
+        <v>0</v>
+      </c>
+      <c r="M52" s="18">
+        <v>0</v>
+      </c>
+      <c r="N52" s="18">
+        <v>0</v>
+      </c>
+      <c r="O52" s="18">
+        <v>0</v>
+      </c>
+      <c r="P52" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="18" t="s">
         <v>8</v>
       </c>
       <c r="R52">
         <v>1</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T52">
         <v>6</v>
@@ -9835,72 +9837,72 @@
         <v>48</v>
       </c>
       <c r="AV52" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AW52" t="s">
         <v>166</v>
       </c>
-      <c r="AX52" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY52" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ52" s="21" t="s">
+      <c r="AX52" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY52" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ52" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B53" t="s">
         <v>123</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="F53" s="23">
-        <v>0</v>
-      </c>
-      <c r="G53" s="21">
-        <v>1</v>
-      </c>
-      <c r="H53" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="I53" s="21">
-        <v>0</v>
-      </c>
-      <c r="J53" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K53" s="21">
-        <v>1</v>
-      </c>
-      <c r="L53" s="21">
-        <v>1</v>
-      </c>
-      <c r="M53" s="21">
-        <v>1</v>
-      </c>
-      <c r="N53" s="21">
-        <v>0</v>
-      </c>
-      <c r="O53" s="21">
-        <v>0</v>
-      </c>
-      <c r="P53" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q53" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="F53" s="20">
+        <v>0</v>
+      </c>
+      <c r="G53" s="18">
+        <v>1</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="I53" s="18">
+        <v>0</v>
+      </c>
+      <c r="J53" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K53" s="18">
+        <v>1</v>
+      </c>
+      <c r="L53" s="18">
+        <v>1</v>
+      </c>
+      <c r="M53" s="18">
+        <v>1</v>
+      </c>
+      <c r="N53" s="18">
+        <v>0</v>
+      </c>
+      <c r="O53" s="18">
+        <v>0</v>
+      </c>
+      <c r="P53" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q53" s="18" t="s">
         <v>8</v>
       </c>
       <c r="R53">
         <v>1</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T53">
         <v>6</v>
@@ -9993,72 +9995,72 @@
         <v>48</v>
       </c>
       <c r="AV53" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AW53" t="s">
         <v>166</v>
       </c>
-      <c r="AX53" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY53" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ53" s="21" t="s">
+      <c r="AX53" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY53" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ53" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B54" t="s">
         <v>123</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="F54" s="23">
-        <v>0</v>
-      </c>
-      <c r="G54" s="21">
-        <v>1</v>
-      </c>
-      <c r="H54" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="I54" s="21">
-        <v>0</v>
-      </c>
-      <c r="J54" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K54" s="21">
-        <v>1</v>
-      </c>
-      <c r="L54" s="21">
-        <v>1</v>
-      </c>
-      <c r="M54" s="21">
-        <v>0</v>
-      </c>
-      <c r="N54" s="21">
-        <v>1</v>
-      </c>
-      <c r="O54" s="21">
-        <v>0</v>
-      </c>
-      <c r="P54" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q54" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="F54" s="20">
+        <v>0</v>
+      </c>
+      <c r="G54" s="18">
+        <v>1</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="I54" s="18">
+        <v>0</v>
+      </c>
+      <c r="J54" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="18">
+        <v>1</v>
+      </c>
+      <c r="L54" s="18">
+        <v>1</v>
+      </c>
+      <c r="M54" s="18">
+        <v>0</v>
+      </c>
+      <c r="N54" s="18">
+        <v>1</v>
+      </c>
+      <c r="O54" s="18">
+        <v>0</v>
+      </c>
+      <c r="P54" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="18" t="s">
         <v>8</v>
       </c>
       <c r="R54">
         <v>1</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T54">
         <v>6</v>
@@ -10151,72 +10153,72 @@
         <v>48</v>
       </c>
       <c r="AV54" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AW54" t="s">
         <v>166</v>
       </c>
-      <c r="AX54" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY54" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ54" s="21" t="s">
+      <c r="AX54" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY54" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ54" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B55" t="s">
         <v>123</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="F55" s="23">
-        <v>0</v>
-      </c>
-      <c r="G55" s="21">
-        <v>1</v>
-      </c>
-      <c r="H55" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="I55" s="21">
-        <v>0</v>
-      </c>
-      <c r="J55" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K55" s="21">
-        <v>1</v>
-      </c>
-      <c r="L55" s="21">
-        <v>0</v>
-      </c>
-      <c r="M55" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="N55" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="O55" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="P55" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q55" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="F55" s="20">
+        <v>0</v>
+      </c>
+      <c r="G55" s="18">
+        <v>1</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="I55" s="18">
+        <v>0</v>
+      </c>
+      <c r="J55" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K55" s="18">
+        <v>1</v>
+      </c>
+      <c r="L55" s="18">
+        <v>0</v>
+      </c>
+      <c r="M55" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N55" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="O55" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="P55" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q55" s="18" t="s">
         <v>8</v>
       </c>
       <c r="R55">
         <v>1</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T55">
         <v>6</v>
@@ -10309,72 +10311,72 @@
         <v>48</v>
       </c>
       <c r="AV55" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AW55" t="s">
         <v>166</v>
       </c>
-      <c r="AX55" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY55" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ55" s="21" t="s">
+      <c r="AX55" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY55" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ55" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B56" t="s">
         <v>123</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="F56" s="23">
-        <v>0</v>
-      </c>
-      <c r="G56" s="21">
-        <v>1</v>
-      </c>
-      <c r="H56" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="I56" s="21">
-        <v>0</v>
-      </c>
-      <c r="J56" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K56" s="21">
-        <v>1</v>
-      </c>
-      <c r="L56" s="21">
-        <v>0</v>
-      </c>
-      <c r="M56" s="21">
-        <v>0</v>
-      </c>
-      <c r="N56" s="21">
-        <v>0</v>
-      </c>
-      <c r="O56" s="21">
-        <v>0</v>
-      </c>
-      <c r="P56" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q56" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="F56" s="20">
+        <v>0</v>
+      </c>
+      <c r="G56" s="18">
+        <v>1</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="I56" s="18">
+        <v>0</v>
+      </c>
+      <c r="J56" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K56" s="18">
+        <v>1</v>
+      </c>
+      <c r="L56" s="18">
+        <v>0</v>
+      </c>
+      <c r="M56" s="18">
+        <v>0</v>
+      </c>
+      <c r="N56" s="18">
+        <v>0</v>
+      </c>
+      <c r="O56" s="18">
+        <v>0</v>
+      </c>
+      <c r="P56" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q56" s="18" t="s">
         <v>8</v>
       </c>
       <c r="R56">
         <v>1</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T56">
         <v>6</v>
@@ -10467,72 +10469,72 @@
         <v>48</v>
       </c>
       <c r="AV56" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AW56" t="s">
         <v>166</v>
       </c>
-      <c r="AX56" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY56" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ56" s="21" t="s">
+      <c r="AX56" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY56" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ56" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B57" t="s">
         <v>123</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="F57" s="23">
-        <v>0</v>
-      </c>
-      <c r="G57" s="21">
-        <v>1</v>
-      </c>
-      <c r="H57" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="I57" s="21">
-        <v>0</v>
-      </c>
-      <c r="J57" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="21">
-        <v>1</v>
-      </c>
-      <c r="L57" s="21">
-        <v>1</v>
-      </c>
-      <c r="M57" s="21">
-        <v>0</v>
-      </c>
-      <c r="N57" s="21">
-        <v>1</v>
-      </c>
-      <c r="O57" s="21">
-        <v>0</v>
-      </c>
-      <c r="P57" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q57" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="F57" s="20">
+        <v>0</v>
+      </c>
+      <c r="G57" s="18">
+        <v>1</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="I57" s="18">
+        <v>0</v>
+      </c>
+      <c r="J57" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="18">
+        <v>1</v>
+      </c>
+      <c r="L57" s="18">
+        <v>1</v>
+      </c>
+      <c r="M57" s="18">
+        <v>0</v>
+      </c>
+      <c r="N57" s="18">
+        <v>1</v>
+      </c>
+      <c r="O57" s="18">
+        <v>0</v>
+      </c>
+      <c r="P57" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="18" t="s">
         <v>8</v>
       </c>
       <c r="R57">
         <v>1</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T57">
         <v>6</v>
@@ -10625,72 +10627,72 @@
         <v>48</v>
       </c>
       <c r="AV57" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AW57" t="s">
         <v>166</v>
       </c>
-      <c r="AX57" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY57" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ57" s="21" t="s">
+      <c r="AX57" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY57" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ57" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B58" t="s">
         <v>123</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="F58" s="23">
-        <v>0</v>
-      </c>
-      <c r="G58" s="21">
-        <v>1</v>
-      </c>
-      <c r="H58" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="I58" s="21">
-        <v>0</v>
-      </c>
-      <c r="J58" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="21">
-        <v>1</v>
-      </c>
-      <c r="L58" s="21">
-        <v>1</v>
-      </c>
-      <c r="M58" s="21">
-        <v>0</v>
-      </c>
-      <c r="N58" s="21">
-        <v>0</v>
-      </c>
-      <c r="O58" s="21">
-        <v>0</v>
-      </c>
-      <c r="P58" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="F58" s="20">
+        <v>0</v>
+      </c>
+      <c r="G58" s="18">
+        <v>1</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="I58" s="18">
+        <v>0</v>
+      </c>
+      <c r="J58" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="18">
+        <v>1</v>
+      </c>
+      <c r="L58" s="18">
+        <v>1</v>
+      </c>
+      <c r="M58" s="18">
+        <v>0</v>
+      </c>
+      <c r="N58" s="18">
+        <v>0</v>
+      </c>
+      <c r="O58" s="18">
+        <v>0</v>
+      </c>
+      <c r="P58" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="18" t="s">
         <v>8</v>
       </c>
       <c r="R58">
         <v>1</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T58">
         <v>6</v>
@@ -10783,72 +10785,72 @@
         <v>48</v>
       </c>
       <c r="AV58" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AW58" t="s">
         <v>166</v>
       </c>
-      <c r="AX58" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY58" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ58" s="21" t="s">
+      <c r="AX58" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY58" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ58" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B59" t="s">
         <v>123</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="F59" s="23">
-        <v>0</v>
-      </c>
-      <c r="G59" s="21">
-        <v>1</v>
-      </c>
-      <c r="H59" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="I59" s="21">
-        <v>0</v>
-      </c>
-      <c r="J59" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="21">
-        <v>1</v>
-      </c>
-      <c r="L59" s="21">
-        <v>0</v>
-      </c>
-      <c r="M59" s="21">
-        <v>0</v>
-      </c>
-      <c r="N59" s="21">
-        <v>0</v>
-      </c>
-      <c r="O59" s="21">
-        <v>0</v>
-      </c>
-      <c r="P59" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q59" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="F59" s="20">
+        <v>0</v>
+      </c>
+      <c r="G59" s="18">
+        <v>1</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="I59" s="18">
+        <v>0</v>
+      </c>
+      <c r="J59" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="18">
+        <v>1</v>
+      </c>
+      <c r="L59" s="18">
+        <v>0</v>
+      </c>
+      <c r="M59" s="18">
+        <v>0</v>
+      </c>
+      <c r="N59" s="18">
+        <v>0</v>
+      </c>
+      <c r="O59" s="18">
+        <v>0</v>
+      </c>
+      <c r="P59" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="18" t="s">
         <v>8</v>
       </c>
       <c r="R59">
         <v>1</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T59">
         <v>6</v>
@@ -10941,72 +10943,72 @@
         <v>48</v>
       </c>
       <c r="AV59" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AW59" t="s">
         <v>166</v>
       </c>
-      <c r="AX59" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY59" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ59" s="21" t="s">
+      <c r="AX59" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY59" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ59" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B60" t="s">
         <v>123</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="F60" s="23">
-        <v>0</v>
-      </c>
-      <c r="G60" s="21">
-        <v>1</v>
-      </c>
-      <c r="H60" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="I60" s="21">
-        <v>0</v>
-      </c>
-      <c r="J60" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K60" s="21">
-        <v>1</v>
-      </c>
-      <c r="L60" s="21">
-        <v>1</v>
-      </c>
-      <c r="M60" s="21">
-        <v>1</v>
-      </c>
-      <c r="N60" s="21">
-        <v>1</v>
-      </c>
-      <c r="O60" s="21">
-        <v>0</v>
-      </c>
-      <c r="P60" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q60" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="F60" s="20">
+        <v>0</v>
+      </c>
+      <c r="G60" s="18">
+        <v>1</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="I60" s="18">
+        <v>0</v>
+      </c>
+      <c r="J60" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" s="18">
+        <v>1</v>
+      </c>
+      <c r="L60" s="18">
+        <v>1</v>
+      </c>
+      <c r="M60" s="18">
+        <v>1</v>
+      </c>
+      <c r="N60" s="18">
+        <v>1</v>
+      </c>
+      <c r="O60" s="18">
+        <v>0</v>
+      </c>
+      <c r="P60" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="18" t="s">
         <v>8</v>
       </c>
       <c r="R60">
         <v>1</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T60">
         <v>6</v>
@@ -11099,72 +11101,72 @@
         <v>48</v>
       </c>
       <c r="AV60" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AW60" t="s">
         <v>166</v>
       </c>
-      <c r="AX60" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY60" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ60" s="21" t="s">
+      <c r="AX60" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY60" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ60" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B61" t="s">
         <v>123</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="F61" s="23">
-        <v>0</v>
-      </c>
-      <c r="G61" s="21">
-        <v>1</v>
-      </c>
-      <c r="H61" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="I61" s="21">
-        <v>0</v>
-      </c>
-      <c r="J61" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K61" s="21">
-        <v>1</v>
-      </c>
-      <c r="L61" s="21">
-        <v>0</v>
-      </c>
-      <c r="M61" s="21">
-        <v>0</v>
-      </c>
-      <c r="N61" s="21">
-        <v>0</v>
-      </c>
-      <c r="O61" s="21">
-        <v>0</v>
-      </c>
-      <c r="P61" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q61" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="F61" s="20">
+        <v>0</v>
+      </c>
+      <c r="G61" s="18">
+        <v>1</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="I61" s="18">
+        <v>0</v>
+      </c>
+      <c r="J61" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K61" s="18">
+        <v>1</v>
+      </c>
+      <c r="L61" s="18">
+        <v>0</v>
+      </c>
+      <c r="M61" s="18">
+        <v>0</v>
+      </c>
+      <c r="N61" s="18">
+        <v>0</v>
+      </c>
+      <c r="O61" s="18">
+        <v>0</v>
+      </c>
+      <c r="P61" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q61" s="18" t="s">
         <v>8</v>
       </c>
       <c r="R61">
         <v>1</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T61">
         <v>6</v>
@@ -11257,72 +11259,72 @@
         <v>48</v>
       </c>
       <c r="AV61" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AW61" t="s">
         <v>166</v>
       </c>
-      <c r="AX61" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY61" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ61" s="21" t="s">
+      <c r="AX61" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY61" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ61" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B62" t="s">
         <v>123</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F62" s="23">
-        <v>0</v>
-      </c>
-      <c r="G62" s="21">
-        <v>1</v>
-      </c>
-      <c r="H62" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="I62" s="21">
-        <v>0</v>
-      </c>
-      <c r="J62" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="21">
-        <v>1</v>
-      </c>
-      <c r="L62" s="21">
-        <v>1</v>
-      </c>
-      <c r="M62" s="21">
-        <v>1</v>
-      </c>
-      <c r="N62" s="21">
-        <v>0</v>
-      </c>
-      <c r="O62" s="21">
-        <v>0</v>
-      </c>
-      <c r="P62" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="F62" s="20">
+        <v>0</v>
+      </c>
+      <c r="G62" s="18">
+        <v>1</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="I62" s="18">
+        <v>0</v>
+      </c>
+      <c r="J62" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="18">
+        <v>1</v>
+      </c>
+      <c r="L62" s="18">
+        <v>1</v>
+      </c>
+      <c r="M62" s="18">
+        <v>1</v>
+      </c>
+      <c r="N62" s="18">
+        <v>0</v>
+      </c>
+      <c r="O62" s="18">
+        <v>0</v>
+      </c>
+      <c r="P62" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="18" t="s">
         <v>8</v>
       </c>
       <c r="R62">
         <v>1</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T62">
         <v>6</v>
@@ -11415,72 +11417,72 @@
         <v>48</v>
       </c>
       <c r="AV62" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AW62" t="s">
         <v>166</v>
       </c>
-      <c r="AX62" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY62" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ62" s="21" t="s">
+      <c r="AX62" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY62" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ62" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="28" t="s">
-        <v>259</v>
+      <c r="A63" s="25" t="s">
+        <v>258</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C63" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="F63" s="29">
-        <v>0</v>
-      </c>
-      <c r="G63" s="22">
-        <v>1</v>
-      </c>
-      <c r="H63" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="I63" s="22">
-        <v>0</v>
-      </c>
-      <c r="J63" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="K63" s="22">
-        <v>1</v>
-      </c>
-      <c r="L63" s="22">
-        <v>1</v>
-      </c>
-      <c r="M63" s="22">
-        <v>1</v>
-      </c>
-      <c r="N63" s="22">
-        <v>1</v>
-      </c>
-      <c r="O63" s="22">
-        <v>0</v>
-      </c>
-      <c r="P63" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q63" s="22" t="s">
+      <c r="C63" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="F63" s="26">
+        <v>0</v>
+      </c>
+      <c r="G63" s="19">
+        <v>1</v>
+      </c>
+      <c r="H63" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="I63" s="19">
+        <v>0</v>
+      </c>
+      <c r="J63" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K63" s="19">
+        <v>1</v>
+      </c>
+      <c r="L63" s="19">
+        <v>1</v>
+      </c>
+      <c r="M63" s="19">
+        <v>1</v>
+      </c>
+      <c r="N63" s="19">
+        <v>1</v>
+      </c>
+      <c r="O63" s="19">
+        <v>0</v>
+      </c>
+      <c r="P63" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q63" s="19" t="s">
         <v>8</v>
       </c>
       <c r="R63" s="7">
         <v>1</v>
       </c>
       <c r="S63" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T63" s="7">
         <v>6</v>
@@ -11573,36 +11575,36 @@
         <v>48</v>
       </c>
       <c r="AV63" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AW63" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="AX63" s="22">
-        <v>0</v>
-      </c>
-      <c r="AY63" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ63" s="22" t="s">
+      <c r="AX63" s="19">
+        <v>0</v>
+      </c>
+      <c r="AY63" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ63" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B64" t="s">
         <v>123</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D64" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E64" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F64" s="10">
         <v>1</v>
@@ -11610,13 +11612,13 @@
       <c r="G64">
         <v>0</v>
       </c>
-      <c r="H64" s="21" t="s">
+      <c r="H64" s="18" t="s">
         <v>8</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
-      <c r="J64" s="21" t="s">
+      <c r="J64" s="18" t="s">
         <v>8</v>
       </c>
       <c r="K64">
@@ -11644,7 +11646,7 @@
         <v>1</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T64">
         <v>6</v>
@@ -11735,7 +11737,7 @@
         <v>48</v>
       </c>
       <c r="AV64" s="10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AW64" t="s">
         <v>166</v>
@@ -11743,70 +11745,70 @@
       <c r="AX64">
         <v>0</v>
       </c>
-      <c r="AY64" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ64" s="21" t="s">
+      <c r="AY64" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ64" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="B65" t="s">
+        <v>281</v>
+      </c>
+      <c r="C65" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="B65" t="s">
+      <c r="D65" t="s">
+        <v>279</v>
+      </c>
+      <c r="E65" t="s">
+        <v>283</v>
+      </c>
+      <c r="F65" s="10">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="C65" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="D65" t="s">
-        <v>282</v>
-      </c>
-      <c r="E65" t="s">
-        <v>286</v>
-      </c>
-      <c r="F65" s="10">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65" s="21" t="s">
-        <v>287</v>
-      </c>
       <c r="I65">
         <v>0</v>
       </c>
-      <c r="J65" s="21" t="s">
+      <c r="J65" s="18" t="s">
         <v>8</v>
       </c>
       <c r="K65" t="s">
         <v>8</v>
       </c>
-      <c r="L65" s="21" t="s">
+      <c r="L65" s="18" t="s">
         <v>8</v>
       </c>
       <c r="M65" t="s">
         <v>8</v>
       </c>
-      <c r="N65" s="21" t="s">
+      <c r="N65" s="18" t="s">
         <v>8</v>
       </c>
       <c r="O65" t="s">
         <v>8</v>
       </c>
-      <c r="P65" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q65" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="R65" s="21">
+      <c r="P65" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q65" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="R65" s="18">
         <v>0</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T65" t="s">
         <v>121</v>
@@ -11854,7 +11856,7 @@
         <v>8</v>
       </c>
       <c r="AI65" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AJ65" t="s">
         <v>109</v>
@@ -11871,10 +11873,10 @@
       <c r="AN65" s="1">
         <v>80</v>
       </c>
-      <c r="AO65" s="30">
+      <c r="AO65" s="27">
         <v>170</v>
       </c>
-      <c r="AP65" s="30">
+      <c r="AP65" s="27">
         <v>170</v>
       </c>
       <c r="AQ65" t="s">
@@ -11893,83 +11895,83 @@
         <v>8</v>
       </c>
       <c r="AV65" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="AW65" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="AW65" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="AX65" s="29">
+        <v>1</v>
+      </c>
+      <c r="AY65" t="s">
+        <v>288</v>
+      </c>
+      <c r="AZ65" t="s">
         <v>290</v>
-      </c>
-      <c r="AX65" s="32">
-        <v>1</v>
-      </c>
-      <c r="AY65" t="s">
-        <v>291</v>
-      </c>
-      <c r="AZ65" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="66" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B66" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="E66" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="E66" t="s">
+        <v>295</v>
+      </c>
+      <c r="F66" s="10">
+        <v>0</v>
+      </c>
+      <c r="G66" s="30">
+        <v>1</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="I66" s="30">
+        <v>0</v>
+      </c>
+      <c r="J66" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" t="s">
+        <v>8</v>
+      </c>
+      <c r="L66" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" t="s">
+        <v>8</v>
+      </c>
+      <c r="N66" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" t="s">
+        <v>8</v>
+      </c>
+      <c r="P66" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q66" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="R66" s="18">
+        <v>0</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="T66" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="F66" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G66" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="H66" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="I66" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="J66" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="K66" t="s">
-        <v>121</v>
-      </c>
-      <c r="L66" t="s">
-        <v>121</v>
-      </c>
-      <c r="M66" t="s">
-        <v>121</v>
-      </c>
-      <c r="N66" t="s">
-        <v>121</v>
-      </c>
-      <c r="O66" t="s">
-        <v>121</v>
-      </c>
-      <c r="P66" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q66" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="R66" t="s">
-        <v>121</v>
-      </c>
-      <c r="S66" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="T66" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="U66" s="30" t="s">
+      <c r="U66" s="27" t="s">
         <v>121</v>
       </c>
       <c r="V66">
@@ -12003,16 +12005,16 @@
         <v>100</v>
       </c>
       <c r="AF66" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG66" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH66" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI66" s="30" t="s">
-        <v>288</v>
+        <v>8</v>
+      </c>
+      <c r="AG66" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH66" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI66" s="27" t="s">
+        <v>285</v>
       </c>
       <c r="AJ66" t="s">
         <v>109</v>
@@ -12029,10 +12031,10 @@
       <c r="AN66" s="1">
         <v>80</v>
       </c>
-      <c r="AO66" s="30">
+      <c r="AO66" s="27">
         <v>170</v>
       </c>
-      <c r="AP66" s="30">
+      <c r="AP66" s="27">
         <v>170</v>
       </c>
       <c r="AQ66" t="s">
@@ -12051,182 +12053,177 @@
         <v>8</v>
       </c>
       <c r="AV66" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="AW66" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="AX66" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AW66" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="AX66" s="27">
+        <v>1</v>
+      </c>
+      <c r="AY66" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="AZ66" s="18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="67" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A67" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="B67" t="s">
+        <v>281</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="E67" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="AY66" s="21" t="s">
+      <c r="F67" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="AZ66" s="21" t="s">
+      <c r="G67" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
+      <c r="H67" t="s">
         <v>121</v>
       </c>
-      <c r="B69" t="s">
-        <v>123</v>
-      </c>
-      <c r="C69" s="19" t="s">
+      <c r="I67" t="s">
         <v>121</v>
       </c>
-      <c r="D69" s="19" t="s">
+      <c r="J67" t="s">
         <v>121</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="K67" t="s">
         <v>121</v>
       </c>
-      <c r="F69" s="20" t="s">
+      <c r="L67" t="s">
         <v>121</v>
       </c>
-      <c r="G69" s="19" t="s">
+      <c r="M67" t="s">
         <v>121</v>
       </c>
-      <c r="H69" s="19" t="s">
+      <c r="N67" t="s">
         <v>121</v>
       </c>
-      <c r="I69" s="19" t="s">
+      <c r="O67" t="s">
         <v>121</v>
       </c>
-      <c r="J69" s="19" t="s">
+      <c r="P67" t="s">
         <v>121</v>
       </c>
-      <c r="K69" s="19" t="s">
+      <c r="Q67" t="s">
         <v>121</v>
       </c>
-      <c r="L69" s="19" t="s">
+      <c r="R67" t="s">
         <v>121</v>
       </c>
-      <c r="M69" s="19" t="s">
+      <c r="S67" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="T67" t="s">
         <v>121</v>
       </c>
-      <c r="N69" s="19" t="s">
+      <c r="U67" t="s">
         <v>121</v>
       </c>
-      <c r="O69" s="19"/>
-      <c r="P69" s="19"/>
-      <c r="Q69" s="19"/>
-      <c r="R69" s="19" t="s">
+      <c r="V67">
+        <v>5</v>
+      </c>
+      <c r="W67">
+        <v>1</v>
+      </c>
+      <c r="X67">
+        <v>6</v>
+      </c>
+      <c r="Y67">
+        <v>1</v>
+      </c>
+      <c r="Z67">
+        <v>1</v>
+      </c>
+      <c r="AA67">
+        <v>16</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC67">
+        <v>1</v>
+      </c>
+      <c r="AD67">
+        <v>8</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF67" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="S69" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="T69">
-        <v>6</v>
-      </c>
-      <c r="U69" s="19" t="s">
+      <c r="AG67" t="s">
         <v>121</v>
       </c>
-      <c r="V69">
-        <v>5</v>
-      </c>
-      <c r="W69">
-        <v>1</v>
-      </c>
-      <c r="X69">
-        <v>6</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z69">
-        <v>1</v>
-      </c>
-      <c r="AA69">
-        <v>16</v>
-      </c>
-      <c r="AB69" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC69">
-        <v>1</v>
-      </c>
-      <c r="AD69">
-        <v>8</v>
-      </c>
-      <c r="AE69" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF69" s="20" t="s">
+      <c r="AH67" t="s">
         <v>121</v>
       </c>
-      <c r="AG69" s="19" t="s">
+      <c r="AI67" t="s">
+        <v>285</v>
+      </c>
+      <c r="AJ67" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK67" s="10">
+        <v>125</v>
+      </c>
+      <c r="AL67">
+        <v>1169</v>
+      </c>
+      <c r="AM67">
+        <v>414</v>
+      </c>
+      <c r="AN67" s="1">
+        <v>96</v>
+      </c>
+      <c r="AO67" s="27">
+        <v>784</v>
+      </c>
+      <c r="AP67" s="27">
+        <v>384</v>
+      </c>
+      <c r="AQ67" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR67" s="1">
+        <v>14</v>
+      </c>
+      <c r="AS67" s="27">
+        <v>192</v>
+      </c>
+      <c r="AT67" s="27">
+        <v>15</v>
+      </c>
+      <c r="AU67" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV67" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="AW67" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="AX67" t="s">
         <v>121</v>
       </c>
-      <c r="AI69" t="e">
-        <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN69*AO69*AP69) / 5 * X69</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ69" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK69" s="20" t="s">
+      <c r="AY67" t="s">
         <v>121</v>
       </c>
-      <c r="AL69" s="19" t="s">
+      <c r="AZ67" t="s">
         <v>121</v>
-      </c>
-      <c r="AM69" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN69" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AO69" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP69" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ69" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR69" s="1" t="e">
-        <f t="shared" ref="AR69" si="70" xml:space="preserve"> _xlfn.FLOOR.MATH((AK69 - AN69) / 2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AS69" t="e">
-        <f t="shared" ref="AS69" si="71" xml:space="preserve"> _xlfn.FLOOR.MATH((AL69 - AO69) / 2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AT69" t="e">
-        <f t="shared" ref="AT69" si="72" xml:space="preserve"> _xlfn.FLOOR.MATH((AM69 - AP69) / 2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AU69" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV69" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="AW69" t="s">
-        <v>166</v>
-      </c>
-      <c r="AX69" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY69" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ69" s="19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="AO75" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="AO76" t="s">
-        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6881210-4B84-4309-9FFD-504638F9C551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9389018-15B6-41E6-B019-195B054F5E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="304">
   <si>
     <t>patch z</t>
   </si>
@@ -931,6 +931,24 @@
   </si>
   <si>
     <t>Same as 231008-0, -1. Also, attempting to fix invalid patch shape.</t>
+  </si>
+  <si>
+    <t>ValueError: requested an output size of torch.Size([13, 99, 49]), but valid sizes range from [11, 97, 47] to [12, 98, 48] (for an input of torch.Size([6, 49, 24]))</t>
+  </si>
+  <si>
+    <t>Same as 231008-0, -1, -2. Also, still attempting to fix invalid patch shape.</t>
+  </si>
+  <si>
+    <t>See 231009-0 cell below for results, because: Error, invalid patch shape (torch.size error).</t>
+  </si>
+  <si>
+    <t>TBD - 1. copy patch numbers, etc. 2. test out what works for predict3dunet</t>
+  </si>
+  <si>
+    <t>TBD - see patch shape</t>
+  </si>
+  <si>
+    <t>231009-0 (TEMP, TBD)</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1119,11 +1137,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1438,15 +1451,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
-  <dimension ref="A1:AZ67"/>
+  <dimension ref="A1:AZ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ45" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="AV69" sqref="AV69"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1" outlineLevel="1"/>
@@ -11722,15 +11735,15 @@
         <v>48</v>
       </c>
       <c r="AR64" s="1">
-        <f t="shared" ref="AR64:AR65" si="67" xml:space="preserve"> _xlfn.FLOOR.MATH((AK64 - AN64) / 2)</f>
+        <f t="shared" ref="AR64" si="67" xml:space="preserve"> _xlfn.FLOOR.MATH((AK64 - AN64) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS64">
-        <f t="shared" ref="AS64:AS65" si="68" xml:space="preserve"> _xlfn.FLOOR.MATH((AL64 - AO64) / 2)</f>
+        <f t="shared" ref="AS64" si="68" xml:space="preserve"> _xlfn.FLOOR.MATH((AL64 - AO64) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT64">
-        <f t="shared" ref="AT64:AT65" si="69" xml:space="preserve"> _xlfn.FLOOR.MATH((AM64 - AP64) / 2)</f>
+        <f t="shared" ref="AT64" si="69" xml:space="preserve"> _xlfn.FLOOR.MATH((AM64 - AP64) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU64" t="s">
@@ -11873,10 +11886,10 @@
       <c r="AN65" s="1">
         <v>80</v>
       </c>
-      <c r="AO65" s="27">
+      <c r="AO65">
         <v>170</v>
       </c>
-      <c r="AP65" s="27">
+      <c r="AP65">
         <v>170</v>
       </c>
       <c r="AQ65" t="s">
@@ -11897,10 +11910,10 @@
       <c r="AV65" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="AW65" s="28" t="s">
+      <c r="AW65" t="s">
         <v>287</v>
       </c>
-      <c r="AX65" s="29">
+      <c r="AX65" s="18">
         <v>1</v>
       </c>
       <c r="AY65" t="s">
@@ -11929,13 +11942,13 @@
       <c r="F66" s="10">
         <v>0</v>
       </c>
-      <c r="G66" s="30">
+      <c r="G66" s="17">
         <v>1</v>
       </c>
       <c r="H66" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="I66" s="30">
+      <c r="I66" s="17">
         <v>0</v>
       </c>
       <c r="J66" s="18" t="s">
@@ -11968,10 +11981,10 @@
       <c r="S66" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="T66" s="27" t="s">
+      <c r="T66" t="s">
         <v>121</v>
       </c>
-      <c r="U66" s="27" t="s">
+      <c r="U66" t="s">
         <v>121</v>
       </c>
       <c r="V66">
@@ -12007,13 +12020,13 @@
       <c r="AF66" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AG66" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH66" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI66" s="27" t="s">
+      <c r="AG66" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI66" t="s">
         <v>285</v>
       </c>
       <c r="AJ66" t="s">
@@ -12031,10 +12044,10 @@
       <c r="AN66" s="1">
         <v>80</v>
       </c>
-      <c r="AO66" s="27">
+      <c r="AO66">
         <v>170</v>
       </c>
-      <c r="AP66" s="27">
+      <c r="AP66">
         <v>170</v>
       </c>
       <c r="AQ66" t="s">
@@ -12055,10 +12068,10 @@
       <c r="AV66" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="AW66" s="28" t="s">
+      <c r="AW66" t="s">
         <v>287</v>
       </c>
-      <c r="AX66" s="27">
+      <c r="AX66">
         <v>1</v>
       </c>
       <c r="AY66" s="18" t="s">
@@ -12081,47 +12094,47 @@
       <c r="D67" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="E67" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G67" t="s">
-        <v>121</v>
-      </c>
-      <c r="H67" t="s">
-        <v>121</v>
-      </c>
-      <c r="I67" t="s">
-        <v>121</v>
-      </c>
-      <c r="J67" t="s">
-        <v>121</v>
+      <c r="E67" t="s">
+        <v>300</v>
+      </c>
+      <c r="F67" s="10">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="I67" s="17">
+        <v>0</v>
+      </c>
+      <c r="J67" s="18" t="s">
+        <v>8</v>
       </c>
       <c r="K67" t="s">
-        <v>121</v>
-      </c>
-      <c r="L67" t="s">
-        <v>121</v>
+        <v>8</v>
+      </c>
+      <c r="L67" s="18" t="s">
+        <v>8</v>
       </c>
       <c r="M67" t="s">
-        <v>121</v>
-      </c>
-      <c r="N67" t="s">
-        <v>121</v>
+        <v>8</v>
+      </c>
+      <c r="N67" s="18" t="s">
+        <v>8</v>
       </c>
       <c r="O67" t="s">
-        <v>121</v>
-      </c>
-      <c r="P67" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>121</v>
-      </c>
-      <c r="R67" t="s">
-        <v>121</v>
+        <v>8</v>
+      </c>
+      <c r="P67" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q67" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="R67" s="18">
+        <v>0</v>
       </c>
       <c r="S67" s="1" t="s">
         <v>274</v>
@@ -12163,13 +12176,13 @@
         <v>100</v>
       </c>
       <c r="AF67" s="10" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="AG67" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="AH67" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="AI67" t="s">
         <v>285</v>
@@ -12189,10 +12202,10 @@
       <c r="AN67" s="1">
         <v>96</v>
       </c>
-      <c r="AO67" s="27">
+      <c r="AO67">
         <v>784</v>
       </c>
-      <c r="AP67" s="27">
+      <c r="AP67">
         <v>384</v>
       </c>
       <c r="AQ67" t="s">
@@ -12201,10 +12214,10 @@
       <c r="AR67" s="1">
         <v>14</v>
       </c>
-      <c r="AS67" s="27">
+      <c r="AS67">
         <v>192</v>
       </c>
-      <c r="AT67" s="27">
+      <c r="AT67">
         <v>15</v>
       </c>
       <c r="AU67" t="s">
@@ -12213,16 +12226,174 @@
       <c r="AV67" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="AW67" s="28" t="s">
+      <c r="AW67" t="s">
         <v>294</v>
       </c>
-      <c r="AX67" t="s">
+      <c r="AX67">
+        <v>1</v>
+      </c>
+      <c r="AY67" t="s">
+        <v>298</v>
+      </c>
+      <c r="AZ67" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="68" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A68" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B68" t="s">
+        <v>281</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="E68" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="AY67" t="s">
+      <c r="F68" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="AZ67" t="s">
+      <c r="G68" t="s">
+        <v>121</v>
+      </c>
+      <c r="H68" t="s">
+        <v>121</v>
+      </c>
+      <c r="I68" t="s">
+        <v>121</v>
+      </c>
+      <c r="J68" t="s">
+        <v>121</v>
+      </c>
+      <c r="K68" t="s">
+        <v>121</v>
+      </c>
+      <c r="L68" t="s">
+        <v>121</v>
+      </c>
+      <c r="M68" t="s">
+        <v>121</v>
+      </c>
+      <c r="N68" t="s">
+        <v>121</v>
+      </c>
+      <c r="O68" t="s">
+        <v>121</v>
+      </c>
+      <c r="P68" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R68" t="s">
+        <v>121</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="T68" t="s">
+        <v>121</v>
+      </c>
+      <c r="U68" t="s">
+        <v>121</v>
+      </c>
+      <c r="V68">
+        <v>5</v>
+      </c>
+      <c r="W68">
+        <v>1</v>
+      </c>
+      <c r="X68">
+        <v>6</v>
+      </c>
+      <c r="Y68">
+        <v>1</v>
+      </c>
+      <c r="Z68">
+        <v>1</v>
+      </c>
+      <c r="AA68">
+        <v>16</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC68">
+        <v>1</v>
+      </c>
+      <c r="AD68">
+        <v>8</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF68" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>285</v>
+      </c>
+      <c r="AJ68" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK68" s="10">
+        <v>125</v>
+      </c>
+      <c r="AL68">
+        <v>1169</v>
+      </c>
+      <c r="AM68">
+        <v>414</v>
+      </c>
+      <c r="AN68" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO68" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP68" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ68" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR68" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS68" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT68" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU68" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV68" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="AW68" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="AX68" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY68" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ68" s="18" t="s">
         <v>121</v>
       </c>
     </row>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9389018-15B6-41E6-B019-195B054F5E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8D652D-10FA-49C2-971C-0EE8B7B1D27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="304">
   <si>
     <t>patch z</t>
   </si>
@@ -1102,7 +1102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1136,7 +1136,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1453,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
   <dimension ref="A1:AZ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="AI21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AV69" sqref="AV69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -12357,37 +12356,37 @@
       <c r="AM68">
         <v>414</v>
       </c>
-      <c r="AN68" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AO68" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP68" t="s">
-        <v>121</v>
+      <c r="AN68" s="1">
+        <v>80</v>
+      </c>
+      <c r="AO68">
+        <v>600</v>
+      </c>
+      <c r="AP68">
+        <v>224</v>
       </c>
       <c r="AQ68" t="s">
         <v>8</v>
       </c>
-      <c r="AR68" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS68" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT68" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU68" s="27" t="s">
+      <c r="AR68" s="1">
+        <v>40</v>
+      </c>
+      <c r="AS68">
+        <v>560</v>
+      </c>
+      <c r="AT68">
+        <v>176</v>
+      </c>
+      <c r="AU68" t="s">
         <v>8</v>
       </c>
       <c r="AV68" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="AW68" s="27" t="s">
+      <c r="AW68" t="s">
         <v>302</v>
       </c>
-      <c r="AX68" s="27" t="s">
+      <c r="AX68" t="s">
         <v>121</v>
       </c>
       <c r="AY68" s="18" t="s">

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52B764D-0D70-4D22-A861-D06560F81157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B191C2A-4F87-43F5-BCC1-5D5F21D9C7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2505" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="322">
   <si>
     <t>patch z</t>
   </si>
@@ -945,15 +945,9 @@
     <t>231009-0</t>
   </si>
   <si>
-    <t>stride = floor (resolution - patch) / 2, round down to largest int_2^3 (=multiple*2^3)</t>
-  </si>
-  <si>
     <t>231009-1</t>
   </si>
   <si>
-    <t>See 231009-1 cell below for results, because: Error, invalid patch shape &amp;/ invalid stride shape (torch.size error).</t>
-  </si>
-  <si>
     <t>Same as 231008-0, -1, -2, 231009-0. Also, still attempting to fix invalid patch shape &amp;/ invalid stride shape.</t>
   </si>
   <si>
@@ -969,13 +963,46 @@
     <t>TBD - see 231009-0 cell above</t>
   </si>
   <si>
-    <t>stride = floor (resolution - patch) / 2, round up to smallest int_2^3 (=multiple*2^3)</t>
-  </si>
-  <si>
     <t>231009-2</t>
   </si>
   <si>
     <t>231009-3</t>
+  </si>
+  <si>
+    <t>stride &gt;= floor (resolution - patch) / 2, round up to smallest int_2^3 (=multiple*2^3)</t>
+  </si>
+  <si>
+    <t>stride &lt;= floor (resolution - patch) / 2, round down to largest int_2^3 (=multiple*2^3)</t>
+  </si>
+  <si>
+    <t>stride &gt;= patch / 2, stride &lt;= floor (resolution - patch) / 2, round down to largest int_2^3 (=multiple*2^3)</t>
+  </si>
+  <si>
+    <t>another patch/stride idea</t>
+  </si>
+  <si>
+    <t>231010-0</t>
+  </si>
+  <si>
+    <t>Same as 231008-0, -1, -2, 231009-0, -1, -2, -3. Also, still attempting to fix invalid patch shape &amp;/ invalid stride shape.</t>
+  </si>
+  <si>
+    <t>See 231010-0 cell below for results, because: Error, invalid patch shape &amp;/ invalid stride shape (torch.size error).</t>
+  </si>
+  <si>
+    <t>See 231009-1, -2, -3 cell below for results, because: Error, invalid patch shape &amp;/ invalid stride shape (torch.size error).</t>
+  </si>
+  <si>
+    <t>stride = 0, so predict3dunet predicts for the exact input image size train3dunet received during training.</t>
+  </si>
+  <si>
+    <t>diff z (halo)</t>
+  </si>
+  <si>
+    <t>diff y (halo)</t>
+  </si>
+  <si>
+    <t>diff x (halo)</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1177,7 +1204,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1187,7 +1213,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1195,9 +1220,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1512,17 +1535,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
-  <dimension ref="A1:BC72"/>
+  <dimension ref="A1:BC77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR70" sqref="AR70"/>
+    <sheetView tabSelected="1" topLeftCell="AE42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AX73" sqref="AX73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="64.5703125" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="14.5703125" style="6" customWidth="1" outlineLevel="1"/>
@@ -1531,8 +1554,8 @@
     <col min="9" max="9" width="9.42578125" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
     <col min="11" max="17" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="9.140625" style="21"/>
-    <col min="19" max="19" width="12.85546875" style="19" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="9.140625" style="20"/>
+    <col min="19" max="19" width="12.85546875" customWidth="1" outlineLevel="1"/>
     <col min="20" max="20" width="9.140625" customWidth="1" outlineLevel="1"/>
     <col min="22" max="22" width="6.7109375" customWidth="1" outlineLevel="1"/>
     <col min="23" max="23" width="5.140625" customWidth="1" outlineLevel="1"/>
@@ -1544,24 +1567,23 @@
     <col min="29" max="29" width="15.42578125" customWidth="1" outlineLevel="1"/>
     <col min="30" max="30" width="7.7109375" customWidth="1" outlineLevel="1"/>
     <col min="31" max="31" width="9.7109375" style="10" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="16.7109375" style="19" customWidth="1"/>
+    <col min="32" max="32" width="16.7109375" customWidth="1"/>
     <col min="33" max="34" width="14.85546875" customWidth="1"/>
     <col min="35" max="35" width="21" customWidth="1"/>
     <col min="36" max="36" width="26.28515625" style="10" customWidth="1" outlineLevel="1"/>
-    <col min="37" max="37" width="6" style="19" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6" style="21" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.28515625" style="19" customWidth="1"/>
+    <col min="37" max="38" width="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6" style="20" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.28515625" customWidth="1"/>
     <col min="41" max="41" width="6.140625" customWidth="1"/>
     <col min="42" max="42" width="5" customWidth="1"/>
-    <col min="43" max="43" width="5" style="21" customWidth="1"/>
-    <col min="44" max="44" width="6.140625" style="19" customWidth="1"/>
+    <col min="43" max="43" width="5" style="20" customWidth="1"/>
+    <col min="44" max="44" width="6.140625" customWidth="1"/>
     <col min="45" max="45" width="6.5703125" customWidth="1"/>
     <col min="46" max="46" width="5" customWidth="1"/>
-    <col min="47" max="47" width="6" style="21" customWidth="1"/>
+    <col min="47" max="47" width="6" style="20" customWidth="1"/>
     <col min="48" max="49" width="6" customWidth="1"/>
     <col min="50" max="50" width="6" style="10" customWidth="1"/>
-    <col min="51" max="51" width="74.85546875" style="19" customWidth="1" outlineLevel="1"/>
+    <col min="51" max="51" width="74.85546875" customWidth="1" outlineLevel="1"/>
     <col min="52" max="52" width="74.42578125" customWidth="1" outlineLevel="1"/>
     <col min="53" max="53" width="5.140625" customWidth="1"/>
     <col min="54" max="54" width="73.85546875" customWidth="1" outlineLevel="1"/>
@@ -1625,7 +1647,7 @@
       <c r="Q1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="19" t="s">
         <v>120</v>
       </c>
       <c r="S1" s="1" t="s">
@@ -1664,7 +1686,7 @@
       <c r="AD1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AE1" s="26" t="s">
         <v>99</v>
       </c>
       <c r="AF1" s="1" t="s">
@@ -1679,7 +1701,7 @@
       <c r="AI1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AJ1" s="28" t="s">
+      <c r="AJ1" s="26" t="s">
         <v>37</v>
       </c>
       <c r="AK1" s="1" t="s">
@@ -1688,7 +1710,7 @@
       <c r="AL1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AM1" s="20" t="s">
+      <c r="AM1" s="19" t="s">
         <v>13</v>
       </c>
       <c r="AN1" s="1" t="s">
@@ -1700,7 +1722,7 @@
       <c r="AP1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="20" t="s">
+      <c r="AQ1" s="19" t="s">
         <v>52</v>
       </c>
       <c r="AR1" s="1" t="s">
@@ -1712,10 +1734,18 @@
       <c r="AT1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AU1" s="20" t="s">
+      <c r="AU1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="AX1" s="28"/>
+      <c r="AV1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AX1" s="26" t="s">
+        <v>321</v>
+      </c>
       <c r="AY1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1784,10 +1814,10 @@
       <c r="Q2" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="21">
-        <v>0</v>
-      </c>
-      <c r="S2" s="19" t="s">
+      <c r="R2" s="20">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
         <v>70</v>
       </c>
       <c r="T2">
@@ -1827,7 +1857,7 @@
       <c r="AE2" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF2" s="19" t="s">
+      <c r="AF2" t="s">
         <v>8</v>
       </c>
       <c r="AG2" s="13" t="s">
@@ -1839,16 +1869,16 @@
       <c r="AI2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AJ2" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK2" s="27">
+      <c r="AJ2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK2" s="13">
         <v>125</v>
       </c>
       <c r="AL2" s="13">
         <v>1169</v>
       </c>
-      <c r="AM2" s="24">
+      <c r="AM2" s="23">
         <v>414</v>
       </c>
       <c r="AN2" s="13">
@@ -1860,10 +1890,10 @@
       <c r="AP2" s="13">
         <v>160</v>
       </c>
-      <c r="AQ2" s="24" t="s">
+      <c r="AQ2" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="AR2" s="27">
+      <c r="AR2" s="13">
         <v>32</v>
       </c>
       <c r="AS2" s="13">
@@ -1872,7 +1902,7 @@
       <c r="AT2" s="13">
         <v>80</v>
       </c>
-      <c r="AU2" s="24" t="s">
+      <c r="AU2" s="23" t="s">
         <v>48</v>
       </c>
       <c r="AV2" s="13">
@@ -1887,7 +1917,7 @@
         <f t="shared" si="0"/>
         <v>174</v>
       </c>
-      <c r="AY2" s="27" t="s">
+      <c r="AY2" s="13" t="s">
         <v>267</v>
       </c>
       <c r="AZ2" s="13" t="s">
@@ -1955,10 +1985,10 @@
       <c r="Q3" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="21">
-        <v>1</v>
-      </c>
-      <c r="S3" s="19" t="s">
+      <c r="R3" s="20">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
         <v>70</v>
       </c>
       <c r="T3">
@@ -1998,7 +2028,7 @@
       <c r="AE3" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF3" s="19">
+      <c r="AF3">
         <v>20769</v>
       </c>
       <c r="AG3" s="13">
@@ -2011,19 +2041,19 @@
       <c r="AI3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AJ3" s="29" t="s">
+      <c r="AJ3" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="AK3" s="27">
+      <c r="AK3" s="13">
         <v>125</v>
       </c>
       <c r="AL3" s="13">
         <v>1169</v>
       </c>
-      <c r="AM3" s="24">
+      <c r="AM3" s="23">
         <v>414</v>
       </c>
-      <c r="AN3" s="27">
+      <c r="AN3" s="13">
         <v>64</v>
       </c>
       <c r="AO3" s="13">
@@ -2032,10 +2062,10 @@
       <c r="AP3" s="13">
         <v>160</v>
       </c>
-      <c r="AQ3" s="24" t="s">
+      <c r="AQ3" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="AR3" s="27">
+      <c r="AR3" s="13">
         <v>32</v>
       </c>
       <c r="AS3" s="13">
@@ -2044,7 +2074,7 @@
       <c r="AT3" s="13">
         <v>80</v>
       </c>
-      <c r="AU3" s="24" t="s">
+      <c r="AU3" s="23" t="s">
         <v>48</v>
       </c>
       <c r="AV3" s="13">
@@ -2055,11 +2085,11 @@
         <f t="shared" ref="AW3:AW66" si="3">AL3-(AO3+AS3)</f>
         <v>145</v>
       </c>
-      <c r="AX3" s="29">
+      <c r="AX3" s="27">
         <f t="shared" ref="AX3:AX66" si="4">AM3-(AP3+AT3)</f>
         <v>174</v>
       </c>
-      <c r="AY3" s="27" t="s">
+      <c r="AY3" s="13" t="s">
         <v>267</v>
       </c>
       <c r="AZ3" s="13" t="s">
@@ -2127,7 +2157,7 @@
       <c r="Q4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="22">
+      <c r="R4" s="21">
         <v>0</v>
       </c>
       <c r="S4" s="8" t="s">
@@ -2167,7 +2197,7 @@
       <c r="AD4" s="8">
         <v>8</v>
       </c>
-      <c r="AE4" s="34" t="s">
+      <c r="AE4" s="31" t="s">
         <v>100</v>
       </c>
       <c r="AF4" s="8">
@@ -2182,7 +2212,7 @@
       <c r="AI4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AJ4" s="30" t="s">
+      <c r="AJ4" s="28" t="s">
         <v>33</v>
       </c>
       <c r="AK4" s="16">
@@ -2191,7 +2221,7 @@
       <c r="AL4" s="16">
         <v>1169</v>
       </c>
-      <c r="AM4" s="25">
+      <c r="AM4" s="24">
         <v>414</v>
       </c>
       <c r="AN4" s="16">
@@ -2203,7 +2233,7 @@
       <c r="AP4" s="16">
         <v>394</v>
       </c>
-      <c r="AQ4" s="25" t="s">
+      <c r="AQ4" s="24" t="s">
         <v>48</v>
       </c>
       <c r="AR4" s="16">
@@ -2215,7 +2245,7 @@
       <c r="AT4" s="16">
         <v>10</v>
       </c>
-      <c r="AU4" s="25" t="s">
+      <c r="AU4" s="24" t="s">
         <v>48</v>
       </c>
       <c r="AV4" s="16">
@@ -2226,7 +2256,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="AX4" s="30">
+      <c r="AX4" s="28">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
@@ -2298,10 +2328,10 @@
       <c r="Q5" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="21">
-        <v>0</v>
-      </c>
-      <c r="S5" s="19" t="s">
+      <c r="R5" s="20">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
         <v>70</v>
       </c>
       <c r="T5">
@@ -2341,7 +2371,7 @@
       <c r="AE5" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF5" s="19">
+      <c r="AF5">
         <v>-1</v>
       </c>
       <c r="AG5" s="13">
@@ -2356,16 +2386,16 @@
       <c r="AJ5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AK5" s="19">
+      <c r="AK5">
         <v>125</v>
       </c>
       <c r="AL5">
         <v>1169</v>
       </c>
-      <c r="AM5" s="21">
+      <c r="AM5" s="20">
         <v>414</v>
       </c>
-      <c r="AN5" s="19">
+      <c r="AN5">
         <v>100</v>
       </c>
       <c r="AO5">
@@ -2374,10 +2404,10 @@
       <c r="AP5">
         <v>390</v>
       </c>
-      <c r="AQ5" s="21" t="s">
+      <c r="AQ5" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR5" s="19">
+      <c r="AR5">
         <v>10</v>
       </c>
       <c r="AS5">
@@ -2386,7 +2416,7 @@
       <c r="AT5">
         <v>10</v>
       </c>
-      <c r="AU5" s="21" t="s">
+      <c r="AU5" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV5">
@@ -2401,7 +2431,7 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="AY5" s="27" t="s">
+      <c r="AY5" s="13" t="s">
         <v>24</v>
       </c>
       <c r="AZ5" s="13" t="s">
@@ -2469,10 +2499,10 @@
       <c r="Q6" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="21">
-        <v>0</v>
-      </c>
-      <c r="S6" s="19" t="s">
+      <c r="R6" s="20">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
         <v>70</v>
       </c>
       <c r="T6">
@@ -2512,7 +2542,7 @@
       <c r="AE6" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF6" s="19" t="s">
+      <c r="AF6" t="s">
         <v>8</v>
       </c>
       <c r="AG6" s="13" t="s">
@@ -2527,16 +2557,16 @@
       <c r="AJ6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AK6" s="19">
+      <c r="AK6">
         <v>125</v>
       </c>
       <c r="AL6">
         <v>1169</v>
       </c>
-      <c r="AM6" s="21">
+      <c r="AM6" s="20">
         <v>414</v>
       </c>
-      <c r="AN6" s="19">
+      <c r="AN6">
         <v>100</v>
       </c>
       <c r="AO6">
@@ -2545,10 +2575,10 @@
       <c r="AP6">
         <v>390</v>
       </c>
-      <c r="AQ6" s="21" t="s">
+      <c r="AQ6" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR6" s="19">
+      <c r="AR6">
         <v>26</v>
       </c>
       <c r="AS6">
@@ -2557,7 +2587,7 @@
       <c r="AT6">
         <v>25</v>
       </c>
-      <c r="AU6" s="21" t="s">
+      <c r="AU6" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV6">
@@ -2572,7 +2602,7 @@
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="AY6" s="19" t="s">
+      <c r="AY6" t="s">
         <v>24</v>
       </c>
       <c r="AZ6" t="s">
@@ -2640,10 +2670,10 @@
       <c r="Q7" t="s">
         <v>8</v>
       </c>
-      <c r="R7" s="21">
-        <v>0</v>
-      </c>
-      <c r="S7" s="19" t="s">
+      <c r="R7" s="20">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
         <v>70</v>
       </c>
       <c r="T7">
@@ -2683,7 +2713,7 @@
       <c r="AE7" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF7" s="19" t="s">
+      <c r="AF7" t="s">
         <v>8</v>
       </c>
       <c r="AG7" s="13" t="s">
@@ -2698,16 +2728,16 @@
       <c r="AJ7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AK7" s="19">
+      <c r="AK7">
         <v>125</v>
       </c>
       <c r="AL7">
         <v>1169</v>
       </c>
-      <c r="AM7" s="21">
+      <c r="AM7" s="20">
         <v>414</v>
       </c>
-      <c r="AN7" s="19">
+      <c r="AN7">
         <v>100</v>
       </c>
       <c r="AO7">
@@ -2716,10 +2746,10 @@
       <c r="AP7">
         <v>390</v>
       </c>
-      <c r="AQ7" s="21" t="s">
+      <c r="AQ7" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR7" s="19">
+      <c r="AR7">
         <v>25</v>
       </c>
       <c r="AS7">
@@ -2728,7 +2758,7 @@
       <c r="AT7">
         <v>24</v>
       </c>
-      <c r="AU7" s="21" t="s">
+      <c r="AU7" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV7">
@@ -2743,7 +2773,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AY7" s="19" t="s">
+      <c r="AY7" t="s">
         <v>24</v>
       </c>
       <c r="AZ7" t="s">
@@ -2811,10 +2841,10 @@
       <c r="Q8" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="21">
-        <v>0</v>
-      </c>
-      <c r="S8" s="19" t="s">
+      <c r="R8" s="20">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
         <v>70</v>
       </c>
       <c r="T8">
@@ -2854,7 +2884,7 @@
       <c r="AE8" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF8" s="19">
+      <c r="AF8">
         <v>-1</v>
       </c>
       <c r="AG8" s="13">
@@ -2869,16 +2899,16 @@
       <c r="AJ8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AK8" s="19">
+      <c r="AK8">
         <v>125</v>
       </c>
       <c r="AL8">
         <v>1169</v>
       </c>
-      <c r="AM8" s="21">
+      <c r="AM8" s="20">
         <v>414</v>
       </c>
-      <c r="AN8" s="19">
+      <c r="AN8">
         <v>101</v>
       </c>
       <c r="AO8">
@@ -2887,10 +2917,10 @@
       <c r="AP8">
         <v>400</v>
       </c>
-      <c r="AQ8" s="21" t="s">
+      <c r="AQ8" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR8" s="19">
+      <c r="AR8">
         <v>12</v>
       </c>
       <c r="AS8">
@@ -2899,7 +2929,7 @@
       <c r="AT8">
         <v>7</v>
       </c>
-      <c r="AU8" s="21" t="s">
+      <c r="AU8" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV8">
@@ -2914,7 +2944,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="AY8" s="19" t="s">
+      <c r="AY8" t="s">
         <v>24</v>
       </c>
       <c r="AZ8" t="s">
@@ -2982,10 +3012,10 @@
       <c r="Q9" t="s">
         <v>8</v>
       </c>
-      <c r="R9" s="21">
-        <v>0</v>
-      </c>
-      <c r="S9" s="19" t="s">
+      <c r="R9" s="20">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
         <v>70</v>
       </c>
       <c r="T9">
@@ -3025,7 +3055,7 @@
       <c r="AE9" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF9" s="19">
+      <c r="AF9">
         <v>20319</v>
       </c>
       <c r="AG9" s="13">
@@ -3040,16 +3070,16 @@
       <c r="AJ9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AK9" s="19">
+      <c r="AK9">
         <v>125</v>
       </c>
       <c r="AL9">
         <v>1169</v>
       </c>
-      <c r="AM9" s="21">
+      <c r="AM9" s="20">
         <v>414</v>
       </c>
-      <c r="AN9" s="19">
+      <c r="AN9">
         <f>AK9-50</f>
         <v>75</v>
       </c>
@@ -3061,10 +3091,10 @@
         <f>AM9-110</f>
         <v>304</v>
       </c>
-      <c r="AQ9" s="21" t="s">
+      <c r="AQ9" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR9" s="19">
+      <c r="AR9">
         <f>(AK9-AN9)/2</f>
         <v>25</v>
       </c>
@@ -3076,7 +3106,7 @@
         <f>(AM9-AP9)/2</f>
         <v>55</v>
       </c>
-      <c r="AU9" s="21" t="s">
+      <c r="AU9" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV9">
@@ -3091,7 +3121,7 @@
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="AY9" s="19" t="s">
+      <c r="AY9" t="s">
         <v>24</v>
       </c>
       <c r="AZ9" t="s">
@@ -3159,10 +3189,10 @@
       <c r="Q10" t="s">
         <v>8</v>
       </c>
-      <c r="R10" s="21">
-        <v>0</v>
-      </c>
-      <c r="S10" s="19" t="s">
+      <c r="R10" s="20">
+        <v>0</v>
+      </c>
+      <c r="S10" t="s">
         <v>70</v>
       </c>
       <c r="T10">
@@ -3202,7 +3232,7 @@
       <c r="AE10" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF10" s="19">
+      <c r="AF10">
         <v>19417</v>
       </c>
       <c r="AG10" s="13">
@@ -3217,16 +3247,16 @@
       <c r="AJ10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AK10" s="19">
+      <c r="AK10">
         <v>125</v>
       </c>
       <c r="AL10">
         <v>1169</v>
       </c>
-      <c r="AM10" s="21">
+      <c r="AM10" s="20">
         <v>414</v>
       </c>
-      <c r="AN10" s="19">
+      <c r="AN10">
         <v>72</v>
       </c>
       <c r="AO10">
@@ -3235,10 +3265,10 @@
       <c r="AP10">
         <v>304</v>
       </c>
-      <c r="AQ10" s="21" t="s">
+      <c r="AQ10" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR10" s="19">
+      <c r="AR10">
         <v>24</v>
       </c>
       <c r="AS10">
@@ -3247,7 +3277,7 @@
       <c r="AT10">
         <v>48</v>
       </c>
-      <c r="AU10" s="21" t="s">
+      <c r="AU10" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV10">
@@ -3262,7 +3292,7 @@
         <f t="shared" si="4"/>
         <v>62</v>
       </c>
-      <c r="AY10" s="19" t="s">
+      <c r="AY10" t="s">
         <v>28</v>
       </c>
       <c r="AZ10" t="s">
@@ -3330,10 +3360,10 @@
       <c r="Q11" t="s">
         <v>8</v>
       </c>
-      <c r="R11" s="21">
-        <v>0</v>
-      </c>
-      <c r="S11" s="19" t="s">
+      <c r="R11" s="20">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
         <v>70</v>
       </c>
       <c r="T11">
@@ -3373,7 +3403,7 @@
       <c r="AE11" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF11" s="19">
+      <c r="AF11">
         <v>-1</v>
       </c>
       <c r="AG11" s="13">
@@ -3388,16 +3418,16 @@
       <c r="AJ11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AK11" s="19">
+      <c r="AK11">
         <v>125</v>
       </c>
       <c r="AL11">
         <v>1169</v>
       </c>
-      <c r="AM11" s="21">
+      <c r="AM11" s="20">
         <v>414</v>
       </c>
-      <c r="AN11" s="19">
+      <c r="AN11">
         <v>64</v>
       </c>
       <c r="AO11">
@@ -3406,10 +3436,10 @@
       <c r="AP11">
         <v>304</v>
       </c>
-      <c r="AQ11" s="21" t="s">
+      <c r="AQ11" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR11" s="19">
+      <c r="AR11">
         <v>24</v>
       </c>
       <c r="AS11">
@@ -3418,7 +3448,7 @@
       <c r="AT11">
         <v>40</v>
       </c>
-      <c r="AU11" s="21" t="s">
+      <c r="AU11" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV11">
@@ -3433,7 +3463,7 @@
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="AY11" s="19" t="s">
+      <c r="AY11" t="s">
         <v>27</v>
       </c>
       <c r="AZ11" t="s">
@@ -3501,10 +3531,10 @@
       <c r="Q12" t="s">
         <v>8</v>
       </c>
-      <c r="R12" s="21">
-        <v>1</v>
-      </c>
-      <c r="S12" s="19" t="s">
+      <c r="R12" s="20">
+        <v>1</v>
+      </c>
+      <c r="S12" t="s">
         <v>70</v>
       </c>
       <c r="T12">
@@ -3544,7 +3574,7 @@
       <c r="AE12" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF12" s="19">
+      <c r="AF12">
         <v>10135</v>
       </c>
       <c r="AG12" s="13">
@@ -3560,16 +3590,16 @@
       <c r="AJ12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AK12" s="19">
+      <c r="AK12">
         <v>125</v>
       </c>
       <c r="AL12">
         <v>1169</v>
       </c>
-      <c r="AM12" s="21">
+      <c r="AM12" s="20">
         <v>414</v>
       </c>
-      <c r="AN12" s="19">
+      <c r="AN12">
         <v>64</v>
       </c>
       <c r="AO12">
@@ -3578,10 +3608,10 @@
       <c r="AP12">
         <v>160</v>
       </c>
-      <c r="AQ12" s="21" t="s">
+      <c r="AQ12" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR12" s="19">
+      <c r="AR12">
         <v>24</v>
       </c>
       <c r="AS12">
@@ -3590,7 +3620,7 @@
       <c r="AT12">
         <v>120</v>
       </c>
-      <c r="AU12" s="21" t="s">
+      <c r="AU12" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV12">
@@ -3605,7 +3635,7 @@
         <f t="shared" si="4"/>
         <v>134</v>
       </c>
-      <c r="AY12" s="19" t="s">
+      <c r="AY12" t="s">
         <v>27</v>
       </c>
       <c r="AZ12" t="s">
@@ -3673,10 +3703,10 @@
       <c r="Q13" t="s">
         <v>8</v>
       </c>
-      <c r="R13" s="21">
-        <v>0</v>
-      </c>
-      <c r="S13" s="19" t="s">
+      <c r="R13" s="20">
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
         <v>70</v>
       </c>
       <c r="T13">
@@ -3716,7 +3746,7 @@
       <c r="AE13" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF13" s="19" t="s">
+      <c r="AF13" t="s">
         <v>8</v>
       </c>
       <c r="AG13" s="13" t="s">
@@ -3731,16 +3761,16 @@
       <c r="AJ13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AK13" s="19">
+      <c r="AK13">
         <v>125</v>
       </c>
       <c r="AL13">
         <v>1169</v>
       </c>
-      <c r="AM13" s="21">
+      <c r="AM13" s="20">
         <v>414</v>
       </c>
-      <c r="AN13" s="19">
+      <c r="AN13">
         <v>72</v>
       </c>
       <c r="AO13">
@@ -3749,10 +3779,10 @@
       <c r="AP13">
         <v>168</v>
       </c>
-      <c r="AQ13" s="21" t="s">
+      <c r="AQ13" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR13" s="19">
+      <c r="AR13">
         <v>24</v>
       </c>
       <c r="AS13">
@@ -3761,7 +3791,7 @@
       <c r="AT13">
         <v>120</v>
       </c>
-      <c r="AU13" s="21" t="s">
+      <c r="AU13" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV13">
@@ -3776,7 +3806,7 @@
         <f t="shared" si="4"/>
         <v>126</v>
       </c>
-      <c r="AY13" s="19" t="s">
+      <c r="AY13" t="s">
         <v>34</v>
       </c>
       <c r="AZ13" t="s">
@@ -3844,10 +3874,10 @@
       <c r="Q14" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="21">
-        <v>0</v>
-      </c>
-      <c r="S14" s="19" t="s">
+      <c r="R14" s="20">
+        <v>0</v>
+      </c>
+      <c r="S14" t="s">
         <v>70</v>
       </c>
       <c r="T14">
@@ -3887,7 +3917,7 @@
       <c r="AE14" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF14" s="19" t="s">
+      <c r="AF14" t="s">
         <v>8</v>
       </c>
       <c r="AG14" s="13" t="s">
@@ -3902,16 +3932,16 @@
       <c r="AJ14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AK14" s="19">
+      <c r="AK14">
         <v>125</v>
       </c>
       <c r="AL14">
         <v>1169</v>
       </c>
-      <c r="AM14" s="21">
+      <c r="AM14" s="20">
         <v>414</v>
       </c>
-      <c r="AN14" s="19">
+      <c r="AN14">
         <v>72</v>
       </c>
       <c r="AO14">
@@ -3920,10 +3950,10 @@
       <c r="AP14">
         <v>168</v>
       </c>
-      <c r="AQ14" s="21" t="s">
+      <c r="AQ14" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR14" s="19">
+      <c r="AR14">
         <v>16</v>
       </c>
       <c r="AS14">
@@ -3932,7 +3962,7 @@
       <c r="AT14">
         <v>112</v>
       </c>
-      <c r="AU14" s="21" t="s">
+      <c r="AU14" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV14">
@@ -3947,7 +3977,7 @@
         <f t="shared" si="4"/>
         <v>134</v>
       </c>
-      <c r="AY14" s="19" t="s">
+      <c r="AY14" t="s">
         <v>34</v>
       </c>
       <c r="AZ14" t="s">
@@ -4015,10 +4045,10 @@
       <c r="Q15" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="21">
-        <v>1</v>
-      </c>
-      <c r="S15" s="19" t="s">
+      <c r="R15" s="20">
+        <v>1</v>
+      </c>
+      <c r="S15" t="s">
         <v>70</v>
       </c>
       <c r="T15">
@@ -4058,7 +4088,7 @@
       <c r="AE15" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF15" s="19">
+      <c r="AF15">
         <v>13843</v>
       </c>
       <c r="AG15" s="13">
@@ -4074,16 +4104,16 @@
       <c r="AJ15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AK15" s="19">
+      <c r="AK15">
         <v>125</v>
       </c>
       <c r="AL15">
         <v>1169</v>
       </c>
-      <c r="AM15" s="21">
+      <c r="AM15" s="20">
         <v>414</v>
       </c>
-      <c r="AN15" s="19">
+      <c r="AN15">
         <v>80</v>
       </c>
       <c r="AO15">
@@ -4092,10 +4122,10 @@
       <c r="AP15">
         <v>176</v>
       </c>
-      <c r="AQ15" s="21" t="s">
+      <c r="AQ15" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR15" s="19">
+      <c r="AR15">
         <v>8</v>
       </c>
       <c r="AS15">
@@ -4104,7 +4134,7 @@
       <c r="AT15">
         <v>104</v>
       </c>
-      <c r="AU15" s="21" t="s">
+      <c r="AU15" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV15">
@@ -4119,7 +4149,7 @@
         <f t="shared" si="4"/>
         <v>134</v>
       </c>
-      <c r="AY15" s="19" t="s">
+      <c r="AY15" t="s">
         <v>27</v>
       </c>
       <c r="AZ15" t="s">
@@ -4187,7 +4217,7 @@
       <c r="Q16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R16" s="23">
+      <c r="R16" s="22">
         <v>1</v>
       </c>
       <c r="S16" s="4" t="s">
@@ -4227,7 +4257,7 @@
       <c r="AD16" s="4">
         <v>8</v>
       </c>
-      <c r="AE16" s="31" t="s">
+      <c r="AE16" s="29" t="s">
         <v>100</v>
       </c>
       <c r="AF16" s="4">
@@ -4243,7 +4273,7 @@
       <c r="AI16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AJ16" s="31" t="s">
+      <c r="AJ16" s="29" t="s">
         <v>33</v>
       </c>
       <c r="AK16" s="4">
@@ -4252,7 +4282,7 @@
       <c r="AL16" s="4">
         <v>1169</v>
       </c>
-      <c r="AM16" s="23">
+      <c r="AM16" s="22">
         <v>414</v>
       </c>
       <c r="AN16" s="4">
@@ -4264,7 +4294,7 @@
       <c r="AP16" s="4">
         <v>176</v>
       </c>
-      <c r="AQ16" s="23" t="s">
+      <c r="AQ16" s="22" t="s">
         <v>48</v>
       </c>
       <c r="AR16" s="4">
@@ -4276,7 +4306,7 @@
       <c r="AT16" s="4">
         <v>112</v>
       </c>
-      <c r="AU16" s="23" t="s">
+      <c r="AU16" s="22" t="s">
         <v>48</v>
       </c>
       <c r="AV16" s="4">
@@ -4287,7 +4317,7 @@
         <f t="shared" si="3"/>
         <v>385</v>
       </c>
-      <c r="AX16" s="31">
+      <c r="AX16" s="29">
         <f t="shared" si="4"/>
         <v>126</v>
       </c>
@@ -4359,10 +4389,10 @@
       <c r="Q17" t="s">
         <v>8</v>
       </c>
-      <c r="R17" s="21">
-        <v>1</v>
-      </c>
-      <c r="S17" s="19" t="s">
+      <c r="R17" s="20">
+        <v>1</v>
+      </c>
+      <c r="S17" t="s">
         <v>70</v>
       </c>
       <c r="T17">
@@ -4402,7 +4432,7 @@
       <c r="AE17" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF17" s="19">
+      <c r="AF17">
         <v>10135</v>
       </c>
       <c r="AG17" s="13">
@@ -4418,16 +4448,16 @@
       <c r="AJ17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AK17" s="19">
+      <c r="AK17">
         <v>125</v>
       </c>
       <c r="AL17">
         <v>1169</v>
       </c>
-      <c r="AM17" s="21">
+      <c r="AM17" s="20">
         <v>414</v>
       </c>
-      <c r="AN17" s="19">
+      <c r="AN17">
         <v>64</v>
       </c>
       <c r="AO17">
@@ -4436,10 +4466,10 @@
       <c r="AP17">
         <v>160</v>
       </c>
-      <c r="AQ17" s="21" t="s">
+      <c r="AQ17" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR17" s="33">
+      <c r="AR17" s="3">
         <v>8</v>
       </c>
       <c r="AS17">
@@ -4448,7 +4478,7 @@
       <c r="AT17">
         <v>96</v>
       </c>
-      <c r="AU17" s="21" t="s">
+      <c r="AU17" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV17">
@@ -4463,7 +4493,7 @@
         <f t="shared" si="4"/>
         <v>158</v>
       </c>
-      <c r="AY17" s="19" t="s">
+      <c r="AY17" t="s">
         <v>66</v>
       </c>
       <c r="AZ17" t="s">
@@ -4531,10 +4561,10 @@
       <c r="Q18" t="s">
         <v>8</v>
       </c>
-      <c r="R18" s="21">
-        <v>1</v>
-      </c>
-      <c r="S18" s="19" t="s">
+      <c r="R18" s="20">
+        <v>1</v>
+      </c>
+      <c r="S18" t="s">
         <v>70</v>
       </c>
       <c r="T18">
@@ -4574,7 +4604,7 @@
       <c r="AE18" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF18" s="19">
+      <c r="AF18">
         <v>10135</v>
       </c>
       <c r="AG18" s="13">
@@ -4590,16 +4620,16 @@
       <c r="AJ18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AK18" s="19">
+      <c r="AK18">
         <v>125</v>
       </c>
       <c r="AL18">
         <v>1169</v>
       </c>
-      <c r="AM18" s="21">
+      <c r="AM18" s="20">
         <v>414</v>
       </c>
-      <c r="AN18" s="19">
+      <c r="AN18">
         <v>64</v>
       </c>
       <c r="AO18">
@@ -4608,10 +4638,10 @@
       <c r="AP18">
         <v>160</v>
       </c>
-      <c r="AQ18" s="21" t="s">
+      <c r="AQ18" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR18" s="19">
+      <c r="AR18">
         <v>24</v>
       </c>
       <c r="AS18">
@@ -4620,7 +4650,7 @@
       <c r="AT18">
         <v>120</v>
       </c>
-      <c r="AU18" s="21" t="s">
+      <c r="AU18" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV18">
@@ -4635,7 +4665,7 @@
         <f t="shared" si="4"/>
         <v>134</v>
       </c>
-      <c r="AY18" s="19" t="s">
+      <c r="AY18" t="s">
         <v>66</v>
       </c>
       <c r="AZ18" t="s">
@@ -4703,10 +4733,10 @@
       <c r="Q19" t="s">
         <v>8</v>
       </c>
-      <c r="R19" s="21">
-        <v>1</v>
-      </c>
-      <c r="S19" s="19" t="s">
+      <c r="R19" s="20">
+        <v>1</v>
+      </c>
+      <c r="S19" t="s">
         <v>70</v>
       </c>
       <c r="T19">
@@ -4746,7 +4776,7 @@
       <c r="AE19" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF19" s="19">
+      <c r="AF19">
         <v>10999</v>
       </c>
       <c r="AG19" s="13">
@@ -4762,16 +4792,16 @@
       <c r="AJ19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AK19" s="19">
+      <c r="AK19">
         <v>125</v>
       </c>
       <c r="AL19">
         <v>1169</v>
       </c>
-      <c r="AM19" s="21">
+      <c r="AM19" s="20">
         <v>414</v>
       </c>
-      <c r="AN19" s="19">
+      <c r="AN19">
         <v>64</v>
       </c>
       <c r="AO19">
@@ -4780,10 +4810,10 @@
       <c r="AP19">
         <v>176</v>
       </c>
-      <c r="AQ19" s="21" t="s">
+      <c r="AQ19" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR19" s="19">
+      <c r="AR19">
         <v>24</v>
       </c>
       <c r="AS19">
@@ -4792,7 +4822,7 @@
       <c r="AT19">
         <v>112</v>
       </c>
-      <c r="AU19" s="21" t="s">
+      <c r="AU19" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV19">
@@ -4807,7 +4837,7 @@
         <f t="shared" si="4"/>
         <v>126</v>
       </c>
-      <c r="AY19" s="19" t="s">
+      <c r="AY19" t="s">
         <v>66</v>
       </c>
       <c r="AZ19" t="s">
@@ -4875,10 +4905,10 @@
       <c r="Q20" t="s">
         <v>8</v>
       </c>
-      <c r="R20" s="21">
-        <v>1</v>
-      </c>
-      <c r="S20" s="19" t="s">
+      <c r="R20" s="20">
+        <v>1</v>
+      </c>
+      <c r="S20" t="s">
         <v>70</v>
       </c>
       <c r="T20">
@@ -4918,7 +4948,7 @@
       <c r="AE20" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF20" s="19">
+      <c r="AF20">
         <v>11843</v>
       </c>
       <c r="AG20" s="13">
@@ -4934,16 +4964,16 @@
       <c r="AJ20" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AK20" s="19">
+      <c r="AK20">
         <v>125</v>
       </c>
       <c r="AL20">
         <v>1169</v>
       </c>
-      <c r="AM20" s="21">
+      <c r="AM20" s="20">
         <v>414</v>
       </c>
-      <c r="AN20" s="19">
+      <c r="AN20">
         <v>64</v>
       </c>
       <c r="AO20">
@@ -4952,10 +4982,10 @@
       <c r="AP20">
         <v>192</v>
       </c>
-      <c r="AQ20" s="21" t="s">
+      <c r="AQ20" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR20" s="19">
+      <c r="AR20">
         <v>24</v>
       </c>
       <c r="AS20">
@@ -4964,7 +4994,7 @@
       <c r="AT20">
         <v>104</v>
       </c>
-      <c r="AU20" s="21" t="s">
+      <c r="AU20" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV20">
@@ -4979,7 +5009,7 @@
         <f t="shared" si="4"/>
         <v>118</v>
       </c>
-      <c r="AY20" s="19" t="s">
+      <c r="AY20" t="s">
         <v>66</v>
       </c>
       <c r="AZ20" t="s">
@@ -5047,10 +5077,10 @@
       <c r="Q21" t="s">
         <v>8</v>
       </c>
-      <c r="R21" s="21">
-        <v>1</v>
-      </c>
-      <c r="S21" s="19" t="s">
+      <c r="R21" s="20">
+        <v>1</v>
+      </c>
+      <c r="S21" t="s">
         <v>70</v>
       </c>
       <c r="T21">
@@ -5090,7 +5120,7 @@
       <c r="AE21" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF21" s="19">
+      <c r="AF21">
         <v>10473</v>
       </c>
       <c r="AG21" s="13">
@@ -5106,16 +5136,16 @@
       <c r="AJ21" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AK21" s="19">
+      <c r="AK21">
         <v>125</v>
       </c>
       <c r="AL21">
         <v>1169</v>
       </c>
-      <c r="AM21" s="21">
+      <c r="AM21" s="20">
         <v>414</v>
       </c>
-      <c r="AN21" s="19">
+      <c r="AN21">
         <v>64</v>
       </c>
       <c r="AO21">
@@ -5124,10 +5154,10 @@
       <c r="AP21">
         <v>160</v>
       </c>
-      <c r="AQ21" s="21" t="s">
+      <c r="AQ21" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR21" s="19">
+      <c r="AR21">
         <v>24</v>
       </c>
       <c r="AS21">
@@ -5136,7 +5166,7 @@
       <c r="AT21">
         <v>120</v>
       </c>
-      <c r="AU21" s="21" t="s">
+      <c r="AU21" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV21">
@@ -5151,7 +5181,7 @@
         <f t="shared" si="4"/>
         <v>134</v>
       </c>
-      <c r="AY21" s="19" t="s">
+      <c r="AY21" t="s">
         <v>66</v>
       </c>
       <c r="AZ21" t="s">
@@ -5219,10 +5249,10 @@
       <c r="Q22" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="21">
-        <v>1</v>
-      </c>
-      <c r="S22" s="19" t="s">
+      <c r="R22" s="20">
+        <v>1</v>
+      </c>
+      <c r="S22" t="s">
         <v>70</v>
       </c>
       <c r="T22">
@@ -5262,7 +5292,7 @@
       <c r="AE22" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF22" s="19">
+      <c r="AF22">
         <v>10825</v>
       </c>
       <c r="AG22" s="13">
@@ -5278,16 +5308,16 @@
       <c r="AJ22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AK22" s="19">
+      <c r="AK22">
         <v>125</v>
       </c>
       <c r="AL22">
         <v>1169</v>
       </c>
-      <c r="AM22" s="21">
+      <c r="AM22" s="20">
         <v>414</v>
       </c>
-      <c r="AN22" s="19">
+      <c r="AN22">
         <v>64</v>
       </c>
       <c r="AO22">
@@ -5296,10 +5326,10 @@
       <c r="AP22">
         <v>160</v>
       </c>
-      <c r="AQ22" s="21" t="s">
+      <c r="AQ22" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR22" s="19">
+      <c r="AR22">
         <v>24</v>
       </c>
       <c r="AS22">
@@ -5308,7 +5338,7 @@
       <c r="AT22">
         <v>120</v>
       </c>
-      <c r="AU22" s="21" t="s">
+      <c r="AU22" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV22">
@@ -5323,7 +5353,7 @@
         <f t="shared" si="4"/>
         <v>134</v>
       </c>
-      <c r="AY22" s="19" t="s">
+      <c r="AY22" t="s">
         <v>66</v>
       </c>
       <c r="AZ22" t="s">
@@ -5391,10 +5421,10 @@
       <c r="Q23" t="s">
         <v>8</v>
       </c>
-      <c r="R23" s="21">
-        <v>1</v>
-      </c>
-      <c r="S23" s="19" t="s">
+      <c r="R23" s="20">
+        <v>1</v>
+      </c>
+      <c r="S23" t="s">
         <v>70</v>
       </c>
       <c r="T23">
@@ -5434,7 +5464,7 @@
       <c r="AE23" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF23" s="19">
+      <c r="AF23">
         <v>12317</v>
       </c>
       <c r="AG23" s="13">
@@ -5450,16 +5480,16 @@
       <c r="AJ23" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AK23" s="19">
+      <c r="AK23">
         <v>125</v>
       </c>
       <c r="AL23">
         <v>1169</v>
       </c>
-      <c r="AM23" s="21">
+      <c r="AM23" s="20">
         <v>414</v>
       </c>
-      <c r="AN23" s="19">
+      <c r="AN23">
         <v>80</v>
       </c>
       <c r="AO23">
@@ -5468,10 +5498,10 @@
       <c r="AP23">
         <v>160</v>
       </c>
-      <c r="AQ23" s="21" t="s">
+      <c r="AQ23" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR23" s="19">
+      <c r="AR23">
         <v>16</v>
       </c>
       <c r="AS23">
@@ -5480,7 +5510,7 @@
       <c r="AT23">
         <v>120</v>
       </c>
-      <c r="AU23" s="21" t="s">
+      <c r="AU23" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV23">
@@ -5495,7 +5525,7 @@
         <f t="shared" si="4"/>
         <v>134</v>
       </c>
-      <c r="AY23" s="19" t="s">
+      <c r="AY23" t="s">
         <v>66</v>
       </c>
       <c r="AZ23" t="s">
@@ -5563,10 +5593,10 @@
       <c r="Q24" t="s">
         <v>8</v>
       </c>
-      <c r="R24" s="21">
-        <v>1</v>
-      </c>
-      <c r="S24" s="19" t="s">
+      <c r="R24" s="20">
+        <v>1</v>
+      </c>
+      <c r="S24" t="s">
         <v>70</v>
       </c>
       <c r="T24">
@@ -5606,7 +5636,7 @@
       <c r="AE24" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF24" s="19">
+      <c r="AF24">
         <v>14443</v>
       </c>
       <c r="AG24" s="13">
@@ -5622,16 +5652,16 @@
       <c r="AJ24" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AK24" s="19">
+      <c r="AK24">
         <v>125</v>
       </c>
       <c r="AL24">
         <v>1169</v>
       </c>
-      <c r="AM24" s="21">
+      <c r="AM24" s="20">
         <v>414</v>
       </c>
-      <c r="AN24" s="19">
+      <c r="AN24">
         <v>96</v>
       </c>
       <c r="AO24">
@@ -5640,10 +5670,10 @@
       <c r="AP24">
         <v>160</v>
       </c>
-      <c r="AQ24" s="21" t="s">
+      <c r="AQ24" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR24" s="19">
+      <c r="AR24">
         <v>8</v>
       </c>
       <c r="AS24">
@@ -5652,7 +5682,7 @@
       <c r="AT24">
         <v>120</v>
       </c>
-      <c r="AU24" s="21" t="s">
+      <c r="AU24" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV24">
@@ -5667,7 +5697,7 @@
         <f t="shared" si="4"/>
         <v>134</v>
       </c>
-      <c r="AY24" s="19" t="s">
+      <c r="AY24" t="s">
         <v>66</v>
       </c>
       <c r="AZ24" t="s">
@@ -5735,10 +5765,10 @@
       <c r="Q25" t="s">
         <v>8</v>
       </c>
-      <c r="R25" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="S25" s="19" t="s">
+      <c r="R25" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="S25" t="s">
         <v>8</v>
       </c>
       <c r="T25" t="s">
@@ -5777,7 +5807,7 @@
       <c r="AE25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AF25" s="19" t="s">
+      <c r="AF25" t="s">
         <v>8</v>
       </c>
       <c r="AG25" t="s">
@@ -5792,16 +5822,16 @@
       <c r="AJ25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AK25" s="19" t="s">
+      <c r="AK25" t="s">
         <v>8</v>
       </c>
       <c r="AL25" t="s">
         <v>8</v>
       </c>
-      <c r="AM25" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN25" s="19" t="s">
+      <c r="AM25" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN25" t="s">
         <v>8</v>
       </c>
       <c r="AO25" t="s">
@@ -5810,10 +5840,10 @@
       <c r="AP25" t="s">
         <v>8</v>
       </c>
-      <c r="AQ25" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR25" s="19" t="s">
+      <c r="AQ25" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR25" t="s">
         <v>8</v>
       </c>
       <c r="AS25" t="s">
@@ -5822,7 +5852,7 @@
       <c r="AT25" t="s">
         <v>8</v>
       </c>
-      <c r="AU25" s="21" t="s">
+      <c r="AU25" s="20" t="s">
         <v>8</v>
       </c>
       <c r="AV25" t="s">
@@ -5834,7 +5864,7 @@
       <c r="AX25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AY25" s="19" t="s">
+      <c r="AY25" t="s">
         <v>8</v>
       </c>
       <c r="AZ25" t="s">
@@ -5902,7 +5932,7 @@
       <c r="Q26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R26" s="23" t="s">
+      <c r="R26" s="22" t="s">
         <v>8</v>
       </c>
       <c r="S26" s="4" t="s">
@@ -5941,7 +5971,7 @@
       <c r="AD26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AE26" s="31" t="s">
+      <c r="AE26" s="29" t="s">
         <v>8</v>
       </c>
       <c r="AF26" s="4" t="s">
@@ -5956,7 +5986,7 @@
       <c r="AI26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AJ26" s="31" t="s">
+      <c r="AJ26" s="29" t="s">
         <v>8</v>
       </c>
       <c r="AK26" s="4" t="s">
@@ -5965,7 +5995,7 @@
       <c r="AL26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AM26" s="23" t="s">
+      <c r="AM26" s="22" t="s">
         <v>8</v>
       </c>
       <c r="AN26" s="4" t="s">
@@ -5977,7 +6007,7 @@
       <c r="AP26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AQ26" s="23" t="s">
+      <c r="AQ26" s="22" t="s">
         <v>8</v>
       </c>
       <c r="AR26" s="4" t="s">
@@ -5989,7 +6019,7 @@
       <c r="AT26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AU26" s="23" t="s">
+      <c r="AU26" s="22" t="s">
         <v>8</v>
       </c>
       <c r="AV26" s="4" t="s">
@@ -5998,7 +6028,7 @@
       <c r="AW26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AX26" s="31" t="s">
+      <c r="AX26" s="29" t="s">
         <v>8</v>
       </c>
       <c r="AY26" s="4" t="s">
@@ -6069,10 +6099,10 @@
       <c r="Q27" t="s">
         <v>8</v>
       </c>
-      <c r="R27" s="21">
-        <v>0</v>
-      </c>
-      <c r="S27" s="19" t="s">
+      <c r="R27" s="20">
+        <v>0</v>
+      </c>
+      <c r="S27" t="s">
         <v>70</v>
       </c>
       <c r="T27">
@@ -6112,7 +6142,7 @@
       <c r="AE27" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF27" s="27">
+      <c r="AF27" s="13">
         <v>80545</v>
       </c>
       <c r="AG27" s="13">
@@ -6129,16 +6159,16 @@
       <c r="AJ27" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK27" s="19">
+      <c r="AK27">
         <v>125</v>
       </c>
       <c r="AL27">
         <v>1169</v>
       </c>
-      <c r="AM27" s="21">
+      <c r="AM27" s="20">
         <v>414</v>
       </c>
-      <c r="AN27" s="19">
+      <c r="AN27">
         <v>112</v>
       </c>
       <c r="AO27">
@@ -6147,10 +6177,10 @@
       <c r="AP27">
         <v>400</v>
       </c>
-      <c r="AQ27" s="21" t="s">
+      <c r="AQ27" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR27" s="19">
+      <c r="AR27">
         <f t="shared" ref="AR27:AR34" si="8" xml:space="preserve"> _xlfn.FLOOR.MATH((AK27 - AN27) / 2)</f>
         <v>6</v>
       </c>
@@ -6162,7 +6192,7 @@
         <f t="shared" ref="AT27" si="10" xml:space="preserve"> _xlfn.FLOOR.MATH((AM27 - AP27) / 2)</f>
         <v>7</v>
       </c>
-      <c r="AU27" s="21" t="s">
+      <c r="AU27" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV27">
@@ -6177,7 +6207,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="AY27" s="19" t="s">
+      <c r="AY27" t="s">
         <v>66</v>
       </c>
       <c r="AZ27" t="s">
@@ -6245,10 +6275,10 @@
       <c r="Q28" t="s">
         <v>8</v>
       </c>
-      <c r="R28" s="21">
-        <v>0</v>
-      </c>
-      <c r="S28" s="19" t="s">
+      <c r="R28" s="20">
+        <v>0</v>
+      </c>
+      <c r="S28" t="s">
         <v>70</v>
       </c>
       <c r="T28">
@@ -6288,7 +6318,7 @@
       <c r="AE28" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF28" s="27">
+      <c r="AF28" s="13">
         <v>-1</v>
       </c>
       <c r="AG28" s="13">
@@ -6304,16 +6334,16 @@
       <c r="AJ28" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK28" s="19">
+      <c r="AK28">
         <v>125</v>
       </c>
       <c r="AL28">
         <v>1169</v>
       </c>
-      <c r="AM28" s="21">
+      <c r="AM28" s="20">
         <v>414</v>
       </c>
-      <c r="AN28" s="19">
+      <c r="AN28">
         <v>112</v>
       </c>
       <c r="AO28">
@@ -6322,10 +6352,10 @@
       <c r="AP28">
         <v>400</v>
       </c>
-      <c r="AQ28" s="21" t="s">
+      <c r="AQ28" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR28" s="19">
+      <c r="AR28">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
@@ -6337,7 +6367,7 @@
         <f t="shared" ref="AT28" si="13" xml:space="preserve"> _xlfn.FLOOR.MATH((AM28 - AP28) / 2)</f>
         <v>7</v>
       </c>
-      <c r="AU28" s="21" t="s">
+      <c r="AU28" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV28">
@@ -6352,7 +6382,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="AY28" s="19" t="s">
+      <c r="AY28" t="s">
         <v>66</v>
       </c>
       <c r="AZ28" t="s">
@@ -6420,10 +6450,10 @@
       <c r="Q29" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="21">
-        <v>1</v>
-      </c>
-      <c r="S29" s="19" t="s">
+      <c r="R29" s="20">
+        <v>1</v>
+      </c>
+      <c r="S29" t="s">
         <v>70</v>
       </c>
       <c r="T29">
@@ -6463,7 +6493,7 @@
       <c r="AE29" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF29" s="27">
+      <c r="AF29" s="13">
         <v>78019</v>
       </c>
       <c r="AG29" s="13">
@@ -6480,16 +6510,16 @@
       <c r="AJ29" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK29" s="19">
+      <c r="AK29">
         <v>125</v>
       </c>
       <c r="AL29">
         <v>1169</v>
       </c>
-      <c r="AM29" s="21">
+      <c r="AM29" s="20">
         <v>414</v>
       </c>
-      <c r="AN29" s="19">
+      <c r="AN29">
         <v>112</v>
       </c>
       <c r="AO29">
@@ -6498,10 +6528,10 @@
       <c r="AP29">
         <v>400</v>
       </c>
-      <c r="AQ29" s="21" t="s">
+      <c r="AQ29" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR29" s="19">
+      <c r="AR29">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
@@ -6513,7 +6543,7 @@
         <f t="shared" ref="AT29" si="15" xml:space="preserve"> _xlfn.FLOOR.MATH((AM29 - AP29) / 2)</f>
         <v>7</v>
       </c>
-      <c r="AU29" s="21" t="s">
+      <c r="AU29" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV29">
@@ -6528,7 +6558,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="AY29" s="19" t="s">
+      <c r="AY29" t="s">
         <v>168</v>
       </c>
       <c r="AZ29" t="s">
@@ -6596,10 +6626,10 @@
       <c r="Q30" t="s">
         <v>8</v>
       </c>
-      <c r="R30" s="21">
-        <v>1</v>
-      </c>
-      <c r="S30" s="19" t="s">
+      <c r="R30" s="20">
+        <v>1</v>
+      </c>
+      <c r="S30" t="s">
         <v>70</v>
       </c>
       <c r="T30">
@@ -6639,7 +6669,7 @@
       <c r="AE30" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF30" s="27">
+      <c r="AF30" s="13">
         <v>78019</v>
       </c>
       <c r="AG30" s="13">
@@ -6656,16 +6686,16 @@
       <c r="AJ30" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK30" s="19">
+      <c r="AK30">
         <v>125</v>
       </c>
       <c r="AL30">
         <v>1169</v>
       </c>
-      <c r="AM30" s="21">
+      <c r="AM30" s="20">
         <v>414</v>
       </c>
-      <c r="AN30" s="19">
+      <c r="AN30">
         <v>112</v>
       </c>
       <c r="AO30">
@@ -6674,10 +6704,10 @@
       <c r="AP30">
         <v>400</v>
       </c>
-      <c r="AQ30" s="21" t="s">
+      <c r="AQ30" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR30" s="19">
+      <c r="AR30">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
@@ -6689,7 +6719,7 @@
         <f t="shared" ref="AT30:AT34" si="17" xml:space="preserve"> _xlfn.FLOOR.MATH((AM30 - AP30) / 2)</f>
         <v>7</v>
       </c>
-      <c r="AU30" s="21" t="s">
+      <c r="AU30" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV30">
@@ -6704,7 +6734,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="AY30" s="19" t="s">
+      <c r="AY30" t="s">
         <v>168</v>
       </c>
       <c r="AZ30" t="s">
@@ -6772,10 +6802,10 @@
       <c r="Q31" t="s">
         <v>8</v>
       </c>
-      <c r="R31" s="21">
-        <v>1</v>
-      </c>
-      <c r="S31" s="19" t="s">
+      <c r="R31" s="20">
+        <v>1</v>
+      </c>
+      <c r="S31" t="s">
         <v>70</v>
       </c>
       <c r="T31">
@@ -6815,7 +6845,7 @@
       <c r="AE31" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF31" s="27">
+      <c r="AF31" s="13">
         <v>78019</v>
       </c>
       <c r="AG31" s="13">
@@ -6832,16 +6862,16 @@
       <c r="AJ31" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK31" s="19">
+      <c r="AK31">
         <v>125</v>
       </c>
       <c r="AL31">
         <v>1169</v>
       </c>
-      <c r="AM31" s="21">
+      <c r="AM31" s="20">
         <v>414</v>
       </c>
-      <c r="AN31" s="19">
+      <c r="AN31">
         <v>112</v>
       </c>
       <c r="AO31">
@@ -6850,10 +6880,10 @@
       <c r="AP31">
         <v>400</v>
       </c>
-      <c r="AQ31" s="21" t="s">
+      <c r="AQ31" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR31" s="19">
+      <c r="AR31">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
@@ -6865,7 +6895,7 @@
         <f t="shared" si="17"/>
         <v>7</v>
       </c>
-      <c r="AU31" s="21" t="s">
+      <c r="AU31" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV31">
@@ -6880,7 +6910,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="AY31" s="19" t="s">
+      <c r="AY31" t="s">
         <v>168</v>
       </c>
       <c r="AZ31" t="s">
@@ -6948,10 +6978,10 @@
       <c r="Q32" t="s">
         <v>8</v>
       </c>
-      <c r="R32" s="21">
-        <v>0</v>
-      </c>
-      <c r="S32" s="19" t="s">
+      <c r="R32" s="20">
+        <v>0</v>
+      </c>
+      <c r="S32" t="s">
         <v>70</v>
       </c>
       <c r="T32">
@@ -6991,7 +7021,7 @@
       <c r="AE32" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF32" s="27" t="s">
+      <c r="AF32" s="13" t="s">
         <v>8</v>
       </c>
       <c r="AG32" s="13" t="s">
@@ -7007,16 +7037,16 @@
       <c r="AJ32" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK32" s="19">
+      <c r="AK32">
         <v>125</v>
       </c>
       <c r="AL32">
         <v>1169</v>
       </c>
-      <c r="AM32" s="21">
+      <c r="AM32" s="20">
         <v>414</v>
       </c>
-      <c r="AN32" s="19">
+      <c r="AN32">
         <v>112</v>
       </c>
       <c r="AO32">
@@ -7025,10 +7055,10 @@
       <c r="AP32">
         <v>400</v>
       </c>
-      <c r="AQ32" s="21" t="s">
+      <c r="AQ32" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR32" s="19">
+      <c r="AR32">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
@@ -7040,7 +7070,7 @@
         <f t="shared" si="17"/>
         <v>7</v>
       </c>
-      <c r="AU32" s="21" t="s">
+      <c r="AU32" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV32">
@@ -7055,7 +7085,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="AY32" s="19" t="s">
+      <c r="AY32" t="s">
         <v>168</v>
       </c>
       <c r="AZ32" t="s">
@@ -7123,10 +7153,10 @@
       <c r="Q33" t="s">
         <v>8</v>
       </c>
-      <c r="R33" s="21">
-        <v>0</v>
-      </c>
-      <c r="S33" s="19" t="s">
+      <c r="R33" s="20">
+        <v>0</v>
+      </c>
+      <c r="S33" t="s">
         <v>167</v>
       </c>
       <c r="T33">
@@ -7166,7 +7196,7 @@
       <c r="AE33" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF33" s="19" t="s">
+      <c r="AF33" t="s">
         <v>8</v>
       </c>
       <c r="AG33" s="13" t="s">
@@ -7182,16 +7212,16 @@
       <c r="AJ33" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK33" s="19">
+      <c r="AK33">
         <v>125</v>
       </c>
       <c r="AL33">
         <v>1169</v>
       </c>
-      <c r="AM33" s="21">
+      <c r="AM33" s="20">
         <v>414</v>
       </c>
-      <c r="AN33" s="19">
+      <c r="AN33">
         <v>112</v>
       </c>
       <c r="AO33">
@@ -7200,10 +7230,10 @@
       <c r="AP33">
         <v>400</v>
       </c>
-      <c r="AQ33" s="21" t="s">
+      <c r="AQ33" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR33" s="19">
+      <c r="AR33">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
@@ -7215,7 +7245,7 @@
         <f t="shared" si="17"/>
         <v>7</v>
       </c>
-      <c r="AU33" s="21" t="s">
+      <c r="AU33" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV33">
@@ -7230,7 +7260,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="AY33" s="19" t="s">
+      <c r="AY33" t="s">
         <v>168</v>
       </c>
       <c r="AZ33" t="s">
@@ -7298,10 +7328,10 @@
       <c r="Q34" t="s">
         <v>8</v>
       </c>
-      <c r="R34" s="21">
-        <v>0</v>
-      </c>
-      <c r="S34" s="19" t="s">
+      <c r="R34" s="20">
+        <v>0</v>
+      </c>
+      <c r="S34" t="s">
         <v>167</v>
       </c>
       <c r="T34">
@@ -7341,7 +7371,7 @@
       <c r="AE34" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF34" s="19" t="s">
+      <c r="AF34" t="s">
         <v>8</v>
       </c>
       <c r="AG34" t="s">
@@ -7357,16 +7387,16 @@
       <c r="AJ34" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK34" s="19">
+      <c r="AK34">
         <v>125</v>
       </c>
       <c r="AL34">
         <v>1169</v>
       </c>
-      <c r="AM34" s="21">
+      <c r="AM34" s="20">
         <v>414</v>
       </c>
-      <c r="AN34" s="19">
+      <c r="AN34">
         <v>96</v>
       </c>
       <c r="AO34">
@@ -7375,10 +7405,10 @@
       <c r="AP34">
         <v>384</v>
       </c>
-      <c r="AQ34" s="21" t="s">
+      <c r="AQ34" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR34" s="19">
+      <c r="AR34">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
@@ -7390,7 +7420,7 @@
         <f t="shared" si="17"/>
         <v>15</v>
       </c>
-      <c r="AU34" s="21" t="s">
+      <c r="AU34" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV34">
@@ -7405,7 +7435,7 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="AY34" s="19" t="s">
+      <c r="AY34" t="s">
         <v>168</v>
       </c>
       <c r="AZ34" t="s">
@@ -7473,10 +7503,10 @@
       <c r="Q35" t="s">
         <v>8</v>
       </c>
-      <c r="R35" s="21">
-        <v>0</v>
-      </c>
-      <c r="S35" s="19" t="s">
+      <c r="R35" s="20">
+        <v>0</v>
+      </c>
+      <c r="S35" t="s">
         <v>167</v>
       </c>
       <c r="T35">
@@ -7516,7 +7546,7 @@
       <c r="AE35" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF35" s="19" t="s">
+      <c r="AF35" t="s">
         <v>8</v>
       </c>
       <c r="AG35" t="s">
@@ -7532,16 +7562,16 @@
       <c r="AJ35" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK35" s="19">
+      <c r="AK35">
         <v>125</v>
       </c>
       <c r="AL35">
         <v>1169</v>
       </c>
-      <c r="AM35" s="21">
+      <c r="AM35" s="20">
         <v>414</v>
       </c>
-      <c r="AN35" s="19">
+      <c r="AN35">
         <v>98</v>
       </c>
       <c r="AO35">
@@ -7550,10 +7580,10 @@
       <c r="AP35">
         <v>384</v>
       </c>
-      <c r="AQ35" s="21" t="s">
+      <c r="AQ35" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR35" s="19">
+      <c r="AR35">
         <f t="shared" ref="AR35" si="20" xml:space="preserve"> _xlfn.FLOOR.MATH((AK35 - AN35) / 2)</f>
         <v>13</v>
       </c>
@@ -7565,7 +7595,7 @@
         <f t="shared" ref="AT35" si="22" xml:space="preserve"> _xlfn.FLOOR.MATH((AM35 - AP35) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AU35" s="21" t="s">
+      <c r="AU35" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV35">
@@ -7580,7 +7610,7 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="AY35" s="19" t="s">
+      <c r="AY35" t="s">
         <v>168</v>
       </c>
       <c r="AZ35" t="s">
@@ -7648,10 +7678,10 @@
       <c r="Q36" t="s">
         <v>8</v>
       </c>
-      <c r="R36" s="21">
-        <v>0</v>
-      </c>
-      <c r="S36" s="19" t="s">
+      <c r="R36" s="20">
+        <v>0</v>
+      </c>
+      <c r="S36" t="s">
         <v>167</v>
       </c>
       <c r="T36">
@@ -7691,7 +7721,7 @@
       <c r="AE36" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF36" s="19" t="s">
+      <c r="AF36" t="s">
         <v>8</v>
       </c>
       <c r="AG36" t="s">
@@ -7707,16 +7737,16 @@
       <c r="AJ36" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK36" s="19">
+      <c r="AK36">
         <v>125</v>
       </c>
       <c r="AL36">
         <v>1169</v>
       </c>
-      <c r="AM36" s="21">
+      <c r="AM36" s="20">
         <v>414</v>
       </c>
-      <c r="AN36" s="19">
+      <c r="AN36">
         <v>98</v>
       </c>
       <c r="AO36">
@@ -7725,10 +7755,10 @@
       <c r="AP36">
         <v>384</v>
       </c>
-      <c r="AQ36" s="21" t="s">
+      <c r="AQ36" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR36" s="19">
+      <c r="AR36">
         <f t="shared" ref="AR36" si="24" xml:space="preserve"> _xlfn.FLOOR.MATH((AK36 - AN36) / 2)</f>
         <v>13</v>
       </c>
@@ -7740,7 +7770,7 @@
         <f t="shared" ref="AT36" si="26" xml:space="preserve"> _xlfn.FLOOR.MATH((AM36 - AP36) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AU36" s="21" t="s">
+      <c r="AU36" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV36">
@@ -7755,7 +7785,7 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="AY36" s="19" t="s">
+      <c r="AY36" t="s">
         <v>168</v>
       </c>
       <c r="AZ36" t="s">
@@ -7823,10 +7853,10 @@
       <c r="Q37" t="s">
         <v>8</v>
       </c>
-      <c r="R37" s="21">
-        <v>0</v>
-      </c>
-      <c r="S37" s="19" t="s">
+      <c r="R37" s="20">
+        <v>0</v>
+      </c>
+      <c r="S37" t="s">
         <v>167</v>
       </c>
       <c r="T37">
@@ -7866,7 +7896,7 @@
       <c r="AE37" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF37" s="19" t="s">
+      <c r="AF37" t="s">
         <v>8</v>
       </c>
       <c r="AG37" t="s">
@@ -7882,16 +7912,16 @@
       <c r="AJ37" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK37" s="19">
+      <c r="AK37">
         <v>125</v>
       </c>
       <c r="AL37">
         <v>1169</v>
       </c>
-      <c r="AM37" s="21">
+      <c r="AM37" s="20">
         <v>414</v>
       </c>
-      <c r="AN37" s="19">
+      <c r="AN37">
         <v>96</v>
       </c>
       <c r="AO37">
@@ -7900,10 +7930,10 @@
       <c r="AP37">
         <v>384</v>
       </c>
-      <c r="AQ37" s="21" t="s">
+      <c r="AQ37" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR37" s="19">
+      <c r="AR37">
         <f t="shared" ref="AR37" si="28" xml:space="preserve"> _xlfn.FLOOR.MATH((AK37 - AN37) / 2)</f>
         <v>14</v>
       </c>
@@ -7915,7 +7945,7 @@
         <f t="shared" ref="AT37" si="30" xml:space="preserve"> _xlfn.FLOOR.MATH((AM37 - AP37) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AU37" s="21" t="s">
+      <c r="AU37" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV37">
@@ -7930,7 +7960,7 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="AY37" s="19" t="s">
+      <c r="AY37" t="s">
         <v>168</v>
       </c>
       <c r="AZ37" t="s">
@@ -7998,10 +8028,10 @@
       <c r="Q38" t="s">
         <v>8</v>
       </c>
-      <c r="R38" s="21">
-        <v>0</v>
-      </c>
-      <c r="S38" s="19" t="s">
+      <c r="R38" s="20">
+        <v>0</v>
+      </c>
+      <c r="S38" t="s">
         <v>167</v>
       </c>
       <c r="T38">
@@ -8041,7 +8071,7 @@
       <c r="AE38" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF38" s="19" t="s">
+      <c r="AF38" t="s">
         <v>8</v>
       </c>
       <c r="AG38" t="s">
@@ -8057,16 +8087,16 @@
       <c r="AJ38" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK38" s="19">
+      <c r="AK38">
         <v>125</v>
       </c>
       <c r="AL38">
         <v>1169</v>
       </c>
-      <c r="AM38" s="21">
+      <c r="AM38" s="20">
         <v>414</v>
       </c>
-      <c r="AN38" s="19">
+      <c r="AN38">
         <v>96</v>
       </c>
       <c r="AO38">
@@ -8075,10 +8105,10 @@
       <c r="AP38">
         <v>384</v>
       </c>
-      <c r="AQ38" s="21" t="s">
+      <c r="AQ38" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR38" s="19">
+      <c r="AR38">
         <f t="shared" ref="AR38" si="32" xml:space="preserve"> _xlfn.FLOOR.MATH((AK38 - AN38) / 2)</f>
         <v>14</v>
       </c>
@@ -8090,7 +8120,7 @@
         <f t="shared" ref="AT38" si="34" xml:space="preserve"> _xlfn.FLOOR.MATH((AM38 - AP38) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AU38" s="21" t="s">
+      <c r="AU38" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV38">
@@ -8105,7 +8135,7 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="AY38" s="19" t="s">
+      <c r="AY38" t="s">
         <v>168</v>
       </c>
       <c r="AZ38" t="s">
@@ -8173,10 +8203,10 @@
       <c r="Q39" t="s">
         <v>8</v>
       </c>
-      <c r="R39" s="21">
-        <v>0</v>
-      </c>
-      <c r="S39" s="19" t="s">
+      <c r="R39" s="20">
+        <v>0</v>
+      </c>
+      <c r="S39" t="s">
         <v>167</v>
       </c>
       <c r="T39">
@@ -8216,7 +8246,7 @@
       <c r="AE39" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF39" s="19" t="s">
+      <c r="AF39" t="s">
         <v>8</v>
       </c>
       <c r="AG39" t="s">
@@ -8232,16 +8262,16 @@
       <c r="AJ39" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK39" s="19">
+      <c r="AK39">
         <v>125</v>
       </c>
       <c r="AL39">
         <v>1169</v>
       </c>
-      <c r="AM39" s="21">
+      <c r="AM39" s="20">
         <v>414</v>
       </c>
-      <c r="AN39" s="19">
+      <c r="AN39">
         <v>96</v>
       </c>
       <c r="AO39">
@@ -8250,10 +8280,10 @@
       <c r="AP39">
         <v>384</v>
       </c>
-      <c r="AQ39" s="21" t="s">
+      <c r="AQ39" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR39" s="19">
+      <c r="AR39">
         <f t="shared" ref="AR39" si="36" xml:space="preserve"> _xlfn.FLOOR.MATH((AK39 - AN39) / 2)</f>
         <v>14</v>
       </c>
@@ -8265,7 +8295,7 @@
         <f t="shared" ref="AT39" si="38" xml:space="preserve"> _xlfn.FLOOR.MATH((AM39 - AP39) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AU39" s="21" t="s">
+      <c r="AU39" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV39">
@@ -8280,7 +8310,7 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="AY39" s="19" t="s">
+      <c r="AY39" t="s">
         <v>168</v>
       </c>
       <c r="AZ39" t="s">
@@ -8348,10 +8378,10 @@
       <c r="Q40" t="s">
         <v>8</v>
       </c>
-      <c r="R40" s="21">
-        <v>0</v>
-      </c>
-      <c r="S40" s="19" t="s">
+      <c r="R40" s="20">
+        <v>0</v>
+      </c>
+      <c r="S40" t="s">
         <v>167</v>
       </c>
       <c r="T40">
@@ -8391,7 +8421,7 @@
       <c r="AE40" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF40" s="19" t="s">
+      <c r="AF40" t="s">
         <v>8</v>
       </c>
       <c r="AG40" t="s">
@@ -8407,16 +8437,16 @@
       <c r="AJ40" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK40" s="19">
+      <c r="AK40">
         <v>125</v>
       </c>
       <c r="AL40">
         <v>1169</v>
       </c>
-      <c r="AM40" s="21">
+      <c r="AM40" s="20">
         <v>414</v>
       </c>
-      <c r="AN40" s="19">
+      <c r="AN40">
         <v>96</v>
       </c>
       <c r="AO40">
@@ -8425,10 +8455,10 @@
       <c r="AP40">
         <v>384</v>
       </c>
-      <c r="AQ40" s="21" t="s">
+      <c r="AQ40" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR40" s="19">
+      <c r="AR40">
         <f t="shared" ref="AR40" si="40" xml:space="preserve"> _xlfn.FLOOR.MATH((AK40 - AN40) / 2)</f>
         <v>14</v>
       </c>
@@ -8440,7 +8470,7 @@
         <f t="shared" ref="AT40" si="42" xml:space="preserve"> _xlfn.FLOOR.MATH((AM40 - AP40) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AU40" s="21" t="s">
+      <c r="AU40" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV40">
@@ -8455,7 +8485,7 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="AY40" s="19" t="s">
+      <c r="AY40" t="s">
         <v>168</v>
       </c>
       <c r="AZ40" t="s">
@@ -8523,10 +8553,10 @@
       <c r="Q41" t="s">
         <v>8</v>
       </c>
-      <c r="R41" s="21">
-        <v>0</v>
-      </c>
-      <c r="S41" s="19" t="s">
+      <c r="R41" s="20">
+        <v>0</v>
+      </c>
+      <c r="S41" t="s">
         <v>167</v>
       </c>
       <c r="T41">
@@ -8566,7 +8596,7 @@
       <c r="AE41" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF41" s="19" t="s">
+      <c r="AF41" t="s">
         <v>8</v>
       </c>
       <c r="AG41" t="s">
@@ -8582,16 +8612,16 @@
       <c r="AJ41" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK41" s="19">
+      <c r="AK41">
         <v>125</v>
       </c>
       <c r="AL41">
         <v>1169</v>
       </c>
-      <c r="AM41" s="21">
+      <c r="AM41" s="20">
         <v>414</v>
       </c>
-      <c r="AN41" s="19">
+      <c r="AN41">
         <v>96</v>
       </c>
       <c r="AO41">
@@ -8600,10 +8630,10 @@
       <c r="AP41">
         <v>384</v>
       </c>
-      <c r="AQ41" s="21" t="s">
+      <c r="AQ41" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR41" s="19">
+      <c r="AR41">
         <f t="shared" ref="AR41" si="44" xml:space="preserve"> _xlfn.FLOOR.MATH((AK41 - AN41) / 2)</f>
         <v>14</v>
       </c>
@@ -8615,7 +8645,7 @@
         <f t="shared" ref="AT41" si="46" xml:space="preserve"> _xlfn.FLOOR.MATH((AM41 - AP41) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AU41" s="21" t="s">
+      <c r="AU41" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV41">
@@ -8630,7 +8660,7 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="AY41" s="19" t="s">
+      <c r="AY41" t="s">
         <v>168</v>
       </c>
       <c r="AZ41" t="s">
@@ -8698,10 +8728,10 @@
       <c r="Q42" t="s">
         <v>8</v>
       </c>
-      <c r="R42" s="21">
-        <v>0</v>
-      </c>
-      <c r="S42" s="19" t="s">
+      <c r="R42" s="20">
+        <v>0</v>
+      </c>
+      <c r="S42" t="s">
         <v>167</v>
       </c>
       <c r="T42">
@@ -8741,7 +8771,7 @@
       <c r="AE42" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF42" s="19" t="s">
+      <c r="AF42" t="s">
         <v>8</v>
       </c>
       <c r="AG42" t="s">
@@ -8757,16 +8787,16 @@
       <c r="AJ42" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK42" s="19">
+      <c r="AK42">
         <v>125</v>
       </c>
       <c r="AL42">
         <v>1169</v>
       </c>
-      <c r="AM42" s="21">
+      <c r="AM42" s="20">
         <v>414</v>
       </c>
-      <c r="AN42" s="19">
+      <c r="AN42">
         <v>96</v>
       </c>
       <c r="AO42">
@@ -8775,10 +8805,10 @@
       <c r="AP42">
         <v>384</v>
       </c>
-      <c r="AQ42" s="21" t="s">
+      <c r="AQ42" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR42" s="19">
+      <c r="AR42">
         <f t="shared" ref="AR42" si="48" xml:space="preserve"> _xlfn.FLOOR.MATH((AK42 - AN42) / 2)</f>
         <v>14</v>
       </c>
@@ -8790,7 +8820,7 @@
         <f t="shared" ref="AT42" si="50" xml:space="preserve"> _xlfn.FLOOR.MATH((AM42 - AP42) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AU42" s="21" t="s">
+      <c r="AU42" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV42">
@@ -8805,7 +8835,7 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="AY42" s="19" t="s">
+      <c r="AY42" t="s">
         <v>168</v>
       </c>
       <c r="AZ42" t="s">
@@ -8873,10 +8903,10 @@
       <c r="Q43" t="s">
         <v>8</v>
       </c>
-      <c r="R43" s="21">
-        <v>0</v>
-      </c>
-      <c r="S43" s="19" t="s">
+      <c r="R43" s="20">
+        <v>0</v>
+      </c>
+      <c r="S43" t="s">
         <v>167</v>
       </c>
       <c r="T43">
@@ -8916,7 +8946,7 @@
       <c r="AE43" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF43" s="19" t="s">
+      <c r="AF43" t="s">
         <v>8</v>
       </c>
       <c r="AG43" t="s">
@@ -8932,16 +8962,16 @@
       <c r="AJ43" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK43" s="19">
+      <c r="AK43">
         <v>125</v>
       </c>
       <c r="AL43">
         <v>1169</v>
       </c>
-      <c r="AM43" s="21">
+      <c r="AM43" s="20">
         <v>414</v>
       </c>
-      <c r="AN43" s="19">
+      <c r="AN43">
         <v>96</v>
       </c>
       <c r="AO43">
@@ -8950,10 +8980,10 @@
       <c r="AP43">
         <v>384</v>
       </c>
-      <c r="AQ43" s="21" t="s">
+      <c r="AQ43" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR43" s="19">
+      <c r="AR43">
         <f t="shared" ref="AR43" si="52" xml:space="preserve"> _xlfn.FLOOR.MATH((AK43 - AN43) / 2)</f>
         <v>14</v>
       </c>
@@ -8965,7 +8995,7 @@
         <f t="shared" ref="AT43" si="54" xml:space="preserve"> _xlfn.FLOOR.MATH((AM43 - AP43) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AU43" s="21" t="s">
+      <c r="AU43" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV43">
@@ -8980,7 +9010,7 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="AY43" s="19" t="s">
+      <c r="AY43" t="s">
         <v>168</v>
       </c>
       <c r="AZ43" t="s">
@@ -9048,10 +9078,10 @@
       <c r="Q44" t="s">
         <v>8</v>
       </c>
-      <c r="R44" s="21">
-        <v>1</v>
-      </c>
-      <c r="S44" s="19" t="s">
+      <c r="R44" s="20">
+        <v>1</v>
+      </c>
+      <c r="S44" t="s">
         <v>167</v>
       </c>
       <c r="T44">
@@ -9091,7 +9121,7 @@
       <c r="AE44" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF44" s="19">
+      <c r="AF44">
         <v>74967</v>
       </c>
       <c r="AG44">
@@ -9108,16 +9138,16 @@
       <c r="AJ44" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK44" s="19">
+      <c r="AK44">
         <v>125</v>
       </c>
       <c r="AL44">
         <v>1169</v>
       </c>
-      <c r="AM44" s="21">
+      <c r="AM44" s="20">
         <v>414</v>
       </c>
-      <c r="AN44" s="19">
+      <c r="AN44">
         <v>96</v>
       </c>
       <c r="AO44">
@@ -9126,10 +9156,10 @@
       <c r="AP44">
         <v>384</v>
       </c>
-      <c r="AQ44" s="21" t="s">
+      <c r="AQ44" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR44" s="19">
+      <c r="AR44">
         <f t="shared" ref="AR44" si="57" xml:space="preserve"> _xlfn.FLOOR.MATH((AK44 - AN44) / 2)</f>
         <v>14</v>
       </c>
@@ -9141,7 +9171,7 @@
         <f t="shared" ref="AT44" si="59" xml:space="preserve"> _xlfn.FLOOR.MATH((AM44 - AP44) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AU44" s="21" t="s">
+      <c r="AU44" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV44">
@@ -9156,7 +9186,7 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="AY44" s="19" t="s">
+      <c r="AY44" t="s">
         <v>168</v>
       </c>
       <c r="AZ44" t="s">
@@ -9224,7 +9254,7 @@
       <c r="Q45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R45" s="23">
+      <c r="R45" s="22">
         <v>1</v>
       </c>
       <c r="S45" s="4" t="s">
@@ -9264,7 +9294,7 @@
       <c r="AD45" s="4">
         <v>8</v>
       </c>
-      <c r="AE45" s="31" t="s">
+      <c r="AE45" s="29" t="s">
         <v>100</v>
       </c>
       <c r="AF45" s="4">
@@ -9281,7 +9311,7 @@
         <f t="shared" si="18"/>
         <v>74549.706201272784</v>
       </c>
-      <c r="AJ45" s="31" t="s">
+      <c r="AJ45" s="29" t="s">
         <v>109</v>
       </c>
       <c r="AK45" s="4">
@@ -9290,7 +9320,7 @@
       <c r="AL45" s="4">
         <v>1169</v>
       </c>
-      <c r="AM45" s="23">
+      <c r="AM45" s="22">
         <v>414</v>
       </c>
       <c r="AN45" s="4">
@@ -9302,7 +9332,7 @@
       <c r="AP45" s="4">
         <v>384</v>
       </c>
-      <c r="AQ45" s="23" t="s">
+      <c r="AQ45" s="22" t="s">
         <v>48</v>
       </c>
       <c r="AR45" s="4">
@@ -9317,7 +9347,7 @@
         <f t="shared" ref="AT45" si="63" xml:space="preserve"> _xlfn.FLOOR.MATH((AM45 - AP45) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AU45" s="23" t="s">
+      <c r="AU45" s="22" t="s">
         <v>48</v>
       </c>
       <c r="AV45" s="4">
@@ -9328,7 +9358,7 @@
         <f t="shared" si="3"/>
         <v>193</v>
       </c>
-      <c r="AX45" s="31">
+      <c r="AX45" s="29">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
@@ -9394,10 +9424,10 @@
       <c r="Q46" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R46" s="21">
-        <v>1</v>
-      </c>
-      <c r="S46" s="19" t="s">
+      <c r="R46" s="20">
+        <v>1</v>
+      </c>
+      <c r="S46" t="s">
         <v>233</v>
       </c>
       <c r="T46">
@@ -9437,7 +9467,7 @@
       <c r="AE46" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF46" s="19">
+      <c r="AF46">
         <v>74967</v>
       </c>
       <c r="AG46">
@@ -9454,16 +9484,16 @@
       <c r="AJ46" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK46" s="19">
+      <c r="AK46">
         <v>125</v>
       </c>
       <c r="AL46">
         <v>1169</v>
       </c>
-      <c r="AM46" s="21">
+      <c r="AM46" s="20">
         <v>414</v>
       </c>
-      <c r="AN46" s="19">
+      <c r="AN46">
         <v>96</v>
       </c>
       <c r="AO46">
@@ -9472,10 +9502,10 @@
       <c r="AP46">
         <v>384</v>
       </c>
-      <c r="AQ46" s="21" t="s">
+      <c r="AQ46" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR46" s="19">
+      <c r="AR46">
         <f t="shared" ref="AR46:AR47" si="65" xml:space="preserve"> _xlfn.FLOOR.MATH((AK46 - AN46) / 2)</f>
         <v>14</v>
       </c>
@@ -9487,7 +9517,7 @@
         <f t="shared" ref="AT46:AT47" si="67" xml:space="preserve"> _xlfn.FLOOR.MATH((AM46 - AP46) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AU46" s="21" t="s">
+      <c r="AU46" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV46">
@@ -9502,7 +9532,7 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="AY46" s="19" t="s">
+      <c r="AY46" t="s">
         <v>239</v>
       </c>
       <c r="AZ46" t="s">
@@ -9564,10 +9594,10 @@
       <c r="Q47" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="21">
-        <v>1</v>
-      </c>
-      <c r="S47" s="19" t="s">
+      <c r="R47" s="20">
+        <v>1</v>
+      </c>
+      <c r="S47" t="s">
         <v>233</v>
       </c>
       <c r="T47">
@@ -9607,7 +9637,7 @@
       <c r="AE47" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF47" s="19">
+      <c r="AF47">
         <v>23033</v>
       </c>
       <c r="AG47">
@@ -9624,16 +9654,16 @@
       <c r="AJ47" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK47" s="19">
+      <c r="AK47">
         <v>125</v>
       </c>
       <c r="AL47">
         <v>1169</v>
       </c>
-      <c r="AM47" s="21">
+      <c r="AM47" s="20">
         <v>414</v>
       </c>
-      <c r="AN47" s="19">
+      <c r="AN47">
         <v>64</v>
       </c>
       <c r="AO47">
@@ -9642,10 +9672,10 @@
       <c r="AP47">
         <v>256</v>
       </c>
-      <c r="AQ47" s="21" t="s">
+      <c r="AQ47" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR47" s="19">
+      <c r="AR47">
         <f t="shared" si="65"/>
         <v>30</v>
       </c>
@@ -9657,7 +9687,7 @@
         <f t="shared" si="67"/>
         <v>79</v>
       </c>
-      <c r="AU47" s="21" t="s">
+      <c r="AU47" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV47">
@@ -9672,7 +9702,7 @@
         <f t="shared" si="4"/>
         <v>79</v>
       </c>
-      <c r="AY47" s="19" t="s">
+      <c r="AY47" t="s">
         <v>240</v>
       </c>
       <c r="AZ47" t="s">
@@ -9734,10 +9764,10 @@
       <c r="Q48" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R48" s="21">
-        <v>1</v>
-      </c>
-      <c r="S48" s="19" t="s">
+      <c r="R48" s="20">
+        <v>1</v>
+      </c>
+      <c r="S48" t="s">
         <v>233</v>
       </c>
       <c r="T48">
@@ -9777,7 +9807,7 @@
       <c r="AE48" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF48" s="19">
+      <c r="AF48">
         <v>4739</v>
       </c>
       <c r="AG48">
@@ -9794,16 +9824,16 @@
       <c r="AJ48" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK48" s="19">
+      <c r="AK48">
         <v>125</v>
       </c>
       <c r="AL48">
         <v>1169</v>
       </c>
-      <c r="AM48" s="21">
+      <c r="AM48" s="20">
         <v>414</v>
       </c>
-      <c r="AN48" s="19">
+      <c r="AN48">
         <v>32</v>
       </c>
       <c r="AO48">
@@ -9812,10 +9842,10 @@
       <c r="AP48">
         <v>128</v>
       </c>
-      <c r="AQ48" s="21" t="s">
+      <c r="AQ48" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR48" s="19">
+      <c r="AR48">
         <f t="shared" ref="AR48:AR63" si="68" xml:space="preserve"> _xlfn.FLOOR.MATH((AK48 - AN48) / 2)</f>
         <v>46</v>
       </c>
@@ -9827,7 +9857,7 @@
         <f t="shared" ref="AT48:AT63" si="70" xml:space="preserve"> _xlfn.FLOOR.MATH((AM48 - AP48) / 2)</f>
         <v>143</v>
       </c>
-      <c r="AU48" s="21" t="s">
+      <c r="AU48" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV48">
@@ -9842,7 +9872,7 @@
         <f t="shared" si="4"/>
         <v>143</v>
       </c>
-      <c r="AY48" s="19" t="s">
+      <c r="AY48" t="s">
         <v>240</v>
       </c>
       <c r="AZ48" t="s">
@@ -9904,10 +9934,10 @@
       <c r="Q49" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R49" s="21">
-        <v>1</v>
-      </c>
-      <c r="S49" s="19" t="s">
+      <c r="R49" s="20">
+        <v>1</v>
+      </c>
+      <c r="S49" t="s">
         <v>234</v>
       </c>
       <c r="T49">
@@ -9947,7 +9977,7 @@
       <c r="AE49" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF49" s="19">
+      <c r="AF49">
         <v>74853</v>
       </c>
       <c r="AG49">
@@ -9964,16 +9994,16 @@
       <c r="AJ49" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK49" s="19">
+      <c r="AK49">
         <v>125</v>
       </c>
       <c r="AL49">
         <v>1169</v>
       </c>
-      <c r="AM49" s="21">
+      <c r="AM49" s="20">
         <v>414</v>
       </c>
-      <c r="AN49" s="19">
+      <c r="AN49">
         <v>96</v>
       </c>
       <c r="AO49">
@@ -9982,10 +10012,10 @@
       <c r="AP49">
         <v>384</v>
       </c>
-      <c r="AQ49" s="21" t="s">
+      <c r="AQ49" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR49" s="19">
+      <c r="AR49">
         <f t="shared" si="68"/>
         <v>14</v>
       </c>
@@ -9997,7 +10027,7 @@
         <f t="shared" si="70"/>
         <v>15</v>
       </c>
-      <c r="AU49" s="21" t="s">
+      <c r="AU49" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV49">
@@ -10012,7 +10042,7 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="AY49" s="19" t="s">
+      <c r="AY49" t="s">
         <v>239</v>
       </c>
       <c r="AZ49" t="s">
@@ -10074,10 +10104,10 @@
       <c r="Q50" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R50" s="21">
-        <v>1</v>
-      </c>
-      <c r="S50" s="19" t="s">
+      <c r="R50" s="20">
+        <v>1</v>
+      </c>
+      <c r="S50" t="s">
         <v>234</v>
       </c>
       <c r="T50">
@@ -10117,7 +10147,7 @@
       <c r="AE50" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF50" s="19">
+      <c r="AF50">
         <v>22999</v>
       </c>
       <c r="AG50">
@@ -10134,16 +10164,16 @@
       <c r="AJ50" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK50" s="19">
+      <c r="AK50">
         <v>125</v>
       </c>
       <c r="AL50">
         <v>1169</v>
       </c>
-      <c r="AM50" s="21">
+      <c r="AM50" s="20">
         <v>414</v>
       </c>
-      <c r="AN50" s="19">
+      <c r="AN50">
         <v>64</v>
       </c>
       <c r="AO50">
@@ -10152,10 +10182,10 @@
       <c r="AP50">
         <v>256</v>
       </c>
-      <c r="AQ50" s="21" t="s">
+      <c r="AQ50" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR50" s="19">
+      <c r="AR50">
         <f t="shared" si="68"/>
         <v>30</v>
       </c>
@@ -10167,7 +10197,7 @@
         <f t="shared" si="70"/>
         <v>79</v>
       </c>
-      <c r="AU50" s="21" t="s">
+      <c r="AU50" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV50">
@@ -10182,7 +10212,7 @@
         <f t="shared" si="4"/>
         <v>79</v>
       </c>
-      <c r="AY50" s="19" t="s">
+      <c r="AY50" t="s">
         <v>240</v>
       </c>
       <c r="AZ50" t="s">
@@ -10244,10 +10274,10 @@
       <c r="Q51" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R51" s="21">
-        <v>1</v>
-      </c>
-      <c r="S51" s="19" t="s">
+      <c r="R51" s="20">
+        <v>1</v>
+      </c>
+      <c r="S51" t="s">
         <v>234</v>
       </c>
       <c r="T51">
@@ -10287,7 +10317,7 @@
       <c r="AE51" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF51" s="19">
+      <c r="AF51">
         <v>4727</v>
       </c>
       <c r="AG51">
@@ -10304,16 +10334,16 @@
       <c r="AJ51" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK51" s="19">
+      <c r="AK51">
         <v>125</v>
       </c>
       <c r="AL51">
         <v>1169</v>
       </c>
-      <c r="AM51" s="21">
+      <c r="AM51" s="20">
         <v>414</v>
       </c>
-      <c r="AN51" s="19">
+      <c r="AN51">
         <v>32</v>
       </c>
       <c r="AO51">
@@ -10322,10 +10352,10 @@
       <c r="AP51">
         <v>128</v>
       </c>
-      <c r="AQ51" s="21" t="s">
+      <c r="AQ51" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR51" s="19">
+      <c r="AR51">
         <f t="shared" si="68"/>
         <v>46</v>
       </c>
@@ -10337,7 +10367,7 @@
         <f t="shared" si="70"/>
         <v>143</v>
       </c>
-      <c r="AU51" s="21" t="s">
+      <c r="AU51" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV51">
@@ -10352,7 +10382,7 @@
         <f t="shared" si="4"/>
         <v>143</v>
       </c>
-      <c r="AY51" s="19" t="s">
+      <c r="AY51" t="s">
         <v>240</v>
       </c>
       <c r="AZ51" t="s">
@@ -10414,10 +10444,10 @@
       <c r="Q52" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R52" s="21">
-        <v>1</v>
-      </c>
-      <c r="S52" s="19" t="s">
+      <c r="R52" s="20">
+        <v>1</v>
+      </c>
+      <c r="S52" t="s">
         <v>235</v>
       </c>
       <c r="T52">
@@ -10457,7 +10487,7 @@
       <c r="AE52" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF52" s="19">
+      <c r="AF52">
         <v>74743</v>
       </c>
       <c r="AG52">
@@ -10474,16 +10504,16 @@
       <c r="AJ52" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK52" s="19">
+      <c r="AK52">
         <v>125</v>
       </c>
       <c r="AL52">
         <v>1169</v>
       </c>
-      <c r="AM52" s="21">
+      <c r="AM52" s="20">
         <v>414</v>
       </c>
-      <c r="AN52" s="19">
+      <c r="AN52">
         <v>96</v>
       </c>
       <c r="AO52">
@@ -10492,10 +10522,10 @@
       <c r="AP52">
         <v>384</v>
       </c>
-      <c r="AQ52" s="21" t="s">
+      <c r="AQ52" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR52" s="19">
+      <c r="AR52">
         <f t="shared" si="68"/>
         <v>14</v>
       </c>
@@ -10507,7 +10537,7 @@
         <f t="shared" si="70"/>
         <v>15</v>
       </c>
-      <c r="AU52" s="21" t="s">
+      <c r="AU52" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV52">
@@ -10522,7 +10552,7 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="AY52" s="19" t="s">
+      <c r="AY52" t="s">
         <v>239</v>
       </c>
       <c r="AZ52" t="s">
@@ -10584,10 +10614,10 @@
       <c r="Q53" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R53" s="21">
-        <v>1</v>
-      </c>
-      <c r="S53" s="19" t="s">
+      <c r="R53" s="20">
+        <v>1</v>
+      </c>
+      <c r="S53" t="s">
         <v>235</v>
       </c>
       <c r="T53">
@@ -10627,7 +10657,7 @@
       <c r="AE53" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF53" s="19">
+      <c r="AF53">
         <v>22967</v>
       </c>
       <c r="AG53">
@@ -10644,16 +10674,16 @@
       <c r="AJ53" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK53" s="19">
+      <c r="AK53">
         <v>125</v>
       </c>
       <c r="AL53">
         <v>1169</v>
       </c>
-      <c r="AM53" s="21">
+      <c r="AM53" s="20">
         <v>414</v>
       </c>
-      <c r="AN53" s="19">
+      <c r="AN53">
         <v>64</v>
       </c>
       <c r="AO53">
@@ -10662,10 +10692,10 @@
       <c r="AP53">
         <v>256</v>
       </c>
-      <c r="AQ53" s="21" t="s">
+      <c r="AQ53" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR53" s="19">
+      <c r="AR53">
         <f t="shared" si="68"/>
         <v>30</v>
       </c>
@@ -10677,7 +10707,7 @@
         <f t="shared" si="70"/>
         <v>79</v>
       </c>
-      <c r="AU53" s="21" t="s">
+      <c r="AU53" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV53">
@@ -10692,7 +10722,7 @@
         <f t="shared" si="4"/>
         <v>79</v>
       </c>
-      <c r="AY53" s="19" t="s">
+      <c r="AY53" t="s">
         <v>240</v>
       </c>
       <c r="AZ53" t="s">
@@ -10754,10 +10784,10 @@
       <c r="Q54" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R54" s="21">
-        <v>1</v>
-      </c>
-      <c r="S54" s="19" t="s">
+      <c r="R54" s="20">
+        <v>1</v>
+      </c>
+      <c r="S54" t="s">
         <v>235</v>
       </c>
       <c r="T54">
@@ -10797,7 +10827,7 @@
       <c r="AE54" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF54" s="19">
+      <c r="AF54">
         <v>4727</v>
       </c>
       <c r="AG54">
@@ -10814,16 +10844,16 @@
       <c r="AJ54" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK54" s="19">
+      <c r="AK54">
         <v>125</v>
       </c>
       <c r="AL54">
         <v>1169</v>
       </c>
-      <c r="AM54" s="21">
+      <c r="AM54" s="20">
         <v>414</v>
       </c>
-      <c r="AN54" s="19">
+      <c r="AN54">
         <v>32</v>
       </c>
       <c r="AO54">
@@ -10832,10 +10862,10 @@
       <c r="AP54">
         <v>128</v>
       </c>
-      <c r="AQ54" s="21" t="s">
+      <c r="AQ54" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR54" s="19">
+      <c r="AR54">
         <f t="shared" si="68"/>
         <v>46</v>
       </c>
@@ -10847,7 +10877,7 @@
         <f t="shared" si="70"/>
         <v>143</v>
       </c>
-      <c r="AU54" s="21" t="s">
+      <c r="AU54" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV54">
@@ -10862,7 +10892,7 @@
         <f t="shared" si="4"/>
         <v>143</v>
       </c>
-      <c r="AY54" s="19" t="s">
+      <c r="AY54" t="s">
         <v>240</v>
       </c>
       <c r="AZ54" t="s">
@@ -10924,10 +10954,10 @@
       <c r="Q55" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R55" s="21">
-        <v>1</v>
-      </c>
-      <c r="S55" s="19" t="s">
+      <c r="R55" s="20">
+        <v>1</v>
+      </c>
+      <c r="S55" t="s">
         <v>236</v>
       </c>
       <c r="T55">
@@ -10967,7 +10997,7 @@
       <c r="AE55" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF55" s="19">
+      <c r="AF55">
         <v>74965</v>
       </c>
       <c r="AG55">
@@ -10984,16 +11014,16 @@
       <c r="AJ55" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK55" s="19">
+      <c r="AK55">
         <v>125</v>
       </c>
       <c r="AL55">
         <v>1169</v>
       </c>
-      <c r="AM55" s="21">
+      <c r="AM55" s="20">
         <v>414</v>
       </c>
-      <c r="AN55" s="19">
+      <c r="AN55">
         <v>96</v>
       </c>
       <c r="AO55">
@@ -11002,10 +11032,10 @@
       <c r="AP55">
         <v>384</v>
       </c>
-      <c r="AQ55" s="21" t="s">
+      <c r="AQ55" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR55" s="19">
+      <c r="AR55">
         <f t="shared" si="68"/>
         <v>14</v>
       </c>
@@ -11017,7 +11047,7 @@
         <f t="shared" si="70"/>
         <v>15</v>
       </c>
-      <c r="AU55" s="21" t="s">
+      <c r="AU55" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV55">
@@ -11032,7 +11062,7 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="AY55" s="19" t="s">
+      <c r="AY55" t="s">
         <v>239</v>
       </c>
       <c r="AZ55" t="s">
@@ -11094,10 +11124,10 @@
       <c r="Q56" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R56" s="21">
-        <v>1</v>
-      </c>
-      <c r="S56" s="19" t="s">
+      <c r="R56" s="20">
+        <v>1</v>
+      </c>
+      <c r="S56" t="s">
         <v>236</v>
       </c>
       <c r="T56">
@@ -11137,7 +11167,7 @@
       <c r="AE56" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF56" s="19">
+      <c r="AF56">
         <v>23033</v>
       </c>
       <c r="AG56">
@@ -11154,16 +11184,16 @@
       <c r="AJ56" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK56" s="19">
+      <c r="AK56">
         <v>125</v>
       </c>
       <c r="AL56">
         <v>1169</v>
       </c>
-      <c r="AM56" s="21">
+      <c r="AM56" s="20">
         <v>414</v>
       </c>
-      <c r="AN56" s="19">
+      <c r="AN56">
         <v>64</v>
       </c>
       <c r="AO56">
@@ -11172,10 +11202,10 @@
       <c r="AP56">
         <v>256</v>
       </c>
-      <c r="AQ56" s="21" t="s">
+      <c r="AQ56" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR56" s="19">
+      <c r="AR56">
         <f t="shared" si="68"/>
         <v>30</v>
       </c>
@@ -11187,7 +11217,7 @@
         <f t="shared" si="70"/>
         <v>79</v>
       </c>
-      <c r="AU56" s="21" t="s">
+      <c r="AU56" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV56">
@@ -11202,7 +11232,7 @@
         <f t="shared" si="4"/>
         <v>79</v>
       </c>
-      <c r="AY56" s="19" t="s">
+      <c r="AY56" t="s">
         <v>240</v>
       </c>
       <c r="AZ56" t="s">
@@ -11264,10 +11294,10 @@
       <c r="Q57" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R57" s="21">
-        <v>1</v>
-      </c>
-      <c r="S57" s="19" t="s">
+      <c r="R57" s="20">
+        <v>1</v>
+      </c>
+      <c r="S57" t="s">
         <v>236</v>
       </c>
       <c r="T57">
@@ -11307,7 +11337,7 @@
       <c r="AE57" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF57" s="19">
+      <c r="AF57">
         <v>4739</v>
       </c>
       <c r="AG57">
@@ -11324,16 +11354,16 @@
       <c r="AJ57" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK57" s="19">
+      <c r="AK57">
         <v>125</v>
       </c>
       <c r="AL57">
         <v>1169</v>
       </c>
-      <c r="AM57" s="21">
+      <c r="AM57" s="20">
         <v>414</v>
       </c>
-      <c r="AN57" s="19">
+      <c r="AN57">
         <v>32</v>
       </c>
       <c r="AO57">
@@ -11342,10 +11372,10 @@
       <c r="AP57">
         <v>128</v>
       </c>
-      <c r="AQ57" s="21" t="s">
+      <c r="AQ57" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR57" s="19">
+      <c r="AR57">
         <f t="shared" si="68"/>
         <v>46</v>
       </c>
@@ -11357,7 +11387,7 @@
         <f t="shared" si="70"/>
         <v>143</v>
       </c>
-      <c r="AU57" s="21" t="s">
+      <c r="AU57" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV57">
@@ -11372,7 +11402,7 @@
         <f t="shared" si="4"/>
         <v>143</v>
       </c>
-      <c r="AY57" s="19" t="s">
+      <c r="AY57" t="s">
         <v>240</v>
       </c>
       <c r="AZ57" t="s">
@@ -11434,10 +11464,10 @@
       <c r="Q58" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="21">
-        <v>1</v>
-      </c>
-      <c r="S58" s="19" t="s">
+      <c r="R58" s="20">
+        <v>1</v>
+      </c>
+      <c r="S58" t="s">
         <v>237</v>
       </c>
       <c r="T58">
@@ -11477,7 +11507,7 @@
       <c r="AE58" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF58" s="19">
+      <c r="AF58">
         <v>74853</v>
       </c>
       <c r="AG58">
@@ -11494,16 +11524,16 @@
       <c r="AJ58" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK58" s="19">
+      <c r="AK58">
         <v>125</v>
       </c>
       <c r="AL58">
         <v>1169</v>
       </c>
-      <c r="AM58" s="21">
+      <c r="AM58" s="20">
         <v>414</v>
       </c>
-      <c r="AN58" s="19">
+      <c r="AN58">
         <v>96</v>
       </c>
       <c r="AO58">
@@ -11512,10 +11542,10 @@
       <c r="AP58">
         <v>384</v>
       </c>
-      <c r="AQ58" s="21" t="s">
+      <c r="AQ58" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR58" s="19">
+      <c r="AR58">
         <f t="shared" si="68"/>
         <v>14</v>
       </c>
@@ -11527,7 +11557,7 @@
         <f t="shared" si="70"/>
         <v>15</v>
       </c>
-      <c r="AU58" s="21" t="s">
+      <c r="AU58" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV58">
@@ -11542,7 +11572,7 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="AY58" s="19" t="s">
+      <c r="AY58" t="s">
         <v>239</v>
       </c>
       <c r="AZ58" t="s">
@@ -11604,10 +11634,10 @@
       <c r="Q59" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R59" s="21">
-        <v>1</v>
-      </c>
-      <c r="S59" s="19" t="s">
+      <c r="R59" s="20">
+        <v>1</v>
+      </c>
+      <c r="S59" t="s">
         <v>237</v>
       </c>
       <c r="T59">
@@ -11647,7 +11677,7 @@
       <c r="AE59" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF59" s="19">
+      <c r="AF59">
         <v>22999</v>
       </c>
       <c r="AG59">
@@ -11664,16 +11694,16 @@
       <c r="AJ59" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK59" s="19">
+      <c r="AK59">
         <v>125</v>
       </c>
       <c r="AL59">
         <v>1169</v>
       </c>
-      <c r="AM59" s="21">
+      <c r="AM59" s="20">
         <v>414</v>
       </c>
-      <c r="AN59" s="19">
+      <c r="AN59">
         <v>64</v>
       </c>
       <c r="AO59">
@@ -11682,10 +11712,10 @@
       <c r="AP59">
         <v>256</v>
       </c>
-      <c r="AQ59" s="21" t="s">
+      <c r="AQ59" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR59" s="19">
+      <c r="AR59">
         <f t="shared" si="68"/>
         <v>30</v>
       </c>
@@ -11697,7 +11727,7 @@
         <f t="shared" si="70"/>
         <v>79</v>
       </c>
-      <c r="AU59" s="21" t="s">
+      <c r="AU59" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV59">
@@ -11712,7 +11742,7 @@
         <f t="shared" si="4"/>
         <v>79</v>
       </c>
-      <c r="AY59" s="19" t="s">
+      <c r="AY59" t="s">
         <v>240</v>
       </c>
       <c r="AZ59" t="s">
@@ -11774,10 +11804,10 @@
       <c r="Q60" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R60" s="21">
-        <v>1</v>
-      </c>
-      <c r="S60" s="19" t="s">
+      <c r="R60" s="20">
+        <v>1</v>
+      </c>
+      <c r="S60" t="s">
         <v>237</v>
       </c>
       <c r="T60">
@@ -11817,7 +11847,7 @@
       <c r="AE60" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF60" s="19">
+      <c r="AF60">
         <v>4727</v>
       </c>
       <c r="AG60">
@@ -11834,16 +11864,16 @@
       <c r="AJ60" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK60" s="19">
+      <c r="AK60">
         <v>125</v>
       </c>
       <c r="AL60">
         <v>1169</v>
       </c>
-      <c r="AM60" s="21">
+      <c r="AM60" s="20">
         <v>414</v>
       </c>
-      <c r="AN60" s="19">
+      <c r="AN60">
         <v>32</v>
       </c>
       <c r="AO60">
@@ -11852,10 +11882,10 @@
       <c r="AP60">
         <v>128</v>
       </c>
-      <c r="AQ60" s="21" t="s">
+      <c r="AQ60" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR60" s="19">
+      <c r="AR60">
         <f t="shared" si="68"/>
         <v>46</v>
       </c>
@@ -11867,7 +11897,7 @@
         <f t="shared" si="70"/>
         <v>143</v>
       </c>
-      <c r="AU60" s="21" t="s">
+      <c r="AU60" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV60">
@@ -11882,7 +11912,7 @@
         <f t="shared" si="4"/>
         <v>143</v>
       </c>
-      <c r="AY60" s="19" t="s">
+      <c r="AY60" t="s">
         <v>240</v>
       </c>
       <c r="AZ60" t="s">
@@ -11944,10 +11974,10 @@
       <c r="Q61" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R61" s="21">
-        <v>1</v>
-      </c>
-      <c r="S61" s="19" t="s">
+      <c r="R61" s="20">
+        <v>1</v>
+      </c>
+      <c r="S61" t="s">
         <v>238</v>
       </c>
       <c r="T61">
@@ -11987,7 +12017,7 @@
       <c r="AE61" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF61" s="19">
+      <c r="AF61">
         <v>74743</v>
       </c>
       <c r="AG61">
@@ -12004,16 +12034,16 @@
       <c r="AJ61" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK61" s="19">
+      <c r="AK61">
         <v>125</v>
       </c>
       <c r="AL61">
         <v>1169</v>
       </c>
-      <c r="AM61" s="21">
+      <c r="AM61" s="20">
         <v>414</v>
       </c>
-      <c r="AN61" s="19">
+      <c r="AN61">
         <v>96</v>
       </c>
       <c r="AO61">
@@ -12022,10 +12052,10 @@
       <c r="AP61">
         <v>384</v>
       </c>
-      <c r="AQ61" s="21" t="s">
+      <c r="AQ61" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR61" s="19">
+      <c r="AR61">
         <f t="shared" si="68"/>
         <v>14</v>
       </c>
@@ -12037,7 +12067,7 @@
         <f t="shared" si="70"/>
         <v>15</v>
       </c>
-      <c r="AU61" s="21" t="s">
+      <c r="AU61" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV61">
@@ -12052,7 +12082,7 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="AY61" s="19" t="s">
+      <c r="AY61" t="s">
         <v>239</v>
       </c>
       <c r="AZ61" t="s">
@@ -12114,10 +12144,10 @@
       <c r="Q62" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="21">
-        <v>1</v>
-      </c>
-      <c r="S62" s="19" t="s">
+      <c r="R62" s="20">
+        <v>1</v>
+      </c>
+      <c r="S62" t="s">
         <v>238</v>
       </c>
       <c r="T62">
@@ -12157,7 +12187,7 @@
       <c r="AE62" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF62" s="19">
+      <c r="AF62">
         <v>22967</v>
       </c>
       <c r="AG62">
@@ -12174,16 +12204,16 @@
       <c r="AJ62" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK62" s="19">
+      <c r="AK62">
         <v>125</v>
       </c>
       <c r="AL62">
         <v>1169</v>
       </c>
-      <c r="AM62" s="21">
+      <c r="AM62" s="20">
         <v>414</v>
       </c>
-      <c r="AN62" s="19">
+      <c r="AN62">
         <v>64</v>
       </c>
       <c r="AO62">
@@ -12192,10 +12222,10 @@
       <c r="AP62">
         <v>256</v>
       </c>
-      <c r="AQ62" s="21" t="s">
+      <c r="AQ62" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR62" s="19">
+      <c r="AR62">
         <f t="shared" si="68"/>
         <v>30</v>
       </c>
@@ -12207,7 +12237,7 @@
         <f t="shared" si="70"/>
         <v>79</v>
       </c>
-      <c r="AU62" s="21" t="s">
+      <c r="AU62" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV62">
@@ -12222,7 +12252,7 @@
         <f t="shared" si="4"/>
         <v>79</v>
       </c>
-      <c r="AY62" s="19" t="s">
+      <c r="AY62" t="s">
         <v>240</v>
       </c>
       <c r="AZ62" t="s">
@@ -12284,7 +12314,7 @@
       <c r="Q63" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="R63" s="23">
+      <c r="R63" s="22">
         <v>1</v>
       </c>
       <c r="S63" s="4" t="s">
@@ -12324,7 +12354,7 @@
       <c r="AD63" s="4">
         <v>8</v>
       </c>
-      <c r="AE63" s="31" t="s">
+      <c r="AE63" s="29" t="s">
         <v>100</v>
       </c>
       <c r="AF63" s="4">
@@ -12341,7 +12371,7 @@
         <f t="shared" si="64"/>
         <v>2265.2189186271103</v>
       </c>
-      <c r="AJ63" s="31" t="s">
+      <c r="AJ63" s="29" t="s">
         <v>109</v>
       </c>
       <c r="AK63" s="4">
@@ -12350,7 +12380,7 @@
       <c r="AL63" s="4">
         <v>1169</v>
       </c>
-      <c r="AM63" s="23">
+      <c r="AM63" s="22">
         <v>414</v>
       </c>
       <c r="AN63" s="4">
@@ -12362,7 +12392,7 @@
       <c r="AP63" s="4">
         <v>128</v>
       </c>
-      <c r="AQ63" s="23" t="s">
+      <c r="AQ63" s="22" t="s">
         <v>48</v>
       </c>
       <c r="AR63" s="4">
@@ -12377,7 +12407,7 @@
         <f t="shared" si="70"/>
         <v>143</v>
       </c>
-      <c r="AU63" s="23" t="s">
+      <c r="AU63" s="22" t="s">
         <v>48</v>
       </c>
       <c r="AV63" s="4">
@@ -12388,7 +12418,7 @@
         <f t="shared" si="3"/>
         <v>457</v>
       </c>
-      <c r="AX63" s="31">
+      <c r="AX63" s="29">
         <f t="shared" si="4"/>
         <v>143</v>
       </c>
@@ -12460,10 +12490,10 @@
       <c r="Q64" t="s">
         <v>121</v>
       </c>
-      <c r="R64" s="21">
-        <v>1</v>
-      </c>
-      <c r="S64" s="19" t="s">
+      <c r="R64" s="20">
+        <v>1</v>
+      </c>
+      <c r="S64" t="s">
         <v>274</v>
       </c>
       <c r="T64">
@@ -12502,7 +12532,7 @@
       <c r="AE64" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF64" s="19" t="s">
+      <c r="AF64" t="s">
         <v>121</v>
       </c>
       <c r="AG64" t="s">
@@ -12518,16 +12548,16 @@
       <c r="AJ64" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK64" s="19">
+      <c r="AK64">
         <v>125</v>
       </c>
       <c r="AL64">
         <v>1169</v>
       </c>
-      <c r="AM64" s="21">
+      <c r="AM64" s="20">
         <v>414</v>
       </c>
-      <c r="AN64" s="19">
+      <c r="AN64">
         <v>96</v>
       </c>
       <c r="AO64">
@@ -12536,10 +12566,10 @@
       <c r="AP64">
         <v>384</v>
       </c>
-      <c r="AQ64" s="21" t="s">
+      <c r="AQ64" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AR64" s="19">
+      <c r="AR64">
         <f t="shared" ref="AR64" si="71" xml:space="preserve"> _xlfn.FLOOR.MATH((AK64 - AN64) / 2)</f>
         <v>14</v>
       </c>
@@ -12551,7 +12581,7 @@
         <f t="shared" ref="AT64" si="73" xml:space="preserve"> _xlfn.FLOOR.MATH((AM64 - AP64) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AU64" s="21" t="s">
+      <c r="AU64" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AV64">
@@ -12566,7 +12596,7 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="AY64" s="19" t="s">
+      <c r="AY64" t="s">
         <v>272</v>
       </c>
       <c r="AZ64" t="s">
@@ -12634,10 +12664,10 @@
       <c r="Q65" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R65" s="24">
-        <v>0</v>
-      </c>
-      <c r="S65" s="19" t="s">
+      <c r="R65" s="23">
+        <v>0</v>
+      </c>
+      <c r="S65" t="s">
         <v>274</v>
       </c>
       <c r="T65" t="s">
@@ -12676,7 +12706,7 @@
       <c r="AE65" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF65" s="19" t="s">
+      <c r="AF65" t="s">
         <v>8</v>
       </c>
       <c r="AG65" t="s">
@@ -12691,16 +12721,16 @@
       <c r="AJ65" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK65" s="19">
+      <c r="AK65">
         <v>125</v>
       </c>
       <c r="AL65">
         <v>1169</v>
       </c>
-      <c r="AM65" s="21">
+      <c r="AM65" s="20">
         <v>414</v>
       </c>
-      <c r="AN65" s="19">
+      <c r="AN65">
         <v>80</v>
       </c>
       <c r="AO65">
@@ -12709,10 +12739,10 @@
       <c r="AP65">
         <v>170</v>
       </c>
-      <c r="AQ65" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR65" s="19">
+      <c r="AQ65" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR65">
         <v>40</v>
       </c>
       <c r="AS65">
@@ -12721,7 +12751,7 @@
       <c r="AT65">
         <v>90</v>
       </c>
-      <c r="AU65" s="21" t="s">
+      <c r="AU65" s="20" t="s">
         <v>8</v>
       </c>
       <c r="AV65">
@@ -12736,7 +12766,7 @@
         <f t="shared" si="4"/>
         <v>154</v>
       </c>
-      <c r="AY65" s="19" t="s">
+      <c r="AY65" t="s">
         <v>286</v>
       </c>
       <c r="AZ65" t="s">
@@ -12804,10 +12834,10 @@
       <c r="Q66" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R66" s="24">
-        <v>0</v>
-      </c>
-      <c r="S66" s="19" t="s">
+      <c r="R66" s="23">
+        <v>0</v>
+      </c>
+      <c r="S66" t="s">
         <v>274</v>
       </c>
       <c r="T66" t="s">
@@ -12846,7 +12876,7 @@
       <c r="AE66" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF66" s="19" t="s">
+      <c r="AF66" t="s">
         <v>8</v>
       </c>
       <c r="AG66" t="s">
@@ -12861,16 +12891,16 @@
       <c r="AJ66" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK66" s="19">
+      <c r="AK66">
         <v>125</v>
       </c>
       <c r="AL66">
         <v>1169</v>
       </c>
-      <c r="AM66" s="21">
+      <c r="AM66" s="20">
         <v>414</v>
       </c>
-      <c r="AN66" s="19">
+      <c r="AN66">
         <v>80</v>
       </c>
       <c r="AO66">
@@ -12879,10 +12909,10 @@
       <c r="AP66">
         <v>170</v>
       </c>
-      <c r="AQ66" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR66" s="19">
+      <c r="AQ66" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR66">
         <v>40</v>
       </c>
       <c r="AS66">
@@ -12891,7 +12921,7 @@
       <c r="AT66">
         <v>90</v>
       </c>
-      <c r="AU66" s="21" t="s">
+      <c r="AU66" s="20" t="s">
         <v>8</v>
       </c>
       <c r="AV66">
@@ -12906,7 +12936,7 @@
         <f t="shared" si="4"/>
         <v>154</v>
       </c>
-      <c r="AY66" s="19" t="s">
+      <c r="AY66" t="s">
         <v>286</v>
       </c>
       <c r="AZ66" t="s">
@@ -12974,10 +13004,10 @@
       <c r="Q67" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R67" s="24">
-        <v>0</v>
-      </c>
-      <c r="S67" s="19" t="s">
+      <c r="R67" s="23">
+        <v>0</v>
+      </c>
+      <c r="S67" t="s">
         <v>274</v>
       </c>
       <c r="T67" t="s">
@@ -13016,7 +13046,7 @@
       <c r="AE67" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF67" s="19" t="s">
+      <c r="AF67" t="s">
         <v>8</v>
       </c>
       <c r="AG67" t="s">
@@ -13031,16 +13061,16 @@
       <c r="AJ67" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK67" s="19">
+      <c r="AK67">
         <v>125</v>
       </c>
       <c r="AL67">
         <v>1169</v>
       </c>
-      <c r="AM67" s="21">
+      <c r="AM67" s="20">
         <v>414</v>
       </c>
-      <c r="AN67" s="19">
+      <c r="AN67">
         <v>96</v>
       </c>
       <c r="AO67">
@@ -13049,10 +13079,10 @@
       <c r="AP67">
         <v>384</v>
       </c>
-      <c r="AQ67" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR67" s="19">
+      <c r="AQ67" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR67">
         <v>14</v>
       </c>
       <c r="AS67">
@@ -13061,7 +13091,7 @@
       <c r="AT67">
         <v>15</v>
       </c>
-      <c r="AU67" s="21" t="s">
+      <c r="AU67" s="20" t="s">
         <v>8</v>
       </c>
       <c r="AV67">
@@ -13076,7 +13106,7 @@
         <f t="shared" ref="AX67:AX68" si="76">AM67-(AP67+AT67)</f>
         <v>15</v>
       </c>
-      <c r="AY67" s="19" t="s">
+      <c r="AY67" t="s">
         <v>293</v>
       </c>
       <c r="AZ67" t="s">
@@ -13106,17 +13136,17 @@
         <v>299</v>
       </c>
       <c r="E68" t="s">
+        <v>317</v>
+      </c>
+      <c r="F68" s="6">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="F68" s="6">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>306</v>
-      </c>
       <c r="I68">
         <v>0</v>
       </c>
@@ -13144,10 +13174,10 @@
       <c r="Q68" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R68" s="24">
-        <v>0</v>
-      </c>
-      <c r="S68" s="19" t="s">
+      <c r="R68" s="23">
+        <v>0</v>
+      </c>
+      <c r="S68" t="s">
         <v>274</v>
       </c>
       <c r="T68" t="s">
@@ -13186,7 +13216,7 @@
       <c r="AE68" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF68" s="19" t="s">
+      <c r="AF68" t="s">
         <v>8</v>
       </c>
       <c r="AG68" t="s">
@@ -13201,16 +13231,16 @@
       <c r="AJ68" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK68" s="19">
+      <c r="AK68">
         <v>125</v>
       </c>
       <c r="AL68">
         <v>1169</v>
       </c>
-      <c r="AM68" s="21">
+      <c r="AM68" s="20">
         <v>414</v>
       </c>
-      <c r="AN68" s="19">
+      <c r="AN68">
         <v>80</v>
       </c>
       <c r="AO68">
@@ -13219,10 +13249,10 @@
       <c r="AP68">
         <v>224</v>
       </c>
-      <c r="AQ68" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR68" s="19">
+      <c r="AQ68" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR68">
         <v>40</v>
       </c>
       <c r="AS68">
@@ -13231,7 +13261,7 @@
       <c r="AT68">
         <v>176</v>
       </c>
-      <c r="AU68" s="21" t="s">
+      <c r="AU68" s="20" t="s">
         <v>8</v>
       </c>
       <c r="AV68">
@@ -13246,17 +13276,17 @@
         <f t="shared" si="76"/>
         <v>14</v>
       </c>
-      <c r="AY68" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="AZ68" s="19" t="s">
-        <v>307</v>
+      <c r="AY68" t="s">
+        <v>305</v>
+      </c>
+      <c r="AZ68" t="s">
+        <v>305</v>
       </c>
       <c r="BA68">
         <v>1</v>
       </c>
       <c r="BB68" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="BC68" t="s">
         <v>292</v>
@@ -13314,7 +13344,7 @@
       <c r="Q69" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R69" s="21" t="s">
+      <c r="R69" s="20" t="s">
         <v>8</v>
       </c>
       <c r="S69" s="12" t="s">
@@ -13353,7 +13383,7 @@
       <c r="AD69" t="s">
         <v>8</v>
       </c>
-      <c r="AE69" s="32" t="s">
+      <c r="AE69" s="30" t="s">
         <v>8</v>
       </c>
       <c r="AF69" t="s">
@@ -13377,7 +13407,7 @@
       <c r="AL69" t="s">
         <v>8</v>
       </c>
-      <c r="AM69" s="26" t="s">
+      <c r="AM69" s="25" t="s">
         <v>8</v>
       </c>
       <c r="AN69" t="s">
@@ -13389,7 +13419,7 @@
       <c r="AP69" t="s">
         <v>8</v>
       </c>
-      <c r="AQ69" s="21" t="s">
+      <c r="AQ69" s="20" t="s">
         <v>8</v>
       </c>
       <c r="AR69" t="s">
@@ -13401,7 +13431,7 @@
       <c r="AT69" t="s">
         <v>8</v>
       </c>
-      <c r="AU69" s="26" t="s">
+      <c r="AU69" s="25" t="s">
         <v>8</v>
       </c>
       <c r="AV69" s="12" t="s">
@@ -13410,7 +13440,7 @@
       <c r="AW69" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AX69" s="32" t="s">
+      <c r="AX69" s="30" t="s">
         <v>8</v>
       </c>
       <c r="AY69" t="s">
@@ -13431,60 +13461,60 @@
     </row>
     <row r="70" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B70" t="s">
         <v>281</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G70" t="s">
-        <v>121</v>
-      </c>
-      <c r="H70" t="s">
-        <v>121</v>
-      </c>
-      <c r="I70" t="s">
-        <v>121</v>
+        <v>303</v>
+      </c>
+      <c r="E70" t="s">
+        <v>316</v>
+      </c>
+      <c r="F70" s="6">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>121</v>
-      </c>
-      <c r="K70" t="s">
-        <v>121</v>
+        <v>8</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="L70" t="s">
-        <v>121</v>
-      </c>
-      <c r="M70" t="s">
-        <v>121</v>
+        <v>8</v>
+      </c>
+      <c r="M70" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="N70" t="s">
-        <v>121</v>
-      </c>
-      <c r="O70" t="s">
-        <v>121</v>
+        <v>8</v>
+      </c>
+      <c r="O70" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="P70" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>121</v>
-      </c>
-      <c r="R70" s="21">
-        <v>0</v>
-      </c>
-      <c r="S70" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q70" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="R70" s="20">
+        <v>0</v>
+      </c>
+      <c r="S70" t="s">
         <v>274</v>
       </c>
       <c r="T70" t="s">
@@ -13523,31 +13553,31 @@
       <c r="AE70" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF70" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG70" t="s">
-        <v>121</v>
+      <c r="AF70" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG70" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="AH70" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="AI70" t="s">
-        <v>121</v>
+        <v>285</v>
       </c>
       <c r="AJ70" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK70" s="19">
+        <v>109</v>
+      </c>
+      <c r="AK70">
         <v>125</v>
       </c>
       <c r="AL70">
         <v>1169</v>
       </c>
-      <c r="AM70" s="21">
+      <c r="AM70" s="20">
         <v>414</v>
       </c>
-      <c r="AN70" s="19">
+      <c r="AN70">
         <v>80</v>
       </c>
       <c r="AO70">
@@ -13556,10 +13586,10 @@
       <c r="AP70">
         <v>224</v>
       </c>
-      <c r="AQ70" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR70" s="19">
+      <c r="AQ70" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR70">
         <v>32</v>
       </c>
       <c r="AS70">
@@ -13568,7 +13598,7 @@
       <c r="AT70">
         <v>96</v>
       </c>
-      <c r="AU70" s="26" t="s">
+      <c r="AU70" s="25" t="s">
         <v>8</v>
       </c>
       <c r="AV70">
@@ -13583,78 +13613,78 @@
         <f t="shared" ref="AX70" si="79">AM70-(AP70+AT70)</f>
         <v>94</v>
       </c>
-      <c r="AY70" s="19" t="s">
-        <v>309</v>
+      <c r="AY70" t="s">
+        <v>307</v>
       </c>
       <c r="AZ70" t="s">
         <v>310</v>
       </c>
-      <c r="BA70" t="s">
-        <v>121</v>
+      <c r="BA70">
+        <v>1</v>
       </c>
       <c r="BB70" t="s">
-        <v>121</v>
+        <v>306</v>
       </c>
       <c r="BC70" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B71" t="s">
         <v>281</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G71" t="s">
-        <v>121</v>
-      </c>
-      <c r="H71" t="s">
-        <v>121</v>
-      </c>
-      <c r="I71" t="s">
-        <v>121</v>
+        <v>303</v>
+      </c>
+      <c r="E71" t="s">
+        <v>316</v>
+      </c>
+      <c r="F71" s="6">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>121</v>
-      </c>
-      <c r="K71" t="s">
-        <v>121</v>
+        <v>8</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="L71" t="s">
-        <v>121</v>
-      </c>
-      <c r="M71" t="s">
-        <v>121</v>
+        <v>8</v>
+      </c>
+      <c r="M71" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="N71" t="s">
-        <v>121</v>
-      </c>
-      <c r="O71" t="s">
-        <v>121</v>
+        <v>8</v>
+      </c>
+      <c r="O71" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="P71" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>121</v>
-      </c>
-      <c r="R71" s="21">
-        <v>0</v>
-      </c>
-      <c r="S71" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q71" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="R71" s="20">
+        <v>0</v>
+      </c>
+      <c r="S71" t="s">
         <v>274</v>
       </c>
       <c r="T71" t="s">
@@ -13693,31 +13723,31 @@
       <c r="AE71" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF71" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG71" t="s">
-        <v>121</v>
+      <c r="AF71" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG71" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="AH71" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="AI71" t="s">
-        <v>121</v>
+        <v>285</v>
       </c>
       <c r="AJ71" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK71" s="19">
+        <v>109</v>
+      </c>
+      <c r="AK71">
         <v>125</v>
       </c>
       <c r="AL71">
         <v>1169</v>
       </c>
-      <c r="AM71" s="21">
+      <c r="AM71" s="20">
         <v>414</v>
       </c>
-      <c r="AN71" s="19">
+      <c r="AN71">
         <v>80</v>
       </c>
       <c r="AO71">
@@ -13726,10 +13756,10 @@
       <c r="AP71">
         <v>224</v>
       </c>
-      <c r="AQ71" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR71" s="19">
+      <c r="AQ71" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR71">
         <f t="shared" ref="AR71" si="80" xml:space="preserve"> _xlfn.FLOOR.MATH((AK71 - AN71) / 2)</f>
         <v>22</v>
       </c>
@@ -13741,7 +13771,7 @@
         <f t="shared" ref="AT71" si="82" xml:space="preserve"> _xlfn.FLOOR.MATH((AM71 - AP71) / 2)</f>
         <v>95</v>
       </c>
-      <c r="AU71" s="26" t="s">
+      <c r="AU71" s="25" t="s">
         <v>8</v>
       </c>
       <c r="AV71">
@@ -13756,78 +13786,78 @@
         <f t="shared" ref="AX71" si="85">AM71-(AP71+AT71)</f>
         <v>95</v>
       </c>
-      <c r="AY71" s="19" t="s">
-        <v>309</v>
+      <c r="AY71" t="s">
+        <v>307</v>
       </c>
       <c r="AZ71" t="s">
         <v>166</v>
       </c>
-      <c r="BA71" t="s">
-        <v>121</v>
+      <c r="BA71">
+        <v>1</v>
       </c>
       <c r="BB71" t="s">
-        <v>121</v>
+        <v>306</v>
       </c>
       <c r="BC71" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
     </row>
     <row r="72" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B72" t="s">
         <v>281</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G72" t="s">
-        <v>121</v>
-      </c>
-      <c r="H72" t="s">
-        <v>121</v>
-      </c>
-      <c r="I72" t="s">
-        <v>121</v>
+        <v>303</v>
+      </c>
+      <c r="E72" t="s">
+        <v>316</v>
+      </c>
+      <c r="F72" s="6">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>121</v>
-      </c>
-      <c r="K72" t="s">
-        <v>121</v>
+        <v>8</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="L72" t="s">
-        <v>121</v>
-      </c>
-      <c r="M72" t="s">
-        <v>121</v>
+        <v>8</v>
+      </c>
+      <c r="M72" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="N72" t="s">
-        <v>121</v>
-      </c>
-      <c r="O72" t="s">
-        <v>121</v>
+        <v>8</v>
+      </c>
+      <c r="O72" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="P72" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>121</v>
-      </c>
-      <c r="R72" s="21">
-        <v>0</v>
-      </c>
-      <c r="S72" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="R72" s="20">
+        <v>0</v>
+      </c>
+      <c r="S72" t="s">
         <v>274</v>
       </c>
       <c r="T72" t="s">
@@ -13866,31 +13896,31 @@
       <c r="AE72" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF72" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG72" t="s">
-        <v>121</v>
+      <c r="AF72" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG72" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="AH72" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="AI72" t="s">
-        <v>121</v>
+        <v>285</v>
       </c>
       <c r="AJ72" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK72" s="19">
+        <v>109</v>
+      </c>
+      <c r="AK72">
         <v>125</v>
       </c>
       <c r="AL72">
         <v>1169</v>
       </c>
-      <c r="AM72" s="21">
+      <c r="AM72" s="20">
         <v>414</v>
       </c>
-      <c r="AN72" s="19">
+      <c r="AN72">
         <v>80</v>
       </c>
       <c r="AO72">
@@ -13899,10 +13929,10 @@
       <c r="AP72">
         <v>224</v>
       </c>
-      <c r="AQ72" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR72" s="19">
+      <c r="AQ72" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR72">
         <v>16</v>
       </c>
       <c r="AS72">
@@ -13911,7 +13941,7 @@
       <c r="AT72">
         <v>80</v>
       </c>
-      <c r="AU72" s="26" t="s">
+      <c r="AU72" s="25" t="s">
         <v>8</v>
       </c>
       <c r="AV72">
@@ -13926,19 +13956,356 @@
         <f t="shared" ref="AX72" si="88">AM72-(AP72+AT72)</f>
         <v>110</v>
       </c>
-      <c r="AY72" s="19" t="s">
-        <v>309</v>
+      <c r="AY72" t="s">
+        <v>307</v>
       </c>
       <c r="AZ72" t="s">
-        <v>302</v>
-      </c>
-      <c r="BA72" t="s">
+        <v>311</v>
+      </c>
+      <c r="BA72">
+        <v>1</v>
+      </c>
+      <c r="BB72" t="s">
+        <v>306</v>
+      </c>
+      <c r="BC72" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="73" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="B73" t="s">
+        <v>281</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="E73" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="BB72" t="s">
+      <c r="F73" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="BC72" t="s">
+      <c r="G73" t="s">
+        <v>121</v>
+      </c>
+      <c r="H73" t="s">
+        <v>121</v>
+      </c>
+      <c r="I73" t="s">
+        <v>121</v>
+      </c>
+      <c r="J73" t="s">
+        <v>121</v>
+      </c>
+      <c r="K73" t="s">
+        <v>121</v>
+      </c>
+      <c r="L73" t="s">
+        <v>121</v>
+      </c>
+      <c r="M73" t="s">
+        <v>121</v>
+      </c>
+      <c r="N73" t="s">
+        <v>121</v>
+      </c>
+      <c r="O73" t="s">
+        <v>121</v>
+      </c>
+      <c r="P73" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>121</v>
+      </c>
+      <c r="R73" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="S73" t="s">
+        <v>121</v>
+      </c>
+      <c r="T73" t="s">
+        <v>121</v>
+      </c>
+      <c r="U73" t="s">
+        <v>121</v>
+      </c>
+      <c r="V73" t="s">
+        <v>121</v>
+      </c>
+      <c r="W73" t="s">
+        <v>121</v>
+      </c>
+      <c r="X73" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE73" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>285</v>
+      </c>
+      <c r="AJ73" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK73">
+        <v>125</v>
+      </c>
+      <c r="AL73">
+        <v>1169</v>
+      </c>
+      <c r="AM73" s="20">
+        <v>414</v>
+      </c>
+      <c r="AN73">
+        <v>96</v>
+      </c>
+      <c r="AO73">
+        <v>784</v>
+      </c>
+      <c r="AP73">
+        <v>384</v>
+      </c>
+      <c r="AQ73" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR73">
+        <v>0</v>
+      </c>
+      <c r="AS73">
+        <v>0</v>
+      </c>
+      <c r="AT73">
+        <v>0</v>
+      </c>
+      <c r="AU73" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV73">
+        <f t="shared" ref="AV73" si="89">AK73-(AN73+AR73)</f>
+        <v>29</v>
+      </c>
+      <c r="AW73">
+        <f t="shared" ref="AW73" si="90">AL73-(AO73+AS73)</f>
+        <v>385</v>
+      </c>
+      <c r="AX73" s="10">
+        <f t="shared" ref="AX73" si="91">AM73-(AP73+AT73)</f>
+        <v>30</v>
+      </c>
+      <c r="AY73" t="s">
+        <v>293</v>
+      </c>
+      <c r="AZ73" t="s">
+        <v>318</v>
+      </c>
+      <c r="BA73" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB73" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC73" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" t="s">
+        <v>281</v>
+      </c>
+      <c r="C77" t="s">
+        <v>313</v>
+      </c>
+      <c r="D77" t="s">
+        <v>121</v>
+      </c>
+      <c r="E77" t="s">
+        <v>121</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G77" t="s">
+        <v>121</v>
+      </c>
+      <c r="H77" t="s">
+        <v>121</v>
+      </c>
+      <c r="I77" t="s">
+        <v>121</v>
+      </c>
+      <c r="J77" t="s">
+        <v>121</v>
+      </c>
+      <c r="K77" t="s">
+        <v>121</v>
+      </c>
+      <c r="L77" t="s">
+        <v>121</v>
+      </c>
+      <c r="M77" t="s">
+        <v>121</v>
+      </c>
+      <c r="N77" t="s">
+        <v>121</v>
+      </c>
+      <c r="O77" t="s">
+        <v>121</v>
+      </c>
+      <c r="P77" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>121</v>
+      </c>
+      <c r="R77" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="S77" t="s">
+        <v>121</v>
+      </c>
+      <c r="T77" t="s">
+        <v>121</v>
+      </c>
+      <c r="U77" t="s">
+        <v>121</v>
+      </c>
+      <c r="V77" t="s">
+        <v>121</v>
+      </c>
+      <c r="W77" t="s">
+        <v>121</v>
+      </c>
+      <c r="X77" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE77" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ77" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK77" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM77" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN77" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO77" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP77" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ77" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR77" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS77" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT77" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU77" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV77" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW77" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX77" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY77" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ77" t="s">
+        <v>312</v>
+      </c>
+      <c r="BA77" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB77" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC77" t="s">
         <v>121</v>
       </c>
     </row>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B191C2A-4F87-43F5-BCC1-5D5F21D9C7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC94C7D2-4CE6-40AA-815A-FC904DB400CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="326">
   <si>
     <t>patch z</t>
   </si>
@@ -930,15 +930,9 @@
     <t>231008-2</t>
   </si>
   <si>
-    <t>Same as 231008-0, -1. Also, attempting to fix invalid patch shape.</t>
-  </si>
-  <si>
     <t>ValueError: requested an output size of torch.Size([13, 99, 49]), but valid sizes range from [11, 97, 47] to [12, 98, 48] (for an input of torch.Size([6, 49, 24]))</t>
   </si>
   <si>
-    <t>Same as 231008-0, -1, -2. Also, still attempting to fix invalid patch shape.</t>
-  </si>
-  <si>
     <t>See 231009-0 cell below for results, because: Error, invalid patch shape (torch.size error).</t>
   </si>
   <si>
@@ -948,9 +942,6 @@
     <t>231009-1</t>
   </si>
   <si>
-    <t>Same as 231008-0, -1, -2, 231009-0. Also, still attempting to fix invalid patch shape &amp;/ invalid stride shape.</t>
-  </si>
-  <si>
     <t>error, invalid patch shape &amp;/ invalid stride shape</t>
   </si>
   <si>
@@ -984,12 +975,6 @@
     <t>231010-0</t>
   </si>
   <si>
-    <t>Same as 231008-0, -1, -2, 231009-0, -1, -2, -3. Also, still attempting to fix invalid patch shape &amp;/ invalid stride shape.</t>
-  </si>
-  <si>
-    <t>See 231010-0 cell below for results, because: Error, invalid patch shape &amp;/ invalid stride shape (torch.size error).</t>
-  </si>
-  <si>
     <t>See 231009-1, -2, -3 cell below for results, because: Error, invalid patch shape &amp;/ invalid stride shape (torch.size error).</t>
   </si>
   <si>
@@ -1003,6 +988,33 @@
   </si>
   <si>
     <t>diff x (halo)</t>
+  </si>
+  <si>
+    <t>ValueError: range() arg 3 must not be zero</t>
+  </si>
+  <si>
+    <t>Same as 231008-0. Also, attempting to fix invalid patch shape.</t>
+  </si>
+  <si>
+    <t>Same as 231008-0. Also, still attempting to fix invalid patch shape.</t>
+  </si>
+  <si>
+    <t>I expect the patch stride shape combination to be invalid (too large stride).</t>
+  </si>
+  <si>
+    <t>Still attempting to fix invalid patch shape: confirm this session's combination is invalid.</t>
+  </si>
+  <si>
+    <t>Still attempting to fix invalid patch shape: confirm this session's combination is valid.</t>
+  </si>
+  <si>
+    <t>I expect the patch stride shape combination to be valid (exactly right shapes down to one pixel).</t>
+  </si>
+  <si>
+    <t>Success: Error, invalid patch shape &amp;/ invalid stride shape (torch.size error).</t>
+  </si>
+  <si>
+    <t>Failure: Error, invalid patch shape &amp;/ invalid stride shape (torch.size error).</t>
   </si>
 </sst>
 </file>
@@ -1537,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
   <dimension ref="A1:BC77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AX73" sqref="AX73"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1738,13 +1750,13 @@
         <v>53</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AX1" s="26" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AY1" s="1" t="s">
         <v>23</v>
@@ -12960,13 +12972,13 @@
         <v>281</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="E67" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F67" s="6">
         <v>0</v>
@@ -13116,7 +13128,7 @@
         <v>1</v>
       </c>
       <c r="BB67" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="BC67" t="s">
         <v>292</v>
@@ -13124,19 +13136,19 @@
     </row>
     <row r="68" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B68" t="s">
         <v>281</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="E68" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F68" s="6">
         <v>0</v>
@@ -13145,7 +13157,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -13277,16 +13289,16 @@
         <v>14</v>
       </c>
       <c r="AY68" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AZ68" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="BA68">
         <v>1</v>
       </c>
       <c r="BB68" s="13" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="BC68" t="s">
         <v>292</v>
@@ -13461,19 +13473,19 @@
     </row>
     <row r="70" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B70" t="s">
         <v>281</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="E70" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F70" s="6">
         <v>0</v>
@@ -13482,7 +13494,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -13614,16 +13626,16 @@
         <v>94</v>
       </c>
       <c r="AY70" t="s">
+        <v>304</v>
+      </c>
+      <c r="AZ70" t="s">
         <v>307</v>
       </c>
-      <c r="AZ70" t="s">
-        <v>310</v>
-      </c>
       <c r="BA70">
         <v>1</v>
       </c>
       <c r="BB70" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="BC70" t="s">
         <v>292</v>
@@ -13631,19 +13643,19 @@
     </row>
     <row r="71" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B71" t="s">
         <v>281</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="E71" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F71" s="6">
         <v>0</v>
@@ -13652,7 +13664,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -13787,7 +13799,7 @@
         <v>95</v>
       </c>
       <c r="AY71" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AZ71" t="s">
         <v>166</v>
@@ -13796,7 +13808,7 @@
         <v>1</v>
       </c>
       <c r="BB71" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="BC71" t="s">
         <v>292</v>
@@ -13804,19 +13816,19 @@
     </row>
     <row r="72" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B72" t="s">
         <v>281</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="E72" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="F72" s="6">
         <v>0</v>
@@ -13825,7 +13837,7 @@
         <v>1</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -13957,16 +13969,16 @@
         <v>110</v>
       </c>
       <c r="AY72" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AZ72" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="BA72">
         <v>1</v>
       </c>
       <c r="BB72" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="BC72" t="s">
         <v>292</v>
@@ -13974,19 +13986,19 @@
     </row>
     <row r="73" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B73" t="s">
         <v>281</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>121</v>
+        <v>323</v>
+      </c>
+      <c r="E73" t="s">
+        <v>324</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>121</v>
@@ -14130,13 +14142,13 @@
         <v>293</v>
       </c>
       <c r="AZ73" t="s">
-        <v>318</v>
-      </c>
-      <c r="BA73" t="s">
-        <v>121</v>
+        <v>313</v>
+      </c>
+      <c r="BA73">
+        <v>1</v>
       </c>
       <c r="BB73" t="s">
-        <v>121</v>
+        <v>317</v>
       </c>
       <c r="BC73" t="s">
         <v>121</v>
@@ -14150,7 +14162,7 @@
         <v>281</v>
       </c>
       <c r="C77" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D77" t="s">
         <v>121</v>
@@ -14297,7 +14309,7 @@
         <v>121</v>
       </c>
       <c r="AZ77" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="BA77" t="s">
         <v>121</v>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC94C7D2-4CE6-40AA-815A-FC904DB400CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FE75CD-6F90-4A15-B941-33C9E65A5312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
+    <workbookView xWindow="28680" yWindow="2505" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="332">
   <si>
     <t>patch z</t>
   </si>
@@ -1015,6 +1015,24 @@
   </si>
   <si>
     <t>Failure: Error, invalid patch shape &amp;/ invalid stride shape (torch.size error).</t>
+  </si>
+  <si>
+    <t>File "/data/dwalth/pytorch-3dunet/pytorch3dunet/datasets/utils.py", line 121, in _gen_indices: for j in range(0, i - k + 1, s):</t>
+  </si>
+  <si>
+    <t>patch = train patch - 32 = arbitrary even int_2^3 smaller than train patch</t>
+  </si>
+  <si>
+    <t>stride = (train patch - pred patch) / 2, stride = arbitrary int_2^3, so that train patch has space for exactly 2.0 strides in all dimensions</t>
+  </si>
+  <si>
+    <t>I expect the patch stride shape combination to be invalid (stride can not be 0).</t>
+  </si>
+  <si>
+    <t>TBD (Success in patch &amp;/ stride shapes are valid. Failure if not. Double success if there are no other errors &amp; there are segmentations, now.)</t>
+  </si>
+  <si>
+    <t>231017-0</t>
   </si>
 </sst>
 </file>
@@ -1549,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
   <dimension ref="A1:BC77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="AJ43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY74" sqref="AY74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -13992,55 +14010,55 @@
         <v>281</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="E73" t="s">
         <v>324</v>
       </c>
-      <c r="F73" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G73" t="s">
-        <v>121</v>
-      </c>
-      <c r="H73" t="s">
-        <v>121</v>
-      </c>
-      <c r="I73" t="s">
-        <v>121</v>
+      <c r="F73" s="6">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>121</v>
-      </c>
-      <c r="K73" t="s">
-        <v>121</v>
+        <v>8</v>
+      </c>
+      <c r="K73" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="L73" t="s">
-        <v>121</v>
-      </c>
-      <c r="M73" t="s">
-        <v>121</v>
+        <v>8</v>
+      </c>
+      <c r="M73" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="N73" t="s">
-        <v>121</v>
-      </c>
-      <c r="O73" t="s">
-        <v>121</v>
+        <v>8</v>
+      </c>
+      <c r="O73" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="P73" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>121</v>
-      </c>
-      <c r="R73" s="20" t="s">
-        <v>121</v>
+        <v>8</v>
+      </c>
+      <c r="Q73" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="R73" s="20">
+        <v>0</v>
       </c>
       <c r="S73" t="s">
-        <v>121</v>
+        <v>274</v>
       </c>
       <c r="T73" t="s">
         <v>121</v>
@@ -14048,44 +14066,44 @@
       <c r="U73" t="s">
         <v>121</v>
       </c>
-      <c r="V73" t="s">
-        <v>121</v>
-      </c>
-      <c r="W73" t="s">
-        <v>121</v>
-      </c>
-      <c r="X73" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>121</v>
+      <c r="V73">
+        <v>5</v>
+      </c>
+      <c r="W73">
+        <v>1</v>
+      </c>
+      <c r="X73">
+        <v>6</v>
+      </c>
+      <c r="Y73">
+        <v>1</v>
+      </c>
+      <c r="Z73">
+        <v>1</v>
+      </c>
+      <c r="AA73">
+        <v>16</v>
       </c>
       <c r="AB73" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC73" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD73" t="s">
-        <v>121</v>
+        <v>98</v>
+      </c>
+      <c r="AC73">
+        <v>1</v>
+      </c>
+      <c r="AD73">
+        <v>8</v>
       </c>
       <c r="AE73" s="10" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="AF73" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG73" t="s">
-        <v>121</v>
+        <v>8</v>
+      </c>
+      <c r="AG73" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="AH73" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="AI73" t="s">
         <v>285</v>
@@ -14127,15 +14145,15 @@
         <v>8</v>
       </c>
       <c r="AV73">
-        <f t="shared" ref="AV73" si="89">AK73-(AN73+AR73)</f>
+        <f t="shared" ref="AV73:AV74" si="89">AK73-(AN73+AR73)</f>
         <v>29</v>
       </c>
       <c r="AW73">
-        <f t="shared" ref="AW73" si="90">AL73-(AO73+AS73)</f>
+        <f t="shared" ref="AW73:AW74" si="90">AL73-(AO73+AS73)</f>
         <v>385</v>
       </c>
       <c r="AX73" s="10">
-        <f t="shared" ref="AX73" si="91">AM73-(AP73+AT73)</f>
+        <f t="shared" ref="AX73:AX74" si="91">AM73-(AP73+AT73)</f>
         <v>30</v>
       </c>
       <c r="AY73" t="s">
@@ -14151,6 +14169,179 @@
         <v>317</v>
       </c>
       <c r="BC73" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="B74" t="s">
+        <v>281</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G74" t="s">
+        <v>121</v>
+      </c>
+      <c r="H74" t="s">
+        <v>121</v>
+      </c>
+      <c r="I74" t="s">
+        <v>121</v>
+      </c>
+      <c r="J74" t="s">
+        <v>121</v>
+      </c>
+      <c r="K74" t="s">
+        <v>121</v>
+      </c>
+      <c r="L74" t="s">
+        <v>121</v>
+      </c>
+      <c r="M74" t="s">
+        <v>121</v>
+      </c>
+      <c r="N74" t="s">
+        <v>121</v>
+      </c>
+      <c r="O74" t="s">
+        <v>121</v>
+      </c>
+      <c r="P74" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q74" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="R74" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="S74" t="s">
+        <v>274</v>
+      </c>
+      <c r="T74" t="s">
+        <v>121</v>
+      </c>
+      <c r="U74" t="s">
+        <v>121</v>
+      </c>
+      <c r="V74">
+        <v>5</v>
+      </c>
+      <c r="W74">
+        <v>1</v>
+      </c>
+      <c r="X74">
+        <v>6</v>
+      </c>
+      <c r="Y74">
+        <v>1</v>
+      </c>
+      <c r="Z74">
+        <v>1</v>
+      </c>
+      <c r="AA74">
+        <v>16</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC74">
+        <v>1</v>
+      </c>
+      <c r="AD74">
+        <v>8</v>
+      </c>
+      <c r="AE74" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG74" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>285</v>
+      </c>
+      <c r="AJ74" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK74">
+        <v>125</v>
+      </c>
+      <c r="AL74">
+        <v>1169</v>
+      </c>
+      <c r="AM74" s="20">
+        <v>414</v>
+      </c>
+      <c r="AN74">
+        <f>AN64-(AR74*2)</f>
+        <v>64</v>
+      </c>
+      <c r="AO74">
+        <f t="shared" ref="AO74:AP74" si="92">AO64-(AS74*2)</f>
+        <v>752</v>
+      </c>
+      <c r="AP74">
+        <f t="shared" si="92"/>
+        <v>352</v>
+      </c>
+      <c r="AQ74" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR74">
+        <v>16</v>
+      </c>
+      <c r="AS74">
+        <v>16</v>
+      </c>
+      <c r="AT74">
+        <v>16</v>
+      </c>
+      <c r="AU74" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV74">
+        <f t="shared" si="89"/>
+        <v>45</v>
+      </c>
+      <c r="AW74">
+        <f t="shared" si="90"/>
+        <v>401</v>
+      </c>
+      <c r="AX74" s="10">
+        <f t="shared" si="91"/>
+        <v>46</v>
+      </c>
+      <c r="AY74" t="s">
+        <v>327</v>
+      </c>
+      <c r="AZ74" t="s">
+        <v>328</v>
+      </c>
+      <c r="BA74" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB74" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC74" t="s">
         <v>121</v>
       </c>
     </row>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FE75CD-6F90-4A15-B941-33C9E65A5312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65881D31-E9FD-4CD6-A17A-5D1C177136F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2505" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="335">
   <si>
     <t>patch z</t>
   </si>
@@ -1033,6 +1033,15 @@
   </si>
   <si>
     <t>231017-0</t>
+  </si>
+  <si>
+    <t>ValueError: requested an output size of torch.Size([9, 95, 45]), but valid sizes range from [7, 93, 43] to [8, 94, 44] (for an input of torch.Size([4, 47, 22]))</t>
+  </si>
+  <si>
+    <t>231017-1</t>
+  </si>
+  <si>
+    <t>Failure: Error, invalid patch shape &amp;/ invalid stride shape (torch.size error). A predict3dunet output line says "The shape of the output prediction maps (CDHW): (1, 125, 1169, 414)", and there are 700 patches. Therefore, predict3dunet tries to segment the whole image. I will try with the same patch shape used for training this model.</t>
   </si>
 </sst>
 </file>
@@ -1247,10 +1256,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1565,43 +1572,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
-  <dimension ref="A1:BC77"/>
+  <dimension ref="A1:BC83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AY74" sqref="AY74"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="64.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="14.5703125" style="6" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="8.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="33" customWidth="1"/>
-    <col min="11" max="17" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="9.140625" style="20"/>
-    <col min="19" max="19" width="12.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="6.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="5.140625" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="11.140625" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="6" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="14.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="7.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="8.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="15.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="7.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="9.7109375" style="10" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="64.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="14.5703125" style="6" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="30.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="9.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="33" customWidth="1" collapsed="1"/>
+    <col min="11" max="17" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="9.140625" style="20" collapsed="1"/>
+    <col min="19" max="19" width="12.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="9.140625" collapsed="1"/>
+    <col min="22" max="22" width="6.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="5.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="11.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="6" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="14.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="7.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="8.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="15.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="7.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="9.7109375" style="10" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="16.7109375" customWidth="1" collapsed="1"/>
     <col min="33" max="34" width="14.85546875" customWidth="1"/>
     <col min="35" max="35" width="21" customWidth="1"/>
-    <col min="36" max="36" width="26.28515625" style="10" customWidth="1" outlineLevel="1"/>
-    <col min="37" max="38" width="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="26.28515625" style="10" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="6" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="6" style="20" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="5.28515625" customWidth="1"/>
     <col min="41" max="41" width="6.140625" customWidth="1"/>
@@ -1935,18 +1944,9 @@
       <c r="AU2" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="AV2" s="13">
-        <f>AK2-(AN2+AR2)</f>
-        <v>29</v>
-      </c>
-      <c r="AW2" s="13">
-        <f t="shared" ref="AW2:AX2" si="0">AL2-(AO2+AS2)</f>
-        <v>145</v>
-      </c>
-      <c r="AX2" s="13">
-        <f t="shared" si="0"/>
-        <v>174</v>
-      </c>
+      <c r="AV2" s="13"/>
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="13"/>
       <c r="AY2" s="13" t="s">
         <v>267</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>2</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X24" si="1" xml:space="preserve"> V3 + W3</f>
+        <f t="shared" ref="X3:X24" si="0" xml:space="preserve"> V3 + W3</f>
         <v>5</v>
       </c>
       <c r="Y3">
@@ -2107,18 +2107,9 @@
       <c r="AU3" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="AV3" s="13">
-        <f t="shared" ref="AV3:AV66" si="2">AK3-(AN3+AR3)</f>
-        <v>29</v>
-      </c>
-      <c r="AW3" s="13">
-        <f t="shared" ref="AW3:AW66" si="3">AL3-(AO3+AS3)</f>
-        <v>145</v>
-      </c>
-      <c r="AX3" s="27">
-        <f t="shared" ref="AX3:AX66" si="4">AM3-(AP3+AT3)</f>
-        <v>174</v>
-      </c>
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="13"/>
+      <c r="AX3" s="27"/>
       <c r="AY3" s="13" t="s">
         <v>267</v>
       </c>
@@ -2206,7 +2197,7 @@
         <v>2</v>
       </c>
       <c r="X4" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Y4" s="8">
@@ -2227,7 +2218,7 @@
       <c r="AD4" s="8">
         <v>8</v>
       </c>
-      <c r="AE4" s="31" t="s">
+      <c r="AE4" s="30" t="s">
         <v>100</v>
       </c>
       <c r="AF4" s="8">
@@ -2278,18 +2269,9 @@
       <c r="AU4" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="AV4" s="16">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AW4" s="16">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="AX4" s="28">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="AV4" s="16"/>
+      <c r="AW4" s="16"/>
+      <c r="AX4" s="28"/>
       <c r="AY4" s="16" t="s">
         <v>24</v>
       </c>
@@ -2377,7 +2359,7 @@
         <v>2</v>
       </c>
       <c r="X5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Y5">
@@ -2448,18 +2430,6 @@
       </c>
       <c r="AU5" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV5">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="AW5">
-        <f t="shared" si="3"/>
-        <v>59</v>
-      </c>
-      <c r="AX5" s="10">
-        <f t="shared" si="4"/>
-        <v>14</v>
       </c>
       <c r="AY5" s="13" t="s">
         <v>24</v>
@@ -2548,7 +2518,7 @@
         <v>2</v>
       </c>
       <c r="X6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Y6">
@@ -2619,18 +2589,6 @@
       </c>
       <c r="AU6" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="AW6">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="AX6" s="10">
-        <f t="shared" si="4"/>
-        <v>-1</v>
       </c>
       <c r="AY6" t="s">
         <v>24</v>
@@ -2719,7 +2677,7 @@
         <v>2</v>
       </c>
       <c r="X7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Y7">
@@ -2790,18 +2748,6 @@
       </c>
       <c r="AU7" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AX7" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
       <c r="AY7" t="s">
         <v>24</v>
@@ -2890,7 +2836,7 @@
         <v>2</v>
       </c>
       <c r="X8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Y8">
@@ -2961,18 +2907,6 @@
       </c>
       <c r="AU8" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV8">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="AW8">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="AX8" s="10">
-        <f t="shared" si="4"/>
-        <v>7</v>
       </c>
       <c r="AY8" t="s">
         <v>24</v>
@@ -3061,7 +2995,7 @@
         <v>2</v>
       </c>
       <c r="X9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Y9">
@@ -3138,18 +3072,6 @@
       </c>
       <c r="AU9" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV9">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="AW9">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="AX9" s="10">
-        <f t="shared" si="4"/>
-        <v>55</v>
       </c>
       <c r="AY9" t="s">
         <v>24</v>
@@ -3238,7 +3160,7 @@
         <v>2</v>
       </c>
       <c r="X10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Y10">
@@ -3309,18 +3231,6 @@
       </c>
       <c r="AU10" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV10">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="AW10">
-        <f t="shared" si="3"/>
-        <v>121</v>
-      </c>
-      <c r="AX10" s="10">
-        <f t="shared" si="4"/>
-        <v>62</v>
       </c>
       <c r="AY10" t="s">
         <v>28</v>
@@ -3409,7 +3319,7 @@
         <v>2</v>
       </c>
       <c r="X11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Y11">
@@ -3480,18 +3390,6 @@
       </c>
       <c r="AU11" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV11">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="AW11">
-        <f t="shared" si="3"/>
-        <v>121</v>
-      </c>
-      <c r="AX11" s="10">
-        <f t="shared" si="4"/>
-        <v>70</v>
       </c>
       <c r="AY11" t="s">
         <v>27</v>
@@ -3580,7 +3478,7 @@
         <v>2</v>
       </c>
       <c r="X12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Y12">
@@ -3652,18 +3550,6 @@
       </c>
       <c r="AU12" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV12">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="AW12">
-        <f t="shared" si="3"/>
-        <v>393</v>
-      </c>
-      <c r="AX12" s="10">
-        <f t="shared" si="4"/>
-        <v>134</v>
       </c>
       <c r="AY12" t="s">
         <v>27</v>
@@ -3752,7 +3638,7 @@
         <v>2</v>
       </c>
       <c r="X13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Y13">
@@ -3823,18 +3709,6 @@
       </c>
       <c r="AU13" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV13">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="AW13">
-        <f t="shared" si="3"/>
-        <v>385</v>
-      </c>
-      <c r="AX13" s="10">
-        <f t="shared" si="4"/>
-        <v>126</v>
       </c>
       <c r="AY13" t="s">
         <v>34</v>
@@ -3923,7 +3797,7 @@
         <v>2</v>
       </c>
       <c r="X14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Y14">
@@ -3994,18 +3868,6 @@
       </c>
       <c r="AU14" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV14">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="AW14">
-        <f t="shared" si="3"/>
-        <v>393</v>
-      </c>
-      <c r="AX14" s="10">
-        <f t="shared" si="4"/>
-        <v>134</v>
       </c>
       <c r="AY14" t="s">
         <v>34</v>
@@ -4094,7 +3956,7 @@
         <v>2</v>
       </c>
       <c r="X15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Y15">
@@ -4125,7 +3987,7 @@
         <v>18657</v>
       </c>
       <c r="AH15">
-        <f t="shared" ref="AH15:AH24" si="5">AF15+AG15</f>
+        <f t="shared" ref="AH15:AH24" si="1">AF15+AG15</f>
         <v>32500</v>
       </c>
       <c r="AI15" t="s">
@@ -4166,18 +4028,6 @@
       </c>
       <c r="AU15" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV15">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="AW15">
-        <f t="shared" si="3"/>
-        <v>377</v>
-      </c>
-      <c r="AX15" s="10">
-        <f t="shared" si="4"/>
-        <v>134</v>
       </c>
       <c r="AY15" t="s">
         <v>27</v>
@@ -4266,7 +4116,7 @@
         <v>2</v>
       </c>
       <c r="X16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Y16" s="4">
@@ -4297,7 +4147,7 @@
         <v>18657</v>
       </c>
       <c r="AH16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
       <c r="AI16" s="4" t="s">
@@ -4339,18 +4189,7 @@
       <c r="AU16" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AV16" s="4">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="AW16" s="4">
-        <f t="shared" si="3"/>
-        <v>385</v>
-      </c>
-      <c r="AX16" s="29">
-        <f t="shared" si="4"/>
-        <v>126</v>
-      </c>
+      <c r="AX16" s="29"/>
       <c r="AY16" s="4" t="s">
         <v>66</v>
       </c>
@@ -4438,7 +4277,7 @@
         <v>2</v>
       </c>
       <c r="X17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Y17">
@@ -4469,7 +4308,7 @@
         <v>22365</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
       <c r="AI17" t="s">
@@ -4510,18 +4349,6 @@
       </c>
       <c r="AU17" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV17">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="AW17">
-        <f t="shared" si="3"/>
-        <v>401</v>
-      </c>
-      <c r="AX17" s="10">
-        <f t="shared" si="4"/>
-        <v>158</v>
       </c>
       <c r="AY17" t="s">
         <v>66</v>
@@ -4610,7 +4437,7 @@
         <v>2</v>
       </c>
       <c r="X18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Y18">
@@ -4641,7 +4468,7 @@
         <v>22365</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
       <c r="AI18" t="s">
@@ -4682,18 +4509,6 @@
       </c>
       <c r="AU18" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV18">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="AW18">
-        <f t="shared" si="3"/>
-        <v>385</v>
-      </c>
-      <c r="AX18" s="10">
-        <f t="shared" si="4"/>
-        <v>134</v>
       </c>
       <c r="AY18" t="s">
         <v>66</v>
@@ -4782,7 +4597,7 @@
         <v>2</v>
       </c>
       <c r="X19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Y19">
@@ -4813,7 +4628,7 @@
         <v>21501</v>
       </c>
       <c r="AH19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
       <c r="AI19" t="s">
@@ -4854,18 +4669,6 @@
       </c>
       <c r="AU19" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV19">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="AW19">
-        <f t="shared" si="3"/>
-        <v>385</v>
-      </c>
-      <c r="AX19" s="10">
-        <f t="shared" si="4"/>
-        <v>126</v>
       </c>
       <c r="AY19" t="s">
         <v>66</v>
@@ -4954,7 +4757,7 @@
         <v>2</v>
       </c>
       <c r="X20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Y20">
@@ -4985,7 +4788,7 @@
         <v>20657</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
       <c r="AI20" t="s">
@@ -5026,18 +4829,6 @@
       </c>
       <c r="AU20" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV20">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="AW20">
-        <f t="shared" si="3"/>
-        <v>385</v>
-      </c>
-      <c r="AX20" s="10">
-        <f t="shared" si="4"/>
-        <v>118</v>
       </c>
       <c r="AY20" t="s">
         <v>66</v>
@@ -5126,7 +4917,7 @@
         <v>2</v>
       </c>
       <c r="X21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Y21">
@@ -5157,7 +4948,7 @@
         <v>22027</v>
       </c>
       <c r="AH21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
       <c r="AI21" t="s">
@@ -5198,18 +4989,6 @@
       </c>
       <c r="AU21" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV21">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="AW21">
-        <f t="shared" si="3"/>
-        <v>377</v>
-      </c>
-      <c r="AX21" s="10">
-        <f t="shared" si="4"/>
-        <v>134</v>
       </c>
       <c r="AY21" t="s">
         <v>66</v>
@@ -5298,7 +5077,7 @@
         <v>2</v>
       </c>
       <c r="X22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Y22">
@@ -5329,7 +5108,7 @@
         <v>21675</v>
       </c>
       <c r="AH22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
       <c r="AI22" t="s">
@@ -5370,18 +5149,6 @@
       </c>
       <c r="AU22" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV22">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="AW22">
-        <f t="shared" si="3"/>
-        <v>369</v>
-      </c>
-      <c r="AX22" s="10">
-        <f t="shared" si="4"/>
-        <v>134</v>
       </c>
       <c r="AY22" t="s">
         <v>66</v>
@@ -5470,7 +5237,7 @@
         <v>2</v>
       </c>
       <c r="X23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Y23">
@@ -5501,7 +5268,7 @@
         <v>20183</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
       <c r="AI23" t="s">
@@ -5542,18 +5309,6 @@
       </c>
       <c r="AU23" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV23">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="AW23">
-        <f t="shared" si="3"/>
-        <v>385</v>
-      </c>
-      <c r="AX23" s="10">
-        <f t="shared" si="4"/>
-        <v>134</v>
       </c>
       <c r="AY23" t="s">
         <v>66</v>
@@ -5642,7 +5397,7 @@
         <v>2</v>
       </c>
       <c r="X24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Y24">
@@ -5673,7 +5428,7 @@
         <v>18057</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
       <c r="AI24" t="s">
@@ -5714,18 +5469,6 @@
       </c>
       <c r="AU24" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV24">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="AW24">
-        <f t="shared" si="3"/>
-        <v>385</v>
-      </c>
-      <c r="AX24" s="10">
-        <f t="shared" si="4"/>
-        <v>134</v>
       </c>
       <c r="AY24" t="s">
         <v>66</v>
@@ -5885,10 +5628,10 @@
       <c r="AU25" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AV25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AW25" t="s">
+      <c r="AV25" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW25" s="31" t="s">
         <v>8</v>
       </c>
       <c r="AX25" s="10" t="s">
@@ -6148,7 +5891,7 @@
         <v>2</v>
       </c>
       <c r="X27">
-        <f t="shared" ref="X27:X34" si="6" xml:space="preserve"> V27 + W27</f>
+        <f t="shared" ref="X27:X34" si="2" xml:space="preserve"> V27 + W27</f>
         <v>5</v>
       </c>
       <c r="Y27">
@@ -6183,7 +5926,7 @@
         <v>81052</v>
       </c>
       <c r="AI27">
-        <f t="shared" ref="AI27" si="7" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN27*AO27*AP27)</f>
+        <f t="shared" ref="AI27" si="3" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN27*AO27*AP27)</f>
         <v>83027.753778838392</v>
       </c>
       <c r="AJ27" s="10" t="s">
@@ -6211,31 +5954,19 @@
         <v>48</v>
       </c>
       <c r="AR27">
-        <f t="shared" ref="AR27:AR34" si="8" xml:space="preserve"> _xlfn.FLOOR.MATH((AK27 - AN27) / 2)</f>
+        <f t="shared" ref="AR27:AR34" si="4" xml:space="preserve"> _xlfn.FLOOR.MATH((AK27 - AN27) / 2)</f>
         <v>6</v>
       </c>
       <c r="AS27">
-        <f t="shared" ref="AS27" si="9" xml:space="preserve"> _xlfn.FLOOR.MATH((AL27 - AO27) / 2)</f>
+        <f t="shared" ref="AS27" si="5" xml:space="preserve"> _xlfn.FLOOR.MATH((AL27 - AO27) / 2)</f>
         <v>152</v>
       </c>
       <c r="AT27">
-        <f t="shared" ref="AT27" si="10" xml:space="preserve"> _xlfn.FLOOR.MATH((AM27 - AP27) / 2)</f>
+        <f t="shared" ref="AT27" si="6" xml:space="preserve"> _xlfn.FLOOR.MATH((AM27 - AP27) / 2)</f>
         <v>7</v>
       </c>
       <c r="AU27" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV27">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="AW27">
-        <f t="shared" si="3"/>
-        <v>153</v>
-      </c>
-      <c r="AX27" s="10">
-        <f t="shared" si="4"/>
-        <v>7</v>
       </c>
       <c r="AY27" t="s">
         <v>66</v>
@@ -6324,7 +6055,7 @@
         <v>2</v>
       </c>
       <c r="X28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="Y28">
@@ -6358,7 +6089,7 @@
         <v>81052</v>
       </c>
       <c r="AI28">
-        <f t="shared" ref="AI28:AI33" si="11" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN28*AO28*AP28)</f>
+        <f t="shared" ref="AI28:AI33" si="7" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN28*AO28*AP28)</f>
         <v>81518.129922434266</v>
       </c>
       <c r="AJ28" s="10" t="s">
@@ -6386,31 +6117,19 @@
         <v>48</v>
       </c>
       <c r="AR28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AS28">
-        <f t="shared" ref="AS28" si="12" xml:space="preserve"> _xlfn.FLOOR.MATH((AL28 - AO28) / 2)</f>
+        <f t="shared" ref="AS28" si="8" xml:space="preserve"> _xlfn.FLOOR.MATH((AL28 - AO28) / 2)</f>
         <v>160</v>
       </c>
       <c r="AT28">
-        <f t="shared" ref="AT28" si="13" xml:space="preserve"> _xlfn.FLOOR.MATH((AM28 - AP28) / 2)</f>
+        <f t="shared" ref="AT28" si="9" xml:space="preserve"> _xlfn.FLOOR.MATH((AM28 - AP28) / 2)</f>
         <v>7</v>
       </c>
       <c r="AU28" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV28">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="AW28">
-        <f t="shared" si="3"/>
-        <v>161</v>
-      </c>
-      <c r="AX28" s="10">
-        <f t="shared" si="4"/>
-        <v>7</v>
       </c>
       <c r="AY28" t="s">
         <v>66</v>
@@ -6499,7 +6218,7 @@
         <v>2</v>
       </c>
       <c r="X29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="Y29">
@@ -6534,7 +6253,7 @@
         <v>81052</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>76989.258353221856</v>
       </c>
       <c r="AJ29" s="10" t="s">
@@ -6562,31 +6281,19 @@
         <v>48</v>
       </c>
       <c r="AR29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AS29">
-        <f t="shared" ref="AS29" si="14" xml:space="preserve"> _xlfn.FLOOR.MATH((AL29 - AO29) / 2)</f>
+        <f t="shared" ref="AS29" si="10" xml:space="preserve"> _xlfn.FLOOR.MATH((AL29 - AO29) / 2)</f>
         <v>184</v>
       </c>
       <c r="AT29">
-        <f t="shared" ref="AT29" si="15" xml:space="preserve"> _xlfn.FLOOR.MATH((AM29 - AP29) / 2)</f>
+        <f t="shared" ref="AT29" si="11" xml:space="preserve"> _xlfn.FLOOR.MATH((AM29 - AP29) / 2)</f>
         <v>7</v>
       </c>
       <c r="AU29" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV29">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="AW29">
-        <f t="shared" si="3"/>
-        <v>185</v>
-      </c>
-      <c r="AX29" s="10">
-        <f t="shared" si="4"/>
-        <v>7</v>
       </c>
       <c r="AY29" t="s">
         <v>168</v>
@@ -6675,7 +6382,7 @@
         <v>2</v>
       </c>
       <c r="X30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="Y30">
@@ -6710,7 +6417,7 @@
         <v>81052</v>
       </c>
       <c r="AI30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>76989.258353221856</v>
       </c>
       <c r="AJ30" s="10" t="s">
@@ -6738,31 +6445,19 @@
         <v>48</v>
       </c>
       <c r="AR30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AS30">
-        <f t="shared" ref="AS30:AS34" si="16" xml:space="preserve"> _xlfn.FLOOR.MATH((AL30 - AO30) / 2)</f>
+        <f t="shared" ref="AS30:AS34" si="12" xml:space="preserve"> _xlfn.FLOOR.MATH((AL30 - AO30) / 2)</f>
         <v>184</v>
       </c>
       <c r="AT30">
-        <f t="shared" ref="AT30:AT34" si="17" xml:space="preserve"> _xlfn.FLOOR.MATH((AM30 - AP30) / 2)</f>
+        <f t="shared" ref="AT30:AT34" si="13" xml:space="preserve"> _xlfn.FLOOR.MATH((AM30 - AP30) / 2)</f>
         <v>7</v>
       </c>
       <c r="AU30" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV30">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="AW30">
-        <f t="shared" si="3"/>
-        <v>185</v>
-      </c>
-      <c r="AX30" s="10">
-        <f t="shared" si="4"/>
-        <v>7</v>
       </c>
       <c r="AY30" t="s">
         <v>168</v>
@@ -6851,7 +6546,7 @@
         <v>2</v>
       </c>
       <c r="X31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="Y31">
@@ -6886,7 +6581,7 @@
         <v>81052</v>
       </c>
       <c r="AI31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>76989.258353221856</v>
       </c>
       <c r="AJ31" s="10" t="s">
@@ -6914,31 +6609,19 @@
         <v>48</v>
       </c>
       <c r="AR31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AS31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>184</v>
       </c>
       <c r="AT31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="AU31" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV31">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="AW31">
-        <f t="shared" si="3"/>
-        <v>185</v>
-      </c>
-      <c r="AX31" s="10">
-        <f t="shared" si="4"/>
-        <v>7</v>
       </c>
       <c r="AY31" t="s">
         <v>168</v>
@@ -7027,7 +6710,7 @@
         <v>2</v>
       </c>
       <c r="X32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="Y32">
@@ -7061,7 +6744,7 @@
         <v>81052</v>
       </c>
       <c r="AI32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>76989.258353221856</v>
       </c>
       <c r="AJ32" s="10" t="s">
@@ -7089,31 +6772,19 @@
         <v>48</v>
       </c>
       <c r="AR32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AS32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>184</v>
       </c>
       <c r="AT32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="AU32" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV32">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="AW32">
-        <f t="shared" si="3"/>
-        <v>185</v>
-      </c>
-      <c r="AX32" s="10">
-        <f t="shared" si="4"/>
-        <v>7</v>
       </c>
       <c r="AY32" t="s">
         <v>168</v>
@@ -7202,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="X33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="Y33">
@@ -7236,7 +6907,7 @@
         <v>81052</v>
       </c>
       <c r="AI33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>76989.258353221856</v>
       </c>
       <c r="AJ33" s="10" t="s">
@@ -7264,31 +6935,19 @@
         <v>48</v>
       </c>
       <c r="AR33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AS33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>184</v>
       </c>
       <c r="AT33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="AU33" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV33">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="AW33">
-        <f t="shared" si="3"/>
-        <v>185</v>
-      </c>
-      <c r="AX33" s="10">
-        <f t="shared" si="4"/>
-        <v>7</v>
       </c>
       <c r="AY33" t="s">
         <v>168</v>
@@ -7377,7 +7036,7 @@
         <v>1</v>
       </c>
       <c r="X34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="Y34">
@@ -7411,7 +7070,7 @@
         <v>81052</v>
       </c>
       <c r="AI34">
-        <f t="shared" ref="AI34:AI45" si="18" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN34*AO34*AP34) / 5 * X34</f>
+        <f t="shared" ref="AI34:AI45" si="14" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN34*AO34*AP34) / 5 * X34</f>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ34" s="10" t="s">
@@ -7439,31 +7098,19 @@
         <v>48</v>
       </c>
       <c r="AR34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="AS34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>192</v>
       </c>
       <c r="AT34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="AU34" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV34">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="AW34">
-        <f t="shared" si="3"/>
-        <v>193</v>
-      </c>
-      <c r="AX34" s="10">
-        <f t="shared" si="4"/>
-        <v>15</v>
       </c>
       <c r="AY34" t="s">
         <v>168</v>
@@ -7552,7 +7199,7 @@
         <v>1</v>
       </c>
       <c r="X35">
-        <f t="shared" ref="X35" si="19" xml:space="preserve"> V35 + W35</f>
+        <f t="shared" ref="X35" si="15" xml:space="preserve"> V35 + W35</f>
         <v>6</v>
       </c>
       <c r="Y35">
@@ -7586,7 +7233,7 @@
         <v>81052</v>
       </c>
       <c r="AI35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>76071.407048528155</v>
       </c>
       <c r="AJ35" s="10" t="s">
@@ -7614,31 +7261,19 @@
         <v>48</v>
       </c>
       <c r="AR35">
-        <f t="shared" ref="AR35" si="20" xml:space="preserve"> _xlfn.FLOOR.MATH((AK35 - AN35) / 2)</f>
+        <f t="shared" ref="AR35" si="16" xml:space="preserve"> _xlfn.FLOOR.MATH((AK35 - AN35) / 2)</f>
         <v>13</v>
       </c>
       <c r="AS35">
-        <f t="shared" ref="AS35" si="21" xml:space="preserve"> _xlfn.FLOOR.MATH((AL35 - AO35) / 2)</f>
+        <f t="shared" ref="AS35" si="17" xml:space="preserve"> _xlfn.FLOOR.MATH((AL35 - AO35) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT35">
-        <f t="shared" ref="AT35" si="22" xml:space="preserve"> _xlfn.FLOOR.MATH((AM35 - AP35) / 2)</f>
+        <f t="shared" ref="AT35" si="18" xml:space="preserve"> _xlfn.FLOOR.MATH((AM35 - AP35) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU35" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV35">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="AW35">
-        <f t="shared" si="3"/>
-        <v>193</v>
-      </c>
-      <c r="AX35" s="10">
-        <f t="shared" si="4"/>
-        <v>15</v>
       </c>
       <c r="AY35" t="s">
         <v>168</v>
@@ -7727,7 +7362,7 @@
         <v>1</v>
       </c>
       <c r="X36">
-        <f t="shared" ref="X36" si="23" xml:space="preserve"> V36 + W36</f>
+        <f t="shared" ref="X36" si="19" xml:space="preserve"> V36 + W36</f>
         <v>6</v>
       </c>
       <c r="Y36">
@@ -7761,7 +7396,7 @@
         <v>81052</v>
       </c>
       <c r="AI36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>76071.407048528155</v>
       </c>
       <c r="AJ36" s="10" t="s">
@@ -7789,31 +7424,19 @@
         <v>48</v>
       </c>
       <c r="AR36">
-        <f t="shared" ref="AR36" si="24" xml:space="preserve"> _xlfn.FLOOR.MATH((AK36 - AN36) / 2)</f>
+        <f t="shared" ref="AR36" si="20" xml:space="preserve"> _xlfn.FLOOR.MATH((AK36 - AN36) / 2)</f>
         <v>13</v>
       </c>
       <c r="AS36">
-        <f t="shared" ref="AS36" si="25" xml:space="preserve"> _xlfn.FLOOR.MATH((AL36 - AO36) / 2)</f>
+        <f t="shared" ref="AS36" si="21" xml:space="preserve"> _xlfn.FLOOR.MATH((AL36 - AO36) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT36">
-        <f t="shared" ref="AT36" si="26" xml:space="preserve"> _xlfn.FLOOR.MATH((AM36 - AP36) / 2)</f>
+        <f t="shared" ref="AT36" si="22" xml:space="preserve"> _xlfn.FLOOR.MATH((AM36 - AP36) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU36" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV36">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="AW36">
-        <f t="shared" si="3"/>
-        <v>193</v>
-      </c>
-      <c r="AX36" s="10">
-        <f t="shared" si="4"/>
-        <v>15</v>
       </c>
       <c r="AY36" t="s">
         <v>168</v>
@@ -7902,7 +7525,7 @@
         <v>1</v>
       </c>
       <c r="X37">
-        <f t="shared" ref="X37" si="27" xml:space="preserve"> V37 + W37</f>
+        <f t="shared" ref="X37" si="23" xml:space="preserve"> V37 + W37</f>
         <v>6</v>
       </c>
       <c r="Y37">
@@ -7936,7 +7559,7 @@
         <v>81052</v>
       </c>
       <c r="AI37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ37" s="10" t="s">
@@ -7964,31 +7587,19 @@
         <v>48</v>
       </c>
       <c r="AR37">
-        <f t="shared" ref="AR37" si="28" xml:space="preserve"> _xlfn.FLOOR.MATH((AK37 - AN37) / 2)</f>
+        <f t="shared" ref="AR37" si="24" xml:space="preserve"> _xlfn.FLOOR.MATH((AK37 - AN37) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS37">
-        <f t="shared" ref="AS37" si="29" xml:space="preserve"> _xlfn.FLOOR.MATH((AL37 - AO37) / 2)</f>
+        <f t="shared" ref="AS37" si="25" xml:space="preserve"> _xlfn.FLOOR.MATH((AL37 - AO37) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT37">
-        <f t="shared" ref="AT37" si="30" xml:space="preserve"> _xlfn.FLOOR.MATH((AM37 - AP37) / 2)</f>
+        <f t="shared" ref="AT37" si="26" xml:space="preserve"> _xlfn.FLOOR.MATH((AM37 - AP37) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU37" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV37">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="AW37">
-        <f t="shared" si="3"/>
-        <v>193</v>
-      </c>
-      <c r="AX37" s="10">
-        <f t="shared" si="4"/>
-        <v>15</v>
       </c>
       <c r="AY37" t="s">
         <v>168</v>
@@ -8077,7 +7688,7 @@
         <v>1</v>
       </c>
       <c r="X38">
-        <f t="shared" ref="X38" si="31" xml:space="preserve"> V38 + W38</f>
+        <f t="shared" ref="X38" si="27" xml:space="preserve"> V38 + W38</f>
         <v>6</v>
       </c>
       <c r="Y38">
@@ -8111,7 +7722,7 @@
         <v>81052</v>
       </c>
       <c r="AI38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ38" s="10" t="s">
@@ -8139,31 +7750,19 @@
         <v>48</v>
       </c>
       <c r="AR38">
-        <f t="shared" ref="AR38" si="32" xml:space="preserve"> _xlfn.FLOOR.MATH((AK38 - AN38) / 2)</f>
+        <f t="shared" ref="AR38" si="28" xml:space="preserve"> _xlfn.FLOOR.MATH((AK38 - AN38) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS38">
-        <f t="shared" ref="AS38" si="33" xml:space="preserve"> _xlfn.FLOOR.MATH((AL38 - AO38) / 2)</f>
+        <f t="shared" ref="AS38" si="29" xml:space="preserve"> _xlfn.FLOOR.MATH((AL38 - AO38) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT38">
-        <f t="shared" ref="AT38" si="34" xml:space="preserve"> _xlfn.FLOOR.MATH((AM38 - AP38) / 2)</f>
+        <f t="shared" ref="AT38" si="30" xml:space="preserve"> _xlfn.FLOOR.MATH((AM38 - AP38) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU38" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV38">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="AW38">
-        <f t="shared" si="3"/>
-        <v>193</v>
-      </c>
-      <c r="AX38" s="10">
-        <f t="shared" si="4"/>
-        <v>15</v>
       </c>
       <c r="AY38" t="s">
         <v>168</v>
@@ -8252,7 +7851,7 @@
         <v>1</v>
       </c>
       <c r="X39">
-        <f t="shared" ref="X39" si="35" xml:space="preserve"> V39 + W39</f>
+        <f t="shared" ref="X39" si="31" xml:space="preserve"> V39 + W39</f>
         <v>6</v>
       </c>
       <c r="Y39">
@@ -8286,7 +7885,7 @@
         <v>81052</v>
       </c>
       <c r="AI39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ39" s="10" t="s">
@@ -8314,31 +7913,19 @@
         <v>48</v>
       </c>
       <c r="AR39">
-        <f t="shared" ref="AR39" si="36" xml:space="preserve"> _xlfn.FLOOR.MATH((AK39 - AN39) / 2)</f>
+        <f t="shared" ref="AR39" si="32" xml:space="preserve"> _xlfn.FLOOR.MATH((AK39 - AN39) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS39">
-        <f t="shared" ref="AS39" si="37" xml:space="preserve"> _xlfn.FLOOR.MATH((AL39 - AO39) / 2)</f>
+        <f t="shared" ref="AS39" si="33" xml:space="preserve"> _xlfn.FLOOR.MATH((AL39 - AO39) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT39">
-        <f t="shared" ref="AT39" si="38" xml:space="preserve"> _xlfn.FLOOR.MATH((AM39 - AP39) / 2)</f>
+        <f t="shared" ref="AT39" si="34" xml:space="preserve"> _xlfn.FLOOR.MATH((AM39 - AP39) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU39" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV39">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="AW39">
-        <f t="shared" si="3"/>
-        <v>193</v>
-      </c>
-      <c r="AX39" s="10">
-        <f t="shared" si="4"/>
-        <v>15</v>
       </c>
       <c r="AY39" t="s">
         <v>168</v>
@@ -8427,7 +8014,7 @@
         <v>1</v>
       </c>
       <c r="X40">
-        <f t="shared" ref="X40" si="39" xml:space="preserve"> V40 + W40</f>
+        <f t="shared" ref="X40" si="35" xml:space="preserve"> V40 + W40</f>
         <v>6</v>
       </c>
       <c r="Y40">
@@ -8461,7 +8048,7 @@
         <v>81052</v>
       </c>
       <c r="AI40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ40" s="10" t="s">
@@ -8489,31 +8076,19 @@
         <v>48</v>
       </c>
       <c r="AR40">
-        <f t="shared" ref="AR40" si="40" xml:space="preserve"> _xlfn.FLOOR.MATH((AK40 - AN40) / 2)</f>
+        <f t="shared" ref="AR40" si="36" xml:space="preserve"> _xlfn.FLOOR.MATH((AK40 - AN40) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS40">
-        <f t="shared" ref="AS40" si="41" xml:space="preserve"> _xlfn.FLOOR.MATH((AL40 - AO40) / 2)</f>
+        <f t="shared" ref="AS40" si="37" xml:space="preserve"> _xlfn.FLOOR.MATH((AL40 - AO40) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT40">
-        <f t="shared" ref="AT40" si="42" xml:space="preserve"> _xlfn.FLOOR.MATH((AM40 - AP40) / 2)</f>
+        <f t="shared" ref="AT40" si="38" xml:space="preserve"> _xlfn.FLOOR.MATH((AM40 - AP40) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU40" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV40">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="AW40">
-        <f t="shared" si="3"/>
-        <v>193</v>
-      </c>
-      <c r="AX40" s="10">
-        <f t="shared" si="4"/>
-        <v>15</v>
       </c>
       <c r="AY40" t="s">
         <v>168</v>
@@ -8602,7 +8177,7 @@
         <v>1</v>
       </c>
       <c r="X41">
-        <f t="shared" ref="X41" si="43" xml:space="preserve"> V41 + W41</f>
+        <f t="shared" ref="X41" si="39" xml:space="preserve"> V41 + W41</f>
         <v>6</v>
       </c>
       <c r="Y41">
@@ -8636,7 +8211,7 @@
         <v>81052</v>
       </c>
       <c r="AI41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ41" s="10" t="s">
@@ -8664,31 +8239,19 @@
         <v>48</v>
       </c>
       <c r="AR41">
-        <f t="shared" ref="AR41" si="44" xml:space="preserve"> _xlfn.FLOOR.MATH((AK41 - AN41) / 2)</f>
+        <f t="shared" ref="AR41" si="40" xml:space="preserve"> _xlfn.FLOOR.MATH((AK41 - AN41) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS41">
-        <f t="shared" ref="AS41" si="45" xml:space="preserve"> _xlfn.FLOOR.MATH((AL41 - AO41) / 2)</f>
+        <f t="shared" ref="AS41" si="41" xml:space="preserve"> _xlfn.FLOOR.MATH((AL41 - AO41) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT41">
-        <f t="shared" ref="AT41" si="46" xml:space="preserve"> _xlfn.FLOOR.MATH((AM41 - AP41) / 2)</f>
+        <f t="shared" ref="AT41" si="42" xml:space="preserve"> _xlfn.FLOOR.MATH((AM41 - AP41) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU41" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV41">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="AW41">
-        <f t="shared" si="3"/>
-        <v>193</v>
-      </c>
-      <c r="AX41" s="10">
-        <f t="shared" si="4"/>
-        <v>15</v>
       </c>
       <c r="AY41" t="s">
         <v>168</v>
@@ -8777,7 +8340,7 @@
         <v>1</v>
       </c>
       <c r="X42">
-        <f t="shared" ref="X42" si="47" xml:space="preserve"> V42 + W42</f>
+        <f t="shared" ref="X42" si="43" xml:space="preserve"> V42 + W42</f>
         <v>6</v>
       </c>
       <c r="Y42">
@@ -8811,7 +8374,7 @@
         <v>81052</v>
       </c>
       <c r="AI42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ42" s="10" t="s">
@@ -8839,31 +8402,19 @@
         <v>48</v>
       </c>
       <c r="AR42">
-        <f t="shared" ref="AR42" si="48" xml:space="preserve"> _xlfn.FLOOR.MATH((AK42 - AN42) / 2)</f>
+        <f t="shared" ref="AR42" si="44" xml:space="preserve"> _xlfn.FLOOR.MATH((AK42 - AN42) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS42">
-        <f t="shared" ref="AS42" si="49" xml:space="preserve"> _xlfn.FLOOR.MATH((AL42 - AO42) / 2)</f>
+        <f t="shared" ref="AS42" si="45" xml:space="preserve"> _xlfn.FLOOR.MATH((AL42 - AO42) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT42">
-        <f t="shared" ref="AT42" si="50" xml:space="preserve"> _xlfn.FLOOR.MATH((AM42 - AP42) / 2)</f>
+        <f t="shared" ref="AT42" si="46" xml:space="preserve"> _xlfn.FLOOR.MATH((AM42 - AP42) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU42" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV42">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="AW42">
-        <f t="shared" si="3"/>
-        <v>193</v>
-      </c>
-      <c r="AX42" s="10">
-        <f t="shared" si="4"/>
-        <v>15</v>
       </c>
       <c r="AY42" t="s">
         <v>168</v>
@@ -8952,7 +8503,7 @@
         <v>1</v>
       </c>
       <c r="X43">
-        <f t="shared" ref="X43" si="51" xml:space="preserve"> V43 + W43</f>
+        <f t="shared" ref="X43" si="47" xml:space="preserve"> V43 + W43</f>
         <v>6</v>
       </c>
       <c r="Y43">
@@ -8986,7 +8537,7 @@
         <v>81052</v>
       </c>
       <c r="AI43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ43" s="10" t="s">
@@ -9014,31 +8565,19 @@
         <v>48</v>
       </c>
       <c r="AR43">
-        <f t="shared" ref="AR43" si="52" xml:space="preserve"> _xlfn.FLOOR.MATH((AK43 - AN43) / 2)</f>
+        <f t="shared" ref="AR43" si="48" xml:space="preserve"> _xlfn.FLOOR.MATH((AK43 - AN43) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS43">
-        <f t="shared" ref="AS43" si="53" xml:space="preserve"> _xlfn.FLOOR.MATH((AL43 - AO43) / 2)</f>
+        <f t="shared" ref="AS43" si="49" xml:space="preserve"> _xlfn.FLOOR.MATH((AL43 - AO43) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT43">
-        <f t="shared" ref="AT43" si="54" xml:space="preserve"> _xlfn.FLOOR.MATH((AM43 - AP43) / 2)</f>
+        <f t="shared" ref="AT43" si="50" xml:space="preserve"> _xlfn.FLOOR.MATH((AM43 - AP43) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU43" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV43">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="AW43">
-        <f t="shared" si="3"/>
-        <v>193</v>
-      </c>
-      <c r="AX43" s="10">
-        <f t="shared" si="4"/>
-        <v>15</v>
       </c>
       <c r="AY43" t="s">
         <v>168</v>
@@ -9127,7 +8666,7 @@
         <v>1</v>
       </c>
       <c r="X44">
-        <f t="shared" ref="X44" si="55" xml:space="preserve"> V44 + W44</f>
+        <f t="shared" ref="X44" si="51" xml:space="preserve"> V44 + W44</f>
         <v>6</v>
       </c>
       <c r="Y44">
@@ -9158,11 +8697,11 @@
         <v>6085</v>
       </c>
       <c r="AH44">
-        <f t="shared" ref="AH44:AH63" si="56">AF44+AG44</f>
+        <f t="shared" ref="AH44:AH63" si="52">AF44+AG44</f>
         <v>81052</v>
       </c>
       <c r="AI44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ44" s="10" t="s">
@@ -9190,31 +8729,19 @@
         <v>48</v>
       </c>
       <c r="AR44">
-        <f t="shared" ref="AR44" si="57" xml:space="preserve"> _xlfn.FLOOR.MATH((AK44 - AN44) / 2)</f>
+        <f t="shared" ref="AR44" si="53" xml:space="preserve"> _xlfn.FLOOR.MATH((AK44 - AN44) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS44">
-        <f t="shared" ref="AS44" si="58" xml:space="preserve"> _xlfn.FLOOR.MATH((AL44 - AO44) / 2)</f>
+        <f t="shared" ref="AS44" si="54" xml:space="preserve"> _xlfn.FLOOR.MATH((AL44 - AO44) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT44">
-        <f t="shared" ref="AT44" si="59" xml:space="preserve"> _xlfn.FLOOR.MATH((AM44 - AP44) / 2)</f>
+        <f t="shared" ref="AT44" si="55" xml:space="preserve"> _xlfn.FLOOR.MATH((AM44 - AP44) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU44" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV44">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="AW44">
-        <f t="shared" si="3"/>
-        <v>193</v>
-      </c>
-      <c r="AX44" s="10">
-        <f t="shared" si="4"/>
-        <v>15</v>
       </c>
       <c r="AY44" t="s">
         <v>168</v>
@@ -9303,7 +8830,7 @@
         <v>1</v>
       </c>
       <c r="X45" s="4">
-        <f t="shared" ref="X45:X63" si="60" xml:space="preserve"> V45 + W45</f>
+        <f t="shared" ref="X45:X63" si="56" xml:space="preserve"> V45 + W45</f>
         <v>6</v>
       </c>
       <c r="Y45" s="4">
@@ -9334,11 +8861,11 @@
         <v>6087</v>
       </c>
       <c r="AH45" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI45" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>74549.706201272784</v>
       </c>
       <c r="AJ45" s="29" t="s">
@@ -9366,32 +8893,21 @@
         <v>48</v>
       </c>
       <c r="AR45" s="4">
-        <f t="shared" ref="AR45" si="61" xml:space="preserve"> _xlfn.FLOOR.MATH((AK45 - AN45) / 2)</f>
+        <f t="shared" ref="AR45" si="57" xml:space="preserve"> _xlfn.FLOOR.MATH((AK45 - AN45) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS45" s="4">
-        <f t="shared" ref="AS45" si="62" xml:space="preserve"> _xlfn.FLOOR.MATH((AL45 - AO45) / 2)</f>
+        <f t="shared" ref="AS45" si="58" xml:space="preserve"> _xlfn.FLOOR.MATH((AL45 - AO45) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT45" s="4">
-        <f t="shared" ref="AT45" si="63" xml:space="preserve"> _xlfn.FLOOR.MATH((AM45 - AP45) / 2)</f>
+        <f t="shared" ref="AT45" si="59" xml:space="preserve"> _xlfn.FLOOR.MATH((AM45 - AP45) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU45" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AV45" s="4">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="AW45" s="4">
-        <f t="shared" si="3"/>
-        <v>193</v>
-      </c>
-      <c r="AX45" s="29">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
+      <c r="AX45" s="29"/>
       <c r="AY45" s="4" t="s">
         <v>168</v>
       </c>
@@ -9473,7 +8989,7 @@
         <v>1</v>
       </c>
       <c r="X46">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y46">
@@ -9504,11 +9020,11 @@
         <v>6085</v>
       </c>
       <c r="AH46">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI46">
-        <f t="shared" ref="AI46:AI63" si="64" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN46*AO46*AP46) * ((Z46*AA46 + AC46*AD46) / (3*16 + 1*8)) * (X46 / 5)</f>
+        <f t="shared" ref="AI46:AI63" si="60" xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN46*AO46*AP46) * ((Z46*AA46 + AC46*AD46) / (3*16 + 1*8)) * (X46 / 5)</f>
         <v>74549.706201272769</v>
       </c>
       <c r="AJ46" s="10" t="s">
@@ -9536,31 +9052,19 @@
         <v>48</v>
       </c>
       <c r="AR46">
-        <f t="shared" ref="AR46:AR47" si="65" xml:space="preserve"> _xlfn.FLOOR.MATH((AK46 - AN46) / 2)</f>
+        <f t="shared" ref="AR46:AR47" si="61" xml:space="preserve"> _xlfn.FLOOR.MATH((AK46 - AN46) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS46">
-        <f t="shared" ref="AS46:AS47" si="66" xml:space="preserve"> _xlfn.FLOOR.MATH((AL46 - AO46) / 2)</f>
+        <f t="shared" ref="AS46:AS47" si="62" xml:space="preserve"> _xlfn.FLOOR.MATH((AL46 - AO46) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT46">
-        <f t="shared" ref="AT46:AT47" si="67" xml:space="preserve"> _xlfn.FLOOR.MATH((AM46 - AP46) / 2)</f>
+        <f t="shared" ref="AT46:AT47" si="63" xml:space="preserve"> _xlfn.FLOOR.MATH((AM46 - AP46) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU46" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV46">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="AW46">
-        <f t="shared" si="3"/>
-        <v>193</v>
-      </c>
-      <c r="AX46" s="10">
-        <f t="shared" si="4"/>
-        <v>15</v>
       </c>
       <c r="AY46" t="s">
         <v>239</v>
@@ -9643,7 +9147,7 @@
         <v>1</v>
       </c>
       <c r="X47">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y47">
@@ -9674,11 +9178,11 @@
         <v>58019</v>
       </c>
       <c r="AH47">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI47">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>22708.360330151121</v>
       </c>
       <c r="AJ47" s="10" t="s">
@@ -9706,31 +9210,19 @@
         <v>48</v>
       </c>
       <c r="AR47">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>30</v>
       </c>
       <c r="AS47">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>328</v>
       </c>
       <c r="AT47">
-        <f t="shared" si="67"/>
+        <f t="shared" si="63"/>
         <v>79</v>
       </c>
       <c r="AU47" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV47">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="AW47">
-        <f t="shared" si="3"/>
-        <v>329</v>
-      </c>
-      <c r="AX47" s="10">
-        <f t="shared" si="4"/>
-        <v>79</v>
       </c>
       <c r="AY47" t="s">
         <v>240</v>
@@ -9813,7 +9305,7 @@
         <v>1</v>
       </c>
       <c r="X48">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y48">
@@ -9844,11 +9336,11 @@
         <v>76313</v>
       </c>
       <c r="AH48">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI48">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>4158.1023826571118</v>
       </c>
       <c r="AJ48" s="10" t="s">
@@ -9876,31 +9368,19 @@
         <v>48</v>
       </c>
       <c r="AR48">
-        <f t="shared" ref="AR48:AR63" si="68" xml:space="preserve"> _xlfn.FLOOR.MATH((AK48 - AN48) / 2)</f>
+        <f t="shared" ref="AR48:AR63" si="64" xml:space="preserve"> _xlfn.FLOOR.MATH((AK48 - AN48) / 2)</f>
         <v>46</v>
       </c>
       <c r="AS48">
-        <f t="shared" ref="AS48:AS63" si="69" xml:space="preserve"> _xlfn.FLOOR.MATH((AL48 - AO48) / 2)</f>
+        <f t="shared" ref="AS48:AS63" si="65" xml:space="preserve"> _xlfn.FLOOR.MATH((AL48 - AO48) / 2)</f>
         <v>456</v>
       </c>
       <c r="AT48">
-        <f t="shared" ref="AT48:AT63" si="70" xml:space="preserve"> _xlfn.FLOOR.MATH((AM48 - AP48) / 2)</f>
+        <f t="shared" ref="AT48:AT63" si="66" xml:space="preserve"> _xlfn.FLOOR.MATH((AM48 - AP48) / 2)</f>
         <v>143</v>
       </c>
       <c r="AU48" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV48">
-        <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="AW48">
-        <f t="shared" si="3"/>
-        <v>457</v>
-      </c>
-      <c r="AX48" s="10">
-        <f t="shared" si="4"/>
-        <v>143</v>
       </c>
       <c r="AY48" t="s">
         <v>240</v>
@@ -9983,7 +9463,7 @@
         <v>1</v>
       </c>
       <c r="X49">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y49">
@@ -10014,11 +9494,11 @@
         <v>6199</v>
       </c>
       <c r="AH49">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI49">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>53680.666010342022</v>
       </c>
       <c r="AJ49" s="10" t="s">
@@ -10046,31 +9526,19 @@
         <v>48</v>
       </c>
       <c r="AR49">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>14</v>
       </c>
       <c r="AS49">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>192</v>
       </c>
       <c r="AT49">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>15</v>
       </c>
       <c r="AU49" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV49">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="AW49">
-        <f t="shared" si="3"/>
-        <v>193</v>
-      </c>
-      <c r="AX49" s="10">
-        <f t="shared" si="4"/>
-        <v>15</v>
       </c>
       <c r="AY49" t="s">
         <v>239</v>
@@ -10153,7 +9621,7 @@
         <v>1</v>
       </c>
       <c r="X50">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y50">
@@ -10184,11 +9652,11 @@
         <v>58053</v>
       </c>
       <c r="AH50">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI50">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>16651.133245255118</v>
       </c>
       <c r="AJ50" s="10" t="s">
@@ -10216,31 +9684,19 @@
         <v>48</v>
       </c>
       <c r="AR50">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>30</v>
       </c>
       <c r="AS50">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>328</v>
       </c>
       <c r="AT50">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>79</v>
       </c>
       <c r="AU50" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV50">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="AW50">
-        <f t="shared" si="3"/>
-        <v>329</v>
-      </c>
-      <c r="AX50" s="10">
-        <f t="shared" si="4"/>
-        <v>79</v>
       </c>
       <c r="AY50" t="s">
         <v>240</v>
@@ -10323,7 +9779,7 @@
         <v>1</v>
       </c>
       <c r="X51">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y51">
@@ -10354,11 +9810,11 @@
         <v>76325</v>
       </c>
       <c r="AH51">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI51">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>3400.9489970451114</v>
       </c>
       <c r="AJ51" s="10" t="s">
@@ -10386,31 +9842,19 @@
         <v>48</v>
       </c>
       <c r="AR51">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>46</v>
       </c>
       <c r="AS51">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>456</v>
       </c>
       <c r="AT51">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>143</v>
       </c>
       <c r="AU51" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV51">
-        <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="AW51">
-        <f t="shared" si="3"/>
-        <v>457</v>
-      </c>
-      <c r="AX51" s="10">
-        <f t="shared" si="4"/>
-        <v>143</v>
       </c>
       <c r="AY51" t="s">
         <v>240</v>
@@ -10493,7 +9937,7 @@
         <v>1</v>
       </c>
       <c r="X52">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y52">
@@ -10524,11 +9968,11 @@
         <v>6309</v>
       </c>
       <c r="AH52">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI52">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>32811.625819411252</v>
       </c>
       <c r="AJ52" s="10" t="s">
@@ -10556,31 +10000,19 @@
         <v>48</v>
       </c>
       <c r="AR52">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>14</v>
       </c>
       <c r="AS52">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>192</v>
       </c>
       <c r="AT52">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>15</v>
       </c>
       <c r="AU52" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV52">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="AW52">
-        <f t="shared" si="3"/>
-        <v>193</v>
-      </c>
-      <c r="AX52" s="10">
-        <f t="shared" si="4"/>
-        <v>15</v>
       </c>
       <c r="AY52" t="s">
         <v>239</v>
@@ -10663,7 +10095,7 @@
         <v>1</v>
       </c>
       <c r="X53">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y53">
@@ -10694,11 +10126,11 @@
         <v>58085</v>
       </c>
       <c r="AH53">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI53">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>10593.906160359114</v>
       </c>
       <c r="AJ53" s="10" t="s">
@@ -10726,31 +10158,19 @@
         <v>48</v>
       </c>
       <c r="AR53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>30</v>
       </c>
       <c r="AS53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>328</v>
       </c>
       <c r="AT53">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>79</v>
       </c>
       <c r="AU53" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV53">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="AW53">
-        <f t="shared" si="3"/>
-        <v>329</v>
-      </c>
-      <c r="AX53" s="10">
-        <f t="shared" si="4"/>
-        <v>79</v>
       </c>
       <c r="AY53" t="s">
         <v>240</v>
@@ -10833,7 +10253,7 @@
         <v>1</v>
       </c>
       <c r="X54">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y54">
@@ -10864,11 +10284,11 @@
         <v>76325</v>
       </c>
       <c r="AH54">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI54">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>2643.7956114331109</v>
       </c>
       <c r="AJ54" s="10" t="s">
@@ -10896,31 +10316,19 @@
         <v>48</v>
       </c>
       <c r="AR54">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>46</v>
       </c>
       <c r="AS54">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>456</v>
       </c>
       <c r="AT54">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>143</v>
       </c>
       <c r="AU54" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV54">
-        <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="AW54">
-        <f t="shared" si="3"/>
-        <v>457</v>
-      </c>
-      <c r="AX54" s="10">
-        <f t="shared" si="4"/>
-        <v>143</v>
       </c>
       <c r="AY54" t="s">
         <v>240</v>
@@ -11003,7 +10411,7 @@
         <v>1</v>
       </c>
       <c r="X55">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y55">
@@ -11034,11 +10442,11 @@
         <v>6087</v>
       </c>
       <c r="AH55">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI55">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>43246.145914876637</v>
       </c>
       <c r="AJ55" s="10" t="s">
@@ -11066,31 +10474,19 @@
         <v>48</v>
       </c>
       <c r="AR55">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>14</v>
       </c>
       <c r="AS55">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>192</v>
       </c>
       <c r="AT55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>15</v>
       </c>
       <c r="AU55" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV55">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="AW55">
-        <f t="shared" si="3"/>
-        <v>193</v>
-      </c>
-      <c r="AX55" s="10">
-        <f t="shared" si="4"/>
-        <v>15</v>
       </c>
       <c r="AY55" t="s">
         <v>239</v>
@@ -11173,7 +10569,7 @@
         <v>1</v>
       </c>
       <c r="X56">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y56">
@@ -11204,11 +10600,11 @@
         <v>58019</v>
       </c>
       <c r="AH56">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI56">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>13622.519702807114</v>
       </c>
       <c r="AJ56" s="10" t="s">
@@ -11236,31 +10632,19 @@
         <v>48</v>
       </c>
       <c r="AR56">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>30</v>
       </c>
       <c r="AS56">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>328</v>
       </c>
       <c r="AT56">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>79</v>
       </c>
       <c r="AU56" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV56">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="AW56">
-        <f t="shared" si="3"/>
-        <v>329</v>
-      </c>
-      <c r="AX56" s="10">
-        <f t="shared" si="4"/>
-        <v>79</v>
       </c>
       <c r="AY56" t="s">
         <v>240</v>
@@ -11343,7 +10727,7 @@
         <v>1</v>
       </c>
       <c r="X57">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y57">
@@ -11374,11 +10758,11 @@
         <v>76313</v>
       </c>
       <c r="AH57">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI57">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>3022.3723042391107</v>
       </c>
       <c r="AJ57" s="10" t="s">
@@ -11406,31 +10790,19 @@
         <v>48</v>
       </c>
       <c r="AR57">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>46</v>
       </c>
       <c r="AS57">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>456</v>
       </c>
       <c r="AT57">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>143</v>
       </c>
       <c r="AU57" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV57">
-        <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="AW57">
-        <f t="shared" si="3"/>
-        <v>457</v>
-      </c>
-      <c r="AX57" s="10">
-        <f t="shared" si="4"/>
-        <v>143</v>
       </c>
       <c r="AY57" t="s">
         <v>240</v>
@@ -11513,7 +10885,7 @@
         <v>1</v>
       </c>
       <c r="X58">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y58">
@@ -11544,11 +10916,11 @@
         <v>6199</v>
       </c>
       <c r="AH58">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI58">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>32811.625819411252</v>
       </c>
       <c r="AJ58" s="10" t="s">
@@ -11576,31 +10948,19 @@
         <v>48</v>
       </c>
       <c r="AR58">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>14</v>
       </c>
       <c r="AS58">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>192</v>
       </c>
       <c r="AT58">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>15</v>
       </c>
       <c r="AU58" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV58">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="AW58">
-        <f t="shared" si="3"/>
-        <v>193</v>
-      </c>
-      <c r="AX58" s="10">
-        <f t="shared" si="4"/>
-        <v>15</v>
       </c>
       <c r="AY58" t="s">
         <v>239</v>
@@ -11683,7 +11043,7 @@
         <v>1</v>
       </c>
       <c r="X59">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y59">
@@ -11714,11 +11074,11 @@
         <v>58053</v>
       </c>
       <c r="AH59">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI59">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>10593.906160359114</v>
       </c>
       <c r="AJ59" s="10" t="s">
@@ -11746,31 +11106,19 @@
         <v>48</v>
       </c>
       <c r="AR59">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>30</v>
       </c>
       <c r="AS59">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>328</v>
       </c>
       <c r="AT59">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>79</v>
       </c>
       <c r="AU59" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV59">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="AW59">
-        <f t="shared" si="3"/>
-        <v>329</v>
-      </c>
-      <c r="AX59" s="10">
-        <f t="shared" si="4"/>
-        <v>79</v>
       </c>
       <c r="AY59" t="s">
         <v>240</v>
@@ -11853,7 +11201,7 @@
         <v>1</v>
       </c>
       <c r="X60">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y60">
@@ -11884,11 +11232,11 @@
         <v>76325</v>
       </c>
       <c r="AH60">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI60">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>2643.7956114331109</v>
       </c>
       <c r="AJ60" s="10" t="s">
@@ -11916,31 +11264,19 @@
         <v>48</v>
       </c>
       <c r="AR60">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>46</v>
       </c>
       <c r="AS60">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>456</v>
       </c>
       <c r="AT60">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>143</v>
       </c>
       <c r="AU60" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV60">
-        <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="AW60">
-        <f t="shared" si="3"/>
-        <v>457</v>
-      </c>
-      <c r="AX60" s="10">
-        <f t="shared" si="4"/>
-        <v>143</v>
       </c>
       <c r="AY60" t="s">
         <v>240</v>
@@ -12023,7 +11359,7 @@
         <v>1</v>
       </c>
       <c r="X61">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y61">
@@ -12054,11 +11390,11 @@
         <v>6309</v>
       </c>
       <c r="AH61">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI61">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>22377.105723945871</v>
       </c>
       <c r="AJ61" s="10" t="s">
@@ -12086,31 +11422,19 @@
         <v>48</v>
       </c>
       <c r="AR61">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>14</v>
       </c>
       <c r="AS61">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>192</v>
       </c>
       <c r="AT61">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>15</v>
       </c>
       <c r="AU61" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV61">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="AW61">
-        <f t="shared" si="3"/>
-        <v>193</v>
-      </c>
-      <c r="AX61" s="10">
-        <f t="shared" si="4"/>
-        <v>15</v>
       </c>
       <c r="AY61" t="s">
         <v>239</v>
@@ -12193,7 +11517,7 @@
         <v>1</v>
       </c>
       <c r="X62">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y62">
@@ -12224,11 +11548,11 @@
         <v>58085</v>
       </c>
       <c r="AH62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI62">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>7565.2926179111128</v>
       </c>
       <c r="AJ62" s="10" t="s">
@@ -12256,31 +11580,19 @@
         <v>48</v>
       </c>
       <c r="AR62">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>30</v>
       </c>
       <c r="AS62">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>328</v>
       </c>
       <c r="AT62">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>79</v>
       </c>
       <c r="AU62" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV62">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="AW62">
-        <f t="shared" si="3"/>
-        <v>329</v>
-      </c>
-      <c r="AX62" s="10">
-        <f t="shared" si="4"/>
-        <v>79</v>
       </c>
       <c r="AY62" t="s">
         <v>240</v>
@@ -12363,7 +11675,7 @@
         <v>1</v>
       </c>
       <c r="X63" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="Y63" s="4">
@@ -12394,11 +11706,11 @@
         <v>76325</v>
       </c>
       <c r="AH63" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>81052</v>
       </c>
       <c r="AI63" s="4">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>2265.2189186271103</v>
       </c>
       <c r="AJ63" s="29" t="s">
@@ -12426,32 +11738,21 @@
         <v>48</v>
       </c>
       <c r="AR63" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>46</v>
       </c>
       <c r="AS63" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>456</v>
       </c>
       <c r="AT63" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>143</v>
       </c>
       <c r="AU63" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AV63" s="4">
-        <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="AW63" s="4">
-        <f t="shared" si="3"/>
-        <v>457</v>
-      </c>
-      <c r="AX63" s="29">
-        <f t="shared" si="4"/>
-        <v>143</v>
-      </c>
+      <c r="AX63" s="29"/>
       <c r="AY63" s="4" t="s">
         <v>240</v>
       </c>
@@ -12600,31 +11901,19 @@
         <v>48</v>
       </c>
       <c r="AR64">
-        <f t="shared" ref="AR64" si="71" xml:space="preserve"> _xlfn.FLOOR.MATH((AK64 - AN64) / 2)</f>
+        <f t="shared" ref="AR64" si="67" xml:space="preserve"> _xlfn.FLOOR.MATH((AK64 - AN64) / 2)</f>
         <v>14</v>
       </c>
       <c r="AS64">
-        <f t="shared" ref="AS64" si="72" xml:space="preserve"> _xlfn.FLOOR.MATH((AL64 - AO64) / 2)</f>
+        <f t="shared" ref="AS64" si="68" xml:space="preserve"> _xlfn.FLOOR.MATH((AL64 - AO64) / 2)</f>
         <v>192</v>
       </c>
       <c r="AT64">
-        <f t="shared" ref="AT64" si="73" xml:space="preserve"> _xlfn.FLOOR.MATH((AM64 - AP64) / 2)</f>
+        <f t="shared" ref="AT64" si="69" xml:space="preserve"> _xlfn.FLOOR.MATH((AM64 - AP64) / 2)</f>
         <v>15</v>
       </c>
       <c r="AU64" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AV64">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="AW64">
-        <f t="shared" si="3"/>
-        <v>193</v>
-      </c>
-      <c r="AX64" s="10">
-        <f t="shared" si="4"/>
-        <v>15</v>
       </c>
       <c r="AY64" t="s">
         <v>272</v>
@@ -12700,11 +11989,11 @@
       <c r="S65" t="s">
         <v>274</v>
       </c>
-      <c r="T65" t="s">
-        <v>121</v>
+      <c r="T65">
+        <v>1</v>
       </c>
       <c r="U65" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="V65">
         <v>5</v>
@@ -12785,16 +12074,16 @@
         <v>8</v>
       </c>
       <c r="AV65">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f>AN65-AR65</f>
+        <v>40</v>
       </c>
       <c r="AW65">
-        <f t="shared" si="3"/>
-        <v>909</v>
+        <f t="shared" ref="AW65:AX65" si="70">AO65-AS65</f>
+        <v>80</v>
       </c>
       <c r="AX65" s="10">
-        <f t="shared" si="4"/>
-        <v>154</v>
+        <f t="shared" si="70"/>
+        <v>80</v>
       </c>
       <c r="AY65" t="s">
         <v>286</v>
@@ -12870,11 +12159,11 @@
       <c r="S66" t="s">
         <v>274</v>
       </c>
-      <c r="T66" t="s">
-        <v>121</v>
-      </c>
-      <c r="U66" t="s">
-        <v>121</v>
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="U66">
+        <v>156</v>
       </c>
       <c r="V66">
         <v>5</v>
@@ -12955,16 +12244,16 @@
         <v>8</v>
       </c>
       <c r="AV66">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" ref="AV66:AV73" si="71">AN66-AR66</f>
+        <v>40</v>
       </c>
       <c r="AW66">
-        <f t="shared" si="3"/>
-        <v>909</v>
+        <f t="shared" ref="AW66:AW74" si="72">AO66-AS66</f>
+        <v>80</v>
       </c>
       <c r="AX66" s="10">
-        <f t="shared" si="4"/>
-        <v>154</v>
+        <f t="shared" ref="AX66:AX74" si="73">AP66-AT66</f>
+        <v>80</v>
       </c>
       <c r="AY66" t="s">
         <v>286</v>
@@ -13040,11 +12329,11 @@
       <c r="S67" t="s">
         <v>274</v>
       </c>
-      <c r="T67" t="s">
-        <v>121</v>
-      </c>
-      <c r="U67" t="s">
-        <v>121</v>
+      <c r="T67">
+        <v>1</v>
+      </c>
+      <c r="U67">
+        <v>48</v>
       </c>
       <c r="V67">
         <v>5</v>
@@ -13125,16 +12414,16 @@
         <v>8</v>
       </c>
       <c r="AV67">
-        <f t="shared" ref="AV67:AV68" si="74">AK67-(AN67+AR67)</f>
-        <v>15</v>
+        <f t="shared" si="71"/>
+        <v>82</v>
       </c>
       <c r="AW67">
-        <f t="shared" ref="AW67:AW68" si="75">AL67-(AO67+AS67)</f>
-        <v>193</v>
+        <f t="shared" si="72"/>
+        <v>592</v>
       </c>
       <c r="AX67" s="10">
-        <f t="shared" ref="AX67:AX68" si="76">AM67-(AP67+AT67)</f>
-        <v>15</v>
+        <f t="shared" si="73"/>
+        <v>369</v>
       </c>
       <c r="AY67" t="s">
         <v>293</v>
@@ -13210,11 +12499,11 @@
       <c r="S68" t="s">
         <v>274</v>
       </c>
-      <c r="T68" t="s">
-        <v>121</v>
-      </c>
-      <c r="U68" t="s">
-        <v>121</v>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68">
+        <v>27</v>
       </c>
       <c r="V68">
         <v>5</v>
@@ -13295,16 +12584,16 @@
         <v>8</v>
       </c>
       <c r="AV68">
-        <f t="shared" si="74"/>
-        <v>5</v>
+        <f t="shared" si="71"/>
+        <v>40</v>
       </c>
       <c r="AW68">
-        <f t="shared" si="75"/>
-        <v>9</v>
+        <f t="shared" si="72"/>
+        <v>40</v>
       </c>
       <c r="AX68" s="10">
-        <f t="shared" si="76"/>
-        <v>14</v>
+        <f t="shared" si="73"/>
+        <v>48</v>
       </c>
       <c r="AY68" t="s">
         <v>302</v>
@@ -13324,31 +12613,31 @@
     </row>
     <row r="69" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>8</v>
+        <v>300</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>281</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H69" t="s">
-        <v>8</v>
-      </c>
-      <c r="I69" s="12" t="s">
-        <v>8</v>
+        <v>321</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="E69" t="s">
+        <v>324</v>
+      </c>
+      <c r="F69" s="6">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>8</v>
@@ -13374,47 +12663,47 @@
       <c r="Q69" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R69" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="S69" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="T69" t="s">
-        <v>8</v>
-      </c>
-      <c r="U69" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="V69" t="s">
-        <v>8</v>
-      </c>
-      <c r="W69" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="X69" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y69" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA69" s="12" t="s">
-        <v>8</v>
+      <c r="R69" s="20">
+        <v>0</v>
+      </c>
+      <c r="S69" t="s">
+        <v>274</v>
+      </c>
+      <c r="T69">
+        <v>1</v>
+      </c>
+      <c r="U69">
+        <v>27</v>
+      </c>
+      <c r="V69">
+        <v>5</v>
+      </c>
+      <c r="W69">
+        <v>1</v>
+      </c>
+      <c r="X69">
+        <v>6</v>
+      </c>
+      <c r="Y69">
+        <v>1</v>
+      </c>
+      <c r="Z69">
+        <v>1</v>
+      </c>
+      <c r="AA69">
+        <v>16</v>
       </c>
       <c r="AB69" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC69" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD69" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE69" s="30" t="s">
-        <v>8</v>
+        <v>98</v>
+      </c>
+      <c r="AC69">
+        <v>1</v>
+      </c>
+      <c r="AD69">
+        <v>8</v>
+      </c>
+      <c r="AE69" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="AF69" t="s">
         <v>8</v>
@@ -13425,73 +12714,76 @@
       <c r="AH69" t="s">
         <v>8</v>
       </c>
-      <c r="AI69" s="12" t="s">
-        <v>8</v>
+      <c r="AI69" t="s">
+        <v>285</v>
       </c>
       <c r="AJ69" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK69" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL69" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM69" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN69" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO69" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP69" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ69" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR69" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS69" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT69" t="s">
-        <v>8</v>
+        <v>109</v>
+      </c>
+      <c r="AK69">
+        <v>125</v>
+      </c>
+      <c r="AL69">
+        <v>1169</v>
+      </c>
+      <c r="AM69" s="20">
+        <v>414</v>
+      </c>
+      <c r="AN69">
+        <v>80</v>
+      </c>
+      <c r="AO69">
+        <v>600</v>
+      </c>
+      <c r="AP69">
+        <v>224</v>
+      </c>
+      <c r="AQ69" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR69">
+        <v>32</v>
+      </c>
+      <c r="AS69">
+        <v>288</v>
+      </c>
+      <c r="AT69">
+        <v>96</v>
       </c>
       <c r="AU69" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="AV69" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AW69" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX69" s="30" t="s">
-        <v>8</v>
+      <c r="AV69">
+        <f t="shared" si="71"/>
+        <v>48</v>
+      </c>
+      <c r="AW69">
+        <f t="shared" si="72"/>
+        <v>312</v>
+      </c>
+      <c r="AX69" s="10">
+        <f t="shared" si="73"/>
+        <v>128</v>
       </c>
       <c r="AY69" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ69" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA69" t="s">
-        <v>8</v>
-      </c>
-      <c r="BB69" s="12" t="s">
-        <v>8</v>
+        <v>304</v>
+      </c>
+      <c r="AZ69" t="s">
+        <v>307</v>
+      </c>
+      <c r="BA69">
+        <v>1</v>
+      </c>
+      <c r="BB69" t="s">
+        <v>303</v>
       </c>
       <c r="BC69" t="s">
-        <v>8</v>
+        <v>292</v>
       </c>
     </row>
     <row r="70" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B70" t="s">
         <v>281</v>
@@ -13547,11 +12839,11 @@
       <c r="S70" t="s">
         <v>274</v>
       </c>
-      <c r="T70" t="s">
-        <v>121</v>
-      </c>
-      <c r="U70" t="s">
-        <v>121</v>
+      <c r="T70">
+        <v>1</v>
+      </c>
+      <c r="U70">
+        <v>48</v>
       </c>
       <c r="V70">
         <v>5</v>
@@ -13620,34 +12912,37 @@
         <v>8</v>
       </c>
       <c r="AR70">
-        <v>32</v>
+        <f t="shared" ref="AR70" si="74" xml:space="preserve"> _xlfn.FLOOR.MATH((AK70 - AN70) / 2)</f>
+        <v>22</v>
       </c>
       <c r="AS70">
-        <v>288</v>
+        <f t="shared" ref="AS70" si="75" xml:space="preserve"> _xlfn.FLOOR.MATH((AL70 - AO70) / 2)</f>
+        <v>284</v>
       </c>
       <c r="AT70">
-        <v>96</v>
+        <f t="shared" ref="AT70" si="76" xml:space="preserve"> _xlfn.FLOOR.MATH((AM70 - AP70) / 2)</f>
+        <v>95</v>
       </c>
       <c r="AU70" s="25" t="s">
         <v>8</v>
       </c>
       <c r="AV70">
-        <f t="shared" ref="AV70" si="77">AK70-(AN70+AR70)</f>
-        <v>13</v>
+        <f t="shared" si="71"/>
+        <v>58</v>
       </c>
       <c r="AW70">
-        <f t="shared" ref="AW70" si="78">AL70-(AO70+AS70)</f>
-        <v>281</v>
+        <f t="shared" si="72"/>
+        <v>316</v>
       </c>
       <c r="AX70" s="10">
-        <f t="shared" ref="AX70" si="79">AM70-(AP70+AT70)</f>
-        <v>94</v>
+        <f t="shared" si="73"/>
+        <v>129</v>
       </c>
       <c r="AY70" t="s">
         <v>304</v>
       </c>
       <c r="AZ70" t="s">
-        <v>307</v>
+        <v>166</v>
       </c>
       <c r="BA70">
         <v>1</v>
@@ -13661,19 +12956,19 @@
     </row>
     <row r="71" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B71" t="s">
         <v>281</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E71" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F71" s="6">
         <v>0</v>
@@ -13717,11 +13012,11 @@
       <c r="S71" t="s">
         <v>274</v>
       </c>
-      <c r="T71" t="s">
-        <v>121</v>
-      </c>
-      <c r="U71" t="s">
-        <v>121</v>
+      <c r="T71">
+        <v>1</v>
+      </c>
+      <c r="U71">
+        <v>64</v>
       </c>
       <c r="V71">
         <v>5</v>
@@ -13790,37 +13085,34 @@
         <v>8</v>
       </c>
       <c r="AR71">
-        <f t="shared" ref="AR71" si="80" xml:space="preserve"> _xlfn.FLOOR.MATH((AK71 - AN71) / 2)</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AS71">
-        <f t="shared" ref="AS71" si="81" xml:space="preserve"> _xlfn.FLOOR.MATH((AL71 - AO71) / 2)</f>
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="AT71">
-        <f t="shared" ref="AT71" si="82" xml:space="preserve"> _xlfn.FLOOR.MATH((AM71 - AP71) / 2)</f>
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AU71" s="25" t="s">
         <v>8</v>
       </c>
       <c r="AV71">
-        <f t="shared" ref="AV71" si="83">AK71-(AN71+AR71)</f>
-        <v>23</v>
+        <f t="shared" si="71"/>
+        <v>64</v>
       </c>
       <c r="AW71">
-        <f t="shared" ref="AW71" si="84">AL71-(AO71+AS71)</f>
-        <v>285</v>
+        <f t="shared" si="72"/>
+        <v>328</v>
       </c>
       <c r="AX71" s="10">
-        <f t="shared" ref="AX71" si="85">AM71-(AP71+AT71)</f>
-        <v>95</v>
+        <f t="shared" si="73"/>
+        <v>144</v>
       </c>
       <c r="AY71" t="s">
         <v>304</v>
       </c>
       <c r="AZ71" t="s">
-        <v>166</v>
+        <v>308</v>
       </c>
       <c r="BA71">
         <v>1</v>
@@ -13834,19 +13126,19 @@
     </row>
     <row r="72" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B72" t="s">
         <v>281</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="E72" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F72" s="6">
         <v>0</v>
@@ -13890,11 +13182,11 @@
       <c r="S72" t="s">
         <v>274</v>
       </c>
-      <c r="T72" t="s">
-        <v>121</v>
+      <c r="T72">
+        <v>1</v>
       </c>
       <c r="U72" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="V72">
         <v>5</v>
@@ -13951,72 +13243,72 @@
         <v>414</v>
       </c>
       <c r="AN72">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="AO72">
-        <v>600</v>
+        <v>784</v>
       </c>
       <c r="AP72">
-        <v>224</v>
+        <v>384</v>
       </c>
       <c r="AQ72" s="25" t="s">
         <v>8</v>
       </c>
       <c r="AR72">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AS72">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="AT72">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AU72" s="25" t="s">
         <v>8</v>
       </c>
       <c r="AV72">
-        <f t="shared" ref="AV72" si="86">AK72-(AN72+AR72)</f>
-        <v>29</v>
+        <f t="shared" si="71"/>
+        <v>96</v>
       </c>
       <c r="AW72">
-        <f t="shared" ref="AW72" si="87">AL72-(AO72+AS72)</f>
-        <v>297</v>
+        <f t="shared" si="72"/>
+        <v>784</v>
       </c>
       <c r="AX72" s="10">
-        <f t="shared" ref="AX72" si="88">AM72-(AP72+AT72)</f>
-        <v>110</v>
+        <f t="shared" si="73"/>
+        <v>384</v>
       </c>
       <c r="AY72" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="AZ72" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="BA72">
         <v>1</v>
       </c>
       <c r="BB72" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="BC72" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
     </row>
     <row r="73" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="B73" t="s">
         <v>281</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="E73" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="F73" s="6">
         <v>0</v>
@@ -14060,11 +13352,11 @@
       <c r="S73" t="s">
         <v>274</v>
       </c>
-      <c r="T73" t="s">
-        <v>121</v>
-      </c>
-      <c r="U73" t="s">
-        <v>121</v>
+      <c r="T73">
+        <v>1</v>
+      </c>
+      <c r="U73">
+        <v>700</v>
       </c>
       <c r="V73">
         <v>5</v>
@@ -14097,13 +13389,13 @@
         <v>100</v>
       </c>
       <c r="AF73" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="AG73" s="12" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="AH73" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="AI73" t="s">
         <v>285</v>
@@ -14121,60 +13413,63 @@
         <v>414</v>
       </c>
       <c r="AN73">
-        <v>96</v>
+        <f>AN64-(AR73*2)</f>
+        <v>64</v>
       </c>
       <c r="AO73">
-        <v>784</v>
+        <f>AO64-(AS73*2)</f>
+        <v>752</v>
       </c>
       <c r="AP73">
-        <v>384</v>
+        <f>AP64-(AT73*2)</f>
+        <v>352</v>
       </c>
       <c r="AQ73" s="25" t="s">
         <v>8</v>
       </c>
       <c r="AR73">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AS73">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AT73">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AU73" s="25" t="s">
         <v>8</v>
       </c>
       <c r="AV73">
-        <f t="shared" ref="AV73:AV74" si="89">AK73-(AN73+AR73)</f>
-        <v>29</v>
+        <f t="shared" si="71"/>
+        <v>48</v>
       </c>
       <c r="AW73">
-        <f t="shared" ref="AW73:AW74" si="90">AL73-(AO73+AS73)</f>
-        <v>385</v>
+        <f t="shared" si="72"/>
+        <v>736</v>
       </c>
       <c r="AX73" s="10">
-        <f t="shared" ref="AX73:AX74" si="91">AM73-(AP73+AT73)</f>
-        <v>30</v>
+        <f t="shared" si="73"/>
+        <v>336</v>
       </c>
       <c r="AY73" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="AZ73" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="BA73">
         <v>1</v>
       </c>
       <c r="BB73" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="BC73" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
     </row>
     <row r="74" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B74" t="s">
         <v>281</v>
@@ -14230,8 +13525,8 @@
       <c r="S74" t="s">
         <v>274</v>
       </c>
-      <c r="T74" t="s">
-        <v>121</v>
+      <c r="T74">
+        <v>1</v>
       </c>
       <c r="U74" t="s">
         <v>121</v>
@@ -14290,50 +13585,47 @@
       <c r="AM74" s="20">
         <v>414</v>
       </c>
-      <c r="AN74">
-        <f>AN64-(AR74*2)</f>
-        <v>64</v>
-      </c>
-      <c r="AO74">
-        <f t="shared" ref="AO74:AP74" si="92">AO64-(AS74*2)</f>
+      <c r="AN74" s="31">
+        <v>80</v>
+      </c>
+      <c r="AO74" s="31">
         <v>752</v>
       </c>
-      <c r="AP74">
-        <f t="shared" si="92"/>
-        <v>352</v>
+      <c r="AP74" s="31">
+        <v>256</v>
       </c>
       <c r="AQ74" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="AR74">
-        <v>16</v>
-      </c>
-      <c r="AS74">
-        <v>16</v>
-      </c>
-      <c r="AT74">
-        <v>16</v>
+      <c r="AR74" s="31">
+        <v>45</v>
+      </c>
+      <c r="AS74" s="31">
+        <v>417</v>
+      </c>
+      <c r="AT74" s="31">
+        <v>158</v>
       </c>
       <c r="AU74" s="25" t="s">
         <v>8</v>
       </c>
       <c r="AV74">
-        <f t="shared" si="89"/>
-        <v>45</v>
+        <f>AN74-AR74</f>
+        <v>35</v>
       </c>
       <c r="AW74">
-        <f t="shared" si="90"/>
-        <v>401</v>
+        <f t="shared" si="72"/>
+        <v>335</v>
       </c>
       <c r="AX74" s="10">
-        <f t="shared" si="91"/>
-        <v>46</v>
+        <f t="shared" si="73"/>
+        <v>98</v>
       </c>
       <c r="AY74" t="s">
-        <v>327</v>
+        <v>121</v>
       </c>
       <c r="AZ74" t="s">
-        <v>328</v>
+        <v>121</v>
       </c>
       <c r="BA74" t="s">
         <v>121</v>
@@ -14345,170 +13637,340 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="75" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B75" t="s">
         <v>281</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C75" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G75" t="s">
+        <v>121</v>
+      </c>
+      <c r="H75" t="s">
+        <v>121</v>
+      </c>
+      <c r="I75" t="s">
+        <v>121</v>
+      </c>
+      <c r="J75" t="s">
+        <v>121</v>
+      </c>
+      <c r="K75" t="s">
+        <v>121</v>
+      </c>
+      <c r="L75" t="s">
+        <v>121</v>
+      </c>
+      <c r="M75" t="s">
+        <v>121</v>
+      </c>
+      <c r="N75" t="s">
+        <v>121</v>
+      </c>
+      <c r="O75" t="s">
+        <v>121</v>
+      </c>
+      <c r="P75" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q75" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="R75" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="S75" t="s">
+        <v>274</v>
+      </c>
+      <c r="T75">
+        <v>1</v>
+      </c>
+      <c r="U75" t="s">
+        <v>121</v>
+      </c>
+      <c r="V75">
+        <v>5</v>
+      </c>
+      <c r="W75">
+        <v>1</v>
+      </c>
+      <c r="X75">
+        <v>6</v>
+      </c>
+      <c r="Y75">
+        <v>1</v>
+      </c>
+      <c r="Z75">
+        <v>1</v>
+      </c>
+      <c r="AA75">
+        <v>16</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC75">
+        <v>1</v>
+      </c>
+      <c r="AD75">
+        <v>8</v>
+      </c>
+      <c r="AE75" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG75" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>285</v>
+      </c>
+      <c r="AJ75" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK75">
+        <v>125</v>
+      </c>
+      <c r="AL75">
+        <v>1169</v>
+      </c>
+      <c r="AM75" s="20">
+        <v>414</v>
+      </c>
+      <c r="AN75" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO75" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP75" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ75" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR75" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS75" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT75" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU75" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV75" t="e">
+        <f>AN75-AR75</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW75" t="e">
+        <f t="shared" ref="AW75" si="77">AO75-AS75</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX75" s="10" t="e">
+        <f t="shared" ref="AX75" si="78">AP75-AT75</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY75" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ75" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA75" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB75" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC75" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83" t="s">
+        <v>281</v>
+      </c>
+      <c r="C83" t="s">
         <v>310</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D83" t="s">
         <v>121</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E83" t="s">
         <v>121</v>
       </c>
-      <c r="F77" s="6" t="s">
+      <c r="F83" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G83" t="s">
         <v>121</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H83" t="s">
         <v>121</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I83" t="s">
         <v>121</v>
       </c>
-      <c r="J77" t="s">
+      <c r="J83" t="s">
         <v>121</v>
       </c>
-      <c r="K77" t="s">
+      <c r="K83" t="s">
         <v>121</v>
       </c>
-      <c r="L77" t="s">
+      <c r="L83" t="s">
         <v>121</v>
       </c>
-      <c r="M77" t="s">
+      <c r="M83" t="s">
         <v>121</v>
       </c>
-      <c r="N77" t="s">
+      <c r="N83" t="s">
         <v>121</v>
       </c>
-      <c r="O77" t="s">
+      <c r="O83" t="s">
         <v>121</v>
       </c>
-      <c r="P77" t="s">
+      <c r="P83" t="s">
         <v>121</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="Q83" t="s">
         <v>121</v>
       </c>
-      <c r="R77" s="20" t="s">
+      <c r="R83" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="S77" t="s">
+      <c r="S83" t="s">
         <v>121</v>
       </c>
-      <c r="T77" t="s">
+      <c r="T83" t="s">
         <v>121</v>
       </c>
-      <c r="U77" t="s">
+      <c r="U83" t="s">
         <v>121</v>
       </c>
-      <c r="V77" t="s">
+      <c r="V83" t="s">
         <v>121</v>
       </c>
-      <c r="W77" t="s">
+      <c r="W83" t="s">
         <v>121</v>
       </c>
-      <c r="X77" t="s">
+      <c r="X83" t="s">
         <v>121</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Y83" t="s">
         <v>121</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Z83" t="s">
         <v>121</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AA83" t="s">
         <v>121</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AB83" t="s">
         <v>121</v>
       </c>
-      <c r="AC77" t="s">
+      <c r="AC83" t="s">
         <v>121</v>
       </c>
-      <c r="AD77" t="s">
+      <c r="AD83" t="s">
         <v>121</v>
       </c>
-      <c r="AE77" s="10" t="s">
+      <c r="AE83" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="AF77" t="s">
+      <c r="AF83" t="s">
         <v>121</v>
       </c>
-      <c r="AG77" t="s">
+      <c r="AG83" t="s">
         <v>121</v>
       </c>
-      <c r="AH77" t="s">
+      <c r="AH83" t="s">
         <v>121</v>
       </c>
-      <c r="AI77" t="s">
+      <c r="AI83" t="s">
         <v>121</v>
       </c>
-      <c r="AJ77" s="10" t="s">
+      <c r="AJ83" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="AK77" t="s">
+      <c r="AK83" t="s">
         <v>121</v>
       </c>
-      <c r="AL77" t="s">
+      <c r="AL83" t="s">
         <v>121</v>
       </c>
-      <c r="AM77" s="20" t="s">
+      <c r="AM83" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="AN77" t="s">
+      <c r="AN83" t="s">
         <v>121</v>
       </c>
-      <c r="AO77" t="s">
+      <c r="AO83" t="s">
         <v>121</v>
       </c>
-      <c r="AP77" t="s">
+      <c r="AP83" t="s">
         <v>121</v>
       </c>
-      <c r="AQ77" s="20" t="s">
+      <c r="AQ83" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="AR77" t="s">
+      <c r="AR83" t="s">
         <v>121</v>
       </c>
-      <c r="AS77" t="s">
+      <c r="AS83" t="s">
         <v>121</v>
       </c>
-      <c r="AT77" t="s">
+      <c r="AT83" t="s">
         <v>121</v>
       </c>
-      <c r="AU77" s="20" t="s">
+      <c r="AU83" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="AV77" t="s">
+      <c r="AV83" t="s">
         <v>121</v>
       </c>
-      <c r="AW77" t="s">
+      <c r="AW83" t="s">
         <v>121</v>
       </c>
-      <c r="AX77" s="10" t="s">
+      <c r="AX83" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="AY77" t="s">
+      <c r="AY83" t="s">
         <v>121</v>
       </c>
-      <c r="AZ77" t="s">
+      <c r="AZ83" t="s">
         <v>309</v>
       </c>
-      <c r="BA77" t="s">
+      <c r="BA83" t="s">
         <v>121</v>
       </c>
-      <c r="BB77" t="s">
+      <c r="BB83" t="s">
         <v>121</v>
       </c>
-      <c r="BC77" t="s">
+      <c r="BC83" t="s">
         <v>121</v>
       </c>
     </row>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65881D31-E9FD-4CD6-A17A-5D1C177136F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2EAA5D-9C0D-4006-8F05-7BB0B38A1D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2505" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="335">
   <si>
     <t>patch z</t>
   </si>
@@ -1574,22 +1574,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
   <dimension ref="A1:BC83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="AZ56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BB74" sqref="BB74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="64.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="14.5703125" style="6" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="8.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="30.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="9.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="33" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="64.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="14.5703125" style="6" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="33" customWidth="1"/>
     <col min="11" max="17" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="18" max="18" width="9.140625" style="20" collapsed="1"/>
     <col min="19" max="19" width="12.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -13627,8 +13627,8 @@
       <c r="AZ74" t="s">
         <v>121</v>
       </c>
-      <c r="BA74" t="s">
-        <v>121</v>
+      <c r="BA74">
+        <v>1</v>
       </c>
       <c r="BB74" t="s">
         <v>121</v>

--- a/3dunet session annotations.xlsx
+++ b/3dunet session annotations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2EAA5D-9C0D-4006-8F05-7BB0B38A1D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344822F9-7302-4FB4-B016-6C1012839167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2505" windowWidth="21840" windowHeight="13740" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5A38CEB4-EA53-422C-BFAF-71A244E8F13D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="347">
   <si>
     <t>patch z</t>
   </si>
@@ -966,12 +966,6 @@
     <t>stride &lt;= floor (resolution - patch) / 2, round down to largest int_2^3 (=multiple*2^3)</t>
   </si>
   <si>
-    <t>stride &gt;= patch / 2, stride &lt;= floor (resolution - patch) / 2, round down to largest int_2^3 (=multiple*2^3)</t>
-  </si>
-  <si>
-    <t>another patch/stride idea</t>
-  </si>
-  <si>
     <t>231010-0</t>
   </si>
   <si>
@@ -1029,9 +1023,6 @@
     <t>I expect the patch stride shape combination to be invalid (stride can not be 0).</t>
   </si>
   <si>
-    <t>TBD (Success in patch &amp;/ stride shapes are valid. Failure if not. Double success if there are no other errors &amp; there are segmentations, now.)</t>
-  </si>
-  <si>
     <t>231017-0</t>
   </si>
   <si>
@@ -1042,6 +1033,51 @@
   </si>
   <si>
     <t>Failure: Error, invalid patch shape &amp;/ invalid stride shape (torch.size error). A predict3dunet output line says "The shape of the output prediction maps (CDHW): (1, 125, 1169, 414)", and there are 700 patches. Therefore, predict3dunet tries to segment the whole image. I will try with the same patch shape used for training this model.</t>
+  </si>
+  <si>
+    <t>231018-0</t>
+  </si>
+  <si>
+    <t>Explore sample data regarding predict3dunet valid patch &amp; stride shapes.</t>
+  </si>
+  <si>
+    <t>I expect, however illogical based on my current knowledge, that it seems to be easier to pick valid patch &amp; stride shapes than with my own datasets.</t>
+  </si>
+  <si>
+    <t>TBD (Success if patch &amp;/ stride shapes are valid. Failure if not. Double success if there are no other errors &amp; there are segmentations, now.)</t>
+  </si>
+  <si>
+    <t>…continueing with datasets.</t>
+  </si>
+  <si>
+    <t>patch &gt; size / 2, patch = arbitrary</t>
+  </si>
+  <si>
+    <t>stride &gt;= patch / 2, stride &lt; patch, n(:=1) * stride + patch = size, no decimal numbers, rest = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    raise ValueError((</t>
+  </si>
+  <si>
+    <t>ValueError: requested an output size of torch.Size([11, 95, 33]), but valid sizes range from [9, 93, 31] to [10, 94, 32] (for an input of torch.Size([5, 47, 16]))</t>
+  </si>
+  <si>
+    <t>partial Success: The number of patches is as I expected. overall Failure: Error, invalid patch shape &amp;/ invalid stride shape (torch.size error). At this point, I have no clue how to specify patch &amp;/ stride shape. I will look at the sample data which are known to work in train3dunet and predict3dunet and reconstruct valid patch &amp; stride shapes for predict3dunet from these sessions.</t>
+  </si>
+  <si>
+    <t>TBD (Success if something came out as expected, including error messages. Failure if I do not understand what happened. Generally, failure if invalid patch shape &amp;/ invalid stride shape. Success if the run works but I do not understand why. Double success if I expect the run to work and it works.)</t>
+  </si>
+  <si>
+    <t>231018-1</t>
+  </si>
+  <si>
+    <t>Train a model on sample data.</t>
+  </si>
+  <si>
+    <t>I expect to get a working model on the sample data.</t>
+  </si>
+  <si>
+    <t>TBD (Success if it looks good. Failure if not.)</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1213,11 +1249,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1257,6 +1385,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1572,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A205867-9158-4A30-AB8D-184C978ABB6F}">
-  <dimension ref="A1:BC83"/>
+  <dimension ref="A1:BC82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BB74" sqref="BB74"/>
+    <sheetView tabSelected="1" topLeftCell="AH40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AX68" sqref="AX68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1590,22 +1742,21 @@
     <col min="8" max="8" width="30.7109375" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="9.42578125" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
-    <col min="11" max="17" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="9.140625" style="20" collapsed="1"/>
-    <col min="19" max="19" width="12.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="9.140625" collapsed="1"/>
-    <col min="22" max="22" width="6.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="5.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="11.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="6" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="14.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="7.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="8.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="15.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="7.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="9.7109375" style="10" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="17" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="9.140625" style="20"/>
+    <col min="19" max="19" width="12.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="6.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="5.140625" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="11.140625" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="6" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="14.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="7.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="8.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="15.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="7.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="9.7109375" style="10" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="16.7109375" customWidth="1"/>
     <col min="33" max="34" width="14.85546875" customWidth="1"/>
     <col min="35" max="35" width="21" customWidth="1"/>
     <col min="36" max="36" width="26.28515625" style="10" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -1625,7 +1776,7 @@
     <col min="51" max="51" width="74.85546875" customWidth="1" outlineLevel="1"/>
     <col min="52" max="52" width="74.42578125" customWidth="1" outlineLevel="1"/>
     <col min="53" max="53" width="5.140625" customWidth="1"/>
-    <col min="54" max="54" width="73.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="54" width="135.28515625" customWidth="1" outlineLevel="1"/>
     <col min="55" max="55" width="206" customWidth="1" outlineLevel="1"/>
     <col min="56" max="56" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -1777,13 +1928,13 @@
         <v>53</v>
       </c>
       <c r="AV1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AX1" s="26" t="s">
         <v>314</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AX1" s="26" t="s">
-        <v>316</v>
       </c>
       <c r="AY1" s="1" t="s">
         <v>23</v>
@@ -5628,10 +5779,10 @@
       <c r="AU25" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AV25" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="AW25" s="31" t="s">
+      <c r="AV25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW25" t="s">
         <v>8</v>
       </c>
       <c r="AX25" s="10" t="s">
@@ -11769,165 +11920,166 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
+    <row r="64" spans="1:55" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="F64" s="6">
-        <v>1</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>1</v>
-      </c>
-      <c r="P64" t="s">
+      <c r="F64" s="34">
+        <v>1</v>
+      </c>
+      <c r="G64" s="33">
+        <v>0</v>
+      </c>
+      <c r="H64" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" s="33">
+        <v>0</v>
+      </c>
+      <c r="J64" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="K64" s="33">
+        <v>1</v>
+      </c>
+      <c r="L64" s="33">
+        <v>1</v>
+      </c>
+      <c r="M64" s="33">
+        <v>1</v>
+      </c>
+      <c r="N64" s="33">
+        <v>1</v>
+      </c>
+      <c r="O64" s="33">
+        <v>1</v>
+      </c>
+      <c r="P64" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="Q64" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="R64" s="20">
-        <v>1</v>
-      </c>
-      <c r="S64" t="s">
+      <c r="R64" s="36">
+        <v>1</v>
+      </c>
+      <c r="S64" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="T64">
+      <c r="T64" s="33">
         <v>6</v>
       </c>
-      <c r="U64">
+      <c r="U64" s="33">
         <v>6</v>
       </c>
-      <c r="V64">
+      <c r="V64" s="33">
         <v>5</v>
       </c>
-      <c r="W64">
-        <v>1</v>
-      </c>
-      <c r="X64">
+      <c r="W64" s="33">
+        <v>1</v>
+      </c>
+      <c r="X64" s="33">
         <v>6</v>
       </c>
-      <c r="Y64">
-        <v>1</v>
-      </c>
-      <c r="Z64">
-        <v>1</v>
-      </c>
-      <c r="AA64">
+      <c r="Y64" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z64" s="33">
+        <v>1</v>
+      </c>
+      <c r="AA64" s="33">
         <v>16</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AB64" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="AC64">
-        <v>1</v>
-      </c>
-      <c r="AD64">
-        <v>8</v>
-      </c>
-      <c r="AE64" s="10" t="s">
+      <c r="AC64" s="33">
+        <v>1</v>
+      </c>
+      <c r="AD64" s="33">
+        <v>8</v>
+      </c>
+      <c r="AE64" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="AF64" t="s">
+      <c r="AF64" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="AG64" t="s">
+      <c r="AG64" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="AH64" t="s">
+      <c r="AH64" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="AI64">
+      <c r="AI64" s="33">
         <f xml:space="preserve"> 1508.06553301511 + 0.00210606006752809 * (AN64*AO64*AP64) * (X64 / 5) + 441</f>
         <v>74990.706201272769</v>
       </c>
-      <c r="AJ64" s="10" t="s">
+      <c r="AJ64" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="AK64">
+      <c r="AK64" s="33">
         <v>125</v>
       </c>
-      <c r="AL64">
+      <c r="AL64" s="33">
         <v>1169</v>
       </c>
-      <c r="AM64" s="20">
+      <c r="AM64" s="36">
         <v>414</v>
       </c>
-      <c r="AN64">
+      <c r="AN64" s="33">
         <v>96</v>
       </c>
-      <c r="AO64">
+      <c r="AO64" s="33">
         <v>784</v>
       </c>
-      <c r="AP64">
+      <c r="AP64" s="33">
         <v>384</v>
       </c>
-      <c r="AQ64" s="20" t="s">
+      <c r="AQ64" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="AR64">
+      <c r="AR64" s="33">
         <f t="shared" ref="AR64" si="67" xml:space="preserve"> _xlfn.FLOOR.MATH((AK64 - AN64) / 2)</f>
         <v>14</v>
       </c>
-      <c r="AS64">
+      <c r="AS64" s="33">
         <f t="shared" ref="AS64" si="68" xml:space="preserve"> _xlfn.FLOOR.MATH((AL64 - AO64) / 2)</f>
         <v>192</v>
       </c>
-      <c r="AT64">
+      <c r="AT64" s="33">
         <f t="shared" ref="AT64" si="69" xml:space="preserve"> _xlfn.FLOOR.MATH((AM64 - AP64) / 2)</f>
         <v>15</v>
       </c>
-      <c r="AU64" s="20" t="s">
+      <c r="AU64" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="AY64" t="s">
+      <c r="AX64" s="37"/>
+      <c r="AY64" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="AZ64" t="s">
+      <c r="AZ64" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="BA64">
-        <v>0</v>
-      </c>
-      <c r="BB64" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC64" s="13" t="s">
+      <c r="BA64" s="33">
+        <v>0</v>
+      </c>
+      <c r="BB64" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC64" s="35" t="s">
         <v>8</v>
       </c>
     </row>
@@ -12279,10 +12431,10 @@
         <v>281</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E67" t="s">
         <v>298</v>
@@ -12449,13 +12601,13 @@
         <v>281</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E68" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F68" s="6">
         <v>0</v>
@@ -12619,13 +12771,13 @@
         <v>281</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E69" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F69" s="6">
         <v>0</v>
@@ -12789,13 +12941,13 @@
         <v>281</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E70" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F70" s="6">
         <v>0</v>
@@ -12962,13 +13114,13 @@
         <v>281</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D71" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E71" t="s">
         <v>323</v>
-      </c>
-      <c r="E71" t="s">
-        <v>325</v>
       </c>
       <c r="F71" s="6">
         <v>0</v>
@@ -13126,19 +13278,19 @@
     </row>
     <row r="72" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B72" t="s">
         <v>281</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E72" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F72" s="6">
         <v>0</v>
@@ -13282,33 +13434,33 @@
         <v>293</v>
       </c>
       <c r="AZ72" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="BA72">
         <v>1</v>
       </c>
       <c r="BB72" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="BC72" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="73" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B73" t="s">
         <v>281</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E73" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F73" s="6">
         <v>0</v>
@@ -13389,13 +13541,13 @@
         <v>100</v>
       </c>
       <c r="AF73" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="AG73" s="12" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="AH73" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="AI73" t="s">
         <v>285</v>
@@ -13452,211 +13604,211 @@
         <v>336</v>
       </c>
       <c r="AY73" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AZ73" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="BA73">
         <v>1</v>
       </c>
       <c r="BB73" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="BC73" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="74" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="B74" t="s">
+    <row r="74" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C74" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G74" t="s">
-        <v>121</v>
-      </c>
-      <c r="H74" t="s">
-        <v>121</v>
-      </c>
-      <c r="I74" t="s">
-        <v>121</v>
-      </c>
-      <c r="J74" t="s">
-        <v>121</v>
-      </c>
-      <c r="K74" t="s">
-        <v>121</v>
-      </c>
-      <c r="L74" t="s">
-        <v>121</v>
-      </c>
-      <c r="M74" t="s">
-        <v>121</v>
-      </c>
-      <c r="N74" t="s">
-        <v>121</v>
-      </c>
-      <c r="O74" t="s">
-        <v>121</v>
-      </c>
-      <c r="P74" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q74" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="R74" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="S74" t="s">
+      <c r="C74" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F74" s="7">
+        <v>0</v>
+      </c>
+      <c r="G74" s="4">
+        <v>1</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="I74" s="4">
+        <v>0</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K74" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M74" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O74" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="P74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q74" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="R74" s="22">
+        <v>0</v>
+      </c>
+      <c r="S74" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="T74">
-        <v>1</v>
-      </c>
-      <c r="U74" t="s">
-        <v>121</v>
-      </c>
-      <c r="V74">
+      <c r="T74" s="4">
+        <v>1</v>
+      </c>
+      <c r="U74" s="4">
+        <v>8</v>
+      </c>
+      <c r="V74" s="4">
         <v>5</v>
       </c>
-      <c r="W74">
-        <v>1</v>
-      </c>
-      <c r="X74">
+      <c r="W74" s="4">
+        <v>1</v>
+      </c>
+      <c r="X74" s="4">
         <v>6</v>
       </c>
-      <c r="Y74">
-        <v>1</v>
-      </c>
-      <c r="Z74">
-        <v>1</v>
-      </c>
-      <c r="AA74">
+      <c r="Y74" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA74" s="4">
         <v>16</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AB74" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AC74">
-        <v>1</v>
-      </c>
-      <c r="AD74">
-        <v>8</v>
-      </c>
-      <c r="AE74" s="10" t="s">
+      <c r="AC74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD74" s="4">
+        <v>8</v>
+      </c>
+      <c r="AE74" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="AF74" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG74" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH74" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI74" t="s">
+      <c r="AF74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG74" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI74" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="AJ74" s="10" t="s">
+      <c r="AJ74" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="AK74">
+      <c r="AK74" s="4">
         <v>125</v>
       </c>
-      <c r="AL74">
+      <c r="AL74" s="4">
         <v>1169</v>
       </c>
-      <c r="AM74" s="20">
+      <c r="AM74" s="22">
         <v>414</v>
       </c>
-      <c r="AN74" s="31">
+      <c r="AN74" s="4">
         <v>80</v>
       </c>
-      <c r="AO74" s="31">
+      <c r="AO74" s="4">
         <v>752</v>
       </c>
-      <c r="AP74" s="31">
+      <c r="AP74" s="4">
         <v>256</v>
       </c>
-      <c r="AQ74" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR74" s="31">
+      <c r="AQ74" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR74" s="4">
         <v>45</v>
       </c>
-      <c r="AS74" s="31">
+      <c r="AS74" s="4">
         <v>417</v>
       </c>
-      <c r="AT74" s="31">
+      <c r="AT74" s="4">
         <v>158</v>
       </c>
-      <c r="AU74" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV74">
+      <c r="AU74" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV74" s="4">
         <f>AN74-AR74</f>
         <v>35</v>
       </c>
-      <c r="AW74">
+      <c r="AW74" s="4">
         <f t="shared" si="72"/>
         <v>335</v>
       </c>
-      <c r="AX74" s="10">
+      <c r="AX74" s="29">
         <f t="shared" si="73"/>
         <v>98</v>
       </c>
-      <c r="AY74" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ74" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA74">
-        <v>1</v>
-      </c>
-      <c r="BB74" t="s">
-        <v>121</v>
-      </c>
-      <c r="BC74" t="s">
-        <v>121</v>
+      <c r="AY74" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="AZ74" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="BA74" s="4">
+        <v>1</v>
+      </c>
+      <c r="BB74" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="BC74" s="4" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="75" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B75" t="s">
-        <v>281</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>330</v>
+      <c r="A75" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="B75" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="D75" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="E75" s="44" t="s">
+        <v>346</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="44" t="s">
         <v>121</v>
       </c>
       <c r="H75" t="s">
@@ -13686,110 +13838,107 @@
       <c r="P75" t="s">
         <v>121</v>
       </c>
-      <c r="Q75" s="12" t="s">
+      <c r="Q75" t="s">
         <v>121</v>
       </c>
       <c r="R75" s="20" t="s">
         <v>121</v>
       </c>
       <c r="S75" t="s">
-        <v>274</v>
-      </c>
-      <c r="T75">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="T75" t="s">
+        <v>121</v>
       </c>
       <c r="U75" t="s">
         <v>121</v>
       </c>
-      <c r="V75">
-        <v>5</v>
-      </c>
-      <c r="W75">
-        <v>1</v>
-      </c>
-      <c r="X75">
-        <v>6</v>
-      </c>
-      <c r="Y75">
-        <v>1</v>
-      </c>
-      <c r="Z75">
-        <v>1</v>
-      </c>
-      <c r="AA75">
-        <v>16</v>
+      <c r="V75" t="s">
+        <v>121</v>
+      </c>
+      <c r="W75" t="s">
+        <v>121</v>
+      </c>
+      <c r="X75" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>121</v>
       </c>
       <c r="AB75" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC75">
-        <v>1</v>
-      </c>
-      <c r="AD75">
-        <v>8</v>
-      </c>
-      <c r="AE75" s="10" t="s">
-        <v>100</v>
+        <v>121</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>121</v>
       </c>
       <c r="AF75" t="s">
         <v>121</v>
       </c>
-      <c r="AG75" s="12" t="s">
+      <c r="AG75" t="s">
         <v>121</v>
       </c>
       <c r="AH75" t="s">
         <v>121</v>
       </c>
       <c r="AI75" t="s">
-        <v>285</v>
-      </c>
-      <c r="AJ75" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK75">
-        <v>125</v>
-      </c>
-      <c r="AL75">
-        <v>1169</v>
-      </c>
-      <c r="AM75" s="20">
-        <v>414</v>
-      </c>
-      <c r="AN75" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="AO75" s="31" t="s">
+      <c r="AJ75" t="s">
         <v>121</v>
       </c>
-      <c r="AP75" s="31" t="s">
+      <c r="AK75" t="s">
         <v>121</v>
       </c>
-      <c r="AQ75" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR75" s="31" t="s">
+      <c r="AL75" t="s">
         <v>121</v>
       </c>
-      <c r="AS75" s="31" t="s">
+      <c r="AM75" t="s">
         <v>121</v>
       </c>
-      <c r="AT75" s="31" t="s">
+      <c r="AN75" t="s">
         <v>121</v>
       </c>
-      <c r="AU75" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV75" t="e">
-        <f>AN75-AR75</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AW75" t="e">
-        <f t="shared" ref="AW75" si="77">AO75-AS75</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AX75" s="10" t="e">
-        <f t="shared" ref="AX75" si="78">AP75-AT75</f>
-        <v>#VALUE!</v>
+      <c r="AO75" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP75" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ75" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR75" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS75" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT75" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU75" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV75" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW75" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX75" t="s">
+        <v>121</v>
       </c>
       <c r="AY75" t="s">
         <v>121</v>
@@ -13807,171 +13956,354 @@
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="76" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="B76" t="s">
+        <v>281</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="F76" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B83" t="s">
+      <c r="G76" t="s">
+        <v>121</v>
+      </c>
+      <c r="H76" t="s">
+        <v>121</v>
+      </c>
+      <c r="I76" t="s">
+        <v>121</v>
+      </c>
+      <c r="J76" t="s">
+        <v>121</v>
+      </c>
+      <c r="K76" t="s">
+        <v>121</v>
+      </c>
+      <c r="L76" t="s">
+        <v>121</v>
+      </c>
+      <c r="M76" t="s">
+        <v>121</v>
+      </c>
+      <c r="N76" t="s">
+        <v>121</v>
+      </c>
+      <c r="O76" t="s">
+        <v>121</v>
+      </c>
+      <c r="P76" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q76" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="R76" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="S76" t="s">
+        <v>274</v>
+      </c>
+      <c r="T76">
+        <v>1</v>
+      </c>
+      <c r="U76" t="s">
+        <v>121</v>
+      </c>
+      <c r="V76">
+        <v>5</v>
+      </c>
+      <c r="W76">
+        <v>1</v>
+      </c>
+      <c r="X76">
+        <v>6</v>
+      </c>
+      <c r="Y76">
+        <v>1</v>
+      </c>
+      <c r="Z76">
+        <v>1</v>
+      </c>
+      <c r="AA76">
+        <v>16</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC76">
+        <v>1</v>
+      </c>
+      <c r="AD76">
+        <v>8</v>
+      </c>
+      <c r="AE76" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG76" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>285</v>
+      </c>
+      <c r="AJ76" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK76">
+        <v>125</v>
+      </c>
+      <c r="AL76">
+        <v>1169</v>
+      </c>
+      <c r="AM76" s="20">
+        <v>414</v>
+      </c>
+      <c r="AN76" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO76" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP76" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ76" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR76" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS76" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT76" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU76" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV76" t="e">
+        <f>AN76-AR76</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW76" t="e">
+        <f t="shared" ref="AW76" si="77">AO76-AS76</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX76" s="10" t="e">
+        <f t="shared" ref="AX76" si="78">AP76-AT76</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY76" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ76" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA76" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB76" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC76" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BB78" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:55" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" s="39" t="s">
         <v>281</v>
       </c>
-      <c r="C83" t="s">
-        <v>310</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="C81" 